--- a/ISO_8601_LambdaModule.xlsx
+++ b/ISO_8601_LambdaModule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb3931c8741440f/Projects/Datachord/Excel-Lambda-Calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61113" documentId="8_{DFA77A6B-FBDE-4886-B468-047A0C0C0603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC449AC-B9DF-4108-A313-1828890AB60D}"/>
+  <xr:revisionPtr revIDLastSave="74761" documentId="8_{DFA77A6B-FBDE-4886-B468-047A0C0C0603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{337F5902-C52C-44F7-A7D1-93D5A3C10C2D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E51D3FA6-F220-43B2-A131-7A848E5BABC5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E51D3FA6-F220-43B2-A131-7A848E5BABC5}"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_8601_Logical" sheetId="1" r:id="rId1"/>
@@ -38,11 +38,11 @@
     <definedName name="ISO_8601.IS_VALID_WEEK_DATE">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Week,_xlpm.DayOfWeek,_xlop.DayOfWeekMandatory, IF(NOT(ISO_8601.IS_VALID_YEAR(_xlpm.YearCE)) + NOT(ISNUMBER(_xlpm.Week)), FALSE, _xlfn.LET(_xlpm._ommitDoW, NOT(ISNUMBER(_xlpm.DayOfWeek)), IF((N(_xlpm.DayOfWeekMandatory) &lt;&gt; 0) * _xlpm._ommitDoW, FALSE, _xlfn.LET(_xlpm._week, INT(_xlpm.Week), IF(((_xlpm._week &gt;= 1) * (_xlpm._week &lt;= ISO_8601.YEAR_WEEK_COUNT(_xlpm.YearCE))) = 0, FALSE, IF(_xlpm._ommitDoW, TRUE, IF(_xlpm.Week &lt;&gt; _xlpm._week, FALSE, _xlfn.LET(_xlpm._dow, INT(_xlpm.DayOfWeek), ((_xlpm._dow &gt;= 1) * (_xlpm._dow &lt;= 7)) &lt;&gt; 0)))))))))</definedName>
     <definedName name="ISO_8601.IS_VALID_YEAR">_xlfn.LAMBDA(_xlpm.YearCE,_xlop.AllowDecimal, _xlfn.IFS(NOT(ISNUMBER(_xlpm.YearCE)), FALSE, (N(_xlpm.AllowDecimal) = 0) * (_xlpm.YearCE &lt;&gt; INT(_xlpm.YearCE)), FALSE, TRUE, ABS(_xlpm.YearCE) &lt; 100000))</definedName>
     <definedName name="ISO_8601.ISO_TO_DATE">_xlfn.LAMBDA(_xlpm.Text,_xlop.ReturnTimeZoneOffset, _xlfn.LET(_xlpm.fnException, _xlfn.LAMBDA(_xlpm._e,_xlpm._f, _xlfn.IFS(ISNA(_xlpm._e), IF(_xlpm._f, {#N/A,#N/A}, #N/A), ISERR(_xlpm._e), IF(_xlpm._f, {#VALUE!,#VALUE!}, #VALUE!), _xlpm._e = "", IF(_xlpm._f, {"",""}, ""))), _xlpm._fTZO, N(_xlpm.ReturnTimeZoneOffset) &lt;&gt; 0, IF(_xlpm.Text = "", _xlpm.fnException("", _xlpm._fTZO), _xlfn.LET(_xlpm._elements, ISO_8601.PARSE_DATE_TIME(_xlpm.Text), _xlfn.IFS(TRUE, _xlfn.LET(_xlpm._dateType, INDEX(_xlpm._elements, 1, 1), _xlpm._hasTime, (ISNUMBER(INDEX(_xlpm._elements, 1, 5)) + ISNUMBER(INDEX(_xlpm._elements, 1, 6)) + ISNUMBER(INDEX(_xlpm._elements, 1, 7))) &lt;&gt; 0, _xlpm._hasTimeZone, ISNUMBER(INDEX(_xlpm._elements, 1, 8)), _xlpm._year, N(INDEX(_xlpm._elements, 1, 2)), _xlpm._date, _xlfn.IFS(ISERROR(_xlpm._year), #VALUE!, _xlpm._dateType = 0, 0, (_xlpm._dateType &gt; 0) * ((_xlpm._year &lt; 1900) + (_xlpm._year &gt; 9999)), #VALUE!, _xlpm._dateType = 1, DATE(_xlpm._year, N(INDEX(_xlpm._elements, 1, 3)), N(INDEX(_xlpm._elements, 1, 4))), _xlpm._dateType = 2, _xlfn.LET(_xlpm._cDate, ISO_8601.FROM_ORDINAL_DATE(_xlpm._year, N(INDEX(_xlpm._elements, 1, 4))), DATE(INDEX(_xlpm._cDate, 1, 1), INDEX(_xlpm._cDate, 1, 2), INDEX(_xlpm._cDate, 1, 3))), _xlpm._dateType = 3, _xlfn.LET(_xlpm._cDate, ISO_8601.FROM_WEEK_DATE(_xlpm._year, N(INDEX(_xlpm._elements, 1, 3)), N(INDEX(_xlpm._elements, 1, 4))), DATE(INDEX(_xlpm._cDate, 1, 1), INDEX(_xlpm._cDate, 1, 2), INDEX(_xlpm._cDate, 1, 3)))), _xlpm._time, IF(_xlpm._hasTime, TIME(N(INDEX(_xlpm._elements, 1, 5)), N(INDEX(_xlpm._elements, 1, 6)), N(INDEX(_xlpm._elements, 1, 7))), 0), _xlpm._dt, _xlpm._date + _xlpm._time, IF(_xlpm._fTZO, _xlfn.LET(_xlpm._tzo, IF(_xlpm._hasTimeZone, INDEX(_xlpm._elements, 1, 8), ""), _xlfn.HSTACK(_xlpm._dt, _xlpm._tzo)), _xlpm._dt)))))))</definedName>
-    <definedName name="ISO_8601.PARSE_DATE">_xlfn.LAMBDA(_xlpm.Text,_xlop.Extended, _xlfn.LET(_xlpm._fmtHashTable, {16384,1,1,3,4,0,0,0;20480,1,1,3,5,0,0,0;28672,2,3,1,4,0,0,3;28677,3,2,1,4,6,2,0;29952,1,2,2,4,6,2,0;32768,1,3,1,4,5,2,2;32773,3,3,1,4,6,2,1;32774,3,2,1,5,7,2,0;34048,2,3,2,4,0,0,3;34054,3,2,2,4,7,2,0;34304,1,2,2,5,7,2,0;36864,1,3,1,5,6,2,2;36870,3,3,1,5,7,2,1;38400,2,3,2,5,0,0,3;38407,3,2,2,5,8,2,0;42368,1,3,2,4,6,2,2;42390,3,3,2,4,7,2,1;46736,1,3,2,5,7,2,2;46759,3,3,2,5,8,2,1}, _xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception,_xlpm._fExtend,_xlop._precision,_xlop._format, IF(_xlpm._fExtend, _xlfn.IFS(_xlpm._exception = "N/A", {0,#N/A,#N/A,#N/A,#N/A,#N/A}, _xlpm._exception = "VALUE", _xlfn.IFS(_xlpm._precision = 1, _xlfn.HSTACK({0,#VALUE!,"","",1}, _xlpm._format), _xlpm._precision = 2, _xlfn.HSTACK({0,#VALUE!,#VALUE!,"",2}, _xlpm._format), TRUE, _xlfn.HSTACK({0,#VALUE!,#VALUE!,#VALUE!,3}, _xlpm._format)), TRUE, {0,"","","","",""}), _xlfn.IFS(_xlpm._exception = "N/A", {0,#N/A,#N/A,#N/A}, _xlpm._exception = "VALUE", _xlfn.IFS(_xlpm._precision = 1, {0,#VALUE!,"",""}, _xlpm._precision = 2, {0,#VALUE!,#VALUE!,""}, TRUE, {0,#VALUE!,#VALUE!,#VALUE!}), TRUE, {0,"","",""}))), _xlpm._fExtend, N(_xlpm.Extended) &lt;&gt; 0, IF(_xlpm.Text = "", _xlpm.fnException("", _xlpm._fExtend), IF(NOT(ISO_8601.VALIDATE_CHARACTERS(_xlpm.Text, 1)), _xlpm.fnException("N/A", _xlpm._fExtend), _xlfn.LET(_xlpm._hasSign, _xlfn.IFS(LEFT(_xlpm.Text, 1) = "+", TRUE, LEFT(_xlpm.Text, 1) = "-", TRUE, _xlfn.UNICODE(LEFT(_xlpm.Text, 1)) = 8722, TRUE, TRUE, FALSE), _xlpm._yearSign, _xlfn.IFS(LEFT(_xlpm.Text, 1) = "-", -1, _xlfn.UNICODE(LEFT(_xlpm.Text, 1)) = 8722, -1, TRUE, 1), _xlpm._len, LEN(_xlpm.Text) - N(_xlpm._hasSign), _xlpm._sDate, IF(_xlpm._hasSign, RIGHT(_xlpm.Text, _xlpm._len), _xlpm.Text), _xlpm._Hyph1Pos, IFERROR(FIND("-", _xlpm._sDate), 0), _xlpm._Hyph2Pos, IFERROR(FIND("-", _xlpm._sDate, _xlpm._Hyph1Pos + 1), 0), _xlpm._Wpos, IFERROR(FIND("W", _xlpm._sDate), 0), _xlpm._hash, (_xlpm._len * 4096) + (_xlpm._Hyph1Pos * 256) + (_xlpm._Hyph2Pos * 16) + _xlpm._Wpos, _xlpm._hashLkup, _xlfn.IFNA(_xlfn.XMATCH(_xlpm._hash, _xlfn.CHOOSECOLS(_xlpm._fmtHashTable, 1), 0), 0), IF(_xlpm._hashLkup = 0, _xlpm.fnException("N/A", _xlpm._fExtend), _xlfn.LET(_xlpm._defn, _xlfn.CHOOSEROWS(_xlpm._fmtHashTable, _xlpm._hashLkup), _xlpm._dateType, INDEX(_xlpm._defn, 1, 2), _xlpm._precision, INDEX(_xlpm._defn, 1, 3), _xlpm._format, INDEX(_xlpm._defn, 1, 4), _xlpm._yearCE, _xlpm._yearSign * VALUE(LEFT(_xlpm._sDate, INDEX(_xlpm._defn, 1, 5))), _xlpm._dArg1, IF((_xlpm._precision &lt; 2) + (INDEX(_xlpm._defn, 1, 6) = 0), "", VALUE(MID(_xlpm._sDate, INDEX(_xlpm._defn, 1, 6), INDEX(_xlpm._defn, 1, 7)))), _xlpm._dArg2, IF(_xlpm._precision &lt; 3, "", VALUE(RIGHT(_xlpm._sDate, INDEX(_xlpm._defn, 1, 8)))), _xlfn.IFS((_xlpm._dateType = 1) * NOT(ISO_8601.IS_VALID_DATE(_xlpm._yearCE, _xlpm._dArg1, _xlpm._dArg2)), _xlpm.fnException("VALUE", _xlpm._fExtend, _xlpm._precision, _xlpm._format), (_xlpm._dateType = 2) * NOT(ISO_8601.IS_VALID_ORDINAL_DATE(_xlpm._yearCE, _xlpm._dArg2)), _xlpm.fnException("VALUE", _xlpm._fExtend, _xlpm._precision, _xlpm._format), (_xlpm._dateType = 3) * NOT(ISO_8601.IS_VALID_WEEK_DATE(_xlpm._yearCE, _xlpm._dArg1, _xlpm._dArg2)), _xlpm.fnException("VALUE", _xlpm._fExtend, _xlpm._precision, _xlpm._format), TRUE, IF(_xlpm._fExtend, _xlfn.HSTACK(_xlpm._dateType, _xlpm._yearCE, _xlpm._dArg1, _xlpm._dArg2, _xlpm._precision, _xlpm._format), _xlfn.HSTACK(_xlpm._dateType, _xlpm._yearCE, _xlpm._dArg1, _xlpm._dArg2))))))))))</definedName>
-    <definedName name="ISO_8601.PARSE_DATE_TIME">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception, IF(_xlpm._exception = "N/A", {FALSE,"","","","","","","","",""}, {"","","","","","","","","",""})), _xlpm.fnISOFormatCompliance, _xlfn.LAMBDA(_xlpm._pDate,_xlpm._pTime,_xlpm._pTZ, _xlfn.LET(_xlpm._dateFmt, IFERROR(N(INDEX(_xlpm._pDate, 1, 6)), 0), _xlpm._timeFmt, IFERROR(N(INDEX(_xlpm._pTime, 1, 5)), 0), _xlpm._tzoFmt, IFERROR(N(INDEX(_xlpm._pTZ, 1, 3)), 0), _xlpm._allFmt, _xlfn.IFS((_xlpm._dateFmt &lt;&gt; 2) * (_xlpm._timeFmt &lt;&gt; 2) * (_xlpm._tzoFmt &lt;&gt; 2), 1, (_xlpm._dateFmt &lt;&gt; 1) * (_xlpm._timeFmt &lt;&gt; 1) * (_xlpm._tzoFmt &lt;&gt; 1), 2, TRUE, 0), N(_xlpm._allFmt &lt;&gt; 0))), _xlpm.fnPrecision, _xlfn.LAMBDA(_xlpm._pDate,_xlpm._pTime,_xlpm._pTZ, _xlfn.LET(_xlpm._dateErr, N(ISERROR(INDEX(_xlpm._pDate, 1, 2))), _xlpm._timeErr, N(ISERROR(INDEX(_xlpm._pTime, 1, 1))), _xlpm._tzErr, N(ISERROR(INDEX(_xlpm._pTZ, 1, 1))), IF(MAX(_xlpm._dateErr, _xlpm._timeErr, _xlpm._tzErr) &gt; 0, {0,0}, _xlfn.LET(_xlpm._datePrec, N(INDEX(_xlpm._pDate, 1, 5)), _xlpm._timePrec, N(INDEX(_xlpm._pTime, 1, 4)), _xlpm._tzPrec, N(INDEX(_xlpm._pTZ, 1, 2)), _xlfn.IFS(_xlpm._datePrec = 0, IF(_xlpm._timePrec = 0, _xlfn.HSTACK(1, _xlpm._tzPrec + 3), _xlfn.HSTACK(1, _xlpm._timePrec + 3)), _xlpm._datePrec &lt; 3, _xlfn.HSTACK(N(_xlpm._timePrec = 0), _xlpm._datePrec), TRUE, _xlfn.HSTACK(1, _xlpm._timePrec + 3)))))), IF(_xlpm.Text = "", _xlpm.fnException(""), _xlfn.LET(_xlpm._parts, ISO_8601.PARSE_PARTS(_xlpm.Text), IF(ISNA(INDEX(_xlpm._parts, 1, 2)), _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._pDate, ISO_8601.PARSE_DATE(INDEX(_xlpm._parts, 1, 2), 1), _xlpm._pTime, ISO_8601.PARSE_TIME(INDEX(_xlpm._parts, 1, 3), 1), _xlpm._pTZ, ISO_8601.PARSE_TIME_ZONE(INDEX(_xlpm._parts, 1, 4), 1), _xlpm._isoFormatCompliance, IF(INDEX(_xlpm._parts, 1, 1) = 0, 0, _xlpm.fnISOFormatCompliance(_xlpm._pDate, _xlpm._pTime, _xlpm._pTZ)), _xlpm._precision, _xlpm.fnPrecision(_xlpm._pDate, _xlpm._pTime, _xlpm._pTZ), _xlpm._isoCompliance, N((_xlpm._isoFormatCompliance * INDEX(_xlpm._precision, 1, 1)) &lt;&gt; 0), _xlpm._outDate, _xlfn.DROP(_xlpm._pDate, , -2), _xlpm._outTime, _xlfn.DROP(_xlpm._pTime, , -2), _xlpm._outTZ, _xlfn.DROP(_xlpm._pTZ, , -2), _xlfn.HSTACK(_xlpm._isoCompliance, INDEX(_xlpm._precision, 1, 2), _xlpm._outDate, _xlpm._outTime, _xlpm._outTZ)))))))</definedName>
-    <definedName name="ISO_8601.PARSE_PARTS">_xlfn.LAMBDA(_xlpm.Text, IF(_xlpm.Text = "", {"","","",""}, IF(NOT(ISO_8601.VALIDATE_CHARACTERS(_xlpm.Text, 0)), {FALSE,#N/A,#N/A,#N/A}, _xlfn.LET(_xlpm._logicHashTable, {0,1,0,1;2,1,0,1;3,0,2,0;32,1,0,1;34,0,1,0;38,0,1,0;128,2,0,1;132,2,0,1;148,2,1,1;152,2,1,0;153,2,2,0;155,2,2,0;156,2,1,0;160,2,0,1;185,2,2,0;192,0,0,1;194,0,0,1;196,0,0,1;198,0,0,1;208,0,1,1;209,0,2,1;211,0,2,1;212,0,1,1;213,0,2,1;216,0,1,0;219,0,2,0}, _xlpm.fnCountChars, _xlfn.LAMBDA(_xlpm.CharArray,_xlpm.Text, IF(_xlpm.Text = "", 0, _xlfn.LET(_xlpm._removed, _xlfn.REDUCE(_xlpm.Text, _xlpm.CharArray, _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, SUBSTITUTE(_xlpm._acc, _xlpm._curr, ""))), LEN(_xlpm.Text) - LEN(_xlpm._removed)))), _xlpm.fnFindNthCharPos, _xlfn.LAMBDA(_xlpm.Chars,_xlpm.Text,_xlpm.N, _xlfn.LET(_xlpm._charCount, LEN(_xlpm.Chars), _xlpm._n, INT(N(_xlpm.N)), IF((_xlpm._charCount = 0) + (_xlpm._n = 0), 0, _xlfn.LET(_xlpm._chars, MID(_xlpm.Chars, _xlfn.SEQUENCE(1, _xlpm._charCount), 1), _xlpm._findCount, _xlpm.fnCountChars(_xlpm._chars, _xlpm.Text), IF(_xlpm._findCount &lt; ABS(_xlpm._n), 0, _xlfn.LET(_xlpm._nth, IF(_xlpm._n &gt; 0, _xlpm._n, _xlpm._findCount + _xlpm._n + 1), _xlpm._nthPos, _xlfn.REDUCE(0, _xlfn.SEQUENCE(1, _xlpm._nth), _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, IF(_xlpm._acc &lt; 0, -1, _xlfn.LET(_xlpm._nextPosChars, IFERROR(FIND(_xlpm._chars, _xlpm.Text, _xlpm._acc + 1), 0), _xlpm._nextPos, MIN(_xlfn._xlws.FILTER(_xlpm._nextPosChars, _xlpm._nextPosChars &gt; 0, 0)), IF(_xlpm._nextPos = 0, -1, _xlpm._nextPos))))), MAX(_xlpm._nthPos, 0))))))), _xlpm._len, LEN(_xlpm.Text), _xlpm._Tpos, IFERROR(FIND("T", _xlpm.Text), 0), _xlpm._signLastPos, _xlpm.fnFindNthCharPos("+-" &amp; _xlfn.UNICHAR(8722), _xlpm.Text, -1), _xlpm._colonLastPos, _xlpm.fnFindNthCharPos(":", _xlpm.Text, -1), _xlpm._ZlastPos, _xlpm.fnFindNthCharPos("Z", _xlpm.Text, -1), _xlpm._hasT, N(_xlpm._Tpos &gt; 0), _xlpm._Tfirst, N(_xlpm._Tpos = 1), _xlpm._lastSignFirstPos, N(_xlpm._signLastPos = 1), _xlpm._hasZorSignAfterT, (_xlpm._Tpos &lt;&gt; 0) * (((_xlpm._ZlastPos &gt; _xlpm._Tpos) + (_xlpm._signLastPos &gt; _xlpm._Tpos)) &lt;&gt; 0), _xlpm._ZorSignFirstAfterT, (_xlpm._Tpos &lt;&gt; 0) * (((_xlpm._ZlastPos = _xlpm._Tpos + 1) + (_xlpm._signLastPos = _xlpm._Tpos + 1)) &lt;&gt; 0), _xlpm._colonAfterLastSign, N(_xlpm._colonLastPos &gt; _xlpm._signLastPos), _xlpm._lenLess8, N(_xlpm._len &lt; 8), _xlpm._hasZlast, N(_xlpm._ZlastPos = _xlpm._len), _xlpm._hash, (_xlpm._hasT * 128) + (_xlpm._Tfirst * 64) + (_xlpm._lastSignFirstPos * 32) + (_xlpm._hasZorSignAfterT * 16) + (_xlpm._ZorSignFirstAfterT * 8) + (_xlpm._colonAfterLastSign * 4) + (_xlpm._lenLess8 * 2) + _xlpm._hasZlast, _xlpm._hashLkup, _xlfn.IFNA(_xlfn.XMATCH(_xlpm._hash, _xlfn.CHOOSECOLS(_xlpm._logicHashTable, 1), 0), 0), IF(_xlpm._hashLkup = 0, {FALSE,#N/A,#N/A,#N/A}, _xlfn.LET(_xlpm._defn, _xlfn.CHOOSEROWS(_xlpm._logicHashTable, _xlpm._hashLkup), _xlpm._isoCompliant, INDEX(_xlpm._defn, 1, 4) &lt;&gt; 0, _xlpm._dateMark, INDEX(_xlpm._defn, 1, 2), _xlpm._tzMark, INDEX(_xlpm._defn, 1, 3), _xlpm._dateLen, _xlfn.IFS(_xlpm._dateMark = 0, 0, _xlpm._dateMark = 1, _xlpm._len, _xlpm._dateMark = 2, _xlpm._Tpos - 1, _xlpm._dateMark = 3, _xlpm._signLastPos - 1, _xlpm._dateMark = 4, _xlpm._len - 1), _xlpm._tzLen, _xlfn.IFS(_xlpm._tzMark = 0, 0, _xlpm._tzMark = 1, _xlpm._len - _xlpm._signLastPos + 1, _xlpm._tzMark = 2, 1), _xlpm._timeLen, _xlpm._len - _xlpm._dateLen - _xlpm._tzLen, _xlpm._sDate, IF(_xlpm._dateLen = 0, "", LEFT(_xlpm.Text, _xlpm._dateLen)), _xlpm._sTime, IF(_xlpm._timeLen &lt;= 1, "", MID(_xlpm.Text, _xlpm._dateLen + 1, _xlpm._timeLen)), _xlpm._sTZ, IF(_xlpm._tzLen = 0, "", RIGHT(_xlpm.Text, _xlpm._tzLen)), _xlfn.HSTACK(_xlpm._isoCompliant, _xlpm._sDate, _xlpm._sTime, _xlpm._sTZ)))))))</definedName>
-    <definedName name="ISO_8601.PARSE_TIME">_xlfn.LAMBDA(_xlpm.Text,_xlop.Extended, _xlfn.LET(_xlpm._fmtHashTable, {8192,1,3,0,0;16384,2,1,3,0;24576,3,1,3,2;32775,4,1,3,4;36871,5,1,3,5;40967,6,1,3,6;21248,2,2,4,0;33632,3,2,4,2;41833,4,2,4,4;45929,5,2,4,5;50025,6,2,4,6}, _xlpm.fnCountChars, _xlfn.LAMBDA(_xlpm.CharArray,_xlpm.Text, IF(_xlpm.Text = "", 0, _xlfn.LET(_xlpm._removed, _xlfn.REDUCE(_xlpm.Text, _xlpm.CharArray, _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, SUBSTITUTE(_xlpm._acc, _xlpm._curr, ""))), LEN(_xlpm.Text) - LEN(_xlpm._removed)))), _xlpm.fnFindNthCharPos, _xlfn.LAMBDA(_xlpm.Chars,_xlpm.Text,_xlpm.N, _xlfn.LET(_xlpm._charCount, LEN(_xlpm.Chars), _xlpm._n, INT(N(_xlpm.N)), IF((_xlpm._charCount = 0) + (_xlpm._n = 0), 0, _xlfn.LET(_xlpm._chars, MID(_xlpm.Chars, _xlfn.SEQUENCE(1, _xlpm._charCount), 1), _xlpm._findCount, _xlpm.fnCountChars(_xlpm._chars, _xlpm.Text), IF(_xlpm._findCount &lt; ABS(_xlpm._n), 0, _xlfn.LET(_xlpm._nth, IF(_xlpm._n &gt; 0, _xlpm._n, _xlpm._findCount + _xlpm._n + 1), _xlpm._nthPos, _xlfn.REDUCE(0, _xlfn.SEQUENCE(1, _xlpm._nth), _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, IF(_xlpm._acc &lt; 0, -1, _xlfn.LET(_xlpm._nextPosChars, IFERROR(FIND(_xlpm._chars, _xlpm.Text, _xlpm._acc + 1), 0), _xlpm._nextPos, MIN(_xlfn._xlws.FILTER(_xlpm._nextPosChars, _xlpm._nextPosChars &gt; 0, 0)), IF(_xlpm._nextPos = 0, -1, _xlpm._nextPos))))), MAX(_xlpm._nthPos, 0))))))), _xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception,_xlpm._fExtend,_xlop._precision,_xlop._format, IF(_xlpm._fExtend, _xlfn.IFS(_xlpm._exception = "N/A", {#N/A,#N/A,#N/A,#N/A,#N/A}, _xlpm._exception = "VALUE", _xlfn.IFS(_xlpm._precision = 1, _xlfn.HSTACK({#VALUE!,"","",1}, _xlpm._format), _xlpm._precision = 2, _xlfn.HSTACK({#VALUE!,#VALUE!,"",2}, _xlpm._format), TRUE, _xlfn.HSTACK({#VALUE!,#VALUE!,#VALUE!,3}, _xlpm._format)), TRUE, {"","","","",""}), _xlfn.IFS(_xlpm._exception = "N/A", {#N/A,#N/A,#N/A}, _xlpm._exception = "VALUE", _xlfn.IFS(_xlpm._precision = 1, {#VALUE!,"",""}, _xlpm._precision = 2, {#VALUE!,#VALUE!,""}, TRUE, {#VALUE!,#VALUE!,#VALUE!}), TRUE, {"","",""}))), _xlpm._fExtend, N(_xlpm.Extended) &lt;&gt; 0, IF(_xlpm.Text = "", _xlpm.fnException("", _xlpm._fExtend), IF(NOT(ISO_8601.VALIDATE_CHARACTERS(_xlpm.Text, 2)), _xlpm.fnException("N/A", _xlpm._fExtend), _xlfn.LET(_xlpm._Tpos, IFERROR(FIND("T", _xlpm.Text), 0), IF(_xlpm._Tpos &gt; 1, _xlpm.fnException("N/A", _xlpm._fExtend), _xlfn.LET(_xlpm._sTime, IF(_xlpm._Tpos = 1, RIGHT(_xlpm.Text, LEN(_xlpm.Text) - 1), _xlpm.Text), _xlpm._len, LEN(_xlpm._sTime), _xlpm._colon1Pos, IFERROR(FIND(":", _xlpm._sTime), 0), _xlpm._colon2Pos, IFERROR(FIND(":", _xlpm._sTime, _xlpm._colon1Pos + 1), 0), _xlpm._decimalPos, _xlpm.fnFindNthCharPos(".,", _xlpm._sTime, 1), _xlpm._hash, (_xlpm._len * 4096) + (_xlpm._colon1Pos * 256) + (_xlpm._colon2Pos * 16) + _xlpm._decimalPos, _xlpm._hashLkup, _xlfn.IFNA(_xlfn.XMATCH(_xlpm._hash, _xlfn.CHOOSECOLS(_xlpm._fmtHashTable, 1), 0), 0), IF(_xlpm._hashLkup = 0, _xlpm.fnException("N/A", _xlpm._fExtend), _xlfn.LET(_xlpm._defn, _xlfn.CHOOSEROWS(_xlpm._fmtHashTable, _xlpm._hashLkup), _xlpm._precision, INDEX(_xlpm._defn, 1, 2), _xlpm._format, INDEX(_xlpm._defn, 1, 3), _xlpm._hour, VALUE(LEFT(_xlpm._sTime, 2)), _xlpm._minute, IF(_xlpm._precision &lt; 2, "", VALUE(MID(_xlpm._sTime, INDEX(_xlpm._defn, 1, 4), 2))), _xlpm._secLen, INDEX(_xlpm._defn, 1, 5), _xlpm._second, _xlfn.IFS(_xlpm._precision &lt; 3, "", _xlpm._precision = 3, VALUE(RIGHT(_xlpm._sTime, _xlpm._secLen)), TRUE, _xlfn.LET(_xlpm._sSec, RIGHT(_xlpm._sTime, _xlpm._secLen), _xlpm._intSec, VALUE(LEFT(_xlpm._sSec, 2)), _xlpm._fracSec, VALUE(RIGHT(_xlpm._sSec, _xlpm._secLen - 3)), _xlpm._decimalBase, INDEX({10,100,1000}, 1, _xlpm._precision - 3), _xlpm._intSec + (_xlpm._fracSec / _xlpm._decimalBase))), IF(NOT(ISO_8601.IS_VALID_TIME(_xlpm._hour, _xlpm._minute, _xlpm._second)), _xlpm.fnException("VALUE", _xlpm._fExtend, _xlpm._precision, _xlpm._format), IF(_xlpm._fExtend, _xlfn.HSTACK(_xlpm._hour, _xlpm._minute, _xlpm._second, _xlpm._precision, _xlpm._format), _xlfn.HSTACK(_xlpm._hour, _xlpm._minute, _xlpm._second))))))))))))</definedName>
-    <definedName name="ISO_8601.PARSE_TIME_ZONE">_xlfn.LAMBDA(_xlpm.Text,_xlop.Extended, _xlfn.LET(_xlpm._fmtHashTable, {512,1,3,0,0;1024,2,1,3,0;1536,3,1,3,2;1328,2,2,4,0;2102,3,2,4,2}, _xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception,_xlpm._fExtend,_xlop._precision,_xlop._format, IF(_xlpm._fExtend, _xlfn.IFS(_xlpm._exception = "N/A", {#N/A,#N/A,#N/A}, _xlpm._exception = "VALUE", _xlfn.HSTACK({#VALUE!}, _xlpm._precision, _xlpm._format), _xlpm._exception = "NUM", _xlfn.HSTACK({#NUM!}, _xlpm._precision, _xlpm._format), TRUE, {"","",""}), _xlfn.IFS(_xlpm._exception = "N/A", #N/A, _xlpm._exception = "VALUE", #VALUE!, _xlpm._exception = "NUM", #NUM!, TRUE, ""))), _xlpm._fExtend, N(_xlpm.Extended) &lt;&gt; 0, IF(_xlpm.Text = "", _xlpm.fnException("", _xlpm._fExtend), IF(NOT(ISO_8601.VALIDATE_CHARACTERS(_xlpm.Text, 3)), _xlpm.fnException("N/A", _xlpm._fExtend), IF((LEN(_xlpm.Text) = 1) * (CODE(LEFT(_xlpm.Text, 1)) = 90), IF(_xlpm._fExtend, _xlfn.HSTACK(0, 3, 3), 0), _xlfn.LET(_xlpm._hasSign, _xlfn.IFS(LEFT(_xlpm.Text, 1) = "+", TRUE, LEFT(_xlpm.Text, 1) = "-", TRUE, _xlfn.UNICODE(LEFT(_xlpm.Text, 1)) = 8722, TRUE, TRUE, FALSE), IF(NOT(_xlpm._hasSign), _xlpm.fnException("N/A", _xlpm._fExtend), _xlfn.LET(_xlpm._tzSign, _xlfn.IFS(LEFT(_xlpm.Text, 1) = "-", -1, _xlfn.UNICODE(LEFT(_xlpm.Text, 1)) = 8722, -1, TRUE, 1), _xlpm._sTZ, RIGHT(_xlpm.Text, LEN(_xlpm.Text) - 1), _xlpm._len, LEN(_xlpm._sTZ), _xlpm._colon1Pos, IFERROR(FIND(":", _xlpm._sTZ), 0), _xlpm._colon2Pos, IFERROR(FIND(":", _xlpm._sTZ, _xlpm._colon1Pos + 1), 0), _xlpm._hash, (_xlpm._len * 256) + (_xlpm._colon1Pos * 16) + _xlpm._colon2Pos, _xlpm._hashLkup, _xlfn.IFNA(_xlfn.XMATCH(_xlpm._hash, _xlfn.CHOOSECOLS(_xlpm._fmtHashTable, 1), 0), 0), IF(_xlpm._hashLkup = 0, _xlpm.fnException(1, _xlpm._fExtend), _xlfn.LET(_xlpm._defn, _xlfn.CHOOSEROWS(_xlpm._fmtHashTable, _xlpm._hashLkup), _xlpm._precision, INDEX(_xlpm._defn, 1, 2), _xlpm._fmtExtended, INDEX(_xlpm._defn, 1, 3), _xlpm._hour, VALUE(LEFT(_xlpm._sTZ, 2)), _xlpm._minute, IF(_xlpm._precision &lt; 2, 0, VALUE(MID(_xlpm._sTZ, INDEX(_xlpm._defn, 1, 4), 2))), _xlpm._second, IF(_xlpm._precision &lt; 3, 0, VALUE(RIGHT(_xlpm._sTZ, INDEX(_xlpm._defn, 1, 5)))), _xlpm._tzoMinutes, _xlpm._tzSign * ROUNDDOWN((((_xlpm._hour * 60) + _xlpm._minute) * 60) + _xlpm._second, 3) / 60, IF(NOT(ISO_8601.IS_VALID_TIME_ZONE(_xlpm._tzoMinutes)), _xlpm.fnException("NUM", _xlpm._fExtend, _xlpm._precision, _xlpm._fmtExtended), IF(_xlpm._fExtend, _xlfn.HSTACK(_xlpm._tzoMinutes, _xlpm._precision, _xlpm._fmtExtended), _xlpm._tzoMinutes))))))))))))</definedName>
+    <definedName name="ISO_8601.PARSE_DATE">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm._fmtHashTable, {16384,1,3,1,4,0,0,0;20480,1,3,1,5,0,0,0;28672,3,1,2,4,0,0,3;28677,2,1,3,4,6,2,0;29952,2,2,1,4,6,2,0;32768,3,1,1,4,5,2,2;32773,3,1,3,4,6,2,1;32774,2,1,3,5,7,2,0;34048,3,2,2,4,0,0,3;34054,2,2,3,4,7,2,0;34304,2,2,1,5,7,2,0;36864,3,1,1,5,6,2,2;36870,3,1,3,5,7,2,1;38400,3,2,2,5,0,0,3;38407,2,2,3,5,8,2,0;42368,3,2,1,4,6,2,2;42390,3,2,3,4,7,2,1;46736,3,2,1,5,7,2,2;46759,3,2,3,5,8,2,1}, _xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception,_xlop._precision,_xlop._extended,_xlop._dateType, _xlfn.IFS(_xlpm._exception = "N/A", {FALSE,"","","","","",""}, _xlpm._exception = "VALUE", _xlfn.IFS(_xlpm._precision = 1, _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), N(_xlpm._dateType), {#VALUE!,"",""}), _xlpm._precision = 2, _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), N(_xlpm._dateType), {#VALUE!,#VALUE!,""}), TRUE, _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), N(_xlpm._dateType), {#VALUE!,#VALUE!,#VALUE!})), TRUE, {"","","","","","",""})), IF(_xlpm.Text = "", _xlpm.fnException(""), IF(NOT(ISO_8601.VALIDATE_CHARACTERS(_xlpm.Text, 1)), _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._hasSign, _xlfn.IFS(LEFT(_xlpm.Text, 1) = "+", TRUE, LEFT(_xlpm.Text, 1) = "-", TRUE, _xlfn.UNICODE(LEFT(_xlpm.Text, 1)) = 8722, TRUE, TRUE, FALSE), _xlpm._yearSign, _xlfn.IFS(LEFT(_xlpm.Text, 1) = "-", -1, _xlfn.UNICODE(LEFT(_xlpm.Text, 1)) = 8722, -1, TRUE, 1), _xlpm._len, LEN(_xlpm.Text) - N(_xlpm._hasSign), _xlpm._sDate, IF(_xlpm._hasSign, RIGHT(_xlpm.Text, _xlpm._len), _xlpm.Text), _xlpm._Hyph1Pos, IFERROR(FIND("-", _xlpm._sDate), 0), _xlpm._Hyph2Pos, IFERROR(FIND("-", _xlpm._sDate, _xlpm._Hyph1Pos + 1), 0), _xlpm._Wpos, IFERROR(FIND("W", _xlpm._sDate), 0), _xlpm._hash, (_xlpm._len * 4096) + (_xlpm._Hyph1Pos * 256) + (_xlpm._Hyph2Pos * 16) + _xlpm._Wpos, _xlpm._hashLkup, _xlfn.IFNA(_xlfn.XMATCH(_xlpm._hash, _xlfn.CHOOSECOLS(_xlpm._fmtHashTable, 1), 0), 0), IF(_xlpm._hashLkup = 0, _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._defn, _xlfn.CHOOSEROWS(_xlpm._fmtHashTable, _xlpm._hashLkup), _xlpm._precision, INDEX(_xlpm._defn, 1, 2), _xlpm._extended, INDEX(_xlpm._defn, 1, 3), _xlpm._dateType, INDEX(_xlpm._defn, 1, 4), _xlpm._yearCE, _xlpm._yearSign * VALUE(LEFT(_xlpm._sDate, INDEX(_xlpm._defn, 1, 5))), _xlpm._dArg1, IF((_xlpm._precision &lt; 2) + (INDEX(_xlpm._defn, 1, 6) = 0), "", VALUE(MID(_xlpm._sDate, INDEX(_xlpm._defn, 1, 6), INDEX(_xlpm._defn, 1, 7)))), _xlpm._dArg2, IF(_xlpm._precision &lt; 3, "", VALUE(RIGHT(_xlpm._sDate, INDEX(_xlpm._defn, 1, 8)))), _xlpm._valid, _xlfn.IFS(_xlpm._dateType = 1, ISO_8601.IS_VALID_DATE(_xlpm._yearCE, _xlpm._dArg1, _xlpm._dArg2), _xlpm._dateType = 2, ISO_8601.IS_VALID_ORDINAL_DATE(_xlpm._yearCE, _xlpm._dArg2), _xlpm._dateType = 3, ISO_8601.IS_VALID_WEEK_DATE(_xlpm._yearCE, _xlpm._dArg1, _xlpm._dArg2), TRUE, TRUE), IF(_xlpm._valid, _xlfn.HSTACK(TRUE, _xlpm._precision, _xlpm._extended, _xlpm._dateType, _xlpm._yearCE, _xlpm._dArg1, _xlpm._dArg2), _xlpm.fnException("VALUE", _xlpm._precision, _xlpm._extended, _xlpm._dateType)))))))))</definedName>
+    <definedName name="ISO_8601.PARSE_DATE_TIME">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception, IF(_xlpm._exception = "N/A", {FALSE,0,"","","","","","","","","",""}, {"","","","","","","","","","","",""})), _xlpm.fnISOValueCompliance, _xlfn.LAMBDA(_xlpm._pDate,_xlpm._pTime,_xlpm._pTZ, _xlfn.LET(_xlpm._dateISOCompliant, IF(INDEX(_xlpm._pDate, 1, 1) = "", TRUE, INDEX(_xlpm._pDate, 1, 1)), _xlpm._timeISOCompliant, IF(INDEX(_xlpm._pTime, 1, 1) = "", TRUE, INDEX(_xlpm._pTime, 1, 1)), _xlpm._tzISOCompliant, IF(INDEX(_xlpm._pTZ, 1, 1) = "", TRUE, INDEX(_xlpm._pTZ, 1, 1)), (_xlpm._dateISOCompliant * _xlpm._timeISOCompliant * _xlpm._tzISOCompliant) &lt;&gt; 0)), _xlpm.fnISOFormatCompliance, _xlfn.LAMBDA(_xlpm._pDate,_xlpm._pTime,_xlpm._pTZ, _xlfn.LET(_xlpm._dateFmt, N(INDEX(_xlpm._pDate, 1, 3)), _xlpm._timeFmt, N(INDEX(_xlpm._pTime, 1, 3)), _xlpm._tzoFmt, N(INDEX(_xlpm._pTZ, 1, 3)), _xlpm._resolveFmt, _xlfn.IFS((_xlpm._dateFmt = 3) * (_xlpm._timeFmt = 0) * (_xlpm._tzoFmt = 0), 3, (_xlpm._dateFmt = 0) * (_xlpm._timeFmt = 3) * (_xlpm._tzoFmt = 0), 3, (_xlpm._dateFmt = 0) * (_xlpm._timeFmt = 0) * (_xlpm._tzoFmt = 3), 3, (_xlpm._dateFmt &lt;&gt; 2) * (_xlpm._timeFmt &lt;&gt; 2) * (_xlpm._tzoFmt &lt;&gt; 2), 1, (_xlpm._dateFmt &lt;&gt; 1) * (_xlpm._timeFmt &lt;&gt; 1) * (_xlpm._tzoFmt &lt;&gt; 1), 2, TRUE, 0), _xlfn.HSTACK(N(_xlpm._resolveFmt &lt;&gt; 0), _xlpm._resolveFmt))), _xlpm.fnISOPrecisionCompliance, _xlfn.LAMBDA(_xlpm._pDate,_xlpm._pTime,_xlpm._pTZ, _xlfn.LET(_xlpm._datePrec, N(INDEX(_xlpm._pDate, 1, 2)), _xlpm._timePrec, N(INDEX(_xlpm._pTime, 1, 2)), _xlpm._tzPrec, N(INDEX(_xlpm._pTZ, 1, 2)), _xlfn.IFS(_xlpm._datePrec = 0, IF(_xlpm._timePrec = 0, IF(_xlpm._tzPrec = 0, _xlfn.HSTACK(FALSE, 0), _xlfn.HSTACK(TRUE, _xlpm._tzPrec + 3)), _xlfn.HSTACK(TRUE, _xlpm._timePrec + 3)), _xlpm._datePrec &lt; 3, _xlfn.HSTACK((_xlpm._timePrec = 0), _xlpm._datePrec), TRUE, _xlfn.HSTACK(TRUE, _xlpm._timePrec + 3)))), IF(_xlpm.Text = "", _xlpm.fnException(""), _xlfn.LET(_xlpm._parts, ISO_8601.PARSE_PARTS(_xlpm.Text), IF(N(INDEX(_xlpm._parts, 1, 2)) = 0, _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._isoPartsCompliance, N(INDEX(_xlpm._parts, 1, 1)), _xlpm._flgParts, N(INDEX(_xlpm._parts, 1, 2)), _xlpm._pDate, ISO_8601.PARSE_DATE(INDEX(_xlpm._parts, 1, 3)), _xlpm._pTime, ISO_8601.PARSE_TIME(INDEX(_xlpm._parts, 1, 4)), _xlpm._pTZ, ISO_8601.PARSE_TIME_ZONE(INDEX(_xlpm._parts, 1, 5)), _xlpm._isoValueCompliance, _xlpm.fnISOValueCompliance(_xlpm._pDate, _xlpm._pTime, _xlpm._pTZ), _xlpm._isoFormatCompliance, _xlpm.fnISOFormatCompliance(_xlpm._pDate, _xlpm._pTime, _xlpm._pTZ), _xlpm._isoPrecisionCompliance, _xlpm.fnISOPrecisionCompliance(_xlpm._pDate, _xlpm._pTime, _xlpm._pTZ), _xlpm._isoCompliance, (_xlpm._isoValueCompliance * _xlpm._isoPartsCompliance * INDEX(_xlpm._isoFormatCompliance, 1, 1) * INDEX(_xlpm._isoPrecisionCompliance, 1, 1)) &lt;&gt; 0, _xlpm._outDate, _xlfn.DROP(_xlpm._pDate, , 3), _xlpm._outTime, _xlfn.DROP(_xlpm._pTime, , 3), _xlpm._outTZ, _xlfn.DROP(_xlpm._pTZ, , 3), _xlfn.HSTACK(_xlpm._isoCompliance, _xlpm._flgParts, INDEX(_xlpm._isoPrecisionCompliance, 1, 2), INDEX(_xlpm._isoFormatCompliance, 1, 2), _xlpm._outDate, _xlpm._outTime, _xlpm._outTZ)))))))</definedName>
+    <definedName name="ISO_8601.PARSE_PARTS">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm._logicHashTable, {0,1,1,1,0;1,0,4,0,1;32,1,1,1,0;34,0,4,0,2;36,1,4,0,2;128,1,3,2,0;132,1,3,2,0;144,1,7,2,2;148,1,7,2,2;149,1,7,2,2;152,0,5,2,2;153,0,5,2,1;155,0,5,2,1;156,0,5,2,2;160,1,3,2,0;185,0,5,2,1;192,1,2,0,0;196,1,2,0,0;198,1,2,0,0;208,1,6,0,2;209,1,6,0,1;212,1,6,0,2;213,1,6,0,1;216,0,4,0,2;219,0,4,0,1}, _xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception, _xlfn.IFS(_xlpm._exception = "N/A", {FALSE,0,"","",""}, TRUE, {"","","","",""})), _xlpm.fnCountChars, _xlfn.LAMBDA(_xlpm.CharArray,_xlpm.Text, IF(_xlpm.Text = "", 0, _xlfn.LET(_xlpm._removed, _xlfn.REDUCE(_xlpm.Text, _xlpm.CharArray, _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, SUBSTITUTE(_xlpm._acc, _xlpm._curr, ""))), LEN(_xlpm.Text) - LEN(_xlpm._removed)))), _xlpm.fnFindNthCharPos, _xlfn.LAMBDA(_xlpm.Chars,_xlpm.Text,_xlpm.N, _xlfn.LET(_xlpm._charCount, LEN(_xlpm.Chars), _xlpm._n, INT(N(_xlpm.N)), IF((_xlpm._charCount = 0) + (_xlpm._n = 0), 0, _xlfn.LET(_xlpm._chars, MID(_xlpm.Chars, _xlfn.SEQUENCE(1, _xlpm._charCount), 1), _xlpm._findCount, _xlpm.fnCountChars(_xlpm._chars, _xlpm.Text), IF(_xlpm._findCount &lt; ABS(_xlpm._n), 0, _xlfn.LET(_xlpm._nth, IF(_xlpm._n &gt; 0, _xlpm._n, _xlpm._findCount + _xlpm._n + 1), _xlpm._nthPos, _xlfn.REDUCE(0, _xlfn.SEQUENCE(1, _xlpm._nth), _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, IF(_xlpm._acc &lt; 0, -1, _xlfn.LET(_xlpm._nextPosChars, IFERROR(FIND(_xlpm._chars, _xlpm.Text, _xlpm._acc + 1), 0), _xlpm._nextPos, MIN(_xlfn._xlws.FILTER(_xlpm._nextPosChars, _xlpm._nextPosChars &gt; 0, 0)), IF(_xlpm._nextPos = 0, -1, _xlpm._nextPos))))), MAX(_xlpm._nthPos, 0))))))), IF(_xlpm.Text = "", _xlpm.fnException(""), IF(NOT(ISO_8601.VALIDATE_CHARACTERS(_xlpm.Text, 0)), _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._len, LEN(_xlpm.Text), _xlpm._Tpos, IFERROR(FIND("T", _xlpm.Text), 0), _xlpm._signLastPos, _xlpm.fnFindNthCharPos("+-" &amp; _xlfn.UNICHAR(8722), _xlpm.Text, -1), _xlpm._colonLastPos, _xlpm.fnFindNthCharPos(":", _xlpm.Text, -1), _xlpm._ZlastPos, _xlpm.fnFindNthCharPos("Z", _xlpm.Text, -1), _xlpm._hasT, N(_xlpm._Tpos &gt; 0), _xlpm._Tfirst, N(_xlpm._Tpos = 1), _xlpm._lastSignFirstPos, N(_xlpm._signLastPos = 1), _xlpm._unsignedLen, _xlpm._len - _xlpm._lastSignFirstPos, _xlpm._hasZorSignAfterT, (_xlpm._Tpos &lt;&gt; 0) * (((_xlpm._ZlastPos &gt; _xlpm._Tpos) + (_xlpm._signLastPos &gt; _xlpm._Tpos)) &lt;&gt; 0), _xlpm._ZorSignFirstAfterT, (_xlpm._Tpos &lt;&gt; 0) * (((_xlpm._ZlastPos = _xlpm._Tpos + 1) + (_xlpm._signLastPos = _xlpm._Tpos + 1)) &lt;&gt; 0), _xlpm._colonAfterLastSign, N(_xlpm._colonLastPos &gt; _xlpm._signLastPos), _xlpm._unsignedLen2or6, N(((_xlpm._unsignedLen = 2) + (_xlpm._unsignedLen = 6)) &lt;&gt; 0), _xlpm._hasZlast, N(_xlpm._ZlastPos = _xlpm._len), _xlpm._hash, (_xlpm._hasT * 128) + (_xlpm._Tfirst * 64) + (_xlpm._lastSignFirstPos * 32) + (_xlpm._hasZorSignAfterT * 16) + (_xlpm._ZorSignFirstAfterT * 8) + (_xlpm._colonAfterLastSign * 4) + (_xlpm._unsignedLen2or6 * 2) + _xlpm._hasZlast, _xlpm._hashLkup, _xlfn.IFNA(_xlfn.XMATCH(_xlpm._hash, _xlfn.CHOOSECOLS(_xlpm._logicHashTable, 1), 0), 0), IF(_xlpm._hashLkup = 0, _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._defn, _xlfn.CHOOSEROWS(_xlpm._logicHashTable, _xlpm._hashLkup), _xlpm._isoCompliant, INDEX(_xlpm._defn, 1, 2) &lt;&gt; 0, _xlpm._partsFlag, INDEX(_xlpm._defn, 1, 3), _xlpm._dateMark, INDEX(_xlpm._defn, 1, 4), _xlpm._tzMark, INDEX(_xlpm._defn, 1, 5), _xlpm._dateLen, _xlfn.IFS(_xlpm._dateMark = 0, 0, _xlpm._dateMark = 1, _xlpm._len, _xlpm._dateMark = 2, _xlpm._Tpos - 1, _xlpm._dateMark = 3, _xlpm._signLastPos - 1, _xlpm._dateMark = 4, _xlpm._len - 1), _xlpm._tzLen, IF(_xlpm._tzMark = 2, _xlpm._len - _xlpm._signLastPos + 1, _xlpm._tzMark), _xlpm._timeLen, _xlpm._len - _xlpm._dateLen - _xlpm._tzLen, _xlpm._sDate, IF(_xlfn.BITAND(_xlpm._partsFlag, 1) = 0, "", LEFT(_xlpm.Text, _xlpm._dateLen)), _xlpm._sTime, IF(_xlfn.BITAND(_xlpm._partsFlag, 2) = 0, "", MID(_xlpm.Text, _xlpm._dateLen + 1, _xlpm._timeLen)), _xlpm._sTZ, IF(_xlfn.BITAND(_xlpm._partsFlag, 4) = 0, "", RIGHT(_xlpm.Text, _xlpm._tzLen)), _xlfn.HSTACK(_xlpm._isoCompliant, _xlpm._partsFlag, _xlpm._sDate, _xlpm._sTime, _xlpm._sTZ))))))))</definedName>
+    <definedName name="ISO_8601.PARSE_TIME">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm._fmtHashTable, {8192,1,3,0,0;16384,2,1,3,0;24576,3,1,3,2;32775,4,1,3,4;36871,5,1,3,5;40967,6,1,3,6;21248,2,2,4,0;33632,3,2,4,2;41833,4,2,4,4;45929,5,2,4,5;50025,6,2,4,6}, _xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception,_xlop._precision,_xlop._extended, _xlfn.IFS(_xlpm._exception = "N/A", {FALSE,"","","","",""}, _xlpm._exception = "VALUE", _xlfn.IFS(_xlpm._precision = 1, _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), {#VALUE!,"",""}), _xlpm._precision = 2, _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), {#VALUE!,#VALUE!,""}), TRUE, _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), {#VALUE!,#VALUE!,#VALUE!})), TRUE, {"","","","","",""})), _xlpm.fnCountChars, _xlfn.LAMBDA(_xlpm.CharArray,_xlpm.Text, IF(_xlpm.Text = "", 0, _xlfn.LET(_xlpm._removed, _xlfn.REDUCE(_xlpm.Text, _xlpm.CharArray, _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, SUBSTITUTE(_xlpm._acc, _xlpm._curr, ""))), LEN(_xlpm.Text) - LEN(_xlpm._removed)))), _xlpm.fnFindNthCharPos, _xlfn.LAMBDA(_xlpm.Chars,_xlpm.Text,_xlpm.N, _xlfn.LET(_xlpm._charCount, LEN(_xlpm.Chars), _xlpm._n, INT(N(_xlpm.N)), IF((_xlpm._charCount = 0) + (_xlpm._n = 0), 0, _xlfn.LET(_xlpm._chars, MID(_xlpm.Chars, _xlfn.SEQUENCE(1, _xlpm._charCount), 1), _xlpm._findCount, _xlpm.fnCountChars(_xlpm._chars, _xlpm.Text), IF(_xlpm._findCount &lt; ABS(_xlpm._n), 0, _xlfn.LET(_xlpm._nth, IF(_xlpm._n &gt; 0, _xlpm._n, _xlpm._findCount + _xlpm._n + 1), _xlpm._nthPos, _xlfn.REDUCE(0, _xlfn.SEQUENCE(1, _xlpm._nth), _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, IF(_xlpm._acc &lt; 0, -1, _xlfn.LET(_xlpm._nextPosChars, IFERROR(FIND(_xlpm._chars, _xlpm.Text, _xlpm._acc + 1), 0), _xlpm._nextPos, MIN(_xlfn._xlws.FILTER(_xlpm._nextPosChars, _xlpm._nextPosChars &gt; 0, 0)), IF(_xlpm._nextPos = 0, -1, _xlpm._nextPos))))), MAX(_xlpm._nthPos, 0))))))), IF(_xlpm.Text = "", _xlpm.fnException(""), IF(NOT(ISO_8601.VALIDATE_CHARACTERS(_xlpm.Text, 2)), _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._Tpos, IFERROR(FIND("T", _xlpm.Text), 0), IF(_xlpm._Tpos &gt; 1, _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._sTime, IF(_xlpm._Tpos = 1, RIGHT(_xlpm.Text, LEN(_xlpm.Text) - 1), _xlpm.Text), _xlpm._len, LEN(_xlpm._sTime), _xlpm._colon1Pos, IFERROR(FIND(":", _xlpm._sTime), 0), _xlpm._colon2Pos, IFERROR(FIND(":", _xlpm._sTime, _xlpm._colon1Pos + 1), 0), _xlpm._decimalPos, _xlpm.fnFindNthCharPos(".,", _xlpm._sTime, 1), _xlpm._hash, (_xlpm._len * 4096) + (_xlpm._colon1Pos * 256) + (_xlpm._colon2Pos * 16) + _xlpm._decimalPos, _xlpm._hashLkup, _xlfn.IFNA(_xlfn.XMATCH(_xlpm._hash, _xlfn.CHOOSECOLS(_xlpm._fmtHashTable, 1), 0), 0), IF(_xlpm._hashLkup = 0, _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._defn, _xlfn.CHOOSEROWS(_xlpm._fmtHashTable, _xlpm._hashLkup), _xlpm._precision, INDEX(_xlpm._defn, 1, 2), _xlpm._extended, INDEX(_xlpm._defn, 1, 3), _xlpm._hour, VALUE(LEFT(_xlpm._sTime, 2)), _xlpm._minute, IF(_xlpm._precision &lt; 2, "", VALUE(MID(_xlpm._sTime, INDEX(_xlpm._defn, 1, 4), 2))), _xlpm._secLen, INDEX(_xlpm._defn, 1, 5), _xlpm._second, _xlfn.IFS(_xlpm._precision &lt; 3, "", _xlpm._precision = 3, VALUE(RIGHT(_xlpm._sTime, _xlpm._secLen)), TRUE, _xlfn.LET(_xlpm._sSec, RIGHT(_xlpm._sTime, _xlpm._secLen), _xlpm._intSec, VALUE(LEFT(_xlpm._sSec, 2)), _xlpm._fracSec, VALUE(RIGHT(_xlpm._sSec, _xlpm._secLen - 3)), _xlpm._decimalBase, INDEX({10,100,1000}, 1, _xlpm._precision - 3), _xlpm._intSec + (_xlpm._fracSec / _xlpm._decimalBase))), IF(NOT(ISO_8601.IS_VALID_TIME(_xlpm._hour, _xlpm._minute, _xlpm._second)), _xlpm.fnException("VALUE", _xlpm._precision, _xlpm._extended), _xlfn.HSTACK((_xlpm._Tpos = 1), _xlpm._precision, _xlpm._extended, _xlpm._hour, _xlpm._minute, _xlpm._second)))))))))))</definedName>
+    <definedName name="ISO_8601.PARSE_TIME_ZONE">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm._fmtHashTable, {1536,3,3,1,0;3328,1,3,0,0;5376,2,1,0,4;6464,2,2,0,5;7424,3,1,0,4;9543,3,2,0,5}, _xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception,_xlop._extended, _xlfn.IFS(_xlpm._exception = "N/A", {FALSE,"","",""}, _xlpm._exception = "VALUE", _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), {#VALUE!}), TRUE, {"","","",""})), _xlpm.fnCountChars, _xlfn.LAMBDA(_xlpm.CharArray,_xlpm.Text, IF(_xlpm.Text = "", 0, _xlfn.LET(_xlpm._removed, _xlfn.REDUCE(_xlpm.Text, _xlpm.CharArray, _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, SUBSTITUTE(_xlpm._acc, _xlpm._curr, ""))), LEN(_xlpm.Text) - LEN(_xlpm._removed)))), _xlpm.fnFindNthCharPos, _xlfn.LAMBDA(_xlpm.Chars,_xlpm.Text,_xlpm.N, _xlfn.LET(_xlpm._charCount, LEN(_xlpm.Chars), _xlpm._n, INT(N(_xlpm.N)), IF((_xlpm._charCount = 0) + (_xlpm._n = 0), 0, _xlfn.LET(_xlpm._chars, MID(_xlpm.Chars, _xlfn.SEQUENCE(1, _xlpm._charCount), 1), _xlpm._findCount, _xlpm.fnCountChars(_xlpm._chars, _xlpm.Text), IF(_xlpm._findCount &lt; ABS(_xlpm._n), 0, _xlfn.LET(_xlpm._nth, IF(_xlpm._n &gt; 0, _xlpm._n, _xlpm._findCount + _xlpm._n + 1), _xlpm._nthPos, _xlfn.REDUCE(0, _xlfn.SEQUENCE(1, _xlpm._nth), _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, IF(_xlpm._acc &lt; 0, -1, _xlfn.LET(_xlpm._nextPosChars, IFERROR(FIND(_xlpm._chars, _xlpm.Text, _xlpm._acc + 1), 0), _xlpm._nextPos, MIN(_xlfn._xlws.FILTER(_xlpm._nextPosChars, _xlpm._nextPosChars &gt; 0, 0)), IF(_xlpm._nextPos = 0, -1, _xlpm._nextPos))))), MAX(_xlpm._nthPos, 0))))))), IF(_xlpm.Text = "", _xlpm.fnException(""), IF(NOT(ISO_8601.VALIDATE_CHARACTERS(_xlpm.Text, 3)), _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._len, LEN(_xlpm.Text), _xlpm._Zonly, N((_xlpm._len = 1) * (IFERROR(FIND("Z", _xlpm.Text), 0) = 1)), _xlpm._lastSignPosAt1, N(_xlpm.fnFindNthCharPos("+-" &amp; _xlfn.UNICHAR(8722), _xlpm.Text, -1) = 1), _xlpm._colon1Pos, IFERROR(FIND(":", _xlpm.Text), 0), _xlpm._colon2Pos, IFERROR(FIND(":", _xlpm.Text, _xlpm._colon1Pos + 1), 0), _xlpm._hash, (_xlpm._len * 1024) + (_xlpm._Zonly * 512) + (_xlpm._lastSignPosAt1 * 256) + (_xlpm._colon1Pos * 16) + _xlpm._colon2Pos, _xlpm._hashLkup, _xlfn.IFNA(_xlfn.XMATCH(_xlpm._hash, _xlfn.CHOOSECOLS(_xlpm._fmtHashTable, 1), 0), 0), IF(_xlpm._hashLkup = 0, _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._defn, _xlfn.CHOOSEROWS(_xlpm._fmtHashTable, _xlpm._hashLkup), _xlpm._precision, INDEX(_xlpm._defn, 1, 2), _xlpm._extended, INDEX(_xlpm._defn, 1, 3), IF(INDEX(_xlpm._defn, 1, 4) &gt; 0, _xlfn.HSTACK(TRUE, _xlpm._precision, _xlpm._extended, 0), _xlfn.LET(_xlpm._sign, _xlfn.IFS(LEFT(_xlpm.Text, 1) = "-", -1, _xlfn.UNICODE(LEFT(_xlpm.Text, 1)) = 8722, -1, TRUE, 1), _xlpm._hour, _xlpm._sign * VALUE(MID(_xlpm.Text, 2, 2)), _xlpm._minute, IF(_xlpm._precision &lt; 2, "", VALUE(MID(_xlpm.Text, INDEX(_xlpm._defn, 1, 5), 2))), _xlpm._second, IF(_xlpm._precision &lt; 3, "", VALUE(RIGHT(_xlpm.Text, 2))), _xlpm._tzoMinutes, INT((N(_xlpm._hour) * 3600) + (N(_xlpm._minute) * 60) + N(_xlpm._second)) / 60, IF(NOT(ISO_8601.IS_VALID_TIME_ZONE(_xlpm._tzoMinutes)), _xlpm.fnException("VALUE", _xlpm._extended), _xlfn.HSTACK(TRUE, _xlpm._precision, _xlpm._extended, _xlpm._tzoMinutes)))))))))))</definedName>
     <definedName name="ISO_8601.TO_WEEK_DATE">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Month,_xlpm.Day, IF(ISNUMBER(_xlpm.Month), IF(NOT(ISO_8601.IS_VALID_DATE(_xlpm.YearCE, _xlpm.Month, _xlpm.Day, 1)), #VALUE!, _xlfn.LET(_xlpm._fracDay, _xlpm.Day - INT(_xlpm.Day), _xlpm._dow, ISO_8601.DAY_OF_WEEK(_xlpm.YearCE, _xlpm.Month, _xlpm.Day), _xlpm._week, ISO_8601.WEEK_NUMBER(_xlpm.YearCE, _xlpm.Month, _xlpm.Day), _xlpm._yearCE, INT(_xlpm.YearCE) + _xlfn.IFS((_xlpm._week = 1) * (_xlpm.Month = 12), 1, (_xlpm._week &gt;= 52) * (_xlpm.Month = 1), -1, TRUE, 0), _xlfn.HSTACK(_xlpm._yearCE, _xlpm._week, _xlpm._dow + _xlpm._fracDay))), IF(NOT(ISO_8601.IS_VALID_ORDINAL_DATE(_xlpm.YearCE, _xlpm.Day)), #VALUE!, _xlfn.LET(_xlpm._fracDay, _xlpm.Day - INT(_xlpm.Day), _xlpm._dow, ISO_8601.DAY_OF_WEEK_FROM_ORDINAL(_xlpm.YearCE, _xlpm.Day), _xlpm._week, ISO_8601.WEEK_NUMBER_FROM_ORDINAL(_xlpm.YearCE, _xlpm.Day), _xlpm._yearCE, INT(_xlpm.YearCE) + _xlfn.IFS((_xlpm._week = 1) * (_xlpm.Month = 12), 1, (_xlpm._week &gt;= 52) * (_xlpm.Month = 1), -1, TRUE, 0), _xlfn.HSTACK(_xlpm._yearCE, _xlpm._week, _xlpm._dow + _xlpm._fracDay)))))</definedName>
     <definedName name="ISO_8601.VALIDATE_CHARACTERS">_xlfn.LAMBDA(_xlpm.Text,_xlop.Subset, IF(_xlpm.Text = "", "", _xlfn.LET(_xlpm._idx, INT(N(_xlpm.Subset)), _xlpm._charSet, _xlfn.IFS(_xlpm._idx &lt;= 0, "+,-.0123456789:TWZ" &amp; _xlfn.UNICHAR(8722), _xlpm._idx = 1, "+-0123456789W" &amp; _xlfn.UNICHAR(8722), _xlpm._idx = 2, ",.0123456789:T", _xlpm._idx = 3, "+-0123456789:Z" &amp; _xlfn.UNICHAR(8722), _xlpm._idx = 4, "+,-.0123456789:TW" &amp; _xlfn.UNICHAR(8722), _xlpm._idx = 5, "+,-.0123456789:TZ" &amp; _xlfn.UNICHAR(8722), _xlpm._idx = 6, ",-.0123456789:DHMPSTWY", _xlpm._idx = 7, "+,-./0123456789:DHMPSTWYZ" &amp; _xlfn.UNICHAR(8722), _xlpm._idx &gt;= 8, "+,-./0123456789:DHMPRSTWYZ" &amp; _xlfn.UNICHAR(8722)), _xlpm._escapeText, SUBSTITUTE(SUBSTITUTE(_xlpm.Text, "&amp;", "&amp;amp;"), "&lt;", "&amp;lt;"), _xlpm._xml, "&lt;t&gt;&lt;s&gt;" &amp; _xlpm._escapeText &amp; "&lt;/s&gt;&lt;/t&gt;", _xlpm._xpath, "//s[translate(.,'" &amp; _xlpm._charSet &amp; "','')='']", NOT(ISERROR(_xlfn.FILTERXML(_xlpm._xml, _xlpm._xpath))))))</definedName>
     <definedName name="ISO_8601.WEEK_NUMBER">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Month,_xlpm.Day, IF(NOT(ISO_8601.IS_VALID_DATE(_xlpm.YearCE, _xlpm.Month, _xlpm.Day, 1)), #VALUE!, _xlfn.LET(_xlpm._ordinal, ISO_8601.DAY_ORDINAL(_xlpm.YearCE, _xlpm.Month, _xlpm.Day), _xlpm._dayOfWeek, ISO_8601.DAY_OF_WEEK(_xlpm.YearCE, _xlpm.Month, _xlpm.Day), _xlpm._nominalWeek, INT((INT(_xlpm._ordinal) - _xlpm._dayOfWeek + 10) / 7), _xlfn.IFS(_xlpm._nominalWeek = 0, ISO_8601.YEAR_WEEK_COUNT(_xlpm.YearCE - 1), _xlpm._nominalWeek = 53, IF(ISO_8601.YEAR_WEEK_COUNT(_xlpm.YearCE) = 53, 53, 1), TRUE, _xlpm._nominalWeek))))</definedName>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="140">
   <si>
     <t>IS_VALID_YEAR(YearCE)</t>
   </si>
@@ -254,12 +254,6 @@
     <t>T14:00:35.022−09:30</t>
   </si>
   <si>
-    <t>PARSE_DATE(Text, [Extended])</t>
-  </si>
-  <si>
-    <t>Extended</t>
-  </si>
-  <si>
     <t>Out: DateType</t>
   </si>
   <si>
@@ -329,43 +323,22 @@
     <t>Out: Second</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>201535</t>
   </si>
   <si>
     <t>201535.678</t>
   </si>
   <si>
-    <t>240000.001</t>
-  </si>
-  <si>
-    <t>240000.000</t>
-  </si>
-  <si>
     <t>01:15:34</t>
   </si>
   <si>
     <t>01:15:54.012</t>
   </si>
   <si>
-    <t>T24:00:00</t>
-  </si>
-  <si>
-    <t>T24</t>
-  </si>
-  <si>
     <t>T2</t>
   </si>
   <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>PARSE_TIME(Text, [Extended])</t>
-  </si>
-  <si>
-    <t>PARSE_TIME_ZONE(Text, [Extended])</t>
   </si>
   <si>
     <t>Out: Offset Minutes</t>
@@ -475,6 +448,79 @@
   </si>
   <si>
     <t>PARSE_DATE_TIME(Text)</t>
+  </si>
+  <si>
+    <t>2023-02-23T14:65</t>
+  </si>
+  <si>
+    <t>2023-02-23T14:55+15</t>
+  </si>
+  <si>
+    <t>2023-02-23T14:55+16</t>
+  </si>
+  <si>
+    <t>Out: Year</t>
+  </si>
+  <si>
+    <t>Out: ISOCompliant</t>
+  </si>
+  <si>
+    <t>100000-11</t>
+  </si>
+  <si>
+    <t>PARSE_DATE(Text)</t>
+  </si>
+  <si>
+    <t>PARSE_TIME(Text)</t>
+  </si>
+  <si>
+    <t>T2015</t>
+  </si>
+  <si>
+    <t>T240000.001</t>
+  </si>
+  <si>
+    <t>T240000.000</t>
+  </si>
+  <si>
+    <t>T11:65</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>PARSE_TIME_ZONE(Text)</t>
+  </si>
+  <si>
+    <t>Out: OffsetMinutes</t>
+  </si>
+  <si>
+    <t>Out:
+Parts</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>Out: Parts</t>
+  </si>
+  <si>
+    <t>+99999</t>
+  </si>
+  <si>
+    <t>+99999T09</t>
+  </si>
+  <si>
+    <t>+100000</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>+++</t>
   </si>
 </sst>
 </file>
@@ -738,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -788,9 +834,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -798,9 +841,11 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -1562,7 +1607,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="left" visibility="0" width="976" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1580,6 +1625,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1593,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A7EFF7-D7B6-49F8-9B8B-8E9959D1B63D}">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
@@ -1618,24 +1666,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1836,34 +1884,34 @@
       <c r="A16" s="26"/>
     </row>
     <row r="18" spans="1:22" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45" t="s">
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2357,25 +2405,25 @@
       <c r="S38" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45" t="s">
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -2755,21 +2803,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -2938,22 +2986,22 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -3213,22 +3261,22 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="H30" s="45" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="H30" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3392,24 +3440,24 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="45" t="s">
+      <c r="H42" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -3611,25 +3659,25 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="45" t="s">
+      <c r="H55" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
     </row>
     <row r="57" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
@@ -4255,28 +4303,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D209D5E7-E650-490C-9B1C-E77B3A161125}">
-  <dimension ref="A1:U130"/>
+  <dimension ref="A1:S142"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4425,45 +4473,47 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="H20" s="31" t="s">
         <v>54</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" cm="1">
-        <f t="array" ref="C21:F21">ISO_8601.PARSE_DATE(A21,B21)</f>
-        <v>0</v>
+      <c r="B21" s="8" t="str" cm="1">
+        <f t="array" ref="B21:H21">ISO_8601.PARSE_DATE(A21)</f>
+        <v/>
+      </c>
+      <c r="C21" s="8" t="str">
+        <v/>
       </c>
       <c r="D21" s="8" t="str">
         <v/>
@@ -4474,38 +4524,48 @@
       <c r="F21" s="8" t="str">
         <v/>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
+      <c r="G21" s="8" t="str">
+        <v/>
+      </c>
+      <c r="H21" s="9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" cm="1">
-        <f t="array" ref="C22:F22">ISO_8601.PARSE_DATE(A22,B22)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F22" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="B22" s="11" t="b" cm="1">
+        <f t="array" ref="B22:H22">ISO_8601.PARSE_DATE(A22)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="11" t="str">
+        <v/>
+      </c>
+      <c r="D22" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E22" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F22" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G22" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H22" s="12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8" cm="1">
-        <f t="array" ref="C23:H23">ISO_8601.PARSE_DATE(A23,B23)</f>
-        <v>0</v>
+      <c r="B23" s="8" t="str" cm="1">
+        <f t="array" ref="B23:H23">ISO_8601.PARSE_DATE(A23)</f>
+        <v/>
+      </c>
+      <c r="C23" s="8" t="str">
+        <v/>
       </c>
       <c r="D23" s="8" t="str">
         <v/>
@@ -4527,555 +4587,581 @@
       <c r="A24" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="11">
-        <v>1</v>
-      </c>
-      <c r="C24" s="11" cm="1">
-        <f t="array" ref="C24:H24">ISO_8601.PARSE_DATE(A24,B24)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F24" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G24" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H24" s="12" t="e">
-        <v>#N/A</v>
+      <c r="B24" s="11" t="b" cm="1">
+        <f t="array" ref="B24:H24">ISO_8601.PARSE_DATE(A24)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="11" t="str">
+        <v/>
+      </c>
+      <c r="D24" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E24" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F24" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G24" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H24" s="12" t="str">
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" cm="1">
-        <f t="array" ref="C25:F25">ISO_8601.PARSE_DATE(A25,B25)</f>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8" t="b" cm="1">
+        <f t="array" ref="B25:H25">ISO_8601.PARSE_DATE(A25)</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
         <v>1</v>
       </c>
       <c r="D25" s="8">
-        <v>2023</v>
-      </c>
-      <c r="E25" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F25" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G25" s="8" t="str">
+        <v/>
+      </c>
+      <c r="H25" s="9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="11">
-        <v>1</v>
-      </c>
-      <c r="C26" s="11" cm="1">
-        <f t="array" ref="C26:H26">ISO_8601.PARSE_DATE(A26,B26)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="11" t="e">
+        <v>94</v>
+      </c>
+      <c r="B26" s="11" t="b" cm="1">
+        <f t="array" ref="B26:H26">ISO_8601.PARSE_DATE(A26)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="E26" s="11" t="e">
+      <c r="G26" s="11" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="F26" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G26" s="11">
-        <v>2</v>
-      </c>
-      <c r="H26" s="12">
-        <v>2</v>
+      <c r="H26" s="12" t="str">
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8" cm="1">
-        <f t="array" ref="C27:H27">ISO_8601.PARSE_DATE(A27,B27)</f>
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="8" t="b" cm="1">
+        <f t="array" ref="B27:H27">ISO_8601.PARSE_DATE(A27)</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2</v>
       </c>
       <c r="D27" s="8">
-        <v>2023</v>
+        <v>2</v>
       </c>
       <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G27" s="8">
         <v>11</v>
       </c>
-      <c r="F27" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <v>2</v>
-      </c>
-      <c r="H27" s="9">
-        <v>2</v>
+      <c r="H27" s="9" t="str">
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="11">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11" cm="1">
-        <f t="array" ref="C28:H28">ISO_8601.PARSE_DATE(A28,B28)</f>
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="11" t="b" cm="1">
+        <f t="array" ref="B28:H28">ISO_8601.PARSE_DATE(A28)</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="11">
+        <v>3</v>
       </c>
       <c r="D28" s="11">
-        <v>2023</v>
+        <v>2</v>
       </c>
       <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G28" s="11">
         <v>11</v>
       </c>
-      <c r="F28" s="11">
+      <c r="H28" s="12">
         <v>5</v>
-      </c>
-      <c r="G28" s="11">
-        <v>3</v>
-      </c>
-      <c r="H28" s="12">
-        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="8">
-        <v>1</v>
-      </c>
-      <c r="C29" s="8" cm="1">
-        <f t="array" ref="C29:H29">ISO_8601.PARSE_DATE(A29,B29)</f>
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="B29" s="8" t="b" cm="1">
+        <f t="array" ref="B29:H29">ISO_8601.PARSE_DATE(A29)</f>
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>3</v>
       </c>
       <c r="D29" s="8">
+        <v>2</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
         <v>2024</v>
       </c>
-      <c r="E29" s="8">
+      <c r="G29" s="8">
         <v>2</v>
       </c>
-      <c r="F29" s="8">
+      <c r="H29" s="9">
         <v>29</v>
-      </c>
-      <c r="G29" s="8">
-        <v>3</v>
-      </c>
-      <c r="H29" s="9">
-        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="11">
-        <v>1</v>
-      </c>
-      <c r="C30" s="11" cm="1">
-        <f t="array" ref="C30:H30">ISO_8601.PARSE_DATE(A30,B30)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F30" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H30" s="12" t="e">
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="B30" s="11" t="b" cm="1">
+        <f t="array" ref="B30:H30">ISO_8601.PARSE_DATE(A30)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="11" t="str">
+        <v/>
+      </c>
+      <c r="D30" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E30" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F30" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G30" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H30" s="12" t="str">
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1</v>
-      </c>
-      <c r="C31" s="8" cm="1">
-        <f t="array" ref="C31:H31">ISO_8601.PARSE_DATE(A31,B31)</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="B31" s="8" t="b" cm="1">
+        <f t="array" ref="B31:H31">ISO_8601.PARSE_DATE(A31)</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>3</v>
       </c>
       <c r="D31" s="8">
-        <v>2023</v>
+        <v>1</v>
       </c>
       <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G31" s="8">
         <v>11</v>
       </c>
-      <c r="F31" s="8">
+      <c r="H31" s="9">
         <v>5</v>
-      </c>
-      <c r="G31" s="8">
-        <v>3</v>
-      </c>
-      <c r="H31" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="11">
-        <v>1</v>
-      </c>
-      <c r="C32" s="11" cm="1">
-        <f t="array" ref="C32:H32">ISO_8601.PARSE_DATE(A32,B32)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E32" s="11" t="e">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="B32" s="11" t="b" cm="1">
+        <f t="array" ref="B32:H32">ISO_8601.PARSE_DATE(A32)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11">
+        <v>2</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1</v>
       </c>
       <c r="F32" s="11" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="G32" s="11">
-        <v>3</v>
-      </c>
-      <c r="H32" s="12">
-        <v>2</v>
+      <c r="G32" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H32" s="12" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-      <c r="C33" s="8" cm="1">
-        <f t="array" ref="C33:H33">ISO_8601.PARSE_DATE(A33,B33)</f>
+        <v>62</v>
+      </c>
+      <c r="B33" s="8" t="b" cm="1">
+        <f t="array" ref="B33:H33">ISO_8601.PARSE_DATE(A33)</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="8">
+        <v>3</v>
+      </c>
+      <c r="D33" s="8">
         <v>2</v>
       </c>
-      <c r="D33" s="8">
-        <v>2023</v>
-      </c>
-      <c r="E33" s="8" t="str">
-        <v/>
+      <c r="E33" s="8">
+        <v>2</v>
       </c>
       <c r="F33" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G33" s="8" t="str">
+        <v/>
+      </c>
+      <c r="H33" s="9">
         <v>125</v>
-      </c>
-      <c r="G33" s="8">
-        <v>3</v>
-      </c>
-      <c r="H33" s="9">
-        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="4" cm="1">
-        <f t="array" ref="C34:H34">ISO_8601.PARSE_DATE(A34,B34)</f>
+        <v>66</v>
+      </c>
+      <c r="B34" s="4" t="b" cm="1">
+        <f t="array" ref="B34:H34">ISO_8601.PARSE_DATE(A34)</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4">
         <v>2</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4">
         <v>12031</v>
       </c>
-      <c r="E34" s="4" t="str">
-        <v/>
-      </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H34" s="3">
         <v>125</v>
-      </c>
-      <c r="G34" s="4">
-        <v>3</v>
-      </c>
-      <c r="H34" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="8">
-        <v>1</v>
-      </c>
-      <c r="C35" s="8" cm="1">
-        <f t="array" ref="C35:H35">ISO_8601.PARSE_DATE(A35,B35)</f>
+        <v>67</v>
+      </c>
+      <c r="B35" s="8" t="b" cm="1">
+        <f t="array" ref="B35:H35">ISO_8601.PARSE_DATE(A35)</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="8">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
         <v>2</v>
       </c>
-      <c r="D35" s="8">
+      <c r="E35" s="8">
+        <v>2</v>
+      </c>
+      <c r="F35" s="8">
         <v>-12031</v>
       </c>
-      <c r="E35" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F35" s="8">
+      <c r="G35" s="8" t="str">
+        <v/>
+      </c>
+      <c r="H35" s="9">
         <v>125</v>
-      </c>
-      <c r="G35" s="8">
-        <v>3</v>
-      </c>
-      <c r="H35" s="9">
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4" cm="1">
-        <f t="array" ref="C36:H36">ISO_8601.PARSE_DATE(A36,B36)</f>
+        <v>64</v>
+      </c>
+      <c r="B36" s="4" t="b" cm="1">
+        <f t="array" ref="B36:H36">ISO_8601.PARSE_DATE(A36)</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
         <v>3</v>
       </c>
       <c r="D36" s="4">
-        <v>2023</v>
+        <v>2</v>
       </c>
       <c r="E36" s="4">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2023</v>
+      </c>
+      <c r="G36" s="4">
         <v>25</v>
       </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4">
-        <v>3</v>
-      </c>
       <c r="H36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="8">
-        <v>1</v>
-      </c>
-      <c r="C37" s="8" cm="1">
-        <f t="array" ref="C37:H37">ISO_8601.PARSE_DATE(A37,B37)</f>
+        <v>68</v>
+      </c>
+      <c r="B37" s="8" t="b" cm="1">
+        <f t="array" ref="B37:H37">ISO_8601.PARSE_DATE(A37)</f>
+        <v>1</v>
+      </c>
+      <c r="C37" s="8">
         <v>3</v>
       </c>
       <c r="D37" s="8">
+        <v>2</v>
+      </c>
+      <c r="E37" s="8">
+        <v>3</v>
+      </c>
+      <c r="F37" s="8">
         <v>-41</v>
       </c>
-      <c r="E37" s="8">
+      <c r="G37" s="8">
         <v>25</v>
       </c>
-      <c r="F37" s="8">
+      <c r="H37" s="9">
         <v>3</v>
-      </c>
-      <c r="G37" s="8">
-        <v>3</v>
-      </c>
-      <c r="H37" s="9">
-        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4" cm="1">
-        <f t="array" ref="C38:H38">ISO_8601.PARSE_DATE(A38,B38)</f>
+        <v>69</v>
+      </c>
+      <c r="B38" s="4" t="b" cm="1">
+        <f t="array" ref="B38:H38">ISO_8601.PARSE_DATE(A38)</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
         <v>3</v>
       </c>
       <c r="D38" s="4">
-        <v>2023</v>
+        <v>2</v>
       </c>
       <c r="E38" s="4">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2023</v>
+      </c>
+      <c r="G38" s="4">
         <v>25</v>
       </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4">
-        <v>3</v>
-      </c>
       <c r="H38" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="8">
-        <v>1</v>
-      </c>
-      <c r="C39" s="8" cm="1">
-        <f t="array" ref="C39:H39">ISO_8601.PARSE_DATE(A39,B39)</f>
+        <v>70</v>
+      </c>
+      <c r="B39" s="8" t="b" cm="1">
+        <f t="array" ref="B39:H39">ISO_8601.PARSE_DATE(A39)</f>
+        <v>1</v>
+      </c>
+      <c r="C39" s="8">
         <v>3</v>
       </c>
       <c r="D39" s="8">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8">
+        <v>3</v>
+      </c>
+      <c r="F39" s="8">
         <v>-41</v>
       </c>
-      <c r="E39" s="8">
+      <c r="G39" s="8">
         <v>25</v>
       </c>
-      <c r="F39" s="8">
+      <c r="H39" s="9">
         <v>3</v>
-      </c>
-      <c r="G39" s="8">
-        <v>3</v>
-      </c>
-      <c r="H39" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1</v>
-      </c>
-      <c r="C40" s="4" cm="1">
-        <f t="array" ref="C40:H40">ISO_8601.PARSE_DATE(A40,B40)</f>
+        <v>63</v>
+      </c>
+      <c r="B40" s="4" t="b" cm="1">
+        <f t="array" ref="B40:H40">ISO_8601.PARSE_DATE(A40)</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
         <v>3</v>
       </c>
       <c r="D40" s="4">
-        <v>2023</v>
+        <v>1</v>
       </c>
       <c r="E40" s="4">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2023</v>
+      </c>
+      <c r="G40" s="4">
         <v>25</v>
       </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="24" t="b" cm="1">
+        <f t="array" ref="B41:H41">ISO_8601.PARSE_DATE(A41)</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="24" t="str">
+        <v/>
+      </c>
+      <c r="D41" s="24" t="str">
+        <v/>
+      </c>
+      <c r="E41" s="24" t="str">
+        <v/>
+      </c>
+      <c r="F41" s="24" t="str">
+        <v/>
+      </c>
+      <c r="G41" s="24" t="str">
+        <v/>
+      </c>
+      <c r="H41" s="29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="4" t="b" cm="1">
+        <f t="array" ref="B42:H42">ISO_8601.PARSE_DATE(A42)</f>
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
         <v>3</v>
       </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="24">
-        <v>1</v>
-      </c>
-      <c r="C41" s="24" cm="1">
-        <f t="array" ref="C41:H41">ISO_8601.PARSE_DATE(A41,B41)</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E41" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F41" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G41" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H41" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-    </row>
-    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="31" t="s">
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>99999</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H42" s="3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="24" t="b" cm="1">
+        <f t="array" ref="B43:H43">ISO_8601.PARSE_DATE(A43)</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="24" t="str">
+        <v/>
+      </c>
+      <c r="D43" s="24" t="str">
+        <v/>
+      </c>
+      <c r="E43" s="24" t="str">
+        <v/>
+      </c>
+      <c r="F43" s="24" t="str">
+        <v/>
+      </c>
+      <c r="G43" s="24" t="str">
+        <v/>
+      </c>
+      <c r="H43" s="29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+    </row>
+    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="P46" s="44"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8" t="str" cm="1">
-        <f t="array" ref="C47:E47">ISO_8601.PARSE_TIME(A47,B47)</f>
-        <v/>
-      </c>
-      <c r="D47" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E47" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11" t="e" cm="1">
-        <f t="array" ref="C48:E48">ISO_8601.PARSE_TIME(A48,B48)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D48" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E48" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
+      <c r="P48" s="43"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="8">
-        <v>1</v>
-      </c>
-      <c r="C49" s="8" t="str" cm="1">
-        <f t="array" ref="C49:G49">ISO_8601.PARSE_TIME(A49,B49)</f>
+      <c r="A49" s="32"/>
+      <c r="B49" s="8" t="str" cm="1">
+        <f t="array" ref="B49:G49">ISO_8601.PARSE_TIME(A49)</f>
+        <v/>
+      </c>
+      <c r="C49" s="8" t="str">
         <v/>
       </c>
       <c r="D49" s="8" t="str">
@@ -5092,37 +5178,37 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="11">
-        <v>1</v>
-      </c>
-      <c r="C50" s="11" t="e" cm="1">
-        <f t="array" ref="C50:G50">ISO_8601.PARSE_TIME(A50,B50)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D50" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E50" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F50" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G50" s="12" t="e">
-        <v>#N/A</v>
+      <c r="A50" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="11" t="b" cm="1">
+        <f t="array" ref="B50:G50">ISO_8601.PARSE_TIME(A50)</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="11" t="str">
+        <v/>
+      </c>
+      <c r="D50" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E50" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F50" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G50" s="12" t="str">
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8" cm="1">
-        <f t="array" ref="C51:E51">ISO_8601.PARSE_TIME(A51,B51)</f>
-        <v>14</v>
+      <c r="A51" s="34"/>
+      <c r="B51" s="8" t="str" cm="1">
+        <f t="array" ref="B51:G51">ISO_8601.PARSE_TIME(A51)</f>
+        <v/>
+      </c>
+      <c r="C51" s="8" t="str">
+        <v/>
       </c>
       <c r="D51" s="8" t="str">
         <v/>
@@ -5130,1691 +5216,2283 @@
       <c r="E51" s="8" t="str">
         <v/>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
+      <c r="F51" s="8" t="str">
+        <v/>
+      </c>
+      <c r="G51" s="9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="11">
-        <v>1</v>
-      </c>
-      <c r="C52" s="11" cm="1">
-        <f t="array" ref="C52:G52">ISO_8601.PARSE_TIME(A52,B52)</f>
+        <v>1</v>
+      </c>
+      <c r="B52" s="11" t="b" cm="1">
+        <f t="array" ref="B52:G52">ISO_8601.PARSE_TIME(A52)</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="11" t="str">
+        <v/>
+      </c>
+      <c r="D52" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E52" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F52" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G52" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="8" t="b" cm="1">
+        <f t="array" ref="B53:G53">ISO_8601.PARSE_TIME(A53)</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="8">
+        <v>1</v>
+      </c>
+      <c r="D53" s="8">
+        <v>3</v>
+      </c>
+      <c r="E53" s="8">
         <v>14</v>
       </c>
-      <c r="D52" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E52" s="11" t="str">
-        <v/>
-      </c>
-      <c r="F52" s="11">
-        <v>1</v>
-      </c>
-      <c r="G52" s="12">
+      <c r="F53" s="8" t="str">
+        <v/>
+      </c>
+      <c r="G53" s="9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="11" t="b" cm="1">
+        <f t="array" ref="B54:G54">ISO_8601.PARSE_TIME(A54)</f>
+        <v>1</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="8">
-        <v>1</v>
-      </c>
-      <c r="C53" s="8" cm="1">
-        <f t="array" ref="C53:G53">ISO_8601.PARSE_TIME(A53,B53)</f>
-        <v>20</v>
-      </c>
-      <c r="D53" s="8">
-        <v>15</v>
-      </c>
-      <c r="E53" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F53" s="8">
-        <v>2</v>
-      </c>
-      <c r="G53" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="11">
-        <v>1</v>
-      </c>
-      <c r="C54" s="11" cm="1">
-        <f t="array" ref="C54:G54">ISO_8601.PARSE_TIME(A54,B54)</f>
-        <v>20</v>
-      </c>
-      <c r="D54" s="11">
-        <v>15</v>
-      </c>
       <c r="E54" s="11">
-        <v>35</v>
-      </c>
-      <c r="F54" s="11">
-        <v>3</v>
-      </c>
-      <c r="G54" s="12">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F54" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G54" s="12" t="str">
+        <v/>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="8">
-        <v>1</v>
-      </c>
-      <c r="C55" s="8" cm="1">
-        <f t="array" ref="C55:G55">ISO_8601.PARSE_TIME(A55,B55)</f>
+        <v>124</v>
+      </c>
+      <c r="B55" s="8" t="b" cm="1">
+        <f t="array" ref="B55:G55">ISO_8601.PARSE_TIME(A55)</f>
+        <v>1</v>
+      </c>
+      <c r="C55" s="8">
+        <v>2</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8">
         <v>20</v>
       </c>
-      <c r="D55" s="8">
+      <c r="F55" s="8">
         <v>15</v>
       </c>
-      <c r="E55" s="8">
-        <v>35.677999999999997</v>
-      </c>
-      <c r="F55" s="8">
-        <v>6</v>
-      </c>
-      <c r="G55" s="9">
-        <v>1</v>
+      <c r="G55" s="9" t="str">
+        <v/>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" s="11">
-        <v>1</v>
-      </c>
-      <c r="C56" s="11" t="e" cm="1">
-        <f t="array" ref="C56:G56">ISO_8601.PARSE_TIME(A56,B56)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D56" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E56" s="11" t="e">
-        <v>#VALUE!</v>
+        <v>75</v>
+      </c>
+      <c r="B56" s="11" t="b" cm="1">
+        <f t="array" ref="B56:G56">ISO_8601.PARSE_TIME(A56)</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="11">
+        <v>3</v>
+      </c>
+      <c r="D56" s="11">
+        <v>1</v>
+      </c>
+      <c r="E56" s="11">
+        <v>20</v>
       </c>
       <c r="F56" s="11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G56" s="12">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57" s="8">
-        <v>1</v>
-      </c>
-      <c r="C57" s="8" cm="1">
-        <f t="array" ref="C57:G57">ISO_8601.PARSE_TIME(A57,B57)</f>
-        <v>24</v>
+        <v>76</v>
+      </c>
+      <c r="B57" s="8" t="b" cm="1">
+        <f t="array" ref="B57:G57">ISO_8601.PARSE_TIME(A57)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="8">
+        <v>6</v>
       </c>
       <c r="D57" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F57" s="8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G57" s="9">
-        <v>1</v>
+        <v>35.677999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" s="11">
-        <v>1</v>
-      </c>
-      <c r="C58" s="11" cm="1">
-        <f t="array" ref="C58:G58">ISO_8601.PARSE_TIME(A58,B58)</f>
-        <v>1</v>
+      <c r="A58" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="11" t="b" cm="1">
+        <f t="array" ref="B58:G58">ISO_8601.PARSE_TIME(A58)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="11">
+        <v>0</v>
       </c>
       <c r="D58" s="11">
-        <v>15</v>
-      </c>
-      <c r="E58" s="11">
-        <v>34</v>
-      </c>
-      <c r="F58" s="11">
-        <v>3</v>
-      </c>
-      <c r="G58" s="12">
-        <v>2</v>
-      </c>
-      <c r="N58" s="41"/>
-      <c r="S58" s="41"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="12" t="e">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="8">
-        <v>1</v>
-      </c>
-      <c r="C59" s="8" cm="1">
-        <f t="array" ref="C59:G59">ISO_8601.PARSE_TIME(A59,B59)</f>
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B59" s="8" t="b" cm="1">
+        <f t="array" ref="B59:G59">ISO_8601.PARSE_TIME(A59)</f>
+        <v>1</v>
+      </c>
+      <c r="C59" s="8">
+        <v>6</v>
       </c>
       <c r="D59" s="8">
+        <v>1</v>
+      </c>
+      <c r="E59" s="8">
+        <v>24</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="11" t="b" cm="1">
+        <f t="array" ref="B60:G60">ISO_8601.PARSE_TIME(A60)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="11">
+        <v>3</v>
+      </c>
+      <c r="D60" s="11">
+        <v>2</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1</v>
+      </c>
+      <c r="F60" s="11">
         <v>15</v>
       </c>
-      <c r="E59" s="8">
-        <v>54.012</v>
-      </c>
-      <c r="F59" s="8">
-        <v>6</v>
-      </c>
-      <c r="G59" s="9">
-        <v>2</v>
-      </c>
-      <c r="N59" s="41"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="4">
-        <v>1</v>
-      </c>
-      <c r="C60" s="4" cm="1">
-        <f t="array" ref="C60:G60">ISO_8601.PARSE_TIME(A60,B60)</f>
-        <v>1</v>
-      </c>
-      <c r="D60" s="4">
-        <v>45</v>
-      </c>
-      <c r="E60" s="4">
-        <v>12.34</v>
-      </c>
-      <c r="F60" s="4">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2</v>
-      </c>
-      <c r="N60" s="41"/>
+      <c r="G60" s="12">
+        <v>34</v>
+      </c>
+      <c r="N60" s="40"/>
+      <c r="S60" s="40"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="8">
-        <v>1</v>
-      </c>
-      <c r="C61" s="8" cm="1">
-        <f t="array" ref="C61:G61">ISO_8601.PARSE_TIME(A61,B61)</f>
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="B61" s="8" t="b" cm="1">
+        <f t="array" ref="B61:G61">ISO_8601.PARSE_TIME(A61)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="8">
+        <v>6</v>
       </c>
       <c r="D61" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="8">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G61" s="9">
-        <v>2</v>
-      </c>
-      <c r="N61" s="41"/>
-      <c r="R61" s="41"/>
+        <v>54.012</v>
+      </c>
+      <c r="N61" s="40"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" s="4">
-        <v>1</v>
-      </c>
-      <c r="C62" s="4" cm="1">
-        <f t="array" ref="C62:G62">ISO_8601.PARSE_TIME(A62,B62)</f>
-        <v>24</v>
-      </c>
-      <c r="D62" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E62" s="4" t="str">
-        <v/>
+        <v>92</v>
+      </c>
+      <c r="B62" s="4" t="b" cm="1">
+        <f t="array" ref="B62:G62">ISO_8601.PARSE_TIME(A62)</f>
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>5</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
       </c>
       <c r="F62" s="4">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G62" s="3">
-        <v>3</v>
-      </c>
-      <c r="N62" s="41"/>
-      <c r="Q62" s="41"/>
+        <v>12.34</v>
+      </c>
+      <c r="N62" s="40"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B63" s="8">
-        <v>1</v>
-      </c>
-      <c r="C63" s="8" t="e" cm="1">
-        <f t="array" ref="C63:G63">ISO_8601.PARSE_TIME(A63,B63)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D63" s="8" t="e">
-        <v>#N/A</v>
+        <v>127</v>
+      </c>
+      <c r="B63" s="8" t="b" cm="1">
+        <f t="array" ref="B63:G63">ISO_8601.PARSE_TIME(A63)</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0</v>
+      </c>
+      <c r="D63" s="8">
+        <v>2</v>
       </c>
       <c r="E63" s="8" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F63" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G63" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N63" s="41"/>
-      <c r="R63" s="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G63" s="9" t="str">
+        <v/>
+      </c>
+      <c r="N63" s="40"/>
+      <c r="R63" s="40"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="4" t="b" cm="1">
+        <f t="array" ref="B64:G64">ISO_8601.PARSE_TIME(A64)</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D64" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E64" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F64" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G64" s="3" t="str">
+        <v/>
+      </c>
+      <c r="N64" s="40"/>
+      <c r="Q64" s="40"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="8" t="b" cm="1">
+        <f t="array" ref="B65:G65">ISO_8601.PARSE_TIME(A65)</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="8" t="str">
+        <v/>
+      </c>
+      <c r="D65" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E65" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F65" s="8" t="str">
+        <v/>
+      </c>
+      <c r="G65" s="9" t="str">
+        <v/>
+      </c>
+      <c r="N65" s="40"/>
+      <c r="R65" s="40"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="4" t="b" cm="1">
+        <f t="array" ref="B66:G66">ISO_8601.PARSE_TIME(A66)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>3</v>
+      </c>
+      <c r="E66" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G66" s="3" t="str">
+        <v/>
+      </c>
+      <c r="N66" s="40"/>
+      <c r="Q66" s="40"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N67" s="40"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N68" s="40"/>
+      <c r="R68" s="40"/>
+    </row>
+    <row r="69" spans="1:19" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="N69" s="40"/>
+      <c r="Q69" s="40"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N70" s="40"/>
+      <c r="R70" s="40"/>
+    </row>
+    <row r="71" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="L71" s="40"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="32"/>
+      <c r="B72" s="8" t="str" cm="1">
+        <f t="array" ref="B72:E72">ISO_8601.PARSE_TIME_ZONE(A72)</f>
+        <v/>
+      </c>
+      <c r="C72" s="8" t="str">
+        <v/>
+      </c>
+      <c r="D72" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E72" s="37" t="str">
+        <v/>
+      </c>
+      <c r="L72" s="40"/>
+      <c r="Q72" s="40"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="11" t="b" cm="1">
+        <f t="array" ref="B73:E73">ISO_8601.PARSE_TIME_ZONE(A73)</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="11" t="str">
+        <v/>
+      </c>
+      <c r="D73" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E73" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="34"/>
+      <c r="B74" s="8" t="str" cm="1">
+        <f t="array" ref="B74:E74">ISO_8601.PARSE_TIME_ZONE(A74)</f>
+        <v/>
+      </c>
+      <c r="C74" s="8" t="str">
+        <v/>
+      </c>
+      <c r="D74" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E74" s="37" t="str">
+        <v/>
+      </c>
+      <c r="L74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+      <c r="S74" s="40"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="11" t="b" cm="1">
+        <f t="array" ref="B75:E75">ISO_8601.PARSE_TIME_ZONE(A75)</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="11" t="str">
+        <v/>
+      </c>
+      <c r="D75" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E75" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="8" t="b" cm="1">
+        <f t="array" ref="B76:E76">ISO_8601.PARSE_TIME_ZONE(A76)</f>
+        <v>1</v>
+      </c>
+      <c r="C76" s="8">
+        <v>3</v>
+      </c>
+      <c r="D76" s="8">
+        <v>3</v>
+      </c>
+      <c r="E76" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="11" t="b" cm="1">
+        <f t="array" ref="B77:E77">ISO_8601.PARSE_TIME_ZONE(A77)</f>
+        <v>1</v>
+      </c>
+      <c r="C77" s="11">
+        <v>1</v>
+      </c>
+      <c r="D77" s="11">
+        <v>3</v>
+      </c>
+      <c r="E77" s="38">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="8" t="b" cm="1">
+        <f t="array" ref="B78:E78">ISO_8601.PARSE_TIME_ZONE(A78)</f>
+        <v>1</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1</v>
+      </c>
+      <c r="D78" s="8">
+        <v>3</v>
+      </c>
+      <c r="E78" s="37">
+        <v>-720</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="11" t="b" cm="1">
+        <f t="array" ref="B79:E79">ISO_8601.PARSE_TIME_ZONE(A79)</f>
+        <v>1</v>
+      </c>
+      <c r="C79" s="11">
+        <v>1</v>
+      </c>
+      <c r="D79" s="11">
+        <v>3</v>
+      </c>
+      <c r="E79" s="38">
+        <v>-720</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="8" t="b" cm="1">
+        <f t="array" ref="B80:E80">ISO_8601.PARSE_TIME_ZONE(A80)</f>
+        <v>1</v>
+      </c>
+      <c r="C80" s="8">
+        <v>2</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1</v>
+      </c>
+      <c r="E80" s="37">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="11" t="b" cm="1">
+        <f t="array" ref="B81:E81">ISO_8601.PARSE_TIME_ZONE(A81)</f>
+        <v>1</v>
+      </c>
+      <c r="C81" s="11">
+        <v>2</v>
+      </c>
+      <c r="D81" s="11">
+        <v>2</v>
+      </c>
+      <c r="E81" s="38">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="4">
-        <v>1</v>
-      </c>
-      <c r="C64" s="4" t="e" cm="1">
-        <f t="array" ref="C64:G64">ISO_8601.PARSE_TIME(A64,B64)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D64" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E64" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F64" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G64" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N64" s="41"/>
-      <c r="Q64" s="41"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N65" s="41"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N66" s="41"/>
-      <c r="R66" s="41"/>
-    </row>
-    <row r="67" spans="1:21" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="45" t="s">
+      <c r="B82" s="8" t="b" cm="1">
+        <f t="array" ref="B82:E82">ISO_8601.PARSE_TIME_ZONE(A82)</f>
+        <v>1</v>
+      </c>
+      <c r="C82" s="8">
+        <v>3</v>
+      </c>
+      <c r="D82" s="8">
+        <v>2</v>
+      </c>
+      <c r="E82" s="37">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="11" t="b" cm="1">
+        <f t="array" ref="B83:E83">ISO_8601.PARSE_TIME_ZONE(A83)</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="11">
+        <v>0</v>
+      </c>
+      <c r="D83" s="11">
+        <v>2</v>
+      </c>
+      <c r="E83" s="38" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="N67" s="41"/>
-      <c r="Q67" s="41"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N68" s="41"/>
-      <c r="R68" s="41"/>
-    </row>
-    <row r="69" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="6" t="s">
+      <c r="B84" s="8" t="b" cm="1">
+        <f t="array" ref="B84:E84">ISO_8601.PARSE_TIME_ZONE(A84)</f>
+        <v>1</v>
+      </c>
+      <c r="C84" s="8">
+        <v>3</v>
+      </c>
+      <c r="D84" s="8">
+        <v>2</v>
+      </c>
+      <c r="E84" s="37">
+        <v>570.36666666666667</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="4" t="b" cm="1">
+        <f t="array" ref="B85:E85">ISO_8601.PARSE_TIME_ZONE(A85)</f>
+        <v>1</v>
+      </c>
+      <c r="C85" s="4">
+        <v>3</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="39">
+        <v>-519.63333333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="24" t="b" cm="1">
+        <f t="array" ref="B86:E86">ISO_8601.PARSE_TIME_ZONE(A86)</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="24" t="str">
+        <v/>
+      </c>
+      <c r="D86" s="24" t="str">
+        <v/>
+      </c>
+      <c r="E86" s="42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" s="4" t="b" cm="1">
+        <f t="array" ref="B87:E87">ISO_8601.PARSE_TIME_ZONE(A87)</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D87" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E87" s="39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+    </row>
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="32"/>
+      <c r="B93" s="8" t="str" cm="1">
+        <f t="array" ref="B93:F93">ISO_8601.PARSE_PARTS(A93)</f>
+        <v/>
+      </c>
+      <c r="C93" s="8" t="str">
+        <v/>
+      </c>
+      <c r="D93" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E93" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F93" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="11" t="b" cm="1">
+        <f t="array" ref="B94:F94">ISO_8601.PARSE_PARTS(A94)</f>
+        <v>0</v>
+      </c>
+      <c r="C94" s="11">
+        <v>0</v>
+      </c>
+      <c r="D94" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E94" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F94" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="34"/>
+      <c r="B95" s="8" t="str" cm="1">
+        <f t="array" ref="B95:F95">ISO_8601.PARSE_PARTS(A95)</f>
+        <v/>
+      </c>
+      <c r="C95" s="8" t="str">
+        <v/>
+      </c>
+      <c r="D95" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E95" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F95" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="11" t="b" cm="1">
+        <f t="array" ref="B96:F96">ISO_8601.PARSE_PARTS(A96)</f>
+        <v>0</v>
+      </c>
+      <c r="C96" s="11">
+        <v>0</v>
+      </c>
+      <c r="D96" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E96" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F96" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="8" t="b" cm="1">
+        <f t="array" ref="B97:F97">ISO_8601.PARSE_PARTS(A97)</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="8">
+        <v>5</v>
+      </c>
+      <c r="D97" s="8" t="str">
+        <v>2023</v>
+      </c>
+      <c r="E97" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F97" s="37" t="str">
+        <v>+09:30:22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="11" t="b" cm="1">
+        <f t="array" ref="B98:F98">ISO_8601.PARSE_PARTS(A98)</f>
+        <v>0</v>
+      </c>
+      <c r="C98" s="11">
+        <v>5</v>
+      </c>
+      <c r="D98" s="11" t="str">
+        <v>99999-10</v>
+      </c>
+      <c r="E98" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F98" s="38" t="str">
+        <v>+09:30:22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="8" t="b" cm="1">
+        <f t="array" ref="B99:F99">ISO_8601.PARSE_PARTS(A99)</f>
+        <v>1</v>
+      </c>
+      <c r="C99" s="8">
+        <v>7</v>
+      </c>
+      <c r="D99" s="8" t="str">
+        <v>99999-W15-2</v>
+      </c>
+      <c r="E99" s="8" t="str">
+        <v>T14:25:21.123</v>
+      </c>
+      <c r="F99" s="37" t="str">
+        <v>+09:30:22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="11" t="b" cm="1">
+        <f t="array" ref="B100:F100">ISO_8601.PARSE_PARTS(A100)</f>
+        <v>1</v>
+      </c>
+      <c r="C100" s="11">
+        <v>6</v>
+      </c>
+      <c r="D100" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E100" s="11" t="str">
+        <v>T12:35</v>
+      </c>
+      <c r="F100" s="38" t="str">
+        <v>+09:30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="8" t="b" cm="1">
+        <f t="array" ref="B101:F101">ISO_8601.PARSE_PARTS(A101)</f>
+        <v>1</v>
+      </c>
+      <c r="C101" s="8">
+        <v>3</v>
+      </c>
+      <c r="D101" s="8" t="str">
+        <v>2023-W15-2</v>
+      </c>
+      <c r="E101" s="8" t="str">
+        <v>T14:25</v>
+      </c>
+      <c r="F101" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" s="11" t="b" cm="1">
+        <f t="array" ref="B102:F102">ISO_8601.PARSE_PARTS(A102)</f>
+        <v>1</v>
+      </c>
+      <c r="C102" s="11">
+        <v>2</v>
+      </c>
+      <c r="D102" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E102" s="11" t="str">
+        <v>T12:35:12.000</v>
+      </c>
+      <c r="F102" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="8" t="b" cm="1">
+        <f t="array" ref="B103:F103">ISO_8601.PARSE_PARTS(A103)</f>
+        <v>1</v>
+      </c>
+      <c r="C103" s="8">
+        <v>6</v>
+      </c>
+      <c r="D103" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E103" s="8" t="str">
+        <v>T123512.000</v>
+      </c>
+      <c r="F103" s="37" t="str">
+        <v>+09</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B104" s="11" t="b" cm="1">
+        <f t="array" ref="B104:F104">ISO_8601.PARSE_PARTS(A104)</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="11">
+        <v>4</v>
+      </c>
+      <c r="D104" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E104" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F104" s="38" t="str">
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="8" t="b" cm="1">
+        <f t="array" ref="B105:F105">ISO_8601.PARSE_PARTS(A105)</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="8">
+        <v>4</v>
+      </c>
+      <c r="D105" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E105" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F105" s="37" t="str">
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="11" t="b" cm="1">
+        <f t="array" ref="B106:F106">ISO_8601.PARSE_PARTS(A106)</f>
+        <v>1</v>
+      </c>
+      <c r="C106" s="4">
+        <v>3</v>
+      </c>
+      <c r="D106" s="4" t="str">
+        <v>2023-02-23</v>
+      </c>
+      <c r="E106" s="4" t="str">
+        <v>T1435</v>
+      </c>
+      <c r="F106" s="39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="24" t="b" cm="1">
+        <f t="array" ref="B107:F107">ISO_8601.PARSE_PARTS(A107)</f>
+        <v>0</v>
+      </c>
+      <c r="C107" s="24">
+        <v>5</v>
+      </c>
+      <c r="D107" s="24" t="str">
+        <v>2023-02-23</v>
+      </c>
+      <c r="E107" s="24" t="str">
+        <v/>
+      </c>
+      <c r="F107" s="42" t="str">
+        <v>+09</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="45" t="b" cm="1">
+        <f t="array" ref="B108:F108">ISO_8601.PARSE_PARTS(A108)</f>
+        <v>1</v>
+      </c>
+      <c r="C108" s="4">
+        <v>2</v>
+      </c>
+      <c r="D108" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E108" s="4" t="str">
+        <v>T</v>
+      </c>
+      <c r="F108" s="39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="24" t="b" cm="1">
+        <f t="array" ref="B109:F109">ISO_8601.PARSE_PARTS(A109)</f>
+        <v>1</v>
+      </c>
+      <c r="C109" s="24">
+        <v>7</v>
+      </c>
+      <c r="D109" s="24" t="str">
+        <v>2023-02-23</v>
+      </c>
+      <c r="E109" s="24" t="str">
+        <v>T14:35</v>
+      </c>
+      <c r="F109" s="42" t="str">
+        <v>+15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="45" t="b" cm="1">
+        <f t="array" ref="B110:F110">ISO_8601.PARSE_PARTS(A110)</f>
+        <v>1</v>
+      </c>
+      <c r="C110" s="4">
+        <v>1</v>
+      </c>
+      <c r="D110" s="4" t="str">
+        <v>+99999</v>
+      </c>
+      <c r="E110" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F110" s="39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" s="24" t="b" cm="1">
+        <f t="array" ref="B111:F111">ISO_8601.PARSE_PARTS(A111)</f>
+        <v>1</v>
+      </c>
+      <c r="C111" s="24">
+        <v>1</v>
+      </c>
+      <c r="D111" s="24" t="str">
+        <v>+++</v>
+      </c>
+      <c r="E111" s="24" t="str">
+        <v/>
+      </c>
+      <c r="F111" s="42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+    </row>
+    <row r="116" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F116" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G116" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H116" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="I116" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J116" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K116" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="L116" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M116" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="32"/>
+      <c r="B117" s="8" t="str" cm="1">
+        <f t="array" ref="B117:M117">ISO_8601.PARSE_DATE_TIME(A117)</f>
+        <v/>
+      </c>
+      <c r="C117" s="8" t="str">
+        <v/>
+      </c>
+      <c r="D117" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E117" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F117" s="8" t="str">
+        <v/>
+      </c>
+      <c r="G117" s="8" t="str">
+        <v/>
+      </c>
+      <c r="H117" s="8" t="str">
+        <v/>
+      </c>
+      <c r="I117" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J117" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K117" s="8" t="str">
+        <v/>
+      </c>
+      <c r="L117" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M117" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="11" t="b" cm="1">
+        <f t="array" ref="B118:M118">ISO_8601.PARSE_DATE_TIME(A118)</f>
+        <v>0</v>
+      </c>
+      <c r="C118" s="11">
+        <v>0</v>
+      </c>
+      <c r="D118" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E118" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F118" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G118" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H118" s="11" t="str">
+        <v/>
+      </c>
+      <c r="I118" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J118" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K118" s="11" t="str">
+        <v/>
+      </c>
+      <c r="L118" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M118" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="34"/>
+      <c r="B119" s="8" t="str" cm="1">
+        <f t="array" ref="B119:M119">ISO_8601.PARSE_DATE_TIME(A119)</f>
+        <v/>
+      </c>
+      <c r="C119" s="8" t="str">
+        <v/>
+      </c>
+      <c r="D119" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E119" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F119" s="8" t="str">
+        <v/>
+      </c>
+      <c r="G119" s="8" t="str">
+        <v/>
+      </c>
+      <c r="H119" s="8" t="str">
+        <v/>
+      </c>
+      <c r="I119" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J119" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K119" s="8" t="str">
+        <v/>
+      </c>
+      <c r="L119" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M119" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="11" t="b" cm="1">
+        <f t="array" ref="B120:M120">ISO_8601.PARSE_DATE_TIME(A120)</f>
+        <v>0</v>
+      </c>
+      <c r="C120" s="11">
+        <v>0</v>
+      </c>
+      <c r="D120" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E120" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F120" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G120" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H120" s="11" t="str">
+        <v/>
+      </c>
+      <c r="I120" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J120" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K120" s="11" t="str">
+        <v/>
+      </c>
+      <c r="L120" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M120" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B121" s="8" t="b" cm="1">
+        <f t="array" ref="B121:M121">ISO_8601.PARSE_DATE_TIME(A121)</f>
+        <v>0</v>
+      </c>
+      <c r="C121" s="8">
+        <v>5</v>
+      </c>
+      <c r="D121" s="8">
+        <v>1</v>
+      </c>
+      <c r="E121" s="8">
+        <v>2</v>
+      </c>
+      <c r="F121" s="8">
+        <v>1</v>
+      </c>
+      <c r="G121" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H121" s="8" t="str">
+        <v/>
+      </c>
+      <c r="I121" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J121" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K121" s="8" t="str">
+        <v/>
+      </c>
+      <c r="L121" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M121" s="37">
+        <v>570.36666666666667</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B122" s="11" t="b" cm="1">
+        <f t="array" ref="B122:M122">ISO_8601.PARSE_DATE_TIME(A122)</f>
+        <v>0</v>
+      </c>
+      <c r="C122" s="11">
+        <v>5</v>
+      </c>
+      <c r="D122" s="11">
+        <v>2</v>
+      </c>
+      <c r="E122" s="11">
+        <v>2</v>
+      </c>
+      <c r="F122" s="11">
+        <v>1</v>
+      </c>
+      <c r="G122" s="11">
+        <v>99999</v>
+      </c>
+      <c r="H122" s="11">
+        <v>10</v>
+      </c>
+      <c r="I122" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J122" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K122" s="11" t="str">
+        <v/>
+      </c>
+      <c r="L122" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M122" s="38">
+        <v>570.36666666666667</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B123" s="8" t="b" cm="1">
+        <f t="array" ref="B123:M123">ISO_8601.PARSE_DATE_TIME(A123)</f>
+        <v>1</v>
+      </c>
+      <c r="C123" s="8">
+        <v>7</v>
+      </c>
+      <c r="D123" s="8">
+        <v>9</v>
+      </c>
+      <c r="E123" s="8">
+        <v>2</v>
+      </c>
+      <c r="F123" s="8">
+        <v>3</v>
+      </c>
+      <c r="G123" s="8">
+        <v>99999</v>
+      </c>
+      <c r="H123" s="8">
+        <v>15</v>
+      </c>
+      <c r="I123" s="8">
+        <v>2</v>
+      </c>
+      <c r="J123" s="8">
+        <v>14</v>
+      </c>
+      <c r="K123" s="8">
+        <v>25</v>
+      </c>
+      <c r="L123" s="8">
+        <v>21.123000000000001</v>
+      </c>
+      <c r="M123" s="37">
+        <v>570.36666666666667</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B124" s="11" t="b" cm="1">
+        <f t="array" ref="B124:M124">ISO_8601.PARSE_DATE_TIME(A124)</f>
+        <v>1</v>
+      </c>
+      <c r="C124" s="11">
+        <v>6</v>
+      </c>
+      <c r="D124" s="11">
+        <v>5</v>
+      </c>
+      <c r="E124" s="11">
+        <v>2</v>
+      </c>
+      <c r="F124" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G124" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H124" s="11" t="str">
+        <v/>
+      </c>
+      <c r="I124" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J124" s="11">
+        <v>12</v>
+      </c>
+      <c r="K124" s="11">
+        <v>35</v>
+      </c>
+      <c r="L124" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M124" s="38">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B125" s="8" t="b" cm="1">
+        <f t="array" ref="B125:M125">ISO_8601.PARSE_DATE_TIME(A125)</f>
+        <v>1</v>
+      </c>
+      <c r="C125" s="8">
+        <v>3</v>
+      </c>
+      <c r="D125" s="8">
+        <v>5</v>
+      </c>
+      <c r="E125" s="8">
+        <v>2</v>
+      </c>
+      <c r="F125" s="8">
+        <v>3</v>
+      </c>
+      <c r="G125" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H125" s="8">
+        <v>15</v>
+      </c>
+      <c r="I125" s="8">
+        <v>2</v>
+      </c>
+      <c r="J125" s="8">
+        <v>14</v>
+      </c>
+      <c r="K125" s="8">
+        <v>25</v>
+      </c>
+      <c r="L125" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M125" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B126" s="11" t="b" cm="1">
+        <f t="array" ref="B126:M126">ISO_8601.PARSE_DATE_TIME(A126)</f>
+        <v>1</v>
+      </c>
+      <c r="C126" s="11">
+        <v>2</v>
+      </c>
+      <c r="D126" s="11">
+        <v>9</v>
+      </c>
+      <c r="E126" s="11">
+        <v>2</v>
+      </c>
+      <c r="F126" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G126" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H126" s="11" t="str">
+        <v/>
+      </c>
+      <c r="I126" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J126" s="11">
+        <v>12</v>
+      </c>
+      <c r="K126" s="11">
+        <v>35</v>
+      </c>
+      <c r="L126" s="11">
+        <v>12</v>
+      </c>
+      <c r="M126" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B127" s="8" t="b" cm="1">
+        <f t="array" ref="B127:M127">ISO_8601.PARSE_DATE_TIME(A127)</f>
+        <v>1</v>
+      </c>
+      <c r="C127" s="8">
+        <v>6</v>
+      </c>
+      <c r="D127" s="8">
+        <v>9</v>
+      </c>
+      <c r="E127" s="8">
+        <v>1</v>
+      </c>
+      <c r="F127" s="8" t="str">
+        <v/>
+      </c>
+      <c r="G127" s="8" t="str">
+        <v/>
+      </c>
+      <c r="H127" s="8" t="str">
+        <v/>
+      </c>
+      <c r="I127" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J127" s="8">
+        <v>12</v>
+      </c>
+      <c r="K127" s="8">
+        <v>35</v>
+      </c>
+      <c r="L127" s="8">
+        <v>12</v>
+      </c>
+      <c r="M127" s="37">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="N69" s="41"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8" t="str" cm="1">
-        <f t="array" ref="C70">ISO_8601.PARSE_TIME_ZONE(A70,B70)</f>
-        <v/>
-      </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="38"/>
-      <c r="N70" s="41"/>
-      <c r="S70" s="41"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11" t="e" cm="1">
-        <f t="array" ref="C71">ISO_8601.PARSE_TIME_ZONE(A71,B71)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="39"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="8">
-        <v>1</v>
-      </c>
-      <c r="C72" s="8" t="str" cm="1">
-        <f t="array" ref="C72:E72">ISO_8601.PARSE_TIME_ZONE(A72,B72)</f>
-        <v/>
-      </c>
-      <c r="D72" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E72" s="38" t="str">
-        <v/>
-      </c>
-      <c r="N72" s="41"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="41"/>
-      <c r="U72" s="41"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="11">
-        <v>1</v>
-      </c>
-      <c r="C73" s="11" t="e" cm="1">
-        <f t="array" ref="C73:E73">ISO_8601.PARSE_TIME_ZONE(A73,B73)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D73" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E73" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="8">
-        <v>1</v>
-      </c>
-      <c r="C74" s="8" cm="1">
-        <f t="array" ref="C74:E74">ISO_8601.PARSE_TIME_ZONE(A74,B74)</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="8">
+      <c r="B128" s="11" t="b" cm="1">
+        <f t="array" ref="B128:M128">ISO_8601.PARSE_DATE_TIME(A128)</f>
+        <v>0</v>
+      </c>
+      <c r="C128" s="11">
+        <v>4</v>
+      </c>
+      <c r="D128" s="11">
+        <v>6</v>
+      </c>
+      <c r="E128" s="11">
         <v>3</v>
       </c>
-      <c r="E74" s="38">
+      <c r="F128" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G128" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H128" s="11" t="str">
+        <v/>
+      </c>
+      <c r="I128" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J128" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K128" s="11" t="str">
+        <v/>
+      </c>
+      <c r="L128" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M128" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129" s="8" t="b" cm="1">
+        <f t="array" ref="B129:M129">ISO_8601.PARSE_DATE_TIME(A129)</f>
+        <v>1</v>
+      </c>
+      <c r="C129" s="8">
+        <v>1</v>
+      </c>
+      <c r="D129" s="8">
+        <v>1</v>
+      </c>
+      <c r="E129" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" s="11">
-        <v>1</v>
-      </c>
-      <c r="C75" s="11" cm="1">
-        <f t="array" ref="C75:E75">ISO_8601.PARSE_TIME_ZONE(A75,B75)</f>
-        <v>720</v>
-      </c>
-      <c r="D75" s="11">
-        <v>1</v>
-      </c>
-      <c r="E75" s="39">
+      <c r="F129" s="8">
+        <v>1</v>
+      </c>
+      <c r="G129" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H129" s="8" t="str">
+        <v/>
+      </c>
+      <c r="I129" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J129" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K129" s="8" t="str">
+        <v/>
+      </c>
+      <c r="L129" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M129" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B130" s="11" t="b" cm="1">
+        <f t="array" ref="B130:M130">ISO_8601.PARSE_DATE_TIME(A130)</f>
+        <v>0</v>
+      </c>
+      <c r="C130" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="8">
-        <v>1</v>
-      </c>
-      <c r="C76" s="8" cm="1">
-        <f t="array" ref="C76:E76">ISO_8601.PARSE_TIME_ZONE(A76,B76)</f>
-        <v>-720</v>
-      </c>
-      <c r="D76" s="8">
-        <v>1</v>
-      </c>
-      <c r="E76" s="38">
+      <c r="D130" s="11">
+        <v>5</v>
+      </c>
+      <c r="E130" s="11">
+        <v>0</v>
+      </c>
+      <c r="F130" s="11">
+        <v>1</v>
+      </c>
+      <c r="G130" s="11">
+        <v>2023</v>
+      </c>
+      <c r="H130" s="11">
+        <v>2</v>
+      </c>
+      <c r="I130" s="11">
+        <v>23</v>
+      </c>
+      <c r="J130" s="11">
+        <v>14</v>
+      </c>
+      <c r="K130" s="11">
+        <v>35</v>
+      </c>
+      <c r="L130" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M130" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B131" s="8" t="b" cm="1">
+        <f t="array" ref="B131:M131">ISO_8601.PARSE_DATE_TIME(A131)</f>
+        <v>1</v>
+      </c>
+      <c r="C131" s="8">
+        <v>7</v>
+      </c>
+      <c r="D131" s="8">
+        <v>5</v>
+      </c>
+      <c r="E131" s="8">
+        <v>2</v>
+      </c>
+      <c r="F131" s="8">
+        <v>1</v>
+      </c>
+      <c r="G131" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H131" s="8">
+        <v>2</v>
+      </c>
+      <c r="I131" s="8">
+        <v>23</v>
+      </c>
+      <c r="J131" s="8">
+        <v>14</v>
+      </c>
+      <c r="K131" s="8">
+        <v>35</v>
+      </c>
+      <c r="L131" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M131" s="37">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B132" s="11" t="b" cm="1">
+        <f t="array" ref="B132:M132">ISO_8601.PARSE_DATE_TIME(A132)</f>
+        <v>0</v>
+      </c>
+      <c r="C132" s="11">
+        <v>5</v>
+      </c>
+      <c r="D132" s="11">
+        <v>4</v>
+      </c>
+      <c r="E132" s="11">
+        <v>2</v>
+      </c>
+      <c r="F132" s="11">
+        <v>1</v>
+      </c>
+      <c r="G132" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H132" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I132" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J132" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K132" s="11" t="str">
+        <v/>
+      </c>
+      <c r="L132" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M132" s="38">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B133" s="8" t="b" cm="1">
+        <f t="array" ref="B133:M133">ISO_8601.PARSE_DATE_TIME(A133)</f>
+        <v>0</v>
+      </c>
+      <c r="C133" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77" s="11">
-        <v>1</v>
-      </c>
-      <c r="C77" s="11" cm="1">
-        <f t="array" ref="C77:E77">ISO_8601.PARSE_TIME_ZONE(A77,B77)</f>
-        <v>-720</v>
-      </c>
-      <c r="D77" s="11">
-        <v>1</v>
-      </c>
-      <c r="E77" s="39">
+      <c r="D133" s="8">
+        <v>2</v>
+      </c>
+      <c r="E133" s="8">
+        <v>2</v>
+      </c>
+      <c r="F133" s="8">
+        <v>1</v>
+      </c>
+      <c r="G133" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H133" s="8">
+        <v>2</v>
+      </c>
+      <c r="I133" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J133" s="8">
+        <v>14</v>
+      </c>
+      <c r="K133" s="8">
+        <v>35</v>
+      </c>
+      <c r="L133" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M133" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B134" s="11" t="b" cm="1">
+        <f t="array" ref="B134:M134">ISO_8601.PARSE_DATE_TIME(A134)</f>
+        <v>0</v>
+      </c>
+      <c r="C134" s="11">
+        <v>1</v>
+      </c>
+      <c r="D134" s="11">
+        <v>0</v>
+      </c>
+      <c r="E134" s="11">
+        <v>2</v>
+      </c>
+      <c r="F134" s="11">
+        <v>1</v>
+      </c>
+      <c r="G134" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H134" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I134" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J134" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K134" s="11" t="str">
+        <v/>
+      </c>
+      <c r="L134" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M134" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B135" s="8" t="b" cm="1">
+        <f t="array" ref="B135:M135">ISO_8601.PARSE_DATE_TIME(A135)</f>
+        <v>0</v>
+      </c>
+      <c r="C135" s="8">
+        <v>0</v>
+      </c>
+      <c r="D135" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E135" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F135" s="8" t="str">
+        <v/>
+      </c>
+      <c r="G135" s="8" t="str">
+        <v/>
+      </c>
+      <c r="H135" s="8" t="str">
+        <v/>
+      </c>
+      <c r="I135" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J135" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K135" s="8" t="str">
+        <v/>
+      </c>
+      <c r="L135" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M135" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B136" s="11" t="b" cm="1">
+        <f t="array" ref="B136:M136">ISO_8601.PARSE_DATE_TIME(A136)</f>
+        <v>0</v>
+      </c>
+      <c r="C136" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" s="8">
-        <v>1</v>
-      </c>
-      <c r="C78" s="8" cm="1">
-        <f t="array" ref="C78:E78">ISO_8601.PARSE_TIME_ZONE(A78,B78)</f>
-        <v>899</v>
-      </c>
-      <c r="D78" s="8">
+      <c r="D136" s="11">
+        <v>3</v>
+      </c>
+      <c r="E136" s="11">
         <v>2</v>
       </c>
-      <c r="E78" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="11">
-        <v>1</v>
-      </c>
-      <c r="C79" s="11" cm="1">
-        <f t="array" ref="C79:E79">ISO_8601.PARSE_TIME_ZONE(A79,B79)</f>
+      <c r="F136" s="11">
+        <v>1</v>
+      </c>
+      <c r="G136" s="11">
+        <v>2023</v>
+      </c>
+      <c r="H136" s="11">
+        <v>2</v>
+      </c>
+      <c r="I136" s="11">
+        <v>23</v>
+      </c>
+      <c r="J136" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K136" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L136" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M136" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" s="8" t="b" cm="1">
+        <f t="array" ref="B137:M137">ISO_8601.PARSE_DATE_TIME(A137)</f>
+        <v>1</v>
+      </c>
+      <c r="C137" s="8">
+        <v>7</v>
+      </c>
+      <c r="D137" s="8">
+        <v>5</v>
+      </c>
+      <c r="E137" s="8">
+        <v>2</v>
+      </c>
+      <c r="F137" s="8">
+        <v>1</v>
+      </c>
+      <c r="G137" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H137" s="8">
+        <v>2</v>
+      </c>
+      <c r="I137" s="8">
+        <v>23</v>
+      </c>
+      <c r="J137" s="8">
+        <v>14</v>
+      </c>
+      <c r="K137" s="8">
+        <v>55</v>
+      </c>
+      <c r="L137" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M137" s="37">
         <v>900</v>
       </c>
-      <c r="D79" s="11">
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B138" s="14" t="b" cm="1">
+        <f t="array" ref="B138:M138">ISO_8601.PARSE_DATE_TIME(A138)</f>
+        <v>0</v>
+      </c>
+      <c r="C138" s="14">
+        <v>7</v>
+      </c>
+      <c r="D138" s="14">
+        <v>5</v>
+      </c>
+      <c r="E138" s="14">
         <v>2</v>
       </c>
-      <c r="E79" s="39">
+      <c r="F138" s="14">
+        <v>1</v>
+      </c>
+      <c r="G138" s="14">
+        <v>2023</v>
+      </c>
+      <c r="H138" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B80" s="8">
-        <v>1</v>
-      </c>
-      <c r="C80" s="8" cm="1">
-        <f t="array" ref="C80:E80">ISO_8601.PARSE_TIME_ZONE(A80,B80)</f>
-        <v>900</v>
-      </c>
-      <c r="D80" s="8">
+      <c r="I138" s="14">
+        <v>23</v>
+      </c>
+      <c r="J138" s="14">
+        <v>14</v>
+      </c>
+      <c r="K138" s="14">
+        <v>55</v>
+      </c>
+      <c r="L138" s="14" t="str">
+        <v/>
+      </c>
+      <c r="M138" s="47" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139" s="8" t="b" cm="1">
+        <f t="array" ref="B139:M139">ISO_8601.PARSE_DATE_TIME(A139)</f>
+        <v>1</v>
+      </c>
+      <c r="C139" s="8">
+        <v>1</v>
+      </c>
+      <c r="D139" s="8">
+        <v>1</v>
+      </c>
+      <c r="E139" s="8">
         <v>3</v>
       </c>
-      <c r="E80" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81" s="11">
-        <v>1</v>
-      </c>
-      <c r="C81" s="11" t="e" cm="1">
-        <f t="array" ref="C81:E81">ISO_8601.PARSE_TIME_ZONE(A81,B81)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D81" s="11">
+      <c r="F139" s="8">
+        <v>1</v>
+      </c>
+      <c r="G139" s="8">
+        <v>99999</v>
+      </c>
+      <c r="H139" s="8" t="str">
+        <v/>
+      </c>
+      <c r="I139" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J139" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K139" s="8" t="str">
+        <v/>
+      </c>
+      <c r="L139" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M139" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="14" t="b" cm="1">
+        <f t="array" ref="B140:M140">ISO_8601.PARSE_DATE_TIME(A140)</f>
+        <v>0</v>
+      </c>
+      <c r="C140" s="14">
         <v>3</v>
       </c>
-      <c r="E81" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82" s="8">
-        <v>1</v>
-      </c>
-      <c r="C82" s="8" cm="1">
-        <f t="array" ref="C82:E82">ISO_8601.PARSE_TIME_ZONE(A82,B82)</f>
-        <v>570.36666666666667</v>
-      </c>
-      <c r="D82" s="8">
-        <v>3</v>
-      </c>
-      <c r="E82" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" s="4">
-        <v>1</v>
-      </c>
-      <c r="C83" s="4" cm="1">
-        <f t="array" ref="C83:E83">ISO_8601.PARSE_TIME_ZONE(A83,B83)</f>
-        <v>-560.36666666666667</v>
-      </c>
-      <c r="D83" s="4">
-        <v>3</v>
-      </c>
-      <c r="E83" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" s="24">
-        <v>1</v>
-      </c>
-      <c r="C84" s="24" t="e" cm="1">
-        <f t="array" ref="C84:E84">ISO_8601.PARSE_TIME_ZONE(A84,B84)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D84" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E84" s="43" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-    </row>
-    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="8" t="str" cm="1">
-        <f t="array" ref="B90:E90">ISO_8601.PARSE_PARTS(A90)</f>
-        <v/>
-      </c>
-      <c r="C90" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D90" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E90" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" s="11" t="b" cm="1">
-        <f t="array" ref="B91:E91">ISO_8601.PARSE_PARTS(A91)</f>
-        <v>0</v>
-      </c>
-      <c r="C91" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D91" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E91" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="34"/>
-      <c r="B92" s="8" t="str" cm="1">
-        <f t="array" ref="B92:E92">ISO_8601.PARSE_PARTS(A92)</f>
-        <v/>
-      </c>
-      <c r="C92" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D92" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E92" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="11" t="b" cm="1">
-        <f t="array" ref="B93:E93">ISO_8601.PARSE_PARTS(A93)</f>
-        <v>0</v>
-      </c>
-      <c r="C93" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D93" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E93" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B94" s="8" t="b" cm="1">
-        <f t="array" ref="B94:E94">ISO_8601.PARSE_PARTS(A94)</f>
-        <v>0</v>
-      </c>
-      <c r="C94" s="8" t="str">
-        <v>2023</v>
-      </c>
-      <c r="D94" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E94" s="38" t="str">
-        <v>+09:30:22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B95" s="11" t="b" cm="1">
-        <f t="array" ref="B95:E95">ISO_8601.PARSE_PARTS(A95)</f>
-        <v>0</v>
-      </c>
-      <c r="C95" s="11" t="str">
-        <v>99999-10</v>
-      </c>
-      <c r="D95" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E95" s="39" t="str">
-        <v>+09:30:22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B96" s="8" t="b" cm="1">
-        <f t="array" ref="B96:E96">ISO_8601.PARSE_PARTS(A96)</f>
-        <v>1</v>
-      </c>
-      <c r="C96" s="8" t="str">
-        <v>99999-W15-2</v>
-      </c>
-      <c r="D96" s="8" t="str">
-        <v>T14:25:21.123</v>
-      </c>
-      <c r="E96" s="38" t="str">
-        <v>+09:30:22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B97" s="11" t="b" cm="1">
-        <f t="array" ref="B97:E97">ISO_8601.PARSE_PARTS(A97)</f>
-        <v>1</v>
-      </c>
-      <c r="C97" s="11" t="str">
-        <v/>
-      </c>
-      <c r="D97" s="11" t="str">
-        <v>T12:35</v>
-      </c>
-      <c r="E97" s="39" t="str">
-        <v>+09:30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B98" s="8" t="b" cm="1">
-        <f t="array" ref="B98:E98">ISO_8601.PARSE_PARTS(A98)</f>
-        <v>1</v>
-      </c>
-      <c r="C98" s="8" t="str">
-        <v>2023-W15-2</v>
-      </c>
-      <c r="D98" s="8" t="str">
-        <v>T14:25</v>
-      </c>
-      <c r="E98" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B99" s="11" t="b" cm="1">
-        <f t="array" ref="B99:E99">ISO_8601.PARSE_PARTS(A99)</f>
-        <v>1</v>
-      </c>
-      <c r="C99" s="11" t="str">
-        <v/>
-      </c>
-      <c r="D99" s="11" t="str">
-        <v>T12:35:12.000</v>
-      </c>
-      <c r="E99" s="39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B100" s="8" t="b" cm="1">
-        <f t="array" ref="B100:E100">ISO_8601.PARSE_PARTS(A100)</f>
-        <v>1</v>
-      </c>
-      <c r="C100" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D100" s="8" t="str">
-        <v>T123512.000</v>
-      </c>
-      <c r="E100" s="38" t="str">
-        <v>+09</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="11" t="b" cm="1">
-        <f t="array" ref="B101:E101">ISO_8601.PARSE_PARTS(A101)</f>
-        <v>0</v>
-      </c>
-      <c r="C101" s="11" t="str">
-        <v/>
-      </c>
-      <c r="D101" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E101" s="39" t="str">
-        <v>Z</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="8" t="b" cm="1">
-        <f t="array" ref="B102:E102">ISO_8601.PARSE_PARTS(A102)</f>
-        <v>0</v>
-      </c>
-      <c r="C102" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D102" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E102" s="38" t="str">
-        <v>Z</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B103" s="11" t="b" cm="1">
-        <f t="array" ref="B103:E103">ISO_8601.PARSE_PARTS(A103)</f>
-        <v>1</v>
-      </c>
-      <c r="C103" s="4" t="str">
-        <v>2023-02-23</v>
-      </c>
-      <c r="D103" s="4" t="str">
-        <v>T1435</v>
-      </c>
-      <c r="E103" s="40" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B104" s="24" t="b" cm="1">
-        <f t="array" ref="B104:E104">ISO_8601.PARSE_PARTS(A104)</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="24" t="str">
-        <v>2023-02-23</v>
-      </c>
-      <c r="D104" s="24" t="str">
-        <v/>
-      </c>
-      <c r="E104" s="43" t="str">
-        <v>+09</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B105" s="47" t="b" cm="1">
-        <f t="array" ref="B105:E105">ISO_8601.PARSE_PARTS(A105)</f>
-        <v>1</v>
-      </c>
-      <c r="C105" s="4" t="str">
-        <v>100000</v>
-      </c>
-      <c r="D105" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E105" s="40" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="B106" s="24" t="b" cm="1">
-        <f t="array" ref="B106:E106">ISO_8601.PARSE_PARTS(A106)</f>
-        <v>0</v>
-      </c>
-      <c r="C106" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D106" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E106" s="43" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-    </row>
-    <row r="111" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C111" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D111" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E111" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F111" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G111" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="H111" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I111" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J111" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K111" s="31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
-      <c r="B112" s="8" t="str" cm="1">
-        <f t="array" ref="B112:K112">ISO_8601.PARSE_DATE_TIME(A112)</f>
-        <v/>
-      </c>
-      <c r="C112" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D112" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E112" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F112" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G112" s="8" t="str">
-        <v/>
-      </c>
-      <c r="H112" s="8" t="str">
-        <v/>
-      </c>
-      <c r="I112" s="8" t="str">
-        <v/>
-      </c>
-      <c r="J112" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K112" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="11" t="b" cm="1">
-        <f t="array" ref="B113:K113">ISO_8601.PARSE_DATE_TIME(A113)</f>
-        <v>0</v>
-      </c>
-      <c r="C113" s="11" t="str">
-        <v/>
-      </c>
-      <c r="D113" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E113" s="11" t="str">
-        <v/>
-      </c>
-      <c r="F113" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G113" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H113" s="11" t="str">
-        <v/>
-      </c>
-      <c r="I113" s="11" t="str">
-        <v/>
-      </c>
-      <c r="J113" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K113" s="39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="8" t="str" cm="1">
-        <f t="array" ref="B114:K114">ISO_8601.PARSE_DATE_TIME(A114)</f>
-        <v/>
-      </c>
-      <c r="C114" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D114" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E114" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F114" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G114" s="8" t="str">
-        <v/>
-      </c>
-      <c r="H114" s="8" t="str">
-        <v/>
-      </c>
-      <c r="I114" s="8" t="str">
-        <v/>
-      </c>
-      <c r="J114" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K114" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B115" s="11" t="b" cm="1">
-        <f t="array" ref="B115:K115">ISO_8601.PARSE_DATE_TIME(A115)</f>
-        <v>0</v>
-      </c>
-      <c r="C115" s="11" t="str">
-        <v/>
-      </c>
-      <c r="D115" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E115" s="11" t="str">
-        <v/>
-      </c>
-      <c r="F115" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G115" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H115" s="11" t="str">
-        <v/>
-      </c>
-      <c r="I115" s="11" t="str">
-        <v/>
-      </c>
-      <c r="J115" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K115" s="39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B116" s="8" cm="1">
-        <f t="array" ref="B116:K116">ISO_8601.PARSE_DATE_TIME(A116)</f>
-        <v>1</v>
-      </c>
-      <c r="C116" s="8">
-        <v>1</v>
-      </c>
-      <c r="D116" s="8">
-        <v>1</v>
-      </c>
-      <c r="E116" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F116" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G116" s="8" t="str">
-        <v/>
-      </c>
-      <c r="H116" s="8" t="str">
-        <v/>
-      </c>
-      <c r="I116" s="8" t="str">
-        <v/>
-      </c>
-      <c r="J116" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K116" s="38">
-        <v>570.36666666666667</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B117" s="11" cm="1">
-        <f t="array" ref="B117:K117">ISO_8601.PARSE_DATE_TIME(A117)</f>
-        <v>1</v>
-      </c>
-      <c r="C117" s="11">
-        <v>2</v>
-      </c>
-      <c r="D117" s="11">
-        <v>1</v>
-      </c>
-      <c r="E117" s="11">
+      <c r="D140" s="14">
+        <v>1</v>
+      </c>
+      <c r="E140" s="14">
+        <v>1</v>
+      </c>
+      <c r="F140" s="14">
+        <v>1</v>
+      </c>
+      <c r="G140" s="14">
         <v>99999</v>
       </c>
-      <c r="F117" s="11">
-        <v>10</v>
-      </c>
-      <c r="G117" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H117" s="11" t="str">
-        <v/>
-      </c>
-      <c r="I117" s="11" t="str">
-        <v/>
-      </c>
-      <c r="J117" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K117" s="39">
-        <v>570.36666666666667</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B118" s="8" cm="1">
-        <f t="array" ref="B118:K118">ISO_8601.PARSE_DATE_TIME(A118)</f>
-        <v>1</v>
-      </c>
-      <c r="C118" s="8">
+      <c r="H140" s="14" t="str">
+        <v/>
+      </c>
+      <c r="I140" s="14" t="str">
+        <v/>
+      </c>
+      <c r="J140" s="14">
         <v>9</v>
       </c>
-      <c r="D118" s="8">
-        <v>3</v>
-      </c>
-      <c r="E118" s="8">
-        <v>99999</v>
-      </c>
-      <c r="F118" s="8">
-        <v>15</v>
-      </c>
-      <c r="G118" s="8">
-        <v>2</v>
-      </c>
-      <c r="H118" s="8">
-        <v>14</v>
-      </c>
-      <c r="I118" s="8">
-        <v>25</v>
-      </c>
-      <c r="J118" s="8">
-        <v>21.123000000000001</v>
-      </c>
-      <c r="K118" s="38">
-        <v>570.36666666666667</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B119" s="11" cm="1">
-        <f t="array" ref="B119:K119">ISO_8601.PARSE_DATE_TIME(A119)</f>
-        <v>1</v>
-      </c>
-      <c r="C119" s="11">
-        <v>5</v>
-      </c>
-      <c r="D119" s="11">
-        <v>0</v>
-      </c>
-      <c r="E119" s="11" t="str">
-        <v/>
-      </c>
-      <c r="F119" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G119" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H119" s="11">
-        <v>12</v>
-      </c>
-      <c r="I119" s="11">
-        <v>35</v>
-      </c>
-      <c r="J119" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K119" s="39">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B120" s="8" cm="1">
-        <f t="array" ref="B120:K120">ISO_8601.PARSE_DATE_TIME(A120)</f>
-        <v>1</v>
-      </c>
-      <c r="C120" s="8">
-        <v>5</v>
-      </c>
-      <c r="D120" s="8">
-        <v>3</v>
-      </c>
-      <c r="E120" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F120" s="8">
-        <v>15</v>
-      </c>
-      <c r="G120" s="8">
-        <v>2</v>
-      </c>
-      <c r="H120" s="8">
-        <v>14</v>
-      </c>
-      <c r="I120" s="8">
-        <v>25</v>
-      </c>
-      <c r="J120" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K120" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B121" s="11" cm="1">
-        <f t="array" ref="B121:K121">ISO_8601.PARSE_DATE_TIME(A121)</f>
-        <v>1</v>
-      </c>
-      <c r="C121" s="11">
-        <v>9</v>
-      </c>
-      <c r="D121" s="11">
-        <v>0</v>
-      </c>
-      <c r="E121" s="11" t="str">
-        <v/>
-      </c>
-      <c r="F121" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G121" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H121" s="11">
-        <v>12</v>
-      </c>
-      <c r="I121" s="11">
-        <v>35</v>
-      </c>
-      <c r="J121" s="11">
-        <v>12</v>
-      </c>
-      <c r="K121" s="39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B122" s="8" cm="1">
-        <f t="array" ref="B122:K122">ISO_8601.PARSE_DATE_TIME(A122)</f>
-        <v>1</v>
-      </c>
-      <c r="C122" s="8">
-        <v>9</v>
-      </c>
-      <c r="D122" s="8">
-        <v>0</v>
-      </c>
-      <c r="E122" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F122" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G122" s="8" t="str">
-        <v/>
-      </c>
-      <c r="H122" s="8">
-        <v>12</v>
-      </c>
-      <c r="I122" s="8">
-        <v>35</v>
-      </c>
-      <c r="J122" s="8">
-        <v>12</v>
-      </c>
-      <c r="K122" s="38">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B123" s="11" cm="1">
-        <f t="array" ref="B123:K123">ISO_8601.PARSE_DATE_TIME(A123)</f>
-        <v>1</v>
-      </c>
-      <c r="C123" s="11">
-        <v>6</v>
-      </c>
-      <c r="D123" s="11">
-        <v>0</v>
-      </c>
-      <c r="E123" s="11" t="str">
-        <v/>
-      </c>
-      <c r="F123" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G123" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H123" s="11" t="str">
-        <v/>
-      </c>
-      <c r="I123" s="11" t="str">
-        <v/>
-      </c>
-      <c r="J123" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K123" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B124" s="8" cm="1">
-        <f t="array" ref="B124:K124">ISO_8601.PARSE_DATE_TIME(A124)</f>
-        <v>1</v>
-      </c>
-      <c r="C124" s="8">
-        <v>6</v>
-      </c>
-      <c r="D124" s="8">
-        <v>0</v>
-      </c>
-      <c r="E124" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F124" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G124" s="8" t="str">
-        <v/>
-      </c>
-      <c r="H124" s="8" t="str">
-        <v/>
-      </c>
-      <c r="I124" s="8" t="str">
-        <v/>
-      </c>
-      <c r="J124" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K124" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B125" s="11" cm="1">
-        <f t="array" ref="B125:K125">ISO_8601.PARSE_DATE_TIME(A125)</f>
-        <v>0</v>
-      </c>
-      <c r="C125" s="11">
-        <v>5</v>
-      </c>
-      <c r="D125" s="11">
-        <v>1</v>
-      </c>
-      <c r="E125" s="11">
-        <v>2023</v>
-      </c>
-      <c r="F125" s="11">
-        <v>2</v>
-      </c>
-      <c r="G125" s="11">
-        <v>23</v>
-      </c>
-      <c r="H125" s="11">
-        <v>14</v>
-      </c>
-      <c r="I125" s="11">
-        <v>35</v>
-      </c>
-      <c r="J125" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K125" s="39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="B126" s="8" t="b" cm="1">
-        <f t="array" ref="B126:K126">ISO_8601.PARSE_DATE_TIME(A126)</f>
-        <v>0</v>
-      </c>
-      <c r="C126" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D126" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E126" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F126" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G126" s="8" t="str">
-        <v/>
-      </c>
-      <c r="H126" s="8" t="str">
-        <v/>
-      </c>
-      <c r="I126" s="8" t="str">
-        <v/>
-      </c>
-      <c r="J126" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K126" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B127" s="11" cm="1">
-        <f t="array" ref="B127:K127">ISO_8601.PARSE_DATE_TIME(A127)</f>
-        <v>0</v>
-      </c>
-      <c r="C127" s="11">
-        <v>0</v>
-      </c>
-      <c r="D127" s="11">
-        <v>0</v>
-      </c>
-      <c r="E127" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F127" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G127" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H127" s="11" t="str">
-        <v/>
-      </c>
-      <c r="I127" s="11" t="str">
-        <v/>
-      </c>
-      <c r="J127" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K127" s="39">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B128" s="24" cm="1">
-        <f t="array" ref="B128:K128">ISO_8601.PARSE_DATE_TIME(A128)</f>
-        <v>0</v>
-      </c>
-      <c r="C128" s="24">
-        <v>2</v>
-      </c>
-      <c r="D128" s="24">
-        <v>1</v>
-      </c>
-      <c r="E128" s="24">
-        <v>2023</v>
-      </c>
-      <c r="F128" s="24">
-        <v>2</v>
-      </c>
-      <c r="G128" s="24" t="str">
-        <v/>
-      </c>
-      <c r="H128" s="24">
-        <v>14</v>
-      </c>
-      <c r="I128" s="24">
-        <v>35</v>
-      </c>
-      <c r="J128" s="24" t="str">
-        <v/>
-      </c>
-      <c r="K128" s="43" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B129" s="11" cm="1">
-        <f t="array" ref="B129:K129">ISO_8601.PARSE_DATE_TIME(A129)</f>
-        <v>0</v>
-      </c>
-      <c r="C129" s="11">
-        <v>0</v>
-      </c>
-      <c r="D129" s="11">
-        <v>0</v>
-      </c>
-      <c r="E129" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F129" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G129" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H129" s="11" t="str">
-        <v/>
-      </c>
-      <c r="I129" s="11" t="str">
-        <v/>
-      </c>
-      <c r="J129" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K129" s="39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B130" s="24" cm="1">
-        <f t="array" ref="B130:K130">ISO_8601.PARSE_DATE_TIME(A130)</f>
-        <v>0</v>
-      </c>
-      <c r="C130" s="24">
-        <v>0</v>
-      </c>
-      <c r="D130" s="24">
-        <v>0</v>
-      </c>
-      <c r="E130" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F130" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G130" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H130" s="24" t="str">
-        <v/>
-      </c>
-      <c r="I130" s="24" t="str">
-        <v/>
-      </c>
-      <c r="J130" s="24" t="str">
-        <v/>
-      </c>
-      <c r="K130" s="43" t="str">
+      <c r="K140" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L140" s="14" t="str">
+        <v/>
+      </c>
+      <c r="M140" s="47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" s="8" t="b" cm="1">
+        <f t="array" ref="B141:M141">ISO_8601.PARSE_DATE_TIME(A141)</f>
+        <v>0</v>
+      </c>
+      <c r="C141" s="8">
+        <v>1</v>
+      </c>
+      <c r="D141" s="8">
+        <v>0</v>
+      </c>
+      <c r="E141" s="8">
+        <v>1</v>
+      </c>
+      <c r="F141" s="8" t="str">
+        <v/>
+      </c>
+      <c r="G141" s="8" t="str">
+        <v/>
+      </c>
+      <c r="H141" s="8" t="str">
+        <v/>
+      </c>
+      <c r="I141" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J141" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K141" s="8" t="str">
+        <v/>
+      </c>
+      <c r="L141" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M141" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" s="14" t="b" cm="1">
+        <f t="array" ref="B142:M142">ISO_8601.PARSE_DATE_TIME(A142)</f>
+        <v>0</v>
+      </c>
+      <c r="C142" s="14">
+        <v>1</v>
+      </c>
+      <c r="D142" s="14">
+        <v>0</v>
+      </c>
+      <c r="E142" s="14">
+        <v>1</v>
+      </c>
+      <c r="F142" s="14" t="str">
+        <v/>
+      </c>
+      <c r="G142" s="14" t="str">
+        <v/>
+      </c>
+      <c r="H142" s="14" t="str">
+        <v/>
+      </c>
+      <c r="I142" s="14" t="str">
+        <v/>
+      </c>
+      <c r="J142" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K142" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L142" s="14" t="str">
+        <v/>
+      </c>
+      <c r="M142" s="47" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A114:D114"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A90:D90"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6825,7 +7503,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9ACwAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBJAFMATwBfADgANgAwADEAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjAFwAbgAjACAASQBTAE8AXwA4ADYAMAAxACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjACAAIAAgAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAVABoAGUAIABJAFMATwAgADgANgAwADEAIABzAHQAYQBuAGQAYQByAGQAIABkAGUAZgBpAG4AZQBzACAAYQAgAHUAbgBpAHYAZQByAHMAYQBsACAAbgBvAHQAYQB0AGkAbwBuACAAbwBmACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQBzAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABhAHQAZQBzACAAYQByAGUAIABpAG4AIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByACAAYQBuAGQAIAB0AGkAbQBlAHMAIABhAHIAZQAgAGIAYQBzAGUAZAAgAG8AbgAgAHQAaABlACAAMgA0ACAAaABvAHUAcgAgAHQAaQBtAGUAawBlAGUAcABpAG4AZwAgAHMAeQBzAHQAZQBtACAAdwBpAHQAaAAgAGEAbgAgACAAIAAgACAAIAAjAFwAbgAjACAAbwBwAHQAaQBvAG4AYQBsACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABVAFQAQwAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAATQBvAGQAdQBsAGUAIABEAGUAcABlAG4AZABlAG4AYwBpAGUAcwA6ACAATgBvAG4AZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAATABvAGcAaQBjAGEAbAAgAEYAdQBuAGMAdABpAG8AbgBzACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AIAAjAFwAbgAjACAASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAcwB0AHMAIABpAGYAIABhACAAeQBlAGEAcgAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAASQBTAE8AIAA4ADYAMAAxAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjACAAXABuACMAIABJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQBzAHQAcwAgAGkAZgAgAGEAIAB5AGUAYQByACAAaQBuAGMAbAB1AGQAZQBzACAAYQAgAGwAZQBhAHAAIABkAGEAeQAgAGkAbgAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQBzAHQAcwAgAGkAZgAgAGEAIABkAGEAdABlACAAaQBzACAAdgBhAGwAaQBkACAAZgBvAHIAIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAIABcAG4AIwAgAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHMAdABzACAAaQBmACAAYQAgAHQAaQBtAGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAAMgA0ACAAaABvAHUAcgAgAHQAaQBtAGUAawBlAGUAcABpAG4AZwAgAHMAeQBzAHQAZQBtAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwAgAFwAbgAjACAASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAIAAgACAAIAAgACAAIABUAGUAcwB0AHMAIABpAGYAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGkAcwAgAGkAbgAgAHYAYQBsAGkAZAAgAHIAYQBuAGcAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASQBTAF8AVgBBAEwASQBEAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIAAgACAAIABUAGUAcwB0AHMAIABpAGYAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASQBTAF8AVgBBAEwASQBEAF8AVwBFAEUASwBfAEQAQQBUAEUAIAAgACAAIAAgACAAIABUAGUAcwB0AHMAIABpAGYAIABhACAAdwBlAGUAawAgAGQAYQB0AGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjACAAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABDAGEAbABlAG4AZABhAHIAIABGAHUAbgBjAHQAaQBvAG4AcwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABZAEUAQQBSAF8ARABBAFkAXwBDAE8AVQBOAFQAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAbwB1AG4AdAAgAG8AZgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAeQBzACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAAeQBlAGEAcgAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABZAEUAQQBSAF8AVwBFAEUASwBfAEMATwBVAE4AVAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAbwB1AG4AdAAgAG8AZgAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAcwAgAGkAbgAgAGEAIABnAGkAdgBlAG4AIAB5AGUAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAWQBfAE8AUgBEAEkATgBBAEwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG4AdQBtAGIAZQByACAAbwBmACAAYQAgAGQAYQB0AGUAIABpAG4AIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAFIATwBNAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAGYAcgBvAG0AIABhACAAZwBpAHYAZQBuACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAAZABhAHQAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAF8ATgBVAE0AQgBFAFIAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABkAGEAdABlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABUAE8AXwBXAEUARQBLAF8ARABBAFQARQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAGEAbgBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAZgByAG8AbQAgAGEAIABnAGkAdgBlAG4AIABkAGEAdABlAC4AIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAFIATwBNAF8AVwBFAEUASwBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGUAaQB0AGgAZQByACAAYQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAG8AcgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlACAAZgByAG8AbQAgAGEAIABnAGkAdgBlAG4AIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHcAZQBlAGsAIABhAG4AZAAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABQAGEAcgBzAGkAbgBnACAARgB1AG4AYwB0AGkAbwBuAHMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTACAAIAAgACAAIAAgAFQAZQBzAHQAcwAgAGkAZgAgAHQAZQB4AHQAIABjAG8AbgB0AGEAaQBuAHMAIABvAG4AbAB5ACAAYwBoAGEAcgBhAGMAdABlAHIAcwAgAHQAaABhAHQAIABhAHIAZQAgAHYAYQBsAGkAZAAgAGYAbwByACAASQBTAE8AIAA4ADYAMAAxAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABQAEEAUgBTAEUAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHkAZQBhAHIALAAgAG0AbwBuAHQAaAAgAGEAbgBkACAAZABhAHkAIABvAGYAIABhACAAZABhAHQAZQAgAGYAcgBvAG0AIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuACAAIAAgACMAXABuACMAIABQAEEAUgBTAEUAXwBUAEkATQBFACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGgAbwB1AHIALAAgAG0AaQBuAHUAdABlACAAYQBuAGQAIABzAGUAYwBvAG4AZAAgAG8AZgAgAHQAaQBtAGUAIABmAHIAbwBtACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgAgACMAXABuACMAIABQAEEAUgBTAEUAXwBUAEkATQBFAF8AWgBPAE4ARQAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACMAXABuACMAIABQAEEAUgBTAEUAXwBQAEEAUgBUAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAcABsAGkAdABzACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIAB0AGUAeAB0ACAAdgBhAGwAdQBlACAAaQBuAHQAbwAgAGkAbgB0AG8AIAByAGUAcwBwAGUAYwB0AGkAdgBlACAAcABhAHIAdABzACAAbwBmACAAZABhAHQAZQAsACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABQAEEAUgBTAEUAXwBEAEEAVABFAF8AVABJAE0ARQAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABmAHIAbwBtACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAG8AcgBtAGEAdAB0AGkAbgBnACAARgB1AG4AYwB0AGkAbwBuAHMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAFQASQBNAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAdABpAG0AZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAFQASQBNAEUAXwBaAE8ATgBFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAdABpAG0AZQAgAHoAbwBuAGUAIABhAHMAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAFcARQBFAEsAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAdwBlAGUAawAgAGQAYQB0AGUAIABhAHMAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAEQAQQBUAEUAXwBUAEkATQBFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABDAG8AbgB2AGUAcgBzAGkAbwBuACAARgB1AG4AYwB0AGkAbwBuAHMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABJAFMATwBfAFQATwBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEMAbwBuAHYAZQByAHQAcwAgAHQAZQB4AHQAIABpAG4AIABJAFMATwAgAGYAbwByAG0AYQB0ACAAdABvACAAYQBuACAARQB4AGMAZQBsACAAZABhAHQAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAVABFAF8AVABPAF8ASQBTAE8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEMAbwBuAHYAZQByAHQAcwAgAGEAbgAgAEUAeABjAGUAbAAgAGQAYQB0AGUAIAB0AG8AIABJAFMATwAgAGYAbwByAG0AYQB0AHQAZQBkACAAdABlAHgAdAAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAqAC8AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQAgAHkAZQBhAHIAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAEkAUwBPACAAOAA2ADAAMQAuAFwAbgBOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAFIAZQB0AHUAcgBuAHMAIABhACAAYgBvAG8AbABlAGEAbgAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AQQBsAGwAbwB3AEQAZQBjAGkAbQBhAGwAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABBAGwAbABvAHcAIABkAGUAYwBpAG0AYQBsACAAdgBhAGwAdQBlAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAFsAQQBsAGwAbwB3AEQAZQBjAGkAbQBhAGwAXQAsAFwAbgAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAoAE4AKABBAGwAbABvAHcARABlAGMAaQBtAGEAbAApACAAPQAgADAAKQAgACoAIAAoAFkAZQBhAHIAQwBFACAAPAA+ACAASQBOAFQAKABZAGUAYQByAEMARQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAQQBCAFMAKABZAGUAYQByAEMARQApACAAPAAgADEAMAAwADAAMAAwAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQAgAHkAZQBhAHIAIABpAG4AYwBsAHUAZABlAHMAIABhACAAbABlAGEAcAAgAGQAYQB5ACAAaQBuACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGIAbwBvAGwAZQBhAG4ALgBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAG4AbwB0ACAAYQAgAHYAYQBsAGkAZAAgAHkAZQBhAHIALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ATwBEACgAXwB5AGUAYQByAEMARQAsACAANAAwADAAKQAgAD0AIAAwACwAIABUAFIAVQBFACwAIABJAEYAKABNAE8ARAAoAF8AeQBlAGEAcgBDAEUALAAgADEAMAAwACkAIAA9ACAAMAAsACAARgBBAEwAUwBFACwAIABNAE8ARAAoAF8AeQBlAGEAcgBDAEUALAAgADQAKQAgAD0AIAAwACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQBcAG4AXABuAFQAZQBzAHQAcwAgAGkAZgAgAGEAIABkAGEAdABlACAAaQBzACAAdgBhAGwAaQBkACAAZgBvAHIAIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAEkAZgAgAG0AbwBuAHQAaAAgAGEAbgBkACAAZABhAHkAIABtAGkAcwBzAGkAbgBnACwAIABjAG8AbgBzAGkAZABlAHIAZQBkACAAYQAgAHkAZQBhAHIAIABvAG4AbAB5ACAAZABhAHQAZQAuAFwAbgBJAGYAIABvAG4AbAB5ACAAZABhAHkAIABpAHMAIABtAGkAcwBzAGkAbgBnACwAIABjAG8AbgBzAGkAZABlAHIAZQBkACAAYQAgAHkAZQBhAHIAIABhAG4AZAAgAG0AbwBuAHQAaAAgAGQAYQB0AGUALgBcAG4ATwBuAGwAeQAgAHQAaABlACAAbABhAHMAdAAgAHAAcgBvAHYAaQBkAGUAZAAgAGUAbABlAG0AZQBuAHQAIABjAGEAbgAgAGgAYQB2AGUAIABhACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHYAYQBsAHUAZQAuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGIAbwBvAGwAZQBhAG4ALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBNAG8AbgB0AGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByAFwAbgBEAGEAeQAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGEAeQAgAG8AZgAgAG0AbwBuAHQAaABcAG4AWwBBAGwAbABNAGEAbgBkAGEAdABvAHIAeQBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARABpAHMAYQBsAGwAbwB3ACAAcwBoAG8AcgB0ACAAZgBvAHIAbQBzADoAIABZAGUAYQByACwAIABZAGUAYQByACAAYQBuAGQAIABNAG8AbgB0AGgAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAWwBBAGwAbABNAGEAbgBkAGEAdABvAHIAeQBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAF8AZQBsAGUAbQBlAG4AdABzACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBvAG4AdABoACkAKQAgACoAIABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAG8AbgB0AGgAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AZQBsAGUAbQBlAG4AdABzACAAPQAgADAAKQAgACsAIAAoACgATgAoAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5ACkAIAA8AD4AIAAwACkAIAAqACAAKABfAGUAbABlAG0AZQBuAHQAcwAgADwAIAAzACkAKQApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB5AGUAYQByACAAaQBzACAAbQBhAG4AZABhAHQAbwByAHkALAAgAGEAbgBkACAAYQBsAGwAIABlAGwAZQBtAGUAbgB0AHMAIABtAGEAbgBkAGEAdABvAHIAeQAgAGkAZgAgAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5ACAAcwB3AGkAdABjAGgAIABpAHMAIABzAGUAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMwAsACAALwAvACAAeQBlAGEAcgAsACAAbQBvAG4AdABoACAAYQBuAGQAIABkAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBvAG4AdABoACAAPAA+ACAASQBOAFQAKABNAG8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABtAG8AbgB0AGgAIABjAGEAbgBuAG8AdAAgAGIAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAZgBvAHIAIABtAG8AbgB0AGgAIAByAGEAbgBnAGUAIAAxAC4ALgAxADIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABNAG8AbgB0AGgAIAA+AD0AIAAxACkAIAAqACAAKABNAG8AbgB0AGgAIAA8AD0AIAAxADIAKQApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAASQBOAFQAKABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAE0AbwBuAHQAaAAgAD0AIAAyACkALAAgAC8ALwAgAEYAZQBiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBkAGEAeQAgAD4APQAgADEAKQAgACoAIAAoAF8AZABhAHkAIAA8AD0AIAAoADIAOAAgACsAIABOACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACkAKQApACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgATQBvAG4AdABoACAAPAA9ACAANwApACwAIAAvAC8AIABKAGEAbgAsACAATQBhAHIALAAgAEEAcAByACwAIABNAGEAeQAsACAASgB1AG4ALAAgAEoAdQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBkAGEAeQAgAD4APQAgADEAKQAgACoAIAAoAF8AZABhAHkAIAA8AD0AIAAoADMAMAAgACsAIABNAE8ARAAoAE0AbwBuAHQAaAAsACAAMgApACkAKQApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAE0AbwBuAHQAaAAgAD4APQAgADgAKQAsACAALwAvACAAQQB1AGcALAAgAFMAZQBwACwAIABPAGMAdAAsACAATgBvAHYALAAgAEQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AZABhAHkAIAA+AD0AIAAxACkAIAAqACAAKABfAGQAYQB5ACAAPAA9ACAAKAAzADEAIAAtACAATQBPAEQAKABNAG8AbgB0AGgALAAgADIAKQApACkAIAA8AD4AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMgAsACAALwAvACAAeQBlAGEAcgAgAGEAbgBkACAAbQBvAG4AdABoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSACgAWQBlAGEAcgBDAEUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAIABJAE4AVAAoAE0AbwBuAHQAaAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABmAG8AcgAgAG0AbwBuAHQAaAAgAHIAYQBuAGcAZQAgADEALgAuADEAMgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AbQBvAG4AdABoACAAPgA9ACAAMQApACAAKgAgACgAXwBtAG8AbgB0AGgAIAA8AD0AIAAxADIAKQApACAAPAA+ACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQBsAGUAbQBlAG4AdABzACAAPQAgADEALAAgAC8ALwAgAHkAZQBhAHIAIABvAG4AbAB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBfAFYAQQBMAEkARABfAFkARQBBAFIAKABZAGUAYQByAEMARQAsACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQAgAHQAaQBtAGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAAMgA0ACAAaABvAHUAcgAgAHQAaQBtAGUAawBlAGUAcABpAG4AZwAgAHMAeQBzAHQAZQBtAC4AXABuAE8AbgBsAHkAIAB0AGgAZQAgAGwAYQBzAHQAIABwAHIAbwB2AGkAZABlAGQAIABlAGwAZQBtAGUAbgB0ACAAYwBhAG4AIABoAGEAdgBlACAAYQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIAB2AGEAbAB1AGUALgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABiAG8AbwBsAGUAYQBuAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBIAG8AdQByACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAwAC4ALgAyADQAXABuAE0AaQBuAHUAdABlACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgADAALgAuADUAOQAuADkAOQA5AFwAbgBTAGUAYwBvAG4AZAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAwAC4ALgA1ADkALgA5ADkAOQBcAG4AWwBBAGwAbABNAGEAbgBkAGEAdABvAHIAeQBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARABpAHMAYQBsAGwAbwB3ACAAcwBoAG8AcgB0ACAAZgBvAHIAbQBzADoAIABIAG8AdQByACwAIABIAG8AdQByACAAYQBuAGQAIABNAGkAbgB1AHQAZQBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAEgAbwB1AHIALAAgAE0AaQBuAHUAdABlACwAIABTAGUAYwBvAG4AZAAsACAAWwBBAGwAbABNAGEAbgBkAGEAdABvAHIAeQBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAF8AZQBsAGUAbQBlAG4AdABzACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEgAbwB1AHIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAGkAbgB1AHQAZQApACkAIAAqACAASQBTAE4AVQBNAEIARQBSACgAUwBlAGMAbwBuAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAUwBlAGMAbwBuAGQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABTAGUAYwBvAG4AZAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AZQBsAGUAbQBlAG4AdABzACAAPQAgADAAKQAgACsAIAAoACgATgAoAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5ACkAIAA8AD4AIAAwACkAIAAqACAAKABfAGUAbABlAG0AZQBuAHQAcwAgADwAIAAzACkAKQApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABoAG8AdQByACAAaQBzACAAbQBhAG4AZABhAHQAbwByAHkALAAgAGEAbgBkACAAYQBsAGwAIABlAGwAZQBtAGUAbgB0AHMAIABtAGEAbgBkAGEAdABvAHIAeQAgAGkAZgAgAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5ACAAcwB3AGkAdABjAGgAIABpAHMAIABzAGUAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMwAsACAALwAvACAAaABvAHUAcgAsACAAbQBpAG4AdQB0AGUALAAgAHMAZQBjAG8AbgBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkAFgALAAgAFIATwBVAE4ARABEAE8AVwBOACgAUwBlAGMAbwBuAGQAIAAqACAAMQAwADAAMAAwACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABoAG8AdQByACAAaQBzACAAbgBvAHQAIABmAHIAYQBjAHQAaQBvAG4AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAG8AdQByACAAPAA+ACAASQBOAFQAKABIAG8AdQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAaABvAHUAcgAgAGkAbgAgAHIAYQBuAGcAZQAgADAALgAuADIANABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAEgAbwB1AHIAIAA+AD0AIAAwACkAIAAqACAAKABIAG8AdQByACAAPAA9ACAAMgA0ACkAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAG0AaQBuAHUAdABlACAAaQBzACAAbgBvAHQAIABmAHIAYQBjAHQAaQBvAG4AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAGkAbgB1AHQAZQAgADwAPgAgAEkATgBUACgATQBpAG4AdQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABtAGkAbgB1AHQAZQAgAGkAbgAgAHIAYQBuAGcAZQAgADAALgAuADUAOQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAE0AaQBuAHUAdABlACAAPgA9ACAAMAApACAAKgAgACgATQBpAG4AdQB0AGUAIAA8AD0AIAA1ADkAKQApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAegBlAHIAbwAgAG0AaQBuAHUAdABlACAAYQBuAGQAIABzAGUAYwBvAG4AZAAgAGYAbwByACAAMgA0ACAAaABvAHUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAEgAbwB1AHIAIAA9ACAAMgA0ACkAIAAqACAAKAAoAE0AaQBuAHUAdABlACAAPAA+ACAAMAApACAAKwAgACgAXwBzAGUAYwBvAG4AZABYACAAPAA+ACAAMAApACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAcwBlAGMAbwBuAGQAIABpAG4AIAByAGEAbgBnAGUAIAAwAC4ALgA1ADkALgA5ADkAOQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AcwBlAGMAbwBuAGQAWAAgAD4APQAgADAAKQAgACoAIAAoAF8AcwBlAGMAbwBuAGQAWAAgADwAIAA2ADAAMAAwADAAMAApACkAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMgAsACAALwAvACAAaABvAHUAcgAgAGEAbgBkACAAbQBpAG4AdQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAG4AdQB0AGUAWAAsACAAUgBPAFUATgBEAEQATwBXAE4AKABNAGkAbgB1AHQAZQAgACoAIAA2ADAAMAAwADAAMAAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAaABvAHUAcgAgAGkAcwAgAG4AbwB0ACAAZgByAGEAYwB0AGkAbwBuAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABvAHUAcgAgADwAPgAgAEkATgBUACgASABvAHUAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAGgAbwB1AHIAIABpAG4AIAByAGEAbgBnAGUAIAAwAC4ALgAyADQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABIAG8AdQByACAAPgA9ACAAMAApACAAKgAgACgASABvAHUAcgAgADwAPQAgADIANAApACkAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIAB6AGUAcgBvACAAbQBpAG4AdQB0AGUAIABmAG8AcgAgADIANAAgAGgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABIAG8AdQByACAAPQAgADIANAApACAAKgAgACgAXwBtAGkAbgB1AHQAZQBYACAAPAA+ACAAMAApACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAG0AaQBuAHUAdABlACAAaQBuACAAcgBhAG4AZwBlACAAMAAuAC4ANQA5AC4AOQA5ADkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABfAG0AaQBuAHUAdABlAFgAIAA+AD0AIAAwACkAIAAqACAAKABfAG0AaQBuAHUAdABlAFgAIAA8ACAAMwA2ADAAMAAwADAAMAAwACkAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAbABlAG0AZQBuAHQAcwAgAD0AIAAxACwAIAAvAC8AIABoAG8AdQByACAAbwBuAGwAeQAgAHQAaQBtAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgBYACwAIABSAE8AVQBOAEQARABPAFcATgAoAEgAbwB1AHIAIAAqACAAMwA2ADAAMAAwADAAMAAwACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABoAG8AdQByACAAaQBuACAAcgBhAG4AZwBlACAAMAAuAC4AMgA0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AaABvAHUAcgBYACAAPgA9ACAAMAApACAAKgAgACgAXwBoAG8AdQByAFgAIAA8AD0AIAA4ADYANAAwADAAMAAwADAAMAApACkAIAA8AD4AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAXwBaAE8ATgBFAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABpAHMAIABpAG4AIAB2AGEAbABpAGQAIAByAGEAbgBnAGUALgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABiAG8AbwBsAGUAYQBuAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAUgBhAG4AZwBlACAAaQBzACAALQA5ADAAMAAuAC4AKwA5ADAAMAAgAC0APgAgAC0AMQA1ADoAMAAwAC4ALgArADEANQA6ADAAMABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAIAA9ACAATABBAE0AQgBEAEEAKABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACwAXABuACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACkAKQAsACAARgBBAEwAUwBFACwAIAAoACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAgAD4APQAgAC0AOQAwADAAKQAgACoAIAAoAE8AZgBmAHMAZQB0AE0AaQBuAHUAdABlAHMAIAA8AD0AIAA5ADAAMAApACkAIAA8AD4AIAAwACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQBuACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABiAG8AbwBsAGUAYQBuAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBPAHIAZABpAG4AYQBsACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAE8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG8AZgAgAHkAZQBhAHIAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATwByAGQAaQBuAGEAbAApACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsACAALwAvACAATwByAGQAaQBuAGEAbAAgAGkAcwAgAG0AYQBuAGQAYQB0AG8AcgB5AFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwALAAgAEkATgBUACgATwByAGQAaQBuAGEAbAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAYQBwAEQAYQB5ACwAIABOACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAZgBvAHIAIAB2AGEAbABpAGQAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBvAHIAZABpAG4AYQBsACAAPgA9ACAAMQApACAAKgAgACgAXwBvAHIAZABpAG4AYQBsACAAPAA9ACAAKAAzADYANQAgACsAIABfAGwAZQBhAHAARABhAHkAKQApACkAIAA8AD4AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMAXwBWAEEATABJAEQAXwBXAEUARQBLAF8ARABBAFQARQBcAG4AXABuAFQAZQBzAHQAcwAgAGkAZgAgAGEAIAB3AGUAZQBrACAAZABhAHQAZQAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGIAbwBvAGwAZQBhAG4ALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBXAGUAZQBrACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABJAFMATwAgAGQAZQBmAGkAbgBlAGQAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABvAGYAIAB0AGgAZQAgAHkAZQBhAHIAXABuAEQAYQB5AE8AZgBXAGUAZQBrACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAdABoAGUAIAB3AGUAZQBrACAAdwBoAGUAcgBlACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgBcAG4AWwBEAGEAeQBPAGYAVwBlAGUAawBNAGEAbgBkAGEAdABvAHIAeQBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARABhAHkATwBmAFcAZQBlAGsAIABtAHUAcwB0ACAAYgBlACAAcAByAG8AdgBpAGQAZQBkAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMAXwBWAEEATABJAEQAXwBXAEUARQBLAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABXAGUAZQBrACwAIABEAGEAeQBPAGYAVwBlAGUAawAsACAAWwBEAGEAeQBPAGYAVwBlAGUAawBNAGEAbgBkAGEAdABvAHIAeQBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABXAGUAZQBrACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAIAAvAC8AIABZAGUAYQByACAAYQBuAGQAIABXAGUAZQBrACAAbQBhAG4AZABhAHQAbwByAHkAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AbQBtAGkAdABEAG8AVwAsACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQBPAGYAVwBlAGUAawApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABOACgARABhAHkATwBmAFcAZQBlAGsATQBhAG4AZABhAHQAbwByAHkAKQAgADwAPgAgADAAKQAgACoAIABfAG8AbQBtAGkAdABEAG8AVwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsACAALwAvACAARABhAHkATwBmAFcAZQBlAGsATQBhAG4AZABhAHQAbwByAHkAIABzAGUAdAAgAGEAbgBkACAARABhAHkATwBmAFcAZQBlAGsAIABpAHMAIABvAG0AbQBpAHQAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAaQBmACAAdwBlAGUAawAgAGkAbgAgAHIAYQBuAGcAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdwBlAGUAawAsACAASQBOAFQAKABXAGUAZQBrACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwB3AGUAZQBrACAAPgA9ACAAMQApACAAKgAgACgAXwB3AGUAZQBrACAAPAA9ACAAWQBFAEEAUgBfAFcARQBFAEsAXwBDAE8AVQBOAFQAKABZAGUAYQByAEMARQApACkAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AbQBtAGkAdABEAG8AVwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAC8ALwAgAHkAZQBhAHIAIABhAG4AZAAgAHcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABXAGUAZQBrACAAPAA+ACAAXwB3AGUAZQBrACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALAAgAC8ALwAgAHcAZQBlAGsAIABoAGEAcwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIAB2AGEAbAB1AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAaQBmACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAaQBuACAAcgBhAG4AZwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3ACwAIABJAE4AVAAoAEQAYQB5AE8AZgBXAGUAZQBrACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AZABvAHcAIAA+AD0AIAAxACkAIAAqACAAKABfAGQAbwB3ACAAPAA9ACAANwApACkAIAA8AD4AIAAwACAALwAvACAAVABlAHMAdAAgAGYAbwByACAARABhAHkATwBmAFcAZQBlAGsAIAAxAC4ALgA3AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAEUAQQBSAF8ARABBAFkAXwBDAE8AVQBOAFQAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABjAG8AdQBuAHQAIABvAGYAIABvAHIAZABpAG4AYQBsACAAZABhAHkAcwAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAHkAZQBhAHIALgBcAG4ASQBuAHQAZQBnAGUAcgAgAHcAaQB0AGgAIAByAGEAbgBnAGUAIAAzADYANQAuAC4AMwA2ADYAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAGEAIAB2AGEAbABpAGQAIAB5AGUAYQByAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBZAEUAQQBSAF8ARABBAFkAXwBDAE8AVQBOAFQAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsAFwAbgAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACwAIAAxACkAKQAsACAAIwBWAEEATABVAEUAIQAsACAASQBGACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACwAIAAzADYANgAsACAAMwA2ADUAKQApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAEUAQQBSAF8AVwBFAEUASwBfAEMATwBVAE4AVABcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAbwB1AG4AdAAgAG8AZgAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAcwAgAGkAbgAgAGEAIABnAGkAdgBlAG4AIAB5AGUAYQByAC4AXABuAEkAbgB0AGUAZwBlAHIAIAB3AGkAdABoACAAcgBhAG4AZwBlACAANQAyAC4ALgA1ADMAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAGEAIAB2AGEAbABpAGQAIAB5AGUAYQByAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBZAEUAQQBSAF8AVwBFAEUASwBfAEMATwBVAE4AVAAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFkARQBBAFIAKABZAGUAYQByAEMARQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUALAAgAEkATgBUACgAWQBlAGEAcgBDAEUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkALAAgAE0ATwBEACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAgACsAIABJAE4AVAAoAF8AeQBlAGEAcgBDAEUAIAAvACAANAApACAALQAgAEkATgBUACgAXwB5AGUAYQByAEMARQAgAC8AIAAxADAAMAApACAAKwAgAEkATgBUACgAXwB5AGUAYQByAEMARQAgAC8AIAA0ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkAIAA9ACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGkAZgAgAGwAYQBzAHQAIABkAGEAeQAgAG8AZgAgAHkAZQBhAHIAIABpAHMAIABhACAAVABoAHUAcgBzAGQAYQB5ACwAIAB0AGgAZQBuACAAaABhAHMAIABhAG4AIABlAHgAdAByAGEAIAB3AGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAWQBlAGEAcgAsACAAXwB5AGUAYQByAEMARQAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkAUAByAGUAdgAsACAATQBPAEQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AFkAZQBhAHIAIAArACAASQBOAFQAKABfAGwAYQBzAHQAWQBlAGEAcgAgAC8AIAA0ACkAIAAtACAASQBOAFQAKABfAGwAYQBzAHQAWQBlAGEAcgAgAC8AIAAxADAAMAApACAAKwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4AVAAoAF8AbABhAHMAdABZAGUAYQByACAALwAgADQAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkAUAByAGUAdgAgAD0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGkAZgAgAGwAYQBzAHQAIABkAGEAeQAgAG8AZgAgAHAAcgBlAHYAaQBvAHUAcwAgAHkAZQBhAHIAIABpAHMAIABhACAAVwBlAGQAbgBlAHMAZABhAHkALAAgAHQAaABlAG4AIABoAGEAcwAgAGEAbgAgAGUAeAB0AHIAYQAgAHcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABvAHQAaABlAHIAdwBpAHoAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBEAEEAWQBfAE8AUgBEAEkATgBBAEwAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABvAHIAZABpAG4AYQBsACAAZABhAHkAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBJAG4AdABlAGcAZQByACAAdwBpAHQAaAAgAHIAYQBuAGcAZQAgADEALgAuADMANgA2AFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAZABhAHQAZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ATQBvAG4AdABoACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByAFwAbgBEAGEAeQAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAbQBvAG4AdABoAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEEAWQBfAE8AUgBEAEkATgBBAEwAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAAewAwACwAIAAzADEALAAgADUAOQAsACAAOQAwACwAIAAxADIAMAAsACAAMQA1ADEALAAgADEAOAAxACwAIAAyADEAMgAsACAAMgA0ADMALAAgADIANwAzACwAIAAzADAANAAsACAAMwAzADQAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAASQBOAFQAKABNAG8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAGEAeQAgACsAIABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAALAAgAF8AbQBvAG4AdABoACkAIAArACAASQBGACgAXwBtAG8AbgB0AGgAIAA8AD0AIAAyACwAIAAwACwAIABOACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAZgByAG8AbQAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIAB2AGEAbABpAGQAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuAFwAbgBcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABZAGUAYQByACAAQwBFACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAgACAAMgAgAHwAIABNAG8AbgB0AGgAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4AMQAyAFwAbgAgACAAMwAgAHwAIABEAGEAeQAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMQAuAC4AMwAxAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBPAHIAZABpAG4AYQBsACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAATwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATwByAGQAaQBuAGEAbAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAEYAaQByAHMAdABPAHIAZABpAG4AYQBsACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7ADEALAAgADMAMgAsACAANgAxACwAIAA5ADIALAAgADEAMgAyACwAIAAxADUAMwAsACAAMQA4ADMALAAgADIAMQA0ACwAIAAyADQANQAsACAAMgA3ADUALAAgADMAMAA2ACwAIAAzADMANgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewAxACwAIAAzADIALAAgADYAMAAsACAAOQAxACwAIAAxADIAMQAsACAAMQA1ADIALAAgADEAOAAyACwAIAAyADEAMwAsACAAMgA0ADQALAAgADIANwA0ACwAIAAzADAANQAsACAAMwAzADUAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwALAAgAEkATgBUACgATwByAGQAaQBuAGEAbAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAIABYAE0AQQBUAEMASAAoAF8AbwByAGQAaQBuAGEAbAAsACAAXwBtAG8AbgB0AGgARgBpAHIAcwB0AE8AcgBkAGkAbgBhAGwALAAgAC0AMQAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAGYAZgBzAGUAdAAsACAASQBOAEQARQBYACgAXwBtAG8AbgB0AGgARgBpAHIAcwB0AE8AcgBkAGkAbgBhAGwALAAgAF8AbQBvAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAATwByAGQAaQBuAGEAbAAgAC0AIABfAG8AZgBmAHMAZQB0ACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABZAGUAYQByAEMARQAsACAAXwBtAG8AbgB0AGgALAAgAF8AZABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABBAFkAXwBPAEYAXwBXAEUARQBLAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABkAGEAdABlAC4AXABuACAAIAAxACAALQAgAE0AbwBuAGQAYQB5AFwAbgAgACAAMgAgAC0AIABUAHUAZQBzAGQAYQB5AFwAbgAgACAAMwAgAC0AIABXAGUAZABuAGUAcwBkAGEAeQBcAG4AIAAgADQAIAAtACAAVABoAHUAcgBkAGEAeQBcAG4AIAAgADUAIAAtACAARgByAGkAZABhAHkAXABuACAAIAA2ACAALQAgAFMAYQB0AHUAcgBkAGEAeQBcAG4AIAAgADcAIAAtACAAUwB1AG4AZABhAHkAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAGEAIAB2AGEAbABpAGQAIABkAGEAdABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBNAG8AbgB0AGgAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgAG8AZgAgAHkAZQBhAHIAXABuAEQAYQB5ACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAARABhAHkAIABvAGYAIABtAG8AbgB0AGgAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFUAcwBpAG4AZwAgAFoAZQBsAGwAZQByACAAQwBvAG4AZwByAHUAZQBuAGMAZQAsACAAYwBmAC4AIABoAHQAdABwAHMAOgAvAC8AZQBuAC4AdwBpAGsAaQBwAGUAZABpAGEALgBvAHIAZwAvAHcAaQBrAGkALwBaAGUAbABsAGUAcgAlADIANwBzAF8AYwBvAG4AZwByAHUAZQBuAGMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAE0AYQBwACAAbQBvAG4AdABoAHMAIABNAGEAcgAuAC4ARgBlAGIAIAAtAD4AIAAzAC4ALgAxADQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AegBlAGwAbABlAHIATQBvAG4AdABoACwAIABNAE8ARAAoAEkATgBUACgATQBvAG4AdABoACkAIAAtACAAMwAsACAAMQAyACkAIAArACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAASgBhAG4ALAAgAEYAZQBiACAAYwBvAG4AcwBpAGQAZQByAGUAZAAgAGIAZQBsAG8AbgBnAGkAbgBnACAAdABvACAAcAByAGUAdgBpAG8AdQBzACAAeQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB6AGUAbABsAGUAcgBZAGUAYQByACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkAIAAtACAASQBOAFQAKABfAHoAZQBsAGwAZQByAE0AbwBuAHQAaAAgAC8AIAAxADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIATwBmAEMAZQBuAHQALAAgAE0ATwBEACgAXwB6AGUAbABsAGUAcgBZAGUAYQByACwAIAAxADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AegBlAHIAbwBCAGEAcwBlAGQAQwBlAG4AdAAsACAASQBOAFQAKABfAHoAZQBsAGwAZQByAFkAZQBhAHIAIAAvACAAMQAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAWgBlAGwAbABlAHIAIABDAG8AbgBnAHIAdQBlAG4AYwBlACAAZgBvAHIAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAcgBlAHQAdQByAG4AcwAgAHcAZQBlAGsAZABhAHkAcwAgADAALgAuADYAIAAtAD4AIABTAGEAdAAuAC4ARgByAGkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AegBlAGwAbABlAHIAVwBlAGUAawBEAGEAeQAsACAATQBPAEQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4AVAAoAEQAYQB5ACkAIAArACAASQBOAFQAKAAxADMAIAAqACAAKABfAHoAZQBsAGwAZQByAE0AbwBuAHQAaAAgACsAIAAxACkAIAAvACAANQApACAAKwAgAF8AeQBlAGEAcgBPAGYAQwBlAG4AdAAgACsAIABJAE4AVAAoAF8AeQBlAGEAcgBPAGYAQwBlAG4AdAAgAC8AIAA0ACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAFQAKABfAHoAZQByAG8AQgBhAHMAZQBkAEMAZQBuAHQAIAAvACAANAApACAALQAgADIAIAAqACAAXwB6AGUAcgBvAEIAYQBzAGUAZABDAGUAbgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAVAByAGEAbgBzAGwAYQB0AGUAIAB0AG8AIABJAFMATwAgAG4AdQBtAGIAZQByAGkAbgBnACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBPAEQAKABfAHoAZQBsAGwAZQByAFcAZQBlAGsARABhAHkAIAArACAANQAsACAANwApACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAQQBZAF8ATwBGAF8AVwBFAEUASwBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuAFwAbgAgACAAMQAgAC0AIABNAG8AbgBkAGEAeQBcAG4AIAAgADIAIAAtACAAVAB1AGUAcwBkAGEAeQBcAG4AIAAgADMAIAAtACAAVwBlAGQAbgBlAHMAZABhAHkAXABuACAAIAA0ACAALQAgAFQAaAB1AHIAZABhAHkAXABuACAAIAA1ACAALQAgAEYAcgBpAGQAYQB5AFwAbgAgACAANgAgAC0AIABTAGEAdAB1AHIAZABhAHkAXABuACAAIAA3ACAALQAgAFMAdQBuAGQAYQB5AFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAZABhAHQAZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBPAHIAZABpAG4AYQBsACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAATwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABBAFkAXwBPAEYAXwBXAEUARQBLAF8ARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATwByAGQAaQBuAGEAbAAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQARABhAHkATwBmAFkAZQBhAHIALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAoAFkAZQBhAHIAQwBFACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFQAcgBhAG4AcwBsAGEAdABlACAAdABvACAASQBTAE8AIABuAHUAbQBiAGUAcgBpAG4AZwAgADEALgAuADcAIAAtAD4AIABNAG8AbgAuAC4AUwB1AG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ATwBEACgAXwBmAGkAcgBzAHQARABhAHkATwBmAFkAZQBhAHIAIAArACAASQBOAFQAKABPAHIAZABpAG4AYQBsACkAIAAtACAAMgAsACAANwApACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFcARQBFAEsAXwBOAFUATQBCAEUAUgBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABkAGEAdABlAC4AXABuAEkAbgB0AGUAZwBlAHIAIAB3AGkAdABoACAAcgBhAG4AZwBlACAAMQAuAC4ANQAzAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAZABhAHQAZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ATQBvAG4AdABoACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByAFwAbgBEAGEAeQAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAbQBvAG4AdABoAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwALAAgAEQAQQBZAF8ATwBSAEQASQBOAEEATAAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBPAGYAVwBlAGUAawAsACAARABBAFkAXwBPAEYAXwBXAEUARQBLACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAsACAASQBOAFQAKAAoAEkATgBUACgAXwBvAHIAZABpAG4AYQBsACkAIAAtACAAXwBkAGEAeQBPAGYAVwBlAGUAawAgACsAIAAxADAAKQAgAC8AIAA3ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbABhAHMAdAAgAHcAZQBlAGsAIABvAGYAIABwAHIAZQB2AGkAbwB1AHMAIAB5AGUAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFkARQBBAFIAXwBXAEUARQBLAF8AQwBPAFUATgBUACgAWQBlAGEAcgBDAEUAIAAtACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAG8AbQBpAG4AYQBsAFcAZQBlAGsAIAA9ACAANQAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAaQBmACAAdABoAGkAcwAgAHkAZQBhAHIAIABkAG8AZQBzACAAbgBvAHQAIABoAGEAdgBlACAANQAzACAAdwBlAGUAawBzACwAIAB0AGgAZQBuACAAaQBzACAAdABoAGUAIABmAGkAcgBzAHQAIAB3AGUAZQBrACAAbwBmACAAZgBvAGwAbABvAHcAaQBuAGcAIAB5AGUAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFkARQBBAFIAXwBXAEUARQBLAF8AQwBPAFUATgBUACgAWQBlAGEAcgBDAEUAKQAgAD0AIAA1ADMALAAgADUAMwAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBvAG0AaQBuAGEAbABXAGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATABcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuAFwAbgBJAG4AdABlAGcAZQByACAAdwBpAHQAaAAgAHIAYQBuAGcAZQAgADEALgAuADUAMwBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAG4AbwB0ACAAYQAgAHYAYQBsAGkAZAAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAE8AcgBkAGkAbgBhAGwAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABPAHIAZABpAG4AYQBsACAAZABhAHkAIABvAGYAIAB5AGUAYQByAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AE8AZgBXAGUAZQBrACwAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAG8AbQBpAG4AYQBsAFcAZQBlAGsALAAgAEkATgBUACgAKABJAE4AVAAoAE8AcgBkAGkAbgBhAGwAKQAgAC0AIABfAGQAYQB5AE8AZgBXAGUAZQBrACAAKwAgADEAMAApACAALwAgADcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBvAG0AaQBuAGEAbABXAGUAZQBrACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABsAGEAcwB0ACAAdwBlAGUAawAgAG8AZgAgAHAAcgBlAHYAaQBvAHUAcwAgAHkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWQBFAEEAUgBfAFcARQBFAEsAXwBDAE8AVQBOAFQAKABZAGUAYQByAEMARQAgAC0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAgAD0AIAA1ADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAGYAIAB0AGgAaQBzACAAeQBlAGEAcgAgAGQAbwBlAHMAIABuAG8AdAAgAGgAYQB2AGUAIAA1ADMAIAB3AGUAZQBrAHMALAAgAHQAaABlAG4AIABpAHMAIAAxAHMAdAAgAHcAZQBlAGsAIABvAGYAIABmAG8AbABsAG8AdwBpAG4AZwAgAHkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAWQBFAEEAUgBfAFcARQBFAEsAXwBDAE8AVQBOAFQAKABZAGUAYQByAEMARQApACAAPQAgADUAMwAsACAANQAzACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAG8AbQBpAG4AYQBsAFcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQATwBfAFcARQBFAEsAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAYQBuAGQAIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAGQAYQB0AGUALgAgAFQAaABlACAAcAByAG8AdgBpAGQAZQBkACAAZABhAHQAZQAgAGMAYQBuACAAaQBtAHAAbABpAGMAaQB0AGwAeQBcAG4AYgBlACAAZQBpAHQAaABlAHIAIABhACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAG8AcgAgAG8AcgBkAGkAbgBpAG4AYQBsACAAZABhAHQAZQAuAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAZABhAHQAZQAuAFwAbgBcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABZAGUAYQByACAAQwBFACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuACAAIAAyACAAfAAgAFcAZQBlAGsAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEALgAuADUAMwBcAG4AIAAgADMAIAB8ACAARABhAHkAIABvAGYAIAB3AGUAZQBrACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMQAuAC4ANwAgAE0AbwBuAC4ALgBzAHUAbgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ATQBvAG4AdABoACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgAG8AZgAgAHQAaABlACAAeQBlAGEAcgAuACAASQBmACAAbwBtAG0AaQB0AHQAZQBkACwAIABkAGEAeQAgAGkAcwAgAGEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABvAHIAZABpAG4AYQBsAC4AXABuAEQAYQB5ACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGEAeQAgAG8AZgAgAHQAaABlACAAbQBvAG4AdABoACAAdwBoAGUAbgAgAG0AbwBuAHQAaAAgAHAAcgBvAHYAaQBkAGUAZAAsACAAbwB0AGgAZQByAHcAaQBzAGUAIABvAHIAZABpAG4AYQBsACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHkAZQBhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AVABPAF8AVwBFAEUASwBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAASQBTAE4AVQBNAEIARQBSACgATQBvAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAGEAcgBlACAAYQAgAGQAYQB0AGUAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAcgBhAGMARABhAHkALAAgAEQAYQB5ACAALQAgAEkATgBUACgARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHcALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHcAZQBlAGsALAAgAFcARQBFAEsAXwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKAAoAF8AdwBlAGUAawAgAD0AIAAxACkAIAAqACAAKABNAG8AbgB0AGgAIAA9ACAAMQAyACkALAAgADEALAAgACgAXwB3AGUAZQBrACAAPgA9ACAANQAyACkAIAAqACAAKABNAG8AbgB0AGgAIAA9ACAAMQApACwAIAAtADEALAAgAFQAUgBVAEUALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwB5AGUAYQByAEMARQAsACAAXwB3AGUAZQBrACwAIABfAGQAbwB3ACAAKwAgAF8AZgByAGEAYwBEAGEAeQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABwAGEAcgBhAG0AZQB0AGUAcgBzACAAYQByAGUAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAEQAYQB5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAHIAYQBjAEQAYQB5ACwAIABEAGEAeQAgAC0AIABJAE4AVAAoAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3ACwAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAoAFkAZQBhAHIAQwBFACwAIABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrACwAIABXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAoAFkAZQBhAHIAQwBFACwAIABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACAAKwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAKABfAHcAZQBlAGsAIAA9ACAAMQApACAAKgAgACgATQBvAG4AdABoACAAPQAgADEAMgApACwAIAAxACwAIAAoAF8AdwBlAGUAawAgAD4APQAgADUAMgApACAAKgAgACgATQBvAG4AdABoACAAPQAgADEAKQAsACAALQAxACwAIABUAFIAVQBFACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AeQBlAGEAcgBDAEUALAAgAF8AdwBlAGUAawAsACAAXwBkAG8AdwAgACsAIABfAGYAcgBhAGMARABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBSAE8ATQBfAFcARQBFAEsAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZQBpAHQAaABlAHIAIABhACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAbwByACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAHcAZQBlAGsAIABhAG4AZAAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAG4AbwB0ACAAYQAgAHYAYQBsAGkAZAAgAHcAZQBlAGsAIABkAGEAdABlAC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuAFIAZQB0AHUAcgBuAE8AcgBkAGkAbgBhAGwAIAA9ACAARgBBAEwAUwBFAFwAbgAgACAAMQAgAHwAIABZAGUAYQByACAAQwBFACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAgACAAMgAgAHwAIABNAG8AbgB0AGgAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4AMQAyAFwAbgAgACAAMwAgAHwAIABEAGEAeQAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMQAuAC4AMwAxAFwAbgBSAGUAdAB1AHIAbgBPAHIAZABpAG4AYQBsACAAPQAgAFQAUgBVAEUAXABuACAAIAAxACAAfAAgAFkAZQBhAHIAIABDAEUAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuACAAIAAyACAAfAAgAE8AcgBkAGkAbgBhAGwAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAxAC4ALgAzADYANgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAFcAZQBlAGsAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIAB5AGUAYQByAFwAbgBEAGEAeQBPAGYAVwBlAGUAawAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAdABoAGUAIAB3AGUAZQBrACAAdwBoAGUAcgBlACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgAgAFwAbgBbAFIAZQB0AHUAcgBuAE8AcgBkAGkAbgBhAGwAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFIAZQB0AHUAcgBuACAAcgBlAHMAdQBsAHQAIABhAHMAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBSAE8ATQBfAFcARQBFAEsAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAFcAZQBlAGsALAAgAEQAYQB5AE8AZgBXAGUAZQBrACwAIABbAFIAZQB0AHUAcgBuAE8AcgBkAGkAbgBhAGwAXQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBXAEUARQBLAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABXAGUAZQBrACwAIABEAGEAeQBPAGYAVwBlAGUAawAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBDAG8AcgByAGUAYwB0AGkAbwBuACwAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAKABZAGUAYQByAEMARQAsACAAMQAsACAANAApACAAKwAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHIAZABpAG4AYQBsAEQAYQB5ACwAIABJAE4AVAAoAFcAZQBlAGsAKQAgACoAIAA3ACAAKwAgAEQAYQB5AE8AZgBXAGUAZQBrACAALQAgAF8AeQBDAG8AcgByAGUAYwB0AGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQATwByAGQAaQBuAGEAbAAsACAASQBOAFQAKABfAG8AcgBkAGkAbgBhAGwARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQATwByAGQAaQBuAGEAbAAgADwAIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAdgBZAGUAYQByACwAIABZAGUAYQByAEMARQAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAHYAWQBlAGEAcgBEAGEAeQBDAG8AdQBuAHQALAAgAFkARQBBAFIAXwBEAEEAWQBfAEMATwBVAE4AVAAoAF8AcAByAGUAdgBZAGUAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBkAGoAdQBzAHQAZQBkAE8AcgBkAGkAbgBhAGwARABhAHkALAAgAF8AcAByAGUAdgBZAGUAYQByAEQAYQB5AEMAbwB1AG4AdAAgACsAIABfAG8AcgBkAGkAbgBhAGwARABhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgAUgBlAHQAdQByAG4ATwByAGQAaQBuAGEAbAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AcAByAGUAdgBZAGUAYQByACwAIABfAGEAZABqAHUAcwB0AGUAZABPAHIAZABpAG4AYQBsAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAXwBwAHIAZQB2AFkAZQBhAHIALAAgAF8AYQBkAGoAdQBzAHQAZQBkAE8AcgBkAGkAbgBhAGwARABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQATwByAGQAaQBuAGEAbAAgADwAPQAgADMANgA1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgAUgBlAHQAdQByAG4ATwByAGQAaQBuAGEAbAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABZAGUAYQByAEMARQAsACAAXwBvAHIAZABpAG4AYQBsAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABfAG8AcgBkAGkAbgBhAGwARABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaABpAHMAWQBlAGEAcgBEAGEAeQBDAG8AdQBuAHQALAAgAFkARQBBAFIAXwBEAEEAWQBfAEMATwBVAE4AVAAoAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAbgB0AE8AcgBkAGkAbgBhAGwAIAA+ACAAXwB0AGgAaQBzAFkAZQBhAHIARABhAHkAQwBvAHUAbgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFkAZQBhAHIALAAgAFkAZQBhAHIAQwBFACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGEAZABqAHUAcwB0AGUAZABPAHIAZABpAG4AYQBsAEQAYQB5ACwAIABfAG8AcgBkAGkAbgBhAGwARABhAHkAIAAtACAAXwB0AGgAaQBzAFkAZQBhAHIARABhAHkAQwBvAHUAbgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgAUgBlAHQAdQByAG4ATwByAGQAaQBuAGEAbAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAG4AZQB4AHQAWQBlAGEAcgAsACAAXwBhAGQAagB1AHMAdABlAGQATwByAGQAaQBuAGEAbABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAFIATwBNAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAKABfAG4AZQB4AHQAWQBlAGEAcgAsACAAXwBhAGQAagB1AHMAdABlAGQATwByAGQAaQBuAGEAbABEAGEAeQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGwAYQBzAHQAIABkAGEAeQAgAG8AZgAgAGEAIABsAGUAYQBwACAAeQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAFIAZQB0AHUAcgBuAE8AcgBkAGkAbgBhAGwAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFkAZQBhAHIAQwBFACwAIABfAG8AcgBkAGkAbgBhAGwARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABfAG8AcgBkAGkAbgBhAGwARABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVgBBAEwASQBEAEEAVABFAF8AQwBIAEEAUgBBAEMAVABFAFIAUwBcAG4AXABuAFQAZQBzAHQAcwAgAGkAZgAgAHQAZQB4AHQAIABjAG8AbgB0AGEAaQBuAHMAIABvAG4AbAB5ACAAYwBoAGEAcgBhAGMAdABlAHIAcwAgAHQAaABhAHQAIABhAHIAZQAgAHYAYQBsAGkAZAAgAGYAbwByACAASQBTAE8AIAA4ADYAMAAxAC4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAYgBvAG8AbABlAGEAbgAuACAAQQBuACAAZQBtAHAAdAB5ACAAcwB0AHIAaQBuAGcAIAByAGUAdAB1AHIAbgBzACAAbgB1AGwAbAAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVABlAHgAdAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8ACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIAB0AGUAeAB0AC4AXABuAFsAUwB1AGIAcwBlAHQAXQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFMAdQBiAHMAZQB0ACAAZgBvAHIAbQBhAHQAIAB0AG8AIABtAGEAdABjAGgAXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAegBvAG4AZQAgACAAKwAsAC0ALgAwADEAMgAzADQANQA2ADcAOAA5ADoAVABXAFoAEiIgACgAZABlAGYAYQB1AGwAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABkAGEAdABlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACsALQAwADEAMgAzADQANQA2ADcAOAA5AFcAEiJcAG4AIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADIAIAAtACAAdABpAG0AZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAsAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AFQAXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAzACAALQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAtADAAMQAyADMANAA1ADYANwA4ADkAOgBaABIiXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA0ACAALQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAsAC0ALgAwADEAMgAzADQANQA2ADcAOAA5ADoAVABXABIiXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA1ACAALQAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAIAAgACAAIAAgACAAKwAsAC0ALgAwADEAMgAzADQANQA2ADcAOAA5ADoAVABaABIiXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA2ACAALQAgAGQAdQByAGEAdABpAG8AbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALAAtAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUwBUAFcAWQBcAG4AIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADcAIAAtACAAaQBuAHQAZQByAHYAYQBsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAArACwALQAuAC8AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUwBUAFcAWQBaABIiXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA4ACAALQAgAGYAdQBsAGwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAsAC0ALgAvADAAMQAyADMANAA1ADYANwA4ADkAOgBEAEgATQBQAFIAUwBUAFcAWQBaABIiXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFYAQQBMAEkARABBAFQARQBfAEMASABBAFIAQQBDAFQARQBSAFMAIAA9ACAATABBAE0AQgBEAEEAKABUAGUAeAB0ACwAIABbAFMAdQBiAHMAZQB0AF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAsACAASQBOAFQAKABOACgAUwB1AGIAcwBlAHQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgBTAGUAdAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACAAPAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBUAFcAWgBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBkAHgAIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGQAYQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsALQAwADEAMgAzADQANQA2ADcAOAA5AFcAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGkAbQBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgAsAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AFQAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAgAD0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABpAG0AZQAgAHoAbwBuAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsALQAwADEAMgAzADQANQA2ADcAOAA5ADoAWgBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBkAHgAIAA9ACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsALAAtAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AFQAVwBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBkAHgAIAA9ACAANQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBUAFoAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACAAPQAgADYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABkAHUAcgBhAHQAaQBvAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBEAEgATQBQAFMAVABXAFkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAgAD0AIAA3ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAaQBuAHQAZQByAHYAYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArACwALQAuAC8AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUwBUAFcAWQBaAFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAgAD4APQAgADgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABmAHUAbABsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArACwALQAuAC8AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUgBTAFQAVwBZAFoAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHMAYwBhAHAAZQBUAGUAeAB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAUwBVAEIAUwBUAEkAVABVAFQARQAoAFQAZQB4AHQALAAgAFwAIgAmAFwAIgAsACAAXAAiACYAYQBtAHAAOwBcACIAKQAsACAAXAAiADwAXAAiACwAIABcACIAJgBsAHQAOwBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHgAbQBsACwAIABcACIAPAB0AD4APABzAD4AXAAiACAAJgAgAF8AZQBzAGMAYQBwAGUAVABlAHgAdAAgACYAIABcACIAPAAvAHMAPgA8AC8AdAA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHgAcABhAHQAaAAsACAAXAAiAC8ALwBzAFsAdAByAGEAbgBzAGwAYQB0AGUAKAAuACwAJwBcACIAIAAmACAAXwBjAGgAYQByAFMAZQB0ACAAJgAgAFwAIgAnACwAJwAnACkAPQAnACcAXQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMARQBSAFIATwBSACgARgBJAEwAVABFAFIAWABNAEwAKABfAHgAbQBsACwAIABfAHgAcABhAHQAaAApACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8ARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHkAZQBhAHIALAAgAG0AbwBuAHQAaAAgAGEAbgBkACAAZABhAHkAIABvAGYAIABhACAAZABhAHQAZQAgAGYAcgBvAG0AIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuAFwAbgBOAG8AdABlACAAWQBZAFkAWQBNAE0AIABpAHMAIABpAG4AdgBhAGwAaQBkACwAIABkAHUAZQAgAHQAbwAgAGMAbwBsAGwAaQBzAGkAbwBuACAAdwBpAHQAaAAgAHQAcgB1AG4AYwBhAHQAZQBkACAAZgBvAHIAbQBhAHQAIABZAFkATQBNAEQARAAgAGkAbgAgAGUAYQByAGwAaQBlAHIAIAB2AGUAcgBzAGkAbwBuAHMAIABvAGYAIABJAFMATwAgADgANgAwADEALgBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAGEAbgAgAGkAbgB2AGEAbABpAGQAIABkAGEAdABlAC4AXABuACMATgAvAEEAIABpAGYAIABuAG8AdAAgAHAAYQByAHMAYQBiAGwAZQAuAFwAbgBcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABEAGEAdABlAFQAeQBwAGUAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADAAIAAtACAAbgBvACAAZABhAHQAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAxACAALQAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAHcAZQBlAGsAIABkAGEAdABlAFwAbgAgACAAMgAgAHwAIABZAGUAYQByACAAQwBFACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AIAAgADMAIAB8ACAARABhAHQAZQBBAHIAZwAxACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABNAG8AbgB0AGgAIAAxAC4ALgAxADIAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADEAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAARQBtAHAAdAB5ACAAdwBoAGUAbgAgAEQAYQB0AGUAVAB5AHAAZQAgAD0AIAAyAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAFcAZQBlAGsAIAAxAC4ALgA1ADMAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADMAXABuACAAIAA0ACAAfAAgAEQAYQB0AGUAQQByAGcAMgAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAARABhAHkAIAAxAC4ALgAzADEAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADEAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAATwByAGQAaQBuAGEAbAAgADEALgAuADMANgA2ACAAdwBoAGUAbgAgAEQAYQB0AGUAVAB5AHAAZQAgAD0AIAAyAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAEQAYQB5ACAAbwBmACAAVwBlAGUAawAgADEALgAuADcAIAAtAD4AIABNAG8AbgAuAC4AUwB1AG4AIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADMAXABuACAAIAA1ACAAfAAgAFAAcgBlAGMAaQBzAGkAbwBuACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAATwBwAHQAaQBvAG4AYQBsACwAIAB0AG8AZwBnAGwAZQBkACAAYgB5ACAARQB4AHQAZQBuAGQAZQBkACAAcABhAHIAYQBtAGUAdABlAHIALgBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAxACAALQAgAHkAZQBhAHIAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABtAG8AbgB0AGgALwB3AGUAZQBrAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADMAIAAtACAAZABhAHkAXABuACAAIAA2ACAAfAAgAEYAbwByAG0AYQB0ACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAATwBwAHQAaQBvAG4AYQBsACwAIAB0AG8AZwBnAGwAZQBkACAAYgB5ACAARQB4AHQAZQBuAGQAZQBkACAAcABhAHIAYQBtAGUAdABlAHIALgBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAxACAALQAgAGIAYQBzAGkAYwBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAyACAALQAgAGUAeAB0AGUAbgBkAGUAZABcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAZQB4AHQAIAAgACAAIAAgACAAIAAgAHwAIABzAHQAcgBpAG4AZwAgAHwAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAB0AGUAZAAgAGQAYQB0AGUALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAAKwBZAFkAWQBZAFkALQBNAE0ALQBEAEQALAAgAC0AWQBZAFkAWQAtAE0ATQAtAEQARAAsACAAWQBZAFkAWQAtAE0ATQAtAEQARAAsACAAWQBZAFkAWQAtAE0ATQAsACAAWQBZAFkAWQBNAE0ARABEACwAIABZAFkAWQBZAFwAbgBbAEUAeAB0AGUAbgBkAGUAZABdACAAIAB8ACAAcwB3AGkAdABjAGgAIAB8ACAAUgBlAHQAdQByAG4AIABQAHIAZQBjAGkAcwBpAG8AbgAgAGEAbgBkACAARgBvAHIAbQBhAHQAIABjAG8AbAB1AG0AbgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAVABlAHgAdAAsACAAWwBFAHgAdABlAG4AZABlAGQAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbAB1AG0AbgBzADoAIABIAGEAcwBoACwAIABEAGEAdABlAFQAeQBwAGUALAAgAFAAcgBlAGMAaQBzAGkAbwBuACwAIABGAG8AcgBtAGEAdAAsACAAWQBlAGEAcgBMAGUAbgAsACAARABhAHQAZQBBAHIAZwAxAFAAbwBzACwAIABEAGEAdABlAEEAcgBnADEATABlAG4ALAAgAEQAYQB0AGUAQQByAGcAMgBMAGUAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAHcAaABlAHIAZQAgAEgAYQBzAGgAIAA9ACAAKABMAEUATgAgACoAIAA0ADAAOQA2ACkAIAArACAAKABIAHkAcABoAGUAbgBQAG8AcwAgACoAIAAyADUANgApACAAKwAgACgASAB5AHAAaABlAG4AMgBQAG8AcwAgACoAIAAxADYAKQAgACsAIABXAFAAbwBzACAAXABuACAAIAAgACAAIAAgACAAIABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIAB7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADYAMwA4ADQALAAgADEALAAgADEALAAgADMALAAgADQALAAgADAALAAgADAALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAwADQAOAAwACwAIAAxACwAIAAxACwAIAAzACwAIAA1ACwAIAAwACwAIAAwACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAOAA2ADcAMgAsACAAMgAsACAAMwAsACAAMQAsACAANAAsACAAMAAsACAAMAAsACAAMwA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyADgANgA3ADcALAAgADMALAAgADIALAAgADEALAAgADQALAAgADYALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgA5ADkANQAyACwAIAAxACwAIAAyACwAIAAyACwAIAA0ACwAIAA2ACwAIAAyACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAMgA3ADYAOAAsACAAMQAsACAAMwAsACAAMQAsACAANAAsACAANQAsACAAMgAsACAAMgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADIANwA3ADMALAAgADMALAAgADMALAAgADEALAAgADQALAAgADYALAAgADIALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAyADcANwA0ACwAIAAzACwAIAAyACwAIAAxACwAIAA1ACwAIAA3ACwAIAAyACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMANAAwADQAOAAsACAAMgAsACAAMwAsACAAMgAsACAANAAsACAAMAAsACAAMAAsACAAMwA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADQAMAA1ADQALAAgADMALAAgADIALAAgADIALAAgADQALAAgADcALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwA0ADMAMAA0ACwAIAAxACwAIAAyACwAIAAyACwAIAA1ACwAIAA3ACwAIAAyACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMANgA4ADYANAAsACAAMQAsACAAMwAsACAAMQAsACAANQAsACAANgAsACAAMgAsACAAMgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADYAOAA3ADAALAAgADMALAAgADMALAAgADEALAAgADUALAAgADcALAAgADIALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwA4ADQAMAAwACwAIAAyACwAIAAzACwAIAAyACwAIAA1ACwAIAAwACwAIAAwACwAIAAzADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAOAA0ADAANwAsACAAMwAsACAAMgAsACAAMgAsACAANQAsACAAOAAsACAAMgAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAA0ADIAMwA2ADgALAAgADEALAAgADMALAAgADIALAAgADQALAAgADYALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAAyADMAOQAwACwAIAAzACwAIAAzACwAIAAyACwAIAA0ACwAIAA3ACwAIAAyACwAIAAxADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQANgA3ADMANgAsACAAMQAsACAAMwAsACAAMgAsACAANQAsACAANwAsACAAMgAsACAAMgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAA0ADYANwA1ADkALAAgADMALAAgADMALAAgADIALAAgADUALAAgADgALAAgADIALAAgADEAXABuACAAIAAgACAAIAAgACAAIAB9ACwAXABuACAAIAAgACAAIAAgACAAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4ALAAgAEwAQQBNAEIARABBACgAXwBlAHgAYwBlAHAAdABpAG8AbgAsACAAXwBmAEUAeAB0AGUAbgBkACwAIABbAF8AcAByAGUAYwBpAHMAaQBvAG4AXQAsACAAWwBfAGYAbwByAG0AYQB0AF0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8ACAAbgB1AGwAbAAgACAARQBtAHAAdAB5ACAAdABlAHgAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAATgAvAEEAIAAgACAAVQBuAGEAYgBsAGUAIAB0AG8AIABwAGEAcgBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAFYAQQBMAFUARQAgAEkAbgB2AGEAbABpAGQAIAB2AGEAbAB1AGUAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBmAEUAeAB0AGUAbgBkACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARQB4AHQAZQBuAGQAIABvAHUAdABwAHUAdAAgAHQAbwAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIABhAG4AZAAgAF8AZgBtAHQARQB4AHQAZQBuAGQAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABQAHIAZQBjAGkAcwBpAG8AbgAgAG8AZgAgAHAAYQByAHMAZQBkACAAdgBhAGwAdQBlAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AZgBvAHIAbQBhAHQAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFAAYQByAHMAZQBkACAAZgBvAHIAbQBhAHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBFAHgAdABlAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAMAAsACAAIwBOAC8AQQAsACAAIwBOAC8AQQAsACAAIwBOAC8AQQAsACAAIwBOAC8AQQAsACAAIwBOAC8AQQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBWAEEATABVAEUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKAB7ADAALAAgACMAVgBBAEwAVQBFACEALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgADEAfQAsACAAXwBmAG8AcgBtAGEAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAHsAMAAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAXAAiAFwAIgAsACAAMgB9ACwAIABfAGYAbwByAG0AYQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAALwAvAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKAB7ADAALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgADMAfQAsACAAXwBmAG8AcgBtAGEAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewAwACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAMAAsACAAIwBOAC8AQQAsACAAIwBOAC8AQQAsACAAIwBOAC8AQQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBWAEEATABVAEUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewAwACwAIAAjAFYAQQBMAFUARQAhACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAMAAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAC8ALwBfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAMAAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewAwACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAF8AZgBFAHgAdABlAG4AZAAsACAATgAoAEUAeAB0AGUAbgBkAGUAZAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAXAAiACwAIABfAGYARQB4AHQAZQBuAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAFYAQQBMAEkARABBAFQARQBfAEMASABBAFIAQQBDAFQARQBSAFMAKABUAGUAeAB0ACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIALAAgAF8AZgBFAHgAdABlAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAUwBpAGcAbgAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAEYAVAAoAFQAZQB4AHQALAAgADEAKQAgAD0AIABcACIAKwBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUARgBUACgAVABlAHgAdAAsACAAMQApACAAPQAgAFwAIgAtAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFUATgBJAEMATwBEAEUAKABMAEUARgBUACgAVABlAHgAdAAsACAAMQApACkAIAA9ACAAOAA3ADIAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAFMAaQBnAG4ALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBGAFQAKABUAGUAeAB0ACwAIAAxACkAIAA9ACAAXAAiAC0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC0AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABVAE4ASQBDAE8ARABFACgATABFAEYAVAAoAFQAZQB4AHQALAAgADEAKQApACAAPQAgADgANwAyADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABlAG4ALAAgAEwARQBOACgAVABlAHgAdAApACAALQAgAE4AKABfAGgAYQBzAFMAaQBnAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAEQAYQB0AGUALAAgAEkARgAoAF8AaABhAHMAUwBpAGcAbgAsACAAUgBJAEcASABUACgAVABlAHgAdAAsACAAXwBsAGUAbgApACwAIABUAGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ASAB5AHAAaAAxAFAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgAtAFwAIgAsACAAXwBzAEQAYQB0AGUAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEgAeQBwAGgAMgBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIALQBcACIALAAgAF8AcwBEAGEAdABlACwAIABfAEgAeQBwAGgAMQBQAG8AcwAgACsAIAAxACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBXAHAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgBXAFwAIgAsACAAXwBzAEQAYQB0AGUAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgALAAgACgAXwBsAGUAbgAgACoAIAA0ADAAOQA2ACkAIAArACAAKABfAEgAeQBwAGgAMQBQAG8AcwAgACoAIAAyADUANgApACAAKwAgACgAXwBIAHkAcABoADIAUABvAHMAIAAqACAAMQA2ACkAIAArACAAXwBXAHAAbwBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgATABrAHUAcAAsACAASQBGAE4AQQAoAFgATQBBAFQAQwBIACgAXwBoAGEAcwBoACwAIABDAEgATwBPAFMARQBDAE8ATABTACgAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAMQApACwAIAAwACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaABMAGsAdQBwACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgAsACAAXwBmAEUAeAB0AGUAbgBkACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBmAG4ALAAgAEMASABPAE8AUwBFAFIATwBXAFMAKABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIABfAGgAYQBzAGgATABrAHUAcAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAbwByAG0AYQB0ACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUALAAgAF8AeQBlAGEAcgBTAGkAZwBuACAAKgAgAFYAQQBMAFUARQAoAEwARQBGAFQAKABfAHMARABhAHQAZQAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA1ACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAEEAcgBnADEALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPAAgADIAKQAgACsAIAAoAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAANgApACAAPQAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgATQBJAEQAKABfAHMARABhAHQAZQAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA2ACkALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAANwApACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAEEAcgBnADIALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgADwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABSAEkARwBIAFQAKABfAHMARABhAHQAZQAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA4ACkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAxACkAIAAqACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAXwB5AGUAYQByAEMARQAsACAAXwBkAEEAcgBnADEALAAgAF8AZABBAHIAZwAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAFYAQQBMAFUARQBcACIALAAgAF8AZgBFAHgAdABlAG4AZAAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAXwBmAG8AcgBtAGEAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADIAKQAgACoAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAXwB5AGUAYQByAEMARQAsACAAXwBkAEEAcgBnADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAVgBBAEwAVQBFAFwAIgAsACAAXwBmAEUAeAB0AGUAbgBkACwAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAIABfAGYAbwByAG0AYQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMwApACAAKgAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AVwBFAEUASwBfAEQAQQBUAEUAKABfAHkAZQBhAHIAQwBFACwAIABfAGQAQQByAGcAMQAsACAAXwBkAEEAcgBnADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAVgBBAEwAVQBFAFwAIgAsACAAXwBmAEUAeAB0AGUAbgBkACwAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAIABfAGYAbwByAG0AYQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYARQB4AHQAZQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAGQAYQB0AGUAVAB5AHAAZQAsACAAXwB5AGUAYQByAEMARQAsACAAXwBkAEEAcgBnADEALAAgAF8AZABBAHIAZwAyACwAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAIABfAGYAbwByAG0AYQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAGQAYQB0AGUAVAB5AHAAZQAsACAAXwB5AGUAYQByAEMARQAsACAAXwBkAEEAcgBnADEALAAgAF8AZABBAHIAZwAyACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFAAQQBSAFMARQBfAFQASQBNAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABoAG8AdQByACwAIABtAGkAbgB1AHQAZQAgAGEAbgBkACAAcwBlAGMAbwBuAGQAIABvAGYAIAB0AGkAbQBlACAAZgByAG8AbQAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABhAG4AIABpAG4AdgBhAGwAaQBkACAAdABpAG0AZQAuAFwAbgAjAE4ALwBBACAAaQBmACAAbgBvAHQAIABwAGEAcgBzAGEAYgBsAGUALgBcAG4AXABuAEMAbwBsAHUAbQBuAHMAOgBcAG4AIAAgADEAIAB8ACAASABvAHUAcgAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwAC4ALgAyADQAXABuACAAIAAyACAAfAAgAE0AaQBuAHUAdABlACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMAAuAC4ANQA5AFwAbgAgACAAMwAgAHwAIABTAGUAYwBvAG4AZAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgADAALgAuADUAOQAuADkAOQA5AFwAbgAgACAANAAgAHwAIABQAHIAZQBjAGkAcwBpAG8AbgAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE8AcAB0AGkAbwBuAGEAbAAsACAAdABvAGcAZwBsAGUAZAAgAGIAeQAgAEUAeAB0AGUAbgBkAGUAZAAgAHAAYQByAGEAbQBlAHQAZQByAC4AXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMQAgAC0AIABoAG8AdQByAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADIAIAAtACAAbQBpAG4AdQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMwAgAC0AIABpAG4AdABlAGcAZQByACAAcwBlAGMAbwBuAGQAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAANAAgAC0AIABzAGUAYwBvAG4AZAAgADAALgAwAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADUAIAAtACAAcwBlAGMAbwBuAGQAIAAwAC4AMAAwAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADYAIAAtACAAcwBlAGMAbwBuAGQAIAAwAC4AMAAwADAAXABuACAAIAA1ACAAfAAgAEYAbwByAG0AYQB0ACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAATwBwAHQAaQBvAG4AYQBsACwAIAB0AG8AZwBnAGwAZQBkACAAYgB5ACAARQB4AHQAZQBuAGQAZQBkACAAcABhAHIAYQBtAGUAdABlAHIALgBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAwACAALQAgAG4AbwAgAHQAaQBtAGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMQAgAC0AIABiAGEAcwBpAGMAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABlAHgAdABlAG4AZABlAGQAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMwAgAC0AIABjAG8AbgBzAGkAcwB0AGUAbgB0ACAAdwBpAHQAaAAgAGIAYQBzAGkAYwAgAG8AcgAgAGUAeAB0AGUAbgBkAGUAZABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBUAGUAeAB0ACAAIAAgACAAIAAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAB8ACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIAB0AGkAbQBlAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIABFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgAFQAaABoADoAbQBtADoAcwBzAC4AcwBzAHMALAAgAFQAaABoADoAbQBtADoAcwBzACwAIABUAGgAaABtAG0ALAAgAFQAaABoAFwAbgBbAEUAeAB0AGUAbgBkAGUAZABdACAAIAB8ACAAcwB3AGkAdABjAGgAIAB8ACAAUgBlAHQAdQByAG4AIABQAHIAZQBjAGkAcwBpAG8AbgAgAGEAbgBkACAARgBvAHIAbQBhAHQAIABjAG8AbAB1AG0AbgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBUAEkATQBFACAAPQAgAEwAQQBNAEIARABBACgAVABlAHgAdAAsACAAWwBFAHgAdABlAG4AZABlAGQAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbAB1AG0AbgBzADoAIABIAGEAcwBoACwAIABQAHIAZQBjAGkAcwBpAG8AbgAsACAARgBvAHIAbQBhAHQALAAgAE0AaQBuAHUAdABlAFAAbwBzACwAIABTAGUAYwBvAG4AZABMAGUAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAHcAaABlAHIAZQAgAEgAYQBzAGgAIAA9ACAAKABMAEUATgAgACoAIAA0ADAAOQA2ACkAIAArACAAKABDAG8AbABvAG4AMQBQAG8AcwAgACoAIAAyADUANgApACAAKwAgACgAQwBvAGwAbwBuADIAUABvAHMAIAAqACAAMQA2ACkAIAArACAARABlAGMAaQBtAGEAbABQAG8AcwAgAFwAbgAgACAAIAAgACAAIAAgACAAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAewBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAOAAxADkAMgAsACAAMQAsACAAMwAsACAAMAAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADYAMwA4ADQALAAgADIALAAgADEALAAgADMALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgA0ADUANwA2ACwAIAAzACwAIAAxACwAIAAzACwAIAAyADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAMgA3ADcANQAsACAANAAsACAAMQAsACAAMwAsACAANAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADYAOAA3ADEALAAgADUALAAgADEALAAgADMALAAgADUAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAAwADkANgA3ACwAIAA2ACwAIAAxACwAIAAzACwAIAA2ADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAMQAyADQAOAAsACAAMgAsACAAMgAsACAANAAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADMANgAzADIALAAgADMALAAgADIALAAgADQALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAAxADgAMwAzACwAIAA0ACwAIAAyACwAIAA0ACwAIAA0ADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQANQA5ADIAOQAsACAANQAsACAAMgAsACAANAAsACAANQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAA1ADAAMAAyADUALAAgADYALAAgADIALAAgADQALAAgADYAXABuACAAIAAgACAAIAAgACAAIAB9ACwAXABuACAAIAAgACAAIAAgACAAIABmAG4AQwBvAHUAbgB0AEMAaABhAHIAcwAsACAATABBAE0AQgBEAEEAKABDAGgAYQByAEEAcgByAGEAeQAsACAAVABlAHgAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAeAB0ACAAPQAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBlAG0AbwB2AGUAZAAsACAAUgBFAEQAVQBDAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHgAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABDAGgAYQByAEEAcgByAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAF8AYQBjAGMALAAgAF8AYwB1AHIAcgAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAF8AYQBjAGMALAAgAF8AYwB1AHIAcgAsACAAXAAiAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUATgAoAFQAZQB4AHQAKQAgAC0AIABMAEUATgAoAF8AcgBlAG0AbwB2AGUAZAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACwAIABMAEEATQBCAEQAQQAoAEMAaABhAHIAcwAsACAAVABlAHgAdAAsACAATgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgBDAG8AdQBuAHQALAAgAEwARQBOACgAQwBoAGEAcgBzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4ALAAgAEkATgBUACgATgAoAE4AKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AYwBoAGEAcgBDAG8AdQBuAHQAIAA9ACAAMAApACAAKwAgACgAXwBuACAAPQAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByAHMALAAgAE0ASQBEACgAQwBoAGEAcgBzACwAIABTAEUAUQBVAEUATgBDAEUAKAAxACwAIABfAGMAaABhAHIAQwBvAHUAbgB0ACkALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACwAIABmAG4AQwBvAHUAbgB0AEMAaABhAHIAcwAoAF8AYwBoAGEAcgBzACwAIABUAGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAbgBkAEMAbwB1AG4AdAAgADwAIABBAEIAUwAoAF8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABuAHQAaAAgAGMAYQBuACAAYwBvAHUAbgB0ACAAZgByAG8AbQAgAGUAbgBkACAAYgBhAGMAawB3AGEAcgBkAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AdABoACwAIABJAEYAKABfAG4AIAA+ACAAMAAsACAAXwBuACwAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACAAKwAgAF8AbgAgACsAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgB0AGgAUABvAHMALAAgAFIARQBEAFUAQwBFACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBFAFEAVQBFAE4AQwBFACgAMQAsACAAXwBuAHQAaAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAXwBhAGMAYwAsACAAXwBjAHUAcgByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGEAYwBjACAAPAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC0AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAsACAASQBGAEUAUgBSAE8AUgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYASQBOAEQAKABfAGMAaABhAHIAcwAsACAAVABlAHgAdAAsACAAXwBhAGMAYwAgACsAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBlAHgAdABQAG8AcwAsACAATQBJAE4AKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEkATABUAEUAUgAoAF8AbgBlAHgAdABQAG8AcwBDAGgAYQByAHMALAAgAF8AbgBlAHgAdABQAG8AcwBDAGgAYQByAHMAIAA+ACAAMAAsACAAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AbgBlAHgAdABQAG8AcwAgAD0AIAAwACwAIAAtADEALAAgAF8AbgBlAHgAdABQAG8AcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBBAFgAKABfAG4AdABoAFAAbwBzACwAIAAwACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAsACAATABBAE0AQgBEAEEAKABfAGUAeABjAGUAcAB0AGkAbwBuACwAIABfAGYARQB4AHQAZQBuAGQALAAgAFsAXwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAIABbAF8AZgBvAHIAbQBhAHQAXQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAGUAeABjAGUAcAB0AGkAbwBuACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAIABuAHUAbABsACAAIABFAG0AcAB0AHkAIAB0AGUAeAB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABOAC8AQQAgACAAIABVAG4AYQBiAGwAZQAgAHQAbwAgAHAAYQByAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAVgBBAEwAVQBFACAASQBuAHYAYQBsAGkAZAAgAHYAYQBsAHUAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAGYARQB4AHQAZQBuAGQAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABFAHgAdABlAG4AZAAgAG8AdQB0AHAAdQB0ACAAdABvACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAGEAbgBkACAAXwBmAG0AdABFAHgAdABlAG4AZABlAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFAAcgBlAGMAaQBzAGkAbwBuACAAbwBmACAAcABhAHIAcwBlAGQAIAB2AGEAbAB1AGUAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBmAG8AcgBtAGEAdAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAUABhAHIAcwBlAGQAIABmAG8AcgBtAGEAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAEUAeAB0AGUAbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQB4AGMAZQBwAHQAaQBvAG4AIAA9ACAAXAAiAE4ALwBBAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewAjAE4ALwBBACwAIAAjAE4ALwBBACwAIAAjAE4ALwBBACwAIAAjAE4ALwBBACwAIAAjAE4ALwBBAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQB4AGMAZQBwAHQAaQBvAG4AIAA9ACAAXAAiAFYAQQBMAFUARQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAHsAIwBWAEEATABVAEUAIQAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAMQB9ACwAIABfAGYAbwByAG0AYQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIABcACIAXAAiACwAIAAyAH0ALAAgAF8AZgBvAHIAbQBhAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAvAC8AXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAMwB9ACwAIABfAGYAbwByAG0AYQB0ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQB4AGMAZQBwAHQAaQBvAG4AIAA9ACAAXAAiAE4ALwBBAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewAjAE4ALwBBACwAIAAjAE4ALwBBACwAIAAjAE4ALwBBAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQB4AGMAZQBwAHQAaQBvAG4AIAA9ACAAXAAiAFYAQQBMAFUARQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7ACMAVgBBAEwAVQBFACEALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAALwAvAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXwBmAEUAeAB0AGUAbgBkACwAIABOACgARQB4AHQAZQBuAGQAZQBkACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHgAdAAgAD0AIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBcACIALAAgAF8AZgBFAHgAdABlAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgAVgBBAEwASQBEAEEAVABFAF8AQwBIAEEAUgBBAEMAVABFAFIAUwAoAFQAZQB4AHQALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgAsACAAXwBmAEUAeAB0AGUAbgBkACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBUAHAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgBUAFwAIgAsACAAVABlAHgAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AVABwAG8AcwAgAD4AIAAxACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIATgAvAEEAXAAiACwAIABfAGYARQB4AHQAZQBuAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBUAGkAbQBlACwAIABJAEYAKABfAFQAcABvAHMAIAA9ACAAMQAsACAAUgBJAEcASABUACgAVABlAHgAdAAsACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAAMQApACwAIABUAGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACwAIABMAEUATgAoAF8AcwBUAGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAbwBsAG8AbgAxAFAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgA6AFwAIgAsACAAXwBzAFQAaQBtAGUAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AbABvAG4AMgBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAOgBcACIALAAgAF8AcwBUAGkAbQBlACwAIABfAGMAbwBsAG8AbgAxAFAAbwBzACAAKwAgADEAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwBpAG0AYQBsAFAAbwBzACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiAC4ALABcACIALAAgAF8AcwBUAGkAbQBlACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgALAAgACgAXwBsAGUAbgAgACoAIAA0ADAAOQA2ACkAIAArACAAKABfAGMAbwBsAG8AbgAxAFAAbwBzACAAKgAgADIANQA2ACkAIAArACAAKABfAGMAbwBsAG8AbgAyAFAAbwBzACAAKgAgADEANgApACAAKwAgAF8AZABlAGMAaQBtAGEAbABQAG8AcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaABMAGsAdQBwACwAIABJAEYATgBBACgAWABNAEEAVABDAEgAKABfAGgAYQBzAGgALAAgAEMASABPAE8AUwBFAEMATwBMAFMAKABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIAAxACkALAAgADAAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgATABrAHUAcAAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIATgAvAEEAXAAiACwAIABfAGYARQB4AHQAZQBuAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAZgBuACwAIABDAEgATwBPAFMARQBSAE8AVwBTACgAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAXwBoAGEAcwBoAEwAawB1AHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAbwByAG0AYQB0ACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAbwB1AHIALAAgAFYAQQBMAFUARQAoAEwARQBGAFQAKABfAHMAVABpAG0AZQAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAGkAbgB1AHQAZQAsACAASQBGACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgADwAIAAyACwAIABcACIAXAAiACwAIABWAEEATABVAEUAKABNAEkARAAoAF8AcwBUAGkAbQBlACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADQAKQAsACAAMgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAEwAZQBuACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA8ACAAMwAsACAAXAAiAFwAIgAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AcwBUAGkAbQBlACwAIABfAHMAZQBjAEwAZQBuACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAC8ALwAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+ACAAMwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGMAYQBuAG8AdAAgAGEAcwBzAHUAbQBlACAAVgBBAEwAVQBFACAAZgB1AG4AYwB0AGkAbwBuACAAdwBpAGwAbAAgAHUAcwBlACAAZABlAGMAaQBtAGEAbAAgAGMAaABhAHIAYQBjAHQAZQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB3AGgAZQBuACAARQB4AGMAZQBsACAAdQBzAGUAZAAgAHcAaQB0AGgAIABuAG8AbgAtAGUAbgBnAGwAaQBzAGgAIABSAGUAZwBpAG8AbgBhAGwAIABzAGUAdAB0AGkAbgBnAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBTAGUAYwAsACAAUgBJAEcASABUACgAXwBzAFQAaQBtAGUALAAgAF8AcwBlAGMATABlAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAbgB0AFMAZQBjACwAIABWAEEATABVAEUAKABMAEUARgBUACgAXwBzAFMAZQBjACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAcgBhAGMAUwBlAGMALAAgAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AcwBTAGUAYwAsACAAXwBzAGUAYwBMAGUAbgAgAC0AIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjAGkAbQBhAGwAQgBhAHMAZQAsACAASQBOAEQARQBYACgAewAxADAALAAgADEAMAAwACwAIAAxADAAMAAwAH0ALAAgADEAIAAsAF8AcAByAGUAYwBpAHMAaQBvAG4AIAAtACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQAUwBlAGMAIAArACAAKABfAGYAcgBhAGMAUwBlAGMAIAAvACAAXwBkAGUAYwBpAG0AYQBsAEIAYQBzAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFACgAXwBoAG8AdQByACwAIABfAG0AaQBuAHUAdABlACwAIABfAHMAZQBjAG8AbgBkACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBWAEEATABVAEUAXAAiACwAIABfAGYARQB4AHQAZQBuAGQALAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAF8AZgBvAHIAbQBhAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AZgBFAHgAdABlAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAGgAbwB1AHIALAAgAF8AbQBpAG4AdQB0AGUALAAgAF8AcwBlAGMAbwBuAGQALAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAF8AZgBvAHIAbQBhAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAGgAbwB1AHIALAAgAF8AbQBpAG4AdQB0AGUALAAgAF8AcwBlAGMAbwBuAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBUAEkATQBFAF8AWgBPAE4ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABhAG4AIABpAG4AdgBhAGwAaQBkACAAdABpAG0AZQAgAHoAbwBuAGUALgBcAG4AIwBOAC8AQQAgAGkAZgAgAG4AbwB0ACAAcABhAHIAcwBhAGIAbABlAC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuACAAIAAxACAAfAAgAE0AaQBuAHUAdABlAHMAIABPAGYAZgBzAGUAdAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAC0AOQAwADAALgAuACsAOQAwADAAXABuACAAIAAyACAAfAAgAFAAcgBlAGMAaQBzAGkAbwBuACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE8AcAB0AGkAbwBuAGEAbAAsACAAdABvAGcAZwBsAGUAZAAgAGIAeQAgAEUAeAB0AGUAbgBkAGUAZAAgAHAAYQByAGEAbQBlAHQAZQByAC4AXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADEAIAAtACAAaABvAHUAcgBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABtAGkAbgB1AHQAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMwAgAC0AIABzAGUAYwBvAG4AZABcAG4AIAAgADMAIAB8ACAARgBvAHIAbQBhAHQAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAATwBwAHQAaQBvAG4AYQBsACwAIAB0AG8AZwBnAGwAZQBkACAAYgB5ACAARQB4AHQAZQBuAGQAZQBkACAAcABhAHIAYQBtAGUAdABlAHIALgBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMQAgAC0AIABiAGEAcwBpAGMAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADIAIAAtACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAZQB4AHQAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAfAAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AHQAZQBkACAAdABpAG0AZQAgAHoAbwBuAGUALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAARQB4AGEAbQBwAGwAZQAgAGYAbwByAG0AYQB0AHMAIAAoAG4AbwB0ACAAZQB4AGgAYQB1AHMAdABpAHYAZQApADoAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgACsAaABoADoAbQBtADoAcwBzACwAIAAtAGgAaAA6AG0AbQAsACAAKwBoAGgALAAgAFoAXABuAFsARQB4AHQAZQBuAGQAZQBkAF0AIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAfAAgAFIAZQB0AHUAcgBuACAAUAByAGUAYwBpAHMAaQBvAG4AIABhAG4AZAAgAEYAbwByAG0AYQB0ACAAYwBvAGwAdQBtAG4AcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AUABBAFIAUwBFAF8AVABJAE0ARQBfAFoATwBOAEUAIAA9ACAATABBAE0AQgBEAEEAKABUAGUAeAB0ACwAIABbAEUAeAB0AGUAbgBkAGUAZABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBsAHUAbQBuAHMAOgAgAEgAYQBzAGgALAAgAFAAcgBlAGMAaQBzAGkAbwBuACwAIABFAHgAdABlAG4AZABlAGQALAAgAE0AaQBuAFAAbwBzACwAIABTAGUAYwBMAGUAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAHcAaABlAHIAZQAgAGgAYQBzAGgAIAA9ACAATABFAE4AIAAqACAAMgA1ADYAIAArACAAQwBvAGwAbwBuADEAUABvAHMAIAAqACAAMQA2ACAAKwAgAEMAbwBsAG8AbgAyAFAAbwBzAFwAbgAgACAAIAAgACAAIAAgACAAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAewBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANQAxADIALAAgADEALAAgADMALAAgADAALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAwADIANAAsACAAMgAsACAAMQAsACAAMwAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADUAMwA2ACwAIAAzACwAIAAxACwAIAAzACwAIAAyADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEAMwAyADgALAAgADIALAAgADIALAAgADQALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAxADAAMgAsACAAMwAsACAAMgAsACAANAAsACAAMgBcAG4AIAAgACAAIAAgACAAIAAgAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAsACAATABBAE0AQgBEAEEAKABfAGUAeABjAGUAcAB0AGkAbwBuACwAIABfAGYARQB4AHQAZQBuAGQALAAgAFsAXwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAIABbAF8AZgBvAHIAbQBhAHQAXQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAGUAeABjAGUAcAB0AGkAbwBuACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAIABuAHUAbABsACAAIABFAG0AcAB0AHkAIAB0AGUAeAB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABOAC8AQQAgACAAIABVAG4AYQBiAGwAZQAgAHQAbwAgAHAAYQByAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAVgBBAEwAVQBFACAASQBuAHYAYQBsAGkAZAAgAHYAYQBsAHUAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABOAFUATQAgACAAIABPAHUAdAAgAG8AZgAgAHIAYQBuAGcAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBmAEUAeAB0AGUAbgBkACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARQB4AHQAZQBuAGQAIABvAHUAdABwAHUAdAAgAHQAbwAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIABhAG4AZAAgAF8AZgBtAHQARQB4AHQAZQBuAGQAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABQAHIAZQBjAGkAcwBpAG8AbgAgAG8AZgAgAHAAYQByAHMAZQBkACAAdgBhAGwAdQBlAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AZgBvAHIAbQBhAHQAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFAAYQByAHMAZQBkACAAZgBvAHIAbQBhAHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBFAHgAdABlAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewAjAE4ALwBBACwAIAAjAE4ALwBBACwAIAAjAE4ALwBBAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQB4AGMAZQBwAHQAaQBvAG4AIAA9ACAAXAAiAFYAQQBMAFUARQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKAB7ACMAVgBBAEwAVQBFACEAfQAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAXwBmAG8AcgBtAGEAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAFUATQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKAB7ACMATgBVAE0AIQB9ACwAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAIABfAGYAbwByAG0AYQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALAAgACMATgAvAEEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQB4AGMAZQBwAHQAaQBvAG4AIAA9ACAAXAAiAFYAQQBMAFUARQBcACIALAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQB4AGMAZQBwAHQAaQBvAG4AIAA9ACAAXAAiAE4AVQBNAFwAIgAsACAAIwBOAFUATQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAXwBmAEUAeAB0AGUAbgBkACwAIABOACgARQB4AHQAZQBuAGQAZQBkACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHgAdAAgAD0AIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBcACIALAAgAF8AZgBFAHgAdABlAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgAVgBBAEwASQBEAEEAVABFAF8AQwBIAEEAUgBBAEMAVABFAFIAUwAoAFQAZQB4AHQALAAgADMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgAsACAAXwBmAEUAeAB0AGUAbgBkACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgATABFAE4AKABUAGUAeAB0ACkAIAA9ACAAMQApACAAKgAgACgAQwBPAEQARQAoAEwARQBGAFQAKABUAGUAeAB0ACwAIAAxACkAKQAgAD0AIAA5ADAAKQAsACAALwAvACAAVABlAHgAdAAgAD0AIABcACIAWgBcACIAIAAoAGMAYQBzAGUALQBzAGUAbgBzAGkAdABpAHYAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBmAEUAeAB0AGUAbgBkACwAIABIAFMAVABBAEMASwAoADAALAAgADMALAAgADMAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAFMAaQBnAG4ALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAEYAVAAoAFQAZQB4AHQALAAgADEAKQAgAD0AIABcACIAKwBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAEYAVAAoAFQAZQB4AHQALAAgADEAKQAgAD0AIABcACIALQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVQBOAEkAQwBPAEQARQAoAEwARQBGAFQAKABUAGUAeAB0ACwAIAAxACkAKQAgAD0AIAA4ADcAMgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABfAGgAYQBzAFMAaQBnAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIALAAgAF8AZgBFAHgAdABlAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AFMAaQBnAG4ALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBGAFQAKABUAGUAeAB0ACwAIAAxACkAIAA9ACAAXAAiAC0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC0AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABVAE4ASQBDAE8ARABFACgATABFAEYAVAAoAFQAZQB4AHQALAAgADEAKQApACAAPQAgADgANwAyADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBUAFoALAAgAFIASQBHAEgAVAAoAFQAZQB4AHQALAAgAEwARQBOACgAVABlAHgAdAApACAALQAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAbgAsACAATABFAE4AKABfAHMAVABaACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGwAbwBuADEAUABvAHMALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiADoAXAAiACwAIABfAHMAVABaACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AbABvAG4AMgBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAOgBcACIALAAgAF8AcwBUAFoALAAgAF8AYwBvAGwAbwBuADEAUABvAHMAIAArACAAMQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaAAsACAAKABfAGwAZQBuACAAKgAgADIANQA2ACkAIAArACAAKABfAGMAbwBsAG8AbgAxAFAAbwBzACAAKgAgADEANgApACAAKwAgAF8AYwBvAGwAbwBuADIAUABvAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaABMAGsAdQBwACwAIABJAEYATgBBACgAWABNAEEAVABDAEgAKABfAGgAYQBzAGgALAAgAEMASABPAE8AUwBFAEMATwBMAFMAKABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIAAxACkALAAgADAAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBoAEwAawB1AHAAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKAAxACwAIABfAGYARQB4AHQAZQBuAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGYAbgAsACAAQwBIAE8ATwBTAEUAUgBPAFcAUwAoAF8AZgBtAHQASABhAHMAaABUAGEAYgBsAGUALAAgAF8AaABhAHMAaABMAGsAdQBwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBtAHQARQB4AHQAZQBuAGQAZQBkACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAF8AcwBUAFoALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAGkAbgB1AHQAZQAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPAAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAE0ASQBEACgAXwBzAFQAWgAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA0ACkALAAgADIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA8ACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAUgBJAEcASABUACgAXwBzAFQAWgAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA1ACkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAE0AaQBuAHUAdABlAHMALAAgAF8AdAB6AFMAaQBnAG4AIAAqAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEAEQATwBXAE4AKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoACgAXwBoAG8AdQByACAAKgAgADYAMAApACAAKwAgAF8AbQBpAG4AdQB0AGUAKQAgACoAIAA2ADAAKQAgACsAIABfAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACAALwAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFAF8AWgBPAE4ARQAoAF8AdAB6AG8ATQBpAG4AdQB0AGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAFUATQBcACIALAAgAF8AZgBFAHgAdABlAG4AZAAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAXwBmAG0AdABFAHgAdABlAG4AZABlAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBFAHgAdABlAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AdAB6AG8ATQBpAG4AdQB0AGUAcwAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAXwBmAG0AdABFAHgAdABlAG4AZABlAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAE0AaQBuAHUAdABlAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFAAQQBSAFMARQBfAFAAQQBSAFQAUwBcAG4AXABuAFMAcABsAGkAdABzACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIAB0AGUAeAB0ACAAdgBhAGwAdQBlACAAaQBuAHQAbwAgAGkAbgB0AG8AIAByAGUAcwBwAGUAYwB0AGkAdgBlACAAcABhAHIAdABzACAAbwBmACAAZABhAHQAZQAsACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUALgBcAG4AIwBOAC8AQQAgAGkAZgAgAG4AbwB0ACAAcABhAHIAcwBhAGIAbABlAC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuACAAIAAxACAAfAAgAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACAAfAAgAGIAbwBvAGwAZQBhAG4AIAB8ACAARgBsAGEAZwAgAGkAZgAgAGMAbwBtAHAAbABpAGEAbgB0ACAAdABvACAASQBTAE8AIAA4ADYAMAAxACAAcwB0AGEAbgBkAGEAcgBkAFwAbgAgACAAMgAgAHwAIABEAGEAdABlACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHQAcgBpAG4AZwAgACAAfABcAG4AIAAgADMAIAB8ACAAVABpAG0AZQAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAXABuACAAIAA0ACAAfAAgAFQAaQBtAGUAIABaAG8AbgBlACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8AFwAbgAgACAAIAAgACAAIABcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVABlAHgAdAAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAB8ACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIAB2AGEAbAB1AGUAIABmAG8AcgAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABvAHIAIAB0AGkAbQBlACAAegBvAG4AZQAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBQAEEAUgBUAFMAIAA9ACAATABBAE0AQgBEAEEAKABUAGUAeAB0ACwAXABuACAAIAAgACAASQBGACgAVABlAHgAdAAgAD0AIABcACIAXAAiACwAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTACgAVABlAHgAdAAsACAAMAApACkALAAgAHsARgBBAEwAUwBFACwAIAAjAE4ALwBBACwAIAAjAE4ALwBBACwAIAAjAE4ALwBBAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbAB1AG0AbgBzADoAIABIAGEAcwBoACwAIABEAGEAdABlAE0AYQByAGsALAAgAFQAWgBNAGEAcgBrACwAIABDAG8AbQBwAGwAaQBhAG4AdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB3AGgAZQByAGUAIABIAGEAcwBoACAAPQAgACgAXwBIAGEAcwBUACAAKgAgADEAMgA4ACkAIAArACAAKABfAFQAZgBpAHIAcwB0ACAAKgA2ADQAIAApACAAKwAgACgAXwBMAGEAcwB0AFMAaQBnAG4ARgBpAHIAcwB0AFAAbwBzACAAKgAgADMAMgApACAAKwAgACgAXwBIAGEAcwBaAG8AcgBTAGkAZwBuAEEAZgB0AGUAcgBUACAAKgAgADEANgApACAAKwAgACgAXwBaAG8AcgBTAGkAZwBuAEYAaQByAHMAdABBAGYAdABlAHIAVAAgACoAIAA4ACkAIAArACAAKABfAEMAbwBsAG8AbgBBAGYAdABlAHIATABhAHMAdABTAGkAZwBuACAAKgAgADQAKQAgACsAIAAoAF8ATABlAG4ATABlAHMAcwB0AGgAYQBuADgAIAAqACAAMgApACAAKwAgAF8ASABhAHMAWgBsAGEAcwB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAEQAYQB0AGUATQBhAHIAawAgADoAIAAwACAALQA+ACAAbgB1AGwAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAgAC0APgAgAF8AbABlAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAIAAtAD4AIABfAFQAcABvAHMAIAAtACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAgAC0APgAgAF8AcwBpAGcAbgBMAGEAcwB0AFAAbwBzACAALQAgADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQAIAAtAD4AIABfAGwAZQBuACAALQAgADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFQAWgBNAGEAcgBrACAAIAAgACAAIAAwACAALQA+ACAAbgB1AGwAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAgAC0APgAgAF8AbABlAG4AIAAtACAAXwBzAGkAZwBuAEwAYQBzAHQAUABvAHMAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAC0APgAgADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAG8AZwBpAGMASABhAHMAaABUAGEAYgBsAGUALAAgAHsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAIAAxACwAIAAwACwAIAAxADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyACwAIAAxACwAIAAwACwAIAAxADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzACwAIAAwACwAIAAyACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADIALAAgADEALAAgADAALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMANAAsACAAMAAsACAAMQAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwA4ACwAIAAwACwAIAAxACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADIAOAAsACAAMgAsACAAMAAsACAAMQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAzADIALAAgADIALAAgADAALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEANAA4ACwAIAAyACwAIAAxACwAIAAxADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADUAMgAsACAAMgAsACAAMQAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA1ADMALAAgADIALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEANQA1ACwAIAAyACwAIAAyACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADUANgAsACAAMgAsACAAMQAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA2ADAALAAgADIALAAgADAALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEAOAA1ACwAIAAyACwAIAAyACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADkAMgAsACAAMAAsACAAMAAsACAAMQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA5ADQALAAgADAALAAgADAALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEAOQA2ACwAIAAwACwAIAAwACwAIAAxADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADkAOAAsACAAMAAsACAAMAAsACAAMQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAwADgALAAgADAALAAgADEALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAMAA5ACwAIAAwACwAIAAyACwAIAAxADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyADEAMQAsACAAMAAsACAAMgAsACAAMQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAxADIALAAgADAALAAgADEALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAMQAzACwAIAAwACwAIAAyACwAIAAxADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyADEANgAsACAAMAAsACAAMQAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAxADkALAAgADAALAAgADIALAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AQwBvAHUAbgB0AEMAaABhAHIAcwAsACAATABBAE0AQgBEAEEAKABDAGgAYQByAEEAcgByAGEAeQAsACAAVABlAHgAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAGUAbQBvAHYAZQBkACwAIABSAEUARABVAEMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHgAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBoAGEAcgBBAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAXwBhAGMAYwAsACAAXwBjAHUAcgByACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAXwBhAGMAYwAsACAAXwBjAHUAcgByACwAIABcACIAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAATABFAE4AKABfAHIAZQBtAG8AdgBlAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACwAIABMAEEATQBCAEQAQQAoAEMAaABhAHIAcwAsACAAVABlAHgAdAAsACAATgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByAEMAbwB1AG4AdAAsACAATABFAE4AKABDAGgAYQByAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4ALAAgAEkATgBUACgATgAoAE4AKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBjAGgAYQByAEMAbwB1AG4AdAAgAD0AIAAwACkAIAArACAAKABfAG4AIAA9ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAcwAsACAATQBJAEQAKABDAGgAYQByAHMALAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AYwBoAGEAcgBDAG8AdQBuAHQAKQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACwAIABmAG4AQwBvAHUAbgB0AEMAaABhAHIAcwAoAF8AYwBoAGEAcgBzACwAIABUAGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACAAPAAgAEEAQgBTACgAXwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG4AdABoACAAYwBhAG4AIABjAG8AdQBuAHQAIABmAHIAbwBtACAAZQBuAGQAIABiAGEAYwBrAHcAYQByAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AdABoACwAIABJAEYAKABfAG4AIAA+ACAAMAAsACAAXwBuACwAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACAAKwAgAF8AbgAgACsAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AdABoAFAAbwBzACwAIABSAEUARABVAEMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBFAFEAVQBFAE4AQwBFACgAMQAsACAAXwBuAHQAaAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAF8AYQBjAGMALAAgAF8AYwB1AHIAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGEAYwBjACAAPAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAsACAASQBGAEUAUgBSAE8AUgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEkATgBEACgAXwBjAGgAYQByAHMALAAgAFQAZQB4AHQALAAgAF8AYQBjAGMAIAArACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQB4AHQAUABvAHMALAAgAE0ASQBOACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYASQBMAFQARQBSACgAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAsACAAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAgAD4AIAAwACwAIAAwACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAG4AZQB4AHQAUABvAHMAIAA9ACAAMAAsACAALQAxACwAIABfAG4AZQB4AHQAUABvAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBBAFgAKABfAG4AdABoAFAAbwBzACwAIAAwACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAbgAsACAATABFAE4AKABUAGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFQAcABvAHMALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiAFQAXAAiACwAIABUAGUAeAB0ACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgBMAGEAcwB0AFAAbwBzACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiACsALQBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsACAAVABlAHgAdAAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAbwBsAG8AbgBMAGEAcwB0AFAAbwBzACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiADoAXAAiACwAIABUAGUAeAB0ACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AWgBsAGEAcwB0AFAAbwBzACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiAFoAXAAiACwAIABUAGUAeAB0ACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAVAAsACAATgAoAF8AVABwAG8AcwAgAD4AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFQAZgBpAHIAcwB0ACwAIABOACgAXwBUAHAAbwBzACAAPQAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABhAHMAdABTAGkAZwBuAEYAaQByAHMAdABQAG8AcwAsACAATgAoAF8AcwBpAGcAbgBMAGEAcwB0AFAAbwBzACAAPQAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAWgBvAHIAUwBpAGcAbgBBAGYAdABlAHIAVAAsACAAKABfAFQAcABvAHMAIAA8AD4AIAAwACkAIAAqACAAKAAoACgAXwBaAGwAYQBzAHQAUABvAHMAPgBfAFQAcABvAHMAKQAgACsAIAAoAF8AcwBpAGcAbgBMAGEAcwB0AFAAbwBzACAAPgAgAF8AVABwAG8AcwApACkAIAA8AD4AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFoAbwByAFMAaQBnAG4ARgBpAHIAcwB0AEEAZgB0AGUAcgBUACwAIAAoAF8AVABwAG8AcwAgADwAPgAgADAAKQAgACoAIAAoACgAKABfAFoAbABhAHMAdABQAG8AcwAgAD0AIABfAFQAcABvAHMAIAArACAAMQApACAAKwAgACgAXwBzAGkAZwBuAEwAYQBzAHQAUABvAHMAIAA9ACAAXwBUAHAAbwBzACAAKwAgADEAKQApACAAPAA+ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AbABvAG4AQQBmAHQAZQByAEwAYQBzAHQAUwBpAGcAbgAsACAATgAoAF8AYwBvAGwAbwBuAEwAYQBzAHQAUABvAHMAIAA+ACAAXwBzAGkAZwBuAEwAYQBzAHQAUABvAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABlAG4ATABlAHMAcwA4ACwAIABOACgAXwBsAGUAbgAgADwAIAA4ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAFoAbABhAHMAdAAsACAATgAoAF8AWgBsAGEAcwB0AFAAbwBzACAAPQAgAF8ATABlAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaAAsACAAKABfAGgAYQBzAFQAIAAqACAAMQAyADgAKQAgACsAIAAoAF8AVABmAGkAcgBzAHQAIAAqACAANgA0ACkAIAArACAAKABfAGwAYQBzAHQAUwBpAGcAbgBGAGkAcgBzAHQAUABvAHMAIAAqACAAMwAyACkAIAArACAAKABfAGgAYQBzAFoAbwByAFMAaQBnAG4AQQBmAHQAZQByAFQAIAAqACAAMQA2ACkAIAArACAAKABfAFoAbwByAFMAaQBnAG4ARgBpAHIAcwB0AEEAZgB0AGUAcgBUACAAKgAgADgAKQAgACsAIAAoAF8AYwBvAGwAbwBuAEEAZgB0AGUAcgBMAGEAcwB0AFMAaQBnAG4AIAAqACAANAApACAAKwAgACgAXwBsAGUAbgBMAGUAcwBzADgAIAAqACAAMgApACAAKwAgAF8ASABhAHMAWgBsAGEAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBoAEwAawB1AHAALAAgAEkARgBOAEEAKABYAE0AQQBUAEMASAAoAF8AaABhAHMAaAAsACAAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAF8AbABvAGcAaQBjAEgAYQBzAGgAVABhAGIAbABlACwAIAAxACkALAAgADAAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBoAGEAcwBoAEwAawB1AHAAIAA9ACAAMAAsACAAewBGAEEATABTAEUALAAgACMATgAvAEEALAAgACMATgAvAEEALAAgACMATgAvAEEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAZgBuACwAIABDAEgATwBPAFMARQBSAE8AVwBTACgAXwBsAG8AZwBpAGMASABhAHMAaABUAGEAYgBsAGUALAAgAF8AaABhAHMAaABMAGsAdQBwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBDAG8AbQBwAGwAaQBhAG4AdAAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA0ACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBNAGEAcgBrACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBNAGEAcgBrACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUATABlAG4ALAAgAEkARgBTACgAXwBkAGEAdABlAE0AYQByAGsAIAA9ACAAMAAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBNAGEAcgBrACAAPQAgADEALAAgAF8AbABlAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUATQBhAHIAawAgAD0AIAAyACwAIABfAFQAcABvAHMAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBNAGEAcgBrACAAPQAgADMALAAgAF8AcwBpAGcAbgBMAGEAcwB0AFAAbwBzACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUATQBhAHIAawAgAD0AIAA0ACwAIABfAGwAZQBuACAALQAgADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoATABlAG4ALAAgAEkARgBTACgAXwB0AHoATQBhAHIAawAgAD0AIAAwACwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoATQBhAHIAawAgAD0AIAAxACwAIABfAGwAZQBuACAALQAgAF8AcwBpAGcAbgBMAGEAcwB0AFAAbwBzACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBNAGEAcgBrACAAPQAgADIALAAgADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlAEwAZQBuACwAIABfAGwAZQBuACAALQAgAF8AZABhAHQAZQBMAGUAbgAgAC0AIABfAHQAegBMAGUAbgAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAEQAYQB0AGUALAAgAEkARgAoAF8AZABhAHQAZQBMAGUAbgAgAD0AIAAwACwAIABcACIAXAAiACwAIABMAEUARgBUACgAVABlAHgAdAAsACAAXwBkAGEAdABlAEwAZQBuACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVABpAG0AZQAsACAASQBGACgAXwB0AGkAbQBlAEwAZQBuACAAPAA9ACAAMQAsACAAXAAiAFwAIgAsACAAIABNAEkARAAoAFQAZQB4AHQALAAgAF8AZABhAHQAZQBMAGUAbgAgACsAIAAxACwAIABfAHQAaQBtAGUATABlAG4AKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBUAFoALAAgAEkARgAoAF8AdAB6AEwAZQBuACAAPQAgADAALAAgAFwAIgBcACIALAAgACAAUgBJAEcASABUACgAVABlAHgAdAAsACAAXwB0AHoATABlAG4AKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwBpAHMAbwBDAG8AbQBwAGwAaQBhAG4AdAAsACAAXwBzAEQAYQB0AGUALAAgAF8AcwBUAGkAbQBlACwAIABfAHMAVABaACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFAAQQBSAFMARQBfAEQAQQBUAEUAXwBUAEkATQBFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAG8AZgAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPADgANgAwADEAIABmAG8AcgBtAGEAdAAuAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAYQBuACAAaQBuAHYAYQBsAGkAZAAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABvAHIAIAB0AGkAbQBlACAAegBvAG4AZQBcAG4AIwBOAC8AQQAgAGkAZgAgAG4AbwB0ACAAcABhAHIAcwBhAGIAbABlAFwAbgBcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAgACAAIAB8ACAAYgBvAG8AbABlAGEAbgAgAHwAIABGAGwAYQBnACAAaQBmACAAYwBvAG0AcABsAGkAYQBuAHQAIAB0AG8AIABJAFMATwAgADgANgAwADEAIABzAHQAYQBuAGQAYQByAGQAXABuACAAIAAyACAAfAAgAFAAcgBlAGMAaQBzAGkAbwBuACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEAIAAtACAAeQBlAGEAcgBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABtAG8AbgB0AGgALwB3AGUAZQBrAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGQAYQB5AFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAA0ACAALQAgAGgAbwB1AHIAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADUAIAAtACAAbQBpAG4AdQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADYAIAAtACAAaQBuAHQAZQBnAGUAcgAgAHMAZQBjAG8AbgBkAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAA3ACAALQAgAHMAZQBjAG8AbgBkACAAMAAuADAAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADgAIAAtACAAcwBlAGMAbwBuAGQAIAAwAC4AMAAwAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAA5ACAALQAgAHMAZQBjAG8AbgBkACAAMAAuADAAMAAwAFwAbgAgACAAMwAgAHwAIABEAGEAdABlACAAVAB5AHAAZQAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwACAALQAgAG4AbwAgAGQAYQB0AGUAIABwAHIAZQBzAGUAbgB0AFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAxACAALQAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADIAIAAtACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADMAIAAtACAAdwBlAGUAawAgAGQAYQB0AGUAXABuACAAIAA0ACAAfAAgAFkAZQBhAHIAIABDAEUAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AIAAgADUAIAB8ACAATQBvAG4AdABoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4AMQAyAFwAbgAgACAAIAAgAHwAIABXAGUAZQBrACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAxAC4ALgA1ADMAXABuACAAIAA2ACAAfAAgAEQAYQB5ACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEALgAuADMAMQBcAG4AIAAgACAAIAB8ACAATwByAGQAaQBuAGEAbAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4AMwA2ADYAXABuACAAIAAgACAAfAAgAEQAYQB5ACAAbwBmACAAVwBlAGUAawAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEALgAuADcAIAAtAD4AIABNAG8AbgAuAC4AUwB1AG4AXABuACAAIAA3ACAAfAAgAEgAbwB1AHIAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADAALgAuADIANABcAG4AIAAgADgAIAB8ACAATQBpAG4AdQB0AGUAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMAAuAC4ANQA5AFwAbgAgACAAOQAgAHwAIABTAGUAYwBvAG4AZAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAwAC4ALgA1ADkALgA5ADkAOQBcAG4AIAAxADAAIAB8ACAATQBpAG4AdQB0AGUAcwAgAE8AZgBmAHMAZQB0ACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAALQA5ADAAMAAuAC4AKwA5ADAAMABcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAZQB4AHQAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAfAAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AHQAZQBkACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIABFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAAKwBZAFkAWQBZAFkALQBNAE0ALQBEAEQAVABoAGgAOgBtAG0AOgBzAHMALgBzAHMAcwArAGgAaAA6AG0AbQA6AHMAcwAsACAAWQBZAFkAWQAtAE0ATQAtAEQARABUAGgAaAA6AG0AbQAtAGgAaAAsACAAWQBZAFkAWQAtAFcAdwB3AC0ARABUAGgAaAA6AG0AbQBaAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBEAEEAVABFAF8AVABJAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAFQAZQB4AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACwAIABMAEEATQBCAEQAQQAoAF8AZQB4AGMAZQBwAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAIABuAHUAbABsACAAIABFAG0AcAB0AHkAIAB0AGUAeAB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAE4ALwBBACAAIAAgAFUAbgBhAGIAbABlACAAdABvACAAcABhAHIAcwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AEYAQQBMAFMARQAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEkAUwBPAEYAbwByAG0AYQB0AEMAbwBtAHAAbABpAGEAbgBjAGUALAAgAEwAQQBNAEIARABBACgAXwBwAEQAYQB0AGUALAAgAF8AcABUAGkAbQBlACwAIABfAHAAVABaACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAEYAbQB0ACwAIABJAEYARQBSAFIATwBSACgATgAoAEkATgBEAEUAWAAoAF8AcABEAGEAdABlACwAIAAxACwAIAA2ACkAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlAEYAbQB0ACwAIABJAEYARQBSAFIATwBSACgATgAoAEkATgBEAEUAWAAoAF8AcABUAGkAbQBlACwAIAAxACwAIAA1ACkAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwBGAG0AdAAsACAASQBGAEUAUgBSAE8AUgAoAE4AKABJAE4ARABFAFgAKABfAHAAVABaACwAIAAxACwAIAAzACkAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBhAGwAbABGAG0AdAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBkAGEAdABlAEYAbQB0ACAAPAA+ACAAMgApACAAKgAgACgAXwB0AGkAbQBlAEYAbQB0ACAAPAA+ACAAMgApACAAKgAgACgAXwB0AHoAbwBGAG0AdAAgADwAPgAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAYQBsAGwAIABiAGEAcwBpAGMAIABmAG8AcgBtAGEAdAAgAHcAaABlAHIAZQAgAHAAcgBlAHMAZQBuAHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AZABhAHQAZQBGAG0AdAAgADwAPgAgADEAKQAgACoAIAAoAF8AdABpAG0AZQBGAG0AdAAgADwAPgAgADEAKQAgACoAIAAoAF8AdAB6AG8ARgBtAHQAIAA8AD4AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGEAbABsACAAZQB4AHQAZQBuAGQAZQBkACAAZgBvAHIAbQBhAHQAIAB3AGgAZQByAGUAIABwAHIAZQBzAGUAbgB0ACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABtAGkAeABlAGQAIABmAG8AcgBtAGEAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABfAGEAbABsAEYAbQB0ACAAPAA+ACAAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBQAHIAZQBjAGkAcwBpAG8AbgAsACAATABBAE0AQgBEAEEAKABfAHAARABhAHQAZQAsACAAXwBwAFQAaQBtAGUALAAgAF8AcABUAFoALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAGwAdQBtAG4AcwAgAE8AdQB0ADoAIABJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAsACAAUAByAGUAYwBpAHMAaQBvAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAEUAcgByACwAIABOACgASQBTAEUAUgBSAE8AUgAoAEkATgBEAEUAWAAoAF8AcABEAGEAdABlACwAIAAxACwAIAAyACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlAEUAcgByACwAIABOACgASQBTAEUAUgBSAE8AUgAoAEkATgBEAEUAWAAoAF8AcABUAGkAbQBlACwAIAAxACwAIAAxACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoARQByAHIALAAgAE4AKABJAFMARQBSAFIATwBSACgASQBOAEQARQBYACgAXwBwAFQAWgAsACAAMQAsACAAMQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0AQQBYACgAXwBkAGEAdABlAEUAcgByACwAIABfAHQAaQBtAGUARQByAHIALAAgAF8AdAB6AEUAcgByACkAIAA+ACAAMAAsACAAewAwACwAIAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBQAHIAZQBjACwAIABOACgASQBOAEQARQBYACgAXwBwAEQAYQB0AGUALAAgADEALAAgADUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBQAHIAZQBjACwAIABOACgASQBOAEQARQBYACgAXwBwAFQAaQBtAGUALAAgADEALAAgADQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AFAAcgBlAGMALAAgAE4AKABJAE4ARABFAFgAKABfAHAAVABaACwAIAAxACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBQAHIAZQBjACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AdABpAG0AZQBQAHIAZQBjACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKAAxACwAIABfAHQAegBQAHIAZQBjACAAKwAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoADEALAAgAF8AdABpAG0AZQBQAHIAZQBjACAAKwAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAUAByAGUAYwAgADwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE4AKABfAHQAaQBtAGUAUAByAGUAYwAgAD0AIAAwACkALAAgAF8AZABhAHQAZQBQAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAvAC8AIABfAGQAYQB0AGUAUAByAGUAYwAgAD0AIAAzACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoADEALAAgAF8AdABpAG0AZQBQAHIAZQBjACAAKwAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAVABlAHgAdAAgAD0AIABcACIAXAAiACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAcwAsACAAUABBAFIAUwBFAF8AUABBAFIAVABTACgAVABlAHgAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASQBTAE4AQQAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAyACkAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAARABhAHQAZQAsACAAUABBAFIAUwBFAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAyACkALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAVABpAG0AZQAsACAAUABBAFIAUwBFAF8AVABJAE0ARQAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAzACkALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAVABaACwAIABQAEEAUgBTAEUAXwBUAEkATQBFAF8AWgBPAE4ARQAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAA0ACkALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAcwBvAEYAbwByAG0AYQB0AEMAbwBtAHAAbABpAGEAbgBjAGUALAAgAEkARgAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAxACkAIAA9ACAAMAAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBJAFMATwBGAG8AcgBtAGEAdABDAG8AbQBwAGwAaQBhAG4AYwBlACgAXwBwAEQAYQB0AGUALAAgAF8AcABUAGkAbQBlACwAIABfAHAAVABaACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAZgBuAFAAcgBlAGMAaQBzAGkAbwBuACgAXwBwAEQAYQB0AGUALAAgAF8AcABUAGkAbQBlACwAIABfAHAAVABaACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIABOACgAKABfAGkAcwBvAEYAbwByAG0AYQB0AEMAbwBtAHAAbABpAGEAbgBjAGUAIAAqACAASQBOAEQARQBYACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAMQAsACAAMQApACkAIAA8AD4AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHUAdABEAGEAdABlACwAIABEAFIATwBQACgAXwBwAEQAYQB0AGUALAAgACwAIAAtADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AdQB0AFQAaQBtAGUALAAgAEQAUgBPAFAAKABfAHAAVABpAG0AZQAsACAALAAgAC0AMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbwB1AHQAVABaACwAIABEAFIATwBQACgAXwBwAFQAWgAsACAALAAgAC0AMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwBpAHMAbwBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIABJAE4ARABFAFgAKABfAHAAcgBlAGMAaQBzAGkAbwBuACwAIAAxACwAIAAyACkALAAgAF8AbwB1AHQARABhAHQAZQAsACAAXwBvAHUAdABUAGkAbQBlACwAIABfAG8AdQB0AFQAWgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBPAFIATQBBAFQAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABkAGEAdABlACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgBcAG4ARQB4AGEAbQBwAGwAZQAgAGYAbwByAG0AYQB0AHMAIAAoAG4AbwB0ACAAZQB4AGgAYQB1AHMAdABpAHYAZQApADoAIAArAFkAWQBZAFkAWQAtAE0ATQAtAEQARAAsACAAWQBZAFkAWQAtAE0ATQAtAEQARAAsACAAWQBZAFkAWQAtAE0ATQAsACAAKwBZAFkAWQBZAE0ATQAsACAAWQBZAFkAWQBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAGEAbgAgAGkAbgB2AGEAbABpAGQAIABkAGEAdABlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBbAE0AbwBuAHQAaABdACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAATQBvAG4AdABoACAAbwBmACAAdABoAGUAIAB5AGUAYQByAFwAbgBbAEQAYQB5AF0AIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAARABhAHkAIABvAGYAIAB0AGgAZQAgAG0AbwBuAHQAaABcAG4AWwBCAGEAcwBpAGMAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFIAZQB0AHUAcgBuACAAaQBuACAAYgBhAHMAaQBjACAAZgBvAHIAbQBhAHQAIABlAGcAIABZAFkAWQBZAE0ATQBEAEQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEYATwBSAE0AQQBUAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABbAE0AbwBuAHQAaABdACwAIABbAEQAYQB5AF0ALAAgAFsAQgBhAHMAaQBjAF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBvAG4AdABoACkAKQAgACoAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAE4AKABCAGEAcwBpAGMAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkALAAgAEkATgBUACgAWQBlAGEAcgBDAEUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBGAG0AdAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEEAQgBTACgAXwB5ACkAIAA+AD0AIAAxADAAMAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArADAAMAAwADAAMAA7AC0AMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACkAIAAqACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArADAAMAAwADAAOwAtADAAMAAwADAAOwArADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAMAAwADAAMAA7AC0AMAAwADAAMAA7ADAAMAAwADAAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAWQBlAGEAcgAsACAAVABFAFgAVAAoAF8AeQAsACAAXwB5AEYAbQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBvAG4AdABoACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBNAG8AbgB0AGgALAAgAFQARQBYAFQAKABJAE4AVAAoAE0AbwBuAHQAaAApACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAF8AcwBZAGUAYQByACAAJgAgAF8AcwBNAG8AbgB0AGgALAAgAF8AcwBZAGUAYQByACAAJgAgAFwAIgAtAFwAIgAgACYAIABfAHMATQBvAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAEQAYQB5ACwAIABUAEUAWABUACgASQBOAFQAKABEAGEAeQApACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFkAZQBhAHIAIAAmACAAXwBzAE0AbwBuAHQAaAAgACYAIABfAHMARABhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFkAZQBhAHIAIAAmACAAXAAiAC0AXAAiACAAJgAgAF8AcwBNAG8AbgB0AGgAIAAmACAAXAAiAC0AXAAiACAAJgAgAF8AcwBEAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBPAFIATQBBAFQAXwBUAEkATQBFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIAB0AGkAbQBlACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgBcAG4ARQB4AGEAbQBwAGwAZQAgAGYAbwByAG0AYQB0AHMAIAAoAG4AbwB0ACAAZQB4AGgAYQB1AHMAdABpAHYAZQApADoAIABUAGgAaAA6AG0AbQA6AHMAcwAuAHMAcwBzACwAIABUAGgAaAA6AG0AbQA6AHMAcwAsACAAVABoAGgAOgBtAG0ALAAgAFQAaABoAG0AbQBzAHMALAAgAFQAaABoAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAYQBuACAAaQBuAHYAYQBsAGkAZAAgAHQAaQBtAGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBIAG8AdQByACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwAC4ALgAyADQAXABuAE0AaQBuAHUAdABlACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADAALgAuADUAOQBcAG4AUwBlAGMAbwBuAGQAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMAAuAC4ANQA5AC4AOQA5ADkAXABuAFsAQgBhAHMAaQBjAF0AIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFIAZQB0AHUAcgBuACAAaQBuACAAYgBhAHMAaQBjACAAZgBvAHIAbQBhAHQAXABuAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAGEAdQB0AG8AbQBhAHQAaQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABoAG8AdQByAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAG0AaQBuAHUAdABlAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAzACAALQAgAGkAbgB0AGUAZwBlAHIAIABzAGUAYwBvAG4AZABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANAAgAC0AIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcwBlAGMAbwBuAGQAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBPAFIATQBBAFQAXwBUAEkATQBFACAAPQAgAEwAQQBNAEIARABBACgASABvAHUAcgAsACAATQBpAG4AdQB0AGUALAAgAFMAZQBjAG8AbgBkACwAIABbAEIAYQBzAGkAYwBdACwAIABbAFAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASABvAHUAcgApACkAIAAqACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAGkAbgB1AHQAZQApACkAIAAqACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABTAGUAYwBvAG4AZAApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAKABIAG8AdQByACwAIABNAGkAbgB1AHQAZQAsACAAUwBlAGMAbwBuAGQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsACAATgAoAEIAYQBzAGkAYwApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwAsACAAUgBPAFUATgBEAEQATwBXAE4AKABOACgAUwBlAGMAbwBuAGQAKQAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtACwAIABJAE4AVAAoAE4AKABNAGkAbgB1AHQAZQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgALAAgAEkATgBUACgATgAoAEgAbwB1AHIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAATQBBAFgAKABJAE4AVAAoAE4AKABQAHIAZQBjAGkAcwBpAG8AbgApACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdQBzAGUAUAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAEkAUwBOAFUATQBCAEUAUgAoAFMAZQBjAG8AbgBkACkALAAgAEkARgAoAF8AcwAgAD0AIABJAE4AVAAoAF8AcwApACwAIAAzACwAIAA0ACkALAAgAEkAUwBOAFUATQBCAEUAUgAoAE0AaQBuAHUAdABlACkALAAgADIALAAgAFQAUgBVAEUALAAgADEAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdQBzAGUAUAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAXAAiACAAJgAgAFQARQBYAFQAKABfAGgALAAgAFwAIgAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdQBzAGUAUAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFQARQBYAFQAKABfAG0ALAAgAFwAIgAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAXAAiACAAJgAgAFQARQBYAFQAKABfAGgALAAgAFwAIgAwADAAXAAiACkAIAAmACAAXAAiADoAXAAiACAAJgAgAFQARQBYAFQAKABfAG0ALAAgAFwAIgAwADAAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVABcACIAIAAmACAAVABFAFgAVAAoAF8AaAAsACAAXAAiADAAMABcACIAKQAgACYAIABUAEUAWABUACgAXwBtACwAIABcACIAMAAwAFwAIgApACAAJgAgAFQARQBYAFQAKABfAHMALAAgAFwAIgAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAXAAiACAAJgAgAFQARQBYAFQAKABfAGgALAAgAFwAIgAwADAAXAAiACkAIAAmACAAXAAiADoAXAAiACAAJgAgAFQARQBYAFQAKABfAG0ALAAgAFwAIgAwADAAXAAiACkAIAAmACAAXAAiADoAXAAiACAAJgAgAFQARQBYAFQAKABfAHMALAAgAFwAIgAwADAAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwBfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAXAAiACAAJgAgAFQARQBYAFQAKABfAGgALAAgAFwAIgAwADAAXAAiACkAIAAmACAAVABFAFgAVAAoAF8AbQAsACAAXAAiADAAMABcACIAKQAgACYAIABUAEUAWABUACgAXwBzACwAIABcACIAMAAwAC4AMAAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAXAAiACAAJgAgAFQARQBYAFQAKABfAGgALAAgAFwAIgAwADAAXAAiACkAIAAmACAAXAAiADoAXAAiACAAJgAgAFQARQBYAFQAKABfAG0ALAAgAFwAIgAwADAAXAAiACkAIAAmACAAXAAiADoAXAAiACAAJgAgAFQARQBYAFQAKABfAHMALAAgAFwAIgAwADAALgAwADAAMABcACIAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBPAFIATQBBAFQAXwBUAEkATQBFAF8AWgBPAE4ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAdABpAG0AZQAgAHoAbwBuAGUAIABhAHMAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuAFwAbgBFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgAgACsAaABoADoAbQBtADoAcwBzACwAIAAtAGgAaAA6AG0AbQAsACAAKwBoAGgALAAgAFoAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABhAG4AIABpAG4AdgBhAGwAaQBkACAAdABpAG0AZQAgAHoAbwBuAGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABVAFQAQwAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIAAtADkAMAAwAC4ALgArADkAMAAwAFwAbgBbAEIAYQBzAGkAYwBdACAAIAAgACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAUgBlAHQAdQByAG4AIABpAG4AIABiAGEAcwBpAGMAIABmAG8AcgBtAGEAdABcAG4AWwBQAHIAZQBjAGkAcwBpAG8AbgBdACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMAAgAC0AIABhAHUAdABvAG0AYQB0AGkAYwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAxACAALQAgAGgAbwB1AHIAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAG0AaQBuAHUAdABlAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABzAGUAYwBvAG4AZABzAFwAbgBbAE4AbwBaAHUAbAB1AF0AIAAgACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAVQBzAGUAIAArADAAMAA6ADAAMAAgAGkAbgBzAHQAZQBhAGQAIABvAGYAIABaACAAZgBvAHIAIABVAFQAQwAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEYATwBSAE0AQQBUAF8AVABJAE0ARQBfAFoATwBOAEUAIAA9ACAATABBAE0AQgBEAEEAKABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACwAIABbAEIAYQBzAGkAYwBdACwAIABbAFAAcgBlAGMAaQBzAGkAbwBuAF0ALAAgAFsATgBvAFoAdQBsAHUAXQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAE4AKABCAGEAcwBpAGMAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAATQBBAFgAKABJAE4AVAAoAE4AKABQAHIAZQBjAGkAcwBpAG8AbgApACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQBhAHIAWgBlAHIAbwAsACAAUgBPAFUATgBEAEQATwBXAE4AKABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACAAKgAgADYAMAAsACAAMAApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABOACgATgBvAFoAdQBsAHUAKQAgAD0AIAAwACkAIAAqACAAXwBuAGUAYQByAFoAZQByAG8ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAWgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAKABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBTAGUAYwBzACwAIABSAE8AVQBOAEQARABPAFcATgAoAE0ATwBEACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAsACAAMQApACAAKgAgADYAMAAsACAAMAApACAAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAEYAbQB0ACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBTAGUAYwBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsACAAXAAiAGgAaABtAG0AcwBzAFwAIgAsACAAXAAiAGgAaAA6AG0AbQA6AHMAcwBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAFwAIgBoAGgAbQBtAFwAIgAsACAAXAAiAGgAaAA6AG0AbQBcACIAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAGgAaABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsACAAXAAiAGgAaABtAG0AXAAiACwAIABcACIAaABoADoAbQBtAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsACAAXAAiAGgAaABtAG0AcwBzAFwAIgAsACAAXAAiAGgAaAA6AG0AbQA6AHMAcwBcACIAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4ALAAgAEkARgAoAFMASQBHAE4AKABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACkAIAA8ACAAMAAsACAAXAAiAC0AXAAiACwAIABcACIAKwBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAAQQBCAFMAKABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACkAIAAvACAAMQA0ADQAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AIAAmACAAVABFAFgAVAAoAF8AdABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAIABfAHMARgBtAHQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBPAFIATQBBAFQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6ACAAWQBZAFkAWQAtAEQARABEACwAIABZAFkAWQBZAEQARABEAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAYQBuACAAaQBuAHYAYQBsAGkAZAAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBPAHIAZABpAG4AYQBsACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAATwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgBcAG4AWwBCAGEAcwBpAGMAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFIAZQB0AHUAcgBuACAAaQBuACAAYgBhAHMAaQBjACAAZgBvAHIAbQBhAHQAIABlAGcAIABZAFkAWQBZAEQARABEAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBGAE8AUgBNAEEAVABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwALAAgAFsAQgBhAHMAaQBjAF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATwByAGQAaQBuAGEAbAApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsACAATgAoAEIAYQBzAGkAYwApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AEYAbQB0ACwAIABJAEYAKABBAEIAUwAoAF8AeQApACAAPgA9ACAAMQAwADAAMAAwACwAIABcACIAKwAwADAAMAAwADAAOwAtADAAMAAwADAAMABcACIALAAgAFwAIgAwADAAMAAwADsALQAwADAAMAAwADsAMAAwADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACwAIABUAEUAWABUACgAXwB5ACwAIABfAHkARgBtAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBPAHIAZABpAG4AYQBsACwAIABUAEUAWABUACgASQBOAFQAKABPAHIAZABpAG4AYQBsACkALAAgAFwAIgAwADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAIABfAHMAWQBlAGEAcgAgACYAIABfAHMATwByAGQAaQBuAGEAbAAsACAAXwBzAFkAZQBhAHIAIAAmACAAXAAiAC0AXAAiACAAJgAgAF8AcwBPAHIAZABpAG4AYQBsACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8AVwBFAEUASwBfAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAHcAZQBlAGsAIABkAGEAdABlACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgBcAG4ARQB4AGEAbQBwAGwAZQAgAGYAbwByAG0AYQB0AHMAIAAoAG4AbwB0ACAAZQB4AGgAYQB1AHMAdABpAHYAZQApADoAIABZAFkAWQBZAC0AVwB3AHcALQBEACwAIABZAFkAWQBZAC0AVwB3AHcALAAgAFkAWQBZAFkAVwB3AHcARAAsACAAWQBZAFkAWQBXAHcAdwBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAGEAbgAgAGkAbgB2AGEAbABpAGQAIAB3AGUAZQBrACAAZABhAHQAZQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAFcAZQBlAGsAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIAB5AGUAYQByAFwAbgBEAGEAeQBPAGYAVwBlAGUAawAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEQAYQB5ACAAbwBmACAAdABoAGUAIAB3AGUAZQBrACAAdwBoAGUAcgBlACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgAgAFwAbgBbAEIAYQBzAGkAYwBdACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFIAZQB0AHUAcgBuACAAaQBuACAAYgBhAHMAaQBjACAAZgBvAHIAbQBhAHQAIABlAGcAIABZAFkAWQBZAFcAdwB3AEQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEYATwBSAE0AQQBUAF8AVwBFAEUASwBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAAVwBlAGUAawAsACAARABhAHkATwBmAFcAZQBlAGsALAAgAFsAQgBhAHMAaQBjAF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAVwBlAGUAawApACkAIAAqACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQBPAGYAVwBlAGUAawApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFcARQBFAEsAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAFcAZQBlAGsALAAgAEQAYQB5AE8AZgBXAGUAZQBrACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAE4AKABCAGEAcwBpAGMAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkALAAgAEkATgBUACgAWQBlAGEAcgBDAEUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBGAG0AdAAsACAASQBGACgAQQBCAFMAKABfAHkAKQAgAD4APQAgADEAMAAwADAAMAAsACAAXAAiACsAMAAwADAAMAAwADsALQAwADAAMAAwADAAXAAiACwAIABcACIAMAAwADAAMAA7AC0AMAAwADAAMAA7ADAAMAAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAWQBlAGEAcgAsACAAVABFAFgAVAAoAF8AeQAsACAAXwB5AEYAbQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVwBlAGUAawAsACAAVABFAFgAVAAoAEkATgBUACgAVwBlAGUAawApACwAIABcACIAVwAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkATwBmAFcAZQBlAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsACAAXwBzAFkAZQBhAHIAIAAmACAAXwBzAFcAZQBlAGsALAAgAF8AcwBZAGUAYQByACAAJgAgAFwAIgAtAFwAIgAgACYAIABfAHMAVwBlAGUAawApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFkAZQBhAHIAIAAmACAAXwBzAFcAZQBlAGsAIAAmACAASQBOAFQAKABEAGEAeQBPAGYAVwBlAGUAawApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACAAJgAgAFwAIgAtAFwAIgAgACYAIABfAHMAVwBlAGUAawAgACYAIABcACIALQBcACIAIAAmACAASQBOAFQAKABEAGEAeQBPAGYAVwBlAGUAawApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBGAE8AUgBNAEEAVABfAEQAQQBUAEUAXwBUAEkATQBFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgBcAG4ARQB4AGEAbQBwAGwAZQAgAGYAbwByAG0AYQB0AHMAIAAoAG4AbwB0ACAAZQB4AGgAYQB1AHMAdABpAHYAZQApADoAIABZAFkAWQBZAC0ATQBNAC0ARABEAFQAaABoADoAbQBtADoAcwBzAC4AcwBzAHMAKwBoAGgAOgBtAG0AOgBzAHMALAAgAFkAWQBZAFkALQBXAHcAdwAtAEQAVABoAGgAOgBtAG0AWgAsACAAVABoAGgAbQBtAHMAcwBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAGEAbgAgAGkAbgB2AGEAbABpAGQAIABkAGEAdABlACwAIAB0AGkAbQBlACAAbwByACAAdABpAG0AZQAgAHoAbwBuAGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBEAGEAdABlAFQAeQBwAGUAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAARABhAHQAZQAgAHQAeQBwAGUAIAByAGUAcAByAGUAcwBlAG4AdABlAGQAIABpAG4AIABEAGEAdABlAEEAcgBnADEAIABhAG4AZAAgAEQAYQB0AGUAQQByAGcAMgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAG4AbwAgAGQAYQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADIAIAAtACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIAB3AGUAZQBrACAAZABhAHQAZQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBbAEQAYQB0AGUAQQByAGcAMQBdACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAATQBvAG4AdABoACAAbwBmACAAeQBlAGEAcgAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMQAgACAAIAAgACAAIAAgACAAIAAxAC4ALgAxADIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABXAGUAZQBrACAAbwBmACAAeQBlAGEAcgAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMwAgACAAIAAgACAAIAAgACAAIAAgADEALgAuADUAMwBcAG4AWwBEAGEAdABlAEEAcgBnADIAXQAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEQAYQB5ACAAbwBmACAAbQBvAG4AdABoACAAdwBoAGUAbgAgAEQAYQB0AGUAVAB5AHAAZQAgAD0AIAAxACAAIAAgACAAIAAgACAAIAAgACAAMQAuAC4AMwAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAATwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMgAgACAAIAAxAC4ALgAzADYANgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAEQAYQB5ACAAbwBmACAAdwBlAGUAawAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMwAgACAAIAAgACAAIAAgACAAIAAgACAAMQAuAC4ANwBcAG4AWwBIAG8AdQByAF0AIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADAALgAuADIANABcAG4AWwBNAGkAbgB1AHQAZQBdACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADAALgAuADUAOQBcAG4AWwBTAGUAYwBvAG4AZABdACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgADAALgAuADUAOQAuADkAOQA5AFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMAIAAtADkAMAAwAC4ALgArADkAMAAwAFwAbgBbAEIAYQBzAGkAYwBdACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAUgBlAHQAdQByAG4AIABpAG4AIABiAGEAcwBpAGMAIABmAG8AcgBtAGEAdAAgAGUAZwAgAFkAWQBZAFkATQBNAEQARABUADEAMAA0ADUAKwAwADkAMwAwAFwAbgBbAFAAcgBlAGMAaQBzAGkAbwBuAF0AIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAUwBlAGwAZQBjAHQAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGwAZQB2AGUAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAEEAdQB0AG8AbQBhAHQAaQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADEAIAAtACAAWQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAE0AbwBuAHQAaAAvAFcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABEAGEAeQAvAE8AcgBkAGkAbgBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANAAgAC0AIABIAG8AdQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAATQBpAG4AdQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANgAgAC0AIABTAGUAYwBvAG4AZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA3ACAALQAgAEYAcgBhAGMAdABpAG8AbgBhAGwAXABuAFsATgBvAFQAaQBtAGUAWgBvAG4AZQBdACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABEAHIAbwBwACAAdABpAG0AZQAgAHoAbwBuAGUAIABmAHIAbwBtACAAbwB1AHQAcAB1AHQALgBcAG4AWwBOAG8AWgB1AGwAdQBdACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFUAcwBlACAAKwAwADAAOgAwADAAIABpAG4AcwB0AGUAYQBkACAAbwBmACAAWgAgAGYAbwByACAAVQBUAEMAIAB0AGkAbQBlACAAegBvAG4AZQAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBGAE8AUgBNAEEAVABfAEQAQQBUAEUAXwBUAEkATQBFACAAPQAgAEwAQQBNAEIARABBACgAXABuACAAIAAgACAARABhAHQAZQBUAHkAcABlACwAXABuACAAIAAgACAAWwBZAGUAYQByAEMARQBdACwAXABuACAAIAAgACAAWwBEAGEAdABlAEEAcgBnADEAXQAsAFwAbgAgACAAIAAgAFsARABhAHQAZQBBAHIAZwAyAF0ALABcAG4AIAAgACAAIABbAEgAbwB1AHIAXQAsAFwAbgAgACAAIAAgAFsATQBpAG4AdQB0AGUAXQAsAFwAbgAgACAAIAAgAFsAUwBlAGMAbwBuAGQAXQAsAFwAbgAgACAAIAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALABcAG4AIAAgACAAIABbAEIAYQBzAGkAYwBdACwAXABuACAAIAAgACAAWwBQAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAAWwBOAG8AVABpAG0AZQBaAG8AbgBlAF0ALABcAG4AIAAgACAAIABbAE4AbwBaAHUAbAB1AF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUALAAgAE0AQQBYACgASQBOAFQAKABOACgARABhAHQAZQBUAHkAcABlACkAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABfAGgAYQBzAEQAYQB0AGUALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAIAArACAASQBTAE4AVQBNAEIARQBSACgARABhAHQAZQBBAHIAZwAxACkAIAArACAASQBTAE4AVQBNAEIARQBSACgARABhAHQAZQBBAHIAZwAyACkAKQAgADwAPgAgADAAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABfAGgAYQBzAFQAaQBtAGUALAAgACgASQBTAE4AVQBNAEIARQBSACgASABvAHUAcgApACAAKwAgAEkAUwBOAFUATQBCAEUAUgAoAE0AaQBuAHUAdABlACkAIAArACAASQBTAE4AVQBNAEIARQBSACgAUwBlAGMAbwBuAGQAKQApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBUAGkAbQBlAFoAbwBuAGUALAAgAEkAUwBOAFUATQBCAEUAUgAoAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACwAXABuACAAIAAgACAAIAAgACAAIABfAHMAaABvAHcAVABpAG0AZQBaAG8AbgBlACwAIABOACgATgBvAFQAaQBtAGUAWgBvAG4AZQApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAF8AaQBzAEUAbQBwAHQAeQAsACAAXwBoAGEAcwBEAGEAdABlACAAKwAgAF8AaABhAHMAVABpAG0AZQAgACsAIAAoAF8AaABhAHMAVABpAG0AZQBaAG8AbgBlACAAKgAgAF8AcwBoAG8AdwBUAGkAbQBlAFoAbwBuAGUAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMARQBtAHAAdAB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAGgAYQBzAEQAYQB0AGUAIAAqACAAXwBoAGEAcwBUAGkAbQBlAFoAbwBuAGUAIAAqACAAXwBzAGgAbwB3AFQAaQBtAGUAWgBvAG4AZQApACAAKgAgAE4ATwBUACgAXwBoAGEAcwBUAGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAE0AQQBYACgASQBOAFQAKABOACgAUAByAGUAYwBpAHMAaQBvAG4AKQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBEAGEAdABlACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADAAKQAgACsAIAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+AD0AIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAARABhAHQAZQBBAHIAZwAxACwAIABEAGEAdABlAEEAcgBnADIALAAgAEIAYQBzAGkAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAEIAYQBzAGkAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAEQAYQB0AGUAQQByAGcAMQAsACAAXAAiAFwAIgAsACAAQgBhAHMAaQBjACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMAApACAAKwAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD4APQAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAARABhAHQAZQBBAHIAZwAyACwAIABCAGEAcwBpAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAAXAAiAFwAIgAsACAAQgBhAHMAaQBjACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAwACkAIAArACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPgA9ACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBXAEUARQBLAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABEAGEAdABlAEEAcgBnADEALAAgAEQAYQB0AGUAQQByAGcAMgAsACAAQgBhAHMAaQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAFcARQBFAEsAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAEIAYQBzAGkAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBXAEUARQBLAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABEAGEAdABlAEEAcgBnADEALAAgAFwAIgBcACIALAAgAEIAYQBzAGkAYwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAC8ALwBfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVABpAG0AZQAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAwACkAIAArACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPgA9ACAANAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8AVABJAE0ARQAoAEgAbwB1AHIALAAgAE0AaQBuAHUAdABlACwAIABTAGUAYwBvAG4AZAAsACAAQgBhAHMAaQBjACwAIABNAEEAWAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAAtACAAMwAsACAAMAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBUAFoATwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADAAKQAgACsAIAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+AD0AIAA0ACkAKQAgACoAIABfAGgAYQBzAFQAaQBtAGUAWgBvAG4AZQAgACoAIABfAHMAaABvAHcAVABpAG0AZQBaAG8AbgBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBUAFoAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAANQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD4APQAgADYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8AVABJAE0ARQBfAFoATwBOAEUAKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQALAAgAEIAYQBzAGkAYwAsACAAXwBUAFoAcAByAGUAYwBpAHMAaQBvAG4ALAAgAE4AbwBaAHUAbAB1ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBEAGEAdABlACAAJgAgAF8AcwBUAGkAbQBlACAAJgAgAF8AcwBUAFoATwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMATwBfAFQATwBfAEQAQQBUAEUAXABuAFwAbgBDAG8AbgB2AGUAcgB0AHMAIAB0AGUAeAB0ACAAaQBuACAASQBTAE8AIABmAG8AcgBtAGEAdAAgAHQAbwAgAGEAbgAgAEUAeABjAGUAbAAgAGQAYQB0AGUALgAgAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuACAAIAAxACAAfAAgAEUAeABjAGUAbAAgAEQAYQB0AGUAIAAgACAAIAAgAHwAIABkAGEAdABlACAAIAAgACAAfAAgADEAOQAwADAALQAwADEALQAwADEAVAAwADAAOgAwADAALgAuADkAOQA5ADkALQAxADIALQAzADEAVAAyADQAOgAwADAAXABuACAAIAAyACAAfAAgAE0AaQBuAHUAdABlAHMAIABvAGYAZgBzAGUAdAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAC0AOQAwADAALgAuACsAOQAwADAAIABPAHAAdABpAG8AbgBhAGwALAAgAHQAbwBnAGcAbABlAGQAIABiAHkAIABSAGUAdAB1AHIAbgBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBUAGUAeAB0ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAfAAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AHQAZQBkACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAuAFwAbgBbAFIAZQB0AHUAcgBuAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAHMAdwBpAHQAYwBoACAAfAAgAEkAbgBjAGwAdQBkAGUAIABhAG4AbwB0AGgAZQByACAAYwBvAGwAdQBtAG4AIAB0AG8AIAByAGUAdAB1AHIAbgAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBPAF8AVABPAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFQAZQB4AHQALAAgAFsAUgBlAHQAdQByAG4AVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACwAIABMAEEATQBCAEQAQQAoAF8AZQAsACAAXwBmACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAE4AQQAoAF8AZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBmACwAIAB7ACMATgAvAEEALAAgACMATgAvAEEAfQAsACAAIwBOAC8AQQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAEUAUgBSACgAXwBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGYALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQB9ACwAIAAjAFYAQQBMAFUARQAhACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AZgAsACAAewBcACIAXAAiACwAIABcACIAXAAiAH0ALAAgAFwAIgBcACIAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAF8AZgBUAFoATwAsACAATgAoAFIAZQB0AHUAcgBuAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAXAAiACwAIABfAGYAVABaAE8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQBsAGUAbQBlAG4AdABzACwAIABQAEEAUgBTAEUAXwBEAEEAVABFAF8AVABJAE0ARQAoAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8ASQBTAEUAUgBSAE8AUgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACAALAAgADEAKQApACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAgACwAIAAxACkALAAgAF8AZgBUAFoATwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8ASQBTAEUAUgBSAE8AUgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACAALAAgADIAKQApACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAgACwAIAAyACkALAAgAF8AZgBUAFoATwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8ASQBTAEUAUgBSAE8AUgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACAALAAgADUAKQApACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAgACwAIAA1ACkALAAgAF8AZgBUAFoATwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAsACAASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAFQAaQBtAGUALAAgACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAE4AVQBNAEIARQBSACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADUAKQApACAAKwAgAEkAUwBOAFUATQBCAEUAUgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA2ACkAKQAgACsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMATgBVAE0AQgBFAFIAKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAANwApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAVABpAG0AZQBaAG8AbgBlACwAIABJAFMATgBVAE0AQgBFAFIAKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAAOAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABOACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwBJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAoAF8AZABhAHQAZQBUAHkAcABlACAAPgAgADAAKQAgACoAIAAoACgAXwB5AGUAYQByACAAPAAgADEAOQAwADAAKQAgACsAIAAoAF8AeQBlAGEAcgAgAD4AIAA5ADkAOQA5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAIwBWAEEATABVAEUAIQAsACAAXwBmAFQAWgBPACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMARQBSAFIATwBSACgAXwB5AGUAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AZABhAHQAZQBUAHkAcABlACAAPgAgADAAKQAgACoAIAAoACgAXwB5AGUAYQByACAAPAAgADEAOQAwADAAKQAgACsAIAAoAF8AeQBlAGEAcgAgAD4AIAA5ADkAOQA5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARABBAFQARQAoAF8AeQBlAGEAcgAsACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAAzACkAKQAsACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA0ACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMARABhAHQAZQAsACAARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAXwB5AGUAYQByACwAIABOACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADQAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGMARABhAHQAZQAsACAAMQAsACAAMQApACwAIABJAE4ARABFAFgAKABfAGMARABhAHQAZQAsACAAMQAsACAAMgApACwAIABJAE4ARABFAFgAKABfAGMARABhAHQAZQAsACAAMQAsACAAMwApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAEQAYQB0AGUALAAgAEYAUgBPAE0AXwBXAEUARQBLAF8ARABBAFQARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADQAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARABBAFQARQAoAEkATgBEAEUAWAAoAF8AYwBEAGEAdABlACwAIAAxACwAIAAxACkALAAgAEkATgBEAEUAWAAoAF8AYwBEAGEAdABlACwAIAAxACwAIAAyACkALAAgAEkATgBEAEUAWAAoAF8AYwBEAGEAdABlACwAIAAxACwAIAAzACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBUAGkAbQBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABJAE0ARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA1ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA2ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA3ACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAdAAsACAAXwBkAGEAdABlACAAKwAgAF8AdABpAG0AZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAVABaAE8ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAbwAsACAASQBGACgAXwBoAGEAcwBUAGkAbQBlAFoAbwBuAGUALAAgAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA4ACkALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAGQAdAAsACAAXwB0AHoAbwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABBAFQARQBfAFQATwBfAEkAUwBPAFwAbgBcAG4AQwBvAG4AdgBlAHIAdABzACAAYQBuACAARQB4AGMAZQBsACAAZABhAHQAZQAgAHQAbwAgAEkAUwBPACAAZgBvAHIAbQBhAHQAdABlAGQAIAB0AGUAeAB0AC4AXABuAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6ACAAWQBZAFkAWQAtAE0ATQAtAEQARABUAGgAaAA6AG0AbQA6AHMAcwAuAHMAcwBzACsAaABoADoAbQBtADoAcwBzACwAIABZAFkAWQBZAC0AVwB3AHcALQBEAFQAaABoADoAbQBtAFoALAAgAFQAaABoAG0AbQBzAHMAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBEAGEAdABlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAYQB0AGUAIAAgACAAIAB8ACAAQQBuACAARQB4AGMAZQBsACAAZABhAHQAZQAgAGEAbgBkAC8AbwByACAAdABpAG0AZQAuAFwAbgBbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAVABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAVQBUAEMAIAAtADkAMAAwAC4ALgArADkAMAAwACAAXABuAFsAQgBhAHMAaQBjAF0AIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABSAGUAdAB1AHIAbgAgAGkAbgAgAGIAYQBzAGkAYwAgAGYAbwByAG0AYQB0ACAAZQBnACAAWQBZAFkAWQBNAE0ARABEAFQAaABoAG0AbQArAGgAaABcAG4AWwBQAHIAZQBjAGkAcwBpAG8AbgBdACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMAAgAC0AIABBAHUAdABvAG0AYQB0AGkAYwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAxACAALQAgAFkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMgAgAC0AIABNAG8AbgB0AGgALwBXAGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADMAIAAtACAARABhAHkALwBPAHIAZABpAG4AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADQAIAAtACAASABvAHUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA1ACAALQAgAE0AaQBuAHUAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADYAIAAtACAAUwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANwAgAC0AIABGAHIAYQBjAHQAaQBvAG4AYQBsAFwAbgBbAE4AbwBUAGkAbQBlAFoAbwBuAGUAXQAgACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARAByAG8AcAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAZgByAG8AbQAgAG8AdQB0AHAAdQB0AC4AXABuAFsATgBvAFoAdQBsAHUAXQAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABVAHMAZQAgACsAMAAwADoAMAAwACAAaQBuAHMAdABlAGEAZAAgAG8AZgAgAFoAIABmAG8AcgAgAFUAVABDACAAdABpAG0AZQAgAHoAbwBuAGUALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABBAFQARQBfAFQATwBfAEkAUwBPACAAPQAgAEwAQQBNAEIARABBACgARABhAHQAZQAsACAAWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAsACAAWwBCAGEAcwBpAGMAXQAsACAAWwBQAHIAZQBjAGkAcwBpAG8AbgBdACwAIABbAE4AbwBUAGkAbQBlAFoAbwBuAGUAXQAsACAAWwBOAG8AWgB1AGwAdQBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB0AGUAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAEQAYQB0AGUALAAgAEkATgBUACgATgAoAEQAYQB0AGUAKQAgADwAPgAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALAAgAEkARgAoAF8AaABhAHMARABhAHQAZQAsACAAWQBFAEEAUgAoAEQAYQB0AGUAKQAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAIABJAEYAKABfAGgAYQBzAEQAYQB0AGUALAAgAE0ATwBOAFQASAAoAEQAYQB0AGUAKQAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkALAAgAEkARgAoAF8AaABhAHMARABhAHQAZQAsACAARABBAFkAKABEAGEAdABlACkALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAEQAQQBUAEUAXwBUAEkATQBFACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAF8AaABhAHMARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABPAFUAUgAoAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ASQBOAFUAVABFACgARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBFAEMATwBOAEQAKABEAGEAdABlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABCAGEAcwBpAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABQAHIAZQBjAGkAcwBpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AbwBUAGkAbQBlAFoAbwBuAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAG8AWgB1AGwAdQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBJAFMATwBfADgANgAwADEALgBJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAiACwAIgBJAFMATwBfADgANgAwADEALgBJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFAF8AWgBPAE4ARQAiACwAIgBJAFMATwBfADgANgAwADEALgBJAFMAXwBWAEEATABJAEQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAiACwAIgBJAFMATwBfADgANgAwADEALgBJAFMAXwBWAEEATABJAEQAXwBXAEUARQBLAF8ARABBAFQARQAiACwAIgBJAFMATwBfADgANgAwADEALgBZAEUAQQBSAF8ARABBAFkAXwBDAE8AVQBOAFQAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AWQBFAEEAUgBfAFcARQBFAEsAXwBDAE8AVQBOAFQAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARABBAFkAXwBPAFIARABJAE4AQQBMACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAiACwAIgBJAFMATwBfADgANgAwADEALgBEAEEAWQBfAE8ARgBfAFcARQBFAEsAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARABBAFkAXwBPAEYAXwBXAEUARQBLAF8ARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AVwBFAEUASwBfAE4AVQBNAEIARQBSACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFcARQBFAEsAXwBOAFUATQBCAEUAUgBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFQATwBfAFcARQBFAEsAXwBEAEEAVABFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEYAUgBPAE0AXwBXAEUARQBLAF8ARABBAFQARQAiACwAIgBJAFMATwBfADgANgAwADEALgBWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFAAQQBSAFMARQBfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AUABBAFIAUwBFAF8AVABJAE0ARQAiACwAIgBJAFMATwBfADgANgAwADEALgBQAEEAUgBTAEUAXwBUAEkATQBFAF8AWgBPAE4ARQAiACwAIgBJAFMATwBfADgANgAwADEALgBQAEEAUgBTAEUAXwBQAEEAUgBUAFMAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AUABBAFIAUwBFAF8ARABBAFQARQBfAFQASQBNAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARgBPAFIATQBBAFQAXwBEAEEAVABFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEYATwBSAE0AQQBUAF8AVABJAE0ARQAiACwAIgBJAFMATwBfADgANgAwADEALgBGAE8AUgBNAEEAVABfAFQASQBNAEUAXwBaAE8ATgBFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEYATwBSAE0AQQBUAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARgBPAFIATQBBAFQAXwBXAEUARQBLAF8ARABBAFQARQAiACwAIgBJAFMATwBfADgANgAwADEALgBGAE8AUgBNAEEAVABfAEQAQQBUAEUAXwBUAEkATQBFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEkAUwBPAF8AVABPAF8ARABBAFQARQAiACwAIgBJAFMATwBfADgANgAwADEALgBEAEEAVABFAF8AVABPAF8ASQBTAE8AIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBEAE0AWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAJAAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgB9AH0A</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9ACwAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBJAFMATwBfADgANgAwADEAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjAFwAbgAjACAASQBTAE8AXwA4ADYAMAAxACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjACAAIAAgAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAVABoAGUAIABJAFMATwAgADgANgAwADEAIABzAHQAYQBuAGQAYQByAGQAIABkAGUAZgBpAG4AZQBzACAAYQAgAHUAbgBpAHYAZQByAHMAYQBsACAAbgBvAHQAYQB0AGkAbwBuACAAbwBmACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQBzAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABhAHQAZQBzACAAYQByAGUAIABpAG4AIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByACAAYQBuAGQAIAB0AGkAbQBlAHMAIABhAHIAZQAgAGIAYQBzAGUAZAAgAG8AbgAgAHQAaABlACAAMgA0ACAAaABvAHUAcgAgAHQAaQBtAGUAawBlAGUAcABpAG4AZwAgAHMAeQBzAHQAZQBtACAAdwBpAHQAaAAgAGEAbgAgACAAIAAgACAAIAAjAFwAbgAjACAAbwBwAHQAaQBvAG4AYQBsACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABVAFQAQwAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAATQBvAGQAdQBsAGUAIABEAGUAcABlAG4AZABlAG4AYwBpAGUAcwA6ACAATgBvAG4AZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAATABvAGcAaQBjAGEAbAAgAEYAdQBuAGMAdABpAG8AbgBzACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AIAAjAFwAbgAjACAASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAcwB0AHMAIABpAGYAIABhACAAeQBlAGEAcgAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAASQBTAE8AIAA4ADYAMAAxAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjACAAXABuACMAIABJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQBzAHQAcwAgAGkAZgAgAGEAIAB5AGUAYQByACAAaQBuAGMAbAB1AGQAZQBzACAAYQAgAGwAZQBhAHAAIABkAGEAeQAgAGkAbgAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQBzAHQAcwAgAGkAZgAgAGEAIABkAGEAdABlACAAaQBzACAAdgBhAGwAaQBkACAAZgBvAHIAIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAIABcAG4AIwAgAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHMAdABzACAAaQBmACAAYQAgAHQAaQBtAGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAAMgA0ACAAaABvAHUAcgAgAHQAaQBtAGUAawBlAGUAcABpAG4AZwAgAHMAeQBzAHQAZQBtAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwAgAFwAbgAjACAASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAIAAgACAAIAAgACAAIABUAGUAcwB0AHMAIABpAGYAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGkAcwAgAGkAbgAgAHYAYQBsAGkAZAAgAHIAYQBuAGcAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASQBTAF8AVgBBAEwASQBEAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIAAgACAAIABUAGUAcwB0AHMAIABpAGYAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASQBTAF8AVgBBAEwASQBEAF8AVwBFAEUASwBfAEQAQQBUAEUAIAAgACAAIAAgACAAIABUAGUAcwB0AHMAIABpAGYAIABhACAAdwBlAGUAawAgAGQAYQB0AGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjACAAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABDAGEAbABlAG4AZABhAHIAIABGAHUAbgBjAHQAaQBvAG4AcwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABZAEUAQQBSAF8ARABBAFkAXwBDAE8AVQBOAFQAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAbwB1AG4AdAAgAG8AZgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAeQBzACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAAeQBlAGEAcgAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABZAEUAQQBSAF8AVwBFAEUASwBfAEMATwBVAE4AVAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAbwB1AG4AdAAgAG8AZgAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAcwAgAGkAbgAgAGEAIABnAGkAdgBlAG4AIAB5AGUAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAWQBfAE8AUgBEAEkATgBBAEwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG4AdQBtAGIAZQByACAAbwBmACAAYQAgAGQAYQB0AGUAIABpAG4AIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAFIATwBNAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAGYAcgBvAG0AIABhACAAZwBpAHYAZQBuACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAAZABhAHQAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAF8ATgBVAE0AQgBFAFIAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABkAGEAdABlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABUAE8AXwBXAEUARQBLAF8ARABBAFQARQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAGEAbgBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAZgByAG8AbQAgAGEAIABnAGkAdgBlAG4AIABkAGEAdABlAC4AIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAFIATwBNAF8AVwBFAEUASwBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGUAaQB0AGgAZQByACAAYQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAG8AcgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlACAAZgByAG8AbQAgAGEAIABnAGkAdgBlAG4AIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHcAZQBlAGsAIABhAG4AZAAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABQAGEAcgBzAGkAbgBnACAARgB1AG4AYwB0AGkAbwBuAHMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTACAAIAAgACAAIAAgAFQAZQBzAHQAcwAgAGkAZgAgAHQAZQB4AHQAIABjAG8AbgB0AGEAaQBuAHMAIABvAG4AbAB5ACAAYwBoAGEAcgBhAGMAdABlAHIAcwAgAHQAaABhAHQAIABhAHIAZQAgAHYAYQBsAGkAZAAgAGYAbwByACAASQBTAE8AIAA4ADYAMAAxAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABQAEEAUgBTAEUAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHkAZQBhAHIALAAgAG0AbwBuAHQAaAAgAGEAbgBkACAAZABhAHkAIABvAGYAIABhACAAZABhAHQAZQAgAGYAcgBvAG0AIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuACAAIAAgACMAXABuACMAIABQAEEAUgBTAEUAXwBUAEkATQBFACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGgAbwB1AHIALAAgAG0AaQBuAHUAdABlACAAYQBuAGQAIABzAGUAYwBvAG4AZAAgAG8AZgAgAHQAaQBtAGUAIABmAHIAbwBtACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgAgACMAXABuACMAIABQAEEAUgBTAEUAXwBUAEkATQBFAF8AWgBPAE4ARQAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACMAXABuACMAIABQAEEAUgBTAEUAXwBQAEEAUgBUAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAcABsAGkAdABzACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIAB0AGUAeAB0ACAAdgBhAGwAdQBlACAAaQBuAHQAbwAgAGkAbgB0AG8AIAByAGUAcwBwAGUAYwB0AGkAdgBlACAAcABhAHIAdABzACAAbwBmACAAZABhAHQAZQAsACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABQAEEAUgBTAEUAXwBEAEEAVABFAF8AVABJAE0ARQAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABmAHIAbwBtACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAG8AcgBtAGEAdAB0AGkAbgBnACAARgB1AG4AYwB0AGkAbwBuAHMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAFQASQBNAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAdABpAG0AZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAFQASQBNAEUAXwBaAE8ATgBFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAdABpAG0AZQAgAHoAbwBuAGUAIABhAHMAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAFcARQBFAEsAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAdwBlAGUAawAgAGQAYQB0AGUAIABhAHMAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAEQAQQBUAEUAXwBUAEkATQBFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABDAG8AbgB2AGUAcgBzAGkAbwBuACAARgB1AG4AYwB0AGkAbwBuAHMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABJAFMATwBfAFQATwBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEMAbwBuAHYAZQByAHQAcwAgAHQAZQB4AHQAIABpAG4AIABJAFMATwAgAGYAbwByAG0AYQB0ACAAdABvACAAYQBuACAARQB4AGMAZQBsACAAZABhAHQAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAVABFAF8AVABPAF8ASQBTAE8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEMAbwBuAHYAZQByAHQAcwAgAGEAbgAgAEUAeABjAGUAbAAgAGQAYQB0AGUAIAB0AG8AIABJAFMATwAgAGYAbwByAG0AYQB0AHQAZQBkACAAdABlAHgAdAAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAqAC8AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQAgAHkAZQBhAHIAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAEkAUwBPACAAOAA2ADAAMQAuAFwAbgBOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAFIAZQB0AHUAcgBuAHMAIABhACAAYgBvAG8AbABlAGEAbgAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AQQBsAGwAbwB3AEQAZQBjAGkAbQBhAGwAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABBAGwAbABvAHcAIABkAGUAYwBpAG0AYQBsACAAdgBhAGwAdQBlAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAFsAQQBsAGwAbwB3AEQAZQBjAGkAbQBhAGwAXQAsAFwAbgAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAoAE4AKABBAGwAbABvAHcARABlAGMAaQBtAGEAbAApACAAPQAgADAAKQAgACoAIAAoAFkAZQBhAHIAQwBFACAAPAA+ACAASQBOAFQAKABZAGUAYQByAEMARQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAQQBCAFMAKABZAGUAYQByAEMARQApACAAPAAgADEAMAAwADAAMAAwAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQAgAHkAZQBhAHIAIABpAG4AYwBsAHUAZABlAHMAIABhACAAbABlAGEAcAAgAGQAYQB5ACAAaQBuACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGIAbwBvAGwAZQBhAG4ALgBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAG4AbwB0ACAAYQAgAHYAYQBsAGkAZAAgAHkAZQBhAHIALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ATwBEACgAXwB5AGUAYQByAEMARQAsACAANAAwADAAKQAgAD0AIAAwACwAIABUAFIAVQBFACwAIABJAEYAKABNAE8ARAAoAF8AeQBlAGEAcgBDAEUALAAgADEAMAAwACkAIAA9ACAAMAAsACAARgBBAEwAUwBFACwAIABNAE8ARAAoAF8AeQBlAGEAcgBDAEUALAAgADQAKQAgAD0AIAAwACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQBcAG4AXABuAFQAZQBzAHQAcwAgAGkAZgAgAGEAIABkAGEAdABlACAAaQBzACAAdgBhAGwAaQBkACAAZgBvAHIAIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAEkAZgAgAG0AbwBuAHQAaAAgAGEAbgBkACAAZABhAHkAIABtAGkAcwBzAGkAbgBnACwAIABjAG8AbgBzAGkAZABlAHIAZQBkACAAYQAgAHkAZQBhAHIAIABvAG4AbAB5ACAAZABhAHQAZQAuAFwAbgBJAGYAIABvAG4AbAB5ACAAZABhAHkAIABpAHMAIABtAGkAcwBzAGkAbgBnACwAIABjAG8AbgBzAGkAZABlAHIAZQBkACAAYQAgAHkAZQBhAHIAIABhAG4AZAAgAG0AbwBuAHQAaAAgAGQAYQB0AGUALgBcAG4ATwBuAGwAeQAgAHQAaABlACAAbABhAHMAdAAgAHAAcgBvAHYAaQBkAGUAZAAgAGUAbABlAG0AZQBuAHQAIABjAGEAbgAgAGgAYQB2AGUAIABhACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHYAYQBsAHUAZQAuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGIAbwBvAGwAZQBhAG4ALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBNAG8AbgB0AGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByAFwAbgBEAGEAeQAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGEAeQAgAG8AZgAgAG0AbwBuAHQAaABcAG4AWwBBAGwAbABNAGEAbgBkAGEAdABvAHIAeQBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARABpAHMAYQBsAGwAbwB3ACAAcwBoAG8AcgB0ACAAZgBvAHIAbQBzADoAIABZAGUAYQByACwAIABZAGUAYQByACAAYQBuAGQAIABNAG8AbgB0AGgAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAWwBBAGwAbABNAGEAbgBkAGEAdABvAHIAeQBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAF8AZQBsAGUAbQBlAG4AdABzACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBvAG4AdABoACkAKQAgACoAIABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAG8AbgB0AGgAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AZQBsAGUAbQBlAG4AdABzACAAPQAgADAAKQAgACsAIAAoACgATgAoAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5ACkAIAA8AD4AIAAwACkAIAAqACAAKABfAGUAbABlAG0AZQBuAHQAcwAgADwAIAAzACkAKQApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB5AGUAYQByACAAaQBzACAAbQBhAG4AZABhAHQAbwByAHkALAAgAGEAbgBkACAAYQBsAGwAIABlAGwAZQBtAGUAbgB0AHMAIABtAGEAbgBkAGEAdABvAHIAeQAgAGkAZgAgAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5ACAAcwB3AGkAdABjAGgAIABpAHMAIABzAGUAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMwAsACAALwAvACAAeQBlAGEAcgAsACAAbQBvAG4AdABoACAAYQBuAGQAIABkAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBvAG4AdABoACAAPAA+ACAASQBOAFQAKABNAG8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABtAG8AbgB0AGgAIABjAGEAbgBuAG8AdAAgAGIAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAZgBvAHIAIABtAG8AbgB0AGgAIAByAGEAbgBnAGUAIAAxAC4ALgAxADIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABNAG8AbgB0AGgAIAA+AD0AIAAxACkAIAAqACAAKABNAG8AbgB0AGgAIAA8AD0AIAAxADIAKQApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAASQBOAFQAKABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAE0AbwBuAHQAaAAgAD0AIAAyACkALAAgAC8ALwAgAEYAZQBiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBkAGEAeQAgAD4APQAgADEAKQAgACoAIAAoAF8AZABhAHkAIAA8AD0AIAAoADIAOAAgACsAIABOACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACkAKQApACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgATQBvAG4AdABoACAAPAA9ACAANwApACwAIAAvAC8AIABKAGEAbgAsACAATQBhAHIALAAgAEEAcAByACwAIABNAGEAeQAsACAASgB1AG4ALAAgAEoAdQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBkAGEAeQAgAD4APQAgADEAKQAgACoAIAAoAF8AZABhAHkAIAA8AD0AIAAoADMAMAAgACsAIABNAE8ARAAoAE0AbwBuAHQAaAAsACAAMgApACkAKQApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAE0AbwBuAHQAaAAgAD4APQAgADgAKQAsACAALwAvACAAQQB1AGcALAAgAFMAZQBwACwAIABPAGMAdAAsACAATgBvAHYALAAgAEQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AZABhAHkAIAA+AD0AIAAxACkAIAAqACAAKABfAGQAYQB5ACAAPAA9ACAAKAAzADEAIAAtACAATQBPAEQAKABNAG8AbgB0AGgALAAgADIAKQApACkAIAA8AD4AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMgAsACAALwAvACAAeQBlAGEAcgAgAGEAbgBkACAAbQBvAG4AdABoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSACgAWQBlAGEAcgBDAEUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAIABJAE4AVAAoAE0AbwBuAHQAaAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABmAG8AcgAgAG0AbwBuAHQAaAAgAHIAYQBuAGcAZQAgADEALgAuADEAMgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AbQBvAG4AdABoACAAPgA9ACAAMQApACAAKgAgACgAXwBtAG8AbgB0AGgAIAA8AD0AIAAxADIAKQApACAAPAA+ACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQBsAGUAbQBlAG4AdABzACAAPQAgADEALAAgAC8ALwAgAHkAZQBhAHIAIABvAG4AbAB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBfAFYAQQBMAEkARABfAFkARQBBAFIAKABZAGUAYQByAEMARQAsACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQAgAHQAaQBtAGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAAMgA0ACAAaABvAHUAcgAgAHQAaQBtAGUAawBlAGUAcABpAG4AZwAgAHMAeQBzAHQAZQBtAC4AXABuAE8AbgBsAHkAIAB0AGgAZQAgAGwAYQBzAHQAIABwAHIAbwB2AGkAZABlAGQAIABlAGwAZQBtAGUAbgB0ACAAYwBhAG4AIABoAGEAdgBlACAAYQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIAB2AGEAbAB1AGUALgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABiAG8AbwBsAGUAYQBuAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBIAG8AdQByACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAwAC4ALgAyADQAXABuAE0AaQBuAHUAdABlACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgADAALgAuADUAOQAuADkAOQA5AFwAbgBTAGUAYwBvAG4AZAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAwAC4ALgA1ADkALgA5ADkAOQBcAG4AWwBBAGwAbABNAGEAbgBkAGEAdABvAHIAeQBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARABpAHMAYQBsAGwAbwB3ACAAcwBoAG8AcgB0ACAAZgBvAHIAbQBzADoAIABIAG8AdQByACwAIABIAG8AdQByACAAYQBuAGQAIABNAGkAbgB1AHQAZQBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAEgAbwB1AHIALAAgAE0AaQBuAHUAdABlACwAIABTAGUAYwBvAG4AZAAsACAAWwBBAGwAbABNAGEAbgBkAGEAdABvAHIAeQBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAF8AZQBsAGUAbQBlAG4AdABzACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEgAbwB1AHIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAGkAbgB1AHQAZQApACkAIAAqACAASQBTAE4AVQBNAEIARQBSACgAUwBlAGMAbwBuAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAUwBlAGMAbwBuAGQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABTAGUAYwBvAG4AZAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AZQBsAGUAbQBlAG4AdABzACAAPQAgADAAKQAgACsAIAAoACgATgAoAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5ACkAIAA8AD4AIAAwACkAIAAqACAAKABfAGUAbABlAG0AZQBuAHQAcwAgADwAIAAzACkAKQApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABoAG8AdQByACAAaQBzACAAbQBhAG4AZABhAHQAbwByAHkALAAgAGEAbgBkACAAYQBsAGwAIABlAGwAZQBtAGUAbgB0AHMAIABtAGEAbgBkAGEAdABvAHIAeQAgAGkAZgAgAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5ACAAcwB3AGkAdABjAGgAIABpAHMAIABzAGUAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMwAsACAALwAvACAAaABvAHUAcgAsACAAbQBpAG4AdQB0AGUALAAgAHMAZQBjAG8AbgBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkAFgALAAgAFIATwBVAE4ARABEAE8AVwBOACgAUwBlAGMAbwBuAGQAIAAqACAAMQAwADAAMAAwACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABoAG8AdQByACAAaQBzACAAbgBvAHQAIABmAHIAYQBjAHQAaQBvAG4AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAG8AdQByACAAPAA+ACAASQBOAFQAKABIAG8AdQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAaABvAHUAcgAgAGkAbgAgAHIAYQBuAGcAZQAgADAALgAuADIANABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAEgAbwB1AHIAIAA+AD0AIAAwACkAIAAqACAAKABIAG8AdQByACAAPAA9ACAAMgA0ACkAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAG0AaQBuAHUAdABlACAAaQBzACAAbgBvAHQAIABmAHIAYQBjAHQAaQBvAG4AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAGkAbgB1AHQAZQAgADwAPgAgAEkATgBUACgATQBpAG4AdQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABtAGkAbgB1AHQAZQAgAGkAbgAgAHIAYQBuAGcAZQAgADAALgAuADUAOQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAE0AaQBuAHUAdABlACAAPgA9ACAAMAApACAAKgAgACgATQBpAG4AdQB0AGUAIAA8AD0AIAA1ADkAKQApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAegBlAHIAbwAgAG0AaQBuAHUAdABlACAAYQBuAGQAIABzAGUAYwBvAG4AZAAgAGYAbwByACAAMgA0ACAAaABvAHUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAEgAbwB1AHIAIAA9ACAAMgA0ACkAIAAqACAAKAAoAE0AaQBuAHUAdABlACAAPAA+ACAAMAApACAAKwAgACgAXwBzAGUAYwBvAG4AZABYACAAPAA+ACAAMAApACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAcwBlAGMAbwBuAGQAIABpAG4AIAByAGEAbgBnAGUAIAAwAC4ALgA1ADkALgA5ADkAOQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AcwBlAGMAbwBuAGQAWAAgAD4APQAgADAAKQAgACoAIAAoAF8AcwBlAGMAbwBuAGQAWAAgADwAIAA2ADAAMAAwADAAMAApACkAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMgAsACAALwAvACAAaABvAHUAcgAgAGEAbgBkACAAbQBpAG4AdQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAG4AdQB0AGUAWAAsACAAUgBPAFUATgBEAEQATwBXAE4AKABNAGkAbgB1AHQAZQAgACoAIAA2ADAAMAAwADAAMAAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAaABvAHUAcgAgAGkAcwAgAG4AbwB0ACAAZgByAGEAYwB0AGkAbwBuAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABvAHUAcgAgADwAPgAgAEkATgBUACgASABvAHUAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAGgAbwB1AHIAIABpAG4AIAByAGEAbgBnAGUAIAAwAC4ALgAyADQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABIAG8AdQByACAAPgA9ACAAMAApACAAKgAgACgASABvAHUAcgAgADwAPQAgADIANAApACkAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIAB6AGUAcgBvACAAbQBpAG4AdQB0AGUAIABmAG8AcgAgADIANAAgAGgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABIAG8AdQByACAAPQAgADIANAApACAAKgAgACgAXwBtAGkAbgB1AHQAZQBYACAAPAA+ACAAMAApACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAG0AaQBuAHUAdABlACAAaQBuACAAcgBhAG4AZwBlACAAMAAuAC4ANQA5AC4AOQA5ADkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABfAG0AaQBuAHUAdABlAFgAIAA+AD0AIAAwACkAIAAqACAAKABfAG0AaQBuAHUAdABlAFgAIAA8ACAAMwA2ADAAMAAwADAAMAAwACkAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAbABlAG0AZQBuAHQAcwAgAD0AIAAxACwAIAAvAC8AIABoAG8AdQByACAAbwBuAGwAeQAgAHQAaQBtAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgBYACwAIABSAE8AVQBOAEQARABPAFcATgAoAEgAbwB1AHIAIAAqACAAMwA2ADAAMAAwADAAMAAwACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABoAG8AdQByACAAaQBuACAAcgBhAG4AZwBlACAAMAAuAC4AMgA0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AaABvAHUAcgBYACAAPgA9ACAAMAApACAAKgAgACgAXwBoAG8AdQByAFgAIAA8AD0AIAA4ADYANAAwADAAMAAwADAAMAApACkAIAA8AD4AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAXwBaAE8ATgBFAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABpAHMAIABpAG4AIAB2AGEAbABpAGQAIAByAGEAbgBnAGUALgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABiAG8AbwBsAGUAYQBuAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAUgBhAG4AZwBlACAAaQBzACAALQA5ADAAMAAuAC4AKwA5ADAAMAAgAC0APgAgAC0AMQA1ADoAMAAwAC4ALgArADEANQA6ADAAMABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAIAA9ACAATABBAE0AQgBEAEEAKABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACwAXABuACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACkAKQAsACAARgBBAEwAUwBFACwAIAAoACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAgAD4APQAgAC0AOQAwADAAKQAgACoAIAAoAE8AZgBmAHMAZQB0AE0AaQBuAHUAdABlAHMAIAA8AD0AIAA5ADAAMAApACkAIAA8AD4AIAAwACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQBuACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABiAG8AbwBsAGUAYQBuAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBPAHIAZABpAG4AYQBsACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAE8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG8AZgAgAHkAZQBhAHIAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATwByAGQAaQBuAGEAbAApACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsACAALwAvACAATwByAGQAaQBuAGEAbAAgAGkAcwAgAG0AYQBuAGQAYQB0AG8AcgB5AFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwALAAgAEkATgBUACgATwByAGQAaQBuAGEAbAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAYQBwAEQAYQB5ACwAIABOACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAZgBvAHIAIAB2AGEAbABpAGQAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBvAHIAZABpAG4AYQBsACAAPgA9ACAAMQApACAAKgAgACgAXwBvAHIAZABpAG4AYQBsACAAPAA9ACAAKAAzADYANQAgACsAIABfAGwAZQBhAHAARABhAHkAKQApACkAIAA8AD4AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMAXwBWAEEATABJAEQAXwBXAEUARQBLAF8ARABBAFQARQBcAG4AXABuAFQAZQBzAHQAcwAgAGkAZgAgAGEAIAB3AGUAZQBrACAAZABhAHQAZQAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGIAbwBvAGwAZQBhAG4ALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBXAGUAZQBrACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABJAFMATwAgAGQAZQBmAGkAbgBlAGQAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABvAGYAIAB0AGgAZQAgAHkAZQBhAHIAXABuAEQAYQB5AE8AZgBXAGUAZQBrACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAdABoAGUAIAB3AGUAZQBrACAAdwBoAGUAcgBlACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgBcAG4AWwBEAGEAeQBPAGYAVwBlAGUAawBNAGEAbgBkAGEAdABvAHIAeQBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARABhAHkATwBmAFcAZQBlAGsAIABtAHUAcwB0ACAAYgBlACAAcAByAG8AdgBpAGQAZQBkAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMAXwBWAEEATABJAEQAXwBXAEUARQBLAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABXAGUAZQBrACwAIABEAGEAeQBPAGYAVwBlAGUAawAsACAAWwBEAGEAeQBPAGYAVwBlAGUAawBNAGEAbgBkAGEAdABvAHIAeQBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABXAGUAZQBrACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAIAAvAC8AIABZAGUAYQByACAAYQBuAGQAIABXAGUAZQBrACAAbQBhAG4AZABhAHQAbwByAHkAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AbQBtAGkAdABEAG8AVwAsACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQBPAGYAVwBlAGUAawApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABOACgARABhAHkATwBmAFcAZQBlAGsATQBhAG4AZABhAHQAbwByAHkAKQAgADwAPgAgADAAKQAgACoAIABfAG8AbQBtAGkAdABEAG8AVwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsACAALwAvACAARABhAHkATwBmAFcAZQBlAGsATQBhAG4AZABhAHQAbwByAHkAIABzAGUAdAAgAGEAbgBkACAARABhAHkATwBmAFcAZQBlAGsAIABpAHMAIABvAG0AbQBpAHQAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAaQBmACAAdwBlAGUAawAgAGkAbgAgAHIAYQBuAGcAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdwBlAGUAawAsACAASQBOAFQAKABXAGUAZQBrACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwB3AGUAZQBrACAAPgA9ACAAMQApACAAKgAgACgAXwB3AGUAZQBrACAAPAA9ACAAWQBFAEEAUgBfAFcARQBFAEsAXwBDAE8AVQBOAFQAKABZAGUAYQByAEMARQApACkAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AbQBtAGkAdABEAG8AVwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAC8ALwAgAHkAZQBhAHIAIABhAG4AZAAgAHcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABXAGUAZQBrACAAPAA+ACAAXwB3AGUAZQBrACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALAAgAC8ALwAgAHcAZQBlAGsAIABoAGEAcwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIAB2AGEAbAB1AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAaQBmACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAaQBuACAAcgBhAG4AZwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3ACwAIABJAE4AVAAoAEQAYQB5AE8AZgBXAGUAZQBrACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AZABvAHcAIAA+AD0AIAAxACkAIAAqACAAKABfAGQAbwB3ACAAPAA9ACAANwApACkAIAA8AD4AIAAwACAALwAvACAAVABlAHMAdAAgAGYAbwByACAARABhAHkATwBmAFcAZQBlAGsAIAAxAC4ALgA3AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAEUAQQBSAF8ARABBAFkAXwBDAE8AVQBOAFQAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABjAG8AdQBuAHQAIABvAGYAIABvAHIAZABpAG4AYQBsACAAZABhAHkAcwAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAHkAZQBhAHIALgBcAG4ASQBuAHQAZQBnAGUAcgAgAHcAaQB0AGgAIAByAGEAbgBnAGUAIAAzADYANQAuAC4AMwA2ADYAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAGEAIAB2AGEAbABpAGQAIAB5AGUAYQByAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBZAEUAQQBSAF8ARABBAFkAXwBDAE8AVQBOAFQAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsAFwAbgAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACwAIAAxACkAKQAsACAAIwBWAEEATABVAEUAIQAsACAASQBGACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACwAIAAzADYANgAsACAAMwA2ADUAKQApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAEUAQQBSAF8AVwBFAEUASwBfAEMATwBVAE4AVABcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAbwB1AG4AdAAgAG8AZgAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAcwAgAGkAbgAgAGEAIABnAGkAdgBlAG4AIAB5AGUAYQByAC4AXABuAEkAbgB0AGUAZwBlAHIAIAB3AGkAdABoACAAcgBhAG4AZwBlACAANQAyAC4ALgA1ADMAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAGEAIAB2AGEAbABpAGQAIAB5AGUAYQByAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBZAEUAQQBSAF8AVwBFAEUASwBfAEMATwBVAE4AVAAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFkARQBBAFIAKABZAGUAYQByAEMARQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUALAAgAEkATgBUACgAWQBlAGEAcgBDAEUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkALAAgAE0ATwBEACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAgACsAIABJAE4AVAAoAF8AeQBlAGEAcgBDAEUAIAAvACAANAApACAALQAgAEkATgBUACgAXwB5AGUAYQByAEMARQAgAC8AIAAxADAAMAApACAAKwAgAEkATgBUACgAXwB5AGUAYQByAEMARQAgAC8AIAA0ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkAIAA9ACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGkAZgAgAGwAYQBzAHQAIABkAGEAeQAgAG8AZgAgAHkAZQBhAHIAIABpAHMAIABhACAAVABoAHUAcgBzAGQAYQB5ACwAIAB0AGgAZQBuACAAaABhAHMAIABhAG4AIABlAHgAdAByAGEAIAB3AGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAWQBlAGEAcgAsACAAXwB5AGUAYQByAEMARQAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkAUAByAGUAdgAsACAATQBPAEQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AFkAZQBhAHIAIAArACAASQBOAFQAKABfAGwAYQBzAHQAWQBlAGEAcgAgAC8AIAA0ACkAIAAtACAASQBOAFQAKABfAGwAYQBzAHQAWQBlAGEAcgAgAC8AIAAxADAAMAApACAAKwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4AVAAoAF8AbABhAHMAdABZAGUAYQByACAALwAgADQAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkAUAByAGUAdgAgAD0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGkAZgAgAGwAYQBzAHQAIABkAGEAeQAgAG8AZgAgAHAAcgBlAHYAaQBvAHUAcwAgAHkAZQBhAHIAIABpAHMAIABhACAAVwBlAGQAbgBlAHMAZABhAHkALAAgAHQAaABlAG4AIABoAGEAcwAgAGEAbgAgAGUAeAB0AHIAYQAgAHcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABvAHQAaABlAHIAdwBpAHoAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBEAEEAWQBfAE8AUgBEAEkATgBBAEwAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABvAHIAZABpAG4AYQBsACAAZABhAHkAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBJAG4AdABlAGcAZQByACAAdwBpAHQAaAAgAHIAYQBuAGcAZQAgADEALgAuADMANgA2AFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAZABhAHQAZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ATQBvAG4AdABoACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByAFwAbgBEAGEAeQAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAbQBvAG4AdABoAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEEAWQBfAE8AUgBEAEkATgBBAEwAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAAewAwACwAIAAzADEALAAgADUAOQAsACAAOQAwACwAIAAxADIAMAAsACAAMQA1ADEALAAgADEAOAAxACwAIAAyADEAMgAsACAAMgA0ADMALAAgADIANwAzACwAIAAzADAANAAsACAAMwAzADQAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAASQBOAFQAKABNAG8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAGEAeQAgACsAIABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAALAAgAF8AbQBvAG4AdABoACkAIAArACAASQBGACgAXwBtAG8AbgB0AGgAIAA8AD0AIAAyACwAIAAwACwAIABOACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAZgByAG8AbQAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIAB2AGEAbABpAGQAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuAFwAbgBcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABZAGUAYQByACAAQwBFACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAgACAAMgAgAHwAIABNAG8AbgB0AGgAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4AMQAyAFwAbgAgACAAMwAgAHwAIABEAGEAeQAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMQAuAC4AMwAxAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBPAHIAZABpAG4AYQBsACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAATwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATwByAGQAaQBuAGEAbAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAEYAaQByAHMAdABPAHIAZABpAG4AYQBsACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7ADEALAAgADMAMgAsACAANgAxACwAIAA5ADIALAAgADEAMgAyACwAIAAxADUAMwAsACAAMQA4ADMALAAgADIAMQA0ACwAIAAyADQANQAsACAAMgA3ADUALAAgADMAMAA2ACwAIAAzADMANgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewAxACwAIAAzADIALAAgADYAMAAsACAAOQAxACwAIAAxADIAMQAsACAAMQA1ADIALAAgADEAOAAyACwAIAAyADEAMwAsACAAMgA0ADQALAAgADIANwA0ACwAIAAzADAANQAsACAAMwAzADUAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwALAAgAEkATgBUACgATwByAGQAaQBuAGEAbAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAIABYAE0AQQBUAEMASAAoAF8AbwByAGQAaQBuAGEAbAAsACAAXwBtAG8AbgB0AGgARgBpAHIAcwB0AE8AcgBkAGkAbgBhAGwALAAgAC0AMQAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAGYAZgBzAGUAdAAsACAASQBOAEQARQBYACgAXwBtAG8AbgB0AGgARgBpAHIAcwB0AE8AcgBkAGkAbgBhAGwALAAgAF8AbQBvAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAATwByAGQAaQBuAGEAbAAgAC0AIABfAG8AZgBmAHMAZQB0ACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABZAGUAYQByAEMARQAsACAAXwBtAG8AbgB0AGgALAAgAF8AZABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABBAFkAXwBPAEYAXwBXAEUARQBLAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABkAGEAdABlAC4AXABuACAAIAAxACAALQAgAE0AbwBuAGQAYQB5AFwAbgAgACAAMgAgAC0AIABUAHUAZQBzAGQAYQB5AFwAbgAgACAAMwAgAC0AIABXAGUAZABuAGUAcwBkAGEAeQBcAG4AIAAgADQAIAAtACAAVABoAHUAcgBkAGEAeQBcAG4AIAAgADUAIAAtACAARgByAGkAZABhAHkAXABuACAAIAA2ACAALQAgAFMAYQB0AHUAcgBkAGEAeQBcAG4AIAAgADcAIAAtACAAUwB1AG4AZABhAHkAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAGEAIAB2AGEAbABpAGQAIABkAGEAdABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBNAG8AbgB0AGgAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgAG8AZgAgAHkAZQBhAHIAXABuAEQAYQB5ACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAARABhAHkAIABvAGYAIABtAG8AbgB0AGgAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFUAcwBpAG4AZwAgAFoAZQBsAGwAZQByACAAQwBvAG4AZwByAHUAZQBuAGMAZQAsACAAYwBmAC4AIABoAHQAdABwAHMAOgAvAC8AZQBuAC4AdwBpAGsAaQBwAGUAZABpAGEALgBvAHIAZwAvAHcAaQBrAGkALwBaAGUAbABsAGUAcgAlADIANwBzAF8AYwBvAG4AZwByAHUAZQBuAGMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAE0AYQBwACAAbQBvAG4AdABoAHMAIABNAGEAcgAuAC4ARgBlAGIAIAAtAD4AIAAzAC4ALgAxADQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AegBlAGwAbABlAHIATQBvAG4AdABoACwAIABNAE8ARAAoAEkATgBUACgATQBvAG4AdABoACkAIAAtACAAMwAsACAAMQAyACkAIAArACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAASgBhAG4ALAAgAEYAZQBiACAAYwBvAG4AcwBpAGQAZQByAGUAZAAgAGIAZQBsAG8AbgBnAGkAbgBnACAAdABvACAAcAByAGUAdgBpAG8AdQBzACAAeQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB6AGUAbABsAGUAcgBZAGUAYQByACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkAIAAtACAASQBOAFQAKABfAHoAZQBsAGwAZQByAE0AbwBuAHQAaAAgAC8AIAAxADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIATwBmAEMAZQBuAHQALAAgAE0ATwBEACgAXwB6AGUAbABsAGUAcgBZAGUAYQByACwAIAAxADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AegBlAHIAbwBCAGEAcwBlAGQAQwBlAG4AdAAsACAASQBOAFQAKABfAHoAZQBsAGwAZQByAFkAZQBhAHIAIAAvACAAMQAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAWgBlAGwAbABlAHIAIABDAG8AbgBnAHIAdQBlAG4AYwBlACAAZgBvAHIAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAcgBlAHQAdQByAG4AcwAgAHcAZQBlAGsAZABhAHkAcwAgADAALgAuADYAIAAtAD4AIABTAGEAdAAuAC4ARgByAGkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AegBlAGwAbABlAHIAVwBlAGUAawBEAGEAeQAsACAATQBPAEQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4AVAAoAEQAYQB5ACkAIAArACAASQBOAFQAKAAxADMAIAAqACAAKABfAHoAZQBsAGwAZQByAE0AbwBuAHQAaAAgACsAIAAxACkAIAAvACAANQApACAAKwAgAF8AeQBlAGEAcgBPAGYAQwBlAG4AdAAgACsAIABJAE4AVAAoAF8AeQBlAGEAcgBPAGYAQwBlAG4AdAAgAC8AIAA0ACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAFQAKABfAHoAZQByAG8AQgBhAHMAZQBkAEMAZQBuAHQAIAAvACAANAApACAALQAgADIAIAAqACAAXwB6AGUAcgBvAEIAYQBzAGUAZABDAGUAbgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAVAByAGEAbgBzAGwAYQB0AGUAIAB0AG8AIABJAFMATwAgAG4AdQBtAGIAZQByAGkAbgBnACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBPAEQAKABfAHoAZQBsAGwAZQByAFcAZQBlAGsARABhAHkAIAArACAANQAsACAANwApACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAQQBZAF8ATwBGAF8AVwBFAEUASwBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuAFwAbgAgACAAMQAgAC0AIABNAG8AbgBkAGEAeQBcAG4AIAAgADIAIAAtACAAVAB1AGUAcwBkAGEAeQBcAG4AIAAgADMAIAAtACAAVwBlAGQAbgBlAHMAZABhAHkAXABuACAAIAA0ACAALQAgAFQAaAB1AHIAZABhAHkAXABuACAAIAA1ACAALQAgAEYAcgBpAGQAYQB5AFwAbgAgACAANgAgAC0AIABTAGEAdAB1AHIAZABhAHkAXABuACAAIAA3ACAALQAgAFMAdQBuAGQAYQB5AFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAZABhAHQAZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBPAHIAZABpAG4AYQBsACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAATwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABBAFkAXwBPAEYAXwBXAEUARQBLAF8ARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATwByAGQAaQBuAGEAbAAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQARABhAHkATwBmAFkAZQBhAHIALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAoAFkAZQBhAHIAQwBFACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFQAcgBhAG4AcwBsAGEAdABlACAAdABvACAASQBTAE8AIABuAHUAbQBiAGUAcgBpAG4AZwAgADEALgAuADcAIAAtAD4AIABNAG8AbgAuAC4AUwB1AG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ATwBEACgAXwBmAGkAcgBzAHQARABhAHkATwBmAFkAZQBhAHIAIAArACAASQBOAFQAKABPAHIAZABpAG4AYQBsACkAIAAtACAAMgAsACAANwApACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFcARQBFAEsAXwBOAFUATQBCAEUAUgBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABkAGEAdABlAC4AXABuAEkAbgB0AGUAZwBlAHIAIAB3AGkAdABoACAAcgBhAG4AZwBlACAAMQAuAC4ANQAzAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAZABhAHQAZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ATQBvAG4AdABoACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByAFwAbgBEAGEAeQAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAbQBvAG4AdABoAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwALAAgAEQAQQBZAF8ATwBSAEQASQBOAEEATAAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBPAGYAVwBlAGUAawAsACAARABBAFkAXwBPAEYAXwBXAEUARQBLACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAsACAASQBOAFQAKAAoAEkATgBUACgAXwBvAHIAZABpAG4AYQBsACkAIAAtACAAXwBkAGEAeQBPAGYAVwBlAGUAawAgACsAIAAxADAAKQAgAC8AIAA3ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbABhAHMAdAAgAHcAZQBlAGsAIABvAGYAIABwAHIAZQB2AGkAbwB1AHMAIAB5AGUAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFkARQBBAFIAXwBXAEUARQBLAF8AQwBPAFUATgBUACgAWQBlAGEAcgBDAEUAIAAtACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAG8AbQBpAG4AYQBsAFcAZQBlAGsAIAA9ACAANQAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAaQBmACAAdABoAGkAcwAgAHkAZQBhAHIAIABkAG8AZQBzACAAbgBvAHQAIABoAGEAdgBlACAANQAzACAAdwBlAGUAawBzACwAIAB0AGgAZQBuACAAaQBzACAAdABoAGUAIABmAGkAcgBzAHQAIAB3AGUAZQBrACAAbwBmACAAZgBvAGwAbABvAHcAaQBuAGcAIAB5AGUAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFkARQBBAFIAXwBXAEUARQBLAF8AQwBPAFUATgBUACgAWQBlAGEAcgBDAEUAKQAgAD0AIAA1ADMALAAgADUAMwAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBvAG0AaQBuAGEAbABXAGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATABcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuAFwAbgBJAG4AdABlAGcAZQByACAAdwBpAHQAaAAgAHIAYQBuAGcAZQAgADEALgAuADUAMwBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAG4AbwB0ACAAYQAgAHYAYQBsAGkAZAAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAE8AcgBkAGkAbgBhAGwAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABPAHIAZABpAG4AYQBsACAAZABhAHkAIABvAGYAIAB5AGUAYQByAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AE8AZgBXAGUAZQBrACwAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAG8AbQBpAG4AYQBsAFcAZQBlAGsALAAgAEkATgBUACgAKABJAE4AVAAoAE8AcgBkAGkAbgBhAGwAKQAgAC0AIABfAGQAYQB5AE8AZgBXAGUAZQBrACAAKwAgADEAMAApACAALwAgADcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBvAG0AaQBuAGEAbABXAGUAZQBrACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABsAGEAcwB0ACAAdwBlAGUAawAgAG8AZgAgAHAAcgBlAHYAaQBvAHUAcwAgAHkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWQBFAEEAUgBfAFcARQBFAEsAXwBDAE8AVQBOAFQAKABZAGUAYQByAEMARQAgAC0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAgAD0AIAA1ADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAGYAIAB0AGgAaQBzACAAeQBlAGEAcgAgAGQAbwBlAHMAIABuAG8AdAAgAGgAYQB2AGUAIAA1ADMAIAB3AGUAZQBrAHMALAAgAHQAaABlAG4AIABpAHMAIAAxAHMAdAAgAHcAZQBlAGsAIABvAGYAIABmAG8AbABsAG8AdwBpAG4AZwAgAHkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAWQBFAEEAUgBfAFcARQBFAEsAXwBDAE8AVQBOAFQAKABZAGUAYQByAEMARQApACAAPQAgADUAMwAsACAANQAzACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAG8AbQBpAG4AYQBsAFcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQATwBfAFcARQBFAEsAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAYQBuAGQAIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAGQAYQB0AGUALgAgAFQAaABlACAAcAByAG8AdgBpAGQAZQBkACAAZABhAHQAZQAgAGMAYQBuACAAaQBtAHAAbABpAGMAaQB0AGwAeQBcAG4AYgBlACAAZQBpAHQAaABlAHIAIABhACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAG8AcgAgAG8AcgBkAGkAbgBpAG4AYQBsACAAZABhAHQAZQAuAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAZABhAHQAZQAuAFwAbgBcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABZAGUAYQByACAAQwBFACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuACAAIAAyACAAfAAgAFcAZQBlAGsAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEALgAuADUAMwBcAG4AIAAgADMAIAB8ACAARABhAHkAIABvAGYAIAB3AGUAZQBrACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMQAuAC4ANwAgAE0AbwBuAC4ALgBzAHUAbgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ATQBvAG4AdABoACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgAG8AZgAgAHQAaABlACAAeQBlAGEAcgAuACAASQBmACAAbwBtAG0AaQB0AHQAZQBkACwAIABkAGEAeQAgAGkAcwAgAGEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABvAHIAZABpAG4AYQBsAC4AXABuAEQAYQB5ACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGEAeQAgAG8AZgAgAHQAaABlACAAbQBvAG4AdABoACAAdwBoAGUAbgAgAG0AbwBuAHQAaAAgAHAAcgBvAHYAaQBkAGUAZAAsACAAbwB0AGgAZQByAHcAaQBzAGUAIABvAHIAZABpAG4AYQBsACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHkAZQBhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AVABPAF8AVwBFAEUASwBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAASQBTAE4AVQBNAEIARQBSACgATQBvAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAGEAcgBlACAAYQAgAGQAYQB0AGUAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAcgBhAGMARABhAHkALAAgAEQAYQB5ACAALQAgAEkATgBUACgARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHcALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHcAZQBlAGsALAAgAFcARQBFAEsAXwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKAAoAF8AdwBlAGUAawAgAD0AIAAxACkAIAAqACAAKABNAG8AbgB0AGgAIAA9ACAAMQAyACkALAAgADEALAAgACgAXwB3AGUAZQBrACAAPgA9ACAANQAyACkAIAAqACAAKABNAG8AbgB0AGgAIAA9ACAAMQApACwAIAAtADEALAAgAFQAUgBVAEUALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwB5AGUAYQByAEMARQAsACAAXwB3AGUAZQBrACwAIABfAGQAbwB3ACAAKwAgAF8AZgByAGEAYwBEAGEAeQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABwAGEAcgBhAG0AZQB0AGUAcgBzACAAYQByAGUAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAEQAYQB5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAHIAYQBjAEQAYQB5ACwAIABEAGEAeQAgAC0AIABJAE4AVAAoAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3ACwAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAoAFkAZQBhAHIAQwBFACwAIABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrACwAIABXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAoAFkAZQBhAHIAQwBFACwAIABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACAAKwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAKABfAHcAZQBlAGsAIAA9ACAAMQApACAAKgAgACgATQBvAG4AdABoACAAPQAgADEAMgApACwAIAAxACwAIAAoAF8AdwBlAGUAawAgAD4APQAgADUAMgApACAAKgAgACgATQBvAG4AdABoACAAPQAgADEAKQAsACAALQAxACwAIABUAFIAVQBFACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AeQBlAGEAcgBDAEUALAAgAF8AdwBlAGUAawAsACAAXwBkAG8AdwAgACsAIABfAGYAcgBhAGMARABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBSAE8ATQBfAFcARQBFAEsAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZQBpAHQAaABlAHIAIABhACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAbwByACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAHcAZQBlAGsAIABhAG4AZAAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAG4AbwB0ACAAYQAgAHYAYQBsAGkAZAAgAHcAZQBlAGsAIABkAGEAdABlAC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuAFIAZQB0AHUAcgBuAE8AcgBkAGkAbgBhAGwAIAA9ACAARgBBAEwAUwBFAFwAbgAgACAAMQAgAHwAIABZAGUAYQByACAAQwBFACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAgACAAMgAgAHwAIABNAG8AbgB0AGgAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4AMQAyAFwAbgAgACAAMwAgAHwAIABEAGEAeQAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMQAuAC4AMwAxAFwAbgBSAGUAdAB1AHIAbgBPAHIAZABpAG4AYQBsACAAPQAgAFQAUgBVAEUAXABuACAAIAAxACAAfAAgAFkAZQBhAHIAIABDAEUAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuACAAIAAyACAAfAAgAE8AcgBkAGkAbgBhAGwAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAxAC4ALgAzADYANgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAFcAZQBlAGsAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIAB5AGUAYQByAFwAbgBEAGEAeQBPAGYAVwBlAGUAawAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAdABoAGUAIAB3AGUAZQBrACAAdwBoAGUAcgBlACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgAgAFwAbgBbAFIAZQB0AHUAcgBuAE8AcgBkAGkAbgBhAGwAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFIAZQB0AHUAcgBuACAAcgBlAHMAdQBsAHQAIABhAHMAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBSAE8ATQBfAFcARQBFAEsAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAFcAZQBlAGsALAAgAEQAYQB5AE8AZgBXAGUAZQBrACwAIABbAFIAZQB0AHUAcgBuAE8AcgBkAGkAbgBhAGwAXQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBXAEUARQBLAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABXAGUAZQBrACwAIABEAGEAeQBPAGYAVwBlAGUAawAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBDAG8AcgByAGUAYwB0AGkAbwBuACwAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAKABZAGUAYQByAEMARQAsACAAMQAsACAANAApACAAKwAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHIAZABpAG4AYQBsAEQAYQB5ACwAIABJAE4AVAAoAFcAZQBlAGsAKQAgACoAIAA3ACAAKwAgAEQAYQB5AE8AZgBXAGUAZQBrACAALQAgAF8AeQBDAG8AcgByAGUAYwB0AGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQATwByAGQAaQBuAGEAbAAsACAASQBOAFQAKABfAG8AcgBkAGkAbgBhAGwARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQATwByAGQAaQBuAGEAbAAgADwAIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAdgBZAGUAYQByACwAIABZAGUAYQByAEMARQAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAHYAWQBlAGEAcgBEAGEAeQBDAG8AdQBuAHQALAAgAFkARQBBAFIAXwBEAEEAWQBfAEMATwBVAE4AVAAoAF8AcAByAGUAdgBZAGUAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBkAGoAdQBzAHQAZQBkAE8AcgBkAGkAbgBhAGwARABhAHkALAAgAF8AcAByAGUAdgBZAGUAYQByAEQAYQB5AEMAbwB1AG4AdAAgACsAIABfAG8AcgBkAGkAbgBhAGwARABhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgAUgBlAHQAdQByAG4ATwByAGQAaQBuAGEAbAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AcAByAGUAdgBZAGUAYQByACwAIABfAGEAZABqAHUAcwB0AGUAZABPAHIAZABpAG4AYQBsAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAXwBwAHIAZQB2AFkAZQBhAHIALAAgAF8AYQBkAGoAdQBzAHQAZQBkAE8AcgBkAGkAbgBhAGwARABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQATwByAGQAaQBuAGEAbAAgADwAPQAgADMANgA1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgAUgBlAHQAdQByAG4ATwByAGQAaQBuAGEAbAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABZAGUAYQByAEMARQAsACAAXwBvAHIAZABpAG4AYQBsAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABfAG8AcgBkAGkAbgBhAGwARABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaABpAHMAWQBlAGEAcgBEAGEAeQBDAG8AdQBuAHQALAAgAFkARQBBAFIAXwBEAEEAWQBfAEMATwBVAE4AVAAoAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAbgB0AE8AcgBkAGkAbgBhAGwAIAA+ACAAXwB0AGgAaQBzAFkAZQBhAHIARABhAHkAQwBvAHUAbgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFkAZQBhAHIALAAgAFkAZQBhAHIAQwBFACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGEAZABqAHUAcwB0AGUAZABPAHIAZABpAG4AYQBsAEQAYQB5ACwAIABfAG8AcgBkAGkAbgBhAGwARABhAHkAIAAtACAAXwB0AGgAaQBzAFkAZQBhAHIARABhAHkAQwBvAHUAbgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgAUgBlAHQAdQByAG4ATwByAGQAaQBuAGEAbAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAG4AZQB4AHQAWQBlAGEAcgAsACAAXwBhAGQAagB1AHMAdABlAGQATwByAGQAaQBuAGEAbABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAFIATwBNAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAKABfAG4AZQB4AHQAWQBlAGEAcgAsACAAXwBhAGQAagB1AHMAdABlAGQATwByAGQAaQBuAGEAbABEAGEAeQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGwAYQBzAHQAIABkAGEAeQAgAG8AZgAgAGEAIABsAGUAYQBwACAAeQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAFIAZQB0AHUAcgBuAE8AcgBkAGkAbgBhAGwAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFkAZQBhAHIAQwBFACwAIABfAG8AcgBkAGkAbgBhAGwARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABfAG8AcgBkAGkAbgBhAGwARABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVgBBAEwASQBEAEEAVABFAF8AQwBIAEEAUgBBAEMAVABFAFIAUwBcAG4AXABuAFQAZQBzAHQAcwAgAGkAZgAgAHQAZQB4AHQAIABjAG8AbgB0AGEAaQBuAHMAIABvAG4AbAB5ACAAYwBoAGEAcgBhAGMAdABlAHIAcwAgAHQAaABhAHQAIABhAHIAZQAgAHYAYQBsAGkAZAAgAGYAbwByACAASQBTAE8AIAA4ADYAMAAxAC4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAYgBvAG8AbABlAGEAbgAuACAAQQBuACAAZQBtAHAAdAB5ACAAcwB0AHIAaQBuAGcAIAByAGUAdAB1AHIAbgBzACAAbgB1AGwAbAAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVABlAHgAdAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8ACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIAB0AGUAeAB0AC4AXABuAFsAUwB1AGIAcwBlAHQAXQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFMAdQBiAHMAZQB0ACAAZgBvAHIAbQBhAHQAIAB0AG8AIABtAGEAdABjAGgAXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAegBvAG4AZQAgACAAKwAsAC0ALgAwADEAMgAzADQANQA2ADcAOAA5ADoAVABXAFoAEiIgACgAZABlAGYAYQB1AGwAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABkAGEAdABlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACsALQAwADEAMgAzADQANQA2ADcAOAA5AFcAEiJcAG4AIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADIAIAAtACAAdABpAG0AZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAsAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AFQAXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAzACAALQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAtADAAMQAyADMANAA1ADYANwA4ADkAOgBaABIiXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA0ACAALQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAsAC0ALgAwADEAMgAzADQANQA2ADcAOAA5ADoAVABXABIiXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA1ACAALQAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAIAAgACAAIAAgACAAKwAsAC0ALgAwADEAMgAzADQANQA2ADcAOAA5ADoAVABaABIiXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA2ACAALQAgAGQAdQByAGEAdABpAG8AbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALAAtAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUwBUAFcAWQBcAG4AIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADcAIAAtACAAaQBuAHQAZQByAHYAYQBsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAArACwALQAuAC8AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUwBUAFcAWQBaABIiXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA4ACAALQAgAGYAdQBsAGwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAsAC0ALgAvADAAMQAyADMANAA1ADYANwA4ADkAOgBEAEgATQBQAFIAUwBUAFcAWQBaABIiXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFYAQQBMAEkARABBAFQARQBfAEMASABBAFIAQQBDAFQARQBSAFMAIAA9ACAATABBAE0AQgBEAEEAKABUAGUAeAB0ACwAIABbAFMAdQBiAHMAZQB0AF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAsACAASQBOAFQAKABOACgAUwB1AGIAcwBlAHQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgBTAGUAdAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACAAPAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBUAFcAWgBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBkAHgAIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGQAYQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsALQAwADEAMgAzADQANQA2ADcAOAA5AFcAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGkAbQBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgAsAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AFQAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAgAD0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABpAG0AZQAgAHoAbwBuAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsALQAwADEAMgAzADQANQA2ADcAOAA5ADoAWgBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBkAHgAIAA9ACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsALAAtAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AFQAVwBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBkAHgAIAA9ACAANQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBUAFoAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACAAPQAgADYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABkAHUAcgBhAHQAaQBvAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBEAEgATQBQAFMAVABXAFkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAgAD0AIAA3ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAaQBuAHQAZQByAHYAYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArACwALQAuAC8AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUwBUAFcAWQBaAFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAgAD4APQAgADgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABmAHUAbABsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArACwALQAuAC8AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUgBTAFQAVwBZAFoAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHMAYwBhAHAAZQBUAGUAeAB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAUwBVAEIAUwBUAEkAVABVAFQARQAoAFQAZQB4AHQALAAgAFwAIgAmAFwAIgAsACAAXAAiACYAYQBtAHAAOwBcACIAKQAsACAAXAAiADwAXAAiACwAIABcACIAJgBsAHQAOwBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHgAbQBsACwAIABcACIAPAB0AD4APABzAD4AXAAiACAAJgAgAF8AZQBzAGMAYQBwAGUAVABlAHgAdAAgACYAIABcACIAPAAvAHMAPgA8AC8AdAA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHgAcABhAHQAaAAsACAAXAAiAC8ALwBzAFsAdAByAGEAbgBzAGwAYQB0AGUAKAAuACwAJwBcACIAIAAmACAAXwBjAGgAYQByAFMAZQB0ACAAJgAgAFwAIgAnACwAJwAnACkAPQAnACcAXQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMARQBSAFIATwBSACgARgBJAEwAVABFAFIAWABNAEwAKABfAHgAbQBsACwAIABfAHgAcABhAHQAaAApACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8ARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHkAZQBhAHIALAAgAG0AbwBuAHQAaAAgAGEAbgBkACAAZABhAHkAIABvAGYAIABhACAAZABhAHQAZQAgAGYAcgBvAG0AIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuAFwAbgBOAG8AdABlACAAWQBZAFkAWQBNAE0AIABpAHMAIABpAG4AdgBhAGwAaQBkACwAIABkAHUAZQAgAHQAbwAgAGMAbwBsAGwAaQBzAGkAbwBuACAAdwBpAHQAaAAgAHQAcgB1AG4AYwBhAHQAZQBkACAAZgBvAHIAbQBhAHQAIABZAFkATQBNAEQARAAgAGkAbgAgAGUAYQByAGwAaQBlAHIAIAB2AGUAcgBzAGkAbwBuAHMAIABvAGYAIABJAFMATwAgADgANgAwADEALgBcAG4AXABuAEMAbwBsAHUAbQBuAHMAOgBcAG4AIAAgADEAIAB8ACAASQBTAE8AQwBvAG0AcABsAGkAYQBuAHQAIAB8ACAAYgBvAG8AbABlAGEAbgAgAHwAIABGAGwAYQBnACAAaQBmACAAYwBvAG0AcABsAGkAYQBuAHQAIAB0AG8AIABJAFMATwAgADgANgAwADEAIABzAHQAYQBuAGQAYQByAGQAXABuACAAIAAyACAAfAAgAFAAcgBlAGMAaQBzAGkAbwBuACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMAAgAC0AIABpAG4AdgBhAGwAaQBkACAAdgBhAGwAdQBlAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADEAIAAtACAAeQBlAGEAcgBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAyACAALQAgAG0AbwBuAHQAaAAvAHcAZQBlAGsAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMwAgAC0AIABkAGEAeQBcAG4AIAAgADMAIAB8ACAARgBvAHIAbQBhAHQAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAxACAALQAgAGIAYQBzAGkAYwBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAyACAALQAgAGUAeAB0AGUAbgBkAGUAZABcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAANAAgAHwAIABEAGEAdABlAFQAeQBwAGUAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEAIAAtACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAyACAALQAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADMAIAAtACAAdwBlAGUAawAgAGQAYQB0AGUAXABuACAAIAA1ACAAfAAgAFkAZQBhAHIAIABDAEUAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAgACAANgAgAHwAIABEAGEAdABlAEEAcgBnADEAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgADEALgAuADEAMgAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABFAG0AcAB0AHkAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADIAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAVwBlAGUAawAgADEALgAuADUAMwAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMwBcAG4AIAAgADcAIAB8ACAARABhAHQAZQBBAHIAZwAyACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABEAGEAeQAgADEALgAuADMAMQAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABPAHIAZABpAG4AYQBsACAAMQAuAC4AMwA2ADYAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADIAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAARABhAHkAIABvAGYAIABXAGUAZQBrACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMwBcAG4AIAAgACAAIAAgACAAIAAgAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBUAGUAeAB0ACAAIAAgACAAIAAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAB8ACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIABkAGEAdABlAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIABFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgACsAWQBZAFkAWQBZAC0ATQBNAC0ARABEACwAIAAtAFkAWQBZAFkALQBNAE0ALQBEAEQALAAgAFkAWQBZAFkALQBNAE0ALQBEAEQALAAgAFkAWQBZAFkALQBNAE0ALAAgAFkAWQBZAFkATQBNAEQARAAsACAAWQBZAFkAWQBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AUABBAFIAUwBFAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFQAZQB4AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAGwAdQBtAG4AcwA6ACAASABhAHMAaAAsACAAUAByAGUAYwBpAHMAaQBvAG4ALAAgAEYAbwByAG0AYQB0ACwAIABEAGEAdABlAFQAeQBwAGUALAAgAFkAZQBhAHIATABlAG4ALAAgAEQAYQB0AGUAQQByAGcAMQBQAG8AcwAsACAARABhAHQAZQBBAHIAZwAxAEwAZQBuACwAIABEAGEAdABlAEEAcgBnADIATABlAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAB3AGgAZQByAGUAIABIAGEAcwBoACAAPQAgACgATABFAE4AIAAqACAANAAwADkANgApACAAKwAgACgASAB5AHAAaABlAG4AUABvAHMAIAAqACAAMgA1ADYAKQAgACsAIAAoAEgAeQBwAGgAZQBuADIAUABvAHMAIAAqACAAMQA2ACkAIAArACAAVwBQAG8AcwAgAFwAbgAgACAAIAAgACAAIAAgACAAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAewBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA2ADMAOAA0ACwAIAAxACwAIAAzACwAIAAxACwAIAA0ACwAIAAwACwAIAAwACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAMAA0ADgAMAAsACAAMQAsACAAMwAsACAAMQAsACAANQAsACAAMAAsACAAMAAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyADgANgA3ADIALAAgADMALAAgADEALAAgADIALAAgADQALAAgADAALAAgADAALAAgADMAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgA4ADYANwA3ACwAIAAyACwAIAAxACwAIAAzACwAIAA0ACwAIAA2ACwAIAAyACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAOQA5ADUAMgAsACAAMgAsACAAMgAsACAAMQAsACAANAAsACAANgAsACAAMgAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADIANwA2ADgALAAgADMALAAgADEALAAgADEALAAgADQALAAgADUALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAyADcANwAzACwAIAAzACwAIAAxACwAIAAzACwAIAA0ACwAIAA2ACwAIAAyACwAIAAxADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAMgA3ADcANAAsACAAMgAsACAAMQAsACAAMwAsACAANQAsACAANwAsACAAMgAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADQAMAA0ADgALAAgADMALAAgADIALAAgADIALAAgADQALAAgADAALAAgADAALAAgADMAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwA0ADAANQA0ACwAIAAyACwAIAAyACwAIAAzACwAIAA0ACwAIAA3ACwAIAAyACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMANAAzADAANAAsACAAMgAsACAAMgAsACAAMQAsACAANQAsACAANwAsACAAMgAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADYAOAA2ADQALAAgADMALAAgADEALAAgADEALAAgADUALAAgADYALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwA2ADgANwAwACwAIAAzACwAIAAxACwAIAAzACwAIAA1ACwAIAA3ACwAIAAyACwAIAAxADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAOAA0ADAAMAAsACAAMwAsACAAMgAsACAAMgAsACAANQAsACAAMAAsACAAMAAsACAAMwA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADgANAAwADcALAAgADIALAAgADIALAAgADMALAAgADUALAAgADgALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAAyADMANgA4ACwAIAAzACwAIAAyACwAIAAxACwAIAA0ACwAIAA2ACwAIAAyACwAIAAyADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQAMgAzADkAMAAsACAAMwAsACAAMgAsACAAMwAsACAANAAsACAANwAsACAAMgAsACAAMQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAA0ADYANwAzADYALAAgADMALAAgADIALAAgADEALAAgADUALAAgADcALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAA2ADcANQA5ACwAIAAzACwAIAAyACwAIAAzACwAIAA1ACwAIAA4ACwAIAAyACwAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACwAIABMAEEATQBCAEQAQQAoAF8AZQB4AGMAZQBwAHQAaQBvAG4ALAAgAFsAXwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAIABbAF8AZQB4AHQAZQBuAGQAZQBkAF0ALAAgAFsAXwBkAGEAdABlAFQAeQBwAGUAXQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAGUAeABjAGUAcAB0AGkAbwBuACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAIABuAHUAbABsACAAIABFAG0AcAB0AHkAIAB0AGUAeAB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABOAC8AQQAgACAAIABVAG4AYQBiAGwAZQAgAHQAbwAgAHAAYQByAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAVgBBAEwAVQBFACAASQBuAHYAYQBsAGkAZAAgAHYAYQBsAHUAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABQAHIAZQBjAGkAcwBpAG8AbgAgAG8AZgAgAHAAYQByAHMAZQBkACAAdgBhAGwAdQBlAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AZQB4AHQAZQBuAGQAZQBkACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFAAYQByAHMAZQBkACAAZQB4AHQAZQBuAGQAZQBkACAAZgBvAHIAbQBhAHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AZABhAHQAZQBUAHkAcABlACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEMAYQBsAGUAbgBkAGEAcgAgAGQAYQB0AGUALAAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlACwAIABvAHIAIAB3AGUAZQBrACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsARgBBAEwAUwBFACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBWAEEATABVAEUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAEYAQQBMAFMARQAsACAAMAAsACAATgAoAF8AZQB4AHQAZQBuAGQAZQBkACkALAAgAE4AKABfAGQAYQB0AGUAVAB5AHAAZQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgARgBBAEwAUwBFACwAIAAwACwAIABOACgAXwBlAHgAdABlAG4AZABlAGQAKQAsACAATgAoAF8AZABhAHQAZQBUAHkAcABlACkALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAXAAiAFwAIgB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAALwAvAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAEYAQQBMAFMARQAsACAAMAAsACAATgAoAF8AZQB4AHQAZQBuAGQAZQBkACkALAAgAE4AKABfAGQAYQB0AGUAVAB5AHAAZQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgAVgBBAEwASQBEAEEAVABFAF8AQwBIAEEAUgBBAEMAVABFAFIAUwAoAFQAZQB4AHQALAAgADEAKQApACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIATgAvAEEAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBTAGkAZwBuACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUARgBUACgAVABlAHgAdAAsACAAMQApACAAPQAgAFwAIgArAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBGAFQAKABUAGUAeAB0ACwAIAAxACkAIAA9ACAAXAAiAC0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVQBOAEkAQwBPAEQARQAoAEwARQBGAFQAKABUAGUAeAB0ACwAIAAxACkAKQAgAD0AIAA4ADcAMgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAUwBpAGcAbgAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAEYAVAAoAFQAZQB4AHQALAAgADEAKQAgAD0AIABcACIALQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFUATgBJAEMATwBEAEUAKABMAEUARgBUACgAVABlAHgAdAAsACAAMQApACkAIAA9ACAAOAA3ADIAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAbgAsACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAATgAoAF8AaABhAHMAUwBpAGcAbgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHQAZQAsACAASQBGACgAXwBoAGEAcwBTAGkAZwBuACwAIABSAEkARwBIAFQAKABUAGUAeAB0ACwAIABfAGwAZQBuACkALAAgAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBIAHkAcABoADEAUABvAHMALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiAC0AXAAiACwAIABfAHMARABhAHQAZQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ASAB5AHAAaAAyAFAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgAtAFwAIgAsACAAXwBzAEQAYQB0AGUALAAgAF8ASAB5AHAAaAAxAFAAbwBzACAAKwAgADEAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFcAcABvAHMALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiAFcAXAAiACwAIABfAHMARABhAHQAZQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaAAsACAAKABfAGwAZQBuACAAKgAgADQAMAA5ADYAKQAgACsAIAAoAF8ASAB5AHAAaAAxAFAAbwBzACAAKgAgADIANQA2ACkAIAArACAAKABfAEgAeQBwAGgAMgBQAG8AcwAgACoAIAAxADYAKQAgACsAIABfAFcAcABvAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaABMAGsAdQBwACwAIABJAEYATgBBACgAWABNAEEAVABDAEgAKABfAGgAYQBzAGgALAAgAEMASABPAE8AUwBFAEMATwBMAFMAKABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIAAxACkALAAgADAAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGgAYQBzAGgATABrAHUAcAAgAD0AIAAwACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIATgAvAEEAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBmAG4ALAAgAEMASABPAE8AUwBFAFIATwBXAFMAKABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIABfAGgAYQBzAGgATABrAHUAcAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeAB0AGUAbgBkAGUAZAAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABfAHkAZQBhAHIAUwBpAGcAbgAgACoAIABWAEEATABVAEUAKABMAEUARgBUACgAXwBzAEQAYQB0AGUALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAANQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABBAHIAZwAxACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgADwAIAAyACkAIAArACAAKABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADYAKQAgAD0AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAE0ASQBEACgAXwBzAEQAYQB0AGUALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAANgApACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADcAKQApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABBAHIAZwAyACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA8ACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAUgBJAEcASABUACgAXwBzAEQAYQB0AGUALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAOAApACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB2AGEAbABpAGQALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAxACwAIABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAXwB5AGUAYQByAEMARQAsACAAXwBkAEEAcgBnADEALAAgAF8AZABBAHIAZwAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADIALAAgAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAXwB5AGUAYQByAEMARQAsACAAXwBkAEEAcgBnADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMwAsACAASQBTAF8AVgBBAEwASQBEAF8AVwBFAEUASwBfAEQAQQBUAEUAKABfAHkAZQBhAHIAQwBFACwAIABfAGQAQQByAGcAMQAsACAAXwBkAEEAcgBnADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAVABSAFUARQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwB2AGEAbABpAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAVABSAFUARQAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAXwBlAHgAdABlAG4AZABlAGQALAAgAF8AZABhAHQAZQBUAHkAcABlACwAIABfAHkAZQBhAHIAQwBFACwAIABfAGQAQQByAGcAMQAsACAAXwBkAEEAcgBnADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAFYAQQBMAFUARQBcACIALAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAF8AZQB4AHQAZQBuAGQAZQBkACwAIABfAGQAYQB0AGUAVAB5AHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFAAQQBSAFMARQBfAFQASQBNAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABoAG8AdQByACwAIABtAGkAbgB1AHQAZQAgAGEAbgBkACAAcwBlAGMAbwBuAGQAIABvAGYAIAB0AGkAbQBlACAAZgByAG8AbQAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuACAAIAAxACAAfAAgAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACAAfAAgAGIAbwBvAGwAZQBhAG4AIAB8ACAARgBsAGEAZwAgAGkAZgAgAGMAbwBtAHAAbABpAGEAbgB0ACAAdABvACAASQBTAE8AIAA4ADYAMAAxACAAcwB0AGEAbgBkAGEAcgBkAFwAbgAgACAAMgAgAHwAIABQAHIAZQBjAGkAcwBpAG8AbgAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADAAIAAtACAAaQBuAHYAYQBsAGkAZAAgAHYAYQBsAHUAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAxACAALQAgAGgAbwB1AHIAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABtAGkAbgB1AHQAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGkAbgB0AGUAZwBlAHIAIABzAGUAYwBvAG4AZABcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAA0ACAALQAgAHMAZQBjAG8AbgBkACAAMAAuADAAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAANQAgAC0AIABzAGUAYwBvAG4AZAAgADAALgAwADAAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAANgAgAC0AIABzAGUAYwBvAG4AZAAgADAALgAwADAAMABcAG4AIAAgADMAIAB8ACAARgBvAHIAbQBhAHQAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAxACAALQAgAGIAYQBzAGkAYwBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAyACAALQAgAGUAeAB0AGUAbgBkAGUAZABcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAANAAgAHwAIABIAG8AdQByACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADAALgAuADIANABcAG4AIAAgADUAIAB8ACAATQBpAG4AdQB0AGUAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwAC4ALgA1ADkAXABuACAAIAA2ACAAfAAgAFMAZQBjAG8AbgBkACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMAAuAC4ANQA5AC4AOQA5ADkAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBUAGUAeAB0ACAAIAAgACAAIAAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAB8ACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIAB0AGkAbQBlAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIABFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgAFQAaABoADoAbQBtADoAcwBzAC4AcwBzAHMALAAgAFQAaABoADoAbQBtADoAcwBzACwAIABUAGgAaABtAG0ALAAgAFQAaABoAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBUAEkATQBFACAAPQAgAEwAQQBNAEIARABBACgAVABlAHgAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbAB1AG0AbgBzADoAIABIAGEAcwBoACwAIABQAHIAZQBjAGkAcwBpAG8AbgAsACAARgBvAHIAbQBhAHQALAAgAE0AaQBuAHUAdABlAFAAbwBzACwAIABTAGUAYwBvAG4AZABMAGUAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAHcAaABlAHIAZQAgAEgAYQBzAGgAIAA9ACAAKABMAEUATgAgACoAIAA0ADAAOQA2ACkAIAArACAAKABDAG8AbABvAG4AMQBQAG8AcwAgACoAIAAyADUANgApACAAKwAgACgAQwBvAGwAbwBuADIAUABvAHMAIAAqACAAMQA2ACkAIAArACAARABlAGMAaQBtAGEAbABQAG8AcwAgAFwAbgAgACAAIAAgACAAIAAgACAAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAewBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAOAAxADkAMgAsACAAMQAsACAAMwAsACAAMAAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADYAMwA4ADQALAAgADIALAAgADEALAAgADMALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgA0ADUANwA2ACwAIAAzACwAIAAxACwAIAAzACwAIAAyADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAMgA3ADcANQAsACAANAAsACAAMQAsACAAMwAsACAANAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADYAOAA3ADEALAAgADUALAAgADEALAAgADMALAAgADUAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAAwADkANgA3ACwAIAA2ACwAIAAxACwAIAAzACwAIAA2ADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAMQAyADQAOAAsACAAMgAsACAAMgAsACAANAAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADMANgAzADIALAAgADMALAAgADIALAAgADQALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAAxADgAMwAzACwAIAA0ACwAIAAyACwAIAA0ACwAIAA0ADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQANQA5ADIAOQAsACAANQAsACAAMgAsACAANAAsACAANQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAA1ADAAMAAyADUALAAgADYALAAgADIALAAgADQALAAgADYAXABuACAAIAAgACAAIAAgACAAIAB9ACwAXABuACAAIAAgACAAIAAgACAAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4ALAAgAEwAQQBNAEIARABBACgAXwBlAHgAYwBlAHAAdABpAG8AbgAsACAAWwBfAHAAcgBlAGMAaQBzAGkAbwBuAF0ALAAgAFsAXwBlAHgAdABlAG4AZABlAGQAXQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAGUAeABjAGUAcAB0AGkAbwBuACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAIABuAHUAbABsACAAIABFAG0AcAB0AHkAIAB0AGUAeAB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABOAC8AQQAgACAAIABVAG4AYQBiAGwAZQAgAHQAbwAgAHAAYQByAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAVgBBAEwAVQBFACAASQBuAHYAYQBsAGkAZAAgAHYAYQBsAHUAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABQAHIAZQBjAGkAcwBpAG8AbgAgAG8AZgAgAHAAYQByAHMAZQBkACAAdgBhAGwAdQBlAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AZQB4AHQAZQBuAGQAZQBkACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFAAYQByAHMAZQBkACAAZQB4AHQAZQBuAGQAZQBkACAAZgBvAHIAbQBhAHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIATgAvAEEAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AEYAQQBMAFMARQAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIAVgBBAEwAVQBFAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABGAEEATABTAEUALAAgADAALAAgAE4AKABfAGUAeAB0AGUAbgBkAGUAZAApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgARgBBAEwAUwBFACwAIAAwACwAIABOACgAXwBlAHgAdABlAG4AZABlAGQAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIABcACIAXAAiAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAvAC8AXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgARgBBAEwAUwBFACwAIAAwACwAIABOACgAXwBlAHgAdABlAG4AZABlAGQAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBDAG8AdQBuAHQAQwBoAGEAcgBzACwAIABMAEEATQBCAEQAQQAoAEMAaABhAHIAQQByAHIAYQB5ACwAIABUAGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAGUAbQBvAHYAZQBkACwAIABSAEUARABVAEMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEMAaABhAHIAQQByAHIAYQB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAXwBhAGMAYwAsACAAXwBjAHUAcgByACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAXwBhAGMAYwAsACAAXwBjAHUAcgByACwAIABcACIAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBOACgAVABlAHgAdAApACAALQAgAEwARQBOACgAXwByAGUAbQBvAHYAZQBkACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBGAGkAbgBkAE4AdABoAEMAaABhAHIAUABvAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBzACwAIABUAGUAeAB0ACwAIABOACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByAEMAbwB1AG4AdAAsACAATABFAE4AKABDAGgAYQByAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgAsACAASQBOAFQAKABOACgATgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBjAGgAYQByAEMAbwB1AG4AdAAgAD0AIAAwACkAIAArACAAKABfAG4AIAA9ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAcwAsACAATQBJAEQAKABDAGgAYQByAHMALAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AYwBoAGEAcgBDAG8AdQBuAHQAKQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAG4AZABDAG8AdQBuAHQALAAgAGYAbgBDAG8AdQBuAHQAQwBoAGEAcgBzACgAXwBjAGgAYQByAHMALAAgAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACAAPAAgAEEAQgBTACgAXwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG4AdABoACAAYwBhAG4AIABjAG8AdQBuAHQAIABmAHIAbwBtACAAZQBuAGQAIABiAGEAYwBrAHcAYQByAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgB0AGgALAAgAEkARgAoAF8AbgAgAD4AIAAwACwAIABfAG4ALAAgAF8AZgBpAG4AZABDAG8AdQBuAHQAIAArACAAXwBuACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAHQAaABQAG8AcwAsACAAUgBFAEQAVQBDAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEUAUQBVAEUATgBDAEUAKAAxACwAIABfAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBjAGMAIAA8ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACwAIABJAEYARQBSAFIATwBSACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAE4ARAAoAF8AYwBoAGEAcgBzACwAIABUAGUAeAB0ACwAIABfAGEAYwBjACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFAAbwBzACwAIABNAEkATgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYASQBMAFQARQBSACgAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAsACAAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAgAD4AIAAwACwAIAAwACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBuAGUAeAB0AFAAbwBzACAAPQAgADAALAAgAC0AMQAsACAAXwBuAGUAeAB0AFAAbwBzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAF8AbgB0AGgAUABvAHMALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAVABlAHgAdAAgAD0AIABcACIAXAAiACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTACgAVABlAHgAdAAsACAAMgApACkALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFQAcABvAHMALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiAFQAXAAiACwAIABUAGUAeAB0ACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBUAHAAbwBzACAAPgAgADEALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBUAGkAbQBlACwAIABJAEYAKABfAFQAcABvAHMAIAA9ACAAMQAsACAAUgBJAEcASABUACgAVABlAHgAdAAsACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAAMQApACwAIABUAGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACwAIABMAEUATgAoAF8AcwBUAGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAbwBsAG8AbgAxAFAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgA6AFwAIgAsACAAXwBzAFQAaQBtAGUAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AbABvAG4AMgBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAOgBcACIALAAgAF8AcwBUAGkAbQBlACwAIABfAGMAbwBsAG8AbgAxAFAAbwBzACAAKwAgADEAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwBpAG0AYQBsAFAAbwBzACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiAC4ALABcACIALAAgAF8AcwBUAGkAbQBlACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgALAAgACgAXwBsAGUAbgAgACoAIAA0ADAAOQA2ACkAIAArACAAKABfAGMAbwBsAG8AbgAxAFAAbwBzACAAKgAgADIANQA2ACkAIAArACAAKABfAGMAbwBsAG8AbgAyAFAAbwBzACAAKgAgADEANgApACAAKwAgAF8AZABlAGMAaQBtAGEAbABQAG8AcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaABMAGsAdQBwACwAIABJAEYATgBBACgAWABNAEEAVABDAEgAKABfAGgAYQBzAGgALAAgAEMASABPAE8AUwBFAEMATwBMAFMAKABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIAAxACkALAAgADAAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBoAGEAcwBoAEwAawB1AHAAIAA9ACAAMAAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBmAG4ALAAgAEMASABPAE8AUwBFAFIATwBXAFMAKABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIABfAGgAYQBzAGgATABrAHUAcAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQB4AHQAZQBuAGQAZQBkACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAbwB1AHIALAAgAFYAQQBMAFUARQAoAEwARQBGAFQAKABfAHMAVABpAG0AZQAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAGkAbgB1AHQAZQAsACAASQBGACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgADwAIAAyACwAIABcACIAXAAiACwAIABWAEEATABVAEUAKABNAEkARAAoAF8AcwBUAGkAbQBlACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADQAKQAsACAAMgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAEwAZQBuACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA8ACAAMwAsACAAXAAiAFwAIgAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AcwBUAGkAbQBlACwAIABfAHMAZQBjAEwAZQBuACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAC8ALwAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+ACAAMwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGMAYQBuAG8AdAAgAGEAcwBzAHUAbQBlACAAVgBBAEwAVQBFACAAZgB1AG4AYwB0AGkAbwBuACAAdwBpAGwAbAAgAHUAcwBlACAAZABlAGMAaQBtAGEAbAAgAGMAaABhAHIAYQBjAHQAZQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB3AGgAZQBuACAARQB4AGMAZQBsACAAaABhAHMAIABuAG8AbgAtAGUAbgBnAGwAaQBzAGgAIABSAGUAZwBpAG8AbgBhAGwAIABzAGUAdAB0AGkAbgBnAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBTAGUAYwAsACAAUgBJAEcASABUACgAXwBzAFQAaQBtAGUALAAgAF8AcwBlAGMATABlAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAbgB0AFMAZQBjACwAIABWAEEATABVAEUAKABMAEUARgBUACgAXwBzAFMAZQBjACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAcgBhAGMAUwBlAGMALAAgAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AcwBTAGUAYwAsACAAXwBzAGUAYwBMAGUAbgAgAC0AIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjAGkAbQBhAGwAQgBhAHMAZQAsACAASQBOAEQARQBYACgAewAxADAALAAgADEAMAAwACwAIAAxADAAMAAwAH0ALAAgADEAIAAsAF8AcAByAGUAYwBpAHMAaQBvAG4AIAAtACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQAUwBlAGMAIAArACAAKABfAGYAcgBhAGMAUwBlAGMAIAAvACAAXwBkAGUAYwBpAG0AYQBsAEIAYQBzAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFACgAXwBoAG8AdQByACwAIABfAG0AaQBuAHUAdABlACwAIABfAHMAZQBjAG8AbgBkACkAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAFYAQQBMAFUARQBcACIALAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAF8AZQB4AHQAZQBuAGQAZQBkACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoACgAXwBUAHAAbwBzACAAPQAgADEAKQAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAXwBlAHgAdABlAG4AZABlAGQALAAgAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXwBzAGUAYwBvAG4AZAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBUAEkATQBFAF8AWgBPAE4ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuACAAIAAxACAAfAAgAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACAAIAB8ACAAYgBvAG8AbABlAGEAbgAgAHwAIABGAGwAYQBnACAAaQBmACAAYwBvAG0AcABsAGkAYQBuAHQAIAB0AG8AIABJAFMATwAgADgANgAwADEAIABzAHQAYQBuAGQAYQByAGQAXABuACAAIAAyACAAfAAgAFAAcgBlAGMAaQBzAGkAbwBuACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwACAALQAgAGkAbgB2AGEAbABpAGQAIAB2AGEAbAB1AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAxACAALQAgAGgAbwB1AHIAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAyACAALQAgAG0AaQBuAHUAdABlAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMwAgAC0AIABzAGUAYwBvAG4AZABcAG4AIAAgADMAIAB8ACAARgBvAHIAbQBhAHQAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEAIAAtACAAYgBhAHMAaQBjAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABlAHgAdABlAG4AZABlAGQAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAANQAgAHwAIABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAALQA5ADAAMAAuAC4AKwA5ADAAMABcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAZQB4AHQAIAAgACAAIAAgACAAIAAgAHwAIABzAHQAcgBpAG4AZwAgAHwAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAB0AGUAZAAgAHQAaQBtAGUALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAAVABoAGgAOgBtAG0AOgBzAHMALgBzAHMAcwAsACAAVABoAGgAOgBtAG0AOgBzAHMALAAgAFQAaABoAG0AbQAsACAAVABoAGgAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFAAQQBSAFMARQBfAFQASQBNAEUAXwBaAE8ATgBFACAAPQAgAEwAQQBNAEIARABBACgAVABlAHgAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbAB1AG0AbgBzADoAIABIAGEAcwBoACwAIABQAHIAZQBjAGkAcwBpAG8AbgAsACAARQB4AHQAZQBuAGQAZQBkACwAIABaACwAIABNAGkAbgBQAG8AcwBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAHcAaABlAHIAZQAgAGgAYQBzAGgAIAA9ACAATABFAE4AIAAqACAAMQAwADIANAAgACsAIABaAG8AbgBsAHkAIAAqACAANQAxADIAIAArACAATABhAHMAdABTAGkAZwBuAFAAbwBzAEEAdAAxACAAKgAyADUANgAgACsAIABDAG8AbABvAG4AMQBQAG8AcwAgACoAIAAxADYAIAArACAAQwBvAGwAbwBuADIAUABvAHMAXABuACAAIAAgACAAIAAgACAAIABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIAB7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADUAMwA2ACwAIAAzACwAIAAzACwAIAAxACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAMwAyADgALAAgADEALAAgADMALAAgADAALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANQAzADcANgAsACAAMgAsACAAMQAsACAAMAAsACAANAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAA2ADQANgA0ACwAIAAyACwAIAAyACwAIAAwACwAIAA1ADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADcANAAyADQALAAgADMALAAgADEALAAgADAALAAgADQAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAOQA1ADQAMwAsACAAMwAsACAAMgAsACAAMAAsACAANQBcAG4AIAAgACAAIAAgACAAIAAgAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAsACAATABBAE0AQgBEAEEAKABfAGUAeABjAGUAcAB0AGkAbwBuACwAIABbAF8AZQB4AHQAZQBuAGQAZQBkAF0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8ACAAbgB1AGwAbAAgACAARQBtAHAAdAB5ACAAdABlAHgAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAATgAvAEEAIAAgACAAVQBuAGEAYgBsAGUAIAB0AG8AIABwAGEAcgBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAFYAQQBMAFUARQAgAEkAbgB2AGEAbABpAGQAIAB2AGEAbAB1AGUAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAdABlAG4AZABlAGQAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAUABhAHIAcwBlAGQAIABlAHgAdABlAG4AZABlAGQAIABmAG8AcgBtAGEAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsARgBBAEwAUwBFACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBWAEEATABVAEUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAEYAQQBMAFMARQAsACAAMAAsACAATgAoAF8AZQB4AHQAZQBuAGQAZQBkACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEMAbwB1AG4AdABDAGgAYQByAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBBAHIAcgBhAHkALAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHgAdAAgAD0AIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIAZQBtAG8AdgBlAGQALAAgAFIARQBEAFUAQwBFACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBoAGEAcgBBAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABfAGEAYwBjACwAIABfAGMAdQByAHIALAAgAFwAIgBcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAATABFAE4AKABfAHIAZQBtAG8AdgBlAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEYAaQBuAGQATgB0AGgAQwBoAGEAcgBQAG8AcwAsACAATABBAE0AQgBEAEEAKABDAGgAYQByAHMALAAgAFQAZQB4AHQALAAgAE4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAQwBvAHUAbgB0ACwAIABMAEUATgAoAEMAaABhAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuACwAIABJAE4AVAAoAE4AKABOACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAGMAaABhAHIAQwBvAHUAbgB0ACAAPQAgADAAKQAgACsAIAAoAF8AbgAgAD0AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgBzACwAIABNAEkARAAoAEMAaABhAHIAcwAsACAAUwBFAFEAVQBFAE4AQwBFACgAMQAsACAAXwBjAGgAYQByAEMAbwB1AG4AdAApACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAbgBkAEMAbwB1AG4AdAAsACAAZgBuAEMAbwB1AG4AdABDAGgAYQByAHMAKABfAGMAaABhAHIAcwAsACAAVABlAHgAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAG4AZABDAG8AdQBuAHQAIAA8ACAAQQBCAFMAKABfAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbgB0AGgAIABjAGEAbgAgAGMAbwB1AG4AdAAgAGYAcgBvAG0AIABlAG4AZAAgAGIAYQBjAGsAdwBhAHIAZABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAHQAaAAsACAASQBGACgAXwBuACAAPgAgADAALAAgAF8AbgAsACAAXwBmAGkAbgBkAEMAbwB1AG4AdAAgACsAIABfAG4AIAArACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AdABoAFAAbwBzACwAIABSAEUARABVAEMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAF8AYQBjAGMALAAgAF8AYwB1AHIAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBhAGMAYwAgADwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBlAHgAdABQAG8AcwBDAGgAYQByAHMALAAgAEkARgBFAFIAUgBPAFIAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEkATgBEACgAXwBjAGgAYQByAHMALAAgAFQAZQB4AHQALAAgAF8AYQBjAGMAIAArACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQB4AHQAUABvAHMALAAgAE0ASQBOACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAEwAVABFAFIAKABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACwAIABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACAAPgAgADAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAG4AZQB4AHQAUABvAHMAIAA9ACAAMAAsACAALQAxACwAIABfAG4AZQB4AHQAUABvAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0AQQBYACgAXwBuAHQAaABQAG8AcwAsACAAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAVABlAHgAdAAgAD0AIABcACIAXAAiACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTACgAVABlAHgAdAAsACAAMwApACkALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACwAIABMAEUATgAoAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBaAG8AbgBsAHkALAAgAE4AKAAoAF8AbABlAG4AIAA9ACAAMQApACAAKgAgACgASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAWgBcACIALAAgAFQAZQB4AHQAKQAsACAAMAApACAAPQAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAUwBpAGcAbgBQAG8AcwBBAHQAMQAsACAATgAoAGYAbgBGAGkAbgBkAE4AdABoAEMAaABhAHIAUABvAHMAKABcACIAKwAtAFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAIABUAGUAeAB0ACwAIAAtADEAKQAgAD0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGwAbwBuADEAUABvAHMALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiADoAXAAiACwAIABUAGUAeAB0ACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AbABvAG4AMgBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAOgBcACIALAAgAFQAZQB4AHQALAAgAF8AYwBvAGwAbwBuADEAUABvAHMAIAArACAAMQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaAAsACAAKABfAGwAZQBuACAAKgAgADEAMAAyADQAKQAgACsAIAAoAF8AWgBvAG4AbAB5ACAAKgAgADUAMQAyACkAIAArACAAKABfAGwAYQBzAHQAUwBpAGcAbgBQAG8AcwBBAHQAMQAgACoAIAAyADUANgApACAAKwAgACgAXwBjAG8AbABvAG4AMQBQAG8AcwAgACoAIAAxADYAKQAgACsAIABfAGMAbwBsAG8AbgAyAFAAbwBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgATABrAHUAcAAsACAASQBGAE4AQQAoAFgATQBBAFQAQwBIACgAXwBoAGEAcwBoACwAIABDAEgATwBPAFMARQBDAE8ATABTACgAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAMQApACwAIAAwACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBoAGEAcwBoAEwAawB1AHAAIAA9ACAAMAAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAZgBuACwAIABDAEgATwBPAFMARQBSAE8AVwBTACgAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAXwBoAGEAcwBoAEwAawB1AHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAdABlAG4AZABlAGQALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA0ACkAIAA+ACAAMAAsACAALwAvACAAWgAgAG8AbgBsAHkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFQAUgBVAEUALAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAF8AZQB4AHQAZQBuAGQAZQBkACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUARgBUACgAVABlAHgAdAAsACAAMQApACAAPQAgAFwAIgAtAFwAIgAsACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVQBOAEkAQwBPAEQARQAoAEwARQBGAFQAKABUAGUAeAB0ACwAIAAxACkAKQAgAD0AIAA4ADcAMgAyACwAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgAsACAAXwBzAGkAZwBuACAAKgAgAFYAQQBMAFUARQAoAE0ASQBEACgAVABlAHgAdAAsACAAMgAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAGkAbgB1AHQAZQAsACAASQBGACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgADwAIAAyACwAIABcACIAXAAiACwAIABWAEEATABVAEUAKABNAEkARAAoAFQAZQB4AHQALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAANQApACwAIAAyACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAGMAbwBuAGQALAAgAEkARgAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA8ACAAMwAsACAAXAAiAFwAIgAsACAAVgBBAEwAVQBFACgAUgBJAEcASABUACgAVABlAHgAdAAsACAAMgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAE0AaQBuAHUAdABlAHMALAAgAEkATgBUACgAKABOACgAXwBoAG8AdQByACkAIAAqACAAMwA2ADAAMAApACAAKwAgACgATgAoAF8AbQBpAG4AdQB0AGUAKQAgACoAIAA2ADAAKQAgACsAIABOACgAXwBzAGUAYwBvAG4AZAApACkAIAAvACAANgAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAKABfAHQAegBvAE0AaQBuAHUAdABlAHMAKQApACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAVgBBAEwAVQBFAFwAIgAsACAAXwBlAHgAdABlAG4AZABlAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAVABSAFUARQAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAXwBlAHgAdABlAG4AZABlAGQALAAgAF8AdAB6AG8ATQBpAG4AdQB0AGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBQAEEAUgBUAFMAXABuAFwAbgBTAHAAbABpAHQAcwAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AHQAZQBkACAAdABlAHgAdAAgAHYAYQBsAHUAZQAgAGkAbgB0AG8AIABpAG4AdABvACAAcgBlAHMAcABlAGMAdABpAHYAZQAgAHAAYQByAHQAcwAgAG8AZgAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuACAAIAAxACAAfAAgAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACAAfAAgAGIAbwBvAGwAZQBhAG4AIAB8ACAARgBsAGEAZwAgAGkAZgAgAGMAbwBtAHAAbABpAGEAbgB0ACAAdABvACAASQBTAE8AIAA4ADYAMAAxACAAcwB0AGEAbgBkAGEAcgBkAFwAbgAgACAAMgAgAHwAIABQAGEAcgB0AHMAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEIAaQB0AGYAbABhAGcAIABvAGYAIABwAGEAcgB0AHMAIAAwAC4ALgA3AFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADAAeAAwADEAIAAtACAAZABhAHQAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAwAHgAMAAyACAALQAgAHQAaQBtAGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMAB4ADAANAAgAC0AIAB0AGkAbQBlACAAegBvAG4AZQBcAG4AIAAgADMAIAB8ACAARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAXABuACAAIAA0ACAAfAAgAFQAaQBtAGUAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8AFwAbgAgACAANQAgAHwAIABUAGkAbQBlACAAWgBvAG4AZQAgACAAIAAgAHwAIABzAHQAcgBpAG4AZwAgACAAfABcAG4AIAAgACAAIAAgACAAXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAZQB4AHQAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAfAAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AHQAZQBkACAAdgBhAGwAdQBlACAAZgBvAHIAIABkAGEAdABlACwAIAB0AGkAbQBlACAAbwByACAAdABpAG0AZQAgAHoAbwBuAGUALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AUABBAFIAUwBFAF8AUABBAFIAVABTACAAPQAgAEwAQQBNAEIARABBACgAVABlAHgAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbAB1AG0AbgBzADoAIABIAGEAcwBoACwAIABJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAsACAAUABhAHIAdABzAEYAbABhAGcALAAgAEQAYQB0AGUATQBhAHIAawAsACAAVABaAE0AYQByAGsAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAB3AGgAZQByAGUAIABIAGEAcwBoACAAPQAgACgAXwBIAGEAcwBUACAAKgAgADEAMgA4ACkAIAArACAAKABfAFQAZgBpAHIAcwB0ACAAKgA2ADQAIAApACAAKwAgACgAXwBsAGEAcwB0AFMAaQBnAG4ARgBpAHIAcwB0AFAAbwBzACAAKgAgADMAMgApACAAKwAgACgAXwBoAGEAcwBaAG8AcgBTAGkAZwBuAEEAZgB0AGUAcgBUACAAKgAgADEANgApACAAKwAgACgAXwBaAG8AcgBTAGkAZwBuAEYAaQByAHMAdABBAGYAdABlAHIAVAAgACoAIAA4ACkAIAArACAAKABfAGMAbwBsAG8AbgBBAGYAdABlAHIATABhAHMAdABTAGkAZwBuACAAKgAgADQAKQAgACsAIAAoAF8AdQBuAHMAaQBnAG4AZQBkAEwAZQBuADIAbwByADYAIAAqACAAMgApACAAKwAgAF8AaABhAHMAWgBsAGEAcwB0AFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAUABhAHIAdABzAEYAbABhAGcAOgAgADAAIAAtACAAbgBvACAAcABhAHIAdABzAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEAIAAtACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyACAALQAgAHQAaQBtAGUAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAgAC0AIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQAIAAtACAAdABpAG0AZQAgAHoAbwBuAGUAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAANQAgAC0AIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAA2ACAALQAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgADcAIAAtACAAZABhAHQAZQAsACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABEAGEAdABlAE0AYQByAGsAIAA6ACAAMAAgAC0APgAgAG4AdQBsAGwAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAgAC0APgAgAF8AbABlAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAC0APgAgAF8AVABwAG8AcwAgAC0AIAAxAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAIAAtAD4AIABfAHMAaQBnAG4ATABhAHMAdABQAG8AcwAgAC0AIAAxAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQAIAAtAD4AIABfAGwAZQBuACAALQAgADEAXABuACAAIAAgACAAIAAgACAAIAAvAC8AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABUAFoATQBhAHIAawAgACAAIAAgACAAMAAgAC0APgAgAG4AdQBsAGwAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAgAC0APgAgADEAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAC0APgAgAF8AbABlAG4AIAAtACAAXwBzAGkAZwBuAEwAYQBzAHQAUABvAHMAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgAF8AbABvAGcAaQBjAEgAYQBzAGgAVABhAGIAbABlACwAIAB7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAIAAxACwAIAAxACwAIAAxACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALAAgADAALAAgADQALAAgADAALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAyACwAIAAxACwAIAAxACwAIAAxACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMANAAsACAAMAAsACAANAAsACAAMAAsACAAMgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADYALAAgADEALAAgADQALAAgADAALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAyADgALAAgADEALAAgADMALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAzADIALAAgADEALAAgADMALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA0ADQALAAgADEALAAgADcALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA0ADgALAAgADEALAAgADcALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA0ADkALAAgADEALAAgADcALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA1ADIALAAgADAALAAgADUALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA1ADMALAAgADAALAAgADUALAAgADIALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA1ADUALAAgADAALAAgADUALAAgADIALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA1ADYALAAgADAALAAgADUALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA2ADAALAAgADEALAAgADMALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA4ADUALAAgADAALAAgADUALAAgADIALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA5ADIALAAgADEALAAgADIALAAgADAALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA5ADYALAAgADEALAAgADIALAAgADAALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA5ADgALAAgADEALAAgADIALAAgADAALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAwADgALAAgADEALAAgADYALAAgADAALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAwADkALAAgADEALAAgADYALAAgADAALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAxADIALAAgADEALAAgADYALAAgADAALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAxADMALAAgADEALAAgADYALAAgADAALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAxADYALAAgADAALAAgADQALAAgADAALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAxADkALAAgADAALAAgADQALAAgADAALAAgADEAXABuACAAIAAgACAAIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACwAIABMAEEATQBCAEQAQQAoAF8AZQB4AGMAZQBwAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8ACAAbgB1AGwAbAAgACAARQBtAHAAdAB5ACAAdABlAHgAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAATgAvAEEAIAAgACAAVQBuAGEAYgBsAGUAIAB0AG8AIABwAGEAcgBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIATgAvAEEAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AEYAQQBMAFMARQAsACAAMAAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEMAbwB1AG4AdABDAGgAYQByAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBBAHIAcgBhAHkALAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHgAdAAgAD0AIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIAZQBtAG8AdgBlAGQALAAgAFIARQBEAFUAQwBFACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBoAGEAcgBBAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABfAGEAYwBjACwAIABfAGMAdQByAHIALAAgAFwAIgBcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAATABFAE4AKABfAHIAZQBtAG8AdgBlAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBGAGkAbgBkAE4AdABoAEMAaABhAHIAUABvAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBzACwAIABUAGUAeAB0ACwAIABOACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByAEMAbwB1AG4AdAAsACAATABFAE4AKABDAGgAYQByAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgAsACAASQBOAFQAKABOACgATgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBjAGgAYQByAEMAbwB1AG4AdAAgAD0AIAAwACkAIAArACAAKABfAG4AIAA9ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAcwAsACAATQBJAEQAKABDAGgAYQByAHMALAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AYwBoAGEAcgBDAG8AdQBuAHQAKQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAG4AZABDAG8AdQBuAHQALAAgAGYAbgBDAG8AdQBuAHQAQwBoAGEAcgBzACgAXwBjAGgAYQByAHMALAAgAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACAAPAAgAEEAQgBTACgAXwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG4AdABoACAAYwBhAG4AIABjAG8AdQBuAHQAIABmAHIAbwBtACAAZQBuAGQAIABiAGEAYwBrAHcAYQByAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgB0AGgALAAgAEkARgAoAF8AbgAgAD4AIAAwACwAIABfAG4ALAAgAF8AZgBpAG4AZABDAG8AdQBuAHQAIAArACAAXwBuACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAHQAaABQAG8AcwAsACAAUgBFAEQAVQBDAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEUAUQBVAEUATgBDAEUAKAAxACwAIABfAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBjAGMAIAA8ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACwAIABJAEYARQBSAFIATwBSACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAE4ARAAoAF8AYwBoAGEAcgBzACwAIABUAGUAeAB0ACwAIABfAGEAYwBjACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFAAbwBzACwAIABNAEkATgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYASQBMAFQARQBSACgAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAsACAAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAgAD4AIAAwACwAIAAwACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBuAGUAeAB0AFAAbwBzACAAPQAgADAALAAgAC0AMQAsACAAXwBuAGUAeAB0AFAAbwBzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAF8AbgB0AGgAUABvAHMALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAVABlAHgAdAAgAD0AIABcACIAXAAiACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTACgAVABlAHgAdAAsACAAMAApACkALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACwAIABMAEUATgAoAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBUAHAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgBUAFwAIgAsACAAVABlAHgAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgBMAGEAcwB0AFAAbwBzACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiACsALQBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsACAAVABlAHgAdAAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGwAbwBuAEwAYQBzAHQAUABvAHMALAAgAGYAbgBGAGkAbgBkAE4AdABoAEMAaABhAHIAUABvAHMAKABcACIAOgBcACIALAAgAFQAZQB4AHQALAAgAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFoAbABhAHMAdABQAG8AcwAsACAAZgBuAEYAaQBuAGQATgB0AGgAQwBoAGEAcgBQAG8AcwAoAFwAIgBaAFwAIgAsACAAVABlAHgAdAAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAVAAsACAATgAoAF8AVABwAG8AcwAgAD4AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AVABmAGkAcgBzAHQALAAgAE4AKABfAFQAcABvAHMAIAA9ACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAUwBpAGcAbgBGAGkAcgBzAHQAUABvAHMALAAgAE4AKABfAHMAaQBnAG4ATABhAHMAdABQAG8AcwAgAD0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdQBuAHMAaQBnAG4AZQBkAEwAZQBuACwAIABfAGwAZQBuACAALQAgAF8AbABhAHMAdABTAGkAZwBuAEYAaQByAHMAdABQAG8AcwAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAFoAbwByAFMAaQBnAG4AQQBmAHQAZQByAFQALAAgACgAXwBUAHAAbwBzACAAPAA+ACAAMAApACAAKgAgACgAKAAoAF8AWgBsAGEAcwB0AFAAbwBzAD4AXwBUAHAAbwBzACkAIAArACAAKABfAHMAaQBnAG4ATABhAHMAdABQAG8AcwAgAD4AIABfAFQAcABvAHMAKQApACAAPAA+ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFoAbwByAFMAaQBnAG4ARgBpAHIAcwB0AEEAZgB0AGUAcgBUACwAIAAoAF8AVABwAG8AcwAgADwAPgAgADAAKQAgACoAIAAoACgAKABfAFoAbABhAHMAdABQAG8AcwAgAD0AIABfAFQAcABvAHMAIAArACAAMQApACAAKwAgACgAXwBzAGkAZwBuAEwAYQBzAHQAUABvAHMAIAA9ACAAXwBUAHAAbwBzACAAKwAgADEAKQApACAAPAA+ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAbwBsAG8AbgBBAGYAdABlAHIATABhAHMAdABTAGkAZwBuACwAIABOACgAXwBjAG8AbABvAG4ATABhAHMAdABQAG8AcwAgAD4AIABfAHMAaQBnAG4ATABhAHMAdABQAG8AcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAbgBzAGkAZwBuAGUAZABMAGUAbgAyAG8AcgA2ACwAIABOACgAKAAoAF8AdQBuAHMAaQBnAG4AZQBkAEwAZQBuACAAPQAgADIAKQAgACsAIAAoAF8AdQBuAHMAaQBnAG4AZQBkAEwAZQBuACAAPQAgADYAKQApADwAPgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAWgBsAGEAcwB0ACwAIABOACgAXwBaAGwAYQBzAHQAUABvAHMAIAA9ACAAXwBMAGUAbgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgALAAgACgAXwBoAGEAcwBUACAAKgAgADEAMgA4ACkAIAArACAAKABfAFQAZgBpAHIAcwB0ACAAKgAgADYANAApACAAKwAgACgAXwBsAGEAcwB0AFMAaQBnAG4ARgBpAHIAcwB0AFAAbwBzACAAKgAgADMAMgApACAAKwAgACgAXwBoAGEAcwBaAG8AcgBTAGkAZwBuAEEAZgB0AGUAcgBUACAAKgAgADEANgApACAAKwAgACgAXwBaAG8AcgBTAGkAZwBuAEYAaQByAHMAdABBAGYAdABlAHIAVAAgACoAIAA4ACkAIAArACAAKABfAGMAbwBsAG8AbgBBAGYAdABlAHIATABhAHMAdABTAGkAZwBuACAAKgAgADQAKQAgACsAIAAoAF8AdQBuAHMAaQBnAG4AZQBkAEwAZQBuADIAbwByADYAIAAqACAAMgApACAAKwAgAF8ASABhAHMAWgBsAGEAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgATABrAHUAcAAsACAASQBGAE4AQQAoAFgATQBBAFQAQwBIACgAXwBoAGEAcwBoACwAIABDAEgATwBPAFMARQBDAE8ATABTACgAXwBsAG8AZwBpAGMASABhAHMAaABUAGEAYgBsAGUALAAgADEAKQAsACAAMAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AaABhAHMAaABMAGsAdQBwACAAPQAgADAALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGYAbgAsACAAQwBIAE8ATwBTAEUAUgBPAFcAUwAoAF8AbABvAGcAaQBjAEgAYQBzAGgAVABhAGIAbABlACwAIABfAGgAYQBzAGgATABrAHUAcAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBDAG8AbQBwAGwAaQBhAG4AdAAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAAyACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAGEAcgB0AHMARgBsAGEAZwAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUATQBhAHIAawAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBNAGEAcgBrACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBMAGUAbgAsACAASQBGAFMAKABfAGQAYQB0AGUATQBhAHIAawAgAD0AIAAwACwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUATQBhAHIAawAgAD0AIAAxACwAIABfAGwAZQBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUATQBhAHIAawAgAD0AIAAyACwAIABfAFQAcABvAHMAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAE0AYQByAGsAIAA9ACAAMwAsACAAXwBzAGkAZwBuAEwAYQBzAHQAUABvAHMAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAE0AYQByAGsAIAA9ACAANAAsACAAXwBsAGUAbgAgAC0AIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBMAGUAbgAsACAASQBGACgAXwB0AHoATQBhAHIAawAgAD0AIAAyACwAIABfAGwAZQBuACAALQAgAF8AcwBpAGcAbgBMAGEAcwB0AFAAbwBzACAAKwAgADEALAAgAF8AdAB6AE0AYQByAGsAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBMAGUAbgAsACAAXwBsAGUAbgAgAC0AIABfAGQAYQB0AGUATABlAG4AIAAtACAAXwB0AHoATABlAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHQAZQAsACAASQBGACgAQgBJAFQAQQBOAEQAKABfAHAAYQByAHQAcwBGAGwAYQBnACwAIAAxACkAIAA9ACAAMAAsACAAXAAiAFwAIgAsACAATABFAEYAVAAoAFQAZQB4AHQALAAgAF8AZABhAHQAZQBMAGUAbgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVABpAG0AZQAsACAASQBGACgAQgBJAFQAQQBOAEQAKABfAHAAYQByAHQAcwBGAGwAYQBnACwAIAAyACkAIAA9ACAAMAAsACAAXAAiAFwAIgAsACAATQBJAEQAKABUAGUAeAB0ACwAIABfAGQAYQB0AGUATABlAG4AIAArACAAMQAsACAAXwB0AGkAbQBlAEwAZQBuACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBUAFoALAAgAEkARgAoAEIASQBUAEEATgBEACgAXwBwAGEAcgB0AHMARgBsAGEAZwAsACAANAApACAAPQAgADAALAAgAFwAIgBcACIALAAgAFIASQBHAEgAVAAoAFQAZQB4AHQALAAgAF8AdAB6AEwAZQBuACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwBpAHMAbwBDAG8AbQBwAGwAaQBhAG4AdAAsACAAXwBwAGEAcgB0AHMARgBsAGEAZwAsACAAXwBzAEQAYQB0AGUALAAgAF8AcwBUAGkAbQBlACwAIABfAHMAVABaACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBEAEEAVABFAF8AVABJAE0ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABvAGYAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgBcAG4AXABuAEMAbwBsAHUAbQBuAHMAOgBcAG4AIAAgADEAIAB8ACAASQBTAE8AQwBvAG0AcABsAGkAYQBuAHQAIAAgACAAfAAgAGIAbwBvAGwAZQBhAG4AIAB8ACAARgBsAGEAZwAgAGkAZgAgAGMAbwBtAHAAbABpAGEAbgB0ACAAdABvACAASQBTAE8AIAA4ADYAMAAxACAAcwB0AGEAbgBkAGEAcgBkAFwAbgAgACAAMgAgAHwAIABQAGEAcgB0AHMAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABCAGkAdABmAGwAYQBnACAAbwBmACAAcABhAHIAdABzACAAMAAuAC4ANwBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMAB4ADAAMQAgAC0AIABkAGEAdABlAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAwAHgAMAAyACAALQAgAHQAaQBtAGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADAAeAAwADQAIAAtACAAdABpAG0AZQAgAHoAbwBuAGUAXABuACAAIAAzACAAfAAgAFAAcgBlAGMAaQBzAGkAbwBuACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEAIAAtACAAeQBlAGEAcgBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABtAG8AbgB0AGgALwB3AGUAZQBrAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGQAYQB5AFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAA0ACAALQAgAGgAbwB1AHIAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADUAIAAtACAAbQBpAG4AdQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADYAIAAtACAAaQBuAHQAZQBnAGUAcgAgAHMAZQBjAG8AbgBkAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAA3ACAALQAgAHMAZQBjAG8AbgBkACAAMAAuADAAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADgAIAAtACAAcwBlAGMAbwBuAGQAIAAwAC4AMAAwAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAA5ACAALQAgAHMAZQBjAG8AbgBkACAAMAAuADAAMAAwAFwAbgAgACAANAAgAHwAIABGAG8AcgBtAGEAdAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwACAALQAgAG0AaQB4AGUAZABcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMQAgAC0AIABiAGEAcwBpAGMAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADIAIAAtACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAANQAgAHwAIABEAGEAdABlACAAVAB5AHAAZQAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwACAALQAgAG4AbwAgAGQAYQB0AGUAIABwAHIAZQBzAGUAbgB0AFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAxACAALQAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADIAIAAtACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADMAIAAtACAAdwBlAGUAawAgAGQAYQB0AGUAXABuACAAIAA2ACAAfAAgAFkAZQBhAHIAIABDAEUAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AIAAgADcAIAB8ACAATQBvAG4AdABoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4AMQAyAFwAbgAgACAAIAAgAHwAIABXAGUAZQBrACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAxAC4ALgA1ADMAXABuACAAIAA4ACAAfAAgAEQAYQB5ACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEALgAuADMAMQBcAG4AIAAgACAAIAB8ACAATwByAGQAaQBuAGEAbAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4AMwA2ADYAXABuACAAIAAgACAAfAAgAEQAYQB5ACAAbwBmACAAVwBlAGUAawAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEALgAuADcAIAAtAD4AIABNAG8AbgAuAC4AUwB1AG4AXABuACAAIAA5ACAAfAAgAEgAbwB1AHIAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADAALgAuADIANABcAG4AIAAxADAAIAB8ACAATQBpAG4AdQB0AGUAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMAAuAC4ANQA5AFwAbgAgADEAMQAgAHwAIABTAGUAYwBvAG4AZAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAwAC4ALgA1ADkALgA5ADkAOQBcAG4AIAAxADIAIAB8ACAATQBpAG4AdQB0AGUAcwAgAE8AZgBmAHMAZQB0ACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAALQA5ADAAMAAuAC4AKwA5ADAAMABcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAZQB4AHQAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAfAAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AHQAZQBkACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIABFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAAKwBZAFkAWQBZAFkALQBNAE0ALQBEAEQAVABoAGgAOgBtAG0AOgBzAHMALgBzAHMAcwArAGgAaAA6AG0AbQA6AHMAcwAsACAAWQBZAFkAWQAtAE0ATQAtAEQARABUAGgAaAA6AG0AbQAtAGgAaAAsACAAWQBZAFkAWQAtAFcAdwB3AC0ARABUAGgAaAA6AG0AbQBaAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBEAEEAVABFAF8AVABJAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAFQAZQB4AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACwAIABMAEEATQBCAEQAQQAoAF8AZQB4AGMAZQBwAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAIABuAHUAbABsACAAIABFAG0AcAB0AHkAIAB0AGUAeAB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAE4ALwBBACAAIAAgAFUAbgBhAGIAbABlACAAdABvACAAcABhAHIAcwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AEYAQQBMAFMARQAsACAAMAAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEkAUwBPAFYAYQBsAHUAZQBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIABMAEEATQBCAEQAQQAoAF8AcABEAGEAdABlACwAIABfAHAAVABpAG0AZQAsACAAXwBwAFQAWgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAsACAASQBGACgASQBOAEQARQBYACgAXwBwAEQAYQB0AGUALAAgADEALAAgADEAKQAgAD0AIABcACIAXAAiACwAIABUAFIAVQBFACwAIABJAE4ARABFAFgAKABfAHAARABhAHQAZQAsACAAMQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUASQBTAE8AQwBvAG0AcABsAGkAYQBuAHQALAAgAEkARgAoAEkATgBEAEUAWAAoAF8AcABUAGkAbQBlACwAIAAxACwAIAAxACkAIAA9ACAAXAAiAFwAIgAsACAAVABSAFUARQAsACAASQBOAEQARQBYACgAXwBwAFQAaQBtAGUALAAgADEALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoASQBTAE8AQwBvAG0AcABsAGkAYQBuAHQALAAgAEkARgAoAEkATgBEAEUAWAAoAF8AcABUAFoALAAgADEALAAgADEAKQAgAD0AIABcACIAXAAiACwAIABUAFIAVQBFACwAIABJAE4ARABFAFgAKABfAHAAVABaACwAIAAxACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBkAGEAdABlAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACAAKgAgAF8AdABpAG0AZQBJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAgACoAIABfAHQAegBJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAApACAAPAA+ACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABmAG4ASQBTAE8ARgBvAHIAbQBhAHQAQwBvAG0AcABsAGkAYQBuAGMAZQAsACAATABBAE0AQgBEAEEAKABfAHAARABhAHQAZQAsACAAXwBwAFQAaQBtAGUALAAgAF8AcABUAFoALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAGwAdQBtAG4AcwAgAE8AdQB0ADoAIABJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAsACAAUgBlAHMAbwBsAHYAZQBkAEYAbwByAG0AYQB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBGAG0AdAAsACAATgAoAEkATgBEAEUAWAAoAF8AcABEAGEAdABlACwAIAAxACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBGAG0AdAAsACAATgAoAEkATgBEAEUAWAAoAF8AcABUAGkAbQBlACwAIAAxACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8ARgBtAHQALAAgAE4AKABJAE4ARABFAFgAKABfAHAAVABaACwAIAAxACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBlAHMAbwBsAHYAZQBGAG0AdAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBkAGEAdABlAEYAbQB0ACAAPQAgADMAKQAgACoAIAAoAF8AdABpAG0AZQBGAG0AdAAgAD0AIAAwACkAIAAqACAAKABfAHQAegBvAEYAbQB0ACAAPQAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbwBuAGwAeQAgAGQAYQB0AGUAIABwAHIAbwB2AGkAZABlAGQALAAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBkAGEAdABlAEYAbQB0ACAAPQAgADAAKQAgACoAIAAoAF8AdABpAG0AZQBGAG0AdAAgAD0AIAAzACkAIAAqACAAKABfAHQAegBvAEYAbQB0ACAAPQAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbwBuAGwAeQAgAHQAaQBtAGUAIABwAHIAbwB2AGkAZABlAGQALAAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBkAGEAdABlAEYAbQB0ACAAPQAgADAAKQAgACoAIAAoAF8AdABpAG0AZQBGAG0AdAAgAD0AIAAwACkAIAAqACAAKABfAHQAegBvAEYAbQB0ACAAPQAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbwBuAGwAeQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAcAByAG8AdgBpAGQAZQBkACwAIABjAG8AbgBzAGkAcwB0AGUAbgB0ACAAdwBpAHQAaAAgAGIAYQBzAGkAYwAgAG8AcgAgAGUAeAB0AGUAbgBkAGUAZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AZABhAHQAZQBGAG0AdAAgADwAPgAgADIAKQAgACoAIAAoAF8AdABpAG0AZQBGAG0AdAAgADwAPgAgADIAKQAgACoAIAAoAF8AdAB6AG8ARgBtAHQAIAA8AD4AIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGEAbABsACAAYgBhAHMAaQBjACAAZgBvAHIAbQBhAHQAIAB3AGgAZQByAGUAIABwAHIAZQBzAGUAbgB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAGQAYQB0AGUARgBtAHQAIAA8AD4AIAAxACkAIAAqACAAKABfAHQAaQBtAGUARgBtAHQAIAA8AD4AIAAxACkAIAAqACAAKABfAHQAegBvAEYAbQB0ACAAPAA+ACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABhAGwAbAAgAGUAeAB0AGUAbgBkAGUAZAAgAGYAbwByAG0AYQB0ACAAdwBoAGUAcgBlACAAcAByAGUAcwBlAG4AdAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG0AaQB4AGUAZAAgAGYAbwByAG0AYQB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABOACgAXwByAGUAcwBvAGwAdgBlAEYAbQB0ACAAPAA+ACAAMAApACwAIABfAHIAZQBzAG8AbAB2AGUARgBtAHQAKQAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBJAFMATwBQAHIAZQBjAGkAcwBpAG8AbgBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIABMAEEATQBCAEQAQQAoAF8AcABEAGEAdABlACwAIABfAHAAVABpAG0AZQAsACAAXwBwAFQAWgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbAB1AG0AbgBzACAATwB1AHQAOgAgAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACwAIABQAHIAZQBjAGkAcwBpAG8AbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAUAByAGUAYwAsACAATgAoAEkATgBEAEUAWAAoAF8AcABEAGEAdABlACwAIAAxACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBQAHIAZQBjACwAIABOACgASQBOAEQARQBYACgAXwBwAFQAaQBtAGUALAAgADEALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAUAByAGUAYwAsACAATgAoAEkATgBEAEUAWAAoAF8AcABUAFoALAAgADEALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBQAHIAZQBjACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwB0AGkAbQBlAFAAcgBlAGMAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AdAB6AFAAcgBlAGMAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABGAEEATABTAEUALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABUAFIAVQBFACwAIABfAHQAegBQAHIAZQBjACAAKwAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABUAFIAVQBFACwAIABfAHQAaQBtAGUAUAByAGUAYwAgACsAIAAzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBQAHIAZQBjACAAPAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKAAoAF8AdABpAG0AZQBQAHIAZQBjACAAPQAgADAAKQAsACAAXwBkAGEAdABlAFAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAALwAvACAAXwBkAGEAdABlAFAAcgBlAGMAIAA9ACAAMwAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFQAUgBVAEUALAAgAF8AdABpAG0AZQBQAHIAZQBjACAAKwAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABUAGUAeAB0ACAAPQAgAFwAIgBcACIALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABhAHIAdABzACwAIABQAEEAUgBTAEUAXwBQAEEAUgBUAFMAKABUAGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOACgASQBOAEQARQBYACgAXwBwAGEAcgB0AHMALAAgADEALAAgADIAKQApACAAPQAgADAALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBQAGEAcgB0AHMAQwBvAG0AcABsAGkAYQBuAGMAZQAsACAATgAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAbABnAFAAYQByAHQAcwAsACAATgAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAARABhAHQAZQAsACAAUABBAFIAUwBFAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAVABpAG0AZQAsACAAUABBAFIAUwBFAF8AVABJAE0ARQAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAA0ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAVABaACwAIABQAEEAUgBTAEUAXwBUAEkATQBFAF8AWgBPAE4ARQAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAA1ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAcwBvAFYAYQBsAHUAZQBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIABmAG4ASQBTAE8AVgBhAGwAdQBlAEMAbwBtAHAAbABpAGEAbgBjAGUAKABfAHAARABhAHQAZQAsACAAXwBwAFQAaQBtAGUALAAgAF8AcABUAFoAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAcwBvAEYAbwByAG0AYQB0AEMAbwBtAHAAbABpAGEAbgBjAGUALAAgAGYAbgBJAFMATwBGAG8AcgBtAGEAdABDAG8AbQBwAGwAaQBhAG4AYwBlACgAXwBwAEQAYQB0AGUALAAgAF8AcABUAGkAbQBlACwAIABfAHAAVABaACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBQAHIAZQBjAGkAcwBpAG8AbgBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIABmAG4ASQBTAE8AUAByAGUAYwBpAHMAaQBvAG4AQwBvAG0AcABsAGkAYQBuAGMAZQAoAF8AcABEAGEAdABlACwAIABfAHAAVABpAG0AZQAsACAAXwBwAFQAWgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAG8AQwBvAG0AcABsAGkAYQBuAGMAZQAsACAAKABfAGkAcwBvAFYAYQBsAHUAZQBDAG8AbQBwAGwAaQBhAG4AYwBlACAAKgAgAF8AaQBzAG8AUABhAHIAdABzAEMAbwBtAHAAbABpAGEAbgBjAGUAIAAqACAASQBOAEQARQBYACgAXwBpAHMAbwBGAG8AcgBtAGEAdABDAG8AbQBwAGwAaQBhAG4AYwBlACwAIAAxACwAIAAxACkAIAAqACAASQBOAEQARQBYACgAXwBpAHMAbwBQAHIAZQBjAGkAcwBpAG8AbgBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIAAxACwAIAAxACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHUAdABEAGEAdABlACwAIABEAFIATwBQACgAXwBwAEQAYQB0AGUALAAgACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHUAdABUAGkAbQBlACwAIABEAFIATwBQACgAXwBwAFQAaQBtAGUALAAgACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHUAdABUAFoALAAgAEQAUgBPAFAAKABfAHAAVABaACwAIAAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwBpAHMAbwBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIABfAGYAbABnAFAAYQByAHQAcwAsACAASQBOAEQARQBYACgAXwBpAHMAbwBQAHIAZQBjAGkAcwBpAG8AbgBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIAAxACwAIAAyACkALAAgAEkATgBEAEUAWAAoAF8AaQBzAG8ARgBvAHIAbQBhAHQAQwBvAG0AcABsAGkAYQBuAGMAZQAsACAAMQAsACAAMgApACwAIABfAG8AdQB0AEQAYQB0AGUALAAgAF8AbwB1AHQAVABpAG0AZQAsACAAXwBvAHUAdABUAFoAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8ARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6ACAAKwBZAFkAWQBZAFkALQBNAE0ALQBEAEQALAAgAFkAWQBZAFkALQBNAE0ALQBEAEQALAAgAFkAWQBZAFkALQBNAE0ALAAgACsAWQBZAFkAWQBNAE0ALAAgAFkAWQBZAFkAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABhAG4AIABpAG4AdgBhAGwAaQBkACAAZABhAHQAZQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AWwBNAG8AbgB0AGgAXQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgAG8AZgAgAHQAaABlACAAeQBlAGEAcgBcAG4AWwBEAGEAeQBdACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEQAYQB5ACAAbwBmACAAdABoAGUAIABtAG8AbgB0AGgAXABuAFsAQgBhAHMAaQBjAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABSAGUAdAB1AHIAbgAgAGkAbgAgAGIAYQBzAGkAYwAgAGYAbwByAG0AYQB0ACAAZQBnACAAWQBZAFkAWQBNAE0ARABEAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBGAE8AUgBNAEEAVABfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAAWwBNAG8AbgB0AGgAXQAsACAAWwBEAGEAeQBdACwAIABbAEIAYQBzAGkAYwBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAgACoAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AbwBuAHQAaAApACkAIAAqACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAIABOACgAQgBhAHMAaQBjACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5ACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkARgBtAHQALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABBAEIAUwAoAF8AeQApACAAPgA9ACAAMQAwADAAMAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAKwAwADAAMAAwADAAOwAtADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkAKQApACAAKgAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAKwAwADAAMAAwADsALQAwADAAMAAwADsAKwAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiADAAMAAwADAAOwAtADAAMAAwADAAOwAwADAAMAAwAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFkAZQBhAHIALAAgAFQARQBYAFQAKABfAHkALAAgAF8AeQBGAG0AdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AbwBuAHQAaAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMATQBvAG4AdABoACwAIABUAEUAWABUACgASQBOAFQAKABNAG8AbgB0AGgAKQAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAIABfAHMAWQBlAGEAcgAgACYAIABfAHMATQBvAG4AdABoACwAIABfAHMAWQBlAGEAcgAgACYAIABcACIALQBcACIAIAAmACAAXwBzAE0AbwBuAHQAaAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBEAGEAeQAsACAAVABFAFgAVAAoAEkATgBUACgARABhAHkAKQAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACAAJgAgAF8AcwBNAG8AbgB0AGgAIAAmACAAXwBzAEQAYQB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACAAJgAgAFwAIgAtAFwAIgAgACYAIABfAHMATQBvAG4AdABoACAAJgAgAFwAIgAtAFwAIgAgACYAIABfAHMARABhAHkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8AVABJAE0ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAdABpAG0AZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6ACAAVABoAGgAOgBtAG0AOgBzAHMALgBzAHMAcwAsACAAVABoAGgAOgBtAG0AOgBzAHMALAAgAFQAaABoADoAbQBtACwAIABUAGgAaABtAG0AcwBzACwAIABUAGgAaABcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAGEAbgAgAGkAbgB2AGEAbABpAGQAIAB0AGkAbQBlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASABvAHUAcgAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMAAuAC4AMgA0AFwAbgBNAGkAbgB1AHQAZQAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwAC4ALgA1ADkAXABuAFMAZQBjAG8AbgBkACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgADAALgAuADUAOQAuADkAOQA5AFwAbgBbAEIAYQBzAGkAYwBdACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABSAGUAdAB1AHIAbgAgAGkAbgAgAGIAYQBzAGkAYwAgAGYAbwByAG0AYQB0AFwAbgBbAFAAcgBlAGMAaQBzAGkAbwBuAF0AIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABTAGUAbABlAGMAdAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAbABlAHYAZQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMAAgAC0AIABhAHUAdABvAG0AYQB0AGkAYwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADEAIAAtACAAaABvAHUAcgBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMgAgAC0AIABtAGkAbgB1AHQAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABpAG4AdABlAGcAZQByACAAcwBlAGMAbwBuAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADQAIAAtACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHMAZQBjAG8AbgBkAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEYATwBSAE0AQQBUAF8AVABJAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAEgAbwB1AHIALAAgAE0AaQBuAHUAdABlACwAIABTAGUAYwBvAG4AZAAsACAAWwBCAGEAcwBpAGMAXQAsACAAWwBQAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEgAbwB1AHIAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAUwBlAGMAbwBuAGQAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFACgASABvAHUAcgAsACAATQBpAG4AdQB0AGUALAAgAFMAZQBjAG8AbgBkACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAE4AKABCAGEAcwBpAGMAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMALAAgAFIATwBVAE4ARABEAE8AVwBOACgATgAoAFMAZQBjAG8AbgBkACkALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQAsACAASQBOAFQAKABOACgATQBpAG4AdQB0AGUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoACwAIABJAE4AVAAoAE4AKABIAG8AdQByACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAE0AQQBYACgASQBOAFQAKABOACgAUAByAGUAYwBpAHMAaQBvAG4AKQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABJAFMATgBVAE0AQgBFAFIAKABTAGUAYwBvAG4AZAApACwAIABJAEYAKABfAHMAIAA9ACAASQBOAFQAKABfAHMAKQAsACAAMwAsACAANAApACwAIABJAFMATgBVAE0AQgBFAFIAKABNAGkAbgB1AHQAZQApACwAIAAyACwAIABUAFIAVQBFACwAIAAxACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVABcACIAIAAmACAAVABFAFgAVAAoAF8AaAAsACAAXAAiADAAMABcACIAKQAgACYAIABUAEUAWABUACgAXwBtACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBtACwAIABcACIAMAAwAFwAIgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB1AHMAZQBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAXAAiACAAJgAgAFQARQBYAFQAKABfAGgALAAgAFwAIgAwADAAXAAiACkAIAAmACAAVABFAFgAVAAoAF8AbQAsACAAXAAiADAAMABcACIAKQAgACYAIABUAEUAWABUACgAXwBzACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBtACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBzACwAIABcACIAMAAwAFwAIgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AXwB1AHMAZQBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAA0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFQARQBYAFQAKABfAG0ALAAgAFwAIgAwADAAXAAiACkAIAAmACAAVABFAFgAVAAoAF8AcwAsACAAXAAiADAAMAAuADAAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBtACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBzACwAIABcACIAMAAwAC4AMAAwADAAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8AVABJAE0ARQBfAFoATwBOAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgBcAG4ARQB4AGEAbQBwAGwAZQAgAGYAbwByAG0AYQB0AHMAIAAoAG4AbwB0ACAAZQB4AGgAYQB1AHMAdABpAHYAZQApADoAIAArAGgAaAA6AG0AbQA6AHMAcwAsACAALQBoAGgAOgBtAG0ALAAgACsAaABoACwAIABaAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAYQBuACAAaQBuAHYAYQBsAGkAZAAgAHQAaQBtAGUAIAB6AG8AbgBlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABmAHIAbwBtACAAVQBUAEMAIABpAG4AIABtAGkAbgB1AHQAZQBzACAALQA5ADAAMAAuAC4AKwA5ADAAMABcAG4AWwBCAGEAcwBpAGMAXQAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFIAZQB0AHUAcgBuACAAaQBuACAAYgBhAHMAaQBjACAAZgBvAHIAbQBhAHQAXABuAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABTAGUAbABlAGMAdAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAbABlAHYAZQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAAYQB1AHQAbwBtAGEAdABpAGMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABoAG8AdQByAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMgAgAC0AIABtAGkAbgB1AHQAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADMAIAAtACAAcwBlAGMAbwBuAGQAcwBcAG4AWwBOAG8AWgB1AGwAdQBdACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFUAcwBlACAAKwAwADAAOgAwADAAIABpAG4AcwB0AGUAYQBkACAAbwBmACAAWgAgAGYAbwByACAAVQBUAEMAIAB0AGkAbQBlACAAegBvAG4AZQAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBGAE8AUgBNAEEAVABfAFQASQBNAEUAXwBaAE8ATgBFACAAPQAgAEwAQQBNAEIARABBACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAsACAAWwBCAGEAcwBpAGMAXQAsACAAWwBQAHIAZQBjAGkAcwBpAG8AbgBdACwAIABbAE4AbwBaAHUAbAB1AF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAIABOACgAQgBhAHMAaQBjACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAE0AQQBYACgASQBOAFQAKABOACgAUAByAGUAYwBpAHMAaQBvAG4AKQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAYQByAFoAZQByAG8ALAAgAFIATwBVAE4ARABEAE8AVwBOACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAgACoAIAA2ADAALAAgADAAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgATgAoAE4AbwBaAHUAbAB1ACkAIAA9ACAAMAApACAAKgAgAF8AbgBlAGEAcgBaAGUAcgBvACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAXwBaAE8ATgBFACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAUwBlAGMAcwAsACAAUgBPAFUATgBEAEQATwBXAE4AKABNAE8ARAAoAE8AZgBmAHMAZQB0AE0AaQBuAHUAdABlAHMALAAgADEAKQAgACoAIAA2ADAALAAgADAAKQAgAD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBGAG0AdAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAUwBlAGMAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAFwAIgBoAGgAbQBtAHMAcwBcACIALAAgAFwAIgBoAGgAOgBtAG0AOgBzAHMAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAIABcACIAaABoAG0AbQBcACIALAAgAFwAIgBoAGgAOgBtAG0AXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBoAGgAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAFwAIgBoAGgAbQBtAFwAIgAsACAAXAAiAGgAaAA6AG0AbQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAFwAIgBoAGgAbQBtAHMAcwBcACIALAAgAFwAIgBoAGgAOgBtAG0AOgBzAHMAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABTAEkARwBOACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwApACAAPAAgADAALAAgAFwAIgAtAFwAIgAsACAAXAAiACsAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQALAAgAEEAQgBTACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwApACAALwAgADEANAA0ADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACAAJgAgAFQARQBYAFQAKABfAHQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAAXwBzAEYAbQB0ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQBuACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAIABhAHMAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuAFwAbgBFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgAgAFkAWQBZAFkALQBEAEQARAAsACAAWQBZAFkAWQBEAEQARABcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAGEAbgAgAGkAbgB2AGEAbABpAGQAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ATwByAGQAaQBuAGEAbAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG8AZgAgAHkAZQBhAHIAXABuAFsAQgBhAHMAaQBjAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABSAGUAdAB1AHIAbgAgAGkAbgAgAGIAYQBzAGkAYwAgAGYAbwByAG0AYQB0ACAAZQBnACAAWQBZAFkAWQBEAEQARABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBPAFIATQBBAFQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACwAIABbAEIAYQBzAGkAYwBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAgACoAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE8AcgBkAGkAbgBhAGwAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAE4AKABCAGEAcwBpAGMAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkALAAgAEkATgBUACgAWQBlAGEAcgBDAEUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBGAG0AdAAsACAASQBGACgAQQBCAFMAKABfAHkAKQAgAD4APQAgADEAMAAwADAAMAAsACAAXAAiACsAMAAwADAAMAAwADsALQAwADAAMAAwADAAXAAiACwAIABcACIAMAAwADAAMAA7AC0AMAAwADAAMAA7ADAAMAAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAWQBlAGEAcgAsACAAVABFAFgAVAAoAF8AeQAsACAAXwB5AEYAbQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMATwByAGQAaQBuAGEAbAAsACAAVABFAFgAVAAoAEkATgBUACgATwByAGQAaQBuAGEAbAApACwAIABcACIAMAAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsACAAXwBzAFkAZQBhAHIAIAAmACAAXwBzAE8AcgBkAGkAbgBhAGwALAAgAF8AcwBZAGUAYQByACAAJgAgAFwAIgAtAFwAIgAgACYAIABfAHMATwByAGQAaQBuAGEAbAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBGAE8AUgBNAEEAVABfAFcARQBFAEsAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIAB3AGUAZQBrACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6ACAAWQBZAFkAWQAtAFcAdwB3AC0ARAAsACAAWQBZAFkAWQAtAFcAdwB3ACwAIABZAFkAWQBZAFcAdwB3AEQALAAgAFkAWQBZAFkAVwB3AHcAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABhAG4AIABpAG4AdgBhAGwAaQBkACAAdwBlAGUAawAgAGQAYQB0AGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBXAGUAZQBrACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAHQAaABlACAAeQBlAGEAcgBcAG4ARABhAHkATwBmAFcAZQBlAGsAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABEAGEAeQAgAG8AZgAgAHQAaABlACAAdwBlAGUAawAgAHcAaABlAHIAZQAgADEALgAuADcAIAAtAD4AIABNAG8AbgAuAC4AUwB1AG4AIABcAG4AWwBCAGEAcwBpAGMAXQAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABSAGUAdAB1AHIAbgAgAGkAbgAgAGIAYQBzAGkAYwAgAGYAbwByAG0AYQB0ACAAZQBnACAAWQBZAFkAWQBXAHcAdwBEAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBGAE8AUgBNAEEAVABfAFcARQBFAEsAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAFcAZQBlAGsALAAgAEQAYQB5AE8AZgBXAGUAZQBrACwAIABbAEIAYQBzAGkAYwBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAgACoAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFcAZQBlAGsAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkATwBmAFcAZQBlAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBXAEUARQBLAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABXAGUAZQBrACwAIABEAGEAeQBPAGYAVwBlAGUAawApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAIABOACgAQgBhAHMAaQBjACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5ACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkARgBtAHQALAAgAEkARgAoAEEAQgBTACgAXwB5ACkAIAA+AD0AIAAxADAAMAAwADAALAAgAFwAIgArADAAMAAwADAAMAA7AC0AMAAwADAAMAAwAFwAIgAsACAAXAAiADAAMAAwADAAOwAtADAAMAAwADAAOwAwADAAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFkAZQBhAHIALAAgAFQARQBYAFQAKABfAHkALAAgAF8AeQBGAG0AdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFcAZQBlAGsALAAgAFQARQBYAFQAKABJAE4AVAAoAFcAZQBlAGsAKQAsACAAXAAiAFcAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5AE8AZgBXAGUAZQBrACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAF8AcwBZAGUAYQByACAAJgAgAF8AcwBXAGUAZQBrACwAIABfAHMAWQBlAGEAcgAgACYAIABcACIALQBcACIAIAAmACAAXwBzAFcAZQBlAGsAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACAAJgAgAF8AcwBXAGUAZQBrACAAJgAgAEkATgBUACgARABhAHkATwBmAFcAZQBlAGsAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAWQBlAGEAcgAgACYAIABcACIALQBcACIAIAAmACAAXwBzAFcAZQBlAGsAIAAmACAAXAAiAC0AXAAiACAAJgAgAEkATgBUACgARABhAHkATwBmAFcAZQBlAGsAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBPAFIATQBBAFQAXwBEAEEAVABFAF8AVABJAE0ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6ACAAWQBZAFkAWQAtAE0ATQAtAEQARABUAGgAaAA6AG0AbQA6AHMAcwAuAHMAcwBzACsAaABoADoAbQBtADoAcwBzACwAIABZAFkAWQBZAC0AVwB3AHcALQBEAFQAaABoADoAbQBtAFoALAAgAFQAaABoAG0AbQBzAHMAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABhAG4AIABpAG4AdgBhAGwAaQBkACAAZABhAHQAZQAsACAAdABpAG0AZQAgAG8AcgAgAHQAaQBtAGUAIAB6AG8AbgBlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABhAHQAZQBUAHkAcABlACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEQAYQB0AGUAIAB0AHkAcABlACAAcgBlAHAAcgBlAHMAZQBuAHQAZQBkACAAaQBuACAARABhAHQAZQBBAHIAZwAxACAAYQBuAGQAIABEAGEAdABlAEEAcgBnADIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMAAgAC0AIABuAG8AIABkAGEAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADEAIAAtACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADMAIAAtACAAdwBlAGUAawAgAGQAYQB0AGUAXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AWwBEAGEAdABlAEEAcgBnADEAXQAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgAG8AZgAgAHkAZQBhAHIAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADEAIAAgACAAIAAgACAAIAAgACAAMQAuAC4AMQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAVwBlAGUAawAgAG8AZgAgAHkAZQBhAHIAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADMAIAAgACAAIAAgACAAIAAgACAAIAAxAC4ALgA1ADMAXABuAFsARABhAHQAZQBBAHIAZwAyAF0AIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABEAGEAeQAgAG8AZgAgAG0AbwBuAHQAaAAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMQAgACAAIAAgACAAIAAgACAAIAAgADEALgAuADMAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAE8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG8AZgAgAHkAZQBhAHIAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADIAIAAgACAAMQAuAC4AMwA2ADYAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABEAGEAeQAgAG8AZgAgAHcAZQBlAGsAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADMAIAAgACAAIAAgACAAIAAgACAAIAAgADEALgAuADcAXABuAFsASABvAHUAcgBdACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwAC4ALgAyADQAXABuAFsATQBpAG4AdQB0AGUAXQAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwAC4ALgA1ADkAXABuAFsAUwBlAGMAbwBuAGQAXQAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAwAC4ALgA1ADkALgA5ADkAOQBcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDACAALQA5ADAAMAAuAC4AKwA5ADAAMABcAG4AWwBCAGEAcwBpAGMAXQAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFIAZQB0AHUAcgBuACAAaQBuACAAYgBhAHMAaQBjACAAZgBvAHIAbQBhAHQAIABlAGcAIABZAFkAWQBZAE0ATQBEAEQAVAAxADAANAA1ACsAMAA5ADMAMABcAG4AWwBQAHIAZQBjAGkAcwBpAG8AbgBdACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMAAgAC0AIABBAHUAdABvAG0AYQB0AGkAYwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAxACAALQAgAFkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMgAgAC0AIABNAG8AbgB0AGgALwBXAGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADMAIAAtACAARABhAHkALwBPAHIAZABpAG4AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADQAIAAtACAASABvAHUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA1ACAALQAgAE0AaQBuAHUAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADYAIAAtACAAUwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANwAgAC0AIABGAHIAYQBjAHQAaQBvAG4AYQBsAFwAbgBbAE4AbwBUAGkAbQBlAFoAbwBuAGUAXQAgACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARAByAG8AcAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAZgByAG8AbQAgAG8AdQB0AHAAdQB0AC4AXABuAFsATgBvAFoAdQBsAHUAXQAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABVAHMAZQAgACsAMAAwADoAMAAwACAAaQBuAHMAdABlAGEAZAAgAG8AZgAgAFoAIABmAG8AcgAgAFUAVABDACAAdABpAG0AZQAgAHoAbwBuAGUALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBPAFIATQBBAFQAXwBEAEEAVABFAF8AVABJAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgAEQAYQB0AGUAVAB5AHAAZQAsAFwAbgAgACAAIAAgAFsAWQBlAGEAcgBDAEUAXQAsAFwAbgAgACAAIAAgAFsARABhAHQAZQBBAHIAZwAxAF0ALABcAG4AIAAgACAAIABbAEQAYQB0AGUAQQByAGcAMgBdACwAXABuACAAIAAgACAAWwBIAG8AdQByAF0ALABcAG4AIAAgACAAIABbAE0AaQBuAHUAdABlAF0ALABcAG4AIAAgACAAIABbAFMAZQBjAG8AbgBkAF0ALABcAG4AIAAgACAAIABbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAXABuACAAIAAgACAAWwBCAGEAcwBpAGMAXQAsAFwAbgAgACAAIAAgAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAFsATgBvAFQAaQBtAGUAWgBvAG4AZQBdACwAXABuACAAIAAgACAAWwBOAG8AWgB1AGwAdQBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACwAIABNAEEAWAAoAEkATgBUACgATgAoAEQAYQB0AGUAVAB5AHAAZQApACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBEAGEAdABlACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACAAKwAgAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB0AGUAQQByAGcAMQApACAAKwAgAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB0AGUAQQByAGcAMgApACkAIAA8AD4AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBUAGkAbQBlACwAIAAoAEkAUwBOAFUATQBCAEUAUgAoAEgAbwB1AHIAKQAgACsAIABJAFMATgBVAE0AQgBFAFIAKABNAGkAbgB1AHQAZQApACAAKwAgAEkAUwBOAFUATQBCAEUAUgAoAFMAZQBjAG8AbgBkACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAF8AaABhAHMAVABpAG0AZQBaAG8AbgBlACwAIABJAFMATgBVAE0AQgBFAFIAKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXwBzAGgAbwB3AFQAaQBtAGUAWgBvAG4AZQAsACAATgAoAE4AbwBUAGkAbQBlAFoAbwBuAGUAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIABfAGkAcwBFAG0AcAB0AHkALAAgAF8AaABhAHMARABhAHQAZQAgACsAIABfAGgAYQBzAFQAaQBtAGUAIAArACAAKABfAGgAYQBzAFQAaQBtAGUAWgBvAG4AZQAgACoAIABfAHMAaABvAHcAVABpAG0AZQBaAG8AbgBlACkAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAEUAbQBwAHQAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBoAGEAcwBEAGEAdABlACAAKgAgAF8AaABhAHMAVABpAG0AZQBaAG8AbgBlACAAKgAgAF8AcwBoAG8AdwBUAGkAbQBlAFoAbwBuAGUAKQAgACoAIABOAE8AVAAoAF8AaABhAHMAVABpAG0AZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAIABNAEEAWAAoAEkATgBUACgATgAoAFAAcgBlAGMAaQBzAGkAbwBuACkAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHQAZQAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAwACkAIAArACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPgA9ACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAEQAYQB0AGUAQQByAGcAMQAsACAARABhAHQAZQBBAHIAZwAyACwAIABCAGEAcwBpAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABCAGEAcwBpAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABEAGEAdABlAEEAcgBnADEALAAgAFwAIgBcACIALAAgAEIAYQBzAGkAYwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADAAKQAgACsAIAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+AD0AIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAEQAYQB0AGUAQQByAGcAMgAsACAAQgBhAHMAaQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAFwAIgBcACIALAAgAEIAYQBzAGkAYwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMAApACAAKwAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD4APQAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8AVwBFAEUASwBfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAARABhAHQAZQBBAHIAZwAxACwAIABEAGEAdABlAEEAcgBnADIALAAgAEIAYQBzAGkAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBXAEUARQBLAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABCAGEAcwBpAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8AVwBFAEUASwBfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAARABhAHQAZQBBAHIAZwAxACwAIABcACIAXAAiACwAIABCAGEAcwBpAGMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAvAC8AXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFQAaQBtAGUALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMAApACAAKwAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD4APQAgADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAFQASQBNAEUAKABIAG8AdQByACwAIABNAGkAbgB1AHQAZQAsACAAUwBlAGMAbwBuAGQALAAgAEIAYQBzAGkAYwAsACAATQBBAFgAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAALQAgADMALAAgADAAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVABaAE8ALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAwACkAIAArACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPgA9ACAANAApACkAIAAqACAAXwBoAGEAcwBUAGkAbQBlAFoAbwBuAGUAIAAqACAAXwBzAGgAbwB3AFQAaQBtAGUAWgBvAG4AZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AVABaAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAA0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+AD0AIAA2ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAFQASQBNAEUAXwBaAE8ATgBFACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAIABCAGEAcwBpAGMALAAgAF8AVABaAHAAcgBlAGMAaQBzAGkAbwBuACwAIABOAG8AWgB1AGwAdQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHQAZQAgACYAIABfAHMAVABpAG0AZQAgACYAIABfAHMAVABaAE8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAE8AXwBUAE8AXwBEAEEAVABFAFwAbgBcAG4AQwBvAG4AdgBlAHIAdABzACAAdABlAHgAdAAgAGkAbgAgAEkAUwBPACAAZgBvAHIAbQBhAHQAIAB0AG8AIABhAG4AIABFAHgAYwBlAGwAIABkAGEAdABlAC4AIABcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABFAHgAYwBlAGwAIABEAGEAdABlACAAIAAgACAAIAB8ACAAZABhAHQAZQAgACAAIAAgAHwAIAAxADkAMAAwAC0AMAAxAC0AMAAxAFQAMAAwADoAMAAwAC4ALgA5ADkAOQA5AC0AMQAyAC0AMwAxAFQAMgA0ADoAMAAwAFwAbgAgACAAMgAgAHwAIABNAGkAbgB1AHQAZQBzACAAbwBmAGYAcwBlAHQAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAtADkAMAAwAC4ALgArADkAMAAwACAATwBwAHQAaQBvAG4AYQBsACwAIAB0AG8AZwBnAGwAZQBkACAAYgB5ACAAUgBlAHQAdQByAG4AVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVABlAHgAdAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHQAcgBpAG4AZwAgAHwAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAB0AGUAZAAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUALgBcAG4AWwBSAGUAdAB1AHIAbgBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABzAHcAaQB0AGMAaAAgAHwAIABJAG4AYwBsAHUAZABlACAAYQBuAG8AdABoAGUAcgAgAGMAbwBsAHUAbQBuACAAdABvACAAcgBlAHQAdQByAG4AIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMATwBfAFQATwBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABUAGUAeAB0ACwAIABbAFIAZQB0AHUAcgBuAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAsACAATABBAE0AQgBEAEEAKABfAGUALAAgAF8AZgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBOAEEAKABfAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AZgAsACAAewAjAE4ALwBBACwAIAAjAE4ALwBBAH0ALAAgACMATgAvAEEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBFAFIAUgAoAF8AZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBmACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsACAAIwBWAEEATABVAEUAIQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlACAAPQAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGYALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAIABcACIAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABfAGYAVABaAE8ALAAgAE4AKABSAGUAdAB1AHIAbgBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAeAB0ACAAPQAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAFwAIgAsACAAXwBmAFQAWgBPACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAbABlAG0AZQBuAHQAcwAsACAAUABBAFIAUwBFAF8ARABBAFQARQBfAFQASQBNAEUAKABUAGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvAEkAUwBFAFIAUgBPAFIAKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAgACwAIAAxACkAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEAIAAsACAAMQApACwAIABfAGYAVABaAE8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvAEkAUwBFAFIAUgBPAFIAKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAgACwAIAAyACkAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEAIAAsACAAMgApACwAIABfAGYAVABaAE8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvAEkAUwBFAFIAUgBPAFIAKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAgACwAIAA1ACkAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEAIAAsACAANQApACwAIABfAGYAVABaAE8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUALAAgAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBUAGkAbQBlACwAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBOAFUATQBCAEUAUgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA1ACkAKQAgACsAIABJAFMATgBVAE0AQgBFAFIAKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAANgApACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAE4AVQBNAEIARQBSACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADcAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAFQAaQBtAGUAWgBvAG4AZQAsACAASQBTAE4AVQBNAEIARQBSACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADgAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgAsACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8ASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgACAAKABfAGQAYQB0AGUAVAB5AHAAZQAgAD4AIAAwACkAIAAqACAAKAAoAF8AeQBlAGEAcgAgADwAIAAxADkAMAAwACkAIAArACAAKABfAHkAZQBhAHIAIAA+ACAAOQA5ADkAOQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoACMAVgBBAEwAVQBFACEALAAgAF8AZgBUAFoATwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwBMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAEUAUgBSAE8AUgAoAF8AeQBlAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAGQAYQB0AGUAVAB5AHAAZQAgAD4AIAAwACkAIAAqACAAKAAoAF8AeQBlAGEAcgAgADwAIAAxADkAMAAwACkAIAArACAAKABfAHkAZQBhAHIAIAA+ACAAOQA5ADkAOQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEQAQQBUAEUAKABfAHkAZQBhAHIALAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAAMwApACkALAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAANAApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAEQAYQB0AGUALAAgAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAF8AeQBlAGEAcgAsACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA0ACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAEEAVABFACgASQBOAEQARQBYACgAXwBjAEQAYQB0AGUALAAgADEALAAgADEAKQAsACAASQBOAEQARQBYACgAXwBjAEQAYQB0AGUALAAgADEALAAgADIAKQAsACAASQBOAEQARQBYACgAXwBjAEQAYQB0AGUALAAgADEALAAgADMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBEAGEAdABlACwAIABGAFIATwBNAF8AVwBFAEUASwBfAEQAQQBUAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAAMwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA0ACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGMARABhAHQAZQAsACAAMQAsACAAMQApACwAIABJAE4ARABFAFgAKABfAGMARABhAHQAZQAsACAAMQAsACAAMgApACwAIABJAE4ARABFAFgAKABfAGMARABhAHQAZQAsACAAMQAsACAAMwApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAVABpAG0AZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQASQBNAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAANQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAANgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAANwApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAHQALAAgAF8AZABhAHQAZQAgACsAIABfAHQAaQBtAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAFQAWgBPACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8ALAAgAEkARgAoAF8AaABhAHMAVABpAG0AZQBaAG8AbgBlACwAIABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAAOAApACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwBkAHQALAAgAF8AdAB6AG8AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAQQBUAEUAXwBUAE8AXwBJAFMATwBcAG4AXABuAEMAbwBuAHYAZQByAHQAcwAgAGEAbgAgAEUAeABjAGUAbAAgAGQAYQB0AGUAIAB0AG8AIABJAFMATwAgAGYAbwByAG0AYQB0AHQAZQBkACAAdABlAHgAdAAuAFwAbgBFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgAgAFkAWQBZAFkALQBNAE0ALQBEAEQAVABoAGgAOgBtAG0AOgBzAHMALgBzAHMAcwArAGgAaAA6AG0AbQA6AHMAcwAsACAAWQBZAFkAWQAtAFcAdwB3AC0ARABUAGgAaAA6AG0AbQBaACwAIABUAGgAaABtAG0AcwBzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGEAdABlACAAIAAgACAAfAAgAEEAbgAgAEUAeABjAGUAbAAgAGQAYQB0AGUAIABhAG4AZAAvAG8AcgAgAHQAaQBtAGUALgBcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDACAALQA5ADAAMAAuAC4AKwA5ADAAMAAgAFwAbgBbAEIAYQBzAGkAYwBdACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAUgBlAHQAdQByAG4AIABpAG4AIABiAGEAcwBpAGMAIABmAG8AcgBtAGEAdAAgAGUAZwAgAFkAWQBZAFkATQBNAEQARABUAGgAaABtAG0AKwBoAGgAXABuAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABTAGUAbABlAGMAdAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAbABlAHYAZQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAAQQB1AHQAbwBtAGEAdABpAGMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABZAGUAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADIAIAAtACAATQBvAG4AdABoAC8AVwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAzACAALQAgAEQAYQB5AC8ATwByAGQAaQBuAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA0ACAALQAgAEgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANQAgAC0AIABNAGkAbgB1AHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA2ACAALQAgAFMAZQBjAG8AbgBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADcAIAAtACAARgByAGEAYwB0AGkAbwBuAGEAbABcAG4AWwBOAG8AVABpAG0AZQBaAG8AbgBlAF0AIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAEQAcgBvAHAAIAB0AGkAbQBlACAAegBvAG4AZQAgAGYAcgBvAG0AIABvAHUAdABwAHUAdAAuAFwAbgBbAE4AbwBaAHUAbAB1AF0AIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAVQBzAGUAIAArADAAMAA6ADAAMAAgAGkAbgBzAHQAZQBhAGQAIABvAGYAIABaACAAZgBvAHIAIABVAFQAQwAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQAQQBUAEUAXwBUAE8AXwBJAFMATwAgAD0AIABMAEEATQBCAEQAQQAoAEQAYQB0AGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsAQgBhAHMAaQBjAF0ALAAgAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAsACAAWwBOAG8AVABpAG0AZQBaAG8AbgBlAF0ALAAgAFsATgBvAFoAdQBsAHUAXQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAdABlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBEAGEAdABlACwAIABJAE4AVAAoAE4AKABEAGEAdABlACkAIAA8AD4AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABJAEYAKABfAGgAYQBzAEQAYQB0AGUALAAgAFkARQBBAFIAKABEAGEAdABlACkALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAASQBGACgAXwBoAGEAcwBEAGEAdABlACwAIABNAE8ATgBUAEgAKABEAGEAdABlACkALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAIABJAEYAKABfAGgAYQBzAEQAYQB0AGUALAAgAEQAQQBZACgARABhAHQAZQApACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBEAEEAVABFAF8AVABJAE0ARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABfAGgAYQBzAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgATwBVAFIAKABEAGEAdABlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEkATgBVAFQARQAoAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMARQBDAE8ATgBEACgARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBhAHMAaQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUAByAGUAYwBpAHMAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAG8AVABpAG0AZQBaAG8AbgBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBvAFoAdQBsAHUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIASQBTAE8AXwA4ADYAMAAxAC4ASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAiACwAIgBJAFMATwBfADgANgAwADEALgBJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAiACwAIgBJAFMATwBfADgANgAwADEALgBJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ASQBTAF8AVgBBAEwASQBEAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ASQBTAF8AVgBBAEwASQBEAF8AVwBFAEUASwBfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AWQBFAEEAUgBfAEQAQQBZAF8AQwBPAFUATgBUACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFkARQBBAFIAXwBXAEUARQBLAF8AQwBPAFUATgBUACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEQAQQBZAF8ATwBSAEQASQBOAEEATAAiACwAIgBJAFMATwBfADgANgAwADEALgBGAFIATwBNAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARABBAFkAXwBPAEYAXwBXAEUARQBLACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEQAQQBZAF8ATwBGAF8AVwBFAEUASwBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFcARQBFAEsAXwBOAFUATQBCAEUAUgAiACwAIgBJAFMATwBfADgANgAwADEALgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAiACwAIgBJAFMATwBfADgANgAwADEALgBUAE8AXwBXAEUARQBLAF8ARABBAFQARQAiACwAIgBJAFMATwBfADgANgAwADEALgBGAFIATwBNAF8AVwBFAEUASwBfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AVgBBAEwASQBEAEEAVABFAF8AQwBIAEEAUgBBAEMAVABFAFIAUwAiACwAIgBJAFMATwBfADgANgAwADEALgBQAEEAUgBTAEUAXwBEAEEAVABFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFAAQQBSAFMARQBfAFQASQBNAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AUABBAFIAUwBFAF8AVABJAE0ARQBfAFoATwBOAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AUABBAFIAUwBFAF8AUABBAFIAVABTACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFAAQQBSAFMARQBfAEQAQQBUAEUAXwBUAEkATQBFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEYATwBSAE0AQQBUAF8ARABBAFQARQAiACwAIgBJAFMATwBfADgANgAwADEALgBGAE8AUgBNAEEAVABfAFQASQBNAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARgBPAFIATQBBAFQAXwBUAEkATQBFAF8AWgBPAE4ARQAiACwAIgBJAFMATwBfADgANgAwADEALgBGAE8AUgBNAEEAVABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEYATwBSAE0AQQBUAF8AVwBFAEUASwBfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARgBPAFIATQBBAFQAXwBEAEEAVABFAF8AVABJAE0ARQAiACwAIgBJAFMATwBfADgANgAwADEALgBJAFMATwBfAFQATwBfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARABBAFQARQBfAFQATwBfAEkAUwBPACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIARABNAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/ISO_8601_LambdaModule.xlsx
+++ b/ISO_8601_LambdaModule.xlsx
@@ -1,33 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb3931c8741440f/Projects/Datachord/Excel-Lambda-Calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74761" documentId="8_{DFA77A6B-FBDE-4886-B468-047A0C0C0603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{337F5902-C52C-44F7-A7D1-93D5A3C10C2D}"/>
+  <xr:revisionPtr revIDLastSave="7841" documentId="8_{19407E84-97AB-407A-B069-4931D05A9863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD3A4CC-0491-4D26-94F5-7CC72D108AFD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E51D3FA6-F220-43B2-A131-7A848E5BABC5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="771" activeTab="4" xr2:uid="{E51D3FA6-F220-43B2-A131-7A848E5BABC5}"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_8601_Logical" sheetId="1" r:id="rId1"/>
     <sheet name="ISO_8601_Calendar" sheetId="3" r:id="rId2"/>
-    <sheet name="ISO_8601_Parsing" sheetId="4" r:id="rId3"/>
+    <sheet name="ISO_8601_Parse" sheetId="4" r:id="rId3"/>
+    <sheet name="ISO_8601_Format" sheetId="7" r:id="rId4"/>
+    <sheet name="ISO_8601_Convert" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="ISO_8601.DATE_TO_ISO">_xlfn.LAMBDA(_xlpm.Date,_xlop.TimeZoneOffset,_xlop.Basic,_xlop.Precision,_xlop.NoTimeZone,_xlop.NoZulu, IF(NOT(ISNUMBER(_xlpm.Date)), "", _xlfn.LET(_xlpm._hasDate, INT(N(_xlpm.Date) &lt;&gt; 0), _xlpm._year, IF(_xlpm._hasDate, YEAR(_xlpm.Date), ""), _xlpm._month, IF(_xlpm._hasDate, MONTH(_xlpm.Date), ""), _xlpm._day, IF(_xlpm._hasDate, DAY(_xlpm.Date), ""), ISO_8601.FORMAT_DATE_TIME(N(_xlpm._hasDate), _xlpm._year, _xlpm._month, _xlpm._day, HOUR(_xlpm.Date), MINUTE(_xlpm.Date), SECOND(_xlpm.Date), _xlpm.TimeZoneOffset, _xlpm.Basic, _xlpm.Precision, _xlpm.NoTimeZone, _xlpm.NoZulu))))</definedName>
+    <definedName name="ISO_8601.CONVERT_FROM_DATE">_xlfn.LAMBDA(_xlpm.Date,_xlop.TimeZoneOffset,_xlop.Basic,_xlop.Signed,_xlop.Precision,_xlop.NoTimeZone,_xlop.NoZulu, IF(NOT(ISNUMBER(_xlpm.Date)), "", _xlfn.LET(_xlpm._hasDate, INT(N(_xlpm.Date) &lt;&gt; 0), _xlpm._year, IF(_xlpm._hasDate, YEAR(_xlpm.Date), ""), _xlpm._month, IF(_xlpm._hasDate, MONTH(_xlpm.Date), ""), _xlpm._day, IF(_xlpm._hasDate, DAY(_xlpm.Date), ""), _xlpm._tSec1, ROUND((_xlpm.Date - INT(N(_xlpm.Date))) * 86400, 3), _xlpm._hour, INT(_xlpm._tSec1 / 3600), _xlpm._tSec2, _xlpm._tSec1 - (_xlpm._hour * 3600), _xlpm._minute, INT(_xlpm._tSec2 / 60), _xlpm._second, _xlpm._tSec2 - (_xlpm._minute * 60), ISO_8601.FORMAT_ISO8601(N(_xlpm._hasDate), _xlpm._year, _xlpm._month, _xlpm._day, _xlpm._hour, _xlpm._minute, _xlpm._second, _xlpm.TimeZoneOffset, _xlpm.Basic, _xlpm.Signed, _xlpm.Precision, _xlpm.NoTimeZone, _xlpm.NoZulu))))</definedName>
+    <definedName name="ISO_8601.CONVERT_TO_DATE">_xlfn.LAMBDA(_xlpm.Text,_xlop.Strict, _xlfn.LET(_xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception, _xlfn.IFS(_xlpm._exception = "N/A", {#N/A,#N/A}, _xlpm._exception = "NUM", {#NUM!,#NUM!}, TRUE, {"",""})), IF(_xlpm.Text = "", _xlpm.fnException(""), _xlfn.LET(_xlpm._strict, N(_xlpm.Strict) &lt;&gt; 0, _xlpm._elements, ISO_8601.PARSE_ISO8601(_xlpm.Text), IF(_xlpm._strict * (INDEX(_xlpm._elements, 1, 1) = FALSE), _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._hasDate, _xlfn.BITAND(INDEX(_xlpm._elements, 1, 2), 4) = 4, _xlpm._year, N(INDEX(_xlpm._elements, 1, 6)), IF(_xlpm._hasDate * ((_xlpm._year &lt; 1900) + (_xlpm._year &gt; 9999)), _xlpm.fnException("NUM"), _xlfn.LET(_xlpm._dateType, INDEX(_xlpm._elements, 1, 5), _xlpm._date, IF(_xlpm._hasDate, _xlfn.IFS(_xlpm._dateType = 1, DATE(_xlpm._year, N(INDEX(_xlpm._elements, 1, 7)), N(INDEX(_xlpm._elements, 1, 8))), _xlpm._dateType = 2, _xlfn.LET(_xlpm._cDate, ISO_8601.FROM_ORDINAL_DATE(_xlpm._year, N(INDEX(_xlpm._elements, 1, 8))), DATE(INDEX(_xlpm._cDate, 1, 1), INDEX(_xlpm._cDate, 1, 2), INDEX(_xlpm._cDate, 1, 3))), _xlpm._dateType = 3, _xlfn.LET(_xlpm._cDate, ISO_8601.FROM_WEEK_DATE(_xlpm._year, N(INDEX(_xlpm._elements, 1, 7)), N(INDEX(_xlpm._elements, 1, 8))), DATE(INDEX(_xlpm._cDate, 1, 1), INDEX(_xlpm._cDate, 1, 2), INDEX(_xlpm._cDate, 1, 3)))), 0), _xlpm._hasTime, _xlfn.BITAND(INDEX(_xlpm._elements, 1, 2), 2) = 2, _xlpm._time, IF(_xlpm._hasTime, TIME(N(INDEX(_xlpm._elements, 1, 9)), N(INDEX(_xlpm._elements, 1, 10)), N(INDEX(_xlpm._elements, 1, 11))), 0), _xlpm._dt, _xlpm._date + _xlpm._time, _xlpm._hasTZ, (_xlfn.BITAND(INDEX(_xlpm._elements, 1, 2), 1) = 1), _xlpm._tzo, IF(_xlpm._hasTZ, INDEX(_xlpm._elements, 1, 12), ""), _xlfn.HSTACK(_xlpm._dt, _xlpm._tzo)))))))))</definedName>
     <definedName name="ISO_8601.DAY_OF_WEEK">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Month,_xlpm.Day, IF(NOT(ISO_8601.IS_VALID_DATE(_xlpm.YearCE, _xlpm.Month, _xlpm.Day, 1)), #VALUE!, _xlfn.LET(_xlpm._zellerMonth, MOD(INT(_xlpm.Month) - 3, 12) + 3, _xlpm._zellerYear, INT(_xlpm.YearCE) - INT(_xlpm._zellerMonth / 13), _xlpm._yearOfCent, MOD(_xlpm._zellerYear, 100), _xlpm._zeroBasedCent, INT(_xlpm._zellerYear / 100), _xlpm._zellerWeekDay, MOD(INT(_xlpm.Day) + INT(13 * (_xlpm._zellerMonth + 1) / 5) + _xlpm._yearOfCent + INT(_xlpm._yearOfCent / 4) + INT(_xlpm._zeroBasedCent / 4) - 2 * _xlpm._zeroBasedCent, 7), MOD(_xlpm._zellerWeekDay + 5, 7) + 1)))</definedName>
     <definedName name="ISO_8601.DAY_OF_WEEK_FROM_ORDINAL">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Ordinal, IF(NOT(ISO_8601.IS_VALID_ORDINAL_DATE(_xlpm.YearCE, _xlpm.Ordinal)), #VALUE!, _xlfn.LET(_xlpm._firstDayOfYear, ISO_8601.DAY_OF_WEEK(_xlpm.YearCE, 1, 1), MOD(_xlpm._firstDayOfYear + INT(_xlpm.Ordinal) - 2, 7) + 1)))</definedName>
     <definedName name="ISO_8601.DAY_ORDINAL">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Month,_xlpm.Day, IF(NOT(ISO_8601.IS_VALID_DATE(_xlpm.YearCE, _xlpm.Month, _xlpm.Day, 1)), #VALUE!, _xlfn.LET(_xlpm._monthOffset, {0,31,59,90,120,151,181,212,243,273,304,334}, _xlpm._month, INT(_xlpm.Month), _xlpm.Day + INDEX(_xlpm._monthOffset, , _xlpm._month) + IF(_xlpm._month &lt;= 2, 0, N(ISO_8601.IS_LEAP_YEAR(_xlpm.YearCE))))))</definedName>
-    <definedName name="ISO_8601.FORMAT_DATE">_xlfn.LAMBDA(_xlpm.YearCE,_xlop.Month,_xlop.Day,_xlop.Basic, IF(NOT(ISNUMBER(_xlpm.YearCE)) * NOT(ISNUMBER(_xlpm.Month)) * NOT(ISNUMBER(_xlpm.Day)), "", IF(NOT(ISO_8601.IS_VALID_DATE(_xlpm.YearCE, _xlpm.Month, _xlpm.Day)), #VALUE!, _xlfn.LET(_xlpm._basicFormat, N(_xlpm.Basic) &lt;&gt; 0, _xlpm._y, INT(_xlpm.YearCE), _xlpm._yFmt, _xlfn.IFS(ABS(_xlpm._y) &gt;= 10000, "+00000;-00000", NOT(ISNUMBER(_xlpm.Day)) * _xlpm._basicFormat, "+0000;-0000;+0000", TRUE, "0000;-0000;0000"), _xlpm._sYear, TEXT(_xlpm._y, _xlpm._yFmt), IF(NOT(ISNUMBER(_xlpm.Month)), _xlpm._sYear, _xlfn.LET(_xlpm._sMonth, TEXT(INT(_xlpm.Month), "00"), IF(NOT(ISNUMBER(_xlpm.Day)), IF(_xlpm._basicFormat, _xlpm._sYear &amp; _xlpm._sMonth, _xlpm._sYear &amp; "-" &amp; _xlpm._sMonth), _xlfn.LET(_xlpm._sDay, TEXT(INT(_xlpm.Day), "00"), IF(_xlpm._basicFormat, _xlpm._sYear &amp; _xlpm._sMonth &amp; _xlpm._sDay, _xlpm._sYear &amp; "-" &amp; _xlpm._sMonth &amp; "-" &amp; _xlpm._sDay)))))))))</definedName>
-    <definedName name="ISO_8601.FORMAT_DATE_TIME">_xlfn.LAMBDA(_xlpm.DateType,_xlop.YearCE,_xlop.DateArg1,_xlop.DateArg2,_xlop.Hour,_xlop.Minute,_xlop.Second,_xlop.TimeZoneOffset,_xlop.Basic,_xlop.Precision,_xlop.NoTimeZone,_xlop.NoZulu, _xlfn.LET(_xlpm._dateType, MAX(INT(N(_xlpm.DateType)), 0), _xlpm._hasDate, IF(_xlpm._dateType = 0, FALSE, (ISNUMBER(_xlpm.YearCE) + ISNUMBER(_xlpm.DateArg1) + ISNUMBER(_xlpm.DateArg2)) &lt;&gt; 0), _xlpm._hasTime, (ISNUMBER(_xlpm.Hour) + ISNUMBER(_xlpm.Minute) + ISNUMBER(_xlpm.Second)) &lt;&gt; 0, _xlpm._hasTimeZone, ISNUMBER(_xlpm.TimeZoneOffset), _xlpm._showTimeZone, N(_xlpm.NoTimeZone) = 0, _xlpm._isEmpty, _xlpm._hasDate + _xlpm._hasTime + (_xlpm._hasTimeZone * _xlpm._showTimeZone) = 0, IF(_xlpm._isEmpty, "", IF((_xlpm._hasDate * _xlpm._hasTimeZone * _xlpm._showTimeZone) * NOT(_xlpm._hasTime), #VALUE!, _xlfn.LET(_xlpm._precision, MAX(INT(N(_xlpm.Precision)), 0), _xlpm._sDate, _xlfn.IFS(_xlpm._dateType = 1, _xlfn.IFS((_xlpm._precision = 0) + (_xlpm._precision &gt;= 3), ISO_8601.FORMAT_DATE(_xlpm.YearCE, _xlpm.DateArg1, _xlpm.DateArg2, _xlpm.Basic), _xlpm._precision = 1, ISO_8601.FORMAT_DATE(_xlpm.YearCE, "", "", _xlpm.Basic), _xlpm._precision = 2, ISO_8601.FORMAT_DATE(_xlpm.YearCE, _xlpm.DateArg1, "", _xlpm.Basic)), _xlpm._dateType = 2, IF((_xlpm._precision = 0) + (_xlpm._precision &gt;= 3), ISO_8601.FORMAT_ORDINAL_DATE(_xlpm.YearCE, _xlpm.DateArg2, _xlpm.Basic), ISO_8601.FORMAT_ORDINAL_DATE(_xlpm.YearCE, "", _xlpm.Basic)), _xlpm._dateType = 3, _xlfn.IFS((_xlpm._precision = 0) + (_xlpm._precision &gt;= 3), ISO_8601.FORMAT_WEEK_DATE(_xlpm.YearCE, _xlpm.DateArg1, _xlpm.DateArg2, _xlpm.Basic), _xlpm._precision = 1, ISO_8601.FORMAT_WEEK_DATE(_xlpm.YearCE, "", "", _xlpm.Basic), _xlpm._precision = 2, ISO_8601.FORMAT_WEEK_DATE(_xlpm.YearCE, _xlpm.DateArg1, "", _xlpm.Basic)), TRUE, ""), _xlpm._sTime, IF((_xlpm._precision = 0) + (_xlpm._precision &gt;= 4), ISO_8601.FORMAT_TIME(_xlpm.Hour, _xlpm.Minute, _xlpm.Second, _xlpm.Basic, MAX(_xlpm._precision - 3, 0)), ""), _xlpm._sTZO, IF(((_xlpm._precision = 0) + (_xlpm._precision &gt;= 4)) * _xlpm._hasTimeZone * _xlpm._showTimeZone, _xlfn.LET(_xlpm._TZprecision, _xlfn.IFS(_xlpm._precision = 4, 1, _xlpm._precision = 5, 2, _xlpm._precision &gt;= 6, 3, TRUE, 0), ISO_8601.FORMAT_TIME_ZONE(_xlpm.TimeZoneOffset, _xlpm.Basic, _xlpm._TZprecision, _xlpm.NoZulu)), ""), _xlpm._sDate &amp; _xlpm._sTime &amp; _xlpm._sTZO)))))</definedName>
-    <definedName name="ISO_8601.FORMAT_ORDINAL_DATE">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Ordinal,_xlop.Basic, IF(NOT(ISNUMBER(_xlpm.YearCE)) * NOT(ISNUMBER(_xlpm.Ordinal)), "", IF(NOT(ISO_8601.IS_VALID_ORDINAL_DATE(_xlpm.YearCE, _xlpm.Ordinal)), #VALUE!, _xlfn.LET(_xlpm._basicFormat, N(_xlpm.Basic) &lt;&gt; 0, _xlpm._y, INT(_xlpm.YearCE), _xlpm._yFmt, IF(ABS(_xlpm._y) &gt;= 10000, "+00000;-00000", "0000;-0000;0000"), _xlpm._sYear, TEXT(_xlpm._y, _xlpm._yFmt), _xlpm._sOrdinal, TEXT(INT(_xlpm.Ordinal), "000"), IF(_xlpm._basicFormat, _xlpm._sYear &amp; _xlpm._sOrdinal, _xlpm._sYear &amp; "-" &amp; _xlpm._sOrdinal)))))</definedName>
+    <definedName name="ISO_8601.FORMAT_DATE">_xlfn.LAMBDA(_xlpm.YearCE,_xlop.Month,_xlop.Day,_xlop.Basic,_xlop.Signed, IF(NOT(ISNUMBER(_xlpm.YearCE)) * NOT(ISNUMBER(_xlpm.Month)) * NOT(ISNUMBER(_xlpm.Day)), "", IF(NOT(ISO_8601.IS_VALID_DATE(_xlpm.YearCE, _xlpm.Month, _xlpm.Day)), #VALUE!, _xlfn.LET(_xlpm._basicFormat, N(_xlpm.Basic) &lt;&gt; 0, _xlpm._signedYear, N(_xlpm.Signed) &lt;&gt; 0, IF(NOT(ISNUMBER(_xlpm.Day)) * _xlpm._basicFormat, #VALUE!, _xlfn.LET(_xlpm._y, INT(_xlpm.YearCE), _xlpm._yFmt, _xlfn.IFS(ABS(_xlpm._y) &gt;= 10000, "+00000;" &amp; _xlfn.UNICHAR(8722) &amp; "00000", _xlpm._signedYear, "+0000;" &amp; _xlfn.UNICHAR(8722) &amp; "0000;+0000", TRUE, "0000;" &amp; _xlfn.UNICHAR(8722) &amp; "0000;0000"), _xlpm._sYear, TEXT(_xlpm._y, _xlpm._yFmt), IF(NOT(ISNUMBER(_xlpm.Month)), _xlpm._sYear, _xlfn.LET(_xlpm._sMonth, TEXT(INT(_xlpm.Month), "00"), IF(NOT(ISNUMBER(_xlpm.Day)), IF(_xlpm._basicFormat, _xlpm._sYear &amp; _xlpm._sMonth, _xlpm._sYear &amp; "-" &amp; _xlpm._sMonth), _xlfn.LET(_xlpm._sDay, TEXT(INT(_xlpm.Day), "00"), IF(_xlpm._basicFormat, _xlpm._sYear &amp; _xlpm._sMonth &amp; _xlpm._sDay, _xlpm._sYear &amp; "-" &amp; _xlpm._sMonth &amp; "-" &amp; _xlpm._sDay)))))))))))</definedName>
+    <definedName name="ISO_8601.FORMAT_ISO8601">_xlfn.LAMBDA(_xlpm.DateType,_xlop.YearCE,_xlop.DateArg1,_xlop.DateArg2,_xlop.Hour,_xlop.Minute,_xlop.Second,_xlop.TimeZoneOffset,_xlop.Basic,_xlop.Signed,_xlop.Precision,_xlop.NoTimeZone,_xlop.NoZulu, _xlfn.LET(_xlpm._dateType, _xlfn.LET(_xlpm._dt, MAX(INT(N(_xlpm.DateType)), 0), IF(_xlpm._dt &gt; 3, 0, _xlpm._dt)), _xlpm._hasDate, IF(_xlpm._dateType = 0, FALSE, (ISNUMBER(_xlpm.YearCE) + ISNUMBER(_xlpm.DateArg1) + ISNUMBER(_xlpm.DateArg2)) &lt;&gt; 0), _xlpm._hasTime, (ISNUMBER(_xlpm.Hour) + ISNUMBER(_xlpm.Minute) + ISNUMBER(_xlpm.Second)) &lt;&gt; 0, _xlpm._hasTimeZone, ISNUMBER(_xlpm.TimeZoneOffset), _xlpm._showTimeZone, N(_xlpm.NoTimeZone) = 0, _xlpm._isEmpty, _xlpm._hasDate + _xlpm._hasTime + (_xlpm._hasTimeZone * _xlpm._showTimeZone) = 0, IF(_xlpm._isEmpty, "", IF((_xlpm._hasDate * _xlpm._hasTimeZone * _xlpm._showTimeZone) * NOT(_xlpm._hasTime), #VALUE!, _xlfn.LET(_xlpm._precision, MAX(INT(N(_xlpm.Precision)), 0), _xlpm._sDate, _xlfn.IFS(_xlpm._dateType = 1, _xlfn.IFS((_xlpm._precision = 0) + (_xlpm._precision &gt;= 3), ISO_8601.FORMAT_DATE(_xlpm.YearCE, _xlpm.DateArg1, _xlpm.DateArg2, _xlpm.Basic, _xlpm.Signed), _xlpm._precision = 1, ISO_8601.FORMAT_DATE(_xlpm.YearCE, "", "", _xlpm.Basic, _xlpm.Signed), _xlpm._precision = 2, ISO_8601.FORMAT_DATE(_xlpm.YearCE, _xlpm.DateArg1, "", _xlpm.Basic, _xlpm.Signed)), _xlpm._dateType = 2, IF((_xlpm._precision = 0) + (_xlpm._precision &gt;= 3), ISO_8601.FORMAT_ORDINAL_DATE(_xlpm.YearCE, _xlpm.DateArg2, _xlpm.Basic, _xlpm.Signed), ISO_8601.FORMAT_ORDINAL_DATE(_xlpm.YearCE, "", _xlpm.Basic, _xlpm.Signed)), _xlpm._dateType = 3, _xlfn.IFS((_xlpm._precision = 0) + (_xlpm._precision &gt;= 3), ISO_8601.FORMAT_WEEK_DATE(_xlpm.YearCE, _xlpm.DateArg1, _xlpm.DateArg2, _xlpm.Basic, _xlpm.Signed), _xlpm._precision = 1, ISO_8601.FORMAT_WEEK_DATE(_xlpm.YearCE, "", "", _xlpm.Basic, _xlpm.Signed), _xlpm._precision = 2, ISO_8601.FORMAT_WEEK_DATE(_xlpm.YearCE, _xlpm.DateArg1, "", _xlpm.Basic, _xlpm.Signed)), TRUE, ""), _xlpm._sTime, IF((_xlpm._precision = 0) + (_xlpm._precision &gt;= 4), ISO_8601.FORMAT_TIME(_xlpm.Hour, _xlpm.Minute, _xlpm.Second, _xlpm.Basic, MAX(_xlpm._precision - 3, 0)), ""), _xlpm._sTZO, IF(((_xlpm._precision = 0) + (_xlpm._precision &gt;= 4)) * _xlpm._hasTimeZone * _xlpm._showTimeZone, _xlfn.LET(_xlpm._TZprecision, _xlfn.IFS(_xlpm._precision = 4, 0, _xlpm._precision = 5, 0, _xlpm._precision &gt;= 6, 0, TRUE, 0), ISO_8601.FORMAT_TIME_ZONE(_xlpm.TimeZoneOffset, _xlpm.Basic, 0, _xlpm.NoZulu)), ""), _xlpm._sDate &amp; _xlpm._sTime &amp; _xlpm._sTZO)))))</definedName>
+    <definedName name="ISO_8601.FORMAT_ORDINAL_DATE">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Ordinal,_xlop.Basic,_xlop.Signed, IF(NOT(ISNUMBER(_xlpm.YearCE)) * NOT(ISNUMBER(_xlpm.Ordinal)), "", IF(NOT(ISO_8601.IS_VALID_ORDINAL_DATE(_xlpm.YearCE, _xlpm.Ordinal)), #VALUE!, _xlfn.LET(_xlpm._basicFormat, N(_xlpm.Basic) &lt;&gt; 0, _xlpm._signedYEar, N(_xlpm.Signed) &lt;&gt; 0, _xlpm._y, INT(_xlpm.YearCE), IF((ABS(_xlpm._y) &gt;= 10000) * _xlpm._basicFormat, #VALUE!, _xlfn.LET(_xlpm._yFmt, _xlfn.IFS(ABS(_xlpm._y) &gt;= 10000, "+00000;" &amp; _xlfn.UNICHAR(8722) &amp; "00000", _xlpm._signedYEar, "+0000;" &amp; _xlfn.UNICHAR(8722) &amp; "0000;+0000", TRUE, "0000;" &amp; _xlfn.UNICHAR(8722) &amp; "0000;0000"), _xlpm._sYear, TEXT(_xlpm._y, _xlpm._yFmt), _xlpm._sOrdinal, TEXT(INT(_xlpm.Ordinal), "000"), IF(_xlpm._basicFormat, _xlpm._sYear &amp; _xlpm._sOrdinal, _xlpm._sYear &amp; "-" &amp; _xlpm._sOrdinal)))))))</definedName>
     <definedName name="ISO_8601.FORMAT_TIME">_xlfn.LAMBDA(_xlpm.Hour,_xlpm.Minute,_xlpm.Second,_xlop.Basic,_xlop.Precision, IF(NOT(ISNUMBER(_xlpm.Hour)) * NOT(ISNUMBER(_xlpm.Minute)) * NOT(ISNUMBER(_xlpm.Second)), "", IF(NOT(ISO_8601.IS_VALID_TIME(_xlpm.Hour, _xlpm.Minute, _xlpm.Second)), #VALUE!, _xlfn.LET(_xlpm._basicFormat, N(_xlpm.Basic) &lt;&gt; 0, _xlpm._s, ROUNDDOWN(N(_xlpm.Second), 3), _xlpm._m, INT(N(_xlpm.Minute)), _xlpm._h, INT(N(_xlpm.Hour)), _xlpm._precision, MAX(INT(N(_xlpm.Precision)), 0), _xlpm._usePrecision, IF(_xlpm._precision &gt; 0, _xlpm._precision, _xlfn.IFS(ISNUMBER(_xlpm.Second), IF(_xlpm._s = INT(_xlpm._s), 3, 4), ISNUMBER(_xlpm.Minute), 2, TRUE, 1)), _xlfn.IFS(_xlpm._usePrecision = 1, "T" &amp; TEXT(_xlpm._h, "00"), _xlpm._usePrecision = 2, IF(_xlpm._basicFormat, "T" &amp; TEXT(_xlpm._h, "00") &amp; TEXT(_xlpm._m, "00"), "T" &amp; TEXT(_xlpm._h, "00") &amp; ":" &amp; TEXT(_xlpm._m, "00")), _xlpm._usePrecision = 3, IF(_xlpm._basicFormat, "T" &amp; TEXT(_xlpm._h, "00") &amp; TEXT(_xlpm._m, "00") &amp; TEXT(_xlpm._s, "00"), "T" &amp; TEXT(_xlpm._h, "00") &amp; ":" &amp; TEXT(_xlpm._m, "00") &amp; ":" &amp; TEXT(_xlpm._s, "00")), TRUE, IF(_xlpm._basicFormat, "T" &amp; TEXT(_xlpm._h, "00") &amp; TEXT(_xlpm._m, "00") &amp; TEXT(_xlpm._s, "00.000"), "T" &amp; TEXT(_xlpm._h, "00") &amp; ":" &amp; TEXT(_xlpm._m, "00") &amp; ":" &amp; TEXT(_xlpm._s, "00.000")))))))</definedName>
-    <definedName name="ISO_8601.FORMAT_TIME_ZONE">_xlfn.LAMBDA(_xlpm.OffsetMinutes,_xlop.Basic,_xlop.Precision,_xlop.NoZulu, IF(NOT(ISNUMBER(_xlpm.OffsetMinutes)), "", _xlfn.LET(_xlpm._basicFormat, N(_xlpm.Basic) &lt;&gt; 0, _xlpm._precision, MAX(INT(N(_xlpm.Precision)), 0), _xlpm._nearZero, ROUNDDOWN(_xlpm.OffsetMinutes * 60, 0) = 0, IF((N(_xlpm.NoZulu) = 0) * _xlpm._nearZero, "Z", IF(NOT(ISO_8601.IS_VALID_TIME_ZONE(_xlpm.OffsetMinutes)), #VALUE!, _xlfn.LET(_xlpm._hasSecs, ROUNDDOWN(MOD(_xlpm.OffsetMinutes, 1) * 60, 0) &gt; 0, _xlpm._sFmt, _xlfn.IFS(_xlpm._precision = 0, IF(_xlpm._hasSecs, IF(_xlpm._basicFormat, "hhmmss", "hh:mm:ss"), IF(_xlpm._basicFormat, "hhmm", "hh:mm")), _xlpm._precision = 1, "hh", _xlpm._precision = 2, IF(_xlpm._basicFormat, "hhmm", "hh:mm"), TRUE, IF(_xlpm._basicFormat, "hhmmss", "hh:mm:ss")), _xlpm._sign, IF(SIGN(_xlpm.OffsetMinutes) &lt; 0, "-", "+"), _xlpm._timeZoneOffset, ABS(_xlpm.OffsetMinutes) / 1440, _xlpm._sign &amp; TEXT(_xlpm._timeZoneOffset, _xlpm._sFmt)))))))</definedName>
-    <definedName name="ISO_8601.FORMAT_WEEK_DATE">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Week,_xlpm.DayOfWeek,_xlop.Basic, IF(NOT(ISNUMBER(_xlpm.YearCE)) * NOT(ISNUMBER(_xlpm.Week)) * NOT(ISNUMBER(_xlpm.DayOfWeek)), "", IF(NOT(ISO_8601.IS_VALID_WEEK_DATE(_xlpm.YearCE, _xlpm.Week, _xlpm.DayOfWeek)), #VALUE!, _xlfn.LET(_xlpm._basicFormat, N(_xlpm.Basic) &lt;&gt; 0, _xlpm._y, INT(_xlpm.YearCE), _xlpm._yFmt, IF(ABS(_xlpm._y) &gt;= 10000, "+00000;-00000", "0000;-0000;0000"), _xlpm._sYear, TEXT(_xlpm._y, _xlpm._yFmt), _xlpm._sWeek, TEXT(INT(_xlpm.Week), "W00"), IF(NOT(ISNUMBER(_xlpm.DayOfWeek)), IF(_xlpm._basicFormat, _xlpm._sYear &amp; _xlpm._sWeek, _xlpm._sYear &amp; "-" &amp; _xlpm._sWeek), IF(_xlpm._basicFormat, _xlpm._sYear &amp; _xlpm._sWeek &amp; INT(_xlpm.DayOfWeek), _xlpm._sYear &amp; "-" &amp; _xlpm._sWeek &amp; "-" &amp; INT(_xlpm.DayOfWeek)))))))</definedName>
+    <definedName name="ISO_8601.FORMAT_TIME_ZONE">_xlfn.LAMBDA(_xlpm.OffsetMinutes,_xlop.Basic,_xlop.Precision,_xlop.NoZulu, IF(NOT(ISNUMBER(_xlpm.OffsetMinutes)), "", _xlfn.LET(_xlpm._basicFormat, N(_xlpm.Basic) &lt;&gt; 0, _xlpm._precision, MAX(INT(N(_xlpm.Precision)), 0), _xlpm._nearZero, ROUNDDOWN(_xlpm.OffsetMinutes * 60, 0) = 0, IF((N(_xlpm.NoZulu) = 0) * _xlpm._nearZero, "Z", IF(NOT(ISO_8601.IS_VALID_TIME_ZONE(_xlpm.OffsetMinutes)), #VALUE!, _xlfn.LET(_xlpm._hasSecs, ROUNDDOWN(MOD(_xlpm.OffsetMinutes, 1) * 60, 0) &gt; 0, _xlpm._sFmt, _xlfn.IFS(_xlpm._precision = 0, IF(_xlpm._hasSecs, IF(_xlpm._basicFormat, "hhmmss", "hh:mm:ss"), IF(_xlpm._basicFormat, "hhmm", "hh:mm")), _xlpm._precision = 1, "hh", _xlpm._precision = 2, IF(_xlpm._basicFormat, "hhmm", "hh:mm"), TRUE, IF(_xlpm._basicFormat, "hhmmss", "hh:mm:ss")), _xlpm._sign, IF(SIGN(_xlpm.OffsetMinutes) &lt; 0, _xlfn.UNICHAR(8722), "+"), _xlpm._timeZoneOffset, ABS(_xlpm.OffsetMinutes) / 1440, _xlpm._sign &amp; TEXT(_xlpm._timeZoneOffset, _xlpm._sFmt)))))))</definedName>
+    <definedName name="ISO_8601.FORMAT_WEEK_DATE">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Week,_xlpm.DayOfWeek,_xlop.Basic,_xlop.Signed, IF(NOT(ISNUMBER(_xlpm.YearCE)) * NOT(ISNUMBER(_xlpm.Week)) * NOT(ISNUMBER(_xlpm.DayOfWeek)), "", IF(NOT(ISO_8601.IS_VALID_WEEK_DATE(_xlpm.YearCE, _xlpm.Week, _xlpm.DayOfWeek)), #VALUE!, _xlfn.LET(_xlpm._basicFormat, N(_xlpm.Basic) &lt;&gt; 0, _xlpm._signedYear, N(_xlpm.Signed) &lt;&gt; 0, _xlpm._y, INT(_xlpm.YearCE), _xlpm._yFmt, _xlfn.IFS(ABS(_xlpm._y) &gt;= 10000, "+00000;" &amp; _xlfn.UNICHAR(8722) &amp; "00000", _xlpm._signedYear, "+0000;" &amp; _xlfn.UNICHAR(8722) &amp; "0000;+0000", TRUE, "0000;" &amp; _xlfn.UNICHAR(8722) &amp; "0000;0000"), _xlpm._sYear, TEXT(_xlpm._y, _xlpm._yFmt), _xlpm._sWeek, TEXT(INT(_xlpm.Week), "W00"), IF(NOT(ISNUMBER(_xlpm.DayOfWeek)), IF(_xlpm._basicFormat, _xlpm._sYear &amp; _xlpm._sWeek, _xlpm._sYear &amp; "-" &amp; _xlpm._sWeek), IF(_xlpm._basicFormat, _xlpm._sYear &amp; _xlpm._sWeek &amp; INT(_xlpm.DayOfWeek), _xlpm._sYear &amp; "-" &amp; _xlpm._sWeek &amp; "-" &amp; INT(_xlpm.DayOfWeek)))))))</definedName>
     <definedName name="ISO_8601.FROM_ORDINAL_DATE">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Ordinal, IF(NOT(ISO_8601.IS_VALID_ORDINAL_DATE(_xlpm.YearCE, _xlpm.Ordinal)), #VALUE!, _xlfn.LET(_xlpm._monthFirstOrdinal, IF(ISO_8601.IS_LEAP_YEAR(_xlpm.YearCE), {1,32,61,92,122,153,183,214,245,275,306,336}, {1,32,60,91,121,152,182,213,244,274,305,335}), _xlpm._ordinal, INT(_xlpm.Ordinal), _xlpm._month, _xlfn.XMATCH(_xlpm._ordinal, _xlpm._monthFirstOrdinal, -1, -1), _xlpm._offset, INDEX(_xlpm._monthFirstOrdinal, _xlpm._month), _xlpm._day, _xlpm.Ordinal - _xlpm._offset + 1, _xlfn.HSTACK(_xlpm.YearCE, _xlpm._month, _xlpm._day))))</definedName>
     <definedName name="ISO_8601.FROM_WEEK_DATE">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Week,_xlpm.DayOfWeek,_xlop.ReturnOrdinal, IF(NOT(ISO_8601.IS_VALID_WEEK_DATE(_xlpm.YearCE, _xlpm.Week, _xlpm.DayOfWeek, 1)), #VALUE!, _xlfn.LET(_xlpm._yCorrection, ISO_8601.DAY_OF_WEEK(_xlpm.YearCE, 1, 4) + 3, _xlpm._ordinalDay, INT(_xlpm.Week) * 7 + _xlpm.DayOfWeek - _xlpm._yCorrection, _xlpm._intOrdinal, INT(_xlpm._ordinalDay), _xlfn.IFS(_xlpm._intOrdinal &lt; 1, _xlfn.LET(_xlpm._prevYear, _xlpm.YearCE - 1, _xlpm._prevYearDayCount, ISO_8601.YEAR_DAY_COUNT(_xlpm._prevYear), _xlpm._adjustedOrdinalDay, _xlpm._prevYearDayCount + _xlpm._ordinalDay, IF(N(_xlpm.ReturnOrdinal) &lt;&gt; 0, _xlfn.HSTACK(_xlpm._prevYear, _xlpm._adjustedOrdinalDay), ISO_8601.FROM_ORDINAL_DATE(_xlpm._prevYear, _xlpm._adjustedOrdinalDay))), _xlpm._intOrdinal &lt;= 365, IF(N(_xlpm.ReturnOrdinal) &lt;&gt; 0, _xlfn.HSTACK(_xlpm.YearCE, _xlpm._ordinalDay), ISO_8601.FROM_ORDINAL_DATE(_xlpm.YearCE, _xlpm._ordinalDay)), TRUE, _xlfn.LET(_xlpm._thisYearDayCount, ISO_8601.YEAR_DAY_COUNT(_xlpm.YearCE), IF(_xlpm._intOrdinal &gt; _xlpm._thisYearDayCount, _xlfn.LET(_xlpm._nextYear, _xlpm.YearCE + 1, _xlpm._adjustedOrdinalDay, _xlpm._ordinalDay - _xlpm._thisYearDayCount, IF(N(_xlpm.ReturnOrdinal) &lt;&gt; 0, _xlfn.HSTACK(_xlpm._nextYear, _xlpm._adjustedOrdinalDay), ISO_8601.FROM_ORDINAL_DATE(_xlpm._nextYear, _xlpm._adjustedOrdinalDay))), IF(N(_xlpm.ReturnOrdinal) &lt;&gt; 0, _xlfn.HSTACK(_xlpm.YearCE, _xlpm._ordinalDay), ISO_8601.FROM_ORDINAL_DATE(_xlpm.YearCE, _xlpm._ordinalDay))))))))</definedName>
     <definedName name="ISO_8601.IS_LEAP_YEAR">_xlfn.LAMBDA(_xlpm.YearCE, IF(NOT(ISO_8601.IS_VALID_YEAR(_xlpm.YearCE, 1)), #VALUE!, _xlfn.LET(_xlpm._yearCE, INT(_xlpm.YearCE), IF(MOD(_xlpm._yearCE, 400) = 0, TRUE, IF(MOD(_xlpm._yearCE, 100) = 0, FALSE, MOD(_xlpm._yearCE, 4) = 0)))))</definedName>
@@ -37,10 +40,9 @@
     <definedName name="ISO_8601.IS_VALID_TIME_ZONE">_xlfn.LAMBDA(_xlpm.OffsetMinutes, IF(NOT(ISNUMBER(_xlpm.OffsetMinutes)), FALSE, ((_xlpm.OffsetMinutes &gt;= -900) * (_xlpm.OffsetMinutes &lt;= 900)) &lt;&gt; 0))</definedName>
     <definedName name="ISO_8601.IS_VALID_WEEK_DATE">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Week,_xlpm.DayOfWeek,_xlop.DayOfWeekMandatory, IF(NOT(ISO_8601.IS_VALID_YEAR(_xlpm.YearCE)) + NOT(ISNUMBER(_xlpm.Week)), FALSE, _xlfn.LET(_xlpm._ommitDoW, NOT(ISNUMBER(_xlpm.DayOfWeek)), IF((N(_xlpm.DayOfWeekMandatory) &lt;&gt; 0) * _xlpm._ommitDoW, FALSE, _xlfn.LET(_xlpm._week, INT(_xlpm.Week), IF(((_xlpm._week &gt;= 1) * (_xlpm._week &lt;= ISO_8601.YEAR_WEEK_COUNT(_xlpm.YearCE))) = 0, FALSE, IF(_xlpm._ommitDoW, TRUE, IF(_xlpm.Week &lt;&gt; _xlpm._week, FALSE, _xlfn.LET(_xlpm._dow, INT(_xlpm.DayOfWeek), ((_xlpm._dow &gt;= 1) * (_xlpm._dow &lt;= 7)) &lt;&gt; 0)))))))))</definedName>
     <definedName name="ISO_8601.IS_VALID_YEAR">_xlfn.LAMBDA(_xlpm.YearCE,_xlop.AllowDecimal, _xlfn.IFS(NOT(ISNUMBER(_xlpm.YearCE)), FALSE, (N(_xlpm.AllowDecimal) = 0) * (_xlpm.YearCE &lt;&gt; INT(_xlpm.YearCE)), FALSE, TRUE, ABS(_xlpm.YearCE) &lt; 100000))</definedName>
-    <definedName name="ISO_8601.ISO_TO_DATE">_xlfn.LAMBDA(_xlpm.Text,_xlop.ReturnTimeZoneOffset, _xlfn.LET(_xlpm.fnException, _xlfn.LAMBDA(_xlpm._e,_xlpm._f, _xlfn.IFS(ISNA(_xlpm._e), IF(_xlpm._f, {#N/A,#N/A}, #N/A), ISERR(_xlpm._e), IF(_xlpm._f, {#VALUE!,#VALUE!}, #VALUE!), _xlpm._e = "", IF(_xlpm._f, {"",""}, ""))), _xlpm._fTZO, N(_xlpm.ReturnTimeZoneOffset) &lt;&gt; 0, IF(_xlpm.Text = "", _xlpm.fnException("", _xlpm._fTZO), _xlfn.LET(_xlpm._elements, ISO_8601.PARSE_DATE_TIME(_xlpm.Text), _xlfn.IFS(TRUE, _xlfn.LET(_xlpm._dateType, INDEX(_xlpm._elements, 1, 1), _xlpm._hasTime, (ISNUMBER(INDEX(_xlpm._elements, 1, 5)) + ISNUMBER(INDEX(_xlpm._elements, 1, 6)) + ISNUMBER(INDEX(_xlpm._elements, 1, 7))) &lt;&gt; 0, _xlpm._hasTimeZone, ISNUMBER(INDEX(_xlpm._elements, 1, 8)), _xlpm._year, N(INDEX(_xlpm._elements, 1, 2)), _xlpm._date, _xlfn.IFS(ISERROR(_xlpm._year), #VALUE!, _xlpm._dateType = 0, 0, (_xlpm._dateType &gt; 0) * ((_xlpm._year &lt; 1900) + (_xlpm._year &gt; 9999)), #VALUE!, _xlpm._dateType = 1, DATE(_xlpm._year, N(INDEX(_xlpm._elements, 1, 3)), N(INDEX(_xlpm._elements, 1, 4))), _xlpm._dateType = 2, _xlfn.LET(_xlpm._cDate, ISO_8601.FROM_ORDINAL_DATE(_xlpm._year, N(INDEX(_xlpm._elements, 1, 4))), DATE(INDEX(_xlpm._cDate, 1, 1), INDEX(_xlpm._cDate, 1, 2), INDEX(_xlpm._cDate, 1, 3))), _xlpm._dateType = 3, _xlfn.LET(_xlpm._cDate, ISO_8601.FROM_WEEK_DATE(_xlpm._year, N(INDEX(_xlpm._elements, 1, 3)), N(INDEX(_xlpm._elements, 1, 4))), DATE(INDEX(_xlpm._cDate, 1, 1), INDEX(_xlpm._cDate, 1, 2), INDEX(_xlpm._cDate, 1, 3)))), _xlpm._time, IF(_xlpm._hasTime, TIME(N(INDEX(_xlpm._elements, 1, 5)), N(INDEX(_xlpm._elements, 1, 6)), N(INDEX(_xlpm._elements, 1, 7))), 0), _xlpm._dt, _xlpm._date + _xlpm._time, IF(_xlpm._fTZO, _xlfn.LET(_xlpm._tzo, IF(_xlpm._hasTimeZone, INDEX(_xlpm._elements, 1, 8), ""), _xlfn.HSTACK(_xlpm._dt, _xlpm._tzo)), _xlpm._dt)))))))</definedName>
     <definedName name="ISO_8601.PARSE_DATE">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm._fmtHashTable, {16384,1,3,1,4,0,0,0;20480,1,3,1,5,0,0,0;28672,3,1,2,4,0,0,3;28677,2,1,3,4,6,2,0;29952,2,2,1,4,6,2,0;32768,3,1,1,4,5,2,2;32773,3,1,3,4,6,2,1;32774,2,1,3,5,7,2,0;34048,3,2,2,4,0,0,3;34054,2,2,3,4,7,2,0;34304,2,2,1,5,7,2,0;36864,3,1,1,5,6,2,2;36870,3,1,3,5,7,2,1;38400,3,2,2,5,0,0,3;38407,2,2,3,5,8,2,0;42368,3,2,1,4,6,2,2;42390,3,2,3,4,7,2,1;46736,3,2,1,5,7,2,2;46759,3,2,3,5,8,2,1}, _xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception,_xlop._precision,_xlop._extended,_xlop._dateType, _xlfn.IFS(_xlpm._exception = "N/A", {FALSE,"","","","","",""}, _xlpm._exception = "VALUE", _xlfn.IFS(_xlpm._precision = 1, _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), N(_xlpm._dateType), {#VALUE!,"",""}), _xlpm._precision = 2, _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), N(_xlpm._dateType), {#VALUE!,#VALUE!,""}), TRUE, _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), N(_xlpm._dateType), {#VALUE!,#VALUE!,#VALUE!})), TRUE, {"","","","","","",""})), IF(_xlpm.Text = "", _xlpm.fnException(""), IF(NOT(ISO_8601.VALIDATE_CHARACTERS(_xlpm.Text, 1)), _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._hasSign, _xlfn.IFS(LEFT(_xlpm.Text, 1) = "+", TRUE, LEFT(_xlpm.Text, 1) = "-", TRUE, _xlfn.UNICODE(LEFT(_xlpm.Text, 1)) = 8722, TRUE, TRUE, FALSE), _xlpm._yearSign, _xlfn.IFS(LEFT(_xlpm.Text, 1) = "-", -1, _xlfn.UNICODE(LEFT(_xlpm.Text, 1)) = 8722, -1, TRUE, 1), _xlpm._len, LEN(_xlpm.Text) - N(_xlpm._hasSign), _xlpm._sDate, IF(_xlpm._hasSign, RIGHT(_xlpm.Text, _xlpm._len), _xlpm.Text), _xlpm._Hyph1Pos, IFERROR(FIND("-", _xlpm._sDate), 0), _xlpm._Hyph2Pos, IFERROR(FIND("-", _xlpm._sDate, _xlpm._Hyph1Pos + 1), 0), _xlpm._Wpos, IFERROR(FIND("W", _xlpm._sDate), 0), _xlpm._hash, (_xlpm._len * 4096) + (_xlpm._Hyph1Pos * 256) + (_xlpm._Hyph2Pos * 16) + _xlpm._Wpos, _xlpm._hashLkup, _xlfn.IFNA(_xlfn.XMATCH(_xlpm._hash, _xlfn.CHOOSECOLS(_xlpm._fmtHashTable, 1), 0), 0), IF(_xlpm._hashLkup = 0, _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._defn, _xlfn.CHOOSEROWS(_xlpm._fmtHashTable, _xlpm._hashLkup), _xlpm._precision, INDEX(_xlpm._defn, 1, 2), _xlpm._extended, INDEX(_xlpm._defn, 1, 3), _xlpm._dateType, INDEX(_xlpm._defn, 1, 4), _xlpm._yearCE, _xlpm._yearSign * VALUE(LEFT(_xlpm._sDate, INDEX(_xlpm._defn, 1, 5))), _xlpm._dArg1, IF((_xlpm._precision &lt; 2) + (INDEX(_xlpm._defn, 1, 6) = 0), "", VALUE(MID(_xlpm._sDate, INDEX(_xlpm._defn, 1, 6), INDEX(_xlpm._defn, 1, 7)))), _xlpm._dArg2, IF(_xlpm._precision &lt; 3, "", VALUE(RIGHT(_xlpm._sDate, INDEX(_xlpm._defn, 1, 8)))), _xlpm._valid, _xlfn.IFS(_xlpm._dateType = 1, ISO_8601.IS_VALID_DATE(_xlpm._yearCE, _xlpm._dArg1, _xlpm._dArg2), _xlpm._dateType = 2, ISO_8601.IS_VALID_ORDINAL_DATE(_xlpm._yearCE, _xlpm._dArg2), _xlpm._dateType = 3, ISO_8601.IS_VALID_WEEK_DATE(_xlpm._yearCE, _xlpm._dArg1, _xlpm._dArg2), TRUE, TRUE), IF(_xlpm._valid, _xlfn.HSTACK(TRUE, _xlpm._precision, _xlpm._extended, _xlpm._dateType, _xlpm._yearCE, _xlpm._dArg1, _xlpm._dArg2), _xlpm.fnException("VALUE", _xlpm._precision, _xlpm._extended, _xlpm._dateType)))))))))</definedName>
-    <definedName name="ISO_8601.PARSE_DATE_TIME">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception, IF(_xlpm._exception = "N/A", {FALSE,0,"","","","","","","","","",""}, {"","","","","","","","","","","",""})), _xlpm.fnISOValueCompliance, _xlfn.LAMBDA(_xlpm._pDate,_xlpm._pTime,_xlpm._pTZ, _xlfn.LET(_xlpm._dateISOCompliant, IF(INDEX(_xlpm._pDate, 1, 1) = "", TRUE, INDEX(_xlpm._pDate, 1, 1)), _xlpm._timeISOCompliant, IF(INDEX(_xlpm._pTime, 1, 1) = "", TRUE, INDEX(_xlpm._pTime, 1, 1)), _xlpm._tzISOCompliant, IF(INDEX(_xlpm._pTZ, 1, 1) = "", TRUE, INDEX(_xlpm._pTZ, 1, 1)), (_xlpm._dateISOCompliant * _xlpm._timeISOCompliant * _xlpm._tzISOCompliant) &lt;&gt; 0)), _xlpm.fnISOFormatCompliance, _xlfn.LAMBDA(_xlpm._pDate,_xlpm._pTime,_xlpm._pTZ, _xlfn.LET(_xlpm._dateFmt, N(INDEX(_xlpm._pDate, 1, 3)), _xlpm._timeFmt, N(INDEX(_xlpm._pTime, 1, 3)), _xlpm._tzoFmt, N(INDEX(_xlpm._pTZ, 1, 3)), _xlpm._resolveFmt, _xlfn.IFS((_xlpm._dateFmt = 3) * (_xlpm._timeFmt = 0) * (_xlpm._tzoFmt = 0), 3, (_xlpm._dateFmt = 0) * (_xlpm._timeFmt = 3) * (_xlpm._tzoFmt = 0), 3, (_xlpm._dateFmt = 0) * (_xlpm._timeFmt = 0) * (_xlpm._tzoFmt = 3), 3, (_xlpm._dateFmt &lt;&gt; 2) * (_xlpm._timeFmt &lt;&gt; 2) * (_xlpm._tzoFmt &lt;&gt; 2), 1, (_xlpm._dateFmt &lt;&gt; 1) * (_xlpm._timeFmt &lt;&gt; 1) * (_xlpm._tzoFmt &lt;&gt; 1), 2, TRUE, 0), _xlfn.HSTACK(N(_xlpm._resolveFmt &lt;&gt; 0), _xlpm._resolveFmt))), _xlpm.fnISOPrecisionCompliance, _xlfn.LAMBDA(_xlpm._pDate,_xlpm._pTime,_xlpm._pTZ, _xlfn.LET(_xlpm._datePrec, N(INDEX(_xlpm._pDate, 1, 2)), _xlpm._timePrec, N(INDEX(_xlpm._pTime, 1, 2)), _xlpm._tzPrec, N(INDEX(_xlpm._pTZ, 1, 2)), _xlfn.IFS(_xlpm._datePrec = 0, IF(_xlpm._timePrec = 0, IF(_xlpm._tzPrec = 0, _xlfn.HSTACK(FALSE, 0), _xlfn.HSTACK(TRUE, _xlpm._tzPrec + 3)), _xlfn.HSTACK(TRUE, _xlpm._timePrec + 3)), _xlpm._datePrec &lt; 3, _xlfn.HSTACK((_xlpm._timePrec = 0), _xlpm._datePrec), TRUE, _xlfn.HSTACK(TRUE, _xlpm._timePrec + 3)))), IF(_xlpm.Text = "", _xlpm.fnException(""), _xlfn.LET(_xlpm._parts, ISO_8601.PARSE_PARTS(_xlpm.Text), IF(N(INDEX(_xlpm._parts, 1, 2)) = 0, _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._isoPartsCompliance, N(INDEX(_xlpm._parts, 1, 1)), _xlpm._flgParts, N(INDEX(_xlpm._parts, 1, 2)), _xlpm._pDate, ISO_8601.PARSE_DATE(INDEX(_xlpm._parts, 1, 3)), _xlpm._pTime, ISO_8601.PARSE_TIME(INDEX(_xlpm._parts, 1, 4)), _xlpm._pTZ, ISO_8601.PARSE_TIME_ZONE(INDEX(_xlpm._parts, 1, 5)), _xlpm._isoValueCompliance, _xlpm.fnISOValueCompliance(_xlpm._pDate, _xlpm._pTime, _xlpm._pTZ), _xlpm._isoFormatCompliance, _xlpm.fnISOFormatCompliance(_xlpm._pDate, _xlpm._pTime, _xlpm._pTZ), _xlpm._isoPrecisionCompliance, _xlpm.fnISOPrecisionCompliance(_xlpm._pDate, _xlpm._pTime, _xlpm._pTZ), _xlpm._isoCompliance, (_xlpm._isoValueCompliance * _xlpm._isoPartsCompliance * INDEX(_xlpm._isoFormatCompliance, 1, 1) * INDEX(_xlpm._isoPrecisionCompliance, 1, 1)) &lt;&gt; 0, _xlpm._outDate, _xlfn.DROP(_xlpm._pDate, , 3), _xlpm._outTime, _xlfn.DROP(_xlpm._pTime, , 3), _xlpm._outTZ, _xlfn.DROP(_xlpm._pTZ, , 3), _xlfn.HSTACK(_xlpm._isoCompliance, _xlpm._flgParts, INDEX(_xlpm._isoPrecisionCompliance, 1, 2), INDEX(_xlpm._isoFormatCompliance, 1, 2), _xlpm._outDate, _xlpm._outTime, _xlpm._outTZ)))))))</definedName>
-    <definedName name="ISO_8601.PARSE_PARTS">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm._logicHashTable, {0,1,1,1,0;1,0,4,0,1;32,1,1,1,0;34,0,4,0,2;36,1,4,0,2;128,1,3,2,0;132,1,3,2,0;144,1,7,2,2;148,1,7,2,2;149,1,7,2,2;152,0,5,2,2;153,0,5,2,1;155,0,5,2,1;156,0,5,2,2;160,1,3,2,0;185,0,5,2,1;192,1,2,0,0;196,1,2,0,0;198,1,2,0,0;208,1,6,0,2;209,1,6,0,1;212,1,6,0,2;213,1,6,0,1;216,0,4,0,2;219,0,4,0,1}, _xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception, _xlfn.IFS(_xlpm._exception = "N/A", {FALSE,0,"","",""}, TRUE, {"","","","",""})), _xlpm.fnCountChars, _xlfn.LAMBDA(_xlpm.CharArray,_xlpm.Text, IF(_xlpm.Text = "", 0, _xlfn.LET(_xlpm._removed, _xlfn.REDUCE(_xlpm.Text, _xlpm.CharArray, _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, SUBSTITUTE(_xlpm._acc, _xlpm._curr, ""))), LEN(_xlpm.Text) - LEN(_xlpm._removed)))), _xlpm.fnFindNthCharPos, _xlfn.LAMBDA(_xlpm.Chars,_xlpm.Text,_xlpm.N, _xlfn.LET(_xlpm._charCount, LEN(_xlpm.Chars), _xlpm._n, INT(N(_xlpm.N)), IF((_xlpm._charCount = 0) + (_xlpm._n = 0), 0, _xlfn.LET(_xlpm._chars, MID(_xlpm.Chars, _xlfn.SEQUENCE(1, _xlpm._charCount), 1), _xlpm._findCount, _xlpm.fnCountChars(_xlpm._chars, _xlpm.Text), IF(_xlpm._findCount &lt; ABS(_xlpm._n), 0, _xlfn.LET(_xlpm._nth, IF(_xlpm._n &gt; 0, _xlpm._n, _xlpm._findCount + _xlpm._n + 1), _xlpm._nthPos, _xlfn.REDUCE(0, _xlfn.SEQUENCE(1, _xlpm._nth), _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, IF(_xlpm._acc &lt; 0, -1, _xlfn.LET(_xlpm._nextPosChars, IFERROR(FIND(_xlpm._chars, _xlpm.Text, _xlpm._acc + 1), 0), _xlpm._nextPos, MIN(_xlfn._xlws.FILTER(_xlpm._nextPosChars, _xlpm._nextPosChars &gt; 0, 0)), IF(_xlpm._nextPos = 0, -1, _xlpm._nextPos))))), MAX(_xlpm._nthPos, 0))))))), IF(_xlpm.Text = "", _xlpm.fnException(""), IF(NOT(ISO_8601.VALIDATE_CHARACTERS(_xlpm.Text, 0)), _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._len, LEN(_xlpm.Text), _xlpm._Tpos, IFERROR(FIND("T", _xlpm.Text), 0), _xlpm._signLastPos, _xlpm.fnFindNthCharPos("+-" &amp; _xlfn.UNICHAR(8722), _xlpm.Text, -1), _xlpm._colonLastPos, _xlpm.fnFindNthCharPos(":", _xlpm.Text, -1), _xlpm._ZlastPos, _xlpm.fnFindNthCharPos("Z", _xlpm.Text, -1), _xlpm._hasT, N(_xlpm._Tpos &gt; 0), _xlpm._Tfirst, N(_xlpm._Tpos = 1), _xlpm._lastSignFirstPos, N(_xlpm._signLastPos = 1), _xlpm._unsignedLen, _xlpm._len - _xlpm._lastSignFirstPos, _xlpm._hasZorSignAfterT, (_xlpm._Tpos &lt;&gt; 0) * (((_xlpm._ZlastPos &gt; _xlpm._Tpos) + (_xlpm._signLastPos &gt; _xlpm._Tpos)) &lt;&gt; 0), _xlpm._ZorSignFirstAfterT, (_xlpm._Tpos &lt;&gt; 0) * (((_xlpm._ZlastPos = _xlpm._Tpos + 1) + (_xlpm._signLastPos = _xlpm._Tpos + 1)) &lt;&gt; 0), _xlpm._colonAfterLastSign, N(_xlpm._colonLastPos &gt; _xlpm._signLastPos), _xlpm._unsignedLen2or6, N(((_xlpm._unsignedLen = 2) + (_xlpm._unsignedLen = 6)) &lt;&gt; 0), _xlpm._hasZlast, N(_xlpm._ZlastPos = _xlpm._len), _xlpm._hash, (_xlpm._hasT * 128) + (_xlpm._Tfirst * 64) + (_xlpm._lastSignFirstPos * 32) + (_xlpm._hasZorSignAfterT * 16) + (_xlpm._ZorSignFirstAfterT * 8) + (_xlpm._colonAfterLastSign * 4) + (_xlpm._unsignedLen2or6 * 2) + _xlpm._hasZlast, _xlpm._hashLkup, _xlfn.IFNA(_xlfn.XMATCH(_xlpm._hash, _xlfn.CHOOSECOLS(_xlpm._logicHashTable, 1), 0), 0), IF(_xlpm._hashLkup = 0, _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._defn, _xlfn.CHOOSEROWS(_xlpm._logicHashTable, _xlpm._hashLkup), _xlpm._isoCompliant, INDEX(_xlpm._defn, 1, 2) &lt;&gt; 0, _xlpm._partsFlag, INDEX(_xlpm._defn, 1, 3), _xlpm._dateMark, INDEX(_xlpm._defn, 1, 4), _xlpm._tzMark, INDEX(_xlpm._defn, 1, 5), _xlpm._dateLen, _xlfn.IFS(_xlpm._dateMark = 0, 0, _xlpm._dateMark = 1, _xlpm._len, _xlpm._dateMark = 2, _xlpm._Tpos - 1, _xlpm._dateMark = 3, _xlpm._signLastPos - 1, _xlpm._dateMark = 4, _xlpm._len - 1), _xlpm._tzLen, IF(_xlpm._tzMark = 2, _xlpm._len - _xlpm._signLastPos + 1, _xlpm._tzMark), _xlpm._timeLen, _xlpm._len - _xlpm._dateLen - _xlpm._tzLen, _xlpm._sDate, IF(_xlfn.BITAND(_xlpm._partsFlag, 1) = 0, "", LEFT(_xlpm.Text, _xlpm._dateLen)), _xlpm._sTime, IF(_xlfn.BITAND(_xlpm._partsFlag, 2) = 0, "", MID(_xlpm.Text, _xlpm._dateLen + 1, _xlpm._timeLen)), _xlpm._sTZ, IF(_xlfn.BITAND(_xlpm._partsFlag, 4) = 0, "", RIGHT(_xlpm.Text, _xlpm._tzLen)), _xlfn.HSTACK(_xlpm._isoCompliant, _xlpm._partsFlag, _xlpm._sDate, _xlpm._sTime, _xlpm._sTZ))))))))</definedName>
+    <definedName name="ISO_8601.PARSE_ISO8601">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception, IF(_xlpm._exception = "N/A", {FALSE,0,"","","","","","","","","",""}, {"","","","","","","","","","","",""})), _xlpm.fnPartsFlag, _xlfn.LAMBDA(_xlpm._pDate,_xlpm._pTime,_xlpm._pTZ, _xlfn.LET(_xlpm._datePart, N(INDEX(_xlpm._pDate, 1, 1)) * 4, _xlpm._timePart, N(INDEX(_xlpm._pTime, 1, 1)) * 2, _xlpm._tzPart, N(INDEX(_xlpm._pTZ, 1, 1)) * 1, _xlpm._datePart + _xlpm._timePart + _xlpm._tzPart)), _xlpm.fnISOValueCompliance, _xlfn.LAMBDA(_xlpm._pDate,_xlpm._pTime,_xlpm._pTZ, _xlfn.LET(_xlpm._dateISOCompliant, IF(INDEX(_xlpm._pDate, 1, 1) = "", TRUE, INDEX(_xlpm._pDate, 1, 1)), _xlpm._timeISOCompliant, IF(INDEX(_xlpm._pTime, 1, 1) = "", TRUE, INDEX(_xlpm._pTime, 1, 1)), _xlpm._tzISOCompliant, IF(INDEX(_xlpm._pTZ, 1, 1) = "", TRUE, INDEX(_xlpm._pTZ, 1, 1)), (_xlpm._dateISOCompliant * _xlpm._timeISOCompliant * _xlpm._tzISOCompliant) &lt;&gt; 0)), _xlpm.fnISOFormatCompliance, _xlfn.LAMBDA(_xlpm._pDate,_xlpm._pTime,_xlpm._pTZ, _xlfn.LET(_xlpm._dateFmt, N(INDEX(_xlpm._pDate, 1, 3)), _xlpm._timeFmt, N(INDEX(_xlpm._pTime, 1, 3)), _xlpm._tzoFmt, N(INDEX(_xlpm._pTZ, 1, 3)), _xlpm._resolveFmt, _xlfn.IFS((_xlpm._dateFmt = 3) * (_xlpm._timeFmt = 0) * (_xlpm._tzoFmt = 0), 3, (_xlpm._dateFmt = 0) * (_xlpm._timeFmt = 3) * (_xlpm._tzoFmt = 0), 3, (_xlpm._dateFmt = 0) * (_xlpm._timeFmt = 0) * (_xlpm._tzoFmt = 3), 3, (_xlpm._dateFmt &lt;&gt; 2) * (_xlpm._timeFmt &lt;&gt; 2) * (_xlpm._tzoFmt &lt;&gt; 2), 1, (_xlpm._dateFmt &lt;&gt; 1) * (_xlpm._timeFmt &lt;&gt; 1) * (_xlpm._tzoFmt &lt;&gt; 1), 2, TRUE, 0), _xlfn.HSTACK(N(_xlpm._resolveFmt &lt;&gt; 0), _xlpm._resolveFmt))), _xlpm.fnISOPrecisionCompliance, _xlfn.LAMBDA(_xlpm._pDate,_xlpm._pTime,_xlpm._pTZ, _xlfn.LET(_xlpm._datePrec, N(INDEX(_xlpm._pDate, 1, 2)), _xlpm._timePrec, N(INDEX(_xlpm._pTime, 1, 2)), _xlpm._tzPrec, N(INDEX(_xlpm._pTZ, 1, 2)), _xlfn.IFS(_xlpm._datePrec = 0, IF(_xlpm._timePrec = 0, IF(_xlpm._tzPrec = 0, _xlfn.HSTACK(FALSE, 0), _xlfn.HSTACK(TRUE, _xlpm._tzPrec + 3)), _xlfn.HSTACK(TRUE, _xlpm._timePrec + 3)), _xlpm._datePrec &lt; 3, _xlfn.HSTACK((_xlpm._timePrec = 0), _xlpm._datePrec), TRUE, _xlfn.HSTACK(TRUE, _xlpm._timePrec + 3)))), IF(_xlpm.Text = "", _xlpm.fnException(""), _xlfn.LET(_xlpm._parts, ISO_8601.PARSE_PARTS(_xlpm.Text), IF(N(INDEX(_xlpm._parts, 1, 2)) = 0, _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._isoPartsCompliance, N(INDEX(_xlpm._parts, 1, 1)), _xlpm._pDate, ISO_8601.PARSE_DATE(INDEX(_xlpm._parts, 1, 3)), _xlpm._pTime, ISO_8601.PARSE_TIME(INDEX(_xlpm._parts, 1, 4)), _xlpm._pTZ, ISO_8601.PARSE_TIME_ZONE(INDEX(_xlpm._parts, 1, 5)), _xlpm._isoValueCompliance, _xlpm.fnISOValueCompliance(_xlpm._pDate, _xlpm._pTime, _xlpm._pTZ), _xlpm._isoFormatCompliance, _xlpm.fnISOFormatCompliance(_xlpm._pDate, _xlpm._pTime, _xlpm._pTZ), _xlpm._isoPrecisionCompliance, _xlpm.fnISOPrecisionCompliance(_xlpm._pDate, _xlpm._pTime, _xlpm._pTZ), _xlpm._outISOcompliance, (_xlpm._isoValueCompliance * _xlpm._isoPartsCompliance * INDEX(_xlpm._isoFormatCompliance, 1, 1) * INDEX(_xlpm._isoPrecisionCompliance, 1, 1)) &lt;&gt; 0, _xlpm._outDateType, N(INDEX(_xlpm._pDate, 1, 4)), _xlpm._outDate, _xlfn.DROP(_xlpm._pDate, , 4), _xlpm._outTime, _xlfn.DROP(_xlpm._pTime, , 3), _xlpm._outTZ, _xlfn.DROP(_xlpm._pTZ, , 3), _xlpm._outPartsFlag, _xlpm.fnPartsFlag(_xlpm._pDate, _xlpm._pTime, _xlpm._pTZ), _xlfn.HSTACK(_xlpm._outISOcompliance, _xlpm._outPartsFlag, INDEX(_xlpm._isoPrecisionCompliance, 1, 2), INDEX(_xlpm._isoFormatCompliance, 1, 2), _xlpm._outDateType, _xlpm._outDate, _xlpm._outTime, _xlpm._outTZ)))))))</definedName>
+    <definedName name="ISO_8601.PARSE_PARTS">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception, IF(_xlpm._exception = "N/A", {FALSE,0,"","",""}, {"","","","",""})), _xlpm.fnCountChars, _xlfn.LAMBDA(_xlpm.CharArray,_xlpm.Text, IF(_xlpm.Text = "", 0, _xlfn.LET(_xlpm._removed, _xlfn.REDUCE(_xlpm.Text, _xlpm.CharArray, _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, SUBSTITUTE(_xlpm._acc, _xlpm._curr, ""))), LEN(_xlpm.Text) - LEN(_xlpm._removed)))), _xlpm.fnFindNthCharPos, _xlfn.LAMBDA(_xlpm.Chars,_xlpm.Text,_xlpm.N, _xlfn.LET(_xlpm._charCount, LEN(_xlpm.Chars), _xlpm._n, INT(N(_xlpm.N)), IF((_xlpm._charCount = 0) + (_xlpm._n = 0), 0, _xlfn.LET(_xlpm._chars, MID(_xlpm.Chars, _xlfn.SEQUENCE(1, _xlpm._charCount), 1), _xlpm._findCount, _xlpm.fnCountChars(_xlpm._chars, _xlpm.Text), IF(_xlpm._findCount &lt; ABS(_xlpm._n), 0, _xlfn.LET(_xlpm._nth, IF(_xlpm._n &gt; 0, _xlpm._n, _xlpm._findCount + _xlpm._n + 1), _xlpm._nthPos, _xlfn.REDUCE(0, _xlfn.SEQUENCE(1, _xlpm._nth), _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, IF(_xlpm._acc &lt; 0, -1, _xlfn.LET(_xlpm._nextPosChars, IFERROR(FIND(_xlpm._chars, _xlpm.Text, _xlpm._acc + 1), 0), _xlpm._nextPos, MIN(_xlfn._xlws.FILTER(_xlpm._nextPosChars, _xlpm._nextPosChars &gt; 0, 0)), IF(_xlpm._nextPos = 0, -1, _xlpm._nextPos))))), MAX(_xlpm._nthPos, 0))))))), _xlpm.WithT_Logic, {1,0,2;1,1,1;1,2,3;2,0,6;2,1,5;2,2,7}, _xlpm.WithoutT_Logic, {0,0,0,0,4;0,0,0,1,2;0,0,1,0,2;1,0,0,0,4;1,0,0,1,1;1,0,1,0,1;1,1,0,0,1;2,0,0,0,4;2,0,0,1,3;2,0,1,0,3;2,0,1,1,3;2,1,0,1,3;2,1,1,0,3}, _xlpm.fnWithT_PartsLen, _xlfn.LAMBDA(_xlpm._Tpos,_xlpm._Tfirst, _xlfn.LET(_xlpm._len, LEN(_xlpm.Text), _xlpm._afterT, RIGHT(_xlpm.Text, _xlpm._len - _xlpm._Tpos), _xlpm._TZmarkerPos, _xlpm.fnFindNthCharPos("Z+-" &amp; _xlfn.UNICHAR(8722), _xlpm._afterT, 1), _xlpm._TZmarkFirst, IF(_xlpm._TZmarkerPos &gt; 1, 2, _xlpm._TZmarkerPos), _xlpm._partsFlag, _xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(_xlpm.WithT_Logic, 3), (_xlfn.CHOOSECOLS(_xlpm.WithT_Logic, 1) = _xlpm._Tfirst) * (_xlfn.CHOOSECOLS(_xlpm.WithT_Logic, 2) = _xlpm._TZmarkFirst), #N/A), IF(ISNA(_xlpm._partsFlag), _xlfn.HSTACK(#N/A, 0, 0, 0), _xlfn.LET(_xlpm._dateLen, _xlpm._Tpos - 1, _xlpm._timeLen, IF(_xlfn.BITAND(_xlpm._partsFlag, 2) = 2, IF(_xlfn.BITAND(_xlpm._partsFlag, 1) = 1, _xlpm._TZmarkerPos - 1, _xlpm._len - _xlpm._Tpos), 0), _xlpm._tzLen, _xlpm._len - _xlpm._Tpos - _xlpm._timeLen, _xlfn.HSTACK(_xlpm._partsFlag, _xlpm._dateLen, _xlpm._timeLen, _xlpm._tzLen))))), _xlpm.fnWithoutT_PartsLen, _xlfn.LAMBDA(_xlfn.LET(_xlpm._len, LEN(_xlpm.Text), _xlpm._TZmarkPos, _xlpm.fnFindNthCharPos("Z+-" &amp; _xlfn.UNICHAR(8722), _xlpm.Text, -1), _xlpm._TZmarkFirst, IF(_xlpm._TZmarkPos &gt; 1, 2, _xlpm._TZmarkPos), _xlpm._TZmarkIsZ, IF(_xlpm._TZmarkPos &gt; 0, N(CODE(MID(_xlpm.Text, _xlpm._TZmarkPos, 1)) = 90), 0), _xlpm._HasColon, N(IFERROR(FIND(":", _xlpm.Text), 0) &gt; 0), _xlpm._lenBeforeTZ, IF(_xlpm._TZmarkFirst = 0, _xlpm._len, _xlpm._TZmarkPos - 1), _xlpm._timeConditional, IF(_xlpm._TZmarkFirst = 1, _xlfn.LET(_xlpm._lenAfterTZ, _xlpm._len - _xlpm._TZmarkPos, _xlfn.IFS(_xlpm._lenAfterTZ = 2, 1, _xlpm._lenAfterTZ = 6, 1, TRUE, 0)), N(_xlpm._lenBeforeTZ = 2)), _xlpm._match, ((_xlfn.CHOOSECOLS(_xlpm.WithoutT_Logic, 1) = _xlpm._TZmarkFirst) * (_xlfn.CHOOSECOLS(_xlpm.WithoutT_Logic, 2) = _xlpm._TZmarkIsZ) * (_xlfn.CHOOSECOLS(_xlpm.WithoutT_Logic, 3) = _xlpm._HasColon) * (_xlfn.CHOOSECOLS(_xlpm.WithoutT_Logic, 4) = _xlpm._timeConditional)), _xlpm._partsFlag, _xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(_xlpm.WithoutT_Logic, 5), _xlpm._match, #N/A), _xlpm._dateLen, IF(_xlfn.BITAND(_xlpm._partsFlag, 4) = 4, _xlpm._len, 0), _xlpm._timeLen, IF(_xlfn.BITAND(_xlpm._partsFlag, 2) = 2, _xlpm._lenBeforeTZ, 0), _xlpm._tzLen, IF(_xlfn.BITAND(_xlpm._partsFlag, 1) = 1, _xlpm._len - _xlpm._TZmarkPos + 1, 0), _xlfn.HSTACK(_xlpm._partsFlag, _xlpm._dateLen, _xlpm._timeLen, _xlpm._tzLen))), IF(_xlpm.Text = "", _xlpm.fnException(""), IF(NOT(ISO_8601.VALIDATE_CHARACTERS(_xlpm.Text, 0)), _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._Tpos, IFERROR(FIND("T", _xlpm.Text), 0), IF(_xlpm._Tpos = LEN(_xlpm.Text), _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._hasT, IF(_xlpm._Tpos &gt; 1, 2, _xlpm._Tpos), _xlpm._partsLen, IF(_xlpm._hasT, _xlpm.fnWithT_PartsLen(_xlpm._Tpos, _xlpm._hasT), _xlpm.fnWithoutT_PartsLen()), _xlpm._partsFlag, INDEX(_xlpm._partsLen, 1, 1), IF(ISNA(_xlpm._partsFlag), _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._isoCompliant, _xlfn.IFS(_xlpm._partsFlag = 1, FALSE, _xlpm._partsFlag = 5, FALSE, _xlpm._partsFlag = 4, TRUE, TRUE, (_xlpm._hasT &gt; 0)), _xlpm._datePart, IF(_xlfn.BITAND(_xlpm._partsFlag, 4) = 4, LEFT(_xlpm.Text, INDEX(_xlpm._partsLen, 1, 2)), ""), _xlpm._timePart, IF(_xlfn.BITAND(_xlpm._partsFlag, 2) = 2, "T" &amp; MID(_xlpm.Text, _xlpm._Tpos + 1, INDEX(_xlpm._partsLen, 1, 3)), ""), _xlpm._tzPart, IF(_xlfn.BITAND(_xlpm._partsFlag, 1) = 1, RIGHT(_xlpm.Text, INDEX(_xlpm._partsLen, 1, 4)), ""), _xlfn.HSTACK(_xlpm._isoCompliant, _xlpm._partsFlag, _xlpm._datePart, _xlpm._timePart, _xlpm._tzPart))))))))))</definedName>
     <definedName name="ISO_8601.PARSE_TIME">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm._fmtHashTable, {8192,1,3,0,0;16384,2,1,3,0;24576,3,1,3,2;32775,4,1,3,4;36871,5,1,3,5;40967,6,1,3,6;21248,2,2,4,0;33632,3,2,4,2;41833,4,2,4,4;45929,5,2,4,5;50025,6,2,4,6}, _xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception,_xlop._precision,_xlop._extended, _xlfn.IFS(_xlpm._exception = "N/A", {FALSE,"","","","",""}, _xlpm._exception = "VALUE", _xlfn.IFS(_xlpm._precision = 1, _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), {#VALUE!,"",""}), _xlpm._precision = 2, _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), {#VALUE!,#VALUE!,""}), TRUE, _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), {#VALUE!,#VALUE!,#VALUE!})), TRUE, {"","","","","",""})), _xlpm.fnCountChars, _xlfn.LAMBDA(_xlpm.CharArray,_xlpm.Text, IF(_xlpm.Text = "", 0, _xlfn.LET(_xlpm._removed, _xlfn.REDUCE(_xlpm.Text, _xlpm.CharArray, _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, SUBSTITUTE(_xlpm._acc, _xlpm._curr, ""))), LEN(_xlpm.Text) - LEN(_xlpm._removed)))), _xlpm.fnFindNthCharPos, _xlfn.LAMBDA(_xlpm.Chars,_xlpm.Text,_xlpm.N, _xlfn.LET(_xlpm._charCount, LEN(_xlpm.Chars), _xlpm._n, INT(N(_xlpm.N)), IF((_xlpm._charCount = 0) + (_xlpm._n = 0), 0, _xlfn.LET(_xlpm._chars, MID(_xlpm.Chars, _xlfn.SEQUENCE(1, _xlpm._charCount), 1), _xlpm._findCount, _xlpm.fnCountChars(_xlpm._chars, _xlpm.Text), IF(_xlpm._findCount &lt; ABS(_xlpm._n), 0, _xlfn.LET(_xlpm._nth, IF(_xlpm._n &gt; 0, _xlpm._n, _xlpm._findCount + _xlpm._n + 1), _xlpm._nthPos, _xlfn.REDUCE(0, _xlfn.SEQUENCE(1, _xlpm._nth), _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, IF(_xlpm._acc &lt; 0, -1, _xlfn.LET(_xlpm._nextPosChars, IFERROR(FIND(_xlpm._chars, _xlpm.Text, _xlpm._acc + 1), 0), _xlpm._nextPos, MIN(_xlfn._xlws.FILTER(_xlpm._nextPosChars, _xlpm._nextPosChars &gt; 0, 0)), IF(_xlpm._nextPos = 0, -1, _xlpm._nextPos))))), MAX(_xlpm._nthPos, 0))))))), IF(_xlpm.Text = "", _xlpm.fnException(""), IF(NOT(ISO_8601.VALIDATE_CHARACTERS(_xlpm.Text, 2)), _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._Tpos, IFERROR(FIND("T", _xlpm.Text), 0), IF(_xlpm._Tpos &gt; 1, _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._sTime, IF(_xlpm._Tpos = 1, RIGHT(_xlpm.Text, LEN(_xlpm.Text) - 1), _xlpm.Text), _xlpm._len, LEN(_xlpm._sTime), _xlpm._colon1Pos, IFERROR(FIND(":", _xlpm._sTime), 0), _xlpm._colon2Pos, IFERROR(FIND(":", _xlpm._sTime, _xlpm._colon1Pos + 1), 0), _xlpm._decimalPos, _xlpm.fnFindNthCharPos(".,", _xlpm._sTime, 1), _xlpm._hash, (_xlpm._len * 4096) + (_xlpm._colon1Pos * 256) + (_xlpm._colon2Pos * 16) + _xlpm._decimalPos, _xlpm._hashLkup, _xlfn.IFNA(_xlfn.XMATCH(_xlpm._hash, _xlfn.CHOOSECOLS(_xlpm._fmtHashTable, 1), 0), 0), IF(_xlpm._hashLkup = 0, _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._defn, _xlfn.CHOOSEROWS(_xlpm._fmtHashTable, _xlpm._hashLkup), _xlpm._precision, INDEX(_xlpm._defn, 1, 2), _xlpm._extended, INDEX(_xlpm._defn, 1, 3), _xlpm._hour, VALUE(LEFT(_xlpm._sTime, 2)), _xlpm._minute, IF(_xlpm._precision &lt; 2, "", VALUE(MID(_xlpm._sTime, INDEX(_xlpm._defn, 1, 4), 2))), _xlpm._secLen, INDEX(_xlpm._defn, 1, 5), _xlpm._second, _xlfn.IFS(_xlpm._precision &lt; 3, "", _xlpm._precision = 3, VALUE(RIGHT(_xlpm._sTime, _xlpm._secLen)), TRUE, _xlfn.LET(_xlpm._sSec, RIGHT(_xlpm._sTime, _xlpm._secLen), _xlpm._intSec, VALUE(LEFT(_xlpm._sSec, 2)), _xlpm._fracSec, VALUE(RIGHT(_xlpm._sSec, _xlpm._secLen - 3)), _xlpm._decimalBase, INDEX({10,100,1000}, 1, _xlpm._precision - 3), _xlpm._intSec + (_xlpm._fracSec / _xlpm._decimalBase))), IF(NOT(ISO_8601.IS_VALID_TIME(_xlpm._hour, _xlpm._minute, _xlpm._second)), _xlpm.fnException("VALUE", _xlpm._precision, _xlpm._extended), _xlfn.HSTACK((_xlpm._Tpos = 1), _xlpm._precision, _xlpm._extended, _xlpm._hour, _xlpm._minute, _xlpm._second)))))))))))</definedName>
     <definedName name="ISO_8601.PARSE_TIME_ZONE">_xlfn.LAMBDA(_xlpm.Text, _xlfn.LET(_xlpm._fmtHashTable, {1536,3,3,1,0;3328,1,3,0,0;5376,2,1,0,4;6464,2,2,0,5;7424,3,1,0,4;9543,3,2,0,5}, _xlpm.fnException, _xlfn.LAMBDA(_xlpm._exception,_xlop._extended, _xlfn.IFS(_xlpm._exception = "N/A", {FALSE,"","",""}, _xlpm._exception = "VALUE", _xlfn.HSTACK(FALSE, 0, N(_xlpm._extended), {#VALUE!}), TRUE, {"","","",""})), _xlpm.fnCountChars, _xlfn.LAMBDA(_xlpm.CharArray,_xlpm.Text, IF(_xlpm.Text = "", 0, _xlfn.LET(_xlpm._removed, _xlfn.REDUCE(_xlpm.Text, _xlpm.CharArray, _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, SUBSTITUTE(_xlpm._acc, _xlpm._curr, ""))), LEN(_xlpm.Text) - LEN(_xlpm._removed)))), _xlpm.fnFindNthCharPos, _xlfn.LAMBDA(_xlpm.Chars,_xlpm.Text,_xlpm.N, _xlfn.LET(_xlpm._charCount, LEN(_xlpm.Chars), _xlpm._n, INT(N(_xlpm.N)), IF((_xlpm._charCount = 0) + (_xlpm._n = 0), 0, _xlfn.LET(_xlpm._chars, MID(_xlpm.Chars, _xlfn.SEQUENCE(1, _xlpm._charCount), 1), _xlpm._findCount, _xlpm.fnCountChars(_xlpm._chars, _xlpm.Text), IF(_xlpm._findCount &lt; ABS(_xlpm._n), 0, _xlfn.LET(_xlpm._nth, IF(_xlpm._n &gt; 0, _xlpm._n, _xlpm._findCount + _xlpm._n + 1), _xlpm._nthPos, _xlfn.REDUCE(0, _xlfn.SEQUENCE(1, _xlpm._nth), _xlfn.LAMBDA(_xlpm._acc,_xlpm._curr, IF(_xlpm._acc &lt; 0, -1, _xlfn.LET(_xlpm._nextPosChars, IFERROR(FIND(_xlpm._chars, _xlpm.Text, _xlpm._acc + 1), 0), _xlpm._nextPos, MIN(_xlfn._xlws.FILTER(_xlpm._nextPosChars, _xlpm._nextPosChars &gt; 0, 0)), IF(_xlpm._nextPos = 0, -1, _xlpm._nextPos))))), MAX(_xlpm._nthPos, 0))))))), IF(_xlpm.Text = "", _xlpm.fnException(""), IF(NOT(ISO_8601.VALIDATE_CHARACTERS(_xlpm.Text, 3)), _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._len, LEN(_xlpm.Text), _xlpm._Zonly, N((_xlpm._len = 1) * (IFERROR(FIND("Z", _xlpm.Text), 0) = 1)), _xlpm._lastSignPosAt1, N(_xlpm.fnFindNthCharPos("+-" &amp; _xlfn.UNICHAR(8722), _xlpm.Text, -1) = 1), _xlpm._colon1Pos, IFERROR(FIND(":", _xlpm.Text), 0), _xlpm._colon2Pos, IFERROR(FIND(":", _xlpm.Text, _xlpm._colon1Pos + 1), 0), _xlpm._hash, (_xlpm._len * 1024) + (_xlpm._Zonly * 512) + (_xlpm._lastSignPosAt1 * 256) + (_xlpm._colon1Pos * 16) + _xlpm._colon2Pos, _xlpm._hashLkup, _xlfn.IFNA(_xlfn.XMATCH(_xlpm._hash, _xlfn.CHOOSECOLS(_xlpm._fmtHashTable, 1), 0), 0), IF(_xlpm._hashLkup = 0, _xlpm.fnException("N/A"), _xlfn.LET(_xlpm._defn, _xlfn.CHOOSEROWS(_xlpm._fmtHashTable, _xlpm._hashLkup), _xlpm._precision, INDEX(_xlpm._defn, 1, 2), _xlpm._extended, INDEX(_xlpm._defn, 1, 3), IF(INDEX(_xlpm._defn, 1, 4) &gt; 0, _xlfn.HSTACK(TRUE, _xlpm._precision, _xlpm._extended, 0), _xlfn.LET(_xlpm._sign, _xlfn.IFS(LEFT(_xlpm.Text, 1) = "-", -1, _xlfn.UNICODE(LEFT(_xlpm.Text, 1)) = 8722, -1, TRUE, 1), _xlpm._hour, _xlpm._sign * VALUE(MID(_xlpm.Text, 2, 2)), _xlpm._minute, IF(_xlpm._precision &lt; 2, "", VALUE(MID(_xlpm.Text, INDEX(_xlpm._defn, 1, 5), 2))), _xlpm._second, IF(_xlpm._precision &lt; 3, "", VALUE(RIGHT(_xlpm.Text, 2))), _xlpm._tzoMinutes, INT((N(_xlpm._hour) * 3600) + (N(_xlpm._minute) * 60) + N(_xlpm._second)) / 60, IF(NOT(ISO_8601.IS_VALID_TIME_ZONE(_xlpm._tzoMinutes)), _xlpm.fnException("VALUE", _xlpm._extended), _xlfn.HSTACK(TRUE, _xlpm._precision, _xlpm._extended, _xlpm._tzoMinutes)))))))))))</definedName>
     <definedName name="ISO_8601.TO_WEEK_DATE">_xlfn.LAMBDA(_xlpm.YearCE,_xlpm.Month,_xlpm.Day, IF(ISNUMBER(_xlpm.Month), IF(NOT(ISO_8601.IS_VALID_DATE(_xlpm.YearCE, _xlpm.Month, _xlpm.Day, 1)), #VALUE!, _xlfn.LET(_xlpm._fracDay, _xlpm.Day - INT(_xlpm.Day), _xlpm._dow, ISO_8601.DAY_OF_WEEK(_xlpm.YearCE, _xlpm.Month, _xlpm.Day), _xlpm._week, ISO_8601.WEEK_NUMBER(_xlpm.YearCE, _xlpm.Month, _xlpm.Day), _xlpm._yearCE, INT(_xlpm.YearCE) + _xlfn.IFS((_xlpm._week = 1) * (_xlpm.Month = 12), 1, (_xlpm._week &gt;= 52) * (_xlpm.Month = 1), -1, TRUE, 0), _xlfn.HSTACK(_xlpm._yearCE, _xlpm._week, _xlpm._dow + _xlpm._fracDay))), IF(NOT(ISO_8601.IS_VALID_ORDINAL_DATE(_xlpm.YearCE, _xlpm.Day)), #VALUE!, _xlfn.LET(_xlpm._fracDay, _xlpm.Day - INT(_xlpm.Day), _xlpm._dow, ISO_8601.DAY_OF_WEEK_FROM_ORDINAL(_xlpm.YearCE, _xlpm.Day), _xlpm._week, ISO_8601.WEEK_NUMBER_FROM_ORDINAL(_xlpm.YearCE, _xlpm.Day), _xlpm._yearCE, INT(_xlpm.YearCE) + _xlfn.IFS((_xlpm._week = 1) * (_xlpm.Month = 12), 1, (_xlpm._week &gt;= 52) * (_xlpm.Month = 1), -1, TRUE, 0), _xlfn.HSTACK(_xlpm._yearCE, _xlpm._week, _xlpm._dow + _xlpm._fracDay)))))</definedName>
@@ -93,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="171">
   <si>
     <t>IS_VALID_YEAR(YearCE)</t>
   </si>
@@ -447,9 +449,6 @@
     <t>2023-02-23T14:35+15</t>
   </si>
   <si>
-    <t>PARSE_DATE_TIME(Text)</t>
-  </si>
-  <si>
     <t>2023-02-23T14:65</t>
   </si>
   <si>
@@ -502,9 +501,6 @@
 Parts</t>
   </si>
   <si>
-    <t>TZ</t>
-  </si>
-  <si>
     <t>Out: Parts</t>
   </si>
   <si>
@@ -520,17 +516,118 @@
     <t>+</t>
   </si>
   <si>
-    <t>+++</t>
+    <t>2023-02-23T1435Z</t>
+  </si>
+  <si>
+    <t>T14:00+930</t>
+  </si>
+  <si>
+    <t>14:35</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>PARSE_ISO8601(Text)</t>
+  </si>
+  <si>
+    <t>143022</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>ISO_8601</t>
+  </si>
+  <si>
+    <t>FORMAT_TIME(Hour, Minute, Second, [Basic], [Precision])</t>
+  </si>
+  <si>
+    <t>FORMAT_TIMEZONE(OffsetMinutes, [Basic], [Precision], [NoZulu])</t>
+  </si>
+  <si>
+    <t>OffsetMiniutes</t>
+  </si>
+  <si>
+    <t>NoZulu</t>
+  </si>
+  <si>
+    <t>FORMAT_DATE(YearCE, [Month], [Day], [Basic], [Signed])</t>
+  </si>
+  <si>
+    <t>Signed</t>
+  </si>
+  <si>
+    <t>FORMAT_ORDINAL_DATE(YearCE, Ordinal, [Basic], [Signed])</t>
+  </si>
+  <si>
+    <t>FORMAT_WEEK_DATE(YearCE, Week, DayOfWeek, [Basic], [Signed])</t>
+  </si>
+  <si>
+    <t>DateType</t>
+  </si>
+  <si>
+    <t>DateArg1</t>
+  </si>
+  <si>
+    <t>DateArg2</t>
+  </si>
+  <si>
+    <t>TimeZoneOffset</t>
+  </si>
+  <si>
+    <t>NoTimeZone</t>
+  </si>
+  <si>
+    <t>FORMAT_ISO8601(DateType, [YearCE], [DateArg1], [DateArg2], [Hour], [Minute], [Second], [TimeZoneOffset], [Basic], [Signed], [Precision], [NoTimeZone], [NoZulu])</t>
+  </si>
+  <si>
+    <t>Out: Date Time</t>
+  </si>
+  <si>
+    <t>Out: TimeZoneOffset</t>
+  </si>
+  <si>
+    <t>+2023-05-12T14:30+00:00</t>
+  </si>
+  <si>
+    <t>Strict</t>
+  </si>
+  <si>
+    <t>99999-W15</t>
+  </si>
+  <si>
+    <t>T12:35:12.123Z</t>
+  </si>
+  <si>
+    <t>2023W024T143506.123-15</t>
+  </si>
+  <si>
+    <t>2023-W50-5T0635</t>
+  </si>
+  <si>
+    <t>CONVERT_TO_DATE(Text, [Strict])</t>
+  </si>
+  <si>
+    <t>CONVERT_FROM_DATE(Date, [TimeZoneOffset], [Basic], [Signed], [Precision], [NoTimeZone], [NoZulu])</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ISO8601</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000000000000000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="d/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="d/mm/yyyy\ hh:mm:ss.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -583,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -779,12 +876,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -845,7 +955,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -1607,7 +1733,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1641,7 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A7EFF7-D7B6-49F8-9B8B-8E9959D1B63D}">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
@@ -1666,24 +1792,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1884,34 +2010,34 @@
       <c r="A16" s="26"/>
     </row>
     <row r="18" spans="1:22" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48" t="s">
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2405,25 +2531,25 @@
       <c r="S38" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48" t="s">
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -2782,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E93DB22-D147-4407-9D45-32027F519964}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,21 +2929,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -2986,22 +3112,22 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -3261,22 +3387,22 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="H30" s="48" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="H30" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3440,24 +3566,24 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -3659,25 +3785,25 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="48" t="s">
+      <c r="H55" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
     </row>
     <row r="57" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
@@ -4303,10 +4429,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D209D5E7-E650-490C-9B1C-E77B3A161125}">
-  <dimension ref="A1:S142"/>
+  <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4316,15 +4442,16 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4338,6 +4465,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" t="str" cm="1">
         <f t="array" ref="C4">ISO_8601.VALIDATE_CHARACTERS(Table1921[[#This Row],[Text]],Table1921[[#This Row],[Subset]])</f>
         <v/>
@@ -4345,6 +4475,9 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="b" cm="1">
@@ -4473,19 +4606,19 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
+      <c r="A18" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>55</v>
@@ -4497,7 +4630,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>53</v>
@@ -4559,22 +4692,24 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="8" t="str" cm="1">
+      <c r="A23" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="8" t="b" cm="1">
         <f t="array" ref="B23:H23">ISO_8601.PARSE_DATE(A23)</f>
-        <v/>
-      </c>
-      <c r="C23" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D23" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E23" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F23" s="8" t="str">
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>3</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2023</v>
       </c>
       <c r="G23" s="8" t="str">
         <v/>
@@ -4585,44 +4720,44 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B24" s="11" t="b" cm="1">
         <f t="array" ref="B24:H24">ISO_8601.PARSE_DATE(A24)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="11" t="str">
-        <v/>
-      </c>
-      <c r="D24" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E24" s="11" t="str">
-        <v/>
-      </c>
-      <c r="F24" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G24" s="11" t="str">
-        <v/>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G24" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="H24" s="12" t="str">
         <v/>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>56</v>
+      <c r="A25" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="B25" s="8" t="b" cm="1">
         <f t="array" ref="B25:H25">ISO_8601.PARSE_DATE(A25)</f>
         <v>1</v>
       </c>
       <c r="C25" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
@@ -4630,23 +4765,23 @@
       <c r="F25" s="8">
         <v>2023</v>
       </c>
-      <c r="G25" s="8" t="str">
-        <v/>
+      <c r="G25" s="8">
+        <v>11</v>
       </c>
       <c r="H25" s="9" t="str">
         <v/>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>94</v>
+      <c r="A26" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="B26" s="11" t="b" cm="1">
         <f t="array" ref="B26:H26">ISO_8601.PARSE_DATE(A26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="11">
         <v>2</v>
@@ -4654,26 +4789,26 @@
       <c r="E26" s="11">
         <v>1</v>
       </c>
-      <c r="F26" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G26" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26" s="12" t="str">
-        <v/>
+      <c r="F26" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G26" s="11">
+        <v>11</v>
+      </c>
+      <c r="H26" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B27" s="8" t="b" cm="1">
         <f t="array" ref="B27:H27">ISO_8601.PARSE_DATE(A27)</f>
         <v>1</v>
       </c>
       <c r="C27" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -4682,45 +4817,45 @@
         <v>1</v>
       </c>
       <c r="F27" s="8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G27" s="8">
-        <v>11</v>
-      </c>
-      <c r="H27" s="9" t="str">
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="H27" s="9">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B28" s="11" t="b" cm="1">
         <f t="array" ref="B28:H28">ISO_8601.PARSE_DATE(A28)</f>
-        <v>1</v>
-      </c>
-      <c r="C28" s="11">
-        <v>3</v>
-      </c>
-      <c r="D28" s="11">
-        <v>2</v>
-      </c>
-      <c r="E28" s="11">
-        <v>1</v>
-      </c>
-      <c r="F28" s="11">
-        <v>2023</v>
-      </c>
-      <c r="G28" s="11">
-        <v>11</v>
-      </c>
-      <c r="H28" s="12">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C28" s="11" t="str">
+        <v/>
+      </c>
+      <c r="D28" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E28" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F28" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G28" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H28" s="12" t="str">
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B29" s="8" t="b" cm="1">
         <f t="array" ref="B29:H29">ISO_8601.PARSE_DATE(A29)</f>
@@ -4730,51 +4865,51 @@
         <v>3</v>
       </c>
       <c r="D29" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="8">
         <v>1</v>
       </c>
       <c r="F29" s="8">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G29" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H29" s="9">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>60</v>
+      <c r="A30" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="B30" s="11" t="b" cm="1">
         <f t="array" ref="B30:H30">ISO_8601.PARSE_DATE(A30)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="11" t="str">
-        <v/>
-      </c>
-      <c r="D30" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E30" s="11" t="str">
-        <v/>
-      </c>
-      <c r="F30" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G30" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H30" s="12" t="str">
-        <v/>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G30" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H30" s="12" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="8" t="b" cm="1">
         <f t="array" ref="B31:H31">ISO_8601.PARSE_DATE(A31)</f>
@@ -4784,51 +4919,51 @@
         <v>3</v>
       </c>
       <c r="D31" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="8">
         <v>2023</v>
       </c>
-      <c r="G31" s="8">
-        <v>11</v>
+      <c r="G31" s="8" t="str">
+        <v/>
       </c>
       <c r="H31" s="9">
-        <v>5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="11" t="b" cm="1">
+      <c r="A32" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="4" t="b" cm="1">
         <f t="array" ref="B32:H32">ISO_8601.PARSE_DATE(A32)</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="11">
-        <v>0</v>
-      </c>
-      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4">
         <v>2</v>
       </c>
-      <c r="E32" s="11">
-        <v>1</v>
-      </c>
-      <c r="F32" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H32" s="12" t="e">
-        <v>#VALUE!</v>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>12031</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H32" s="3">
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B33" s="8" t="b" cm="1">
         <f t="array" ref="B33:H33">ISO_8601.PARSE_DATE(A33)</f>
@@ -4844,7 +4979,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="8">
-        <v>2023</v>
+        <v>-12031</v>
       </c>
       <c r="G33" s="8" t="str">
         <v/>
@@ -4855,7 +4990,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="4" t="b" cm="1">
         <f t="array" ref="B34:H34">ISO_8601.PARSE_DATE(A34)</f>
@@ -4868,21 +5003,21 @@
         <v>2</v>
       </c>
       <c r="E34" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="4">
-        <v>12031</v>
-      </c>
-      <c r="G34" s="4" t="str">
-        <v/>
+        <v>2023</v>
+      </c>
+      <c r="G34" s="4">
+        <v>25</v>
       </c>
       <c r="H34" s="3">
-        <v>125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="8" t="b" cm="1">
         <f t="array" ref="B35:H35">ISO_8601.PARSE_DATE(A35)</f>
@@ -4895,21 +5030,21 @@
         <v>2</v>
       </c>
       <c r="E35" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="8">
-        <v>-12031</v>
-      </c>
-      <c r="G35" s="8" t="str">
-        <v/>
+        <v>-41</v>
+      </c>
+      <c r="G35" s="8">
+        <v>25</v>
       </c>
       <c r="H35" s="9">
-        <v>125</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B36" s="4" t="b" cm="1">
         <f t="array" ref="B36:H36">ISO_8601.PARSE_DATE(A36)</f>
@@ -4936,7 +5071,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B37" s="8" t="b" cm="1">
         <f t="array" ref="B37:H37">ISO_8601.PARSE_DATE(A37)</f>
@@ -4946,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="8">
         <v>3</v>
@@ -4963,7 +5098,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B38" s="4" t="b" cm="1">
         <f t="array" ref="B38:H38">ISO_8601.PARSE_DATE(A38)</f>
@@ -4973,7 +5108,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="4">
         <v>3</v>
@@ -4989,62 +5124,62 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="8" t="b" cm="1">
+      <c r="A39" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="24" t="b" cm="1">
         <f t="array" ref="B39:H39">ISO_8601.PARSE_DATE(A39)</f>
-        <v>1</v>
-      </c>
-      <c r="C39" s="8">
-        <v>3</v>
-      </c>
-      <c r="D39" s="8">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8">
-        <v>3</v>
-      </c>
-      <c r="F39" s="8">
-        <v>-41</v>
-      </c>
-      <c r="G39" s="8">
-        <v>25</v>
-      </c>
-      <c r="H39" s="9">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C39" s="24" t="str">
+        <v/>
+      </c>
+      <c r="D39" s="24" t="str">
+        <v/>
+      </c>
+      <c r="E39" s="24" t="str">
+        <v/>
+      </c>
+      <c r="F39" s="24" t="str">
+        <v/>
+      </c>
+      <c r="G39" s="24" t="str">
+        <v/>
+      </c>
+      <c r="H39" s="29" t="str">
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B40" s="4" t="b" cm="1">
         <f t="array" ref="B40:H40">ISO_8601.PARSE_DATE(A40)</f>
         <v>1</v>
       </c>
       <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
         <v>3</v>
       </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
       <c r="E40" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" s="4">
-        <v>2023</v>
-      </c>
-      <c r="G40" s="4">
-        <v>25</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1</v>
+        <v>99999</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H40" s="3" t="str">
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
-        <v>121</v>
+      <c r="A41" s="41" t="s">
+        <v>135</v>
       </c>
       <c r="B41" s="24" t="b" cm="1">
         <f t="array" ref="B41:H41">ISO_8601.PARSE_DATE(A41)</f>
@@ -5069,106 +5204,100 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="4" t="b" cm="1">
-        <f t="array" ref="B42:H42">ISO_8601.PARSE_DATE(A42)</f>
-        <v>1</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4">
+    <row r="44" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+    </row>
+    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P46" s="43"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="8" t="str" cm="1">
+        <f t="array" ref="B47:G47">ISO_8601.PARSE_TIME(A47)</f>
+        <v/>
+      </c>
+      <c r="C47" s="8" t="str">
+        <v/>
+      </c>
+      <c r="D47" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E47" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F47" s="8" t="str">
+        <v/>
+      </c>
+      <c r="G47" s="9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11" t="b" cm="1">
+        <f t="array" ref="B48:G48">ISO_8601.PARSE_TIME(A48)</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="11" t="str">
+        <v/>
+      </c>
+      <c r="D48" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E48" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F48" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G48" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="8" t="b" cm="1">
+        <f t="array" ref="B49:G49">ISO_8601.PARSE_TIME(A49)</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="8">
+        <v>1</v>
+      </c>
+      <c r="D49" s="8">
         <v>3</v>
       </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4">
-        <v>99999</v>
-      </c>
-      <c r="G42" s="4" t="str">
-        <v/>
-      </c>
-      <c r="H42" s="3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="24" t="b" cm="1">
-        <f t="array" ref="B43:H43">ISO_8601.PARSE_DATE(A43)</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="24" t="str">
-        <v/>
-      </c>
-      <c r="D43" s="24" t="str">
-        <v/>
-      </c>
-      <c r="E43" s="24" t="str">
-        <v/>
-      </c>
-      <c r="F43" s="24" t="str">
-        <v/>
-      </c>
-      <c r="G43" s="24" t="str">
-        <v/>
-      </c>
-      <c r="H43" s="29" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-    </row>
-    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="P48" s="43"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="8" t="str" cm="1">
-        <f t="array" ref="B49:G49">ISO_8601.PARSE_TIME(A49)</f>
-        <v/>
-      </c>
-      <c r="C49" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D49" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E49" s="8" t="str">
-        <v/>
+      <c r="E49" s="8">
+        <v>14</v>
       </c>
       <c r="F49" s="8" t="str">
         <v/>
@@ -5178,21 +5307,21 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>1</v>
+      <c r="A50" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="B50" s="11" t="b" cm="1">
         <f t="array" ref="B50:G50">ISO_8601.PARSE_TIME(A50)</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="11" t="str">
-        <v/>
-      </c>
-      <c r="D50" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E50" s="11" t="str">
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11">
+        <v>3</v>
+      </c>
+      <c r="E50" s="11">
+        <v>14</v>
       </c>
       <c r="F50" s="11" t="str">
         <v/>
@@ -5202,126 +5331,128 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="8" t="str" cm="1">
+      <c r="A51" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="8" t="b" cm="1">
         <f t="array" ref="B51:G51">ISO_8601.PARSE_TIME(A51)</f>
-        <v/>
-      </c>
-      <c r="C51" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D51" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E51" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F51" s="8" t="str">
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8">
+        <v>20</v>
+      </c>
+      <c r="F51" s="8">
+        <v>15</v>
       </c>
       <c r="G51" s="9" t="str">
         <v/>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
-        <v>1</v>
+      <c r="A52" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="B52" s="11" t="b" cm="1">
         <f t="array" ref="B52:G52">ISO_8601.PARSE_TIME(A52)</f>
         <v>0</v>
       </c>
-      <c r="C52" s="11" t="str">
-        <v/>
-      </c>
-      <c r="D52" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E52" s="11" t="str">
-        <v/>
-      </c>
-      <c r="F52" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G52" s="12" t="str">
-        <v/>
+      <c r="C52" s="11">
+        <v>3</v>
+      </c>
+      <c r="D52" s="11">
+        <v>1</v>
+      </c>
+      <c r="E52" s="11">
+        <v>20</v>
+      </c>
+      <c r="F52" s="11">
+        <v>15</v>
+      </c>
+      <c r="G52" s="12">
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
-        <v>71</v>
+      <c r="A53" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="B53" s="8" t="b" cm="1">
         <f t="array" ref="B53:G53">ISO_8601.PARSE_TIME(A53)</f>
         <v>0</v>
       </c>
       <c r="C53" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D53" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" s="8">
-        <v>14</v>
-      </c>
-      <c r="F53" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G53" s="9" t="str">
-        <v/>
+        <v>20</v>
+      </c>
+      <c r="F53" s="8">
+        <v>15</v>
+      </c>
+      <c r="G53" s="9">
+        <v>35.677999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
-        <v>129</v>
+      <c r="A54" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="B54" s="11" t="b" cm="1">
         <f t="array" ref="B54:G54">ISO_8601.PARSE_TIME(A54)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="11">
-        <v>3</v>
-      </c>
-      <c r="E54" s="11">
-        <v>14</v>
-      </c>
-      <c r="F54" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G54" s="12" t="str">
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G54" s="12" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B55" s="8" t="b" cm="1">
         <f t="array" ref="B55:G55">ISO_8601.PARSE_TIME(A55)</f>
         <v>1</v>
       </c>
       <c r="C55" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D55" s="8">
         <v>1</v>
       </c>
       <c r="E55" s="8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F55" s="8">
-        <v>15</v>
-      </c>
-      <c r="G55" s="9" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
-        <v>75</v>
+      <c r="A56" s="35" t="s">
+        <v>77</v>
       </c>
       <c r="B56" s="11" t="b" cm="1">
         <f t="array" ref="B56:G56">ISO_8601.PARSE_TIME(A56)</f>
@@ -5331,21 +5462,23 @@
         <v>3</v>
       </c>
       <c r="D56" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F56" s="11">
         <v>15</v>
       </c>
       <c r="G56" s="12">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N56" s="40"/>
+      <c r="S56" s="40"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B57" s="8" t="b" cm="1">
         <f t="array" ref="B57:G57">ISO_8601.PARSE_TIME(A57)</f>
@@ -5355,41 +5488,43 @@
         <v>6</v>
       </c>
       <c r="D57" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F57" s="8">
         <v>15</v>
       </c>
       <c r="G57" s="9">
-        <v>35.677999999999997</v>
-      </c>
+        <v>54.012</v>
+      </c>
+      <c r="N57" s="40"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="11" t="b" cm="1">
+      <c r="A58" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="4" t="b" cm="1">
         <f t="array" ref="B58:G58">ISO_8601.PARSE_TIME(A58)</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="11">
-        <v>0</v>
-      </c>
-      <c r="D58" s="11">
-        <v>1</v>
-      </c>
-      <c r="E58" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F58" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G58" s="12" t="e">
-        <v>#VALUE!</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>5</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>45</v>
+      </c>
+      <c r="G58" s="3">
+        <v>12.34</v>
+      </c>
+      <c r="N58" s="40"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
@@ -5397,321 +5532,290 @@
       </c>
       <c r="B59" s="8" t="b" cm="1">
         <f t="array" ref="B59:G59">ISO_8601.PARSE_TIME(A59)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D59" s="8">
-        <v>1</v>
-      </c>
-      <c r="E59" s="8">
-        <v>24</v>
-      </c>
-      <c r="F59" s="8">
-        <v>0</v>
-      </c>
-      <c r="G59" s="9">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E59" s="8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="9" t="str">
+        <v/>
+      </c>
+      <c r="N59" s="40"/>
+      <c r="R59" s="40"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="11" t="b" cm="1">
+      <c r="A60" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="4" t="b" cm="1">
         <f t="array" ref="B60:G60">ISO_8601.PARSE_TIME(A60)</f>
         <v>0</v>
       </c>
-      <c r="C60" s="11">
-        <v>3</v>
-      </c>
-      <c r="D60" s="11">
-        <v>2</v>
-      </c>
-      <c r="E60" s="11">
-        <v>1</v>
-      </c>
-      <c r="F60" s="11">
-        <v>15</v>
-      </c>
-      <c r="G60" s="12">
-        <v>34</v>
+      <c r="C60" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D60" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E60" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F60" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G60" s="3" t="str">
+        <v/>
       </c>
       <c r="N60" s="40"/>
-      <c r="S60" s="40"/>
+      <c r="Q60" s="40"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B61" s="8" t="b" cm="1">
         <f t="array" ref="B61:G61">ISO_8601.PARSE_TIME(A61)</f>
         <v>0</v>
       </c>
-      <c r="C61" s="8">
-        <v>6</v>
-      </c>
-      <c r="D61" s="8">
-        <v>2</v>
-      </c>
-      <c r="E61" s="8">
-        <v>1</v>
-      </c>
-      <c r="F61" s="8">
-        <v>15</v>
-      </c>
-      <c r="G61" s="9">
-        <v>54.012</v>
+      <c r="C61" s="8" t="str">
+        <v/>
+      </c>
+      <c r="D61" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E61" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F61" s="8" t="str">
+        <v/>
+      </c>
+      <c r="G61" s="9" t="str">
+        <v/>
       </c>
       <c r="N61" s="40"/>
+      <c r="R61" s="40"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="B62" s="4" t="b" cm="1">
         <f t="array" ref="B62:G62">ISO_8601.PARSE_TIME(A62)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D62" s="4">
-        <v>2</v>
-      </c>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
-      <c r="F62" s="4">
-        <v>45</v>
-      </c>
-      <c r="G62" s="3">
-        <v>12.34</v>
+        <v>3</v>
+      </c>
+      <c r="E62" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G62" s="3" t="str">
+        <v/>
       </c>
       <c r="N62" s="40"/>
+      <c r="Q62" s="40"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="8" t="b" cm="1">
-        <f t="array" ref="B63:G63">ISO_8601.PARSE_TIME(A63)</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="8">
-        <v>0</v>
-      </c>
-      <c r="D63" s="8">
-        <v>2</v>
-      </c>
-      <c r="E63" s="8" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F63" s="8" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G63" s="9" t="str">
-        <v/>
-      </c>
       <c r="N63" s="40"/>
-      <c r="R63" s="40"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="4" t="b" cm="1">
-        <f t="array" ref="B64:G64">ISO_8601.PARSE_TIME(A64)</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D64" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E64" s="4" t="str">
-        <v/>
-      </c>
-      <c r="F64" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G64" s="3" t="str">
-        <v/>
-      </c>
       <c r="N64" s="40"/>
-      <c r="Q64" s="40"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="8" t="b" cm="1">
-        <f t="array" ref="B65:G65">ISO_8601.PARSE_TIME(A65)</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D65" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E65" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F65" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G65" s="9" t="str">
-        <v/>
-      </c>
+      <c r="R64" s="40"/>
+    </row>
+    <row r="65" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
       <c r="N65" s="40"/>
-      <c r="R65" s="40"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="4" t="b" cm="1">
-        <f t="array" ref="B66:G66">ISO_8601.PARSE_TIME(A66)</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0</v>
-      </c>
-      <c r="D66" s="4">
+      <c r="Q65" s="40"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N66" s="40"/>
+      <c r="R66" s="40"/>
+    </row>
+    <row r="67" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="L67" s="40"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="32"/>
+      <c r="B68" s="8" t="str" cm="1">
+        <f t="array" ref="B68:E68">ISO_8601.PARSE_TIME_ZONE(A68)</f>
+        <v/>
+      </c>
+      <c r="C68" s="8" t="str">
+        <v/>
+      </c>
+      <c r="D68" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E68" s="37" t="str">
+        <v/>
+      </c>
+      <c r="L68" s="40"/>
+      <c r="Q68" s="40"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="11" t="b" cm="1">
+        <f t="array" ref="B69:E69">ISO_8601.PARSE_TIME_ZONE(A69)</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="11" t="str">
+        <v/>
+      </c>
+      <c r="D69" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E69" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="8" t="b" cm="1">
+        <f t="array" ref="B70:E70">ISO_8601.PARSE_TIME_ZONE(A70)</f>
+        <v>1</v>
+      </c>
+      <c r="C70" s="8">
         <v>3</v>
       </c>
-      <c r="E66" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F66" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G66" s="3" t="str">
-        <v/>
-      </c>
-      <c r="N66" s="40"/>
-      <c r="Q66" s="40"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N67" s="40"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N68" s="40"/>
-      <c r="R68" s="40"/>
-    </row>
-    <row r="69" spans="1:19" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="N69" s="40"/>
-      <c r="Q69" s="40"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N70" s="40"/>
-      <c r="R70" s="40"/>
-    </row>
-    <row r="71" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="L71" s="40"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="8" t="str" cm="1">
+      <c r="D70" s="8">
+        <v>3</v>
+      </c>
+      <c r="E70" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="11" t="b" cm="1">
+        <f t="array" ref="B71:E71">ISO_8601.PARSE_TIME_ZONE(A71)</f>
+        <v>1</v>
+      </c>
+      <c r="C71" s="11">
+        <v>1</v>
+      </c>
+      <c r="D71" s="11">
+        <v>3</v>
+      </c>
+      <c r="E71" s="38">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="8" t="b" cm="1">
         <f t="array" ref="B72:E72">ISO_8601.PARSE_TIME_ZONE(A72)</f>
-        <v/>
-      </c>
-      <c r="C72" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D72" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E72" s="37" t="str">
-        <v/>
-      </c>
-      <c r="L72" s="40"/>
-      <c r="Q72" s="40"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C72" s="8">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8">
+        <v>3</v>
+      </c>
+      <c r="E72" s="37">
+        <v>-720</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B73" s="11" t="b" cm="1">
         <f t="array" ref="B73:E73">ISO_8601.PARSE_TIME_ZONE(A73)</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="11" t="str">
-        <v/>
-      </c>
-      <c r="D73" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E73" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="8" t="str" cm="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="11">
+        <v>1</v>
+      </c>
+      <c r="D73" s="11">
+        <v>3</v>
+      </c>
+      <c r="E73" s="38">
+        <v>-720</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="8" t="b" cm="1">
         <f t="array" ref="B74:E74">ISO_8601.PARSE_TIME_ZONE(A74)</f>
-        <v/>
-      </c>
-      <c r="C74" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D74" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E74" s="37" t="str">
-        <v/>
-      </c>
-      <c r="L74" s="40"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-      <c r="S74" s="40"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C74" s="8">
+        <v>2</v>
+      </c>
+      <c r="D74" s="8">
+        <v>1</v>
+      </c>
+      <c r="E74" s="37">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="B75" s="11" t="b" cm="1">
         <f t="array" ref="B75:E75">ISO_8601.PARSE_TIME_ZONE(A75)</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="11" t="str">
-        <v/>
-      </c>
-      <c r="D75" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E75" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="C75" s="11">
+        <v>2</v>
+      </c>
+      <c r="D75" s="11">
+        <v>2</v>
+      </c>
+      <c r="E75" s="38">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="B76" s="8" t="b" cm="1">
         <f t="array" ref="B76:E76">ISO_8601.PARSE_TIME_ZONE(A76)</f>
@@ -5721,252 +5825,270 @@
         <v>3</v>
       </c>
       <c r="D76" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B77" s="11" t="b" cm="1">
         <f t="array" ref="B77:E77">ISO_8601.PARSE_TIME_ZONE(A77)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" s="11">
-        <v>3</v>
-      </c>
-      <c r="E77" s="38">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E77" s="38" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B78" s="8" t="b" cm="1">
         <f t="array" ref="B78:E78">ISO_8601.PARSE_TIME_ZONE(A78)</f>
         <v>1</v>
       </c>
       <c r="C78" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" s="8">
+        <v>2</v>
+      </c>
+      <c r="E78" s="37">
+        <v>570.36666666666667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="4" t="b" cm="1">
+        <f t="array" ref="B79:E79">ISO_8601.PARSE_TIME_ZONE(A79)</f>
+        <v>1</v>
+      </c>
+      <c r="C79" s="4">
         <v>3</v>
       </c>
-      <c r="E78" s="37">
-        <v>-720</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="11" t="b" cm="1">
-        <f t="array" ref="B79:E79">ISO_8601.PARSE_TIME_ZONE(A79)</f>
-        <v>1</v>
-      </c>
-      <c r="C79" s="11">
-        <v>1</v>
-      </c>
-      <c r="D79" s="11">
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="39">
+        <v>-519.63333333333333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="24" t="b" cm="1">
+        <f t="array" ref="B80:E80">ISO_8601.PARSE_TIME_ZONE(A80)</f>
+        <v>0</v>
+      </c>
+      <c r="C80" s="24" t="str">
+        <v/>
+      </c>
+      <c r="D80" s="24" t="str">
+        <v/>
+      </c>
+      <c r="E80" s="42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="4" t="b" cm="1">
+        <f t="array" ref="B81:E81">ISO_8601.PARSE_TIME_ZONE(A81)</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D81" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E81" s="39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+    </row>
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="32"/>
+      <c r="B87" s="8" t="str" cm="1">
+        <f t="array" ref="B87:F87">ISO_8601.PARSE_PARTS(A87)</f>
+        <v/>
+      </c>
+      <c r="C87" s="8" t="str">
+        <v/>
+      </c>
+      <c r="D87" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E87" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F87" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="11" t="b" cm="1">
+        <f t="array" ref="B88:F88">ISO_8601.PARSE_PARTS(A88)</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="11">
+        <v>0</v>
+      </c>
+      <c r="D88" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E88" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F88" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" s="8" t="b" cm="1">
+        <f t="array" ref="B89:F89">ISO_8601.PARSE_PARTS(A89)</f>
+        <v>0</v>
+      </c>
+      <c r="C89" s="8">
+        <v>5</v>
+      </c>
+      <c r="D89" s="8" t="str">
+        <v>2023</v>
+      </c>
+      <c r="E89" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F89" s="37" t="str">
+        <v>+09:30:22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="11" t="b" cm="1">
+        <f t="array" ref="B90:F90">ISO_8601.PARSE_PARTS(A90)</f>
+        <v>0</v>
+      </c>
+      <c r="C90" s="11">
+        <v>5</v>
+      </c>
+      <c r="D90" s="11" t="str">
+        <v>99999-10</v>
+      </c>
+      <c r="E90" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F90" s="38" t="str">
+        <v>+09:30:22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="8" t="b" cm="1">
+        <f t="array" ref="B91:F91">ISO_8601.PARSE_PARTS(A91)</f>
+        <v>1</v>
+      </c>
+      <c r="C91" s="8">
+        <v>7</v>
+      </c>
+      <c r="D91" s="8" t="str">
+        <v>99999-W15-2</v>
+      </c>
+      <c r="E91" s="8" t="str">
+        <v>T14:25:21.123</v>
+      </c>
+      <c r="F91" s="37" t="str">
+        <v>+09:30:22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="11" t="b" cm="1">
+        <f t="array" ref="B92:F92">ISO_8601.PARSE_PARTS(A92)</f>
+        <v>1</v>
+      </c>
+      <c r="C92" s="11">
         <v>3</v>
       </c>
-      <c r="E79" s="38">
-        <v>-720</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="8" t="b" cm="1">
-        <f t="array" ref="B80:E80">ISO_8601.PARSE_TIME_ZONE(A80)</f>
-        <v>1</v>
-      </c>
-      <c r="C80" s="8">
-        <v>2</v>
-      </c>
-      <c r="D80" s="8">
-        <v>1</v>
-      </c>
-      <c r="E80" s="37">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="11" t="b" cm="1">
-        <f t="array" ref="B81:E81">ISO_8601.PARSE_TIME_ZONE(A81)</f>
-        <v>1</v>
-      </c>
-      <c r="C81" s="11">
-        <v>2</v>
-      </c>
-      <c r="D81" s="11">
-        <v>2</v>
-      </c>
-      <c r="E81" s="38">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="8" t="b" cm="1">
-        <f t="array" ref="B82:E82">ISO_8601.PARSE_TIME_ZONE(A82)</f>
-        <v>1</v>
-      </c>
-      <c r="C82" s="8">
-        <v>3</v>
-      </c>
-      <c r="D82" s="8">
-        <v>2</v>
-      </c>
-      <c r="E82" s="37">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="11" t="b" cm="1">
-        <f t="array" ref="B83:E83">ISO_8601.PARSE_TIME_ZONE(A83)</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="11">
-        <v>0</v>
-      </c>
-      <c r="D83" s="11">
-        <v>2</v>
-      </c>
-      <c r="E83" s="38" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="8" t="b" cm="1">
-        <f t="array" ref="B84:E84">ISO_8601.PARSE_TIME_ZONE(A84)</f>
-        <v>1</v>
-      </c>
-      <c r="C84" s="8">
-        <v>3</v>
-      </c>
-      <c r="D84" s="8">
-        <v>2</v>
-      </c>
-      <c r="E84" s="37">
-        <v>570.36666666666667</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="4" t="b" cm="1">
-        <f t="array" ref="B85:E85">ISO_8601.PARSE_TIME_ZONE(A85)</f>
-        <v>1</v>
-      </c>
-      <c r="C85" s="4">
-        <v>3</v>
-      </c>
-      <c r="D85" s="4">
-        <v>1</v>
-      </c>
-      <c r="E85" s="39">
-        <v>-519.63333333333333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" s="24" t="b" cm="1">
-        <f t="array" ref="B86:E86">ISO_8601.PARSE_TIME_ZONE(A86)</f>
-        <v>0</v>
-      </c>
-      <c r="C86" s="24" t="str">
-        <v/>
-      </c>
-      <c r="D86" s="24" t="str">
-        <v/>
-      </c>
-      <c r="E86" s="42" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="4" t="b" cm="1">
-        <f t="array" ref="B87:E87">ISO_8601.PARSE_TIME_ZONE(A87)</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D87" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E87" s="39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-    </row>
-    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>105</v>
+      <c r="D92" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E92" s="11" t="str">
+        <v>T12:35</v>
+      </c>
+      <c r="F92" s="38" t="str">
+        <v>+09:30</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="8" t="str" cm="1">
+      <c r="A93" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="8" t="b" cm="1">
         <f t="array" ref="B93:F93">ISO_8601.PARSE_PARTS(A93)</f>
-        <v/>
-      </c>
-      <c r="C93" s="8" t="str">
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="C93" s="8">
+        <v>6</v>
       </c>
       <c r="D93" s="8" t="str">
-        <v/>
+        <v>2023-W15-2</v>
       </c>
       <c r="E93" s="8" t="str">
-        <v/>
+        <v>T14:25</v>
       </c>
       <c r="F93" s="37" t="str">
         <v/>
@@ -5974,54 +6096,56 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="B94" s="11" t="b" cm="1">
         <f t="array" ref="B94:F94">ISO_8601.PARSE_PARTS(A94)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D94" s="11" t="str">
         <v/>
       </c>
       <c r="E94" s="11" t="str">
-        <v/>
+        <v>T12:35:12.000</v>
       </c>
       <c r="F94" s="38" t="str">
         <v/>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
-      <c r="B95" s="8" t="str" cm="1">
+      <c r="A95" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="8" t="b" cm="1">
         <f t="array" ref="B95:F95">ISO_8601.PARSE_PARTS(A95)</f>
-        <v/>
-      </c>
-      <c r="C95" s="8" t="str">
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="C95" s="8">
+        <v>3</v>
       </c>
       <c r="D95" s="8" t="str">
         <v/>
       </c>
       <c r="E95" s="8" t="str">
-        <v/>
+        <v>T123512.000</v>
       </c>
       <c r="F95" s="37" t="str">
-        <v/>
+        <v>+09</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="35" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B96" s="11" t="b" cm="1">
         <f t="array" ref="B96:F96">ISO_8601.PARSE_PARTS(A96)</f>
         <v>0</v>
       </c>
       <c r="C96" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" s="11" t="str">
         <v/>
@@ -6030,472 +6154,643 @@
         <v/>
       </c>
       <c r="F96" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="34" t="s">
-        <v>102</v>
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="B97" s="8" t="b" cm="1">
         <f t="array" ref="B97:F97">ISO_8601.PARSE_PARTS(A97)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" s="8" t="str">
-        <v>2023</v>
+        <v/>
       </c>
       <c r="E97" s="8" t="str">
-        <v/>
+        <v>T14:00</v>
       </c>
       <c r="F97" s="37" t="str">
-        <v>+09:30:22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="35" t="s">
-        <v>101</v>
+        <v>+930</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="B98" s="11" t="b" cm="1">
         <f t="array" ref="B98:F98">ISO_8601.PARSE_PARTS(A98)</f>
-        <v>0</v>
-      </c>
-      <c r="C98" s="11">
+        <v>1</v>
+      </c>
+      <c r="C98" s="4">
+        <v>7</v>
+      </c>
+      <c r="D98" s="4" t="str">
+        <v>2023-02-23</v>
+      </c>
+      <c r="E98" s="4" t="str">
+        <v>T1435</v>
+      </c>
+      <c r="F98" s="39" t="str">
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="24" t="b" cm="1">
+        <f t="array" ref="B99:F99">ISO_8601.PARSE_PARTS(A99)</f>
+        <v>0</v>
+      </c>
+      <c r="C99" s="24">
         <v>5</v>
       </c>
-      <c r="D98" s="11" t="str">
-        <v>99999-10</v>
-      </c>
-      <c r="E98" s="11" t="str">
-        <v/>
-      </c>
-      <c r="F98" s="38" t="str">
-        <v>+09:30:22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="32" t="s">
+      <c r="D99" s="24" t="str">
+        <v>2023-02-23</v>
+      </c>
+      <c r="E99" s="24" t="str">
+        <v/>
+      </c>
+      <c r="F99" s="42" t="str">
+        <v>+09</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100" s="45" t="b" cm="1">
+        <f t="array" ref="B100:F100">ISO_8601.PARSE_PARTS(A100)</f>
+        <v>0</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0</v>
+      </c>
+      <c r="D100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F100" s="39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="24" t="b" cm="1">
+        <f t="array" ref="B101:F101">ISO_8601.PARSE_PARTS(A101)</f>
+        <v>1</v>
+      </c>
+      <c r="C101" s="24">
+        <v>7</v>
+      </c>
+      <c r="D101" s="24" t="str">
+        <v>2023-02-23</v>
+      </c>
+      <c r="E101" s="24" t="str">
+        <v>T14:35</v>
+      </c>
+      <c r="F101" s="42" t="str">
+        <v>+15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="45" t="b" cm="1">
+        <f t="array" ref="B102:F102">ISO_8601.PARSE_PARTS(A102)</f>
+        <v>1</v>
+      </c>
+      <c r="C102" s="4">
+        <v>4</v>
+      </c>
+      <c r="D102" s="4" t="str">
+        <v>+99999</v>
+      </c>
+      <c r="E102" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F102" s="39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="24" t="b" cm="1">
+        <f t="array" ref="B103:F103">ISO_8601.PARSE_PARTS(A103)</f>
+        <v>0</v>
+      </c>
+      <c r="C103" s="24">
+        <v>2</v>
+      </c>
+      <c r="D103" s="24" t="str">
+        <v/>
+      </c>
+      <c r="E103" s="24" t="str">
+        <v>T14:35</v>
+      </c>
+      <c r="F103" s="42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" s="50"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="50"/>
+    </row>
+    <row r="108" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G108" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I108" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J108" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K108" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="L108" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M108" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="32"/>
+      <c r="B109" s="8" t="str" cm="1">
+        <f t="array" ref="B109:M109">ISO_8601.PARSE_ISO8601(A109)</f>
+        <v/>
+      </c>
+      <c r="C109" s="8" t="str">
+        <v/>
+      </c>
+      <c r="D109" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E109" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F109" s="8" t="str">
+        <v/>
+      </c>
+      <c r="G109" s="8" t="str">
+        <v/>
+      </c>
+      <c r="H109" s="8" t="str">
+        <v/>
+      </c>
+      <c r="I109" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J109" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K109" s="8" t="str">
+        <v/>
+      </c>
+      <c r="L109" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M109" s="37" t="str">
+        <v/>
+      </c>
+      <c r="P109" s="1"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="11" t="b" cm="1">
+        <f t="array" ref="B110:M110">ISO_8601.PARSE_ISO8601(A110)</f>
+        <v>0</v>
+      </c>
+      <c r="C110" s="11">
+        <v>0</v>
+      </c>
+      <c r="D110" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E110" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F110" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G110" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H110" s="11" t="str">
+        <v/>
+      </c>
+      <c r="I110" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J110" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K110" s="11" t="str">
+        <v/>
+      </c>
+      <c r="L110" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M110" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B111" s="8" t="b" cm="1">
+        <f t="array" ref="B111:M111">ISO_8601.PARSE_ISO8601(A111)</f>
+        <v>0</v>
+      </c>
+      <c r="C111" s="8">
+        <v>0</v>
+      </c>
+      <c r="D111" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E111" s="8" t="str">
+        <v/>
+      </c>
+      <c r="F111" s="8" t="str">
+        <v/>
+      </c>
+      <c r="G111" s="8" t="str">
+        <v/>
+      </c>
+      <c r="H111" s="8" t="str">
+        <v/>
+      </c>
+      <c r="I111" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J111" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K111" s="8" t="str">
+        <v/>
+      </c>
+      <c r="L111" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M111" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="11" t="b" cm="1">
+        <f t="array" ref="B112:M112">ISO_8601.PARSE_ISO8601(A112)</f>
+        <v>0</v>
+      </c>
+      <c r="C112" s="11">
+        <v>0</v>
+      </c>
+      <c r="D112" s="11" t="str">
+        <v/>
+      </c>
+      <c r="E112" s="11" t="str">
+        <v/>
+      </c>
+      <c r="F112" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G112" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H112" s="11" t="str">
+        <v/>
+      </c>
+      <c r="I112" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J112" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K112" s="11" t="str">
+        <v/>
+      </c>
+      <c r="L112" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M112" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" s="8" t="b" cm="1">
+        <f t="array" ref="B113:M113">ISO_8601.PARSE_ISO8601(A113)</f>
+        <v>0</v>
+      </c>
+      <c r="C113" s="8">
+        <v>5</v>
+      </c>
+      <c r="D113" s="8">
+        <v>1</v>
+      </c>
+      <c r="E113" s="8">
+        <v>2</v>
+      </c>
+      <c r="F113" s="8">
+        <v>1</v>
+      </c>
+      <c r="G113" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H113" s="8" t="str">
+        <v/>
+      </c>
+      <c r="I113" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J113" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K113" s="8" t="str">
+        <v/>
+      </c>
+      <c r="L113" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M113" s="37">
+        <v>570.36666666666667</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B114" s="11" t="b" cm="1">
+        <f t="array" ref="B114:M114">ISO_8601.PARSE_ISO8601(A114)</f>
+        <v>0</v>
+      </c>
+      <c r="C114" s="11">
+        <v>5</v>
+      </c>
+      <c r="D114" s="11">
+        <v>2</v>
+      </c>
+      <c r="E114" s="11">
+        <v>2</v>
+      </c>
+      <c r="F114" s="11">
+        <v>1</v>
+      </c>
+      <c r="G114" s="11">
+        <v>99999</v>
+      </c>
+      <c r="H114" s="11">
+        <v>10</v>
+      </c>
+      <c r="I114" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J114" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K114" s="11" t="str">
+        <v/>
+      </c>
+      <c r="L114" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M114" s="38">
+        <v>570.36666666666667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="8" t="b" cm="1">
-        <f t="array" ref="B99:F99">ISO_8601.PARSE_PARTS(A99)</f>
-        <v>1</v>
-      </c>
-      <c r="C99" s="8">
+      <c r="B115" s="8" t="b" cm="1">
+        <f t="array" ref="B115:M115">ISO_8601.PARSE_ISO8601(A115)</f>
+        <v>1</v>
+      </c>
+      <c r="C115" s="8">
         <v>7</v>
       </c>
-      <c r="D99" s="8" t="str">
-        <v>99999-W15-2</v>
-      </c>
-      <c r="E99" s="8" t="str">
-        <v>T14:25:21.123</v>
-      </c>
-      <c r="F99" s="37" t="str">
-        <v>+09:30:22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="33" t="s">
+      <c r="D115" s="8">
+        <v>9</v>
+      </c>
+      <c r="E115" s="8">
+        <v>2</v>
+      </c>
+      <c r="F115" s="8">
+        <v>3</v>
+      </c>
+      <c r="G115" s="8">
+        <v>99999</v>
+      </c>
+      <c r="H115" s="8">
+        <v>15</v>
+      </c>
+      <c r="I115" s="8">
+        <v>2</v>
+      </c>
+      <c r="J115" s="8">
+        <v>14</v>
+      </c>
+      <c r="K115" s="8">
+        <v>25</v>
+      </c>
+      <c r="L115" s="8">
+        <v>21.123000000000001</v>
+      </c>
+      <c r="M115" s="37">
+        <v>570.36666666666667</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="11" t="b" cm="1">
-        <f t="array" ref="B100:F100">ISO_8601.PARSE_PARTS(A100)</f>
-        <v>1</v>
-      </c>
-      <c r="C100" s="11">
+      <c r="B116" s="11" t="b" cm="1">
+        <f t="array" ref="B116:M116">ISO_8601.PARSE_ISO8601(A116)</f>
+        <v>1</v>
+      </c>
+      <c r="C116" s="11">
+        <v>3</v>
+      </c>
+      <c r="D116" s="11">
+        <v>5</v>
+      </c>
+      <c r="E116" s="11">
+        <v>2</v>
+      </c>
+      <c r="F116" s="11">
+        <v>0</v>
+      </c>
+      <c r="G116" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H116" s="11" t="str">
+        <v/>
+      </c>
+      <c r="I116" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J116" s="11">
+        <v>12</v>
+      </c>
+      <c r="K116" s="11">
+        <v>35</v>
+      </c>
+      <c r="L116" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M116" s="38">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B117" s="8" t="b" cm="1">
+        <f t="array" ref="B117:M117">ISO_8601.PARSE_ISO8601(A117)</f>
+        <v>1</v>
+      </c>
+      <c r="C117" s="8">
         <v>6</v>
       </c>
-      <c r="D100" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E100" s="11" t="str">
-        <v>T12:35</v>
-      </c>
-      <c r="F100" s="38" t="str">
-        <v>+09:30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101" s="8" t="b" cm="1">
-        <f t="array" ref="B101:F101">ISO_8601.PARSE_PARTS(A101)</f>
-        <v>1</v>
-      </c>
-      <c r="C101" s="8">
+      <c r="D117" s="8">
+        <v>5</v>
+      </c>
+      <c r="E117" s="8">
+        <v>2</v>
+      </c>
+      <c r="F117" s="8">
         <v>3</v>
       </c>
-      <c r="D101" s="8" t="str">
-        <v>2023-W15-2</v>
-      </c>
-      <c r="E101" s="8" t="str">
-        <v>T14:25</v>
-      </c>
-      <c r="F101" s="37" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="33" t="s">
+      <c r="G117" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H117" s="8">
+        <v>15</v>
+      </c>
+      <c r="I117" s="8">
+        <v>2</v>
+      </c>
+      <c r="J117" s="8">
+        <v>14</v>
+      </c>
+      <c r="K117" s="8">
+        <v>25</v>
+      </c>
+      <c r="L117" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M117" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="11" t="b" cm="1">
-        <f t="array" ref="B102:F102">ISO_8601.PARSE_PARTS(A102)</f>
-        <v>1</v>
-      </c>
-      <c r="C102" s="11">
+      <c r="B118" s="11" t="b" cm="1">
+        <f t="array" ref="B118:M118">ISO_8601.PARSE_ISO8601(A118)</f>
+        <v>1</v>
+      </c>
+      <c r="C118" s="11">
         <v>2</v>
       </c>
-      <c r="D102" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E102" s="11" t="str">
-        <v>T12:35:12.000</v>
-      </c>
-      <c r="F102" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
+      <c r="D118" s="11">
+        <v>9</v>
+      </c>
+      <c r="E118" s="11">
+        <v>2</v>
+      </c>
+      <c r="F118" s="11">
+        <v>0</v>
+      </c>
+      <c r="G118" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H118" s="11" t="str">
+        <v/>
+      </c>
+      <c r="I118" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J118" s="11">
+        <v>12</v>
+      </c>
+      <c r="K118" s="11">
+        <v>35</v>
+      </c>
+      <c r="L118" s="11">
+        <v>12</v>
+      </c>
+      <c r="M118" s="38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="8" t="b" cm="1">
-        <f t="array" ref="B103:F103">ISO_8601.PARSE_PARTS(A103)</f>
-        <v>1</v>
-      </c>
-      <c r="C103" s="8">
-        <v>6</v>
-      </c>
-      <c r="D103" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E103" s="8" t="str">
-        <v>T123512.000</v>
-      </c>
-      <c r="F103" s="37" t="str">
-        <v>+09</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B104" s="11" t="b" cm="1">
-        <f t="array" ref="B104:F104">ISO_8601.PARSE_PARTS(A104)</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="11">
-        <v>4</v>
-      </c>
-      <c r="D104" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E104" s="11" t="str">
-        <v/>
-      </c>
-      <c r="F104" s="38" t="str">
-        <v>Z</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="B105" s="8" t="b" cm="1">
-        <f t="array" ref="B105:F105">ISO_8601.PARSE_PARTS(A105)</f>
-        <v>0</v>
-      </c>
-      <c r="C105" s="8">
-        <v>4</v>
-      </c>
-      <c r="D105" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E105" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F105" s="37" t="str">
-        <v>Z</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" s="11" t="b" cm="1">
-        <f t="array" ref="B106:F106">ISO_8601.PARSE_PARTS(A106)</f>
-        <v>1</v>
-      </c>
-      <c r="C106" s="4">
+      <c r="B119" s="8" t="b" cm="1">
+        <f t="array" ref="B119:M119">ISO_8601.PARSE_ISO8601(A119)</f>
+        <v>1</v>
+      </c>
+      <c r="C119" s="8">
         <v>3</v>
       </c>
-      <c r="D106" s="4" t="str">
-        <v>2023-02-23</v>
-      </c>
-      <c r="E106" s="4" t="str">
-        <v>T1435</v>
-      </c>
-      <c r="F106" s="39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="24" t="b" cm="1">
-        <f t="array" ref="B107:F107">ISO_8601.PARSE_PARTS(A107)</f>
-        <v>0</v>
-      </c>
-      <c r="C107" s="24">
-        <v>5</v>
-      </c>
-      <c r="D107" s="24" t="str">
-        <v>2023-02-23</v>
-      </c>
-      <c r="E107" s="24" t="str">
-        <v/>
-      </c>
-      <c r="F107" s="42" t="str">
-        <v>+09</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B108" s="45" t="b" cm="1">
-        <f t="array" ref="B108:F108">ISO_8601.PARSE_PARTS(A108)</f>
-        <v>1</v>
-      </c>
-      <c r="C108" s="4">
-        <v>2</v>
-      </c>
-      <c r="D108" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E108" s="4" t="str">
-        <v>T</v>
-      </c>
-      <c r="F108" s="39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" s="24" t="b" cm="1">
-        <f t="array" ref="B109:F109">ISO_8601.PARSE_PARTS(A109)</f>
-        <v>1</v>
-      </c>
-      <c r="C109" s="24">
-        <v>7</v>
-      </c>
-      <c r="D109" s="24" t="str">
-        <v>2023-02-23</v>
-      </c>
-      <c r="E109" s="24" t="str">
-        <v>T14:35</v>
-      </c>
-      <c r="F109" s="42" t="str">
-        <v>+15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B110" s="45" t="b" cm="1">
-        <f t="array" ref="B110:F110">ISO_8601.PARSE_PARTS(A110)</f>
-        <v>1</v>
-      </c>
-      <c r="C110" s="4">
-        <v>1</v>
-      </c>
-      <c r="D110" s="4" t="str">
-        <v>+99999</v>
-      </c>
-      <c r="E110" s="4" t="str">
-        <v/>
-      </c>
-      <c r="F110" s="39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B111" s="24" t="b" cm="1">
-        <f t="array" ref="B111:F111">ISO_8601.PARSE_PARTS(A111)</f>
-        <v>1</v>
-      </c>
-      <c r="C111" s="24">
-        <v>1</v>
-      </c>
-      <c r="D111" s="24" t="str">
-        <v>+++</v>
-      </c>
-      <c r="E111" s="24" t="str">
-        <v/>
-      </c>
-      <c r="F111" s="42" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" s="48"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
-    </row>
-    <row r="116" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C116" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D116" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E116" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F116" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G116" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H116" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I116" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J116" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="K116" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="L116" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="M116" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="32"/>
-      <c r="B117" s="8" t="str" cm="1">
-        <f t="array" ref="B117:M117">ISO_8601.PARSE_DATE_TIME(A117)</f>
-        <v/>
-      </c>
-      <c r="C117" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D117" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E117" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F117" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G117" s="8" t="str">
-        <v/>
-      </c>
-      <c r="H117" s="8" t="str">
-        <v/>
-      </c>
-      <c r="I117" s="8" t="str">
-        <v/>
-      </c>
-      <c r="J117" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K117" s="8" t="str">
-        <v/>
-      </c>
-      <c r="L117" s="8" t="str">
-        <v/>
-      </c>
-      <c r="M117" s="37" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" s="11" t="b" cm="1">
-        <f t="array" ref="B118:M118">ISO_8601.PARSE_DATE_TIME(A118)</f>
-        <v>0</v>
-      </c>
-      <c r="C118" s="11">
-        <v>0</v>
-      </c>
-      <c r="D118" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E118" s="11" t="str">
-        <v/>
-      </c>
-      <c r="F118" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G118" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H118" s="11" t="str">
-        <v/>
-      </c>
-      <c r="I118" s="11" t="str">
-        <v/>
-      </c>
-      <c r="J118" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K118" s="11" t="str">
-        <v/>
-      </c>
-      <c r="L118" s="11" t="str">
-        <v/>
-      </c>
-      <c r="M118" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="34"/>
-      <c r="B119" s="8" t="str" cm="1">
-        <f t="array" ref="B119:M119">ISO_8601.PARSE_DATE_TIME(A119)</f>
-        <v/>
-      </c>
-      <c r="C119" s="8" t="str">
-        <v/>
-      </c>
-      <c r="D119" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E119" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F119" s="8" t="str">
-        <v/>
+      <c r="D119" s="8">
+        <v>9</v>
+      </c>
+      <c r="E119" s="8">
+        <v>1</v>
+      </c>
+      <c r="F119" s="8">
+        <v>0</v>
       </c>
       <c r="G119" s="8" t="str">
         <v/>
@@ -6506,38 +6801,38 @@
       <c r="I119" s="8" t="str">
         <v/>
       </c>
-      <c r="J119" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K119" s="8" t="str">
-        <v/>
-      </c>
-      <c r="L119" s="8" t="str">
-        <v/>
-      </c>
-      <c r="M119" s="37" t="str">
-        <v/>
+      <c r="J119" s="8">
+        <v>12</v>
+      </c>
+      <c r="K119" s="8">
+        <v>35</v>
+      </c>
+      <c r="L119" s="8">
+        <v>12</v>
+      </c>
+      <c r="M119" s="37">
+        <v>540</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="35" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B120" s="11" t="b" cm="1">
-        <f t="array" ref="B120:M120">ISO_8601.PARSE_DATE_TIME(A120)</f>
+        <f t="array" ref="B120:M120">ISO_8601.PARSE_ISO8601(A120)</f>
         <v>0</v>
       </c>
       <c r="C120" s="11">
-        <v>0</v>
-      </c>
-      <c r="D120" s="11" t="str">
-        <v/>
-      </c>
-      <c r="E120" s="11" t="str">
-        <v/>
-      </c>
-      <c r="F120" s="11" t="str">
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="D120" s="11">
+        <v>6</v>
+      </c>
+      <c r="E120" s="11">
+        <v>3</v>
+      </c>
+      <c r="F120" s="11">
+        <v>0</v>
       </c>
       <c r="G120" s="11" t="str">
         <v/>
@@ -6557,26 +6852,26 @@
       <c r="L120" s="11" t="str">
         <v/>
       </c>
-      <c r="M120" s="38" t="str">
-        <v/>
+      <c r="M120" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="34" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B121" s="8" t="b" cm="1">
-        <f t="array" ref="B121:M121">ISO_8601.PARSE_DATE_TIME(A121)</f>
-        <v>0</v>
+        <f t="array" ref="B121:M121">ISO_8601.PARSE_ISO8601(A121)</f>
+        <v>1</v>
       </c>
       <c r="C121" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D121" s="8">
         <v>1</v>
       </c>
       <c r="E121" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F121" s="8">
         <v>1</v>
@@ -6599,170 +6894,170 @@
       <c r="L121" s="8" t="str">
         <v/>
       </c>
-      <c r="M121" s="37">
-        <v>570.36666666666667</v>
+      <c r="M121" s="37" t="str">
+        <v/>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="35" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B122" s="11" t="b" cm="1">
-        <f t="array" ref="B122:M122">ISO_8601.PARSE_DATE_TIME(A122)</f>
+        <f t="array" ref="B122:M122">ISO_8601.PARSE_ISO8601(A122)</f>
         <v>0</v>
       </c>
       <c r="C122" s="11">
+        <v>6</v>
+      </c>
+      <c r="D122" s="11">
         <v>5</v>
       </c>
-      <c r="D122" s="11">
+      <c r="E122" s="11">
+        <v>0</v>
+      </c>
+      <c r="F122" s="11">
+        <v>1</v>
+      </c>
+      <c r="G122" s="11">
+        <v>2023</v>
+      </c>
+      <c r="H122" s="11">
         <v>2</v>
       </c>
-      <c r="E122" s="11">
-        <v>2</v>
-      </c>
-      <c r="F122" s="11">
-        <v>1</v>
-      </c>
-      <c r="G122" s="11">
-        <v>99999</v>
-      </c>
-      <c r="H122" s="11">
-        <v>10</v>
-      </c>
-      <c r="I122" s="11" t="str">
-        <v/>
-      </c>
-      <c r="J122" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K122" s="11" t="str">
-        <v/>
+      <c r="I122" s="11">
+        <v>23</v>
+      </c>
+      <c r="J122" s="11">
+        <v>14</v>
+      </c>
+      <c r="K122" s="11">
+        <v>35</v>
       </c>
       <c r="L122" s="11" t="str">
         <v/>
       </c>
-      <c r="M122" s="38">
-        <v>570.36666666666667</v>
+      <c r="M122" s="38" t="str">
+        <v/>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="34" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B123" s="8" t="b" cm="1">
-        <f t="array" ref="B123:M123">ISO_8601.PARSE_DATE_TIME(A123)</f>
+        <f t="array" ref="B123:M123">ISO_8601.PARSE_ISO8601(A123)</f>
         <v>1</v>
       </c>
       <c r="C123" s="8">
         <v>7</v>
       </c>
       <c r="D123" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E123" s="8">
         <v>2</v>
       </c>
       <c r="F123" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G123" s="8">
-        <v>99999</v>
+        <v>2023</v>
       </c>
       <c r="H123" s="8">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I123" s="8">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J123" s="8">
         <v>14</v>
       </c>
       <c r="K123" s="8">
-        <v>25</v>
-      </c>
-      <c r="L123" s="8">
-        <v>21.123000000000001</v>
+        <v>35</v>
+      </c>
+      <c r="L123" s="8" t="str">
+        <v/>
       </c>
       <c r="M123" s="37">
-        <v>570.36666666666667</v>
+        <v>900</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="35" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B124" s="11" t="b" cm="1">
-        <f t="array" ref="B124:M124">ISO_8601.PARSE_DATE_TIME(A124)</f>
-        <v>1</v>
+        <f t="array" ref="B124:M124">ISO_8601.PARSE_ISO8601(A124)</f>
+        <v>0</v>
       </c>
       <c r="C124" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D124" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E124" s="11">
         <v>2</v>
       </c>
-      <c r="F124" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G124" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H124" s="11" t="str">
-        <v/>
-      </c>
-      <c r="I124" s="11" t="str">
-        <v/>
-      </c>
-      <c r="J124" s="11">
-        <v>12</v>
-      </c>
-      <c r="K124" s="11">
-        <v>35</v>
+      <c r="F124" s="11">
+        <v>1</v>
+      </c>
+      <c r="G124" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H124" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I124" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J124" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K124" s="11" t="str">
+        <v/>
       </c>
       <c r="L124" s="11" t="str">
         <v/>
       </c>
       <c r="M124" s="38">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B125" s="8" t="b" cm="1">
-        <f t="array" ref="B125:M125">ISO_8601.PARSE_DATE_TIME(A125)</f>
-        <v>1</v>
+        <f t="array" ref="B125:M125">ISO_8601.PARSE_ISO8601(A125)</f>
+        <v>0</v>
       </c>
       <c r="C125" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D125" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E125" s="8">
         <v>2</v>
       </c>
       <c r="F125" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G125" s="8">
         <v>2023</v>
       </c>
       <c r="H125" s="8">
-        <v>15</v>
-      </c>
-      <c r="I125" s="8">
         <v>2</v>
+      </c>
+      <c r="I125" s="8" t="str">
+        <v/>
       </c>
       <c r="J125" s="8">
         <v>14</v>
       </c>
       <c r="K125" s="8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L125" s="8" t="str">
         <v/>
@@ -6773,41 +7068,41 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="35" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B126" s="11" t="b" cm="1">
-        <f t="array" ref="B126:M126">ISO_8601.PARSE_DATE_TIME(A126)</f>
-        <v>1</v>
+        <f t="array" ref="B126:M126">ISO_8601.PARSE_ISO8601(A126)</f>
+        <v>0</v>
       </c>
       <c r="C126" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D126" s="11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E126" s="11">
         <v>2</v>
       </c>
-      <c r="F126" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G126" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H126" s="11" t="str">
-        <v/>
+      <c r="F126" s="11">
+        <v>1</v>
+      </c>
+      <c r="G126" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H126" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="I126" s="11" t="str">
         <v/>
       </c>
-      <c r="J126" s="11">
-        <v>12</v>
-      </c>
-      <c r="K126" s="11">
-        <v>35</v>
-      </c>
-      <c r="L126" s="11">
-        <v>12</v>
+      <c r="J126" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K126" s="11" t="str">
+        <v/>
+      </c>
+      <c r="L126" s="11" t="str">
+        <v/>
       </c>
       <c r="M126" s="38" t="str">
         <v/>
@@ -6815,23 +7110,23 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="34" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B127" s="8" t="b" cm="1">
-        <f t="array" ref="B127:M127">ISO_8601.PARSE_DATE_TIME(A127)</f>
-        <v>1</v>
+        <f t="array" ref="B127:M127">ISO_8601.PARSE_ISO8601(A127)</f>
+        <v>0</v>
       </c>
       <c r="C127" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D127" s="8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E127" s="8">
         <v>1</v>
       </c>
-      <c r="F127" s="8" t="str">
-        <v/>
+      <c r="F127" s="8">
+        <v>0</v>
       </c>
       <c r="G127" s="8" t="str">
         <v/>
@@ -6842,77 +7137,77 @@
       <c r="I127" s="8" t="str">
         <v/>
       </c>
-      <c r="J127" s="8">
-        <v>12</v>
-      </c>
-      <c r="K127" s="8">
-        <v>35</v>
-      </c>
-      <c r="L127" s="8">
-        <v>12</v>
-      </c>
-      <c r="M127" s="37">
-        <v>540</v>
+      <c r="J127" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K127" s="8" t="str">
+        <v/>
+      </c>
+      <c r="L127" s="8" t="str">
+        <v/>
+      </c>
+      <c r="M127" s="37" t="str">
+        <v/>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="35" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B128" s="11" t="b" cm="1">
-        <f t="array" ref="B128:M128">ISO_8601.PARSE_DATE_TIME(A128)</f>
+        <f t="array" ref="B128:M128">ISO_8601.PARSE_ISO8601(A128)</f>
         <v>0</v>
       </c>
       <c r="C128" s="11">
         <v>4</v>
       </c>
       <c r="D128" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E128" s="11">
-        <v>3</v>
-      </c>
-      <c r="F128" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G128" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H128" s="11" t="str">
-        <v/>
-      </c>
-      <c r="I128" s="11" t="str">
-        <v/>
-      </c>
-      <c r="J128" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K128" s="11" t="str">
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="F128" s="11">
+        <v>1</v>
+      </c>
+      <c r="G128" s="11">
+        <v>2023</v>
+      </c>
+      <c r="H128" s="11">
+        <v>2</v>
+      </c>
+      <c r="I128" s="11">
+        <v>23</v>
+      </c>
+      <c r="J128" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K128" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="L128" s="11" t="str">
         <v/>
       </c>
-      <c r="M128" s="38">
-        <v>0</v>
+      <c r="M128" s="38" t="str">
+        <v/>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B129" s="8" t="b" cm="1">
-        <f t="array" ref="B129:M129">ISO_8601.PARSE_DATE_TIME(A129)</f>
+        <f t="array" ref="B129:M129">ISO_8601.PARSE_ISO8601(A129)</f>
         <v>1</v>
       </c>
       <c r="C129" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D129" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E129" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F129" s="8">
         <v>1</v>
@@ -6920,185 +7215,185 @@
       <c r="G129" s="8">
         <v>2023</v>
       </c>
-      <c r="H129" s="8" t="str">
-        <v/>
-      </c>
-      <c r="I129" s="8" t="str">
-        <v/>
-      </c>
-      <c r="J129" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K129" s="8" t="str">
-        <v/>
+      <c r="H129" s="8">
+        <v>2</v>
+      </c>
+      <c r="I129" s="8">
+        <v>23</v>
+      </c>
+      <c r="J129" s="8">
+        <v>14</v>
+      </c>
+      <c r="K129" s="8">
+        <v>55</v>
       </c>
       <c r="L129" s="8" t="str">
         <v/>
       </c>
-      <c r="M129" s="37" t="str">
-        <v/>
+      <c r="M129" s="37">
+        <v>900</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B130" s="11" t="b" cm="1">
-        <f t="array" ref="B130:M130">ISO_8601.PARSE_DATE_TIME(A130)</f>
-        <v>0</v>
-      </c>
-      <c r="C130" s="11">
-        <v>3</v>
-      </c>
-      <c r="D130" s="11">
+      <c r="A130" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B130" s="14" t="b" cm="1">
+        <f t="array" ref="B130:M130">ISO_8601.PARSE_ISO8601(A130)</f>
+        <v>0</v>
+      </c>
+      <c r="C130" s="14">
+        <v>6</v>
+      </c>
+      <c r="D130" s="14">
         <v>5</v>
       </c>
-      <c r="E130" s="11">
-        <v>0</v>
-      </c>
-      <c r="F130" s="11">
-        <v>1</v>
-      </c>
-      <c r="G130" s="11">
-        <v>2023</v>
-      </c>
-      <c r="H130" s="11">
+      <c r="E130" s="14">
         <v>2</v>
       </c>
-      <c r="I130" s="11">
+      <c r="F130" s="14">
+        <v>1</v>
+      </c>
+      <c r="G130" s="14">
+        <v>2023</v>
+      </c>
+      <c r="H130" s="14">
+        <v>2</v>
+      </c>
+      <c r="I130" s="14">
         <v>23</v>
       </c>
-      <c r="J130" s="11">
+      <c r="J130" s="14">
         <v>14</v>
       </c>
-      <c r="K130" s="11">
-        <v>35</v>
-      </c>
-      <c r="L130" s="11" t="str">
-        <v/>
-      </c>
-      <c r="M130" s="38" t="str">
-        <v/>
+      <c r="K130" s="14">
+        <v>55</v>
+      </c>
+      <c r="L130" s="14" t="str">
+        <v/>
+      </c>
+      <c r="M130" s="47" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="34" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B131" s="8" t="b" cm="1">
-        <f t="array" ref="B131:M131">ISO_8601.PARSE_DATE_TIME(A131)</f>
+        <f t="array" ref="B131:M131">ISO_8601.PARSE_ISO8601(A131)</f>
         <v>1</v>
       </c>
       <c r="C131" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D131" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E131" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F131" s="8">
         <v>1</v>
       </c>
       <c r="G131" s="8">
-        <v>2023</v>
-      </c>
-      <c r="H131" s="8">
-        <v>2</v>
-      </c>
-      <c r="I131" s="8">
-        <v>23</v>
-      </c>
-      <c r="J131" s="8">
-        <v>14</v>
-      </c>
-      <c r="K131" s="8">
-        <v>35</v>
+        <v>99999</v>
+      </c>
+      <c r="H131" s="8" t="str">
+        <v/>
+      </c>
+      <c r="I131" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J131" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K131" s="8" t="str">
+        <v/>
       </c>
       <c r="L131" s="8" t="str">
         <v/>
       </c>
-      <c r="M131" s="37">
-        <v>900</v>
+      <c r="M131" s="37" t="str">
+        <v/>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B132" s="11" t="b" cm="1">
-        <f t="array" ref="B132:M132">ISO_8601.PARSE_DATE_TIME(A132)</f>
-        <v>0</v>
-      </c>
-      <c r="C132" s="11">
-        <v>5</v>
-      </c>
-      <c r="D132" s="11">
-        <v>4</v>
-      </c>
-      <c r="E132" s="11">
-        <v>2</v>
-      </c>
-      <c r="F132" s="11">
-        <v>1</v>
-      </c>
-      <c r="G132" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H132" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I132" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J132" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K132" s="11" t="str">
-        <v/>
-      </c>
-      <c r="L132" s="11" t="str">
-        <v/>
-      </c>
-      <c r="M132" s="38">
-        <v>540</v>
+      <c r="A132" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" s="14" t="b" cm="1">
+        <f t="array" ref="B132:M132">ISO_8601.PARSE_ISO8601(A132)</f>
+        <v>0</v>
+      </c>
+      <c r="C132" s="14">
+        <v>6</v>
+      </c>
+      <c r="D132" s="14">
+        <v>1</v>
+      </c>
+      <c r="E132" s="14">
+        <v>1</v>
+      </c>
+      <c r="F132" s="14">
+        <v>1</v>
+      </c>
+      <c r="G132" s="14">
+        <v>99999</v>
+      </c>
+      <c r="H132" s="14" t="str">
+        <v/>
+      </c>
+      <c r="I132" s="14" t="str">
+        <v/>
+      </c>
+      <c r="J132" s="14">
+        <v>9</v>
+      </c>
+      <c r="K132" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L132" s="14" t="str">
+        <v/>
+      </c>
+      <c r="M132" s="47" t="str">
+        <v/>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="34" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="B133" s="8" t="b" cm="1">
-        <f t="array" ref="B133:M133">ISO_8601.PARSE_DATE_TIME(A133)</f>
+        <f t="array" ref="B133:M133">ISO_8601.PARSE_ISO8601(A133)</f>
         <v>0</v>
       </c>
       <c r="C133" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D133" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E133" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F133" s="8">
-        <v>1</v>
-      </c>
-      <c r="G133" s="8">
-        <v>2023</v>
-      </c>
-      <c r="H133" s="8">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G133" s="8" t="str">
+        <v/>
+      </c>
+      <c r="H133" s="8" t="str">
+        <v/>
       </c>
       <c r="I133" s="8" t="str">
         <v/>
       </c>
-      <c r="J133" s="8">
-        <v>14</v>
-      </c>
-      <c r="K133" s="8">
-        <v>35</v>
+      <c r="J133" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K133" s="8" t="str">
+        <v/>
       </c>
       <c r="L133" s="8" t="str">
         <v/>
@@ -7108,391 +7403,55 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B134" s="11" t="b" cm="1">
-        <f t="array" ref="B134:M134">ISO_8601.PARSE_DATE_TIME(A134)</f>
-        <v>0</v>
-      </c>
-      <c r="C134" s="11">
-        <v>1</v>
-      </c>
-      <c r="D134" s="11">
-        <v>0</v>
-      </c>
-      <c r="E134" s="11">
-        <v>2</v>
-      </c>
-      <c r="F134" s="11">
-        <v>1</v>
-      </c>
-      <c r="G134" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H134" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I134" s="11" t="str">
-        <v/>
-      </c>
-      <c r="J134" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K134" s="11" t="str">
-        <v/>
-      </c>
-      <c r="L134" s="11" t="str">
-        <v/>
-      </c>
-      <c r="M134" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B135" s="8" t="b" cm="1">
-        <f t="array" ref="B135:M135">ISO_8601.PARSE_DATE_TIME(A135)</f>
-        <v>0</v>
-      </c>
-      <c r="C135" s="8">
-        <v>0</v>
-      </c>
-      <c r="D135" s="8" t="str">
-        <v/>
-      </c>
-      <c r="E135" s="8" t="str">
-        <v/>
-      </c>
-      <c r="F135" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G135" s="8" t="str">
-        <v/>
-      </c>
-      <c r="H135" s="8" t="str">
-        <v/>
-      </c>
-      <c r="I135" s="8" t="str">
-        <v/>
-      </c>
-      <c r="J135" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K135" s="8" t="str">
-        <v/>
-      </c>
-      <c r="L135" s="8" t="str">
-        <v/>
-      </c>
-      <c r="M135" s="37" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B136" s="11" t="b" cm="1">
-        <f t="array" ref="B136:M136">ISO_8601.PARSE_DATE_TIME(A136)</f>
-        <v>0</v>
-      </c>
-      <c r="C136" s="11">
-        <v>3</v>
-      </c>
-      <c r="D136" s="11">
-        <v>3</v>
-      </c>
-      <c r="E136" s="11">
-        <v>2</v>
-      </c>
-      <c r="F136" s="11">
-        <v>1</v>
-      </c>
-      <c r="G136" s="11">
-        <v>2023</v>
-      </c>
-      <c r="H136" s="11">
-        <v>2</v>
-      </c>
-      <c r="I136" s="11">
-        <v>23</v>
-      </c>
-      <c r="J136" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K136" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L136" s="11" t="str">
-        <v/>
-      </c>
-      <c r="M136" s="38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="B137" s="8" t="b" cm="1">
-        <f t="array" ref="B137:M137">ISO_8601.PARSE_DATE_TIME(A137)</f>
-        <v>1</v>
-      </c>
-      <c r="C137" s="8">
-        <v>7</v>
-      </c>
-      <c r="D137" s="8">
-        <v>5</v>
-      </c>
-      <c r="E137" s="8">
-        <v>2</v>
-      </c>
-      <c r="F137" s="8">
-        <v>1</v>
-      </c>
-      <c r="G137" s="8">
-        <v>2023</v>
-      </c>
-      <c r="H137" s="8">
-        <v>2</v>
-      </c>
-      <c r="I137" s="8">
-        <v>23</v>
-      </c>
-      <c r="J137" s="8">
-        <v>14</v>
-      </c>
-      <c r="K137" s="8">
-        <v>55</v>
-      </c>
-      <c r="L137" s="8" t="str">
-        <v/>
-      </c>
-      <c r="M137" s="37">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="B138" s="14" t="b" cm="1">
-        <f t="array" ref="B138:M138">ISO_8601.PARSE_DATE_TIME(A138)</f>
-        <v>0</v>
-      </c>
-      <c r="C138" s="14">
-        <v>7</v>
-      </c>
-      <c r="D138" s="14">
-        <v>5</v>
-      </c>
-      <c r="E138" s="14">
-        <v>2</v>
-      </c>
-      <c r="F138" s="14">
-        <v>1</v>
-      </c>
-      <c r="G138" s="14">
-        <v>2023</v>
-      </c>
-      <c r="H138" s="14">
-        <v>2</v>
-      </c>
-      <c r="I138" s="14">
-        <v>23</v>
-      </c>
-      <c r="J138" s="14">
-        <v>14</v>
-      </c>
-      <c r="K138" s="14">
-        <v>55</v>
-      </c>
-      <c r="L138" s="14" t="str">
-        <v/>
-      </c>
-      <c r="M138" s="47" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B139" s="8" t="b" cm="1">
-        <f t="array" ref="B139:M139">ISO_8601.PARSE_DATE_TIME(A139)</f>
-        <v>1</v>
-      </c>
-      <c r="C139" s="8">
-        <v>1</v>
-      </c>
-      <c r="D139" s="8">
-        <v>1</v>
-      </c>
-      <c r="E139" s="8">
-        <v>3</v>
-      </c>
-      <c r="F139" s="8">
-        <v>1</v>
-      </c>
-      <c r="G139" s="8">
-        <v>99999</v>
-      </c>
-      <c r="H139" s="8" t="str">
-        <v/>
-      </c>
-      <c r="I139" s="8" t="str">
-        <v/>
-      </c>
-      <c r="J139" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K139" s="8" t="str">
-        <v/>
-      </c>
-      <c r="L139" s="8" t="str">
-        <v/>
-      </c>
-      <c r="M139" s="37" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B140" s="14" t="b" cm="1">
-        <f t="array" ref="B140:M140">ISO_8601.PARSE_DATE_TIME(A140)</f>
-        <v>0</v>
-      </c>
-      <c r="C140" s="14">
-        <v>3</v>
-      </c>
-      <c r="D140" s="14">
-        <v>1</v>
-      </c>
-      <c r="E140" s="14">
-        <v>1</v>
-      </c>
-      <c r="F140" s="14">
-        <v>1</v>
-      </c>
-      <c r="G140" s="14">
-        <v>99999</v>
-      </c>
-      <c r="H140" s="14" t="str">
-        <v/>
-      </c>
-      <c r="I140" s="14" t="str">
-        <v/>
-      </c>
-      <c r="J140" s="14">
-        <v>9</v>
-      </c>
-      <c r="K140" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L140" s="14" t="str">
-        <v/>
-      </c>
-      <c r="M140" s="47" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" s="8" t="b" cm="1">
-        <f t="array" ref="B141:M141">ISO_8601.PARSE_DATE_TIME(A141)</f>
-        <v>0</v>
-      </c>
-      <c r="C141" s="8">
-        <v>1</v>
-      </c>
-      <c r="D141" s="8">
-        <v>0</v>
-      </c>
-      <c r="E141" s="8">
-        <v>1</v>
-      </c>
-      <c r="F141" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G141" s="8" t="str">
-        <v/>
-      </c>
-      <c r="H141" s="8" t="str">
-        <v/>
-      </c>
-      <c r="I141" s="8" t="str">
-        <v/>
-      </c>
-      <c r="J141" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K141" s="8" t="str">
-        <v/>
-      </c>
-      <c r="L141" s="8" t="str">
-        <v/>
-      </c>
-      <c r="M141" s="37" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142" s="14" t="b" cm="1">
-        <f t="array" ref="B142:M142">ISO_8601.PARSE_DATE_TIME(A142)</f>
-        <v>0</v>
-      </c>
-      <c r="C142" s="14">
-        <v>1</v>
-      </c>
-      <c r="D142" s="14">
-        <v>0</v>
-      </c>
-      <c r="E142" s="14">
-        <v>1</v>
-      </c>
-      <c r="F142" s="14" t="str">
-        <v/>
-      </c>
-      <c r="G142" s="14" t="str">
-        <v/>
-      </c>
-      <c r="H142" s="14" t="str">
-        <v/>
-      </c>
-      <c r="I142" s="14" t="str">
-        <v/>
-      </c>
-      <c r="J142" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K142" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L142" s="14" t="str">
-        <v/>
-      </c>
-      <c r="M142" s="47" t="str">
+      <c r="A134" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" s="14" t="b" cm="1">
+        <f t="array" ref="B134:M134">ISO_8601.PARSE_ISO8601(A134)</f>
+        <v>0</v>
+      </c>
+      <c r="C134" s="14">
+        <v>0</v>
+      </c>
+      <c r="D134" s="14">
+        <v>0</v>
+      </c>
+      <c r="E134" s="14">
+        <v>1</v>
+      </c>
+      <c r="F134" s="14">
+        <v>0</v>
+      </c>
+      <c r="G134" s="14" t="str">
+        <v/>
+      </c>
+      <c r="H134" s="14" t="str">
+        <v/>
+      </c>
+      <c r="I134" s="14" t="str">
+        <v/>
+      </c>
+      <c r="J134" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K134" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L134" s="14" t="str">
+        <v/>
+      </c>
+      <c r="M134" s="47" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A106:D106"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A84:D84"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7502,8 +7461,1183 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA07EFA6-CBC4-406A-9EC3-A2F16F1825C8}">
+  <dimension ref="A1:V33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="29.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="I1" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="Q1" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="U3" s="49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="37" t="str" cm="1">
+        <f t="array" ref="F4">ISO_8601.FORMAT_DATE(A4,B4,C4,D4,E4)</f>
+        <v/>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="37" t="str" cm="1">
+        <f t="array" ref="N4">ISO_8601.FORMAT_TIME(I4,J4,K4,L4,M4)</f>
+        <v/>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="37" t="str" cm="1">
+        <f t="array" ref="U4">ISO_8601.FORMAT_TIME_ZONE(Q4,R4,S4,T4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="38" t="str" cm="1">
+        <f t="array" ref="F5">ISO_8601.FORMAT_DATE(A5,B5,C5,D5,E5)</f>
+        <v>20230502</v>
+      </c>
+      <c r="I5" s="10">
+        <v>3</v>
+      </c>
+      <c r="J5" s="11">
+        <v>45</v>
+      </c>
+      <c r="K5" s="11">
+        <v>22</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="38" t="str" cm="1">
+        <f t="array" ref="N5">ISO_8601.FORMAT_TIME(I5,J5,K5,L5,M5)</f>
+        <v>T034522</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>-570</v>
+      </c>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="38" t="str" cm="1">
+        <f t="array" ref="U5">ISO_8601.FORMAT_TIME_ZONE(Q5,R5,S5,T5)</f>
+        <v>−09:30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="37" t="str" cm="1">
+        <f t="array" ref="F6">ISO_8601.FORMAT_DATE(A6,B6,C6,D6,E6)</f>
+        <v>+2023-05-02</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
+      <c r="J6" s="8">
+        <v>15</v>
+      </c>
+      <c r="K6" s="8">
+        <v>55</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8">
+        <v>4</v>
+      </c>
+      <c r="N6" s="37" t="str" cm="1">
+        <f t="array" ref="N6">ISO_8601.FORMAT_TIME(I6,J6,K6,L6,M6)</f>
+        <v>T03:15:55.000</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="37" t="str" cm="1">
+        <f t="array" ref="U6">ISO_8601.FORMAT_TIME_ZONE(Q6,R6,S6,T6)</f>
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="38" t="str" cm="1">
+        <f t="array" ref="F7">ISO_8601.FORMAT_DATE(A7,B7,C7,D7,E7)</f>
+        <v>2023-05</v>
+      </c>
+      <c r="I7" s="10">
+        <v>4</v>
+      </c>
+      <c r="J7" s="11">
+        <v>59</v>
+      </c>
+      <c r="K7" s="11">
+        <v>59</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11">
+        <v>2</v>
+      </c>
+      <c r="N7" s="38" t="str" cm="1">
+        <f t="array" ref="N7">ISO_8601.FORMAT_TIME(I7,J7,K7,L7,M7)</f>
+        <v>T04:59</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11">
+        <v>1</v>
+      </c>
+      <c r="U7" s="38" t="str" cm="1">
+        <f t="array" ref="U7">ISO_8601.FORMAT_TIME_ZONE(Q7,R7,S7,T7)</f>
+        <v>+00:00</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="37" t="e" cm="1">
+        <f t="array" ref="F8">ISO_8601.FORMAT_DATE(A8,B8,C8,D8,E8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4</v>
+      </c>
+      <c r="J8" s="8">
+        <v>30</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="37" t="str" cm="1">
+        <f t="array" ref="N8">ISO_8601.FORMAT_TIME(I8,J8,K8,L8,M8)</f>
+        <v>T04:30</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>45.332999999999998</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8">
+        <v>2</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="37" t="str" cm="1">
+        <f t="array" ref="U8">ISO_8601.FORMAT_TIME_ZONE(Q8,R8,S8,T8)</f>
+        <v>+00:45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>12000</v>
+      </c>
+      <c r="B9" s="14">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="47" t="str" cm="1">
+        <f t="array" ref="F9">ISO_8601.FORMAT_DATE(A9,B9,C9,D9,E9)</f>
+        <v>+12000-05-02</v>
+      </c>
+      <c r="I9" s="13">
+        <v>4</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="47" t="str" cm="1">
+        <f t="array" ref="N9">ISO_8601.FORMAT_TIME(I9,J9,K9,L9,M9)</f>
+        <v>T04</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>300</v>
+      </c>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14">
+        <v>4</v>
+      </c>
+      <c r="T9" s="14"/>
+      <c r="U9" s="47" t="str" cm="1">
+        <f t="array" ref="U9">ISO_8601.FORMAT_TIME_ZONE(Q9,R9,S9,T9)</f>
+        <v>+05:00:00</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>-500</v>
+      </c>
+      <c r="B10" s="19">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="52" t="str" cm="1">
+        <f t="array" ref="F10">ISO_8601.FORMAT_DATE(A10,B10,C10,D10,E10)</f>
+        <v>−0500-05-02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="47" t="e" cm="1">
+        <f t="array" ref="F11">ISO_8601.FORMAT_DATE(A11,B11,C11,D11,E11)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="I14" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="37" t="str" cm="1">
+        <f t="array" ref="E17">ISO_8601.FORMAT_ORDINAL_DATE(A17,B17,C17,D17)</f>
+        <v/>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="37" t="str" cm="1">
+        <f t="array" ref="N17">ISO_8601.FORMAT_WEEK_DATE(I17,J17,K17,L17,M17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="11">
+        <v>356</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="38" t="str" cm="1">
+        <f t="array" ref="E18">ISO_8601.FORMAT_ORDINAL_DATE(A18,B18,C18,D18)</f>
+        <v>2023-356</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2023</v>
+      </c>
+      <c r="J18" s="11">
+        <v>10</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1</v>
+      </c>
+      <c r="M18" s="11">
+        <v>1</v>
+      </c>
+      <c r="N18" s="38" t="str" cm="1">
+        <f t="array" ref="N18">ISO_8601.FORMAT_WEEK_DATE(I18,J18,K18,L18,M18)</f>
+        <v>+2023W101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="37" t="str" cm="1">
+        <f t="array" ref="E19">ISO_8601.FORMAT_ORDINAL_DATE(A19,B19,C19,D19)</f>
+        <v>+2023005</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2020</v>
+      </c>
+      <c r="J19" s="8">
+        <v>53</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="37" t="str" cm="1">
+        <f t="array" ref="N19">ISO_8601.FORMAT_WEEK_DATE(I19,J19,K19,L19,M19)</f>
+        <v>2020-W53-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="14">
+        <v>356</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="47" t="str" cm="1">
+        <f t="array" ref="E20">ISO_8601.FORMAT_ORDINAL_DATE(A20,B20,C20,D20)</f>
+        <v>2023356</v>
+      </c>
+      <c r="I20" s="13">
+        <v>2023</v>
+      </c>
+      <c r="J20" s="14">
+        <v>34</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="47" t="str" cm="1">
+        <f t="array" ref="N20">ISO_8601.FORMAT_WEEK_DATE(I20,J20,K20,L20,M20)</f>
+        <v>2023-W34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>12000</v>
+      </c>
+      <c r="B21" s="8">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="37" t="e" cm="1">
+        <f t="array" ref="E21">ISO_8601.FORMAT_ORDINAL_DATE(A21,B21,C21,D21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" s="7">
+        <v>12000</v>
+      </c>
+      <c r="J21" s="8">
+        <v>5</v>
+      </c>
+      <c r="K21" s="8">
+        <v>5</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="37" t="str" cm="1">
+        <f t="array" ref="N21">ISO_8601.FORMAT_WEEK_DATE(I21,J21,K21,L21,M21)</f>
+        <v>+12000-W05-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>-500</v>
+      </c>
+      <c r="B22" s="14">
+        <v>24</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="47" t="str" cm="1">
+        <f t="array" ref="E22">ISO_8601.FORMAT_ORDINAL_DATE(A22,B22,C22,D22)</f>
+        <v>−0500-024</v>
+      </c>
+      <c r="I22" s="13">
+        <v>-500</v>
+      </c>
+      <c r="J22" s="14">
+        <v>12</v>
+      </c>
+      <c r="K22" s="14">
+        <v>3</v>
+      </c>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="47" t="str" cm="1">
+        <f t="array" ref="N22">ISO_8601.FORMAT_WEEK_DATE(I22,J22,K22,L22,M22)</f>
+        <v>−0500-W12-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="N27" s="49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="8">
+        <v>12</v>
+      </c>
+      <c r="D28" s="8">
+        <v>25</v>
+      </c>
+      <c r="E28" s="8">
+        <v>14</v>
+      </c>
+      <c r="F28" s="8">
+        <v>32</v>
+      </c>
+      <c r="G28" s="8">
+        <v>23.456</v>
+      </c>
+      <c r="H28" s="8">
+        <v>570</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8">
+        <v>1</v>
+      </c>
+      <c r="K28" s="8">
+        <v>7</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="37" t="str" cm="1">
+        <f t="array" ref="N28">ISO_8601.FORMAT_ISO8601(A28,B28,C28,D28,E28,F28,G28,H28,I28,J28,K28,L28,M28)</f>
+        <v>+20231225T143223.456+0930</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>1</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C29" s="11">
+        <v>5</v>
+      </c>
+      <c r="D29" s="11">
+        <v>12</v>
+      </c>
+      <c r="E29" s="11">
+        <v>14</v>
+      </c>
+      <c r="F29" s="11">
+        <v>30</v>
+      </c>
+      <c r="G29" s="11">
+        <v>22</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11">
+        <v>1</v>
+      </c>
+      <c r="K29" s="11">
+        <v>5</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11">
+        <v>1</v>
+      </c>
+      <c r="N29" s="38" t="str" cm="1">
+        <f t="array" ref="N29">ISO_8601.FORMAT_ISO8601(A29,B29,C29,D29,E29,F29,G29,H29,I29,J29,K29,L29,M29)</f>
+        <v>+2023-05-12T14:30+00:00</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>0</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8">
+        <v>3</v>
+      </c>
+      <c r="F30" s="8">
+        <v>45</v>
+      </c>
+      <c r="G30" s="8">
+        <v>23</v>
+      </c>
+      <c r="H30" s="8">
+        <v>570</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="37" t="str" cm="1">
+        <f t="array" ref="N30">ISO_8601.FORMAT_ISO8601(A30,B30,C30,D30,E30,F30,G30,H30,I30,J30,K30,L30,M30)</f>
+        <v>T03:45:23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>2</v>
+      </c>
+      <c r="B31" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14">
+        <v>354</v>
+      </c>
+      <c r="E31" s="14">
+        <v>24</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <v>30</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14">
+        <v>5</v>
+      </c>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="47" t="str" cm="1">
+        <f t="array" ref="N31">ISO_8601.FORMAT_ISO8601(A31,B31,C31,D31,E31,F31,G31,H31,I31,J31,K31,L31,M31)</f>
+        <v>+2023-354T24:00+00:30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>3</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="8">
+        <v>34</v>
+      </c>
+      <c r="D32" s="8">
+        <v>3</v>
+      </c>
+      <c r="E32" s="8">
+        <v>15</v>
+      </c>
+      <c r="F32" s="8">
+        <v>12</v>
+      </c>
+      <c r="G32" s="8">
+        <v>12.456</v>
+      </c>
+      <c r="H32" s="8">
+        <v>570</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="37" t="str" cm="1">
+        <f t="array" ref="N32">ISO_8601.FORMAT_ISO8601(A32,B32,C32,D32,E32,F32,G32,H32,I32,J32,K32,L32,M32)</f>
+        <v>+2023-W34-3T15:12:12.456+09:30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>1</v>
+      </c>
+      <c r="B33" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="14">
+        <v>12</v>
+      </c>
+      <c r="D33" s="14">
+        <v>4</v>
+      </c>
+      <c r="E33" s="14">
+        <v>2</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="47" t="str" cm="1">
+        <f t="array" ref="N33">ISO_8601.FORMAT_ISO8601(A33,B33,C33,D33,E33,F33,G33,H33,I33,J33,K33,L33,M33)</f>
+        <v>2023-12-04T02</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="Q1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052D9A64-AEFD-4F90-BDF6-19F88196B125}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="54" t="str" cm="1">
+        <f t="array" ref="C4:D4">ISO_8601.CONVERT_TO_DATE(A4,B4)</f>
+        <v/>
+      </c>
+      <c r="D4" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="53" cm="1">
+        <f t="array" ref="C5:D5">ISO_8601.CONVERT_TO_DATE(A5,B5)</f>
+        <v>45058.604166666664</v>
+      </c>
+      <c r="D5" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="54" t="e" cm="1">
+        <f t="array" ref="C6:D6">ISO_8601.CONVERT_TO_DATE(A6,B6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" s="37" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="53" cm="1">
+        <f t="array" ref="C7:D7">ISO_8601.CONVERT_TO_DATE(A7,B7)</f>
+        <v>0.52444444444444438</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="54" cm="1">
+        <f t="array" ref="C8:D8">ISO_8601.CONVERT_TO_DATE(A8,B8)</f>
+        <v>44980.607638888891</v>
+      </c>
+      <c r="D8" s="37">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="55" cm="1">
+        <f t="array" ref="C9:D9">ISO_8601.CONVERT_TO_DATE(A9,B9)</f>
+        <v>44938.607708333337</v>
+      </c>
+      <c r="D9" s="47">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="56" cm="1">
+        <f t="array" ref="C10:D10">ISO_8601.CONVERT_TO_DATE(A10,B10)</f>
+        <v>45275.274305555555</v>
+      </c>
+      <c r="D10" s="52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="55" t="e" cm="1">
+        <f t="array" ref="C11:D11">ISO_8601.CONVERT_TO_DATE(A11,B11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="47" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="57">
+        <v>45071</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="37" t="str" cm="1">
+        <f t="array" ref="H17">ISO_8601.CONVERT_FROM_DATE(A17,B17,C17,D17,E17,F17,G17)</f>
+        <v>2023-05-25T00:00:00</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="58">
+        <v>45141.608303900466</v>
+      </c>
+      <c r="B18" s="60">
+        <v>570</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60">
+        <v>1</v>
+      </c>
+      <c r="E18" s="60">
+        <v>7</v>
+      </c>
+      <c r="F18" s="60">
+        <v>1</v>
+      </c>
+      <c r="G18" s="60"/>
+      <c r="H18" s="38" t="str" cm="1">
+        <f t="array" ref="H18">ISO_8601.CONVERT_FROM_DATE(A18,B18,C18,D18,E18,F18,G18)</f>
+        <v>+2023-08-03T14:35:57.457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
+        <v>36892</v>
+      </c>
+      <c r="B19" s="59">
+        <v>0</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59">
+        <v>1</v>
+      </c>
+      <c r="E19" s="59">
+        <v>4</v>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59">
+        <v>1</v>
+      </c>
+      <c r="H19" s="37" t="str" cm="1">
+        <f t="array" ref="H19">ISO_8601.CONVERT_FROM_DATE(A19,B19,C19,D19,E19,F19,G19)</f>
+        <v>+2001-01-01T00+00:00</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="62">
+        <v>36892</v>
+      </c>
+      <c r="B20" s="61">
+        <v>0</v>
+      </c>
+      <c r="C20" s="61">
+        <v>1</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="47" t="str" cm="1">
+        <f t="array" ref="H20">ISO_8601.CONVERT_FROM_DATE(A20,B20,C20,D20,E20,F20,G20)</f>
+        <v>20010101T000000Z</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:H14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9ACwAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBJAFMATwBfADgANgAwADEAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjAFwAbgAjACAASQBTAE8AXwA4ADYAMAAxACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjACAAIAAgAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAVABoAGUAIABJAFMATwAgADgANgAwADEAIABzAHQAYQBuAGQAYQByAGQAIABkAGUAZgBpAG4AZQBzACAAYQAgAHUAbgBpAHYAZQByAHMAYQBsACAAbgBvAHQAYQB0AGkAbwBuACAAbwBmACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQBzAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAARABhAHQAZQBzACAAYQByAGUAIABpAG4AIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByACAAYQBuAGQAIAB0AGkAbQBlAHMAIABhAHIAZQAgAGIAYQBzAGUAZAAgAG8AbgAgAHQAaABlACAAMgA0ACAAaABvAHUAcgAgAHQAaQBtAGUAawBlAGUAcABpAG4AZwAgAHMAeQBzAHQAZQBtACAAdwBpAHQAaAAgAGEAbgAgACAAIAAgACAAIAAjAFwAbgAjACAAbwBwAHQAaQBvAG4AYQBsACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGYAcgBvAG0AIABVAFQAQwAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAATQBvAGQAdQBsAGUAIABEAGUAcABlAG4AZABlAG4AYwBpAGUAcwA6ACAATgBvAG4AZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAATABvAGcAaQBjAGEAbAAgAEYAdQBuAGMAdABpAG8AbgBzACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AIAAjAFwAbgAjACAASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAcwB0AHMAIABpAGYAIABhACAAeQBlAGEAcgAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAASQBTAE8AIAA4ADYAMAAxAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjACAAXABuACMAIABJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQBzAHQAcwAgAGkAZgAgAGEAIAB5AGUAYQByACAAaQBuAGMAbAB1AGQAZQBzACAAYQAgAGwAZQBhAHAAIABkAGEAeQAgAGkAbgAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQBzAHQAcwAgAGkAZgAgAGEAIABkAGEAdABlACAAaQBzACAAdgBhAGwAaQBkACAAZgBvAHIAIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAIABcAG4AIwAgAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHMAdABzACAAaQBmACAAYQAgAHQAaQBtAGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAAMgA0ACAAaABvAHUAcgAgAHQAaQBtAGUAawBlAGUAcABpAG4AZwAgAHMAeQBzAHQAZQBtAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwAgAFwAbgAjACAASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAIAAgACAAIAAgACAAIABUAGUAcwB0AHMAIABpAGYAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGkAcwAgAGkAbgAgAHYAYQBsAGkAZAAgAHIAYQBuAGcAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASQBTAF8AVgBBAEwASQBEAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIAAgACAAIABUAGUAcwB0AHMAIABpAGYAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjACAASQBTAF8AVgBBAEwASQBEAF8AVwBFAEUASwBfAEQAQQBUAEUAIAAgACAAIAAgACAAIABUAGUAcwB0AHMAIABpAGYAIABhACAAdwBlAGUAawAgAGQAYQB0AGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjACAAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABDAGEAbABlAG4AZABhAHIAIABGAHUAbgBjAHQAaQBvAG4AcwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABZAEUAQQBSAF8ARABBAFkAXwBDAE8AVQBOAFQAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAbwB1AG4AdAAgAG8AZgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAeQBzACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAAeQBlAGEAcgAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABZAEUAQQBSAF8AVwBFAEUASwBfAEMATwBVAE4AVAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAbwB1AG4AdAAgAG8AZgAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAcwAgAGkAbgAgAGEAIABnAGkAdgBlAG4AIAB5AGUAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAWQBfAE8AUgBEAEkATgBBAEwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG4AdQBtAGIAZQByACAAbwBmACAAYQAgAGQAYQB0AGUAIABpAG4AIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAFIATwBNAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAGYAcgBvAG0AIABhACAAZwBpAHYAZQBuACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAAZABhAHQAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAF8ATgBVAE0AQgBFAFIAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABkAGEAdABlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABUAE8AXwBXAEUARQBLAF8ARABBAFQARQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAGEAbgBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAZgByAG8AbQAgAGEAIABnAGkAdgBlAG4AIABkAGEAdABlAC4AIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAFIATwBNAF8AVwBFAEUASwBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGUAaQB0AGgAZQByACAAYQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAG8AcgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlACAAZgByAG8AbQAgAGEAIABnAGkAdgBlAG4AIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHcAZQBlAGsAIABhAG4AZAAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABQAGEAcgBzAGkAbgBnACAARgB1AG4AYwB0AGkAbwBuAHMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTACAAIAAgACAAIAAgAFQAZQBzAHQAcwAgAGkAZgAgAHQAZQB4AHQAIABjAG8AbgB0AGEAaQBuAHMAIABvAG4AbAB5ACAAYwBoAGEAcgBhAGMAdABlAHIAcwAgAHQAaABhAHQAIABhAHIAZQAgAHYAYQBsAGkAZAAgAGYAbwByACAASQBTAE8AIAA4ADYAMAAxAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABQAEEAUgBTAEUAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHkAZQBhAHIALAAgAG0AbwBuAHQAaAAgAGEAbgBkACAAZABhAHkAIABvAGYAIABhACAAZABhAHQAZQAgAGYAcgBvAG0AIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuACAAIAAgACMAXABuACMAIABQAEEAUgBTAEUAXwBUAEkATQBFACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGgAbwB1AHIALAAgAG0AaQBuAHUAdABlACAAYQBuAGQAIABzAGUAYwBvAG4AZAAgAG8AZgAgAHQAaQBtAGUAIABmAHIAbwBtACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgAgACMAXABuACMAIABQAEEAUgBTAEUAXwBUAEkATQBFAF8AWgBPAE4ARQAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACMAXABuACMAIABQAEEAUgBTAEUAXwBQAEEAUgBUAFMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAcABsAGkAdABzACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIAB0AGUAeAB0ACAAdgBhAGwAdQBlACAAaQBuAHQAbwAgAGkAbgB0AG8AIAByAGUAcwBwAGUAYwB0AGkAdgBlACAAcABhAHIAdABzACAAbwBmACAAZABhAHQAZQAsACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABQAEEAUgBTAEUAXwBEAEEAVABFAF8AVABJAE0ARQAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABmAHIAbwBtACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAG8AcgBtAGEAdAB0AGkAbgBnACAARgB1AG4AYwB0AGkAbwBuAHMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAFQASQBNAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAdABpAG0AZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAFQASQBNAEUAXwBaAE8ATgBFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAdABpAG0AZQAgAHoAbwBuAGUAIABhAHMAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAFcARQBFAEsAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAdwBlAGUAawAgAGQAYQB0AGUAIABhAHMAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABGAE8AUgBNAEEAVABfAEQAQQBUAEUAXwBUAEkATQBFACAAIAAgACAAIAAgACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABDAG8AbgB2AGUAcgBzAGkAbwBuACAARgB1AG4AYwB0AGkAbwBuAHMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABJAFMATwBfAFQATwBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEMAbwBuAHYAZQByAHQAcwAgAHQAZQB4AHQAIABpAG4AIABJAFMATwAgAGYAbwByAG0AYQB0ACAAdABvACAAYQBuACAARQB4AGMAZQBsACAAZABhAHQAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAEEAVABFAF8AVABPAF8ASQBTAE8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEMAbwBuAHYAZQByAHQAcwAgAGEAbgAgAEUAeABjAGUAbAAgAGQAYQB0AGUAIAB0AG8AIABJAFMATwAgAGYAbwByAG0AYQB0AHQAZQBkACAAdABlAHgAdAAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAqAC8AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQAgAHkAZQBhAHIAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAEkAUwBPACAAOAA2ADAAMQAuAFwAbgBOAG8AdABlACAAdABoAGEAdAAgADEAIABCAEMAIAA9ACAAMAAgAEMARQAsACAAMgAgAEIAQwAgAD0AIAAtADEAIABDAEUAXABuAFIAZQB0AHUAcgBuAHMAIABhACAAYgBvAG8AbABlAGEAbgAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AQQBsAGwAbwB3AEQAZQBjAGkAbQBhAGwAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABBAGwAbABvAHcAIABkAGUAYwBpAG0AYQBsACAAdgBhAGwAdQBlAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAFsAQQBsAGwAbwB3AEQAZQBjAGkAbQBhAGwAXQAsAFwAbgAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAoAE4AKABBAGwAbABvAHcARABlAGMAaQBtAGEAbAApACAAPQAgADAAKQAgACoAIAAoAFkAZQBhAHIAQwBFACAAPAA+ACAASQBOAFQAKABZAGUAYQByAEMARQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAQQBCAFMAKABZAGUAYQByAEMARQApACAAPAAgADEAMAAwADAAMAAwAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQAgAHkAZQBhAHIAIABpAG4AYwBsAHUAZABlAHMAIABhACAAbABlAGEAcAAgAGQAYQB5ACAAaQBuACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGIAbwBvAGwAZQBhAG4ALgBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAG4AbwB0ACAAYQAgAHYAYQBsAGkAZAAgAHkAZQBhAHIALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE0ATwBEACgAXwB5AGUAYQByAEMARQAsACAANAAwADAAKQAgAD0AIAAwACwAIABUAFIAVQBFACwAIABJAEYAKABNAE8ARAAoAF8AeQBlAGEAcgBDAEUALAAgADEAMAAwACkAIAA9ACAAMAAsACAARgBBAEwAUwBFACwAIABNAE8ARAAoAF8AeQBlAGEAcgBDAEUALAAgADQAKQAgAD0AIAAwACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQBcAG4AXABuAFQAZQBzAHQAcwAgAGkAZgAgAGEAIABkAGEAdABlACAAaQBzACAAdgBhAGwAaQBkACAAZgBvAHIAIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAEkAZgAgAG0AbwBuAHQAaAAgAGEAbgBkACAAZABhAHkAIABtAGkAcwBzAGkAbgBnACwAIABjAG8AbgBzAGkAZABlAHIAZQBkACAAYQAgAHkAZQBhAHIAIABvAG4AbAB5ACAAZABhAHQAZQAuAFwAbgBJAGYAIABvAG4AbAB5ACAAZABhAHkAIABpAHMAIABtAGkAcwBzAGkAbgBnACwAIABjAG8AbgBzAGkAZABlAHIAZQBkACAAYQAgAHkAZQBhAHIAIABhAG4AZAAgAG0AbwBuAHQAaAAgAGQAYQB0AGUALgBcAG4ATwBuAGwAeQAgAHQAaABlACAAbABhAHMAdAAgAHAAcgBvAHYAaQBkAGUAZAAgAGUAbABlAG0AZQBuAHQAIABjAGEAbgAgAGgAYQB2AGUAIABhACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHYAYQBsAHUAZQAuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGIAbwBvAGwAZQBhAG4ALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBNAG8AbgB0AGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByAFwAbgBEAGEAeQAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGEAeQAgAG8AZgAgAG0AbwBuAHQAaABcAG4AWwBBAGwAbABNAGEAbgBkAGEAdABvAHIAeQBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARABpAHMAYQBsAGwAbwB3ACAAcwBoAG8AcgB0ACAAZgBvAHIAbQBzADoAIABZAGUAYQByACwAIABZAGUAYQByACAAYQBuAGQAIABNAG8AbgB0AGgAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAWwBBAGwAbABNAGEAbgBkAGEAdABvAHIAeQBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAF8AZQBsAGUAbQBlAG4AdABzACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBvAG4AdABoACkAKQAgACoAIABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAG8AbgB0AGgAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AZQBsAGUAbQBlAG4AdABzACAAPQAgADAAKQAgACsAIAAoACgATgAoAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5ACkAIAA8AD4AIAAwACkAIAAqACAAKABfAGUAbABlAG0AZQBuAHQAcwAgADwAIAAzACkAKQApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB5AGUAYQByACAAaQBzACAAbQBhAG4AZABhAHQAbwByAHkALAAgAGEAbgBkACAAYQBsAGwAIABlAGwAZQBtAGUAbgB0AHMAIABtAGEAbgBkAGEAdABvAHIAeQAgAGkAZgAgAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5ACAAcwB3AGkAdABjAGgAIABpAHMAIABzAGUAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMwAsACAALwAvACAAeQBlAGEAcgAsACAAbQBvAG4AdABoACAAYQBuAGQAIABkAGEAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBvAG4AdABoACAAPAA+ACAASQBOAFQAKABNAG8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABtAG8AbgB0AGgAIABjAGEAbgBuAG8AdAAgAGIAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAZgBvAHIAIABtAG8AbgB0AGgAIAByAGEAbgBnAGUAIAAxAC4ALgAxADIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABNAG8AbgB0AGgAIAA+AD0AIAAxACkAIAAqACAAKABNAG8AbgB0AGgAIAA8AD0AIAAxADIAKQApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAASQBOAFQAKABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAE0AbwBuAHQAaAAgAD0AIAAyACkALAAgAC8ALwAgAEYAZQBiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBkAGEAeQAgAD4APQAgADEAKQAgACoAIAAoAF8AZABhAHkAIAA8AD0AIAAoADIAOAAgACsAIABOACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACkAKQApACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgATQBvAG4AdABoACAAPAA9ACAANwApACwAIAAvAC8AIABKAGEAbgAsACAATQBhAHIALAAgAEEAcAByACwAIABNAGEAeQAsACAASgB1AG4ALAAgAEoAdQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBkAGEAeQAgAD4APQAgADEAKQAgACoAIAAoAF8AZABhAHkAIAA8AD0AIAAoADMAMAAgACsAIABNAE8ARAAoAE0AbwBuAHQAaAAsACAAMgApACkAKQApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAE0AbwBuAHQAaAAgAD4APQAgADgAKQAsACAALwAvACAAQQB1AGcALAAgAFMAZQBwACwAIABPAGMAdAAsACAATgBvAHYALAAgAEQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AZABhAHkAIAA+AD0AIAAxACkAIAAqACAAKABfAGQAYQB5ACAAPAA9ACAAKAAzADEAIAAtACAATQBPAEQAKABNAG8AbgB0AGgALAAgADIAKQApACkAIAA8AD4AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMgAsACAALwAvACAAeQBlAGEAcgAgAGEAbgBkACAAbQBvAG4AdABoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSACgAWQBlAGEAcgBDAEUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAIABJAE4AVAAoAE0AbwBuAHQAaAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABmAG8AcgAgAG0AbwBuAHQAaAAgAHIAYQBuAGcAZQAgADEALgAuADEAMgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AbQBvAG4AdABoACAAPgA9ACAAMQApACAAKgAgACgAXwBtAG8AbgB0AGgAIAA8AD0AIAAxADIAKQApACAAPAA+ACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQBsAGUAbQBlAG4AdABzACAAPQAgADEALAAgAC8ALwAgAHkAZQBhAHIAIABvAG4AbAB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBfAFYAQQBMAEkARABfAFkARQBBAFIAKABZAGUAYQByAEMARQAsACAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQAgAHQAaQBtAGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAAMgA0ACAAaABvAHUAcgAgAHQAaQBtAGUAawBlAGUAcABpAG4AZwAgAHMAeQBzAHQAZQBtAC4AXABuAE8AbgBsAHkAIAB0AGgAZQAgAGwAYQBzAHQAIABwAHIAbwB2AGkAZABlAGQAIABlAGwAZQBtAGUAbgB0ACAAYwBhAG4AIABoAGEAdgBlACAAYQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIAB2AGEAbAB1AGUALgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABiAG8AbwBsAGUAYQBuAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBIAG8AdQByACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAwAC4ALgAyADQAXABuAE0AaQBuAHUAdABlACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgADAALgAuADUAOQAuADkAOQA5AFwAbgBTAGUAYwBvAG4AZAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAwAC4ALgA1ADkALgA5ADkAOQBcAG4AWwBBAGwAbABNAGEAbgBkAGEAdABvAHIAeQBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARABpAHMAYQBsAGwAbwB3ACAAcwBoAG8AcgB0ACAAZgBvAHIAbQBzADoAIABIAG8AdQByACwAIABIAG8AdQByACAAYQBuAGQAIABNAGkAbgB1AHQAZQBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAEgAbwB1AHIALAAgAE0AaQBuAHUAdABlACwAIABTAGUAYwBvAG4AZAAsACAAWwBBAGwAbABNAGEAbgBkAGEAdABvAHIAeQBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAF8AZQBsAGUAbQBlAG4AdABzACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEgAbwB1AHIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAGkAbgB1AHQAZQApACkAIAAqACAASQBTAE4AVQBNAEIARQBSACgAUwBlAGMAbwBuAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAUwBlAGMAbwBuAGQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABTAGUAYwBvAG4AZAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AZQBsAGUAbQBlAG4AdABzACAAPQAgADAAKQAgACsAIAAoACgATgAoAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5ACkAIAA8AD4AIAAwACkAIAAqACAAKABfAGUAbABlAG0AZQBuAHQAcwAgADwAIAAzACkAKQApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABoAG8AdQByACAAaQBzACAAbQBhAG4AZABhAHQAbwByAHkALAAgAGEAbgBkACAAYQBsAGwAIABlAGwAZQBtAGUAbgB0AHMAIABtAGEAbgBkAGEAdABvAHIAeQAgAGkAZgAgAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5ACAAcwB3AGkAdABjAGgAIABpAHMAIABzAGUAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMwAsACAALwAvACAAaABvAHUAcgAsACAAbQBpAG4AdQB0AGUALAAgAHMAZQBjAG8AbgBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkAFgALAAgAFIATwBVAE4ARABEAE8AVwBOACgAUwBlAGMAbwBuAGQAIAAqACAAMQAwADAAMAAwACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABoAG8AdQByACAAaQBzACAAbgBvAHQAIABmAHIAYQBjAHQAaQBvAG4AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAG8AdQByACAAPAA+ACAASQBOAFQAKABIAG8AdQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAaABvAHUAcgAgAGkAbgAgAHIAYQBuAGcAZQAgADAALgAuADIANABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAEgAbwB1AHIAIAA+AD0AIAAwACkAIAAqACAAKABIAG8AdQByACAAPAA9ACAAMgA0ACkAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAG0AaQBuAHUAdABlACAAaQBzACAAbgBvAHQAIABmAHIAYQBjAHQAaQBvAG4AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAGkAbgB1AHQAZQAgADwAPgAgAEkATgBUACgATQBpAG4AdQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABtAGkAbgB1AHQAZQAgAGkAbgAgAHIAYQBuAGcAZQAgADAALgAuADUAOQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAE0AaQBuAHUAdABlACAAPgA9ACAAMAApACAAKgAgACgATQBpAG4AdQB0AGUAIAA8AD0AIAA1ADkAKQApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAegBlAHIAbwAgAG0AaQBuAHUAdABlACAAYQBuAGQAIABzAGUAYwBvAG4AZAAgAGYAbwByACAAMgA0ACAAaABvAHUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAEgAbwB1AHIAIAA9ACAAMgA0ACkAIAAqACAAKAAoAE0AaQBuAHUAdABlACAAPAA+ACAAMAApACAAKwAgACgAXwBzAGUAYwBvAG4AZABYACAAPAA+ACAAMAApACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAcwBlAGMAbwBuAGQAIABpAG4AIAByAGEAbgBnAGUAIAAwAC4ALgA1ADkALgA5ADkAOQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AcwBlAGMAbwBuAGQAWAAgAD4APQAgADAAKQAgACoAIAAoAF8AcwBlAGMAbwBuAGQAWAAgADwAIAA2ADAAMAAwADAAMAApACkAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMgAsACAALwAvACAAaABvAHUAcgAgAGEAbgBkACAAbQBpAG4AdQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBpAG4AdQB0AGUAWAAsACAAUgBPAFUATgBEAEQATwBXAE4AKABNAGkAbgB1AHQAZQAgACoAIAA2ADAAMAAwADAAMAAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAaABvAHUAcgAgAGkAcwAgAG4AbwB0ACAAZgByAGEAYwB0AGkAbwBuAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABvAHUAcgAgADwAPgAgAEkATgBUACgASABvAHUAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAGgAbwB1AHIAIABpAG4AIAByAGEAbgBnAGUAIAAwAC4ALgAyADQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABIAG8AdQByACAAPgA9ACAAMAApACAAKgAgACgASABvAHUAcgAgADwAPQAgADIANAApACkAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIAB6AGUAcgBvACAAbQBpAG4AdQB0AGUAIABmAG8AcgAgADIANAAgAGgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABIAG8AdQByACAAPQAgADIANAApACAAKgAgACgAXwBtAGkAbgB1AHQAZQBYACAAPAA+ACAAMAApACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAG0AaQBuAHUAdABlACAAaQBuACAAcgBhAG4AZwBlACAAMAAuAC4ANQA5AC4AOQA5ADkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABfAG0AaQBuAHUAdABlAFgAIAA+AD0AIAAwACkAIAAqACAAKABfAG0AaQBuAHUAdABlAFgAIAA8ACAAMwA2ADAAMAAwADAAMAAwACkAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAbABlAG0AZQBuAHQAcwAgAD0AIAAxACwAIAAvAC8AIABoAG8AdQByACAAbwBuAGwAeQAgAHQAaQBtAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgBYACwAIABSAE8AVQBOAEQARABPAFcATgAoAEgAbwB1AHIAIAAqACAAMwA2ADAAMAAwADAAMAAwACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABoAG8AdQByACAAaQBuACAAcgBhAG4AZwBlACAAMAAuAC4AMgA0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AaABvAHUAcgBYACAAPgA9ACAAMAApACAAKgAgACgAXwBoAG8AdQByAFgAIAA8AD0AIAA4ADYANAAwADAAMAAwADAAMAApACkAIAA8AD4AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAXwBaAE8ATgBFAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABpAHMAIABpAG4AIAB2AGEAbABpAGQAIAByAGEAbgBnAGUALgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABiAG8AbwBsAGUAYQBuAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAUgBhAG4AZwBlACAAaQBzACAALQA5ADAAMAAuAC4AKwA5ADAAMAAgAC0APgAgAC0AMQA1ADoAMAAwAC4ALgArADEANQA6ADAAMABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAIAA9ACAATABBAE0AQgBEAEEAKABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACwAXABuACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACkAKQAsACAARgBBAEwAUwBFACwAIAAoACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAgAD4APQAgAC0AOQAwADAAKQAgACoAIAAoAE8AZgBmAHMAZQB0AE0AaQBuAHUAdABlAHMAIAA8AD0AIAA5ADAAMAApACkAIAA8AD4AIAAwACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQBuACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABiAG8AbwBsAGUAYQBuAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBPAHIAZABpAG4AYQBsACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAE8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG8AZgAgAHkAZQBhAHIAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATwByAGQAaQBuAGEAbAApACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsACAALwAvACAATwByAGQAaQBuAGEAbAAgAGkAcwAgAG0AYQBuAGQAYQB0AG8AcgB5AFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwALAAgAEkATgBUACgATwByAGQAaQBuAGEAbAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAYQBwAEQAYQB5ACwAIABOACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAZgBvAHIAIAB2AGEAbABpAGQAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBvAHIAZABpAG4AYQBsACAAPgA9ACAAMQApACAAKgAgACgAXwBvAHIAZABpAG4AYQBsACAAPAA9ACAAKAAzADYANQAgACsAIABfAGwAZQBhAHAARABhAHkAKQApACkAIAA8AD4AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMAXwBWAEEATABJAEQAXwBXAEUARQBLAF8ARABBAFQARQBcAG4AXABuAFQAZQBzAHQAcwAgAGkAZgAgAGEAIAB3AGUAZQBrACAAZABhAHQAZQAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGIAbwBvAGwAZQBhAG4ALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBXAGUAZQBrACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABJAFMATwAgAGQAZQBmAGkAbgBlAGQAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABvAGYAIAB0AGgAZQAgAHkAZQBhAHIAXABuAEQAYQB5AE8AZgBXAGUAZQBrACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAdABoAGUAIAB3AGUAZQBrACAAdwBoAGUAcgBlACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgBcAG4AWwBEAGEAeQBPAGYAVwBlAGUAawBNAGEAbgBkAGEAdABvAHIAeQBdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARABhAHkATwBmAFcAZQBlAGsAIABtAHUAcwB0ACAAYgBlACAAcAByAG8AdgBpAGQAZQBkAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMAXwBWAEEATABJAEQAXwBXAEUARQBLAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABXAGUAZQBrACwAIABEAGEAeQBPAGYAVwBlAGUAawAsACAAWwBEAGEAeQBPAGYAVwBlAGUAawBNAGEAbgBkAGEAdABvAHIAeQBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACkAIAArACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABXAGUAZQBrACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAIAAvAC8AIABZAGUAYQByACAAYQBuAGQAIABXAGUAZQBrACAAbQBhAG4AZABhAHQAbwByAHkAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AbQBtAGkAdABEAG8AVwAsACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQBPAGYAVwBlAGUAawApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABOACgARABhAHkATwBmAFcAZQBlAGsATQBhAG4AZABhAHQAbwByAHkAKQAgADwAPgAgADAAKQAgACoAIABfAG8AbQBtAGkAdABEAG8AVwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsACAALwAvACAARABhAHkATwBmAFcAZQBlAGsATQBhAG4AZABhAHQAbwByAHkAIABzAGUAdAAgAGEAbgBkACAARABhAHkATwBmAFcAZQBlAGsAIABpAHMAIABvAG0AbQBpAHQAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAaQBmACAAdwBlAGUAawAgAGkAbgAgAHIAYQBuAGcAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdwBlAGUAawAsACAASQBOAFQAKABXAGUAZQBrACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwB3AGUAZQBrACAAPgA9ACAAMQApACAAKgAgACgAXwB3AGUAZQBrACAAPAA9ACAAWQBFAEEAUgBfAFcARQBFAEsAXwBDAE8AVQBOAFQAKABZAGUAYQByAEMARQApACkAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AbQBtAGkAdABEAG8AVwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAC8ALwAgAHkAZQBhAHIAIABhAG4AZAAgAHcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABXAGUAZQBrACAAPAA+ACAAXwB3AGUAZQBrACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALAAgAC8ALwAgAHcAZQBlAGsAIABoAGEAcwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIAB2AGEAbAB1AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAaQBmACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAaQBuACAAcgBhAG4AZwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3ACwAIABJAE4AVAAoAEQAYQB5AE8AZgBXAGUAZQBrACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AZABvAHcAIAA+AD0AIAAxACkAIAAqACAAKABfAGQAbwB3ACAAPAA9ACAANwApACkAIAA8AD4AIAAwACAALwAvACAAVABlAHMAdAAgAGYAbwByACAARABhAHkATwBmAFcAZQBlAGsAIAAxAC4ALgA3AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAEUAQQBSAF8ARABBAFkAXwBDAE8AVQBOAFQAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABjAG8AdQBuAHQAIABvAGYAIABvAHIAZABpAG4AYQBsACAAZABhAHkAcwAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAHkAZQBhAHIALgBcAG4ASQBuAHQAZQBnAGUAcgAgAHcAaQB0AGgAIAByAGEAbgBnAGUAIAAzADYANQAuAC4AMwA2ADYAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAGEAIAB2AGEAbABpAGQAIAB5AGUAYQByAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBZAEUAQQBSAF8ARABBAFkAXwBDAE8AVQBOAFQAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsAFwAbgAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACwAIAAxACkAKQAsACAAIwBWAEEATABVAEUAIQAsACAASQBGACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACwAIAAzADYANgAsACAAMwA2ADUAKQApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAEUAQQBSAF8AVwBFAEUASwBfAEMATwBVAE4AVABcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAbwB1AG4AdAAgAG8AZgAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAcwAgAGkAbgAgAGEAIABnAGkAdgBlAG4AIAB5AGUAYQByAC4AXABuAEkAbgB0AGUAZwBlAHIAIAB3AGkAdABoACAAcgBhAG4AZwBlACAANQAyAC4ALgA1ADMAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAGEAIAB2AGEAbABpAGQAIAB5AGUAYQByAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBZAEUAQQBSAF8AVwBFAEUASwBfAEMATwBVAE4AVAAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFkARQBBAFIAKABZAGUAYQByAEMARQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUALAAgAEkATgBUACgAWQBlAGEAcgBDAEUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkALAAgAE0ATwBEACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAgACsAIABJAE4AVAAoAF8AeQBlAGEAcgBDAEUAIAAvACAANAApACAALQAgAEkATgBUACgAXwB5AGUAYQByAEMARQAgAC8AIAAxADAAMAApACAAKwAgAEkATgBUACgAXwB5AGUAYQByAEMARQAgAC8AIAA0ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkAIAA9ACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGkAZgAgAGwAYQBzAHQAIABkAGEAeQAgAG8AZgAgAHkAZQBhAHIAIABpAHMAIABhACAAVABoAHUAcgBzAGQAYQB5ACwAIAB0AGgAZQBuACAAaABhAHMAIABhAG4AIABlAHgAdAByAGEAIAB3AGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAWQBlAGEAcgAsACAAXwB5AGUAYQByAEMARQAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkAUAByAGUAdgAsACAATQBPAEQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AFkAZQBhAHIAIAArACAASQBOAFQAKABfAGwAYQBzAHQAWQBlAGEAcgAgAC8AIAA0ACkAIAAtACAASQBOAFQAKABfAGwAYQBzAHQAWQBlAGEAcgAgAC8AIAAxADAAMAApACAAKwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4AVAAoAF8AbABhAHMAdABZAGUAYQByACAALwAgADQAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3AEwAYQBzAHQARABhAHkAUAByAGUAdgAgAD0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGkAZgAgAGwAYQBzAHQAIABkAGEAeQAgAG8AZgAgAHAAcgBlAHYAaQBvAHUAcwAgAHkAZQBhAHIAIABpAHMAIABhACAAVwBlAGQAbgBlAHMAZABhAHkALAAgAHQAaABlAG4AIABoAGEAcwAgAGEAbgAgAGUAeAB0AHIAYQAgAHcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADUAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABvAHQAaABlAHIAdwBpAHoAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBEAEEAWQBfAE8AUgBEAEkATgBBAEwAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABvAHIAZABpAG4AYQBsACAAZABhAHkAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABkAGEAdABlACAAaQBuACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBJAG4AdABlAGcAZQByACAAdwBpAHQAaAAgAHIAYQBuAGcAZQAgADEALgAuADMANgA2AFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAZABhAHQAZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ATQBvAG4AdABoACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByAFwAbgBEAGEAeQAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAbQBvAG4AdABoAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEEAWQBfAE8AUgBEAEkATgBBAEwAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAAewAwACwAIAAzADEALAAgADUAOQAsACAAOQAwACwAIAAxADIAMAAsACAAMQA1ADEALAAgADEAOAAxACwAIAAyADEAMgAsACAAMgA0ADMALAAgADIANwAzACwAIAAzADAANAAsACAAMwAzADQAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAASQBOAFQAKABNAG8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAGEAeQAgACsAIABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABPAGYAZgBzAGUAdAAsACAALAAgAF8AbQBvAG4AdABoACkAIAArACAASQBGACgAXwBtAG8AbgB0AGgAIAA8AD0AIAAyACwAIAAwACwAIABOACgASQBTAF8ATABFAEEAUABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAZgByAG8AbQAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIAB2AGEAbABpAGQAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuAFwAbgBcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABZAGUAYQByACAAQwBFACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAgACAAMgAgAHwAIABNAG8AbgB0AGgAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4AMQAyAFwAbgAgACAAMwAgAHwAIABEAGEAeQAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMQAuAC4AMwAxAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBPAHIAZABpAG4AYQBsACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAATwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATwByAGQAaQBuAGEAbAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAEYAaQByAHMAdABPAHIAZABpAG4AYQBsACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7ADEALAAgADMAMgAsACAANgAxACwAIAA5ADIALAAgADEAMgAyACwAIAAxADUAMwAsACAAMQA4ADMALAAgADIAMQA0ACwAIAAyADQANQAsACAAMgA3ADUALAAgADMAMAA2ACwAIAAzADMANgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewAxACwAIAAzADIALAAgADYAMAAsACAAOQAxACwAIAAxADIAMQAsACAAMQA1ADIALAAgADEAOAAyACwAIAAyADEAMwAsACAAMgA0ADQALAAgADIANwA0ACwAIAAzADAANQAsACAAMwAzADUAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwALAAgAEkATgBUACgATwByAGQAaQBuAGEAbAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAIABYAE0AQQBUAEMASAAoAF8AbwByAGQAaQBuAGEAbAAsACAAXwBtAG8AbgB0AGgARgBpAHIAcwB0AE8AcgBkAGkAbgBhAGwALAAgAC0AMQAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAGYAZgBzAGUAdAAsACAASQBOAEQARQBYACgAXwBtAG8AbgB0AGgARgBpAHIAcwB0AE8AcgBkAGkAbgBhAGwALAAgAF8AbQBvAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsACAATwByAGQAaQBuAGEAbAAgAC0AIABfAG8AZgBmAHMAZQB0ACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABZAGUAYQByAEMARQAsACAAXwBtAG8AbgB0AGgALAAgAF8AZABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABBAFkAXwBPAEYAXwBXAEUARQBLAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABkAGEAdABlAC4AXABuACAAIAAxACAALQAgAE0AbwBuAGQAYQB5AFwAbgAgACAAMgAgAC0AIABUAHUAZQBzAGQAYQB5AFwAbgAgACAAMwAgAC0AIABXAGUAZABuAGUAcwBkAGEAeQBcAG4AIAAgADQAIAAtACAAVABoAHUAcgBkAGEAeQBcAG4AIAAgADUAIAAtACAARgByAGkAZABhAHkAXABuACAAIAA2ACAALQAgAFMAYQB0AHUAcgBkAGEAeQBcAG4AIAAgADcAIAAtACAAUwB1AG4AZABhAHkAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAGEAIAB2AGEAbABpAGQAIABkAGEAdABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBNAG8AbgB0AGgAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgAG8AZgAgAHkAZQBhAHIAXABuAEQAYQB5ACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAARABhAHkAIABvAGYAIABtAG8AbgB0AGgAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFUAcwBpAG4AZwAgAFoAZQBsAGwAZQByACAAQwBvAG4AZwByAHUAZQBuAGMAZQAsACAAYwBmAC4AIABoAHQAdABwAHMAOgAvAC8AZQBuAC4AdwBpAGsAaQBwAGUAZABpAGEALgBvAHIAZwAvAHcAaQBrAGkALwBaAGUAbABsAGUAcgAlADIANwBzAF8AYwBvAG4AZwByAHUAZQBuAGMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAE0AYQBwACAAbQBvAG4AdABoAHMAIABNAGEAcgAuAC4ARgBlAGIAIAAtAD4AIAAzAC4ALgAxADQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AegBlAGwAbABlAHIATQBvAG4AdABoACwAIABNAE8ARAAoAEkATgBUACgATQBvAG4AdABoACkAIAAtACAAMwAsACAAMQAyACkAIAArACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAASgBhAG4ALAAgAEYAZQBiACAAYwBvAG4AcwBpAGQAZQByAGUAZAAgAGIAZQBsAG8AbgBnAGkAbgBnACAAdABvACAAcAByAGUAdgBpAG8AdQBzACAAeQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB6AGUAbABsAGUAcgBZAGUAYQByACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkAIAAtACAASQBOAFQAKABfAHoAZQBsAGwAZQByAE0AbwBuAHQAaAAgAC8AIAAxADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIATwBmAEMAZQBuAHQALAAgAE0ATwBEACgAXwB6AGUAbABsAGUAcgBZAGUAYQByACwAIAAxADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AegBlAHIAbwBCAGEAcwBlAGQAQwBlAG4AdAAsACAASQBOAFQAKABfAHoAZQBsAGwAZQByAFkAZQBhAHIAIAAvACAAMQAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAWgBlAGwAbABlAHIAIABDAG8AbgBnAHIAdQBlAG4AYwBlACAAZgBvAHIAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAcgBlAHQAdQByAG4AcwAgAHcAZQBlAGsAZABhAHkAcwAgADAALgAuADYAIAAtAD4AIABTAGEAdAAuAC4ARgByAGkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AegBlAGwAbABlAHIAVwBlAGUAawBEAGEAeQAsACAATQBPAEQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4AVAAoAEQAYQB5ACkAIAArACAASQBOAFQAKAAxADMAIAAqACAAKABfAHoAZQBsAGwAZQByAE0AbwBuAHQAaAAgACsAIAAxACkAIAAvACAANQApACAAKwAgAF8AeQBlAGEAcgBPAGYAQwBlAG4AdAAgACsAIABJAE4AVAAoAF8AeQBlAGEAcgBPAGYAQwBlAG4AdAAgAC8AIAA0ACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAFQAKABfAHoAZQByAG8AQgBhAHMAZQBkAEMAZQBuAHQAIAAvACAANAApACAALQAgADIAIAAqACAAXwB6AGUAcgBvAEIAYQBzAGUAZABDAGUAbgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAVAByAGEAbgBzAGwAYQB0AGUAIAB0AG8AIABJAFMATwAgAG4AdQBtAGIAZQByAGkAbgBnACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBPAEQAKABfAHoAZQBsAGwAZQByAFcAZQBlAGsARABhAHkAIAArACAANQAsACAANwApACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAQQBZAF8ATwBGAF8AVwBFAEUASwBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuAFwAbgAgACAAMQAgAC0AIABNAG8AbgBkAGEAeQBcAG4AIAAgADIAIAAtACAAVAB1AGUAcwBkAGEAeQBcAG4AIAAgADMAIAAtACAAVwBlAGQAbgBlAHMAZABhAHkAXABuACAAIAA0ACAALQAgAFQAaAB1AHIAZABhAHkAXABuACAAIAA1ACAALQAgAEYAcgBpAGQAYQB5AFwAbgAgACAANgAgAC0AIABTAGEAdAB1AHIAZABhAHkAXABuACAAIAA3ACAALQAgAFMAdQBuAGQAYQB5AFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAZABhAHQAZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBPAHIAZABpAG4AYQBsACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAATwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABBAFkAXwBPAEYAXwBXAEUARQBLAF8ARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATwByAGQAaQBuAGEAbAAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQARABhAHkATwBmAFkAZQBhAHIALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAoAFkAZQBhAHIAQwBFACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFQAcgBhAG4AcwBsAGEAdABlACAAdABvACAASQBTAE8AIABuAHUAbQBiAGUAcgBpAG4AZwAgADEALgAuADcAIAAtAD4AIABNAG8AbgAuAC4AUwB1AG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0ATwBEACgAXwBmAGkAcgBzAHQARABhAHkATwBmAFkAZQBhAHIAIAArACAASQBOAFQAKABPAHIAZABpAG4AYQBsACkAIAAtACAAMgAsACAANwApACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFcARQBFAEsAXwBOAFUATQBCAEUAUgBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABkAGEAdABlAC4AXABuAEkAbgB0AGUAZwBlAHIAIAB3AGkAdABoACAAcgBhAG4AZwBlACAAMQAuAC4ANQAzAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAZABhAHQAZQAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ATQBvAG4AdABoACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByAFwAbgBEAGEAeQAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAbQBvAG4AdABoAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwALAAgAEQAQQBZAF8ATwBSAEQASQBOAEEATAAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQBPAGYAVwBlAGUAawAsACAARABBAFkAXwBPAEYAXwBXAEUARQBLACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAsACAASQBOAFQAKAAoAEkATgBUACgAXwBvAHIAZABpAG4AYQBsACkAIAAtACAAXwBkAGEAeQBPAGYAVwBlAGUAawAgACsAIAAxADAAKQAgAC8AIAA3ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbABhAHMAdAAgAHcAZQBlAGsAIABvAGYAIABwAHIAZQB2AGkAbwB1AHMAIAB5AGUAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFkARQBBAFIAXwBXAEUARQBLAF8AQwBPAFUATgBUACgAWQBlAGEAcgBDAEUAIAAtACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAG8AbQBpAG4AYQBsAFcAZQBlAGsAIAA9ACAANQAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAaQBmACAAdABoAGkAcwAgAHkAZQBhAHIAIABkAG8AZQBzACAAbgBvAHQAIABoAGEAdgBlACAANQAzACAAdwBlAGUAawBzACwAIAB0AGgAZQBuACAAaQBzACAAdABoAGUAIABmAGkAcgBzAHQAIAB3AGUAZQBrACAAbwBmACAAZgBvAGwAbABvAHcAaQBuAGcAIAB5AGUAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFkARQBBAFIAXwBXAEUARQBLAF8AQwBPAFUATgBUACgAWQBlAGEAcgBDAEUAKQAgAD0AIAA1ADMALAAgADUAMwAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBvAG0AaQBuAGEAbABXAGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATABcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuAFwAbgBJAG4AdABlAGcAZQByACAAdwBpAHQAaAAgAHIAYQBuAGcAZQAgADEALgAuADUAMwBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAG4AbwB0ACAAYQAgAHYAYQBsAGkAZAAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAE8AcgBkAGkAbgBhAGwAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABPAHIAZABpAG4AYQBsACAAZABhAHkAIABvAGYAIAB5AGUAYQByAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AE8AZgBXAGUAZQBrACwAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAG8AbQBpAG4AYQBsAFcAZQBlAGsALAAgAEkATgBUACgAKABJAE4AVAAoAE8AcgBkAGkAbgBhAGwAKQAgAC0AIABfAGQAYQB5AE8AZgBXAGUAZQBrACAAKwAgADEAMAApACAALwAgADcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBvAG0AaQBuAGEAbABXAGUAZQBrACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABsAGEAcwB0ACAAdwBlAGUAawAgAG8AZgAgAHAAcgBlAHYAaQBvAHUAcwAgAHkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWQBFAEEAUgBfAFcARQBFAEsAXwBDAE8AVQBOAFQAKABZAGUAYQByAEMARQAgAC0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAgAD0AIAA1ADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAGYAIAB0AGgAaQBzACAAeQBlAGEAcgAgAGQAbwBlAHMAIABuAG8AdAAgAGgAYQB2AGUAIAA1ADMAIAB3AGUAZQBrAHMALAAgAHQAaABlAG4AIABpAHMAIAAxAHMAdAAgAHcAZQBlAGsAIABvAGYAIABmAG8AbABsAG8AdwBpAG4AZwAgAHkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAWQBFAEEAUgBfAFcARQBFAEsAXwBDAE8AVQBOAFQAKABZAGUAYQByAEMARQApACAAPQAgADUAMwAsACAANQAzACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAG8AbQBpAG4AYQBsAFcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQATwBfAFcARQBFAEsAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAYQBuAGQAIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAGQAYQB0AGUALgAgAFQAaABlACAAcAByAG8AdgBpAGQAZQBkACAAZABhAHQAZQAgAGMAYQBuACAAaQBtAHAAbABpAGMAaQB0AGwAeQBcAG4AYgBlACAAZQBpAHQAaABlAHIAIABhACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQAgAG8AcgAgAG8AcgBkAGkAbgBpAG4AYQBsACAAZABhAHQAZQAuAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAZABhAHQAZQAuAFwAbgBcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABZAGUAYQByACAAQwBFACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuACAAIAAyACAAfAAgAFcAZQBlAGsAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEALgAuADUAMwBcAG4AIAAgADMAIAB8ACAARABhAHkAIABvAGYAIAB3AGUAZQBrACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMQAuAC4ANwAgAE0AbwBuAC4ALgBzAHUAbgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ATQBvAG4AdABoACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgAG8AZgAgAHQAaABlACAAeQBlAGEAcgAuACAASQBmACAAbwBtAG0AaQB0AHQAZQBkACwAIABkAGEAeQAgAGkAcwAgAGEAcwBzAHUAbQBlAGQAIAB0AG8AIABiAGUAIABvAHIAZABpAG4AYQBsAC4AXABuAEQAYQB5ACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGEAeQAgAG8AZgAgAHQAaABlACAAbQBvAG4AdABoACAAdwBoAGUAbgAgAG0AbwBuAHQAaAAgAHAAcgBvAHYAaQBkAGUAZAAsACAAbwB0AGgAZQByAHcAaQBzAGUAIABvAHIAZABpAG4AYQBsACAAZABhAHkAIABvAGYAIAB0AGgAZQAgAHkAZQBhAHIALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AVABPAF8AVwBFAEUASwBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAASQBTAE4AVQBNAEIARQBSACgATQBvAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAGEAcgBlACAAYQAgAGQAYQB0AGUAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAcgBhAGMARABhAHkALAAgAEQAYQB5ACAALQAgAEkATgBUACgARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHcALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHcAZQBlAGsALAAgAFcARQBFAEsAXwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKAAoAF8AdwBlAGUAawAgAD0AIAAxACkAIAAqACAAKABNAG8AbgB0AGgAIAA9ACAAMQAyACkALAAgADEALAAgACgAXwB3AGUAZQBrACAAPgA9ACAANQAyACkAIAAqACAAKABNAG8AbgB0AGgAIAA9ACAAMQApACwAIAAtADEALAAgAFQAUgBVAEUALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwB5AGUAYQByAEMARQAsACAAXwB3AGUAZQBrACwAIABfAGQAbwB3ACAAKwAgAF8AZgByAGEAYwBEAGEAeQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABwAGEAcgBhAG0AZQB0AGUAcgBzACAAYQByAGUAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAEQAYQB5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAHIAYQBjAEQAYQB5ACwAIABEAGEAeQAgAC0AIABJAE4AVAAoAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB3ACwAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAoAFkAZQBhAHIAQwBFACwAIABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrACwAIABXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAoAFkAZQBhAHIAQwBFACwAIABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACAAKwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAKABfAHcAZQBlAGsAIAA9ACAAMQApACAAKgAgACgATQBvAG4AdABoACAAPQAgADEAMgApACwAIAAxACwAIAAoAF8AdwBlAGUAawAgAD4APQAgADUAMgApACAAKgAgACgATQBvAG4AdABoACAAPQAgADEAKQAsACAALQAxACwAIABUAFIAVQBFACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AeQBlAGEAcgBDAEUALAAgAF8AdwBlAGUAawAsACAAXwBkAG8AdwAgACsAIABfAGYAcgBhAGMARABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBSAE8ATQBfAFcARQBFAEsAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZQBpAHQAaABlAHIAIABhACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAbwByACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAHcAZQBlAGsAIABhAG4AZAAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAG4AbwB0ACAAYQAgAHYAYQBsAGkAZAAgAHcAZQBlAGsAIABkAGEAdABlAC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuAFIAZQB0AHUAcgBuAE8AcgBkAGkAbgBhAGwAIAA9ACAARgBBAEwAUwBFAFwAbgAgACAAMQAgAHwAIABZAGUAYQByACAAQwBFACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAgACAAMgAgAHwAIABNAG8AbgB0AGgAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4AMQAyAFwAbgAgACAAMwAgAHwAIABEAGEAeQAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMQAuAC4AMwAxAFwAbgBSAGUAdAB1AHIAbgBPAHIAZABpAG4AYQBsACAAPQAgAFQAUgBVAEUAXABuACAAIAAxACAAfAAgAFkAZQBhAHIAIABDAEUAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuACAAIAAyACAAfAAgAE8AcgBkAGkAbgBhAGwAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAxAC4ALgAzADYANgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAFcAZQBlAGsAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAbwBmACAAdABoAGUAIAB5AGUAYQByAFwAbgBEAGEAeQBPAGYAVwBlAGUAawAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAdABoAGUAIAB3AGUAZQBrACAAdwBoAGUAcgBlACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgAgAFwAbgBbAFIAZQB0AHUAcgBuAE8AcgBkAGkAbgBhAGwAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFIAZQB0AHUAcgBuACAAcgBlAHMAdQBsAHQAIABhAHMAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBSAE8ATQBfAFcARQBFAEsAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAFcAZQBlAGsALAAgAEQAYQB5AE8AZgBXAGUAZQBrACwAIABbAFIAZQB0AHUAcgBuAE8AcgBkAGkAbgBhAGwAXQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBXAEUARQBLAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABXAGUAZQBrACwAIABEAGEAeQBPAGYAVwBlAGUAawAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBDAG8AcgByAGUAYwB0AGkAbwBuACwAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAKABZAGUAYQByAEMARQAsACAAMQAsACAANAApACAAKwAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHIAZABpAG4AYQBsAEQAYQB5ACwAIABJAE4AVAAoAFcAZQBlAGsAKQAgACoAIAA3ACAAKwAgAEQAYQB5AE8AZgBXAGUAZQBrACAALQAgAF8AeQBDAG8AcgByAGUAYwB0AGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQATwByAGQAaQBuAGEAbAAsACAASQBOAFQAKABfAG8AcgBkAGkAbgBhAGwARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQATwByAGQAaQBuAGEAbAAgADwAIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAdgBZAGUAYQByACwAIABZAGUAYQByAEMARQAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAHYAWQBlAGEAcgBEAGEAeQBDAG8AdQBuAHQALAAgAFkARQBBAFIAXwBEAEEAWQBfAEMATwBVAE4AVAAoAF8AcAByAGUAdgBZAGUAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBkAGoAdQBzAHQAZQBkAE8AcgBkAGkAbgBhAGwARABhAHkALAAgAF8AcAByAGUAdgBZAGUAYQByAEQAYQB5AEMAbwB1AG4AdAAgACsAIABfAG8AcgBkAGkAbgBhAGwARABhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgAUgBlAHQAdQByAG4ATwByAGQAaQBuAGEAbAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AcAByAGUAdgBZAGUAYQByACwAIABfAGEAZABqAHUAcwB0AGUAZABPAHIAZABpAG4AYQBsAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAXwBwAHIAZQB2AFkAZQBhAHIALAAgAF8AYQBkAGoAdQBzAHQAZQBkAE8AcgBkAGkAbgBhAGwARABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQATwByAGQAaQBuAGEAbAAgADwAPQAgADMANgA1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgAUgBlAHQAdQByAG4ATwByAGQAaQBuAGEAbAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABZAGUAYQByAEMARQAsACAAXwBvAHIAZABpAG4AYQBsAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABfAG8AcgBkAGkAbgBhAGwARABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaABpAHMAWQBlAGEAcgBEAGEAeQBDAG8AdQBuAHQALAAgAFkARQBBAFIAXwBEAEEAWQBfAEMATwBVAE4AVAAoAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAbgB0AE8AcgBkAGkAbgBhAGwAIAA+ACAAXwB0AGgAaQBzAFkAZQBhAHIARABhAHkAQwBvAHUAbgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFkAZQBhAHIALAAgAFkAZQBhAHIAQwBFACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGEAZABqAHUAcwB0AGUAZABPAHIAZABpAG4AYQBsAEQAYQB5ACwAIABfAG8AcgBkAGkAbgBhAGwARABhAHkAIAAtACAAXwB0AGgAaQBzAFkAZQBhAHIARABhAHkAQwBvAHUAbgB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgAUgBlAHQAdQByAG4ATwByAGQAaQBuAGEAbAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAG4AZQB4AHQAWQBlAGEAcgAsACAAXwBhAGQAagB1AHMAdABlAGQATwByAGQAaQBuAGEAbABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAFIATwBNAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAKABfAG4AZQB4AHQAWQBlAGEAcgAsACAAXwBhAGQAagB1AHMAdABlAGQATwByAGQAaQBuAGEAbABEAGEAeQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGwAYQBzAHQAIABkAGEAeQAgAG8AZgAgAGEAIABsAGUAYQBwACAAeQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAFIAZQB0AHUAcgBuAE8AcgBkAGkAbgBhAGwAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFkAZQBhAHIAQwBFACwAIABfAG8AcgBkAGkAbgBhAGwARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABfAG8AcgBkAGkAbgBhAGwARABhAHkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVgBBAEwASQBEAEEAVABFAF8AQwBIAEEAUgBBAEMAVABFAFIAUwBcAG4AXABuAFQAZQBzAHQAcwAgAGkAZgAgAHQAZQB4AHQAIABjAG8AbgB0AGEAaQBuAHMAIABvAG4AbAB5ACAAYwBoAGEAcgBhAGMAdABlAHIAcwAgAHQAaABhAHQAIABhAHIAZQAgAHYAYQBsAGkAZAAgAGYAbwByACAASQBTAE8AIAA4ADYAMAAxAC4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAYgBvAG8AbABlAGEAbgAuACAAQQBuACAAZQBtAHAAdAB5ACAAcwB0AHIAaQBuAGcAIAByAGUAdAB1AHIAbgBzACAAbgB1AGwAbAAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVABlAHgAdAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8ACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIAB0AGUAeAB0AC4AXABuAFsAUwB1AGIAcwBlAHQAXQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFMAdQBiAHMAZQB0ACAAZgBvAHIAbQBhAHQAIAB0AG8AIABtAGEAdABjAGgAXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAegBvAG4AZQAgACAAKwAsAC0ALgAwADEAMgAzADQANQA2ADcAOAA5ADoAVABXAFoAEiIgACgAZABlAGYAYQB1AGwAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABkAGEAdABlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACsALQAwADEAMgAzADQANQA2ADcAOAA5AFcAEiJcAG4AIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADIAIAAtACAAdABpAG0AZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAsAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AFQAXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAzACAALQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAtADAAMQAyADMANAA1ADYANwA4ADkAOgBaABIiXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA0ACAALQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAsAC0ALgAwADEAMgAzADQANQA2ADcAOAA5ADoAVABXABIiXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA1ACAALQAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAIAAgACAAIAAgACAAKwAsAC0ALgAwADEAMgAzADQANQA2ADcAOAA5ADoAVABaABIiXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA2ACAALQAgAGQAdQByAGEAdABpAG8AbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALAAtAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUwBUAFcAWQBcAG4AIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADcAIAAtACAAaQBuAHQAZQByAHYAYQBsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAArACwALQAuAC8AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUwBUAFcAWQBaABIiXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA4ACAALQAgAGYAdQBsAGwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAsAC0ALgAvADAAMQAyADMANAA1ADYANwA4ADkAOgBEAEgATQBQAFIAUwBUAFcAWQBaABIiXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFYAQQBMAEkARABBAFQARQBfAEMASABBAFIAQQBDAFQARQBSAFMAIAA9ACAATABBAE0AQgBEAEEAKABUAGUAeAB0ACwAIABbAFMAdQBiAHMAZQB0AF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAsACAASQBOAFQAKABOACgAUwB1AGIAcwBlAHQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgBTAGUAdAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACAAPAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBUAFcAWgBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBkAHgAIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGQAYQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsALQAwADEAMgAzADQANQA2ADcAOAA5AFcAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGkAbQBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgAsAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AFQAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAgAD0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABpAG0AZQAgAHoAbwBuAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsALQAwADEAMgAzADQANQA2ADcAOAA5ADoAWgBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBkAHgAIAA9ACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsALAAtAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AFQAVwBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBkAHgAIAA9ACAANQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBUAFoAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACAAPQAgADYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABkAHUAcgBhAHQAaQBvAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBEAEgATQBQAFMAVABXAFkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAgAD0AIAA3ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAaQBuAHQAZQByAHYAYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArACwALQAuAC8AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUwBUAFcAWQBaAFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAgAD4APQAgADgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABmAHUAbABsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArACwALQAuAC8AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUgBTAFQAVwBZAFoAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHMAYwBhAHAAZQBUAGUAeAB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAUwBVAEIAUwBUAEkAVABVAFQARQAoAFQAZQB4AHQALAAgAFwAIgAmAFwAIgAsACAAXAAiACYAYQBtAHAAOwBcACIAKQAsACAAXAAiADwAXAAiACwAIABcACIAJgBsAHQAOwBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHgAbQBsACwAIABcACIAPAB0AD4APABzAD4AXAAiACAAJgAgAF8AZQBzAGMAYQBwAGUAVABlAHgAdAAgACYAIABcACIAPAAvAHMAPgA8AC8AdAA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHgAcABhAHQAaAAsACAAXAAiAC8ALwBzAFsAdAByAGEAbgBzAGwAYQB0AGUAKAAuACwAJwBcACIAIAAmACAAXwBjAGgAYQByAFMAZQB0ACAAJgAgAFwAIgAnACwAJwAnACkAPQAnACcAXQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMARQBSAFIATwBSACgARgBJAEwAVABFAFIAWABNAEwAKABfAHgAbQBsACwAIABfAHgAcABhAHQAaAApACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AUABBAFIAUwBFAF8ARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHkAZQBhAHIALAAgAG0AbwBuAHQAaAAgAGEAbgBkACAAZABhAHkAIABvAGYAIABhACAAZABhAHQAZQAgAGYAcgBvAG0AIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuAFwAbgBOAG8AdABlACAAWQBZAFkAWQBNAE0AIABpAHMAIABpAG4AdgBhAGwAaQBkACwAIABkAHUAZQAgAHQAbwAgAGMAbwBsAGwAaQBzAGkAbwBuACAAdwBpAHQAaAAgAHQAcgB1AG4AYwBhAHQAZQBkACAAZgBvAHIAbQBhAHQAIABZAFkATQBNAEQARAAgAGkAbgAgAGUAYQByAGwAaQBlAHIAIAB2AGUAcgBzAGkAbwBuAHMAIABvAGYAIABJAFMATwAgADgANgAwADEALgBcAG4AXABuAEMAbwBsAHUAbQBuAHMAOgBcAG4AIAAgADEAIAB8ACAASQBTAE8AQwBvAG0AcABsAGkAYQBuAHQAIAB8ACAAYgBvAG8AbABlAGEAbgAgAHwAIABGAGwAYQBnACAAaQBmACAAYwBvAG0AcABsAGkAYQBuAHQAIAB0AG8AIABJAFMATwAgADgANgAwADEAIABzAHQAYQBuAGQAYQByAGQAXABuACAAIAAyACAAfAAgAFAAcgBlAGMAaQBzAGkAbwBuACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMAAgAC0AIABpAG4AdgBhAGwAaQBkACAAdgBhAGwAdQBlAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADEAIAAtACAAeQBlAGEAcgBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAyACAALQAgAG0AbwBuAHQAaAAvAHcAZQBlAGsAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMwAgAC0AIABkAGEAeQBcAG4AIAAgADMAIAB8ACAARgBvAHIAbQBhAHQAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAxACAALQAgAGIAYQBzAGkAYwBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAyACAALQAgAGUAeAB0AGUAbgBkAGUAZABcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAANAAgAHwAIABEAGEAdABlAFQAeQBwAGUAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEAIAAtACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAyACAALQAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADMAIAAtACAAdwBlAGUAawAgAGQAYQB0AGUAXABuACAAIAA1ACAAfAAgAFkAZQBhAHIAIABDAEUAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAgACAANgAgAHwAIABEAGEAdABlAEEAcgBnADEAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgADEALgAuADEAMgAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABFAG0AcAB0AHkAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADIAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAVwBlAGUAawAgADEALgAuADUAMwAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMwBcAG4AIAAgADcAIAB8ACAARABhAHQAZQBBAHIAZwAyACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABEAGEAeQAgADEALgAuADMAMQAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABPAHIAZABpAG4AYQBsACAAMQAuAC4AMwA2ADYAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADIAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAARABhAHkAIABvAGYAIABXAGUAZQBrACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMwBcAG4AIAAgACAAIAAgACAAIAAgAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBUAGUAeAB0ACAAIAAgACAAIAAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAB8ACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIABkAGEAdABlAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIABFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgACsAWQBZAFkAWQBZAC0ATQBNAC0ARABEACwAIAAtAFkAWQBZAFkALQBNAE0ALQBEAEQALAAgAFkAWQBZAFkALQBNAE0ALQBEAEQALAAgAFkAWQBZAFkALQBNAE0ALAAgAFkAWQBZAFkATQBNAEQARAAsACAAWQBZAFkAWQBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AUABBAFIAUwBFAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFQAZQB4AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAGwAdQBtAG4AcwA6ACAASABhAHMAaAAsACAAUAByAGUAYwBpAHMAaQBvAG4ALAAgAEYAbwByAG0AYQB0ACwAIABEAGEAdABlAFQAeQBwAGUALAAgAFkAZQBhAHIATABlAG4ALAAgAEQAYQB0AGUAQQByAGcAMQBQAG8AcwAsACAARABhAHQAZQBBAHIAZwAxAEwAZQBuACwAIABEAGEAdABlAEEAcgBnADIATABlAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAB3AGgAZQByAGUAIABIAGEAcwBoACAAPQAgACgATABFAE4AIAAqACAANAAwADkANgApACAAKwAgACgASAB5AHAAaABlAG4AUABvAHMAIAAqACAAMgA1ADYAKQAgACsAIAAoAEgAeQBwAGgAZQBuADIAUABvAHMAIAAqACAAMQA2ACkAIAArACAAVwBQAG8AcwAgAFwAbgAgACAAIAAgACAAIAAgACAAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAewBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA2ADMAOAA0ACwAIAAxACwAIAAzACwAIAAxACwAIAA0ACwAIAAwACwAIAAwACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAMAA0ADgAMAAsACAAMQAsACAAMwAsACAAMQAsACAANQAsACAAMAAsACAAMAAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyADgANgA3ADIALAAgADMALAAgADEALAAgADIALAAgADQALAAgADAALAAgADAALAAgADMAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgA4ADYANwA3ACwAIAAyACwAIAAxACwAIAAzACwAIAA0ACwAIAA2ACwAIAAyACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAOQA5ADUAMgAsACAAMgAsACAAMgAsACAAMQAsACAANAAsACAANgAsACAAMgAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADIANwA2ADgALAAgADMALAAgADEALAAgADEALAAgADQALAAgADUALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAyADcANwAzACwAIAAzACwAIAAxACwAIAAzACwAIAA0ACwAIAA2ACwAIAAyACwAIAAxADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAMgA3ADcANAAsACAAMgAsACAAMQAsACAAMwAsACAANQAsACAANwAsACAAMgAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADQAMAA0ADgALAAgADMALAAgADIALAAgADIALAAgADQALAAgADAALAAgADAALAAgADMAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwA0ADAANQA0ACwAIAAyACwAIAAyACwAIAAzACwAIAA0ACwAIAA3ACwAIAAyACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMANAAzADAANAAsACAAMgAsACAAMgAsACAAMQAsACAANQAsACAANwAsACAAMgAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADYAOAA2ADQALAAgADMALAAgADEALAAgADEALAAgADUALAAgADYALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwA2ADgANwAwACwAIAAzACwAIAAxACwAIAAzACwAIAA1ACwAIAA3ACwAIAAyACwAIAAxADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAOAA0ADAAMAAsACAAMwAsACAAMgAsACAAMgAsACAANQAsACAAMAAsACAAMAAsACAAMwA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADgANAAwADcALAAgADIALAAgADIALAAgADMALAAgADUALAAgADgALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAAyADMANgA4ACwAIAAzACwAIAAyACwAIAAxACwAIAA0ACwAIAA2ACwAIAAyACwAIAAyADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQAMgAzADkAMAAsACAAMwAsACAAMgAsACAAMwAsACAANAAsACAANwAsACAAMgAsACAAMQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAA0ADYANwAzADYALAAgADMALAAgADIALAAgADEALAAgADUALAAgADcALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAA2ADcANQA5ACwAIAAzACwAIAAyACwAIAAzACwAIAA1ACwAIAA4ACwAIAAyACwAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACwAIABMAEEATQBCAEQAQQAoAF8AZQB4AGMAZQBwAHQAaQBvAG4ALAAgAFsAXwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAIABbAF8AZQB4AHQAZQBuAGQAZQBkAF0ALAAgAFsAXwBkAGEAdABlAFQAeQBwAGUAXQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAGUAeABjAGUAcAB0AGkAbwBuACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAIABuAHUAbABsACAAIABFAG0AcAB0AHkAIAB0AGUAeAB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABOAC8AQQAgACAAIABVAG4AYQBiAGwAZQAgAHQAbwAgAHAAYQByAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAVgBBAEwAVQBFACAASQBuAHYAYQBsAGkAZAAgAHYAYQBsAHUAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABQAHIAZQBjAGkAcwBpAG8AbgAgAG8AZgAgAHAAYQByAHMAZQBkACAAdgBhAGwAdQBlAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AZQB4AHQAZQBuAGQAZQBkACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFAAYQByAHMAZQBkACAAZQB4AHQAZQBuAGQAZQBkACAAZgBvAHIAbQBhAHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AZABhAHQAZQBUAHkAcABlACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEMAYQBsAGUAbgBkAGEAcgAgAGQAYQB0AGUALAAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlACwAIABvAHIAIAB3AGUAZQBrACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsARgBBAEwAUwBFACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBWAEEATABVAEUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAEYAQQBMAFMARQAsACAAMAAsACAATgAoAF8AZQB4AHQAZQBuAGQAZQBkACkALAAgAE4AKABfAGQAYQB0AGUAVAB5AHAAZQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgARgBBAEwAUwBFACwAIAAwACwAIABOACgAXwBlAHgAdABlAG4AZABlAGQAKQAsACAATgAoAF8AZABhAHQAZQBUAHkAcABlACkALAAgAHsAIwBWAEEATABVAEUAIQAsACAAIwBWAEEATABVAEUAIQAsACAAXAAiAFwAIgB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAALwAvAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAEYAQQBMAFMARQAsACAAMAAsACAATgAoAF8AZQB4AHQAZQBuAGQAZQBkACkALAAgAE4AKABfAGQAYQB0AGUAVAB5AHAAZQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgAVgBBAEwASQBEAEEAVABFAF8AQwBIAEEAUgBBAEMAVABFAFIAUwAoAFQAZQB4AHQALAAgADEAKQApACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIATgAvAEEAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBTAGkAZwBuACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUARgBUACgAVABlAHgAdAAsACAAMQApACAAPQAgAFwAIgArAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBGAFQAKABUAGUAeAB0ACwAIAAxACkAIAA9ACAAXAAiAC0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVQBOAEkAQwBPAEQARQAoAEwARQBGAFQAKABUAGUAeAB0ACwAIAAxACkAKQAgAD0AIAA4ADcAMgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAUwBpAGcAbgAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAEYAVAAoAFQAZQB4AHQALAAgADEAKQAgAD0AIABcACIALQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFUATgBJAEMATwBEAEUAKABMAEUARgBUACgAVABlAHgAdAAsACAAMQApACkAIAA9ACAAOAA3ADIAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAbgAsACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAATgAoAF8AaABhAHMAUwBpAGcAbgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHQAZQAsACAASQBGACgAXwBoAGEAcwBTAGkAZwBuACwAIABSAEkARwBIAFQAKABUAGUAeAB0ACwAIABfAGwAZQBuACkALAAgAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBIAHkAcABoADEAUABvAHMALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiAC0AXAAiACwAIABfAHMARABhAHQAZQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ASAB5AHAAaAAyAFAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgAtAFwAIgAsACAAXwBzAEQAYQB0AGUALAAgAF8ASAB5AHAAaAAxAFAAbwBzACAAKwAgADEAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFcAcABvAHMALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiAFcAXAAiACwAIABfAHMARABhAHQAZQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaAAsACAAKABfAGwAZQBuACAAKgAgADQAMAA5ADYAKQAgACsAIAAoAF8ASAB5AHAAaAAxAFAAbwBzACAAKgAgADIANQA2ACkAIAArACAAKABfAEgAeQBwAGgAMgBQAG8AcwAgACoAIAAxADYAKQAgACsAIABfAFcAcABvAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaABMAGsAdQBwACwAIABJAEYATgBBACgAWABNAEEAVABDAEgAKABfAGgAYQBzAGgALAAgAEMASABPAE8AUwBFAEMATwBMAFMAKABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIAAxACkALAAgADAAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGgAYQBzAGgATABrAHUAcAAgAD0AIAAwACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIATgAvAEEAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBmAG4ALAAgAEMASABPAE8AUwBFAFIATwBXAFMAKABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIABfAGgAYQBzAGgATABrAHUAcAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeAB0AGUAbgBkAGUAZAAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABfAHkAZQBhAHIAUwBpAGcAbgAgACoAIABWAEEATABVAEUAKABMAEUARgBUACgAXwBzAEQAYQB0AGUALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAANQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABBAHIAZwAxACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgADwAIAAyACkAIAArACAAKABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADYAKQAgAD0AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAE0ASQBEACgAXwBzAEQAYQB0AGUALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAANgApACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADcAKQApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABBAHIAZwAyACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA8ACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAUgBJAEcASABUACgAXwBzAEQAYQB0AGUALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAOAApACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB2AGEAbABpAGQALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAxACwAIABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAXwB5AGUAYQByAEMARQAsACAAXwBkAEEAcgBnADEALAAgAF8AZABBAHIAZwAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADIALAAgAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAXwB5AGUAYQByAEMARQAsACAAXwBkAEEAcgBnADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMwAsACAASQBTAF8AVgBBAEwASQBEAF8AVwBFAEUASwBfAEQAQQBUAEUAKABfAHkAZQBhAHIAQwBFACwAIABfAGQAQQByAGcAMQAsACAAXwBkAEEAcgBnADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAVABSAFUARQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwB2AGEAbABpAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAVABSAFUARQAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAXwBlAHgAdABlAG4AZABlAGQALAAgAF8AZABhAHQAZQBUAHkAcABlACwAIABfAHkAZQBhAHIAQwBFACwAIABfAGQAQQByAGcAMQAsACAAXwBkAEEAcgBnADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAFYAQQBMAFUARQBcACIALAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAF8AZQB4AHQAZQBuAGQAZQBkACwAIABfAGQAYQB0AGUAVAB5AHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFAAQQBSAFMARQBfAFQASQBNAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABoAG8AdQByACwAIABtAGkAbgB1AHQAZQAgAGEAbgBkACAAcwBlAGMAbwBuAGQAIABvAGYAIAB0AGkAbQBlACAAZgByAG8AbQAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuACAAIAAxACAAfAAgAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACAAfAAgAGIAbwBvAGwAZQBhAG4AIAB8ACAARgBsAGEAZwAgAGkAZgAgAGMAbwBtAHAAbABpAGEAbgB0ACAAdABvACAASQBTAE8AIAA4ADYAMAAxACAAcwB0AGEAbgBkAGEAcgBkAFwAbgAgACAAMgAgAHwAIABQAHIAZQBjAGkAcwBpAG8AbgAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADAAIAAtACAAaQBuAHYAYQBsAGkAZAAgAHYAYQBsAHUAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAxACAALQAgAGgAbwB1AHIAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABtAGkAbgB1AHQAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGkAbgB0AGUAZwBlAHIAIABzAGUAYwBvAG4AZABcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAA0ACAALQAgAHMAZQBjAG8AbgBkACAAMAAuADAAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAANQAgAC0AIABzAGUAYwBvAG4AZAAgADAALgAwADAAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAANgAgAC0AIABzAGUAYwBvAG4AZAAgADAALgAwADAAMABcAG4AIAAgADMAIAB8ACAARgBvAHIAbQBhAHQAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAxACAALQAgAGIAYQBzAGkAYwBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAyACAALQAgAGUAeAB0AGUAbgBkAGUAZABcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAANAAgAHwAIABIAG8AdQByACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADAALgAuADIANABcAG4AIAAgADUAIAB8ACAATQBpAG4AdQB0AGUAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwAC4ALgA1ADkAXABuACAAIAA2ACAAfAAgAFMAZQBjAG8AbgBkACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMAAuAC4ANQA5AC4AOQA5ADkAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBUAGUAeAB0ACAAIAAgACAAIAAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAB8ACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIAB0AGkAbQBlAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIABFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgAFQAaABoADoAbQBtADoAcwBzAC4AcwBzAHMALAAgAFQAaABoADoAbQBtADoAcwBzACwAIABUAGgAaABtAG0ALAAgAFQAaABoAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBUAEkATQBFACAAPQAgAEwAQQBNAEIARABBACgAVABlAHgAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbAB1AG0AbgBzADoAIABIAGEAcwBoACwAIABQAHIAZQBjAGkAcwBpAG8AbgAsACAARgBvAHIAbQBhAHQALAAgAE0AaQBuAHUAdABlAFAAbwBzACwAIABTAGUAYwBvAG4AZABMAGUAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAHcAaABlAHIAZQAgAEgAYQBzAGgAIAA9ACAAKABMAEUATgAgACoAIAA0ADAAOQA2ACkAIAArACAAKABDAG8AbABvAG4AMQBQAG8AcwAgACoAIAAyADUANgApACAAKwAgACgAQwBvAGwAbwBuADIAUABvAHMAIAAqACAAMQA2ACkAIAArACAARABlAGMAaQBtAGEAbABQAG8AcwAgAFwAbgAgACAAIAAgACAAIAAgACAAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAewBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAOAAxADkAMgAsACAAMQAsACAAMwAsACAAMAAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADYAMwA4ADQALAAgADIALAAgADEALAAgADMALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgA0ADUANwA2ACwAIAAzACwAIAAxACwAIAAzACwAIAAyADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAMgA3ADcANQAsACAANAAsACAAMQAsACAAMwAsACAANAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADYAOAA3ADEALAAgADUALAAgADEALAAgADMALAAgADUAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAAwADkANgA3ACwAIAA2ACwAIAAxACwAIAAzACwAIAA2ADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAMQAyADQAOAAsACAAMgAsACAAMgAsACAANAAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADMANgAzADIALAAgADMALAAgADIALAAgADQALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAAxADgAMwAzACwAIAA0ACwAIAAyACwAIAA0ACwAIAA0ADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQANQA5ADIAOQAsACAANQAsACAAMgAsACAANAAsACAANQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAA1ADAAMAAyADUALAAgADYALAAgADIALAAgADQALAAgADYAXABuACAAIAAgACAAIAAgACAAIAB9ACwAXABuACAAIAAgACAAIAAgACAAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4ALAAgAEwAQQBNAEIARABBACgAXwBlAHgAYwBlAHAAdABpAG8AbgAsACAAWwBfAHAAcgBlAGMAaQBzAGkAbwBuAF0ALAAgAFsAXwBlAHgAdABlAG4AZABlAGQAXQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAGUAeABjAGUAcAB0AGkAbwBuACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAIABuAHUAbABsACAAIABFAG0AcAB0AHkAIAB0AGUAeAB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABOAC8AQQAgACAAIABVAG4AYQBiAGwAZQAgAHQAbwAgAHAAYQByAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAVgBBAEwAVQBFACAASQBuAHYAYQBsAGkAZAAgAHYAYQBsAHUAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABQAHIAZQBjAGkAcwBpAG8AbgAgAG8AZgAgAHAAYQByAHMAZQBkACAAdgBhAGwAdQBlAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AZQB4AHQAZQBuAGQAZQBkACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFAAYQByAHMAZQBkACAAZQB4AHQAZQBuAGQAZQBkACAAZgBvAHIAbQBhAHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIATgAvAEEAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AEYAQQBMAFMARQAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIAVgBBAEwAVQBFAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABGAEEATABTAEUALAAgADAALAAgAE4AKABfAGUAeAB0AGUAbgBkAGUAZAApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgARgBBAEwAUwBFACwAIAAwACwAIABOACgAXwBlAHgAdABlAG4AZABlAGQAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIABcACIAXAAiAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAvAC8AXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgARgBBAEwAUwBFACwAIAAwACwAIABOACgAXwBlAHgAdABlAG4AZABlAGQAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBDAG8AdQBuAHQAQwBoAGEAcgBzACwAIABMAEEATQBCAEQAQQAoAEMAaABhAHIAQQByAHIAYQB5ACwAIABUAGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAGUAbQBvAHYAZQBkACwAIABSAEUARABVAEMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEMAaABhAHIAQQByAHIAYQB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAXwBhAGMAYwAsACAAXwBjAHUAcgByACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAXwBhAGMAYwAsACAAXwBjAHUAcgByACwAIABcACIAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBOACgAVABlAHgAdAApACAALQAgAEwARQBOACgAXwByAGUAbQBvAHYAZQBkACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBGAGkAbgBkAE4AdABoAEMAaABhAHIAUABvAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBzACwAIABUAGUAeAB0ACwAIABOACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByAEMAbwB1AG4AdAAsACAATABFAE4AKABDAGgAYQByAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgAsACAASQBOAFQAKABOACgATgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBjAGgAYQByAEMAbwB1AG4AdAAgAD0AIAAwACkAIAArACAAKABfAG4AIAA9ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAcwAsACAATQBJAEQAKABDAGgAYQByAHMALAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AYwBoAGEAcgBDAG8AdQBuAHQAKQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAG4AZABDAG8AdQBuAHQALAAgAGYAbgBDAG8AdQBuAHQAQwBoAGEAcgBzACgAXwBjAGgAYQByAHMALAAgAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACAAPAAgAEEAQgBTACgAXwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG4AdABoACAAYwBhAG4AIABjAG8AdQBuAHQAIABmAHIAbwBtACAAZQBuAGQAIABiAGEAYwBrAHcAYQByAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgB0AGgALAAgAEkARgAoAF8AbgAgAD4AIAAwACwAIABfAG4ALAAgAF8AZgBpAG4AZABDAG8AdQBuAHQAIAArACAAXwBuACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAHQAaABQAG8AcwAsACAAUgBFAEQAVQBDAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEUAUQBVAEUATgBDAEUAKAAxACwAIABfAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBjAGMAIAA8ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACwAIABJAEYARQBSAFIATwBSACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAE4ARAAoAF8AYwBoAGEAcgBzACwAIABUAGUAeAB0ACwAIABfAGEAYwBjACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFAAbwBzACwAIABNAEkATgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYASQBMAFQARQBSACgAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAsACAAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAgAD4AIAAwACwAIAAwACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBuAGUAeAB0AFAAbwBzACAAPQAgADAALAAgAC0AMQAsACAAXwBuAGUAeAB0AFAAbwBzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAF8AbgB0AGgAUABvAHMALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAVABlAHgAdAAgAD0AIABcACIAXAAiACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTACgAVABlAHgAdAAsACAAMgApACkALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFQAcABvAHMALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiAFQAXAAiACwAIABUAGUAeAB0ACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBUAHAAbwBzACAAPgAgADEALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBUAGkAbQBlACwAIABJAEYAKABfAFQAcABvAHMAIAA9ACAAMQAsACAAUgBJAEcASABUACgAVABlAHgAdAAsACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAAMQApACwAIABUAGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACwAIABMAEUATgAoAF8AcwBUAGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAbwBsAG8AbgAxAFAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgA6AFwAIgAsACAAXwBzAFQAaQBtAGUAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AbABvAG4AMgBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAOgBcACIALAAgAF8AcwBUAGkAbQBlACwAIABfAGMAbwBsAG8AbgAxAFAAbwBzACAAKwAgADEAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwBpAG0AYQBsAFAAbwBzACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiAC4ALABcACIALAAgAF8AcwBUAGkAbQBlACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgALAAgACgAXwBsAGUAbgAgACoAIAA0ADAAOQA2ACkAIAArACAAKABfAGMAbwBsAG8AbgAxAFAAbwBzACAAKgAgADIANQA2ACkAIAArACAAKABfAGMAbwBsAG8AbgAyAFAAbwBzACAAKgAgADEANgApACAAKwAgAF8AZABlAGMAaQBtAGEAbABQAG8AcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaABMAGsAdQBwACwAIABJAEYATgBBACgAWABNAEEAVABDAEgAKABfAGgAYQBzAGgALAAgAEMASABPAE8AUwBFAEMATwBMAFMAKABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIAAxACkALAAgADAAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBoAGEAcwBoAEwAawB1AHAAIAA9ACAAMAAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBmAG4ALAAgAEMASABPAE8AUwBFAFIATwBXAFMAKABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIABfAGgAYQBzAGgATABrAHUAcAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQB4AHQAZQBuAGQAZQBkACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAbwB1AHIALAAgAFYAQQBMAFUARQAoAEwARQBGAFQAKABfAHMAVABpAG0AZQAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAGkAbgB1AHQAZQAsACAASQBGACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgADwAIAAyACwAIABcACIAXAAiACwAIABWAEEATABVAEUAKABNAEkARAAoAF8AcwBUAGkAbQBlACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADQAKQAsACAAMgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAEwAZQBuACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA8ACAAMwAsACAAXAAiAFwAIgAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AcwBUAGkAbQBlACwAIABfAHMAZQBjAEwAZQBuACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAC8ALwAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+ACAAMwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGMAYQBuAG8AdAAgAGEAcwBzAHUAbQBlACAAVgBBAEwAVQBFACAAZgB1AG4AYwB0AGkAbwBuACAAdwBpAGwAbAAgAHUAcwBlACAAZABlAGMAaQBtAGEAbAAgAGMAaABhAHIAYQBjAHQAZQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB3AGgAZQBuACAARQB4AGMAZQBsACAAaABhAHMAIABuAG8AbgAtAGUAbgBnAGwAaQBzAGgAIABSAGUAZwBpAG8AbgBhAGwAIABzAGUAdAB0AGkAbgBnAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBTAGUAYwAsACAAUgBJAEcASABUACgAXwBzAFQAaQBtAGUALAAgAF8AcwBlAGMATABlAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAbgB0AFMAZQBjACwAIABWAEEATABVAEUAKABMAEUARgBUACgAXwBzAFMAZQBjACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAcgBhAGMAUwBlAGMALAAgAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AcwBTAGUAYwAsACAAXwBzAGUAYwBMAGUAbgAgAC0AIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjAGkAbQBhAGwAQgBhAHMAZQAsACAASQBOAEQARQBYACgAewAxADAALAAgADEAMAAwACwAIAAxADAAMAAwAH0ALAAgADEAIAAsAF8AcAByAGUAYwBpAHMAaQBvAG4AIAAtACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQAUwBlAGMAIAArACAAKABfAGYAcgBhAGMAUwBlAGMAIAAvACAAXwBkAGUAYwBpAG0AYQBsAEIAYQBzAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFACgAXwBoAG8AdQByACwAIABfAG0AaQBuAHUAdABlACwAIABfAHMAZQBjAG8AbgBkACkAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAFYAQQBMAFUARQBcACIALAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAF8AZQB4AHQAZQBuAGQAZQBkACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoACgAXwBUAHAAbwBzACAAPQAgADEAKQAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAXwBlAHgAdABlAG4AZABlAGQALAAgAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXwBzAGUAYwBvAG4AZAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBUAEkATQBFAF8AWgBPAE4ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuACAAIAAxACAAfAAgAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACAAIAB8ACAAYgBvAG8AbABlAGEAbgAgAHwAIABGAGwAYQBnACAAaQBmACAAYwBvAG0AcABsAGkAYQBuAHQAIAB0AG8AIABJAFMATwAgADgANgAwADEAIABzAHQAYQBuAGQAYQByAGQAXABuACAAIAAyACAAfAAgAFAAcgBlAGMAaQBzAGkAbwBuACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwACAALQAgAGkAbgB2AGEAbABpAGQAIAB2AGEAbAB1AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAxACAALQAgAGgAbwB1AHIAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAyACAALQAgAG0AaQBuAHUAdABlAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMwAgAC0AIABzAGUAYwBvAG4AZABcAG4AIAAgADMAIAB8ACAARgBvAHIAbQBhAHQAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEAIAAtACAAYgBhAHMAaQBjAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABlAHgAdABlAG4AZABlAGQAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAANQAgAHwAIABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAALQA5ADAAMAAuAC4AKwA5ADAAMABcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAZQB4AHQAIAAgACAAIAAgACAAIAAgAHwAIABzAHQAcgBpAG4AZwAgAHwAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAB0AGUAZAAgAHQAaQBtAGUALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAAVABoAGgAOgBtAG0AOgBzAHMALgBzAHMAcwAsACAAVABoAGgAOgBtAG0AOgBzAHMALAAgAFQAaABoAG0AbQAsACAAVABoAGgAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFAAQQBSAFMARQBfAFQASQBNAEUAXwBaAE8ATgBFACAAPQAgAEwAQQBNAEIARABBACgAVABlAHgAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbAB1AG0AbgBzADoAIABIAGEAcwBoACwAIABQAHIAZQBjAGkAcwBpAG8AbgAsACAARQB4AHQAZQBuAGQAZQBkACwAIABaACwAIABNAGkAbgBQAG8AcwBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAHcAaABlAHIAZQAgAGgAYQBzAGgAIAA9ACAATABFAE4AIAAqACAAMQAwADIANAAgACsAIABaAG8AbgBsAHkAIAAqACAANQAxADIAIAArACAATABhAHMAdABTAGkAZwBuAFAAbwBzAEEAdAAxACAAKgAyADUANgAgACsAIABDAG8AbABvAG4AMQBQAG8AcwAgACoAIAAxADYAIAArACAAQwBvAGwAbwBuADIAUABvAHMAXABuACAAIAAgACAAIAAgACAAIABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIAB7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADUAMwA2ACwAIAAzACwAIAAzACwAIAAxACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAMwAyADgALAAgADEALAAgADMALAAgADAALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANQAzADcANgAsACAAMgAsACAAMQAsACAAMAAsACAANAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAA2ADQANgA0ACwAIAAyACwAIAAyACwAIAAwACwAIAA1ADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADcANAAyADQALAAgADMALAAgADEALAAgADAALAAgADQAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAOQA1ADQAMwAsACAAMwAsACAAMgAsACAAMAAsACAANQBcAG4AIAAgACAAIAAgACAAIAAgAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAsACAATABBAE0AQgBEAEEAKABfAGUAeABjAGUAcAB0AGkAbwBuACwAIABbAF8AZQB4AHQAZQBuAGQAZQBkAF0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8ACAAbgB1AGwAbAAgACAARQBtAHAAdAB5ACAAdABlAHgAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAATgAvAEEAIAAgACAAVQBuAGEAYgBsAGUAIAB0AG8AIABwAGEAcgBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAFYAQQBMAFUARQAgAEkAbgB2AGEAbABpAGQAIAB2AGEAbAB1AGUAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAdABlAG4AZABlAGQAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAUABhAHIAcwBlAGQAIABlAHgAdABlAG4AZABlAGQAIABmAG8AcgBtAGEAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsARgBBAEwAUwBFACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBWAEEATABVAEUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAEYAQQBMAFMARQAsACAAMAAsACAATgAoAF8AZQB4AHQAZQBuAGQAZQBkACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEMAbwB1AG4AdABDAGgAYQByAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBBAHIAcgBhAHkALAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHgAdAAgAD0AIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIAZQBtAG8AdgBlAGQALAAgAFIARQBEAFUAQwBFACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBoAGEAcgBBAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABfAGEAYwBjACwAIABfAGMAdQByAHIALAAgAFwAIgBcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAATABFAE4AKABfAHIAZQBtAG8AdgBlAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEYAaQBuAGQATgB0AGgAQwBoAGEAcgBQAG8AcwAsACAATABBAE0AQgBEAEEAKABDAGgAYQByAHMALAAgAFQAZQB4AHQALAAgAE4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAQwBvAHUAbgB0ACwAIABMAEUATgAoAEMAaABhAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuACwAIABJAE4AVAAoAE4AKABOACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAGMAaABhAHIAQwBvAHUAbgB0ACAAPQAgADAAKQAgACsAIAAoAF8AbgAgAD0AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgBzACwAIABNAEkARAAoAEMAaABhAHIAcwAsACAAUwBFAFEAVQBFAE4AQwBFACgAMQAsACAAXwBjAGgAYQByAEMAbwB1AG4AdAApACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAbgBkAEMAbwB1AG4AdAAsACAAZgBuAEMAbwB1AG4AdABDAGgAYQByAHMAKABfAGMAaABhAHIAcwAsACAAVABlAHgAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAG4AZABDAG8AdQBuAHQAIAA8ACAAQQBCAFMAKABfAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbgB0AGgAIABjAGEAbgAgAGMAbwB1AG4AdAAgAGYAcgBvAG0AIABlAG4AZAAgAGIAYQBjAGsAdwBhAHIAZABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAHQAaAAsACAASQBGACgAXwBuACAAPgAgADAALAAgAF8AbgAsACAAXwBmAGkAbgBkAEMAbwB1AG4AdAAgACsAIABfAG4AIAArACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AdABoAFAAbwBzACwAIABSAEUARABVAEMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAF8AYQBjAGMALAAgAF8AYwB1AHIAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBhAGMAYwAgADwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBlAHgAdABQAG8AcwBDAGgAYQByAHMALAAgAEkARgBFAFIAUgBPAFIAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEkATgBEACgAXwBjAGgAYQByAHMALAAgAFQAZQB4AHQALAAgAF8AYQBjAGMAIAArACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQB4AHQAUABvAHMALAAgAE0ASQBOACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAEwAVABFAFIAKABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACwAIABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACAAPgAgADAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAG4AZQB4AHQAUABvAHMAIAA9ACAAMAAsACAALQAxACwAIABfAG4AZQB4AHQAUABvAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0AQQBYACgAXwBuAHQAaABQAG8AcwAsACAAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAVABlAHgAdAAgAD0AIABcACIAXAAiACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTACgAVABlAHgAdAAsACAAMwApACkALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACwAIABMAEUATgAoAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBaAG8AbgBsAHkALAAgAE4AKAAoAF8AbABlAG4AIAA9ACAAMQApACAAKgAgACgASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAWgBcACIALAAgAFQAZQB4AHQAKQAsACAAMAApACAAPQAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAUwBpAGcAbgBQAG8AcwBBAHQAMQAsACAATgAoAGYAbgBGAGkAbgBkAE4AdABoAEMAaABhAHIAUABvAHMAKABcACIAKwAtAFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAIABUAGUAeAB0ACwAIAAtADEAKQAgAD0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGwAbwBuADEAUABvAHMALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiADoAXAAiACwAIABUAGUAeAB0ACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AbABvAG4AMgBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAOgBcACIALAAgAFQAZQB4AHQALAAgAF8AYwBvAGwAbwBuADEAUABvAHMAIAArACAAMQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaAAsACAAKABfAGwAZQBuACAAKgAgADEAMAAyADQAKQAgACsAIAAoAF8AWgBvAG4AbAB5ACAAKgAgADUAMQAyACkAIAArACAAKABfAGwAYQBzAHQAUwBpAGcAbgBQAG8AcwBBAHQAMQAgACoAIAAyADUANgApACAAKwAgACgAXwBjAG8AbABvAG4AMQBQAG8AcwAgACoAIAAxADYAKQAgACsAIABfAGMAbwBsAG8AbgAyAFAAbwBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgATABrAHUAcAAsACAASQBGAE4AQQAoAFgATQBBAFQAQwBIACgAXwBoAGEAcwBoACwAIABDAEgATwBPAFMARQBDAE8ATABTACgAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAMQApACwAIAAwACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBoAGEAcwBoAEwAawB1AHAAIAA9ACAAMAAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAZgBuACwAIABDAEgATwBPAFMARQBSAE8AVwBTACgAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAXwBoAGEAcwBoAEwAawB1AHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAdABlAG4AZABlAGQALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA0ACkAIAA+ACAAMAAsACAALwAvACAAWgAgAG8AbgBsAHkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFQAUgBVAEUALAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAF8AZQB4AHQAZQBuAGQAZQBkACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUARgBUACgAVABlAHgAdAAsACAAMQApACAAPQAgAFwAIgAtAFwAIgAsACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVQBOAEkAQwBPAEQARQAoAEwARQBGAFQAKABUAGUAeAB0ACwAIAAxACkAKQAgAD0AIAA4ADcAMgAyACwAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgAsACAAXwBzAGkAZwBuACAAKgAgAFYAQQBMAFUARQAoAE0ASQBEACgAVABlAHgAdAAsACAAMgAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAGkAbgB1AHQAZQAsACAASQBGACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgADwAIAAyACwAIABcACIAXAAiACwAIABWAEEATABVAEUAKABNAEkARAAoAFQAZQB4AHQALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAANQApACwAIAAyACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAGMAbwBuAGQALAAgAEkARgAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA8ACAAMwAsACAAXAAiAFwAIgAsACAAVgBBAEwAVQBFACgAUgBJAEcASABUACgAVABlAHgAdAAsACAAMgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAE0AaQBuAHUAdABlAHMALAAgAEkATgBUACgAKABOACgAXwBoAG8AdQByACkAIAAqACAAMwA2ADAAMAApACAAKwAgACgATgAoAF8AbQBpAG4AdQB0AGUAKQAgACoAIAA2ADAAKQAgACsAIABOACgAXwBzAGUAYwBvAG4AZAApACkAIAAvACAANgAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAKABfAHQAegBvAE0AaQBuAHUAdABlAHMAKQApACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAVgBBAEwAVQBFAFwAIgAsACAAXwBlAHgAdABlAG4AZABlAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAVABSAFUARQAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAXwBlAHgAdABlAG4AZABlAGQALAAgAF8AdAB6AG8ATQBpAG4AdQB0AGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBQAEEAUgBUAFMAXABuAFwAbgBTAHAAbABpAHQAcwAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AHQAZQBkACAAdABlAHgAdAAgAHYAYQBsAHUAZQAgAGkAbgB0AG8AIABpAG4AdABvACAAcgBlAHMAcABlAGMAdABpAHYAZQAgAHAAYQByAHQAcwAgAG8AZgAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuACAAIAAxACAAfAAgAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACAAfAAgAGIAbwBvAGwAZQBhAG4AIAB8ACAARgBsAGEAZwAgAGkAZgAgAGMAbwBtAHAAbABpAGEAbgB0ACAAdABvACAASQBTAE8AIAA4ADYAMAAxACAAcwB0AGEAbgBkAGEAcgBkAFwAbgAgACAAMgAgAHwAIABQAGEAcgB0AHMAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEIAaQB0AGYAbABhAGcAIABvAGYAIABwAGEAcgB0AHMAIAAwAC4ALgA3AFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADAAeAAwADEAIAAtACAAZABhAHQAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAwAHgAMAAyACAALQAgAHQAaQBtAGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMAB4ADAANAAgAC0AIAB0AGkAbQBlACAAegBvAG4AZQBcAG4AIAAgADMAIAB8ACAARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAXABuACAAIAA0ACAAfAAgAFQAaQBtAGUAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8AFwAbgAgACAANQAgAHwAIABUAGkAbQBlACAAWgBvAG4AZQAgACAAIAAgAHwAIABzAHQAcgBpAG4AZwAgACAAfABcAG4AIAAgACAAIAAgACAAXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAZQB4AHQAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAfAAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AHQAZQBkACAAdgBhAGwAdQBlACAAZgBvAHIAIABkAGEAdABlACwAIAB0AGkAbQBlACAAbwByACAAdABpAG0AZQAgAHoAbwBuAGUALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AUABBAFIAUwBFAF8AUABBAFIAVABTACAAPQAgAEwAQQBNAEIARABBACgAVABlAHgAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbAB1AG0AbgBzADoAIABIAGEAcwBoACwAIABJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAsACAAUABhAHIAdABzAEYAbABhAGcALAAgAEQAYQB0AGUATQBhAHIAawAsACAAVABaAE0AYQByAGsAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAB3AGgAZQByAGUAIABIAGEAcwBoACAAPQAgACgAXwBIAGEAcwBUACAAKgAgADEAMgA4ACkAIAArACAAKABfAFQAZgBpAHIAcwB0ACAAKgA2ADQAIAApACAAKwAgACgAXwBsAGEAcwB0AFMAaQBnAG4ARgBpAHIAcwB0AFAAbwBzACAAKgAgADMAMgApACAAKwAgACgAXwBoAGEAcwBaAG8AcgBTAGkAZwBuAEEAZgB0AGUAcgBUACAAKgAgADEANgApACAAKwAgACgAXwBaAG8AcgBTAGkAZwBuAEYAaQByAHMAdABBAGYAdABlAHIAVAAgACoAIAA4ACkAIAArACAAKABfAGMAbwBsAG8AbgBBAGYAdABlAHIATABhAHMAdABTAGkAZwBuACAAKgAgADQAKQAgACsAIAAoAF8AdQBuAHMAaQBnAG4AZQBkAEwAZQBuADIAbwByADYAIAAqACAAMgApACAAKwAgAF8AaABhAHMAWgBsAGEAcwB0AFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAUABhAHIAdABzAEYAbABhAGcAOgAgADAAIAAtACAAbgBvACAAcABhAHIAdABzAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEAIAAtACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyACAALQAgAHQAaQBtAGUAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAgAC0AIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQAIAAtACAAdABpAG0AZQAgAHoAbwBuAGUAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAANQAgAC0AIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlACAAegBvAG4AZQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAA2ACAALQAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgADcAIAAtACAAZABhAHQAZQAsACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABEAGEAdABlAE0AYQByAGsAIAA6ACAAMAAgAC0APgAgAG4AdQBsAGwAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAgAC0APgAgAF8AbABlAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAC0APgAgAF8AVABwAG8AcwAgAC0AIAAxAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAIAAtAD4AIABfAHMAaQBnAG4ATABhAHMAdABQAG8AcwAgAC0AIAAxAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQAIAAtAD4AIABfAGwAZQBuACAALQAgADEAXABuACAAIAAgACAAIAAgACAAIAAvAC8AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABUAFoATQBhAHIAawAgACAAIAAgACAAMAAgAC0APgAgAG4AdQBsAGwAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAgAC0APgAgADEAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAC0APgAgAF8AbABlAG4AIAAtACAAXwBzAGkAZwBuAEwAYQBzAHQAUABvAHMAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgAF8AbABvAGcAaQBjAEgAYQBzAGgAVABhAGIAbABlACwAIAB7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAIAAxACwAIAAxACwAIAAxACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALAAgADAALAAgADQALAAgADAALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAyACwAIAAxACwAIAAxACwAIAAxACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMANAAsACAAMAAsACAANAAsACAAMAAsACAAMgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADYALAAgADEALAAgADQALAAgADAALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAyADgALAAgADEALAAgADMALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAzADIALAAgADEALAAgADMALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA0ADQALAAgADEALAAgADcALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA0ADgALAAgADEALAAgADcALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA0ADkALAAgADEALAAgADcALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA1ADIALAAgADAALAAgADUALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA1ADMALAAgADAALAAgADUALAAgADIALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA1ADUALAAgADAALAAgADUALAAgADIALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA1ADYALAAgADAALAAgADUALAAgADIALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA2ADAALAAgADEALAAgADMALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA4ADUALAAgADAALAAgADUALAAgADIALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA5ADIALAAgADEALAAgADIALAAgADAALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA5ADYALAAgADEALAAgADIALAAgADAALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQA5ADgALAAgADEALAAgADIALAAgADAALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAwADgALAAgADEALAAgADYALAAgADAALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAwADkALAAgADEALAAgADYALAAgADAALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAxADIALAAgADEALAAgADYALAAgADAALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAxADMALAAgADEALAAgADYALAAgADAALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAxADYALAAgADAALAAgADQALAAgADAALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAxADkALAAgADAALAAgADQALAAgADAALAAgADEAXABuACAAIAAgACAAIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACwAIABMAEEATQBCAEQAQQAoAF8AZQB4AGMAZQBwAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8ACAAbgB1AGwAbAAgACAARQBtAHAAdAB5ACAAdABlAHgAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAATgAvAEEAIAAgACAAVQBuAGEAYgBsAGUAIAB0AG8AIABwAGEAcgBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIATgAvAEEAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AEYAQQBMAFMARQAsACAAMAAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEMAbwB1AG4AdABDAGgAYQByAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBBAHIAcgBhAHkALAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHgAdAAgAD0AIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIAZQBtAG8AdgBlAGQALAAgAFIARQBEAFUAQwBFACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBoAGEAcgBBAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABfAGEAYwBjACwAIABfAGMAdQByAHIALAAgAFwAIgBcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAATABFAE4AKABfAHIAZQBtAG8AdgBlAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBGAGkAbgBkAE4AdABoAEMAaABhAHIAUABvAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBzACwAIABUAGUAeAB0ACwAIABOACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByAEMAbwB1AG4AdAAsACAATABFAE4AKABDAGgAYQByAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgAsACAASQBOAFQAKABOACgATgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBjAGgAYQByAEMAbwB1AG4AdAAgAD0AIAAwACkAIAArACAAKABfAG4AIAA9ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAcwAsACAATQBJAEQAKABDAGgAYQByAHMALAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AYwBoAGEAcgBDAG8AdQBuAHQAKQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAG4AZABDAG8AdQBuAHQALAAgAGYAbgBDAG8AdQBuAHQAQwBoAGEAcgBzACgAXwBjAGgAYQByAHMALAAgAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACAAPAAgAEEAQgBTACgAXwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG4AdABoACAAYwBhAG4AIABjAG8AdQBuAHQAIABmAHIAbwBtACAAZQBuAGQAIABiAGEAYwBrAHcAYQByAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgB0AGgALAAgAEkARgAoAF8AbgAgAD4AIAAwACwAIABfAG4ALAAgAF8AZgBpAG4AZABDAG8AdQBuAHQAIAArACAAXwBuACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAHQAaABQAG8AcwAsACAAUgBFAEQAVQBDAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEUAUQBVAEUATgBDAEUAKAAxACwAIABfAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBjAGMAIAA8ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACwAIABJAEYARQBSAFIATwBSACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAE4ARAAoAF8AYwBoAGEAcgBzACwAIABUAGUAeAB0ACwAIABfAGEAYwBjACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFAAbwBzACwAIABNAEkATgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYASQBMAFQARQBSACgAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAsACAAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAgAD4AIAAwACwAIAAwACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBuAGUAeAB0AFAAbwBzACAAPQAgADAALAAgAC0AMQAsACAAXwBuAGUAeAB0AFAAbwBzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAF8AbgB0AGgAUABvAHMALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAVABlAHgAdAAgAD0AIABcACIAXAAiACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTACgAVABlAHgAdAAsACAAMAApACkALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACwAIABMAEUATgAoAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBUAHAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgBUAFwAIgAsACAAVABlAHgAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgBMAGEAcwB0AFAAbwBzACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiACsALQBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsACAAVABlAHgAdAAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGwAbwBuAEwAYQBzAHQAUABvAHMALAAgAGYAbgBGAGkAbgBkAE4AdABoAEMAaABhAHIAUABvAHMAKABcACIAOgBcACIALAAgAFQAZQB4AHQALAAgAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFoAbABhAHMAdABQAG8AcwAsACAAZgBuAEYAaQBuAGQATgB0AGgAQwBoAGEAcgBQAG8AcwAoAFwAIgBaAFwAIgAsACAAVABlAHgAdAAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAVAAsACAATgAoAF8AVABwAG8AcwAgAD4AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AVABmAGkAcgBzAHQALAAgAE4AKABfAFQAcABvAHMAIAA9ACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAUwBpAGcAbgBGAGkAcgBzAHQAUABvAHMALAAgAE4AKABfAHMAaQBnAG4ATABhAHMAdABQAG8AcwAgAD0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdQBuAHMAaQBnAG4AZQBkAEwAZQBuACwAIABfAGwAZQBuACAALQAgAF8AbABhAHMAdABTAGkAZwBuAEYAaQByAHMAdABQAG8AcwAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAFoAbwByAFMAaQBnAG4AQQBmAHQAZQByAFQALAAgACgAXwBUAHAAbwBzACAAPAA+ACAAMAApACAAKgAgACgAKAAoAF8AWgBsAGEAcwB0AFAAbwBzAD4AXwBUAHAAbwBzACkAIAArACAAKABfAHMAaQBnAG4ATABhAHMAdABQAG8AcwAgAD4AIABfAFQAcABvAHMAKQApACAAPAA+ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFoAbwByAFMAaQBnAG4ARgBpAHIAcwB0AEEAZgB0AGUAcgBUACwAIAAoAF8AVABwAG8AcwAgADwAPgAgADAAKQAgACoAIAAoACgAKABfAFoAbABhAHMAdABQAG8AcwAgAD0AIABfAFQAcABvAHMAIAArACAAMQApACAAKwAgACgAXwBzAGkAZwBuAEwAYQBzAHQAUABvAHMAIAA9ACAAXwBUAHAAbwBzACAAKwAgADEAKQApACAAPAA+ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAbwBsAG8AbgBBAGYAdABlAHIATABhAHMAdABTAGkAZwBuACwAIABOACgAXwBjAG8AbABvAG4ATABhAHMAdABQAG8AcwAgAD4AIABfAHMAaQBnAG4ATABhAHMAdABQAG8AcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAbgBzAGkAZwBuAGUAZABMAGUAbgAyAG8AcgA2ACwAIABOACgAKAAoAF8AdQBuAHMAaQBnAG4AZQBkAEwAZQBuACAAPQAgADIAKQAgACsAIAAoAF8AdQBuAHMAaQBnAG4AZQBkAEwAZQBuACAAPQAgADYAKQApADwAPgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAWgBsAGEAcwB0ACwAIABOACgAXwBaAGwAYQBzAHQAUABvAHMAIAA9ACAAXwBMAGUAbgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgALAAgACgAXwBoAGEAcwBUACAAKgAgADEAMgA4ACkAIAArACAAKABfAFQAZgBpAHIAcwB0ACAAKgAgADYANAApACAAKwAgACgAXwBsAGEAcwB0AFMAaQBnAG4ARgBpAHIAcwB0AFAAbwBzACAAKgAgADMAMgApACAAKwAgACgAXwBoAGEAcwBaAG8AcgBTAGkAZwBuAEEAZgB0AGUAcgBUACAAKgAgADEANgApACAAKwAgACgAXwBaAG8AcgBTAGkAZwBuAEYAaQByAHMAdABBAGYAdABlAHIAVAAgACoAIAA4ACkAIAArACAAKABfAGMAbwBsAG8AbgBBAGYAdABlAHIATABhAHMAdABTAGkAZwBuACAAKgAgADQAKQAgACsAIAAoAF8AdQBuAHMAaQBnAG4AZQBkAEwAZQBuADIAbwByADYAIAAqACAAMgApACAAKwAgAF8ASABhAHMAWgBsAGEAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgATABrAHUAcAAsACAASQBGAE4AQQAoAFgATQBBAFQAQwBIACgAXwBoAGEAcwBoACwAIABDAEgATwBPAFMARQBDAE8ATABTACgAXwBsAG8AZwBpAGMASABhAHMAaABUAGEAYgBsAGUALAAgADEAKQAsACAAMAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AaABhAHMAaABMAGsAdQBwACAAPQAgADAALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGYAbgAsACAAQwBIAE8ATwBTAEUAUgBPAFcAUwAoAF8AbABvAGcAaQBjAEgAYQBzAGgAVABhAGIAbABlACwAIABfAGgAYQBzAGgATABrAHUAcAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBDAG8AbQBwAGwAaQBhAG4AdAAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAAyACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAGEAcgB0AHMARgBsAGEAZwAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUATQBhAHIAawAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBNAGEAcgBrACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBMAGUAbgAsACAASQBGAFMAKABfAGQAYQB0AGUATQBhAHIAawAgAD0AIAAwACwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUATQBhAHIAawAgAD0AIAAxACwAIABfAGwAZQBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUATQBhAHIAawAgAD0AIAAyACwAIABfAFQAcABvAHMAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAE0AYQByAGsAIAA9ACAAMwAsACAAXwBzAGkAZwBuAEwAYQBzAHQAUABvAHMAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAE0AYQByAGsAIAA9ACAANAAsACAAXwBsAGUAbgAgAC0AIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBMAGUAbgAsACAASQBGACgAXwB0AHoATQBhAHIAawAgAD0AIAAyACwAIABfAGwAZQBuACAALQAgAF8AcwBpAGcAbgBMAGEAcwB0AFAAbwBzACAAKwAgADEALAAgAF8AdAB6AE0AYQByAGsAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBMAGUAbgAsACAAXwBsAGUAbgAgAC0AIABfAGQAYQB0AGUATABlAG4AIAAtACAAXwB0AHoATABlAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHQAZQAsACAASQBGACgAQgBJAFQAQQBOAEQAKABfAHAAYQByAHQAcwBGAGwAYQBnACwAIAAxACkAIAA9ACAAMAAsACAAXAAiAFwAIgAsACAATABFAEYAVAAoAFQAZQB4AHQALAAgAF8AZABhAHQAZQBMAGUAbgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVABpAG0AZQAsACAASQBGACgAQgBJAFQAQQBOAEQAKABfAHAAYQByAHQAcwBGAGwAYQBnACwAIAAyACkAIAA9ACAAMAAsACAAXAAiAFwAIgAsACAATQBJAEQAKABUAGUAeAB0ACwAIABfAGQAYQB0AGUATABlAG4AIAArACAAMQAsACAAXwB0AGkAbQBlAEwAZQBuACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBUAFoALAAgAEkARgAoAEIASQBUAEEATgBEACgAXwBwAGEAcgB0AHMARgBsAGEAZwAsACAANAApACAAPQAgADAALAAgAFwAIgBcACIALAAgAFIASQBHAEgAVAAoAFQAZQB4AHQALAAgAF8AdAB6AEwAZQBuACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwBpAHMAbwBDAG8AbQBwAGwAaQBhAG4AdAAsACAAXwBwAGEAcgB0AHMARgBsAGEAZwAsACAAXwBzAEQAYQB0AGUALAAgAF8AcwBUAGkAbQBlACwAIABfAHMAVABaACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBEAEEAVABFAF8AVABJAE0ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABvAGYAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgBcAG4AXABuAEMAbwBsAHUAbQBuAHMAOgBcAG4AIAAgADEAIAB8ACAASQBTAE8AQwBvAG0AcABsAGkAYQBuAHQAIAAgACAAfAAgAGIAbwBvAGwAZQBhAG4AIAB8ACAARgBsAGEAZwAgAGkAZgAgAGMAbwBtAHAAbABpAGEAbgB0ACAAdABvACAASQBTAE8AIAA4ADYAMAAxACAAcwB0AGEAbgBkAGEAcgBkAFwAbgAgACAAMgAgAHwAIABQAGEAcgB0AHMAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABCAGkAdABmAGwAYQBnACAAbwBmACAAcABhAHIAdABzACAAMAAuAC4ANwBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMAB4ADAAMQAgAC0AIABkAGEAdABlAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAwAHgAMAAyACAALQAgAHQAaQBtAGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADAAeAAwADQAIAAtACAAdABpAG0AZQAgAHoAbwBuAGUAXABuACAAIAAzACAAfAAgAFAAcgBlAGMAaQBzAGkAbwBuACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEAIAAtACAAeQBlAGEAcgBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABtAG8AbgB0AGgALwB3AGUAZQBrAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGQAYQB5AFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAA0ACAALQAgAGgAbwB1AHIAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADUAIAAtACAAbQBpAG4AdQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADYAIAAtACAAaQBuAHQAZQBnAGUAcgAgAHMAZQBjAG8AbgBkAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAA3ACAALQAgAHMAZQBjAG8AbgBkACAAMAAuADAAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADgAIAAtACAAcwBlAGMAbwBuAGQAIAAwAC4AMAAwAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAA5ACAALQAgAHMAZQBjAG8AbgBkACAAMAAuADAAMAAwAFwAbgAgACAANAAgAHwAIABGAG8AcgBtAGEAdAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwACAALQAgAG0AaQB4AGUAZABcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMQAgAC0AIABiAGEAcwBpAGMAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADIAIAAtACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAANQAgAHwAIABEAGEAdABlACAAVAB5AHAAZQAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwACAALQAgAG4AbwAgAGQAYQB0AGUAIABwAHIAZQBzAGUAbgB0AFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAxACAALQAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADIAIAAtACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADMAIAAtACAAdwBlAGUAawAgAGQAYQB0AGUAXABuACAAIAA2ACAAfAAgAFkAZQBhAHIAIABDAEUAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AIAAgADcAIAB8ACAATQBvAG4AdABoACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4AMQAyAFwAbgAgACAAIAAgAHwAIABXAGUAZQBrACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAxAC4ALgA1ADMAXABuACAAIAA4ACAAfAAgAEQAYQB5ACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEALgAuADMAMQBcAG4AIAAgACAAIAB8ACAATwByAGQAaQBuAGEAbAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4AMwA2ADYAXABuACAAIAAgACAAfAAgAEQAYQB5ACAAbwBmACAAVwBlAGUAawAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEALgAuADcAIAAtAD4AIABNAG8AbgAuAC4AUwB1AG4AXABuACAAIAA5ACAAfAAgAEgAbwB1AHIAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADAALgAuADIANABcAG4AIAAxADAAIAB8ACAATQBpAG4AdQB0AGUAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMAAuAC4ANQA5AFwAbgAgADEAMQAgAHwAIABTAGUAYwBvAG4AZAAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAwAC4ALgA1ADkALgA5ADkAOQBcAG4AIAAxADIAIAB8ACAATQBpAG4AdQB0AGUAcwAgAE8AZgBmAHMAZQB0ACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAALQA5ADAAMAAuAC4AKwA5ADAAMABcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAZQB4AHQAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAfAAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AHQAZQBkACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIABFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAAKwBZAFkAWQBZAFkALQBNAE0ALQBEAEQAVABoAGgAOgBtAG0AOgBzAHMALgBzAHMAcwArAGgAaAA6AG0AbQA6AHMAcwAsACAAWQBZAFkAWQAtAE0ATQAtAEQARABUAGgAaAA6AG0AbQAtAGgAaAAsACAAWQBZAFkAWQAtAFcAdwB3AC0ARABUAGgAaAA6AG0AbQBaAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBEAEEAVABFAF8AVABJAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAFQAZQB4AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACwAIABMAEEATQBCAEQAQQAoAF8AZQB4AGMAZQBwAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAIABuAHUAbABsACAAIABFAG0AcAB0AHkAIAB0AGUAeAB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAE4ALwBBACAAIAAgAFUAbgBhAGIAbABlACAAdABvACAAcABhAHIAcwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AEYAQQBMAFMARQAsACAAMAAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEkAUwBPAFYAYQBsAHUAZQBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIABMAEEATQBCAEQAQQAoAF8AcABEAGEAdABlACwAIABfAHAAVABpAG0AZQAsACAAXwBwAFQAWgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAsACAASQBGACgASQBOAEQARQBYACgAXwBwAEQAYQB0AGUALAAgADEALAAgADEAKQAgAD0AIABcACIAXAAiACwAIABUAFIAVQBFACwAIABJAE4ARABFAFgAKABfAHAARABhAHQAZQAsACAAMQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUASQBTAE8AQwBvAG0AcABsAGkAYQBuAHQALAAgAEkARgAoAEkATgBEAEUAWAAoAF8AcABUAGkAbQBlACwAIAAxACwAIAAxACkAIAA9ACAAXAAiAFwAIgAsACAAVABSAFUARQAsACAASQBOAEQARQBYACgAXwBwAFQAaQBtAGUALAAgADEALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoASQBTAE8AQwBvAG0AcABsAGkAYQBuAHQALAAgAEkARgAoAEkATgBEAEUAWAAoAF8AcABUAFoALAAgADEALAAgADEAKQAgAD0AIABcACIAXAAiACwAIABUAFIAVQBFACwAIABJAE4ARABFAFgAKABfAHAAVABaACwAIAAxACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBkAGEAdABlAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACAAKgAgAF8AdABpAG0AZQBJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAgACoAIABfAHQAegBJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAApACAAPAA+ACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABmAG4ASQBTAE8ARgBvAHIAbQBhAHQAQwBvAG0AcABsAGkAYQBuAGMAZQAsACAATABBAE0AQgBEAEEAKABfAHAARABhAHQAZQAsACAAXwBwAFQAaQBtAGUALAAgAF8AcABUAFoALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAGwAdQBtAG4AcwAgAE8AdQB0ADoAIABJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAsACAAUgBlAHMAbwBsAHYAZQBkAEYAbwByAG0AYQB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBGAG0AdAAsACAATgAoAEkATgBEAEUAWAAoAF8AcABEAGEAdABlACwAIAAxACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBGAG0AdAAsACAATgAoAEkATgBEAEUAWAAoAF8AcABUAGkAbQBlACwAIAAxACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8ARgBtAHQALAAgAE4AKABJAE4ARABFAFgAKABfAHAAVABaACwAIAAxACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcgBlAHMAbwBsAHYAZQBGAG0AdAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBkAGEAdABlAEYAbQB0ACAAPQAgADMAKQAgACoAIAAoAF8AdABpAG0AZQBGAG0AdAAgAD0AIAAwACkAIAAqACAAKABfAHQAegBvAEYAbQB0ACAAPQAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbwBuAGwAeQAgAGQAYQB0AGUAIABwAHIAbwB2AGkAZABlAGQALAAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBkAGEAdABlAEYAbQB0ACAAPQAgADAAKQAgACoAIAAoAF8AdABpAG0AZQBGAG0AdAAgAD0AIAAzACkAIAAqACAAKABfAHQAegBvAEYAbQB0ACAAPQAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbwBuAGwAeQAgAHQAaQBtAGUAIABwAHIAbwB2AGkAZABlAGQALAAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBkAGEAdABlAEYAbQB0ACAAPQAgADAAKQAgACoAIAAoAF8AdABpAG0AZQBGAG0AdAAgAD0AIAAwACkAIAAqACAAKABfAHQAegBvAEYAbQB0ACAAPQAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbwBuAGwAeQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAcAByAG8AdgBpAGQAZQBkACwAIABjAG8AbgBzAGkAcwB0AGUAbgB0ACAAdwBpAHQAaAAgAGIAYQBzAGkAYwAgAG8AcgAgAGUAeAB0AGUAbgBkAGUAZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AZABhAHQAZQBGAG0AdAAgADwAPgAgADIAKQAgACoAIAAoAF8AdABpAG0AZQBGAG0AdAAgADwAPgAgADIAKQAgACoAIAAoAF8AdAB6AG8ARgBtAHQAIAA8AD4AIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGEAbABsACAAYgBhAHMAaQBjACAAZgBvAHIAbQBhAHQAIAB3AGgAZQByAGUAIABwAHIAZQBzAGUAbgB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAGQAYQB0AGUARgBtAHQAIAA8AD4AIAAxACkAIAAqACAAKABfAHQAaQBtAGUARgBtAHQAIAA8AD4AIAAxACkAIAAqACAAKABfAHQAegBvAEYAbQB0ACAAPAA+ACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABhAGwAbAAgAGUAeAB0AGUAbgBkAGUAZAAgAGYAbwByAG0AYQB0ACAAdwBoAGUAcgBlACAAcAByAGUAcwBlAG4AdAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG0AaQB4AGUAZAAgAGYAbwByAG0AYQB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABOACgAXwByAGUAcwBvAGwAdgBlAEYAbQB0ACAAPAA+ACAAMAApACwAIABfAHIAZQBzAG8AbAB2AGUARgBtAHQAKQAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBJAFMATwBQAHIAZQBjAGkAcwBpAG8AbgBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIABMAEEATQBCAEQAQQAoAF8AcABEAGEAdABlACwAIABfAHAAVABpAG0AZQAsACAAXwBwAFQAWgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbAB1AG0AbgBzACAATwB1AHQAOgAgAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACwAIABQAHIAZQBjAGkAcwBpAG8AbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAUAByAGUAYwAsACAATgAoAEkATgBEAEUAWAAoAF8AcABEAGEAdABlACwAIAAxACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBQAHIAZQBjACwAIABOACgASQBOAEQARQBYACgAXwBwAFQAaQBtAGUALAAgADEALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAUAByAGUAYwAsACAATgAoAEkATgBEAEUAWAAoAF8AcABUAFoALAAgADEALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBQAHIAZQBjACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwB0AGkAbQBlAFAAcgBlAGMAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AdAB6AFAAcgBlAGMAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABGAEEATABTAEUALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABUAFIAVQBFACwAIABfAHQAegBQAHIAZQBjACAAKwAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABUAFIAVQBFACwAIABfAHQAaQBtAGUAUAByAGUAYwAgACsAIAAzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBQAHIAZQBjACAAPAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKAAoAF8AdABpAG0AZQBQAHIAZQBjACAAPQAgADAAKQAsACAAXwBkAGEAdABlAFAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAALwAvACAAXwBkAGEAdABlAFAAcgBlAGMAIAA9ACAAMwAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFQAUgBVAEUALAAgAF8AdABpAG0AZQBQAHIAZQBjACAAKwAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABUAGUAeAB0ACAAPQAgAFwAIgBcACIALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABhAHIAdABzACwAIABQAEEAUgBTAEUAXwBQAEEAUgBUAFMAKABUAGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOACgASQBOAEQARQBYACgAXwBwAGEAcgB0AHMALAAgADEALAAgADIAKQApACAAPQAgADAALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBQAGEAcgB0AHMAQwBvAG0AcABsAGkAYQBuAGMAZQAsACAATgAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAbABnAFAAYQByAHQAcwAsACAATgAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAARABhAHQAZQAsACAAUABBAFIAUwBFAF8ARABBAFQARQAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAVABpAG0AZQAsACAAUABBAFIAUwBFAF8AVABJAE0ARQAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAA0ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAVABaACwAIABQAEEAUgBTAEUAXwBUAEkATQBFAF8AWgBPAE4ARQAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAA1ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAcwBvAFYAYQBsAHUAZQBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIABmAG4ASQBTAE8AVgBhAGwAdQBlAEMAbwBtAHAAbABpAGEAbgBjAGUAKABfAHAARABhAHQAZQAsACAAXwBwAFQAaQBtAGUALAAgAF8AcABUAFoAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAcwBvAEYAbwByAG0AYQB0AEMAbwBtAHAAbABpAGEAbgBjAGUALAAgAGYAbgBJAFMATwBGAG8AcgBtAGEAdABDAG8AbQBwAGwAaQBhAG4AYwBlACgAXwBwAEQAYQB0AGUALAAgAF8AcABUAGkAbQBlACwAIABfAHAAVABaACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBQAHIAZQBjAGkAcwBpAG8AbgBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIABmAG4ASQBTAE8AUAByAGUAYwBpAHMAaQBvAG4AQwBvAG0AcABsAGkAYQBuAGMAZQAoAF8AcABEAGEAdABlACwAIABfAHAAVABpAG0AZQAsACAAXwBwAFQAWgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAG8AQwBvAG0AcABsAGkAYQBuAGMAZQAsACAAKABfAGkAcwBvAFYAYQBsAHUAZQBDAG8AbQBwAGwAaQBhAG4AYwBlACAAKgAgAF8AaQBzAG8AUABhAHIAdABzAEMAbwBtAHAAbABpAGEAbgBjAGUAIAAqACAASQBOAEQARQBYACgAXwBpAHMAbwBGAG8AcgBtAGEAdABDAG8AbQBwAGwAaQBhAG4AYwBlACwAIAAxACwAIAAxACkAIAAqACAASQBOAEQARQBYACgAXwBpAHMAbwBQAHIAZQBjAGkAcwBpAG8AbgBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIAAxACwAIAAxACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHUAdABEAGEAdABlACwAIABEAFIATwBQACgAXwBwAEQAYQB0AGUALAAgACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHUAdABUAGkAbQBlACwAIABEAFIATwBQACgAXwBwAFQAaQBtAGUALAAgACwAIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBvAHUAdABUAFoALAAgAEQAUgBPAFAAKABfAHAAVABaACwAIAAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwBpAHMAbwBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIABfAGYAbABnAFAAYQByAHQAcwAsACAASQBOAEQARQBYACgAXwBpAHMAbwBQAHIAZQBjAGkAcwBpAG8AbgBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIAAxACwAIAAyACkALAAgAEkATgBEAEUAWAAoAF8AaQBzAG8ARgBvAHIAbQBhAHQAQwBvAG0AcABsAGkAYQBuAGMAZQAsACAAMQAsACAAMgApACwAIABfAG8AdQB0AEQAYQB0AGUALAAgAF8AbwB1AHQAVABpAG0AZQAsACAAXwBvAHUAdABUAFoAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8ARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6ACAAKwBZAFkAWQBZAFkALQBNAE0ALQBEAEQALAAgAFkAWQBZAFkALQBNAE0ALQBEAEQALAAgAFkAWQBZAFkALQBNAE0ALAAgACsAWQBZAFkAWQBNAE0ALAAgAFkAWQBZAFkAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABhAG4AIABpAG4AdgBhAGwAaQBkACAAZABhAHQAZQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AWwBNAG8AbgB0AGgAXQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgAG8AZgAgAHQAaABlACAAeQBlAGEAcgBcAG4AWwBEAGEAeQBdACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEQAYQB5ACAAbwBmACAAdABoAGUAIABtAG8AbgB0AGgAXABuAFsAQgBhAHMAaQBjAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABSAGUAdAB1AHIAbgAgAGkAbgAgAGIAYQBzAGkAYwAgAGYAbwByAG0AYQB0ACAAZQBnACAAWQBZAFkAWQBNAE0ARABEAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBGAE8AUgBNAEEAVABfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAAWwBNAG8AbgB0AGgAXQAsACAAWwBEAGEAeQBdACwAIABbAEIAYQBzAGkAYwBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAgACoAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AbwBuAHQAaAApACkAIAAqACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAIABOACgAQgBhAHMAaQBjACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5ACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkARgBtAHQALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABBAEIAUwAoAF8AeQApACAAPgA9ACAAMQAwADAAMAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAKwAwADAAMAAwADAAOwAtADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkAKQApACAAKgAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAKwAwADAAMAAwADsALQAwADAAMAAwADsAKwAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiADAAMAAwADAAOwAtADAAMAAwADAAOwAwADAAMAAwAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFkAZQBhAHIALAAgAFQARQBYAFQAKABfAHkALAAgAF8AeQBGAG0AdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AbwBuAHQAaAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMATQBvAG4AdABoACwAIABUAEUAWABUACgASQBOAFQAKABNAG8AbgB0AGgAKQAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAIABfAHMAWQBlAGEAcgAgACYAIABfAHMATQBvAG4AdABoACwAIABfAHMAWQBlAGEAcgAgACYAIABcACIALQBcACIAIAAmACAAXwBzAE0AbwBuAHQAaAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBEAGEAeQAsACAAVABFAFgAVAAoAEkATgBUACgARABhAHkAKQAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACAAJgAgAF8AcwBNAG8AbgB0AGgAIAAmACAAXwBzAEQAYQB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACAAJgAgAFwAIgAtAFwAIgAgACYAIABfAHMATQBvAG4AdABoACAAJgAgAFwAIgAtAFwAIgAgACYAIABfAHMARABhAHkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8AVABJAE0ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAdABpAG0AZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6ACAAVABoAGgAOgBtAG0AOgBzAHMALgBzAHMAcwAsACAAVABoAGgAOgBtAG0AOgBzAHMALAAgAFQAaABoADoAbQBtACwAIABUAGgAaABtAG0AcwBzACwAIABUAGgAaABcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAGEAbgAgAGkAbgB2AGEAbABpAGQAIAB0AGkAbQBlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASABvAHUAcgAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMAAuAC4AMgA0AFwAbgBNAGkAbgB1AHQAZQAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwAC4ALgA1ADkAXABuAFMAZQBjAG8AbgBkACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgADAALgAuADUAOQAuADkAOQA5AFwAbgBbAEIAYQBzAGkAYwBdACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABSAGUAdAB1AHIAbgAgAGkAbgAgAGIAYQBzAGkAYwAgAGYAbwByAG0AYQB0AFwAbgBbAFAAcgBlAGMAaQBzAGkAbwBuAF0AIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABTAGUAbABlAGMAdAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAbABlAHYAZQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMAAgAC0AIABhAHUAdABvAG0AYQB0AGkAYwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADEAIAAtACAAaABvAHUAcgBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMgAgAC0AIABtAGkAbgB1AHQAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABpAG4AdABlAGcAZQByACAAcwBlAGMAbwBuAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADQAIAAtACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHMAZQBjAG8AbgBkAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEYATwBSAE0AQQBUAF8AVABJAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAEgAbwB1AHIALAAgAE0AaQBuAHUAdABlACwAIABTAGUAYwBvAG4AZAAsACAAWwBCAGEAcwBpAGMAXQAsACAAWwBQAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEgAbwB1AHIAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAUwBlAGMAbwBuAGQAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFACgASABvAHUAcgAsACAATQBpAG4AdQB0AGUALAAgAFMAZQBjAG8AbgBkACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAE4AKABCAGEAcwBpAGMAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMALAAgAFIATwBVAE4ARABEAE8AVwBOACgATgAoAFMAZQBjAG8AbgBkACkALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQAsACAASQBOAFQAKABOACgATQBpAG4AdQB0AGUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoACwAIABJAE4AVAAoAE4AKABIAG8AdQByACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAE0AQQBYACgASQBOAFQAKABOACgAUAByAGUAYwBpAHMAaQBvAG4AKQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABJAFMATgBVAE0AQgBFAFIAKABTAGUAYwBvAG4AZAApACwAIABJAEYAKABfAHMAIAA9ACAASQBOAFQAKABfAHMAKQAsACAAMwAsACAANAApACwAIABJAFMATgBVAE0AQgBFAFIAKABNAGkAbgB1AHQAZQApACwAIAAyACwAIABUAFIAVQBFACwAIAAxACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVABcACIAIAAmACAAVABFAFgAVAAoAF8AaAAsACAAXAAiADAAMABcACIAKQAgACYAIABUAEUAWABUACgAXwBtACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBtACwAIABcACIAMAAwAFwAIgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB1AHMAZQBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAXAAiACAAJgAgAFQARQBYAFQAKABfAGgALAAgAFwAIgAwADAAXAAiACkAIAAmACAAVABFAFgAVAAoAF8AbQAsACAAXAAiADAAMABcACIAKQAgACYAIABUAEUAWABUACgAXwBzACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBtACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBzACwAIABcACIAMAAwAFwAIgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AXwB1AHMAZQBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAA0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFQARQBYAFQAKABfAG0ALAAgAFwAIgAwADAAXAAiACkAIAAmACAAVABFAFgAVAAoAF8AcwAsACAAXAAiADAAMAAuADAAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBtACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBzACwAIABcACIAMAAwAC4AMAAwADAAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8AVABJAE0ARQBfAFoATwBOAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgBcAG4ARQB4AGEAbQBwAGwAZQAgAGYAbwByAG0AYQB0AHMAIAAoAG4AbwB0ACAAZQB4AGgAYQB1AHMAdABpAHYAZQApADoAIAArAGgAaAA6AG0AbQA6AHMAcwAsACAALQBoAGgAOgBtAG0ALAAgACsAaABoACwAIABaAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAYQBuACAAaQBuAHYAYQBsAGkAZAAgAHQAaQBtAGUAIAB6AG8AbgBlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABmAHIAbwBtACAAVQBUAEMAIABpAG4AIABtAGkAbgB1AHQAZQBzACAALQA5ADAAMAAuAC4AKwA5ADAAMABcAG4AWwBCAGEAcwBpAGMAXQAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFIAZQB0AHUAcgBuACAAaQBuACAAYgBhAHMAaQBjACAAZgBvAHIAbQBhAHQAXABuAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABTAGUAbABlAGMAdAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAbABlAHYAZQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAAYQB1AHQAbwBtAGEAdABpAGMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABoAG8AdQByAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMgAgAC0AIABtAGkAbgB1AHQAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADMAIAAtACAAcwBlAGMAbwBuAGQAcwBcAG4AWwBOAG8AWgB1AGwAdQBdACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFUAcwBlACAAKwAwADAAOgAwADAAIABpAG4AcwB0AGUAYQBkACAAbwBmACAAWgAgAGYAbwByACAAVQBUAEMAIAB0AGkAbQBlACAAegBvAG4AZQAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBGAE8AUgBNAEEAVABfAFQASQBNAEUAXwBaAE8ATgBFACAAPQAgAEwAQQBNAEIARABBACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAsACAAWwBCAGEAcwBpAGMAXQAsACAAWwBQAHIAZQBjAGkAcwBpAG8AbgBdACwAIABbAE4AbwBaAHUAbAB1AF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAIABOACgAQgBhAHMAaQBjACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAE0AQQBYACgASQBOAFQAKABOACgAUAByAGUAYwBpAHMAaQBvAG4AKQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAYQByAFoAZQByAG8ALAAgAFIATwBVAE4ARABEAE8AVwBOACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAgACoAIAA2ADAALAAgADAAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgATgAoAE4AbwBaAHUAbAB1ACkAIAA9ACAAMAApACAAKgAgAF8AbgBlAGEAcgBaAGUAcgBvACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAXwBaAE8ATgBFACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAUwBlAGMAcwAsACAAUgBPAFUATgBEAEQATwBXAE4AKABNAE8ARAAoAE8AZgBmAHMAZQB0AE0AaQBuAHUAdABlAHMALAAgADEAKQAgACoAIAA2ADAALAAgADAAKQAgAD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBGAG0AdAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAUwBlAGMAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAFwAIgBoAGgAbQBtAHMAcwBcACIALAAgAFwAIgBoAGgAOgBtAG0AOgBzAHMAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAIABcACIAaABoAG0AbQBcACIALAAgAFwAIgBoAGgAOgBtAG0AXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBoAGgAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAFwAIgBoAGgAbQBtAFwAIgAsACAAXAAiAGgAaAA6AG0AbQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAFwAIgBoAGgAbQBtAHMAcwBcACIALAAgAFwAIgBoAGgAOgBtAG0AOgBzAHMAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABTAEkARwBOACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwApACAAPAAgADAALAAgAFwAIgAtAFwAIgAsACAAXAAiACsAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQALAAgAEEAQgBTACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwApACAALwAgADEANAA0ADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACAAJgAgAFQARQBYAFQAKABfAHQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsACAAXwBzAEYAbQB0ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQBuACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAIABhAHMAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuAFwAbgBFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgAgAFkAWQBZAFkALQBEAEQARAAsACAAWQBZAFkAWQBEAEQARABcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAGEAbgAgAGkAbgB2AGEAbABpAGQAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ATwByAGQAaQBuAGEAbAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG8AZgAgAHkAZQBhAHIAXABuAFsAQgBhAHMAaQBjAF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABSAGUAdAB1AHIAbgAgAGkAbgAgAGIAYQBzAGkAYwAgAGYAbwByAG0AYQB0ACAAZQBnACAAWQBZAFkAWQBEAEQARABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBPAFIATQBBAFQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACwAIABbAEIAYQBzAGkAYwBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAgACoAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE8AcgBkAGkAbgBhAGwAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAE4AKABCAGEAcwBpAGMAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkALAAgAEkATgBUACgAWQBlAGEAcgBDAEUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBGAG0AdAAsACAASQBGACgAQQBCAFMAKABfAHkAKQAgAD4APQAgADEAMAAwADAAMAAsACAAXAAiACsAMAAwADAAMAAwADsALQAwADAAMAAwADAAXAAiACwAIABcACIAMAAwADAAMAA7AC0AMAAwADAAMAA7ADAAMAAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAWQBlAGEAcgAsACAAVABFAFgAVAAoAF8AeQAsACAAXwB5AEYAbQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMATwByAGQAaQBuAGEAbAAsACAAVABFAFgAVAAoAEkATgBUACgATwByAGQAaQBuAGEAbAApACwAIABcACIAMAAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsACAAXwBzAFkAZQBhAHIAIAAmACAAXwBzAE8AcgBkAGkAbgBhAGwALAAgAF8AcwBZAGUAYQByACAAJgAgAFwAIgAtAFwAIgAgACYAIABfAHMATwByAGQAaQBuAGEAbAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBGAE8AUgBNAEEAVABfAFcARQBFAEsAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIAB3AGUAZQBrACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6ACAAWQBZAFkAWQAtAFcAdwB3AC0ARAAsACAAWQBZAFkAWQAtAFcAdwB3ACwAIABZAFkAWQBZAFcAdwB3AEQALAAgAFkAWQBZAFkAVwB3AHcAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABhAG4AIABpAG4AdgBhAGwAaQBkACAAdwBlAGUAawAgAGQAYQB0AGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBXAGUAZQBrACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAHQAaABlACAAeQBlAGEAcgBcAG4ARABhAHkATwBmAFcAZQBlAGsAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABEAGEAeQAgAG8AZgAgAHQAaABlACAAdwBlAGUAawAgAHcAaABlAHIAZQAgADEALgAuADcAIAAtAD4AIABNAG8AbgAuAC4AUwB1AG4AIABcAG4AWwBCAGEAcwBpAGMAXQAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABSAGUAdAB1AHIAbgAgAGkAbgAgAGIAYQBzAGkAYwAgAGYAbwByAG0AYQB0ACAAZQBnACAAWQBZAFkAWQBXAHcAdwBEAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBGAE8AUgBNAEEAVABfAFcARQBFAEsAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAFcAZQBlAGsALAAgAEQAYQB5AE8AZgBXAGUAZQBrACwAIABbAEIAYQBzAGkAYwBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAgACoAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFcAZQBlAGsAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkATwBmAFcAZQBlAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBXAEUARQBLAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABXAGUAZQBrACwAIABEAGEAeQBPAGYAVwBlAGUAawApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAIABOACgAQgBhAHMAaQBjACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5ACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkARgBtAHQALAAgAEkARgAoAEEAQgBTACgAXwB5ACkAIAA+AD0AIAAxADAAMAAwADAALAAgAFwAIgArADAAMAAwADAAMAA7AC0AMAAwADAAMAAwAFwAIgAsACAAXAAiADAAMAAwADAAOwAtADAAMAAwADAAOwAwADAAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFkAZQBhAHIALAAgAFQARQBYAFQAKABfAHkALAAgAF8AeQBGAG0AdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFcAZQBlAGsALAAgAFQARQBYAFQAKABJAE4AVAAoAFcAZQBlAGsAKQAsACAAXAAiAFcAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5AE8AZgBXAGUAZQBrACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAF8AcwBZAGUAYQByACAAJgAgAF8AcwBXAGUAZQBrACwAIABfAHMAWQBlAGEAcgAgACYAIABcACIALQBcACIAIAAmACAAXwBzAFcAZQBlAGsAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACAAJgAgAF8AcwBXAGUAZQBrACAAJgAgAEkATgBUACgARABhAHkATwBmAFcAZQBlAGsAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAWQBlAGEAcgAgACYAIABcACIALQBcACIAIAAmACAAXwBzAFcAZQBlAGsAIAAmACAAXAAiAC0AXAAiACAAJgAgAEkATgBUACgARABhAHkATwBmAFcAZQBlAGsAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBPAFIATQBBAFQAXwBEAEEAVABFAF8AVABJAE0ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6ACAAWQBZAFkAWQAtAE0ATQAtAEQARABUAGgAaAA6AG0AbQA6AHMAcwAuAHMAcwBzACsAaABoADoAbQBtADoAcwBzACwAIABZAFkAWQBZAC0AVwB3AHcALQBEAFQAaABoADoAbQBtAFoALAAgAFQAaABoAG0AbQBzAHMAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABhAG4AIABpAG4AdgBhAGwAaQBkACAAZABhAHQAZQAsACAAdABpAG0AZQAgAG8AcgAgAHQAaQBtAGUAIAB6AG8AbgBlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABhAHQAZQBUAHkAcABlACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEQAYQB0AGUAIAB0AHkAcABlACAAcgBlAHAAcgBlAHMAZQBuAHQAZQBkACAAaQBuACAARABhAHQAZQBBAHIAZwAxACAAYQBuAGQAIABEAGEAdABlAEEAcgBnADIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMAAgAC0AIABuAG8AIABkAGEAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADEAIAAtACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADMAIAAtACAAdwBlAGUAawAgAGQAYQB0AGUAXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AWwBEAGEAdABlAEEAcgBnADEAXQAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgAG8AZgAgAHkAZQBhAHIAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADEAIAAgACAAIAAgACAAIAAgACAAMQAuAC4AMQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAVwBlAGUAawAgAG8AZgAgAHkAZQBhAHIAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADMAIAAgACAAIAAgACAAIAAgACAAIAAxAC4ALgA1ADMAXABuAFsARABhAHQAZQBBAHIAZwAyAF0AIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABEAGEAeQAgAG8AZgAgAG0AbwBuAHQAaAAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMQAgACAAIAAgACAAIAAgACAAIAAgADEALgAuADMAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAE8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG8AZgAgAHkAZQBhAHIAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADIAIAAgACAAMQAuAC4AMwA2ADYAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABEAGEAeQAgAG8AZgAgAHcAZQBlAGsAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADMAIAAgACAAIAAgACAAIAAgACAAIAAgADEALgAuADcAXABuAFsASABvAHUAcgBdACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwAC4ALgAyADQAXABuAFsATQBpAG4AdQB0AGUAXQAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwAC4ALgA1ADkAXABuAFsAUwBlAGMAbwBuAGQAXQAgACAAIAAgACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAwAC4ALgA1ADkALgA5ADkAOQBcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDACAALQA5ADAAMAAuAC4AKwA5ADAAMABcAG4AWwBCAGEAcwBpAGMAXQAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFIAZQB0AHUAcgBuACAAaQBuACAAYgBhAHMAaQBjACAAZgBvAHIAbQBhAHQAIABlAGcAIABZAFkAWQBZAE0ATQBEAEQAVAAxADAANAA1ACsAMAA5ADMAMABcAG4AWwBQAHIAZQBjAGkAcwBpAG8AbgBdACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFMAZQBsAGUAYwB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABsAGUAdgBlAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMAAgAC0AIABBAHUAdABvAG0AYQB0AGkAYwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAxACAALQAgAFkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMgAgAC0AIABNAG8AbgB0AGgALwBXAGUAZQBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADMAIAAtACAARABhAHkALwBPAHIAZABpAG4AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADQAIAAtACAASABvAHUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA1ACAALQAgAE0AaQBuAHUAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADYAIAAtACAAUwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANwAgAC0AIABGAHIAYQBjAHQAaQBvAG4AYQBsAFwAbgBbAE4AbwBUAGkAbQBlAFoAbwBuAGUAXQAgACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAARAByAG8AcAAgAHQAaQBtAGUAIAB6AG8AbgBlACAAZgByAG8AbQAgAG8AdQB0AHAAdQB0AC4AXABuAFsATgBvAFoAdQBsAHUAXQAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABVAHMAZQAgACsAMAAwADoAMAAwACAAaQBuAHMAdABlAGEAZAAgAG8AZgAgAFoAIABmAG8AcgAgAFUAVABDACAAdABpAG0AZQAgAHoAbwBuAGUALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARgBPAFIATQBBAFQAXwBEAEEAVABFAF8AVABJAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgAEQAYQB0AGUAVAB5AHAAZQAsAFwAbgAgACAAIAAgAFsAWQBlAGEAcgBDAEUAXQAsAFwAbgAgACAAIAAgAFsARABhAHQAZQBBAHIAZwAxAF0ALABcAG4AIAAgACAAIABbAEQAYQB0AGUAQQByAGcAMgBdACwAXABuACAAIAAgACAAWwBIAG8AdQByAF0ALABcAG4AIAAgACAAIABbAE0AaQBuAHUAdABlAF0ALABcAG4AIAAgACAAIABbAFMAZQBjAG8AbgBkAF0ALABcAG4AIAAgACAAIABbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAXABuACAAIAAgACAAWwBCAGEAcwBpAGMAXQAsAFwAbgAgACAAIAAgAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAFsATgBvAFQAaQBtAGUAWgBvAG4AZQBdACwAXABuACAAIAAgACAAWwBOAG8AWgB1AGwAdQBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACwAIABNAEEAWAAoAEkATgBUACgATgAoAEQAYQB0AGUAVAB5AHAAZQApACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBEAGEAdABlACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACAAKwAgAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB0AGUAQQByAGcAMQApACAAKwAgAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB0AGUAQQByAGcAMgApACkAIAA8AD4AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBUAGkAbQBlACwAIAAoAEkAUwBOAFUATQBCAEUAUgAoAEgAbwB1AHIAKQAgACsAIABJAFMATgBVAE0AQgBFAFIAKABNAGkAbgB1AHQAZQApACAAKwAgAEkAUwBOAFUATQBCAEUAUgAoAFMAZQBjAG8AbgBkACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAF8AaABhAHMAVABpAG0AZQBaAG8AbgBlACwAIABJAFMATgBVAE0AQgBFAFIAKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXwBzAGgAbwB3AFQAaQBtAGUAWgBvAG4AZQAsACAATgAoAE4AbwBUAGkAbQBlAFoAbwBuAGUAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIABfAGkAcwBFAG0AcAB0AHkALAAgAF8AaABhAHMARABhAHQAZQAgACsAIABfAGgAYQBzAFQAaQBtAGUAIAArACAAKABfAGgAYQBzAFQAaQBtAGUAWgBvAG4AZQAgACoAIABfAHMAaABvAHcAVABpAG0AZQBaAG8AbgBlACkAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAEUAbQBwAHQAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBoAGEAcwBEAGEAdABlACAAKgAgAF8AaABhAHMAVABpAG0AZQBaAG8AbgBlACAAKgAgAF8AcwBoAG8AdwBUAGkAbQBlAFoAbwBuAGUAKQAgACoAIABOAE8AVAAoAF8AaABhAHMAVABpAG0AZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAIABNAEEAWAAoAEkATgBUACgATgAoAFAAcgBlAGMAaQBzAGkAbwBuACkAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHQAZQAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAwACkAIAArACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPgA9ACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAEQAYQB0AGUAQQByAGcAMQAsACAARABhAHQAZQBBAHIAZwAyACwAIABCAGEAcwBpAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABCAGEAcwBpAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABEAGEAdABlAEEAcgBnADEALAAgAFwAIgBcACIALAAgAEIAYQBzAGkAYwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADAAKQAgACsAIAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+AD0AIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAEQAYQB0AGUAQQByAGcAMgAsACAAQgBhAHMAaQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAFwAIgBcACIALAAgAEIAYQBzAGkAYwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMAApACAAKwAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD4APQAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8AVwBFAEUASwBfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAARABhAHQAZQBBAHIAZwAxACwAIABEAGEAdABlAEEAcgBnADIALAAgAEIAYQBzAGkAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBXAEUARQBLAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABCAGEAcwBpAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8AVwBFAEUASwBfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAARABhAHQAZQBBAHIAZwAxACwAIABcACIAXAAiACwAIABCAGEAcwBpAGMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAvAC8AXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFQAaQBtAGUALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMAApACAAKwAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD4APQAgADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAFQASQBNAEUAKABIAG8AdQByACwAIABNAGkAbgB1AHQAZQAsACAAUwBlAGMAbwBuAGQALAAgAEIAYQBzAGkAYwAsACAATQBBAFgAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAALQAgADMALAAgADAAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVABaAE8ALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAwACkAIAArACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPgA9ACAANAApACkAIAAqACAAXwBoAGEAcwBUAGkAbQBlAFoAbwBuAGUAIAAqACAAXwBzAGgAbwB3AFQAaQBtAGUAWgBvAG4AZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AVABaAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAA0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+AD0AIAA2ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAFQASQBNAEUAXwBaAE8ATgBFACgAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAIABCAGEAcwBpAGMALAAgAF8AVABaAHAAcgBlAGMAaQBzAGkAbwBuACwAIABOAG8AWgB1AGwAdQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHQAZQAgACYAIABfAHMAVABpAG0AZQAgACYAIABfAHMAVABaAE8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAE8AXwBUAE8AXwBEAEEAVABFAFwAbgBcAG4AQwBvAG4AdgBlAHIAdABzACAAdABlAHgAdAAgAGkAbgAgAEkAUwBPACAAZgBvAHIAbQBhAHQAIAB0AG8AIABhAG4AIABFAHgAYwBlAGwAIABkAGEAdABlAC4AIABcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABFAHgAYwBlAGwAIABEAGEAdABlACAAIAAgACAAIAB8ACAAZABhAHQAZQAgACAAIAAgAHwAIAAxADkAMAAwAC0AMAAxAC0AMAAxAFQAMAAwADoAMAAwAC4ALgA5ADkAOQA5AC0AMQAyAC0AMwAxAFQAMgA0ADoAMAAwAFwAbgAgACAAMgAgAHwAIABNAGkAbgB1AHQAZQBzACAAbwBmAGYAcwBlAHQAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAtADkAMAAwAC4ALgArADkAMAAwACAATwBwAHQAaQBvAG4AYQBsACwAIAB0AG8AZwBnAGwAZQBkACAAYgB5ACAAUgBlAHQAdQByAG4AVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVABlAHgAdAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHQAcgBpAG4AZwAgAHwAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAB0AGUAZAAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUALgBcAG4AWwBSAGUAdAB1AHIAbgBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABzAHcAaQB0AGMAaAAgAHwAIABJAG4AYwBsAHUAZABlACAAYQBuAG8AdABoAGUAcgAgAGMAbwBsAHUAbQBuACAAdABvACAAcgBlAHQAdQByAG4AIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMATwBfAFQATwBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABUAGUAeAB0ACwAIABbAFIAZQB0AHUAcgBuAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAsACAATABBAE0AQgBEAEEAKABfAGUALAAgAF8AZgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBOAEEAKABfAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AZgAsACAAewAjAE4ALwBBACwAIAAjAE4ALwBBAH0ALAAgACMATgAvAEEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBFAFIAUgAoAF8AZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBmACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEAfQAsACAAIwBWAEEATABVAEUAIQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlACAAPQAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGYALAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAIABcACIAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABfAGYAVABaAE8ALAAgAE4AKABSAGUAdAB1AHIAbgBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAeAB0ACAAPQAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAFwAIgAsACAAXwBmAFQAWgBPACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAbABlAG0AZQBuAHQAcwAsACAAUABBAFIAUwBFAF8ARABBAFQARQBfAFQASQBNAEUAKABUAGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvAEkAUwBFAFIAUgBPAFIAKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAgACwAIAAxACkAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEAIAAsACAAMQApACwAIABfAGYAVABaAE8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvAEkAUwBFAFIAUgBPAFIAKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAgACwAIAAyACkAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEAIAAsACAAMgApACwAIABfAGYAVABaAE8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvAEkAUwBFAFIAUgBPAFIAKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAgACwAIAA1ACkAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEAIAAsACAANQApACwAIABfAGYAVABaAE8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUALAAgAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBUAGkAbQBlACwAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBOAFUATQBCAEUAUgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA1ACkAKQAgACsAIABJAFMATgBVAE0AQgBFAFIAKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAANgApACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAE4AVQBNAEIARQBSACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADcAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAFQAaQBtAGUAWgBvAG4AZQAsACAASQBTAE4AVQBNAEIARQBSACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADgAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgAsACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8ASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgACAAKABfAGQAYQB0AGUAVAB5AHAAZQAgAD4AIAAwACkAIAAqACAAKAAoAF8AeQBlAGEAcgAgADwAIAAxADkAMAAwACkAIAArACAAKABfAHkAZQBhAHIAIAA+ACAAOQA5ADkAOQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoACMAVgBBAEwAVQBFACEALAAgAF8AZgBUAFoATwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwBMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAEUAUgBSAE8AUgAoAF8AeQBlAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAGQAYQB0AGUAVAB5AHAAZQAgAD4AIAAwACkAIAAqACAAKAAoAF8AeQBlAGEAcgAgADwAIAAxADkAMAAwACkAIAArACAAKABfAHkAZQBhAHIAIAA+ACAAOQA5ADkAOQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEQAQQBUAEUAKABfAHkAZQBhAHIALAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAAMwApACkALAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAANAApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAEQAYQB0AGUALAAgAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAF8AeQBlAGEAcgAsACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA0ACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABEAEEAVABFACgASQBOAEQARQBYACgAXwBjAEQAYQB0AGUALAAgADEALAAgADEAKQAsACAASQBOAEQARQBYACgAXwBjAEQAYQB0AGUALAAgADEALAAgADIAKQAsACAASQBOAEQARQBYACgAXwBjAEQAYQB0AGUALAAgADEALAAgADMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBEAGEAdABlACwAIABGAFIATwBNAF8AVwBFAEUASwBfAEQAQQBUAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAAMwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA0ACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAGMARABhAHQAZQAsACAAMQAsACAAMQApACwAIABJAE4ARABFAFgAKABfAGMARABhAHQAZQAsACAAMQAsACAAMgApACwAIABJAE4ARABFAFgAKABfAGMARABhAHQAZQAsACAAMQAsACAAMwApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAVABpAG0AZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQASQBNAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAANQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAANgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAANwApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAHQALAAgAF8AZABhAHQAZQAgACsAIABfAHQAaQBtAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAFQAWgBPACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8ALAAgAEkARgAoAF8AaABhAHMAVABpAG0AZQBaAG8AbgBlACwAIABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAAOAApACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwBkAHQALAAgAF8AdAB6AG8AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAQQBUAEUAXwBUAE8AXwBJAFMATwBcAG4AXABuAEMAbwBuAHYAZQByAHQAcwAgAGEAbgAgAEUAeABjAGUAbAAgAGQAYQB0AGUAIAB0AG8AIABJAFMATwAgAGYAbwByAG0AYQB0AHQAZQBkACAAdABlAHgAdAAuAFwAbgBFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgAgAFkAWQBZAFkALQBNAE0ALQBEAEQAVABoAGgAOgBtAG0AOgBzAHMALgBzAHMAcwArAGgAaAA6AG0AbQA6AHMAcwAsACAAWQBZAFkAWQAtAFcAdwB3AC0ARABUAGgAaAA6AG0AbQBaACwAIABUAGgAaABtAG0AcwBzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGEAdABlACAAIAAgACAAfAAgAEEAbgAgAEUAeABjAGUAbAAgAGQAYQB0AGUAIABhAG4AZAAvAG8AcgAgAHQAaQBtAGUALgBcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDACAALQA5ADAAMAAuAC4AKwA5ADAAMAAgAFwAbgBbAEIAYQBzAGkAYwBdACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAUgBlAHQAdQByAG4AIABpAG4AIABiAGEAcwBpAGMAIABmAG8AcgBtAGEAdAAgAGUAZwAgAFkAWQBZAFkATQBNAEQARABUAGgAaABtAG0AKwBoAGgAXABuAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABTAGUAbABlAGMAdAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAbABlAHYAZQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAAQQB1AHQAbwBtAGEAdABpAGMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABZAGUAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADIAIAAtACAATQBvAG4AdABoAC8AVwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAzACAALQAgAEQAYQB5AC8ATwByAGQAaQBuAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA0ACAALQAgAEgAbwB1AHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANQAgAC0AIABNAGkAbgB1AHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA2ACAALQAgAFMAZQBjAG8AbgBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADcAIAAtACAARgByAGEAYwB0AGkAbwBuAGEAbABcAG4AWwBOAG8AVABpAG0AZQBaAG8AbgBlAF0AIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAEQAcgBvAHAAIAB0AGkAbQBlACAAegBvAG4AZQAgAGYAcgBvAG0AIABvAHUAdABwAHUAdAAuAFwAbgBbAE4AbwBaAHUAbAB1AF0AIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAVQBzAGUAIAArADAAMAA6ADAAMAAgAGkAbgBzAHQAZQBhAGQAIABvAGYAIABaACAAZgBvAHIAIABVAFQAQwAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQAQQBUAEUAXwBUAE8AXwBJAFMATwAgAD0AIABMAEEATQBCAEQAQQAoAEQAYQB0AGUALAAgAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0ALAAgAFsAQgBhAHMAaQBjAF0ALAAgAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAsACAAWwBOAG8AVABpAG0AZQBaAG8AbgBlAF0ALAAgAFsATgBvAFoAdQBsAHUAXQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAdABlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBEAGEAdABlACwAIABJAE4AVAAoAE4AKABEAGEAdABlACkAIAA8AD4AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABJAEYAKABfAGgAYQBzAEQAYQB0AGUALAAgAFkARQBBAFIAKABEAGEAdABlACkALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAASQBGACgAXwBoAGEAcwBEAGEAdABlACwAIABNAE8ATgBUAEgAKABEAGEAdABlACkALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAIABJAEYAKABfAGgAYQBzAEQAYQB0AGUALAAgAEQAQQBZACgARABhAHQAZQApACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBEAEEAVABFAF8AVABJAE0ARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABfAGgAYQBzAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgATwBVAFIAKABEAGEAdABlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEkATgBVAFQARQAoAEQAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMARQBDAE8ATgBEACgARABhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBhAHMAaQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUAByAGUAYwBpAHMAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAG8AVABpAG0AZQBaAG8AbgBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBvAFoAdQBsAHUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIASQBTAE8AXwA4ADYAMAAxAC4ASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAiACwAIgBJAFMATwBfADgANgAwADEALgBJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAiACwAIgBJAFMATwBfADgANgAwADEALgBJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ASQBTAF8AVgBBAEwASQBEAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ASQBTAF8AVgBBAEwASQBEAF8AVwBFAEUASwBfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AWQBFAEEAUgBfAEQAQQBZAF8AQwBPAFUATgBUACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFkARQBBAFIAXwBXAEUARQBLAF8AQwBPAFUATgBUACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEQAQQBZAF8ATwBSAEQASQBOAEEATAAiACwAIgBJAFMATwBfADgANgAwADEALgBGAFIATwBNAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARABBAFkAXwBPAEYAXwBXAEUARQBLACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEQAQQBZAF8ATwBGAF8AVwBFAEUASwBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFcARQBFAEsAXwBOAFUATQBCAEUAUgAiACwAIgBJAFMATwBfADgANgAwADEALgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAiACwAIgBJAFMATwBfADgANgAwADEALgBUAE8AXwBXAEUARQBLAF8ARABBAFQARQAiACwAIgBJAFMATwBfADgANgAwADEALgBGAFIATwBNAF8AVwBFAEUASwBfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AVgBBAEwASQBEAEEAVABFAF8AQwBIAEEAUgBBAEMAVABFAFIAUwAiACwAIgBJAFMATwBfADgANgAwADEALgBQAEEAUgBTAEUAXwBEAEEAVABFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFAAQQBSAFMARQBfAFQASQBNAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AUABBAFIAUwBFAF8AVABJAE0ARQBfAFoATwBOAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AUABBAFIAUwBFAF8AUABBAFIAVABTACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFAAQQBSAFMARQBfAEQAQQBUAEUAXwBUAEkATQBFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEYATwBSAE0AQQBUAF8ARABBAFQARQAiACwAIgBJAFMATwBfADgANgAwADEALgBGAE8AUgBNAEEAVABfAFQASQBNAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARgBPAFIATQBBAFQAXwBUAEkATQBFAF8AWgBPAE4ARQAiACwAIgBJAFMATwBfADgANgAwADEALgBGAE8AUgBNAEEAVABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEYATwBSAE0AQQBUAF8AVwBFAEUASwBfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARgBPAFIATQBBAFQAXwBEAEEAVABFAF8AVABJAE0ARQAiACwAIgBJAFMATwBfADgANgAwADEALgBJAFMATwBfAFQATwBfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARABBAFQARQBfAFQATwBfAEkAUwBPACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIARABNAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAiAH0ALAB7ACIAcABhAHQAaAAiADoAIgAvAHAAcgBvAGoAZQBjAHQAcwAvAEkAUwBPAF8AOAA2ADAAMQAiACwAIgB0AGUAeAB0ACIAOgAiAC8AKgAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAXABuACMAIABJAFMATwBfADgANgAwADEAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAIAAgACAAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABUAGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAHMAdABhAG4AZABhAHIAZAAgAGQAZQBmAGkAbgBlAHMAIABhACAAdQBuAGkAdgBlAHIAcwBhAGwAIABuAG8AdABhAHQAaQBvAG4AIABvAGYAIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlAHMALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABEAGEAdABlAHMAIABhAHIAZQAgAGkAbgAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIAIABhAG4AZAAgAHQAaQBtAGUAcwAgAGEAcgBlACAAYgBhAHMAZQBkACAAbwBuACAAdABoAGUAIAAyADQAIABoAG8AdQByACAAdABpAG0AZQBrAGUAZQBwAGkAbgBnACAAcwB5AHMAdABlAG0AIAB3AGkAdABoACAAYQBuACAAIAAgACAAIAAgACMAXABuACMAIABvAHAAdABpAG8AbgBhAGwAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAZgByAG8AbQAgAFUAVABDAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABNAG8AZAB1AGwAZQAgAEQAZQBwAGUAbgBkAGUAbgBjAGkAZQBzADoAIABOAG8AbgBlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABMAG8AZwBpAGMAYQBsACAARgB1AG4AYwB0AGkAbwBuAHMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAgACMAXABuACMAIABJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQBzAHQAcwAgAGkAZgAgAGEAIAB5AGUAYQByACAAaQBzACAAdgBhAGwAaQBkACAAZgBvAHIAIABJAFMATwAgADgANgAwADEALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAIABcAG4AIwAgAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHMAdABzACAAaQBmACAAYQAgAHkAZQBhAHIAIABpAG4AYwBsAHUAZABlAHMAIABhACAAbABlAGEAcAAgAGQAYQB5ACAAaQBuACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHMAdABzACAAaQBmACAAYQAgAGQAYQB0AGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwAgAFwAbgAjACAASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAcwB0AHMAIABpAGYAIABhACAAdABpAG0AZQAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAAdABoAGUAIAAyADQAIABoAG8AdQByACAAdABpAG0AZQBrAGUAZQBwAGkAbgBnACAAcwB5AHMAdABlAG0ALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjACAAXABuACMAIABJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFAF8AWgBPAE4ARQAgACAAIAAgACAAIAAgAFQAZQBzAHQAcwAgAGkAZgAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAaQBzACAAaQBuACAAdgBhAGwAaQBkACAAcgBhAG4AZwBlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABJAFMAXwBWAEEATABJAEQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAgACAAIAAgAFQAZQBzAHQAcwAgAGkAZgAgAGEAbgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlACAAaQBzACAAdgBhAGwAaQBkACAAZgBvAHIAIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAXABuACMAIABJAFMAXwBWAEEATABJAEQAXwBXAEUARQBLAF8ARABBAFQARQAgACAAIAAgACAAIAAgAFQAZQBzAHQAcwAgAGkAZgAgAGEAIAB3AGUAZQBrACAAZABhAHQAZQAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAIABcAG4AIwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEMAYQBsAGUAbgBkAGEAcgAgAEYAdQBuAGMAdABpAG8AbgBzACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACAAIwBcAG4AIwAgAFkARQBBAFIAXwBEAEEAWQBfAEMATwBVAE4AVAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAYwBvAHUAbgB0ACAAbwBmACAAbwByAGQAaQBuAGEAbAAgAGQAYQB5AHMAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIAB5AGUAYQByAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAFkARQBBAFIAXwBXAEUARQBLAF8AQwBPAFUATgBUACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAYwBvAHUAbgB0ACAAbwBmACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawBzACAAaQBuACAAYQAgAGcAaQB2AGUAbgAgAHkAZQBhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEQAQQBZAF8ATwBSAEQASQBOAEEATAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbgB1AG0AYgBlAHIAIABvAGYAIABhACAAZABhAHQAZQAgAGkAbgAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAZgByAG8AbQAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABkAGEAdABlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABmAG8AcgAgAGEAIABnAGkAdgBlAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAuACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAFcARQBFAEsAXwBOAFUATQBCAEUAUgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAbwBmACAAYQAgAGcAaQB2AGUAbgAgAGQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAFcARQBFAEsAXwBOAFUATQBCAEUAUgBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAbwBmACAAYQAgAGcAaQB2AGUAbgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAFQATwBfAFcARQBFAEsAXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAYQBuAGQAIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAGQAYQB0AGUALgAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEYAUgBPAE0AXwBXAEUARQBLAF8ARABBAFQARQAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZQBpAHQAaABlAHIAIABhACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAbwByACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgACAAIAAgACAAIwBcAG4AIwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAdwBlAGUAawAgAGEAbgBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAFAAYQByAHMAaQBuAGcAIABGAHUAbgBjAHQAaQBvAG4AcwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACAAIwBcAG4AIwAgAFYAQQBMAEkARABBAFQARQBfAEMASABBAFIAQQBDAFQARQBSAFMAIAAgACAAIAAgACAAVABlAHMAdABzACAAaQBmACAAdABlAHgAdAAgAGMAbwBuAHQAYQBpAG4AcwAgAG8AbgBsAHkAIABjAGgAYQByAGEAYwB0AGUAcgBzACAAdABoAGEAdAAgAGEAcgBlACAAdgBhAGwAaQBkACAAZgBvAHIAIABJAFMATwAgADgANgAwADEALgAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAFAAQQBSAFMARQBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeQBlAGEAcgAsACAAbQBvAG4AdABoACAAYQBuAGQAIABkAGEAeQAgAG8AZgAgAGEAIABkAGEAdABlACAAZgByAG8AbQAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIwBcAG4AIwAgAFAAQQBSAFMARQBfAFQASQBNAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAaABvAHUAcgAsACAAbQBpAG4AdQB0AGUAIABhAG4AZAAgAHMAZQBjAG8AbgBkACAAbwBmACAAdABpAG0AZQAgAGYAcgBvAG0AIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuACAAIwBcAG4AIwAgAFAAQQBSAFMARQBfAFQASQBNAEUAXwBaAE8ATgBFACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAdABpAG0AZQAgAHoAbwBuAGUAIABvAGYAZgBzAGUAdAAgAGkAbgAgAG0AaQBuAHUAdABlAHMAIABmAHIAbwBtACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgAgACAAIAAgACAAIwBcAG4AIwAgAFAAQQBSAFMARQBfAFAAQQBSAFQAUwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBwAGwAaQB0AHMAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAB0AGUAZAAgAHQAZQB4AHQAIAB2AGEAbAB1AGUAIABpAG4AdABvACAAaQBuAHQAbwAgAHIAZQBzAHAAZQBjAHQAaQB2AGUAIABwAGEAcgB0AHMAIABvAGYAIABkAGEAdABlACwAIAAgACAAIAAgACAAIwBcAG4AIwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAFAAQQBSAFMARQBfAEkAUwBPADgANgAwADEAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAGMAbwBtAHAAbABpAGMAYQB0AGkAbwBuAHMAIABmAHIAbwBtACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgAgACAAIAAgACAAIwBcAG4AIwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEYAbwByAG0AYQB0AHQAaQBuAGcAIABGAHUAbgBjAHQAaQBvAG4AcwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACAAIwBcAG4AIwAgAEYATwBSAE0AQQBUAF8ARABBAFQARQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAGEAIABkAGEAdABlACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEYATwBSAE0AQQBUAF8AVABJAE0ARQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAGEAIAB0AGkAbQBlACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEYATwBSAE0AQQBUAF8AVABJAE0ARQBfAFoATwBOAEUAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAGEAIAB0AGkAbQBlACAAegBvAG4AZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEYATwBSAE0AQQBUAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAGEAbgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEYATwBSAE0AQQBUAF8AVwBFAEUASwBfAEQAQQBUAEUAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAGEAIAB3AGUAZQBrACAAZABhAHQAZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEYATwBSAE0AQQBUAF8ASQBTAE8AOAA2ADAAMQAgACAAIAAgACAAIAAgACAAIAAgACAAUgBlAHQAdQByAG4AcwAgAGQAYQB0AGUAIABhAG4AZAAgAHQAaQBtAGUAIABjAG8AbQBwAGwAaQBjAGEAdABpAG8AbgBzACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEMAbwBuAHYAZQByAHMAaQBvAG4AIABGAHUAbgBjAHQAaQBvAG4AcwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACAAIwBcAG4AIwAgAEMATwBOAFYARQBSAFQAXwBUAE8AXwBEAEEAVABFACAAIAAgACAAIAAgACAAIAAgACAAQwBvAG4AdgBlAHIAdABzACAAdABlAHgAdAAgAGkAbgAgAEkAUwBPACAAZgBvAHIAbQBhAHQAIAB0AG8AIABhAG4AIABFAHgAYwBlAGwAIABkAGEAdABlAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgAEMATwBOAFYARQBSAFQAXwBGAFIATwBNAF8ARABBAFQARQAgACAAIAAgACAAIAAgACAAQwBvAG4AdgBlAHIAdABzACAAYQBuACAARQB4AGMAZQBsACAAZABhAHQAZQAgAHQAbwAgAEkAUwBPACAAZgBvAHIAbQBhAHQAdABlAGQAIAB0AGUAeAB0AC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBcAG4AIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACMAIwAjACoALwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAFYAQQBMAEkARABfAFkARQBBAFIAXABuAFwAbgBUAGUAcwB0AHMAIABpAGYAIABhACAAeQBlAGEAcgAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAASQBTAE8AIAA4ADYAMAAxAC4AXABuAE4AbwB0AGUAIAB0AGgAYQB0ACAAMQAgAEIAQwAgAD0AIAAwACAAQwBFACwAIAAyACAAQgBDACAAPQAgAC0AMQAgAEMARQBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABiAG8AbwBsAGUAYQBuAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBBAGwAbABvAHcARABlAGMAaQBtAGEAbAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAEEAbABsAG8AdwAgAGQAZQBjAGkAbQBhAGwAIAB2AGEAbAB1AGUAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBfAFYAQQBMAEkARABfAFkARQBBAFIAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAAWwBBAGwAbABvAHcARABlAGMAaQBtAGEAbABdACwAXABuACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACwAXABuACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACgATgAoAEEAbABsAG8AdwBEAGUAYwBpAG0AYQBsACkAIAA9ACAAMAApACAAKgAgACgAWQBlAGEAcgBDAEUAIAA8AD4AIABJAE4AVAAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIABBAEIAUwAoAFkAZQBhAHIAQwBFACkAIAA8ACAAMQAwADAAMAAwADAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAF8ATABFAEEAUABfAFkARQBBAFIAXABuAFwAbgBUAGUAcwB0AHMAIABpAGYAIABhACAAeQBlAGEAcgAgAGkAbgBjAGwAdQBkAGUAcwAgAGEAIABsAGUAYQBwACAAZABhAHkAIABpAG4AIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAYgBvAG8AbABlAGEAbgAuAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAeQBlAGEAcgAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASQBTAF8ATABFAEEAUABfAFkARQBBAFIAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSACgAWQBlAGEAcgBDAEUALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATQBPAEQAKABfAHkAZQBhAHIAQwBFACwAIAA0ADAAMAApACAAPQAgADAALAAgAFQAUgBVAEUALAAgAEkARgAoAE0ATwBEACgAXwB5AGUAYQByAEMARQAsACAAMQAwADAAKQAgAD0AIAAwACwAIABGAEEATABTAEUALAAgAE0ATwBEACgAXwB5AGUAYQByAEMARQAsACAANAApACAAPQAgADAAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQAgAGQAYQB0AGUAIABpAHMAIAB2AGEAbABpAGQAIABmAG8AcgAgAHQAaABlACAARwByAGUAZwBvAHIAaQBhAG4AIABjAGEAbABlAG4AZABhAHIALgBcAG4ASQBmACAAbQBvAG4AdABoACAAYQBuAGQAIABkAGEAeQAgAG0AaQBzAHMAaQBuAGcALAAgAGMAbwBuAHMAaQBkAGUAcgBlAGQAIABhACAAeQBlAGEAcgAgAG8AbgBsAHkAIABkAGEAdABlAC4AXABuAEkAZgAgAG8AbgBsAHkAIABkAGEAeQAgAGkAcwAgAG0AaQBzAHMAaQBuAGcALAAgAGMAbwBuAHMAaQBkAGUAcgBlAGQAIABhACAAeQBlAGEAcgAgAGEAbgBkACAAbQBvAG4AdABoACAAZABhAHQAZQAuAFwAbgBPAG4AbAB5ACAAdABoAGUAIABsAGEAcwB0ACAAcAByAG8AdgBpAGQAZQBkACAAZQBsAGUAbQBlAG4AdAAgAGMAYQBuACAAaABhAHYAZQAgAGEAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAdgBhAGwAdQBlAC4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAYgBvAG8AbABlAGEAbgAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAE0AbwBuAHQAaAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAE0AbwBuAHQAaAAgAG8AZgAgAHkAZQBhAHIAXABuAEQAYQB5ACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAbQBvAG4AdABoAFwAbgBbAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5AF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABEAGkAcwBhAGwAbABvAHcAIABzAGgAbwByAHQAIABmAG8AcgBtAHMAOgAgAFkAZQBhAHIALAAgAFkAZQBhAHIAIABhAG4AZAAgAE0AbwBuAHQAaABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIABbAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5AF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAG8AbgB0AGgAKQApACAAKgAgAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AbwBuAHQAaAApACkAIAAqACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMAApACAAKwAgACgAKABOACgAQQBsAGwATQBhAG4AZABhAHQAbwByAHkAKQAgADwAPgAgADAAKQAgACoAIAAoAF8AZQBsAGUAbQBlAG4AdABzACAAPAAgADMAKQApACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHkAZQBhAHIAIABpAHMAIABtAGEAbgBkAGEAdABvAHIAeQAsACAAYQBuAGQAIABhAGwAbAAgAGUAbABlAG0AZQBuAHQAcwAgAG0AYQBuAGQAYQB0AG8AcgB5ACAAaQBmACAAQQBsAGwATQBhAG4AZABhAHQAbwByAHkAIABzAHcAaQB0AGMAaAAgAGkAcwAgAHMAZQB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAbABlAG0AZQBuAHQAcwAgAD0AIAAzACwAIAAvAC8AIAB5AGUAYQByACwAIABtAG8AbgB0AGgAIABhAG4AZAAgAGQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSACgAWQBlAGEAcgBDAEUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAG8AbgB0AGgAIAA8AD4AIABJAE4AVAAoAE0AbwBuAHQAaAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG0AbwBuAHQAaAAgAGMAYQBuAG4AbwB0ACAAYgBlACAAZgByAGEAYwB0AGkAbwBuAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABmAG8AcgAgAG0AbwBuAHQAaAAgAHIAYQBuAGcAZQAgADEALgAuADEAMgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAE0AbwBuAHQAaAAgAD4APQAgADEAKQAgACoAIAAoAE0AbwBuAHQAaAAgADwAPQAgADEAMgApACkAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAIABJAE4AVAAoAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgATQBvAG4AdABoACAAPQAgADIAKQAsACAALwAvACAARgBlAGIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABfAGQAYQB5ACAAPgA9ACAAMQApACAAKgAgACgAXwBkAGEAeQAgADwAPQAgACgAMgA4ACAAKwAgAE4AKABJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkAKQApACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABNAG8AbgB0AGgAIAA8AD0AIAA3ACkALAAgAC8ALwAgAEoAYQBuACwAIABNAGEAcgAsACAAQQBwAHIALAAgAE0AYQB5ACwAIABKAHUAbgAsACAASgB1AGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABfAGQAYQB5ACAAPgA9ACAAMQApACAAKgAgACgAXwBkAGEAeQAgADwAPQAgACgAMwAwACAAKwAgAE0ATwBEACgATQBvAG4AdABoACwAIAAyACkAKQApACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgATQBvAG4AdABoACAAPgA9ACAAOAApACwAIAAvAC8AIABBAHUAZwAsACAAUwBlAHAALAAgAE8AYwB0ACwAIABOAG8AdgAsACAARABlAGMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBkAGEAeQAgAD4APQAgADEAKQAgACoAIAAoAF8AZABhAHkAIAA8AD0AIAAoADMAMQAgAC0AIABNAE8ARAAoAE0AbwBuAHQAaAAsACAAMgApACkAKQAgADwAPgAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAbABlAG0AZQBuAHQAcwAgAD0AIAAyACwAIAAvAC8AIAB5AGUAYQByACAAYQBuAGQAIABtAG8AbgB0AGgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFkARQBBAFIAKABZAGUAYQByAEMARQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAEkATgBUACgATQBvAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAGYAbwByACAAbQBvAG4AdABoACAAcgBhAG4AZwBlACAAMQAuAC4AMQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBtAG8AbgB0AGgAIAA+AD0AIAAxACkAIAAqACAAKABfAG0AbwBuAHQAaAAgADwAPQAgADEAMgApACkAIAA8AD4AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMQAsACAALwAvACAAeQBlAGEAcgAgAG8AbgBsAHkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACwAIAAxACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAXABuAFwAbgBUAGUAcwB0AHMAIABpAGYAIABhACAAdABpAG0AZQAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAAdABoAGUAIAAyADQAIABoAG8AdQByACAAdABpAG0AZQBrAGUAZQBwAGkAbgBnACAAcwB5AHMAdABlAG0ALgBcAG4ATwBuAGwAeQAgAHQAaABlACAAbABhAHMAdAAgAHAAcgBvAHYAaQBkAGUAZAAgAGUAbABlAG0AZQBuAHQAIABjAGEAbgAgAGgAYQB2AGUAIABhACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHYAYQBsAHUAZQAuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGIAbwBvAGwAZQBhAG4ALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEgAbwB1AHIAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgADAALgAuADIANABcAG4ATQBpAG4AdQB0AGUAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMAAuAC4ANQA5AC4AOQA5ADkAXABuAFMAZQBjAG8AbgBkACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgADAALgAuADUAOQAuADkAOQA5AFwAbgBbAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5AF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABEAGkAcwBhAGwAbABvAHcAIABzAGgAbwByAHQAIABmAG8AcgBtAHMAOgAgAEgAbwB1AHIALAAgAEgAbwB1AHIAIABhAG4AZAAgAE0AaQBuAHUAdABlAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFACAAPQAgAEwAQQBNAEIARABBACgASABvAHUAcgAsACAATQBpAG4AdQB0AGUALAAgAFMAZQBjAG8AbgBkACwAIABbAEEAbABsAE0AYQBuAGQAYQB0AG8AcgB5AF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAXwBlAGwAZQBtAGUAbgB0AHMALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgASABvAHUAcgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE0AaQBuAHUAdABlACkAKQAgACoAIABJAFMATgBVAE0AQgBFAFIAKABTAGUAYwBvAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAGkAbgB1AHQAZQApACkAIAAqACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABTAGUAYwBvAG4AZAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFMAZQBjAG8AbgBkACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBlAGwAZQBtAGUAbgB0AHMAIAA9ACAAMAApACAAKwAgACgAKABOACgAQQBsAGwATQBhAG4AZABhAHQAbwByAHkAKQAgADwAPgAgADAAKQAgACoAIAAoAF8AZQBsAGUAbQBlAG4AdABzACAAPAAgADMAKQApACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGgAbwB1AHIAIABpAHMAIABtAGEAbgBkAGEAdABvAHIAeQAsACAAYQBuAGQAIABhAGwAbAAgAGUAbABlAG0AZQBuAHQAcwAgAG0AYQBuAGQAYQB0AG8AcgB5ACAAaQBmACAAQQBsAGwATQBhAG4AZABhAHQAbwByAHkAIABzAHcAaQB0AGMAaAAgAGkAcwAgAHMAZQB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAbABlAG0AZQBuAHQAcwAgAD0AIAAzACwAIAAvAC8AIABoAG8AdQByACwAIABtAGkAbgB1AHQAZQAsACAAcwBlAGMAbwBuAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAGMAbwBuAGQAWAAsACAAUgBPAFUATgBEAEQATwBXAE4AKABTAGUAYwBvAG4AZAAgACoAIAAxADAAMAAwADAALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAGgAbwB1AHIAIABpAHMAIABuAG8AdAAgAGYAcgBhAGMAdABpAG8AbgBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAbwB1AHIAIAA8AD4AIABJAE4AVAAoAEgAbwB1AHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABoAG8AdQByACAAaQBuACAAcgBhAG4AZwBlACAAMAAuAC4AMgA0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgASABvAHUAcgAgAD4APQAgADAAKQAgACoAIAAoAEgAbwB1AHIAIAA8AD0AIAAyADQAKQApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAbQBpAG4AdQB0AGUAIABpAHMAIABuAG8AdAAgAGYAcgBhAGMAdABpAG8AbgBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0AaQBuAHUAdABlACAAPAA+ACAASQBOAFQAKABNAGkAbgB1AHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAG0AaQBuAHUAdABlACAAaQBuACAAcgBhAG4AZwBlACAAMAAuAC4ANQA5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgATQBpAG4AdQB0AGUAIAA+AD0AIAAwACkAIAAqACAAKABNAGkAbgB1AHQAZQAgADwAPQAgADUAOQApACkAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIAB6AGUAcgBvACAAbQBpAG4AdQB0AGUAIABhAG4AZAAgAHMAZQBjAG8AbgBkACAAZgBvAHIAIAAyADQAIABoAG8AdQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgASABvAHUAcgAgAD0AIAAyADQAKQAgACoAIAAoACgATQBpAG4AdQB0AGUAIAA8AD4AIAAwACkAIAArACAAKABfAHMAZQBjAG8AbgBkAFgAIAA8AD4AIAAwACkAKQApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABzAGUAYwBvAG4AZAAgAGkAbgAgAHIAYQBuAGcAZQAgADAALgAuADUAOQAuADkAOQA5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBzAGUAYwBvAG4AZABYACAAPgA9ACAAMAApACAAKgAgACgAXwBzAGUAYwBvAG4AZABYACAAPAAgADYAMAAwADAAMAAwACkAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAbABlAG0AZQBuAHQAcwAgAD0AIAAyACwAIAAvAC8AIABoAG8AdQByACAAYQBuAGQAIABtAGkAbgB1AHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAGkAbgB1AHQAZQBYACwAIABSAE8AVQBOAEQARABPAFcATgAoAE0AaQBuAHUAdABlACAAKgAgADYAMAAwADAAMAAwACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABoAG8AdQByACAAaQBzACAAbgBvAHQAIABmAHIAYQBjAHQAaQBvAG4AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAG8AdQByACAAPAA+ACAASQBOAFQAKABIAG8AdQByACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAaABvAHUAcgAgAGkAbgAgAHIAYQBuAGcAZQAgADAALgAuADIANABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAEgAbwB1AHIAIAA+AD0AIAAwACkAIAAqACAAKABIAG8AdQByACAAPAA9ACAAMgA0ACkAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAHoAZQByAG8AIABtAGkAbgB1AHQAZQAgAGYAbwByACAAMgA0ACAAaABvAHUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAEgAbwB1AHIAIAA9ACAAMgA0ACkAIAAqACAAKABfAG0AaQBuAHUAdABlAFgAIAA8AD4AIAAwACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGUAcwB0ACAAbQBpAG4AdQB0AGUAIABpAG4AIAByAGEAbgBnAGUAIAAwAC4ALgA1ADkALgA5ADkAOQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAF8AbQBpAG4AdQB0AGUAWAAgAD4APQAgADAAKQAgACoAIAAoAF8AbQBpAG4AdQB0AGUAWAAgADwAIAAzADYAMAAwADAAMAAwADAAKQApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQBsAGUAbQBlAG4AdABzACAAPQAgADEALAAgAC8ALwAgAGgAbwB1AHIAIABvAG4AbAB5ACAAdABpAG0AZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAG8AdQByAFgALAAgAFIATwBVAE4ARABEAE8AVwBOACgASABvAHUAcgAgACoAIAAzADYAMAAwADAAMAAwADAALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABlAHMAdAAgAGgAbwB1AHIAIABpAG4AIAByAGEAbgBnAGUAIAAwAC4ALgAyADQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBoAG8AdQByAFgAIAA+AD0AIAAwACkAIAAqACAAKABfAGgAbwB1AHIAWAAgADwAPQAgADgANgA0ADAAMAAwADAAMAAwACkAKQAgADwAPgAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAXABuAFwAbgBUAGUAcwB0AHMAIABpAGYAIAB0AGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGkAcwAgAGkAbgAgAHYAYQBsAGkAZAAgAHIAYQBuAGcAZQAuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGIAbwBvAGwAZQBhAG4ALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAE8AZgBmAHMAZQB0AE0AaQBuAHUAdABlAHMAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABSAGEAbgBnAGUAIABpAHMAIAAtADkAMAAwAC4ALgArADkAMAAwACAALQA+ACAALQAxADUAOgAwADAALgAuACsAMQA1ADoAMAAwAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFAF8AWgBPAE4ARQAgAD0AIABMAEEATQBCAEQAQQAoAE8AZgBmAHMAZQB0AE0AaQBuAHUAdABlAHMALABcAG4AIAAgACAAIABJAEYAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE8AZgBmAHMAZQB0AE0AaQBuAHUAdABlAHMAKQApACwAIABGAEEATABTAEUALAAgACgAKABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACAAPgA9ACAALQA5ADAAMAApACAAKgAgACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAgADwAPQAgADkAMAAwACkAKQAgADwAPgAgADAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASQBTAF8AVgBBAEwASQBEAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAXABuAFwAbgBUAGUAcwB0AHMAIABpAGYAIABhAG4AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAgAGkAcwAgAHYAYQBsAGkAZAAgAGYAbwByACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGIAbwBvAGwAZQBhAG4ALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAE8AcgBkAGkAbgBhAGwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAATwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ASQBTAF8AVgBBAEwASQBEAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATwByAGQAaQBuAGEAbAAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABPAHIAZABpAG4AYQBsACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAIAAvAC8AIABPAHIAZABpAG4AYQBsACAAaQBzACAAbQBhAG4AZABhAHQAbwByAHkAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSACgAWQBlAGEAcgBDAEUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbwByAGQAaQBuAGEAbAAsACAASQBOAFQAKABPAHIAZABpAG4AYQBsACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBhAHAARABhAHkALAAgAE4AKABJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABmAG8AcgAgAHYAYQBsAGkAZAAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABfAG8AcgBkAGkAbgBhAGwAIAA+AD0AIAAxACkAIAAqACAAKABfAG8AcgBkAGkAbgBhAGwAIAA8AD0AIAAoADMANgA1ACAAKwAgAF8AbABlAGEAcABEAGEAeQApACkAKQAgADwAPgAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEkAUwBfAFYAQQBMAEkARABfAFcARQBFAEsAXwBEAEEAVABFAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAYQAgAHcAZQBlAGsAIABkAGEAdABlACAAaQBzACAAdgBhAGwAaQBkACAAZgBvAHIAIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAYgBvAG8AbABlAGEAbgAuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAFcAZQBlAGsAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEkAUwBPACAAZABlAGYAaQBuAGUAZAAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAG8AZgAgAHQAaABlACAAeQBlAGEAcgBcAG4ARABhAHkATwBmAFcAZQBlAGsAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAARABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsAIAB3AGgAZQByAGUAIAAxAC4ALgA3ACAALQA+ACAATQBvAG4ALgAuAFMAdQBuAFwAbgBbAEQAYQB5AE8AZgBXAGUAZQBrAE0AYQBuAGQAYQB0AG8AcgB5AF0AIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABEAGEAeQBPAGYAVwBlAGUAawAgAG0AdQBzAHQAIABiAGUAIABwAHIAbwB2AGkAZABlAGQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEkAUwBfAFYAQQBMAEkARABfAFcARQBFAEsAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAFcAZQBlAGsALAAgAEQAYQB5AE8AZgBXAGUAZQBrACwAIABbAEQAYQB5AE8AZgBXAGUAZQBrAE0AYQBuAGQAYQB0AG8AcgB5AF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkAKQAgACsAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFcAZQBlAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALAAgAC8ALwAgAFkAZQBhAHIAIABhAG4AZAAgAFcAZQBlAGsAIABtAGEAbgBkAGEAdABvAHIAeQBcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbwBtAG0AaQB0AEQAbwBXACwAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5AE8AZgBXAGUAZQBrACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAE4AKABEAGEAeQBPAGYAVwBlAGUAawBNAGEAbgBkAGEAdABvAHIAeQApACAAPAA+ACAAMAApACAAKgAgAF8AbwBtAG0AaQB0AEQAbwBXACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAIAAvAC8AIABEAGEAeQBPAGYAVwBlAGUAawBNAGEAbgBkAGEAdABvAHIAeQAgAHMAZQB0ACAAYQBuAGQAIABEAGEAeQBPAGYAVwBlAGUAawAgAGkAcwAgAG8AbQBtAGkAdABlAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABpAGYAIAB3AGUAZQBrACAAaQBuACAAcgBhAG4AZwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB3AGUAZQBrACwAIABJAE4AVAAoAFcAZQBlAGsAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABfAHcAZQBlAGsAIAA+AD0AIAAxACkAIAAqACAAKABfAHcAZQBlAGsAIAA8AD0AIABZAEUAQQBSAF8AVwBFAEUASwBfAEMATwBVAE4AVAAoAFkAZQBhAHIAQwBFACkAKQApACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbwBtAG0AaQB0AEQAbwBXACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAALwAvACAAeQBlAGEAcgAgAGEAbgBkACAAdwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFcAZQBlAGsAIAA8AD4AIABfAHcAZQBlAGsALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAQQBMAFMARQAsACAALwAvACAAdwBlAGUAawAgAGgAYQBzACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHYAYQBsAHUAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAZQBzAHQAIABpAGYAIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABpAG4AIAByAGEAbgBnAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHcALAAgAEkATgBUACgARABhAHkATwBmAFcAZQBlAGsAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAXwBkAG8AdwAgAD4APQAgADEAKQAgACoAIAAoAF8AZABvAHcAIAA8AD0AIAA3ACkAKQAgADwAPgAgADAAIAAvAC8AIABUAGUAcwB0ACAAZgBvAHIAIABEAGEAeQBPAGYAVwBlAGUAawAgADEALgAuADcAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkARQBBAFIAXwBEAEEAWQBfAEMATwBVAE4AVABcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAbwB1AG4AdAAgAG8AZgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAeQBzACAAZgBvAHIAIABhACAAZwBpAHYAZQBuACAAeQBlAGEAcgAuAFwAbgBJAG4AdABlAGcAZQByACAAdwBpAHQAaAAgAHIAYQBuAGcAZQAgADMANgA1AC4ALgAzADYANgBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAG4AbwB0ACAAYQAgAHYAYQBsAGkAZAAgAHkAZQBhAHIALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFkARQBBAFIAXwBEAEEAWQBfAEMATwBVAE4AVAAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAXABuACAAIAAgACAASQBGACgATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBZAEUAQQBSACgAWQBlAGEAcgBDAEUALAAgADEAKQApACwAIAAjAFYAQQBMAFUARQAhACwAIABJAEYAKABJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkALAAgADMANgA2ACwAIAAzADYANQApACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkARQBBAFIAXwBXAEUARQBLAF8AQwBPAFUATgBUAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAYwBvAHUAbgB0ACAAbwBmACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawBzACAAaQBuACAAYQAgAGcAaQB2AGUAbgAgAHkAZQBhAHIALgBcAG4ASQBuAHQAZQBnAGUAcgAgAHcAaQB0AGgAIAByAGEAbgBnAGUAIAA1ADIALgAuADUAMwBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAG4AbwB0ACAAYQAgAHYAYQBsAGkAZAAgAHkAZQBhAHIALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFkARQBBAFIAXwBXAEUARQBLAF8AQwBPAFUATgBUACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHcATABhAHMAdABEAGEAeQAsACAATQBPAEQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACAAKwAgAEkATgBUACgAXwB5AGUAYQByAEMARQAgAC8AIAA0ACkAIAAtACAASQBOAFQAKABfAHkAZQBhAHIAQwBFACAALwAgADEAMAAwACkAIAArACAASQBOAFQAKABfAHkAZQBhAHIAQwBFACAALwAgADQAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAA3AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHcATABhAHMAdABEAGEAeQAgAD0AIAA0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAaQBmACAAbABhAHMAdAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgAgAGkAcwAgAGEAIABUAGgAdQByAHMAZABhAHkALAAgAHQAaABlAG4AIABoAGEAcwAgAGEAbgAgAGUAeAB0AHIAYQAgAHcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANQAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABhAHMAdABZAGUAYQByACwAIABfAHkAZQBhAHIAQwBFACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHcATABhAHMAdABEAGEAeQBQAHIAZQB2ACwAIABNAE8ARAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAWQBlAGEAcgAgACsAIABJAE4AVAAoAF8AbABhAHMAdABZAGUAYQByACAALwAgADQAKQAgAC0AIABJAE4AVAAoAF8AbABhAHMAdABZAGUAYQByACAALwAgADEAMAAwACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBUACgAXwBsAGEAcwB0AFkAZQBhAHIAIAAvACAANAAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAA3AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHcATABhAHMAdABEAGEAeQBQAHIAZQB2ACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAaQBmACAAbABhAHMAdAAgAGQAYQB5ACAAbwBmACAAcAByAGUAdgBpAG8AdQBzACAAeQBlAGEAcgAgAGkAcwAgAGEAIABXAGUAZABuAGUAcwBkAGEAeQAsACAAdABoAGUAbgAgAGgAYQBzACAAYQBuACAAZQB4AHQAcgBhACAAdwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANQAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG8AdABoAGUAcgB3AGkAegBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAA1ADIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAQQBZAF8ATwBSAEQASQBOAEEATABcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG4AdQBtAGIAZQByACAAbwBmACAAYQAgAGQAYQB0AGUAIABpAG4AIAB0AGgAZQAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAYQByAC4AXABuAEkAbgB0AGUAZwBlAHIAIAB3AGkAdABoACAAcgBhAG4AZwBlACAAMQAuAC4AMwA2ADYAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAGEAIAB2AGEAbABpAGQAIABkAGEAdABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBNAG8AbgB0AGgAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgAG8AZgAgAHkAZQBhAHIAXABuAEQAYQB5ACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAARABhAHkAIABvAGYAIABtAG8AbgB0AGgAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEQAQQBZAF8ATwBSAEQASQBOAEEATAAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIAB7ADAALAAgADMAMQAsACAANQA5ACwAIAA5ADAALAAgADEAMgAwACwAIAAxADUAMQAsACAAMQA4ADEALAAgADIAMQAyACwAIAAyADQAMwAsACAAMgA3ADMALAAgADMAMAA0ACwAIAAzADMANAB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBvAG4AdABoACwAIABJAE4AVAAoAE0AbwBuAHQAaAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEQAYQB5ACAAKwAgAEkATgBEAEUAWAAoAF8AbQBvAG4AdABoAE8AZgBmAHMAZQB0ACwAIAAsACAAXwBtAG8AbgB0AGgAKQAgACsAIABJAEYAKABfAG0AbwBuAHQAaAAgADwAPQAgADIALAAgADAALAAgAE4AKABJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAoAFkAZQBhAHIAQwBFACkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBGAFIATwBNAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB0AGUAIABmAHIAbwBtACAAYQAgAGcAaQB2AGUAbgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAC4AXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAHYAYQBsAGkAZAAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuACAAIAAxACAAfAAgAFkAZQBhAHIAIABDAEUAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuACAAIAAyACAAfAAgAE0AbwBuAHQAaAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAxAC4ALgAxADIAXABuACAAIAAzACAAfAAgAEQAYQB5ACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAxAC4ALgAzADEAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAE8AcgBkAGkAbgBhAGwAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABPAHIAZABpAG4AYQBsACAAZABhAHkAIABvAGYAIAB5AGUAYQByAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBGAFIATwBNAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATwByAGQAaQBuAGEAbAAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgARgBpAHIAcwB0AE8AcgBkAGkAbgBhAGwALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBfAEwARQBBAFAAXwBZAEUAQQBSACgAWQBlAGEAcgBDAEUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAMQAsACAAMwAyACwAIAA2ADEALAAgADkAMgAsACAAMQAyADIALAAgADEANQAzACwAIAAxADgAMwAsACAAMgAxADQALAAgADIANAA1ACwAIAAyADcANQAsACAAMwAwADYALAAgADMAMwA2AH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7ADEALAAgADMAMgAsACAANgAwACwAIAA5ADEALAAgADEAMgAxACwAIAAxADUAMgAsACAAMQA4ADIALAAgADIAMQAzACwAIAAyADQANAAsACAAMgA3ADQALAAgADMAMAA1ACwAIAAzADMANQB9AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbwByAGQAaQBuAGEAbAAsACAASQBOAFQAKABPAHIAZABpAG4AYQBsACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAG8AbgB0AGgALAAgAFgATQBBAFQAQwBIACgAXwBvAHIAZABpAG4AYQBsACwAIABfAG0AbwBuAHQAaABGAGkAcgBzAHQATwByAGQAaQBuAGEAbAAsACAALQAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AZgBmAHMAZQB0ACwAIABJAE4ARABFAFgAKABfAG0AbwBuAHQAaABGAGkAcgBzAHQATwByAGQAaQBuAGEAbAAsACAAXwBtAG8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAIABPAHIAZABpAG4AYQBsACAALQAgAF8AbwBmAGYAcwBlAHQAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFkAZQBhAHIAQwBFACwAIABfAG0AbwBuAHQAaAAsACAAXwBkAGEAeQApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBEAEEAWQBfAE8ARgBfAFcARQBFAEsAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABJAFMATwAgAGQAZQBmAGkAbgBlAGQAIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAGQAYQB0AGUALgBcAG4AIAAgADEAIAAtACAATQBvAG4AZABhAHkAXABuACAAIAAyACAALQAgAFQAdQBlAHMAZABhAHkAXABuACAAIAAzACAALQAgAFcAZQBkAG4AZQBzAGQAYQB5AFwAbgAgACAANAAgAC0AIABUAGgAdQByAGQAYQB5AFwAbgAgACAANQAgAC0AIABGAHIAaQBkAGEAeQBcAG4AIAAgADYAIAAtACAAUwBhAHQAdQByAGQAYQB5AFwAbgAgACAANwAgAC0AIABTAHUAbgBkAGEAeQBcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAG4AbwB0ACAAYQAgAHYAYQBsAGkAZAAgAGQAYQB0AGUALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAE0AbwBuAHQAaAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAATQBvAG4AdABoACAAbwBmACAAeQBlAGEAcgBcAG4ARABhAHkAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABEAGEAeQAgAG8AZgAgAG0AbwBuAHQAaABcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4ARABBAFkAXwBPAEYAXwBXAEUARQBLACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAVQBzAGkAbgBnACAAWgBlAGwAbABlAHIAIABDAG8AbgBnAHIAdQBlAG4AYwBlACwAIABjAGYALgAgAGgAdAB0AHAAcwA6AC8ALwBlAG4ALgB3AGkAawBpAHAAZQBkAGkAYQAuAG8AcgBnAC8AdwBpAGsAaQAvAFoAZQBsAGwAZQByACUAMgA3AHMAXwBjAG8AbgBnAHIAdQBlAG4AYwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAATQBhAHAAIABtAG8AbgB0AGgAcwAgAE0AYQByAC4ALgBGAGUAYgAgAC0APgAgADMALgAuADEANABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB6AGUAbABsAGUAcgBNAG8AbgB0AGgALAAgAE0ATwBEACgASQBOAFQAKABNAG8AbgB0AGgAKQAgAC0AIAAzACwAIAAxADIAKQAgACsAIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABKAGEAbgAsACAARgBlAGIAIABjAG8AbgBzAGkAZABlAHIAZQBkACAAYgBlAGwAbwBuAGcAaQBuAGcAIAB0AG8AIABwAHIAZQB2AGkAbwB1AHMAIAB5AGUAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHoAZQBsAGwAZQByAFkAZQBhAHIALAAgAEkATgBUACgAWQBlAGEAcgBDAEUAKQAgAC0AIABJAE4AVAAoAF8AegBlAGwAbABlAHIATQBvAG4AdABoACAALwAgADEAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBPAGYAQwBlAG4AdAAsACAATQBPAEQAKABfAHoAZQBsAGwAZQByAFkAZQBhAHIALAAgADEAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB6AGUAcgBvAEIAYQBzAGUAZABDAGUAbgB0ACwAIABJAE4AVAAoAF8AegBlAGwAbABlAHIAWQBlAGEAcgAgAC8AIAAxADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABaAGUAbABsAGUAcgAgAEMAbwBuAGcAcgB1AGUAbgBjAGUAIABmAG8AcgAgAEcAcgBlAGcAbwByAGkAYQBuACAAYwBhAGwAZQBuAGQAZQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAByAGUAdAB1AHIAbgBzACAAdwBlAGUAawBkAGEAeQBzACAAMAAuAC4ANgAgAC0APgAgAFMAYQB0AC4ALgBGAHIAaQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB6AGUAbABsAGUAcgBXAGUAZQBrAEQAYQB5ACwAIABNAE8ARAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBUACgARABhAHkAKQAgACsAIABJAE4AVAAoADEAMwAgACoAIAAoAF8AegBlAGwAbABlAHIATQBvAG4AdABoACAAKwAgADEAKQAgAC8AIAA1ACkAIAArACAAXwB5AGUAYQByAE8AZgBDAGUAbgB0ACAAKwAgAEkATgBUACgAXwB5AGUAYQByAE8AZgBDAGUAbgB0ACAALwAgADQAKQAgACsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4AVAAoAF8AegBlAHIAbwBCAGEAcwBlAGQAQwBlAG4AdAAgAC8AIAA0ACkAIAAtACAAMgAgACoAIABfAHoAZQByAG8AQgBhAHMAZQBkAEMAZQBuAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAA3AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABUAHIAYQBuAHMAbABhAHQAZQAgAHQAbwAgAEkAUwBPACAAbgB1AG0AYgBlAHIAaQBuAGcAIAAxAC4ALgA3ACAALQA+ACAATQBvAG4ALgAuAFMAdQBuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAE8ARAAoAF8AegBlAGwAbABlAHIAVwBlAGUAawBEAGEAeQAgACsAIAA1ACwAIAA3ACkAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABBAFkAXwBPAEYAXwBXAEUARQBLAF8ARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABJAFMATwAgAGQAZQBmAGkAbgBlAGQAIABkAGEAeQAgAG8AZgAgAHcAZQBlAGsAIABuAHUAbQBiAGUAcgAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAC4AXABuACAAIAAxACAALQAgAE0AbwBuAGQAYQB5AFwAbgAgACAAMgAgAC0AIABUAHUAZQBzAGQAYQB5AFwAbgAgACAAMwAgAC0AIABXAGUAZABuAGUAcwBkAGEAeQBcAG4AIAAgADQAIAAtACAAVABoAHUAcgBkAGEAeQBcAG4AIAAgADUAIAAtACAARgByAGkAZABhAHkAXABuACAAIAA2ACAALQAgAFMAYQB0AHUAcgBkAGEAeQBcAG4AIAAgADcAIAAtACAAUwB1AG4AZABhAHkAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAGEAIAB2AGEAbABpAGQAIABkAGEAdABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAE8AcgBkAGkAbgBhAGwAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABPAHIAZABpAG4AYQBsACAAZABhAHkAIABvAGYAIAB5AGUAYQByAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBEAEEAWQBfAE8ARgBfAFcARQBFAEsAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABEAGEAeQBPAGYAWQBlAGEAcgAsACAARABBAFkAXwBPAEYAXwBXAEUARQBLACgAWQBlAGEAcgBDAEUALAAgADEALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAVAByAGEAbgBzAGwAYQB0AGUAIAB0AG8AIABJAFMATwAgAG4AdQBtAGIAZQByAGkAbgBnACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBPAEQAKABfAGYAaQByAHMAdABEAGEAeQBPAGYAWQBlAGEAcgAgACsAIABJAE4AVAAoAE8AcgBkAGkAbgBhAGwAKQAgAC0AIAAyACwAIAA3ACkAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVwBFAEUASwBfAE4AVQBNAEIARQBSAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAbwBmACAAYQAgAGcAaQB2AGUAbgAgAGQAYQB0AGUALgBcAG4ASQBuAHQAZQBnAGUAcgAgAHcAaQB0AGgAIAByAGEAbgBnAGUAIAAxAC4ALgA1ADMAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAGEAIAB2AGEAbABpAGQAIABkAGEAdABlAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBNAG8AbgB0AGgAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAE0AbwBuAHQAaAAgAG8AZgAgAHkAZQBhAHIAXABuAEQAYQB5ACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAARABhAHkAIABvAGYAIABtAG8AbgB0AGgAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFcARQBFAEsAXwBOAFUATQBCAEUAUgAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbwByAGQAaQBuAGEAbAAsACAARABBAFkAXwBPAFIARABJAE4AQQBMACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5AE8AZgBXAGUAZQBrACwAIABEAEEAWQBfAE8ARgBfAFcARQBFAEsAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBvAG0AaQBuAGEAbABXAGUAZQBrACwAIABJAE4AVAAoACgASQBOAFQAKABfAG8AcgBkAGkAbgBhAGwAKQAgAC0AIABfAGQAYQB5AE8AZgBXAGUAZQBrACAAKwAgADEAMAApACAALwAgADcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBvAG0AaQBuAGEAbABXAGUAZQBrACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABsAGEAcwB0ACAAdwBlAGUAawAgAG8AZgAgAHAAcgBlAHYAaQBvAHUAcwAgAHkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWQBFAEEAUgBfAFcARQBFAEsAXwBDAE8AVQBOAFQAKABZAGUAYQByAEMARQAgAC0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAgAD0AIAA1ADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAGYAIAB0AGgAaQBzACAAeQBlAGEAcgAgAGQAbwBlAHMAIABuAG8AdAAgAGgAYQB2AGUAIAA1ADMAIAB3AGUAZQBrAHMALAAgAHQAaABlAG4AIABpAHMAIAB0AGgAZQAgAGYAaQByAHMAdAAgAHcAZQBlAGsAIABvAGYAIABmAG8AbABsAG8AdwBpAG4AZwAgAHkAZQBhAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAWQBFAEEAUgBfAFcARQBFAEsAXwBDAE8AVQBOAFQAKABZAGUAYQByAEMARQApACAAPQAgADUAMwAsACAANQAzACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAG8AbQBpAG4AYQBsAFcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFcARQBFAEsAXwBOAFUATQBCAEUAUgBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAASQBTAE8AIABkAGUAZgBpAG4AZQBkACAAdwBlAGUAawAgAG4AdQBtAGIAZQByACAAbwBmACAAYQAgAGcAaQB2AGUAbgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAC4AXABuAEkAbgB0AGUAZwBlAHIAIAB3AGkAdABoACAAcgBhAG4AZwBlACAAMQAuAC4ANQAzAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUALgBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ATwByAGQAaQBuAGEAbAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAE8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG8AZgAgAHkAZQBhAHIAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFcARQBFAEsAXwBOAFUATQBCAEUAUgBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATwByAGQAaQBuAGEAbAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkATwBmAFcAZQBlAGsALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMACgAWQBlAGEAcgBDAEUALAAgAE8AcgBkAGkAbgBhAGwAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawAsACAASQBOAFQAKAAoAEkATgBUACgATwByAGQAaQBuAGEAbAApACAALQAgAF8AZABhAHkATwBmAFcAZQBlAGsAIAArACAAMQAwACkAIAAvACAANwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAG8AbQBpAG4AYQBsAFcAZQBlAGsAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGwAYQBzAHQAIAB3AGUAZQBrACAAbwBmACAAcAByAGUAdgBpAG8AdQBzACAAeQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABZAEUAQQBSAF8AVwBFAEUASwBfAEMATwBVAE4AVAAoAFkAZQBhAHIAQwBFACAALQAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBvAG0AaQBuAGEAbABXAGUAZQBrACAAPQAgADUAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGkAZgAgAHQAaABpAHMAIAB5AGUAYQByACAAZABvAGUAcwAgAG4AbwB0ACAAaABhAHYAZQAgADUAMwAgAHcAZQBlAGsAcwAsACAAdABoAGUAbgAgAGkAcwAgADEAcwB0ACAAdwBlAGUAawAgAG8AZgAgAGYAbwBsAGwAbwB3AGkAbgBnACAAeQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABZAEUAQQBSAF8AVwBFAEUASwBfAEMATwBVAE4AVAAoAFkAZQBhAHIAQwBFACkAIAA9ACAANQAzACwAIAA1ADMALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AbwBtAGkAbgBhAGwAVwBlAGUAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVABPAF8AVwBFAEUASwBfAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABJAFMATwAgAGQAZQBmAGkAbgBlAGQAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABhAG4AZAAgAGQAYQB5ACAAbwBmACAAdwBlAGUAawAgAGYAcgBvAG0AIABhACAAZwBpAHYAZQBuACAAZABhAHQAZQAuACAAVABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABkAGEAdABlACAAYwBhAG4AIABpAG0AcABsAGkAYwBpAHQAbAB5AFwAbgBiAGUAIABlAGkAdABoAGUAcgAgAGEAIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlACAAbwByACAAbwByAGQAaQBuAGkAbgBhAGwAIABkAGEAdABlAC4AXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABuAG8AdAAgAGEAIAB2AGEAbABpAGQAIABkAGEAdABlAC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuACAAIAAxACAAfAAgAFkAZQBhAHIAIABDAEUAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AIAAgADIAIAB8ACAAVwBlAGUAawAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4ANQAzAFwAbgAgACAAMwAgAHwAIABEAGEAeQAgAG8AZgAgAHcAZQBlAGsAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAxAC4ALgA3ACAATQBvAG4ALgAuAHMAdQBuAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBNAG8AbgB0AGgAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAATQBvAG4AdABoACAAbwBmACAAdABoAGUAIAB5AGUAYQByAC4AIABJAGYAIABvAG0AbQBpAHQAdABlAGQALAAgAGQAYQB5ACAAaQBzACAAYQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAG8AcgBkAGkAbgBhAGwALgBcAG4ARABhAHkAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAEQAYQB5ACAAbwBmACAAdABoAGUAIABtAG8AbgB0AGgAIAB3AGgAZQBuACAAbQBvAG4AdABoACAAcAByAG8AdgBpAGQAZQBkACwAIABvAHQAaABlAHIAdwBpAHMAZQAgAG8AcgBkAGkAbgBhAGwAIABkAGEAeQAgAG8AZgAgAHQAaABlACAAeQBlAGEAcgAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBUAE8AXwBXAEUARQBLAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABNAG8AbgB0AGgALAAgAEQAYQB5ACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABJAFMATgBVAE0AQgBFAFIAKABNAG8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABwAGEAcgBhAG0AZQB0AGUAcgBzACAAYQByAGUAIABhACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAATQBvAG4AdABoACwAIABEAGEAeQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgByAGEAYwBEAGEAeQAsACAARABhAHkAIAAtACAASQBOAFQAKABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdwAsACAARABBAFkAXwBPAEYAXwBXAEUARQBLACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdwBlAGUAawAsACAAVwBFAEUASwBfAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBlAGEAcgBDAEUALAAgAEkATgBUACgAWQBlAGEAcgBDAEUAKQAgACsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoACgAXwB3AGUAZQBrACAAPQAgADEAKQAgACoAIAAoAE0AbwBuAHQAaAAgAD0AIAAxADIAKQAsACAAMQAsACAAKABfAHcAZQBlAGsAIAA+AD0AIAA1ADIAKQAgACoAIAAoAE0AbwBuAHQAaAAgAD0AIAAxACkALAAgAC0AMQAsACAAVABSAFUARQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAHkAZQBhAHIAQwBFACwAIABfAHcAZQBlAGsALAAgAF8AZABvAHcAIAArACAAXwBmAHIAYQBjAEQAYQB5ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAHAAYQByAGEAbQBlAHQAZQByAHMAIABhAHIAZQAgAGEAbgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAARABhAHkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAcgBhAGMARABhAHkALAAgAEQAYQB5ACAALQAgAEkATgBUACgARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHcALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMACgAWQBlAGEAcgBDAEUALAAgAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHcAZQBlAGsALAAgAFcARQBFAEsAXwBOAFUATQBCAEUAUgBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMACgAWQBlAGEAcgBDAEUALAAgAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIAQwBFACwAIABJAE4AVAAoAFkAZQBhAHIAQwBFACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKAAoAF8AdwBlAGUAawAgAD0AIAAxACkAIAAqACAAKABNAG8AbgB0AGgAIAA9ACAAMQAyACkALAAgADEALAAgACgAXwB3AGUAZQBrACAAPgA9ACAANQAyACkAIAAqACAAKABNAG8AbgB0AGgAIAA9ACAAMQApACwAIAAtADEALAAgAFQAUgBVAEUALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwB5AGUAYQByAEMARQAsACAAXwB3AGUAZQBrACwAIABfAGQAbwB3ACAAKwAgAF8AZgByAGEAYwBEAGEAeQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBGAFIATwBNAF8AVwBFAEUASwBfAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABlAGkAdABoAGUAcgAgAGEAIABHAHIAZQBnAG8AcgBpAGEAbgAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB0AGUAIABvAHIAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAgAGYAcgBvAG0AIABhACAAZwBpAHYAZQBuACAAdwBlAGUAawAgAGEAbgBkACAAZABhAHkAIABvAGYAIAB3AGUAZQBrAC4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAdgBhAGwAaQBkACAAdwBlAGUAawAgAGQAYQB0AGUALgBcAG4AXABuAEMAbwBsAHUAbQBuAHMAOgBcAG4AUgBlAHQAdQByAG4ATwByAGQAaQBuAGEAbAAgAD0AIABGAEEATABTAEUAXABuACAAIAAxACAAfAAgAFkAZQBhAHIAIABDAEUAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuACAAIAAyACAAfAAgAE0AbwBuAHQAaAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAxAC4ALgAxADIAXABuACAAIAAzACAAfAAgAEQAYQB5ACAAIAAgACAAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAxAC4ALgAzADEAXABuAFIAZQB0AHUAcgBuAE8AcgBkAGkAbgBhAGwAIAA9ACAAVABSAFUARQBcAG4AIAAgADEAIAB8ACAAWQBlAGEAcgAgAEMARQAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AIAAgADIAIAB8ACAATwByAGQAaQBuAGEAbAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgADEALgAuADMANgA2AFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AVwBlAGUAawAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABJAFMATwAgAGQAZQBmAGkAbgBlAGQAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABvAGYAIAB0AGgAZQAgAHkAZQBhAHIAXABuAEQAYQB5AE8AZgBXAGUAZQBrACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAARABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsAIAB3AGgAZQByAGUAIAAxAC4ALgA3ACAALQA+ACAATQBvAG4ALgAuAFMAdQBuACAAXABuAFsAUgBlAHQAdQByAG4ATwByAGQAaQBuAGEAbABdACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAUgBlAHQAdQByAG4AIAByAGUAcwB1AGwAdAAgAGEAcwAgAGEAbgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBGAFIATwBNAF8AVwBFAEUASwBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAAVwBlAGUAawAsACAARABhAHkATwBmAFcAZQBlAGsALAAgAFsAUgBlAHQAdQByAG4ATwByAGQAaQBuAGEAbABdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFcARQBFAEsAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAFcAZQBlAGsALAAgAEQAYQB5AE8AZgBXAGUAZQBrACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AEMAbwByAHIAZQBjAHQAaQBvAG4ALAAgAEQAQQBZAF8ATwBGAF8AVwBFAEUASwAoAFkAZQBhAHIAQwBFACwAIAAxACwAIAA0ACkAIAArACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AcgBkAGkAbgBhAGwARABhAHkALAAgAEkATgBUACgAVwBlAGUAawApACAAKgAgADcAIAArACAARABhAHkATwBmAFcAZQBlAGsAIAAtACAAXwB5AEMAbwByAHIAZQBjAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAG4AdABPAHIAZABpAG4AYQBsACwAIABJAE4AVAAoAF8AbwByAGQAaQBuAGEAbABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAG4AdABPAHIAZABpAG4AYQBsACAAPAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQB2AFkAZQBhAHIALAAgAFkAZQBhAHIAQwBFACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAdgBZAGUAYQByAEQAYQB5AEMAbwB1AG4AdAAsACAAWQBFAEEAUgBfAEQAQQBZAF8AQwBPAFUATgBUACgAXwBwAHIAZQB2AFkAZQBhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBhAGQAagB1AHMAdABlAGQATwByAGQAaQBuAGEAbABEAGEAeQAsACAAXwBwAHIAZQB2AFkAZQBhAHIARABhAHkAQwBvAHUAbgB0ACAAKwAgAF8AbwByAGQAaQBuAGEAbABEAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABSAGUAdAB1AHIAbgBPAHIAZABpAG4AYQBsACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXwBwAHIAZQB2AFkAZQBhAHIALAAgAF8AYQBkAGoAdQBzAHQAZQBkAE8AcgBkAGkAbgBhAGwARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAFIATwBNAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAKABfAHAAcgBlAHYAWQBlAGEAcgAsACAAXwBhAGQAagB1AHMAdABlAGQATwByAGQAaQBuAGEAbABEAGEAeQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAG4AdABPAHIAZABpAG4AYQBsACAAPAA9ACAAMwA2ADUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABSAGUAdAB1AHIAbgBPAHIAZABpAG4AYQBsACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFkAZQBhAHIAQwBFACwAIABfAG8AcgBkAGkAbgBhAGwARABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAF8AbwByAGQAaQBuAGEAbABEAGEAeQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABoAGkAcwBZAGUAYQByAEQAYQB5AEMAbwB1AG4AdAAsACAAWQBFAEEAUgBfAEQAQQBZAF8AQwBPAFUATgBUACgAWQBlAGEAcgBDAEUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQATwByAGQAaQBuAGEAbAAgAD4AIABfAHQAaABpAHMAWQBlAGEAcgBEAGEAeQBDAG8AdQBuAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQB4AHQAWQBlAGEAcgAsACAAWQBlAGEAcgBDAEUAIAArACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBkAGoAdQBzAHQAZQBkAE8AcgBkAGkAbgBhAGwARABhAHkALAAgAF8AbwByAGQAaQBuAGEAbABEAGEAeQAgAC0AIABfAHQAaABpAHMAWQBlAGEAcgBEAGEAeQBDAG8AdQBuAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABSAGUAdAB1AHIAbgBPAHIAZABpAG4AYQBsACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AbgBlAHgAdABZAGUAYQByACwAIABfAGEAZABqAHUAcwB0AGUAZABPAHIAZABpAG4AYQBsAEQAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAF8AbgBlAHgAdABZAGUAYQByACwAIABfAGEAZABqAHUAcwB0AGUAZABPAHIAZABpAG4AYQBsAEQAYQB5ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbABhAHMAdAAgAGQAYQB5ACAAbwBmACAAYQAgAGwAZQBhAHAAIAB5AGUAYQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgAUgBlAHQAdQByAG4ATwByAGQAaQBuAGEAbAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAWQBlAGEAcgBDAEUALAAgAF8AbwByAGQAaQBuAGEAbABEAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAF8AbwByAGQAaQBuAGEAbABEAGEAeQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTAFwAbgBcAG4AVABlAHMAdABzACAAaQBmACAAdABlAHgAdAAgAGMAbwBuAHQAYQBpAG4AcwAgAG8AbgBsAHkAIABjAGgAYQByAGEAYwB0AGUAcgBzACAAdABoAGEAdAAgAGEAcgBlACAAdgBhAGwAaQBkACAAZgBvAHIAIABJAFMATwAgADgANgAwADEALgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIABiAG8AbwBsAGUAYQBuAC4AIABBAG4AIABlAG0AcAB0AHkAIABzAHQAcgBpAG4AZwAgAHIAZQB0AHUAcgBuAHMAIABuAHUAbABsAC4AXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBUAGUAeAB0ACAAIAAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAB0AGUAZAAgAHQAZQB4AHQALgBcAG4AWwBTAHUAYgBzAGUAdABdACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAUwB1AGIAcwBlAHQAIABmAG8AcgBtAGEAdAAgAHQAbwAgAG0AYQB0AGMAaABcAG4AIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAAZABhAHQAZQAsACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQB6AG8AbgBlACAAIAArACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBUAFcAWgASIiAAKABkAGUAZgBhAHUAbAB0ACkAXABuACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAxACAALQAgAGQAYQB0AGUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKwAtADAAMQAyADMANAA1ADYANwA4ADkAVwASIlwAbgAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMgAgAC0AIAB0AGkAbQBlACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACwALgAwADEAMgAzADQANQA2ADcAOAA5ADoAVABcAG4AIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADMAIAAtACAAdABpAG0AZQAgAHoAbwBuAGUAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAArAC0AMAAxADIAMwA0ADUANgA3ADgAOQA6AFoAEiJcAG4AIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADQAIAAtACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAArACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBUAFcAEiJcAG4AIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUAIAAgACAAIAAgACAAIAArACwALQAuADAAMQAyADMANAA1ADYANwA4ADkAOgBUAFoAEiJcAG4AIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADYAIAAtACAAZAB1AHIAYQB0AGkAbwBuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAsAC0ALgAwADEAMgAzADQANQA2ADcAOAA5ADoARABIAE0AUABTAFQAVwBZAFwAbgAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANwAgAC0AIABpAG4AdABlAHIAdgBhAGwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACsALAAtAC4ALwAwADEAMgAzADQANQA2ADcAOAA5ADoARABIAE0AUABTAFQAVwBZAFoAEiJcAG4AIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADgAIAAtACAAZgB1AGwAbAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAArACwALQAuAC8AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUgBTAFQAVwBZAFoAEiJcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AVgBBAEwASQBEAEEAVABFAF8AQwBIAEEAUgBBAEMAVABFAFIAUwAgAD0AIABMAEEATQBCAEQAQQAoAFQAZQB4AHQALAAgAFsAUwB1AGIAcwBlAHQAXQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAVABlAHgAdAAgAD0AIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACwAIABJAE4AVAAoAE4AKABTAHUAYgBzAGUAdAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByAFMAZQB0ACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBkAHgAIAA8AD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAZABhAHQAZQAsACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsALAAtAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AFQAVwBaAFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAKwAtADAAMQAyADMANAA1ADYANwA4ADkAVwBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBkAHgAIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAHQAaQBtAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACwALgAwADEAMgAzADQANQA2ADcAOAA5ADoAVABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB0AGkAbQBlACAAegBvAG4AZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAKwAtADAAMQAyADMANAA1ADYANwA4ADkAOgBaAFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAgAD0AIAA0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAKwAsAC0ALgAwADEAMgAzADQANQA2ADcAOAA5ADoAVABXAFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAGQAeAAgAD0AIAA1ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAdABpAG0AZQAgAGEAbgBkACAAdABpAG0AZQAgAHoAbwBuAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsALAAtAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AFQAWgBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBkAHgAIAA9ACAANgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGQAdQByAGEAdABpAG8AbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIALAAtAC4AMAAxADIAMwA0ADUANgA3ADgAOQA6AEQASABNAFAAUwBUAFcAWQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACAAPQAgADcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAG4AdABlAHIAdgBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsALAAtAC4ALwAwADEAMgAzADQANQA2ADcAOAA5ADoARABIAE0AUABTAFQAVwBZAFoAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAZAB4ACAAPgA9ACAAOAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGYAdQBsAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsALAAtAC4ALwAwADEAMgAzADQANQA2ADcAOAA5ADoARABIAE0AUABSAFMAVABXAFkAWgBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAcwBjAGEAcABlAFQAZQB4AHQALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABTAFUAQgBTAFQASQBUAFUAVABFACgAVABlAHgAdAAsACAAXAAiACYAXAAiACwAIABcACIAJgBhAG0AcAA7AFwAIgApACwAIABcACIAPABcACIALAAgAFwAIgAmAGwAdAA7AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeABtAGwALAAgAFwAIgA8AHQAPgA8AHMAPgBcACIAIAAmACAAXwBlAHMAYwBhAHAAZQBUAGUAeAB0ACAAJgAgAFwAIgA8AC8AcwA+ADwALwB0AD4AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeABwAGEAdABoACwAIABcACIALwAvAHMAWwB0AHIAYQBuAHMAbABhAHQAZQAoAC4ALAAnAFwAIgAgACYAIABfAGMAaABhAHIAUwBlAHQAIAAmACAAXAAiACcALAAnACcAKQA9ACcAJwBdAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBFAFIAUgBPAFIAKABGAEkATABUAEUAUgBYAE0ATAAoAF8AeABtAGwALAAgAF8AeABwAGEAdABoACkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeQBlAGEAcgAsACAAbQBvAG4AdABoACAAYQBuAGQAIABkAGEAeQAgAG8AZgAgAGEAIABkAGEAdABlACAAZgByAG8AbQAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAE4AbwB0AGUAIABZAFkAWQBZAE0ATQAgAGkAcwAgAGkAbgB2AGEAbABpAGQALAAgAGQAdQBlACAAdABvACAAYwBvAGwAbABpAHMAaQBvAG4AIAB3AGkAdABoACAAdAByAHUAbgBjAGEAdABlAGQAIABmAG8AcgBtAGEAdAAgAFkAWQBNAE0ARABEACAAaQBuACAAZQBhAHIAbABpAGUAcgAgAHYAZQByAHMAaQBvAG4AcwAgAG8AZgAgAEkAUwBPACAAOAA2ADAAMQAuAFwAbgBcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAgAHwAIABiAG8AbwBsAGUAYQBuACAAfAAgAEYAbABhAGcAIABpAGYAIABjAG8AbQBwAGwAaQBhAG4AdAAgAHQAbwAgAEkAUwBPACAAOAA2ADAAMQAgAHMAdABhAG4AZABhAHIAZABcAG4AIAAgADIAIAB8ACAAUAByAGUAYwBpAHMAaQBvAG4AIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwACAALQAgAGkAbgB2AGEAbABpAGQAIAB2AGEAbAB1AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMQAgAC0AIAB5AGUAYQByAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADIAIAAtACAAbQBvAG4AdABoAC8AdwBlAGUAawBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGQAYQB5AFwAbgAgACAAMwAgAHwAIABGAG8AcgBtAGEAdAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEAIAAtACAAYgBhAHMAaQBjAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADIAIAAtACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADMAIAAtACAAYwBvAG4AcwBpAHMAdABlAG4AdAAgAHcAaQB0AGgAIABiAGEAcwBpAGMAIABvAHIAIABlAHgAdABlAG4AZABlAGQAXABuACAAIAA0ACAAfAAgAEQAYQB0AGUAVAB5AHAAZQAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAgAC0AIABjAGEAbABlAG4AZABhAHIAIABkAGEAdABlAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADIAIAAtACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMwAgAC0AIAB3AGUAZQBrACAAZABhAHQAZQBcAG4AIAAgADUAIAB8ACAAWQBlAGEAcgAgAEMARQAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuACAAIAA2ACAAfAAgAEQAYQB0AGUAQQByAGcAMQAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAATQBvAG4AdABoACAAMQAuAC4AMQAyACAAdwBoAGUAbgAgAEQAYQB0AGUAVAB5AHAAZQAgAD0AIAAxAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAEUAbQBwAHQAeQAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMgBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABXAGUAZQBrACAAMQAuAC4ANQAzACAAdwBoAGUAbgAgAEQAYQB0AGUAVAB5AHAAZQAgAD0AIAAzAFwAbgAgACAANwAgAHwAIABEAGEAdABlAEEAcgBnADIAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEQAYQB5ACAAMQAuAC4AMwAxACAAdwBoAGUAbgAgAEQAYQB0AGUAVAB5AHAAZQAgAD0AIAAxAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAE8AcgBkAGkAbgBhAGwAIAAxAC4ALgAzADYANgAgAHcAaABlAG4AIABEAGEAdABlAFQAeQBwAGUAIAA9ACAAMgBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABEAGEAeQAgAG8AZgAgAFcAZQBlAGsAIAAxAC4ALgA3ACAALQA+ACAATQBvAG4ALgAuAFMAdQBuACAAdwBoAGUAbgAgAEQAYQB0AGUAVAB5AHAAZQAgAD0AIAAzAFwAbgAgACAAIAAgACAAIAAgACAAXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAZQB4AHQAIAAgACAAIAAgACAAIAAgAHwAIABzAHQAcgBpAG4AZwAgAHwAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAB0AGUAZAAgAGQAYQB0AGUALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzADoAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIAArAFkAWQBZAFkAWQAtAE0ATQAtAEQARAAsACAALQBZAFkAWQBZAC0ATQBNAC0ARABEACwAIABZAFkAWQBZAC0ATQBNAC0ARABEACwAIABZAFkAWQBZAC0ATQBNACwAIABZAFkAWQBZAE0ATQBEAEQALAAgAFkAWQBZAFkAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFAAQQBSAFMARQBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABUAGUAeAB0ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBsAHUAbQBuAHMAOgAgAEgAYQBzAGgALAAgAFAAcgBlAGMAaQBzAGkAbwBuACwAIABGAG8AcgBtAGEAdAAsACAARABhAHQAZQBUAHkAcABlACwAIABZAGUAYQByAEwAZQBuACwAIABEAGEAdABlAEEAcgBnADEAUABvAHMALAAgAEQAYQB0AGUAQQByAGcAMQBMAGUAbgAsACAARABhAHQAZQBBAHIAZwAyAEwAZQBuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAdwBoAGUAcgBlACAASABhAHMAaAAgAD0AIAAoAEwARQBOACAAKgAgADQAMAA5ADYAKQAgACsAIAAoAEgAeQBwAGgAZQBuAFAAbwBzACAAKgAgADIANQA2ACkAIAArACAAKABIAHkAcABoAGUAbgAyAFAAbwBzACAAKgAgADEANgApACAAKwAgAFcAUABvAHMAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZgBtAHQASABhAHMAaABUAGEAYgBsAGUALAAgAHsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEANgAzADgANAAsACAAMQAsACAAMwAsACAAMQAsACAANAAsACAAMAAsACAAMAAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyADAANAA4ADAALAAgADEALAAgADMALAAgADEALAAgADUALAAgADAALAAgADAALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgA4ADYANwAyACwAIAAzACwAIAAxACwAIAAyACwAIAA0ACwAIAAwACwAIAAwACwAIAAzADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAOAA2ADcANwAsACAAMgAsACAAMQAsACAAMwAsACAANAAsACAANgAsACAAMgAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyADkAOQA1ADIALAAgADIALAAgADIALAAgADEALAAgADQALAAgADYALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAyADcANgA4ACwAIAAzACwAIAAxACwAIAAxACwAIAA0ACwAIAA1ACwAIAAyACwAIAAyADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAMgA3ADcAMwAsACAAMwAsACAAMQAsACAAMwAsACAANAAsACAANgAsACAAMgAsACAAMQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADIANwA3ADQALAAgADIALAAgADEALAAgADMALAAgADUALAAgADcALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwA0ADAANAA4ACwAIAAzACwAIAAyACwAIAAyACwAIAA0ACwAIAAwACwAIAAwACwAIAAzADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMANAAwADUANAAsACAAMgAsACAAMgAsACAAMwAsACAANAAsACAANwAsACAAMgAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADQAMwAwADQALAAgADIALAAgADIALAAgADEALAAgADUALAAgADcALAAgADIALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwA2ADgANgA0ACwAIAAzACwAIAAxACwAIAAxACwAIAA1ACwAIAA2ACwAIAAyACwAIAAyADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMANgA4ADcAMAAsACAAMwAsACAAMQAsACAAMwAsACAANQAsACAANwAsACAAMgAsACAAMQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADgANAAwADAALAAgADMALAAgADIALAAgADIALAAgADUALAAgADAALAAgADAALAAgADMAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwA4ADQAMAA3ACwAIAAyACwAIAAyACwAIAAzACwAIAA1ACwAIAA4ACwAIAAyACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQAMgAzADYAOAAsACAAMwAsACAAMgAsACAAMQAsACAANAAsACAANgAsACAAMgAsACAAMgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAA0ADIAMwA5ADAALAAgADMALAAgADIALAAgADMALAAgADQALAAgADcALAAgADIALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAA2ADcAMwA2ACwAIAAzACwAIAAyACwAIAAxACwAIAA1ACwAIAA3ACwAIAAyACwAIAAyADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQANgA3ADUAOQAsACAAMwAsACAAMgAsACAAMwAsACAANQAsACAAOAAsACAAMgAsACAAMQBcAG4AIAAgACAAIAAgACAAIAAgAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAsACAATABBAE0AQgBEAEEAKABfAGUAeABjAGUAcAB0AGkAbwBuACwAIABbAF8AcAByAGUAYwBpAHMAaQBvAG4AXQAsACAAWwBfAGUAeAB0AGUAbgBkAGUAZABdACwAIABbAF8AZABhAHQAZQBUAHkAcABlAF0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8ACAAbgB1AGwAbAAgACAARQBtAHAAdAB5ACAAdABlAHgAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAATgAvAEEAIAAgACAAVQBuAGEAYgBsAGUAIAB0AG8AIABwAGEAcgBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAFYAQQBMAFUARQAgAEkAbgB2AGEAbABpAGQAIAB2AGEAbAB1AGUAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAUAByAGUAYwBpAHMAaQBvAG4AIABvAGYAIABwAGEAcgBzAGUAZAAgAHYAYQBsAHUAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAGUAeAB0AGUAbgBkAGUAZAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABQAGEAcgBzAGUAZAAgAGUAeAB0AGUAbgBkAGUAZAAgAGYAbwByAG0AYQB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAGQAYQB0AGUAVAB5AHAAZQAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABDAGEAbABlAG4AZABhAHIAIABkAGEAdABlACwAIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQAsACAAbwByACAAdwBlAGUAawAgAGQAYQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIATgAvAEEAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AEYAQQBMAFMARQAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIAVgBBAEwAVQBFAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABGAEEATABTAEUALAAgADAALAAgAE4AKABfAGUAeAB0AGUAbgBkAGUAZAApACwAIABOACgAXwBkAGEAdABlAFQAeQBwAGUAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIABcACIAXAAiACwAIABcACIAXAAiAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAEYAQQBMAFMARQAsACAAMAAsACAATgAoAF8AZQB4AHQAZQBuAGQAZQBkACkALAAgAE4AKABfAGQAYQB0AGUAVAB5AHAAZQApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgACMAVgBBAEwAVQBFACEALAAgAFwAIgBcACIAfQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAC8ALwBfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABGAEEATABTAEUALAAgADAALAAgAE4AKABfAGUAeAB0AGUAbgBkAGUAZAApACwAIABOACgAXwBkAGEAdABlAFQAeQBwAGUAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABUAGUAeAB0ACAAPQAgAFwAIgBcACIALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAFYAQQBMAEkARABBAFQARQBfAEMASABBAFIAQQBDAFQARQBSAFMAKABUAGUAeAB0ACwAIAAxACkAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAUwBpAGcAbgAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAEYAVAAoAFQAZQB4AHQALAAgADEAKQAgAD0AIABcACIAKwBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUARgBUACgAVABlAHgAdAAsACAAMQApACAAPQAgAFwAIgAtAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFUATgBJAEMATwBEAEUAKABMAEUARgBUACgAVABlAHgAdAAsACAAMQApACkAIAA9ACAAOAA3ADIAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAFMAaQBnAG4ALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBGAFQAKABUAGUAeAB0ACwAIAAxACkAIAA9ACAAXAAiAC0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC0AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABVAE4ASQBDAE8ARABFACgATABFAEYAVAAoAFQAZQB4AHQALAAgADEAKQApACAAPQAgADgANwAyADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABlAG4ALAAgAEwARQBOACgAVABlAHgAdAApACAALQAgAE4AKABfAGgAYQBzAFMAaQBnAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAEQAYQB0AGUALAAgAEkARgAoAF8AaABhAHMAUwBpAGcAbgAsACAAUgBJAEcASABUACgAVABlAHgAdAAsACAAXwBsAGUAbgApACwAIABUAGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8ASAB5AHAAaAAxAFAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgAtAFwAIgAsACAAXwBzAEQAYQB0AGUAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAEgAeQBwAGgAMgBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIALQBcACIALAAgAF8AcwBEAGEAdABlACwAIABfAEgAeQBwAGgAMQBQAG8AcwAgACsAIAAxACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBXAHAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgBXAFwAIgAsACAAXwBzAEQAYQB0AGUAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgALAAgACgAXwBsAGUAbgAgACoAIAA0ADAAOQA2ACkAIAArACAAKABfAEgAeQBwAGgAMQBQAG8AcwAgACoAIAAyADUANgApACAAKwAgACgAXwBIAHkAcABoADIAUABvAHMAIAAqACAAMQA2ACkAIAArACAAXwBXAHAAbwBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgATABrAHUAcAAsACAASQBGAE4AQQAoAFgATQBBAFQAQwBIACgAXwBoAGEAcwBoACwAIABDAEgATwBPAFMARQBDAE8ATABTACgAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAMQApACwAIAAwACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBoAGEAcwBoAEwAawB1AHAAIAA9ACAAMAAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAZgBuACwAIABDAEgATwBPAFMARQBSAE8AVwBTACgAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAXwBoAGEAcwBoAEwAawB1AHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAdABlAG4AZABlAGQALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAANAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByAEMARQAsACAAXwB5AGUAYQByAFMAaQBnAG4AIAAqACAAVgBBAEwAVQBFACgATABFAEYAVAAoAF8AcwBEAGEAdABlACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADUAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAQQByAGcAMQAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA8ACAAMgApACAAKwAgACgASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA2ACkAIAA9ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABNAEkARAAoAF8AcwBEAGEAdABlACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADYAKQAsACAASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA3ACkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAQQByAGcAMgAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AcwBEAGEAdABlACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADgAKQApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdgBhAGwAaQBkACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMQAsACAASQBTAF8AVgBBAEwASQBEAF8ARABBAFQARQAoAF8AeQBlAGEAcgBDAEUALAAgAF8AZABBAHIAZwAxACwAIABfAGQAQQByAGcAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAyACwAIABJAFMAXwBWAEEATABJAEQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAF8AeQBlAGEAcgBDAEUALAAgAF8AZABBAHIAZwAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADMALAAgAEkAUwBfAFYAQQBMAEkARABfAFcARQBFAEsAXwBEAEEAVABFACgAXwB5AGUAYQByAEMARQAsACAAXwBkAEEAcgBnADEALAAgAF8AZABBAHIAZwAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAFQAUgBVAEUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AdgBhAGwAaQBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFQAUgBVAEUALAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAF8AZQB4AHQAZQBuAGQAZQBkACwAIABfAGQAYQB0AGUAVAB5AHAAZQAsACAAXwB5AGUAYQByAEMARQAsACAAXwBkAEEAcgBnADEALAAgAF8AZABBAHIAZwAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBWAEEATABVAEUAXAAiACwAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAIABfAGUAeAB0AGUAbgBkAGUAZAAsACAAXwBkAGEAdABlAFQAeQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBUAEkATQBFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAHQAaABlACAAaABvAHUAcgAsACAAbQBpAG4AdQB0AGUAIABhAG4AZAAgAHMAZQBjAG8AbgBkACAAbwBmACAAdABpAG0AZQAgAGYAcgBvAG0AIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuAFwAbgBcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAgAHwAIABiAG8AbwBsAGUAYQBuACAAfAAgAEYAbABhAGcAIABpAGYAIABjAG8AbQBwAGwAaQBhAG4AdAAgAHQAbwAgAEkAUwBPACAAOAA2ADAAMQAgAHMAdABhAG4AZABhAHIAZABcAG4AIAAgADIAIAB8ACAAUAByAGUAYwBpAHMAaQBvAG4AIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwACAALQAgAGkAbgB2AGEAbABpAGQAIAB2AGEAbAB1AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMQAgAC0AIABoAG8AdQByAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADIAIAAtACAAbQBpAG4AdQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMwAgAC0AIABpAG4AdABlAGcAZQByACAAcwBlAGMAbwBuAGQAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAANAAgAC0AIABzAGUAYwBvAG4AZAAgADAALgAwAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADUAIAAtACAAcwBlAGMAbwBuAGQAIAAwAC4AMAAwAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADYAIAAtACAAcwBlAGMAbwBuAGQAIAAwAC4AMAAwADAAXABuACAAIAAzACAAfAAgAEYAbwByAG0AYQB0ACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAgAC0AIABiAGEAcwBpAGMAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABlAHgAdABlAG4AZABlAGQAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMwAgAC0AIABjAG8AbgBzAGkAcwB0AGUAbgB0ACAAdwBpAHQAaAAgAGIAYQBzAGkAYwAgAG8AcgAgAGUAeAB0AGUAbgBkAGUAZABcAG4AIAAgADQAIAB8ACAASABvAHUAcgAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwAC4ALgAyADQAXABuACAAIAA1ACAAfAAgAE0AaQBuAHUAdABlACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMAAuAC4ANQA5AFwAbgAgACAANgAgAHwAIABTAGUAYwBvAG4AZAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgADAALgAuADUAOQAuADkAOQA5AFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVABlAHgAdAAgACAAIAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAfAAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AHQAZQBkACAAdABpAG0AZQAuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAARQB4AGEAbQBwAGwAZQAgAGYAbwByAG0AYQB0AHMAOgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgAFQAaABoADoAbQBtADoAcwBzAC4AcwBzAHMALAAgAFQAaABoADoAbQBtADoAcwBzACwAIABUAGgAaABtAG0ALAAgAFQAaABoAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBQAEEAUgBTAEUAXwBUAEkATQBFACAAPQAgAEwAQQBNAEIARABBACgAVABlAHgAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbAB1AG0AbgBzADoAIABIAGEAcwBoACwAIABQAHIAZQBjAGkAcwBpAG8AbgAsACAARgBvAHIAbQBhAHQALAAgAE0AaQBuAHUAdABlAFAAbwBzACwAIABTAGUAYwBvAG4AZABMAGUAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAHcAaABlAHIAZQAgAEgAYQBzAGgAIAA9ACAAKABMAEUATgAgACoAIAA0ADAAOQA2ACkAIAArACAAKABDAG8AbABvAG4AMQBQAG8AcwAgACoAIAAyADUANgApACAAKwAgACgAQwBvAGwAbwBuADIAUABvAHMAIAAqACAAMQA2ACkAIAArACAARABlAGMAaQBtAGEAbABQAG8AcwAgAFwAbgAgACAAIAAgACAAIAAgACAAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAewBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAOAAxADkAMgAsACAAMQAsACAAMwAsACAAMAAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADYAMwA4ADQALAAgADIALAAgADEALAAgADMALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgA0ADUANwA2ACwAIAAzACwAIAAxACwAIAAzACwAIAAyADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAMgA3ADcANQAsACAANAAsACAAMQAsACAAMwAsACAANAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADYAOAA3ADEALAAgADUALAAgADEALAAgADMALAAgADUAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAAwADkANgA3ACwAIAA2ACwAIAAxACwAIAAzACwAIAA2ADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAMQAyADQAOAAsACAAMgAsACAAMgAsACAANAAsACAAMAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADMANgAzADIALAAgADMALAAgADIALAAgADQALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANAAxADgAMwAzACwAIAA0ACwAIAAyACwAIAA0ACwAIAA0ADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADQANQA5ADIAOQAsACAANQAsACAAMgAsACAANAAsACAANQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAA1ADAAMAAyADUALAAgADYALAAgADIALAAgADQALAAgADYAXABuACAAIAAgACAAIAAgACAAIAB9ACwAXABuACAAIAAgACAAIAAgACAAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4ALAAgAEwAQQBNAEIARABBACgAXwBlAHgAYwBlAHAAdABpAG8AbgAsACAAWwBfAHAAcgBlAGMAaQBzAGkAbwBuAF0ALAAgAFsAXwBlAHgAdABlAG4AZABlAGQAXQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAGUAeABjAGUAcAB0AGkAbwBuACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAIABuAHUAbABsACAAIABFAG0AcAB0AHkAIAB0AGUAeAB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABOAC8AQQAgACAAIABVAG4AYQBiAGwAZQAgAHQAbwAgAHAAYQByAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAVgBBAEwAVQBFACAASQBuAHYAYQBsAGkAZAAgAHYAYQBsAHUAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABQAHIAZQBjAGkAcwBpAG8AbgAgAG8AZgAgAHAAYQByAHMAZQBkACAAdgBhAGwAdQBlAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AZQB4AHQAZQBuAGQAZQBkACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFAAYQByAHMAZQBkACAAZQB4AHQAZQBuAGQAZQBkACAAZgBvAHIAbQBhAHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIATgAvAEEAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AEYAQQBMAFMARQAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIAVgBBAEwAVQBFAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABGAEEATABTAEUALAAgADAALAAgAE4AKABfAGUAeAB0AGUAbgBkAGUAZAApACwAIAB7ACMAVgBBAEwAVQBFACEALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgARgBBAEwAUwBFACwAIAAwACwAIABOACgAXwBlAHgAdABlAG4AZABlAGQAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIABcACIAXAAiAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAvAC8AXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgARgBBAEwAUwBFACwAIAAwACwAIABOACgAXwBlAHgAdABlAG4AZABlAGQAKQAsACAAewAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhACwAIAAjAFYAQQBMAFUARQAhAH0AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBDAG8AdQBuAHQAQwBoAGEAcgBzACwAIABMAEEATQBCAEQAQQAoAEMAaABhAHIAQQByAHIAYQB5ACwAIABUAGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwByAGUAbQBvAHYAZQBkACwAIABSAEUARABVAEMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEMAaABhAHIAQQByAHIAYQB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAXwBhAGMAYwAsACAAXwBjAHUAcgByACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAXwBhAGMAYwAsACAAXwBjAHUAcgByACwAIABcACIAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBOACgAVABlAHgAdAApACAALQAgAEwARQBOACgAXwByAGUAbQBvAHYAZQBkACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBGAGkAbgBkAE4AdABoAEMAaABhAHIAUABvAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBzACwAIABUAGUAeAB0ACwAIABOACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByAEMAbwB1AG4AdAAsACAATABFAE4AKABDAGgAYQByAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgAsACAASQBOAFQAKABOACgATgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBjAGgAYQByAEMAbwB1AG4AdAAgAD0AIAAwACkAIAArACAAKABfAG4AIAA9ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAcwAsACAATQBJAEQAKABDAGgAYQByAHMALAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AYwBoAGEAcgBDAG8AdQBuAHQAKQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAG4AZABDAG8AdQBuAHQALAAgAGYAbgBDAG8AdQBuAHQAQwBoAGEAcgBzACgAXwBjAGgAYQByAHMALAAgAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACAAPAAgAEEAQgBTACgAXwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG4AdABoACAAYwBhAG4AIABjAG8AdQBuAHQAIABmAHIAbwBtACAAZQBuAGQAIABiAGEAYwBrAHcAYQByAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgB0AGgALAAgAEkARgAoAF8AbgAgAD4AIAAwACwAIABfAG4ALAAgAF8AZgBpAG4AZABDAG8AdQBuAHQAIAArACAAXwBuACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAHQAaABQAG8AcwAsACAAUgBFAEQAVQBDAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEUAUQBVAEUATgBDAEUAKAAxACwAIABfAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBjAGMAIAA8ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACwAIABJAEYARQBSAFIATwBSACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAE4ARAAoAF8AYwBoAGEAcgBzACwAIABUAGUAeAB0ACwAIABfAGEAYwBjACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFAAbwBzACwAIABNAEkATgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYASQBMAFQARQBSACgAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAsACAAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAgAD4AIAAwACwAIAAwACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBuAGUAeAB0AFAAbwBzACAAPQAgADAALAAgAC0AMQAsACAAXwBuAGUAeAB0AFAAbwBzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAF8AbgB0AGgAUABvAHMALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAVABlAHgAdAAgAD0AIABcACIAXAAiACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTACgAVABlAHgAdAAsACAAMgApACkALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFQAcABvAHMALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiAFQAXAAiACwAIABUAGUAeAB0ACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBUAHAAbwBzACAAPgAgADEALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBUAGkAbQBlACwAIABJAEYAKABfAFQAcABvAHMAIAA9ACAAMQAsACAAUgBJAEcASABUACgAVABlAHgAdAAsACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAAMQApACwAIABUAGUAeAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACwAIABMAEUATgAoAF8AcwBUAGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAbwBsAG8AbgAxAFAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgA6AFwAIgAsACAAXwBzAFQAaQBtAGUAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AbABvAG4AMgBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAOgBcACIALAAgAF8AcwBUAGkAbQBlACwAIABfAGMAbwBsAG8AbgAxAFAAbwBzACAAKwAgADEAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwBpAG0AYQBsAFAAbwBzACwAIABmAG4ARgBpAG4AZABOAHQAaABDAGgAYQByAFAAbwBzACgAXAAiAC4ALABcACIALAAgAF8AcwBUAGkAbQBlACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgALAAgACgAXwBsAGUAbgAgACoAIAA0ADAAOQA2ACkAIAArACAAKABfAGMAbwBsAG8AbgAxAFAAbwBzACAAKgAgADIANQA2ACkAIAArACAAKABfAGMAbwBsAG8AbgAyAFAAbwBzACAAKgAgADEANgApACAAKwAgAF8AZABlAGMAaQBtAGEAbABQAG8AcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaABMAGsAdQBwACwAIABJAEYATgBBACgAWABNAEEAVABDAEgAKABfAGgAYQBzAGgALAAgAEMASABPAE8AUwBFAEMATwBMAFMAKABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIAAxACkALAAgADAAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBoAGEAcwBoAEwAawB1AHAAIAA9ACAAMAAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBmAG4ALAAgAEMASABPAE8AUwBFAFIATwBXAFMAKABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIABfAGgAYQBzAGgATABrAHUAcAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQB4AHQAZQBuAGQAZQBkACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAbwB1AHIALAAgAFYAQQBMAFUARQAoAEwARQBGAFQAKABfAHMAVABpAG0AZQAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAGkAbgB1AHQAZQAsACAASQBGACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgADwAIAAyACwAIABcACIAXAAiACwAIABWAEEATABVAEUAKABNAEkARAAoAF8AcwBUAGkAbQBlACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADQAKQAsACAAMgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAEwAZQBuACwAIABJAE4ARABFAFgAKABfAGQAZQBmAG4ALAAgADEALAAgADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAZQBjAG8AbgBkACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA8ACAAMwAsACAAXAAiAFwAIgAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AcwBUAGkAbQBlACwAIABfAHMAZQBjAEwAZQBuACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAC8ALwAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+ACAAMwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGMAYQBuAG8AdAAgAGEAcwBzAHUAbQBlACAAVgBBAEwAVQBFACAAZgB1AG4AYwB0AGkAbwBuACAAdwBpAGwAbAAgAHUAcwBlACAAZABlAGMAaQBtAGEAbAAgAGMAaABhAHIAYQBjAHQAZQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAB3AGgAZQBuACAARQB4AGMAZQBsACAAaABhAHMAIABuAG8AbgAtAGUAbgBnAGwAaQBzAGgAIABSAGUAZwBpAG8AbgBhAGwAIABzAGUAdAB0AGkAbgBnAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBTAGUAYwAsACAAUgBJAEcASABUACgAXwBzAFQAaQBtAGUALAAgAF8AcwBlAGMATABlAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGkAbgB0AFMAZQBjACwAIABWAEEATABVAEUAKABMAEUARgBUACgAXwBzAFMAZQBjACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAcgBhAGMAUwBlAGMALAAgAFYAQQBMAFUARQAoAFIASQBHAEgAVAAoAF8AcwBTAGUAYwAsACAAXwBzAGUAYwBMAGUAbgAgAC0AIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjAGkAbQBhAGwAQgBhAHMAZQAsACAASQBOAEQARQBYACgAewAxADAALAAgADEAMAAwACwAIAAxADAAMAAwAH0ALAAgADEAIAAsAF8AcAByAGUAYwBpAHMAaQBvAG4AIAAtACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBuAHQAUwBlAGMAIAArACAAKABfAGYAcgBhAGMAUwBlAGMAIAAvACAAXwBkAGUAYwBpAG0AYQBsAEIAYQBzAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFACgAXwBoAG8AdQByACwAIABfAG0AaQBuAHUAdABlACwAIABfAHMAZQBjAG8AbgBkACkAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAFYAQQBMAFUARQBcACIALAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAF8AZQB4AHQAZQBuAGQAZQBkACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoACgAXwBUAHAAbwBzACAAPQAgADEAKQAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAXwBlAHgAdABlAG4AZABlAGQALAAgAF8AaABvAHUAcgAsACAAXwBtAGkAbgB1AHQAZQAsACAAXwBzAGUAYwBvAG4AZAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBUAEkATQBFAF8AWgBPAE4ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuACAAIAAxACAAfAAgAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACAAIAB8ACAAYgBvAG8AbABlAGEAbgAgAHwAIABGAGwAYQBnACAAaQBmACAAYwBvAG0AcABsAGkAYQBuAHQAIAB0AG8AIABJAFMATwAgADgANgAwADEAIABzAHQAYQBuAGQAYQByAGQAXABuACAAIAAyACAAfAAgAFAAcgBlAGMAaQBzAGkAbwBuACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwACAALQAgAGkAbgB2AGEAbABpAGQAIAB2AGEAbAB1AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAxACAALQAgAGgAbwB1AHIAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAyACAALQAgAG0AaQBuAHUAdABlAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMwAgAC0AIABzAGUAYwBvAG4AZABcAG4AIAAgADMAIAB8ACAARgBvAHIAbQBhAHQAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEAIAAtACAAYgBhAHMAaQBjAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABlAHgAdABlAG4AZABlAGQAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAzACAALQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIAB3AGkAdABoACAAYgBhAHMAaQBjACAAbwByACAAZQB4AHQAZQBuAGQAZQBkAFwAbgAgACAANQAgAHwAIABPAGYAZgBzAGUAdABNAGkAbgB1AHQAZQBzACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAALQA5ADAAMAAuAC4AKwA5ADAAMABcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAZQB4AHQAIAAgACAAIAAgACAAIAAgAHwAIABzAHQAcgBpAG4AZwAgAHwAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAB0AGUAZAAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgAHwAIABFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwA6AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAB8ACAAKwBoAGgAOgBtAG0ALAAgACsAaABoAG0AbQAsACAALQBoAGgALAAgAFoAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAFAAQQBSAFMARQBfAFQASQBNAEUAXwBaAE8ATgBFACAAPQAgAEwAQQBNAEIARABBACgAVABlAHgAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbAB1AG0AbgBzADoAIABIAGEAcwBoACwAIABQAHIAZQBjAGkAcwBpAG8AbgAsACAARQB4AHQAZQBuAGQAZQBkACwAIABaACwAIABNAGkAbgBQAG8AcwBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAHcAaABlAHIAZQAgAGgAYQBzAGgAIAA9ACAATABFAE4AIAAqACAAMQAwADIANAAgACsAIABaAG8AbgBsAHkAIAAqACAANQAxADIAIAArACAATABhAHMAdABTAGkAZwBuAFAAbwBzAEEAdAAxACAAKgAyADUANgAgACsAIABDAG8AbABvAG4AMQBQAG8AcwAgACoAIAAxADYAIAArACAAQwBvAGwAbwBuADIAUABvAHMAXABuACAAIAAgACAAIAAgACAAIABfAGYAbQB0AEgAYQBzAGgAVABhAGIAbABlACwAIAB7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADUAMwA2ACwAIAAzACwAIAAzACwAIAAxACwAIAAwADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMAMwAyADgALAAgADEALAAgADMALAAgADAALAAgADAAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAANQAzADcANgAsACAAMgAsACAAMQAsACAAMAAsACAANAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAA2ADQANgA0ACwAIAAyACwAIAAyACwAIAAwACwAIAA1ADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADcANAAyADQALAAgADMALAAgADEALAAgADAALAAgADQAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAOQA1ADQAMwAsACAAMwAsACAAMgAsACAAMAAsACAANQBcAG4AIAAgACAAIAAgACAAIAAgAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAsACAATABBAE0AQgBEAEEAKABfAGUAeABjAGUAcAB0AGkAbwBuACwAIABbAF8AZQB4AHQAZQBuAGQAZQBkAF0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8ACAAbgB1AGwAbAAgACAARQBtAHAAdAB5ACAAdABlAHgAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAATgAvAEEAIAAgACAAVQBuAGEAYgBsAGUAIAB0AG8AIABwAGEAcgBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAFYAQQBMAFUARQAgAEkAbgB2AGEAbABpAGQAIAB2AGEAbAB1AGUAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAdABlAG4AZABlAGQAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAUABhAHIAcwBlAGQAIABlAHgAdABlAG4AZABlAGQAIABmAG8AcgBtAGEAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsARgBBAEwAUwBFACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBWAEEATABVAEUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAEYAQQBMAFMARQAsACAAMAAsACAATgAoAF8AZQB4AHQAZQBuAGQAZQBkACkALAAgAHsAIwBWAEEATABVAEUAIQB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIALAAgAFwAIgBcACIAfQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEMAbwB1AG4AdABDAGgAYQByAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBBAHIAcgBhAHkALAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHgAdAAgAD0AIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIAZQBtAG8AdgBlAGQALAAgAFIARQBEAFUAQwBFACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBoAGEAcgBBAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABfAGEAYwBjACwAIABfAGMAdQByAHIALAAgAFwAIgBcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAATABFAE4AKABfAHIAZQBtAG8AdgBlAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEYAaQBuAGQATgB0AGgAQwBoAGEAcgBQAG8AcwAsACAATABBAE0AQgBEAEEAKABDAGgAYQByAHMALAAgAFQAZQB4AHQALAAgAE4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAQwBvAHUAbgB0ACwAIABMAEUATgAoAEMAaABhAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuACwAIABJAE4AVAAoAE4AKABOACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAGMAaABhAHIAQwBvAHUAbgB0ACAAPQAgADAAKQAgACsAIAAoAF8AbgAgAD0AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBoAGEAcgBzACwAIABNAEkARAAoAEMAaABhAHIAcwAsACAAUwBFAFEAVQBFAE4AQwBFACgAMQAsACAAXwBjAGgAYQByAEMAbwB1AG4AdAApACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAbgBkAEMAbwB1AG4AdAAsACAAZgBuAEMAbwB1AG4AdABDAGgAYQByAHMAKABfAGMAaABhAHIAcwAsACAAVABlAHgAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAG4AZABDAG8AdQBuAHQAIAA8ACAAQQBCAFMAKABfAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAbgB0AGgAIABjAGEAbgAgAGMAbwB1AG4AdAAgAGYAcgBvAG0AIABlAG4AZAAgAGIAYQBjAGsAdwBhAHIAZABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAHQAaAAsACAASQBGACgAXwBuACAAPgAgADAALAAgAF8AbgAsACAAXwBmAGkAbgBkAEMAbwB1AG4AdAAgACsAIABfAG4AIAArACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AdABoAFAAbwBzACwAIABSAEUARABVAEMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAF8AYQBjAGMALAAgAF8AYwB1AHIAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBhAGMAYwAgADwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgBlAHgAdABQAG8AcwBDAGgAYQByAHMALAAgAEkARgBFAFIAUgBPAFIAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEkATgBEACgAXwBjAGgAYQByAHMALAAgAFQAZQB4AHQALAAgAF8AYQBjAGMAIAArACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQB4AHQAUABvAHMALAAgAE0ASQBOACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAEwAVABFAFIAKABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACwAIABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACAAPgAgADAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAG4AZQB4AHQAUABvAHMAIAA9ACAAMAAsACAALQAxACwAIABfAG4AZQB4AHQAUABvAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0AQQBYACgAXwBuAHQAaABQAG8AcwAsACAAMAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAVABlAHgAdAAgAD0AIABcACIAXAAiACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABWAEEATABJAEQAQQBUAEUAXwBDAEgAQQBSAEEAQwBUAEUAUgBTACgAVABlAHgAdAAsACAAMwApACkALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBOAC8AQQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACwAIABMAEUATgAoAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBaAG8AbgBsAHkALAAgAE4AKAAoAF8AbABlAG4AIAA9ACAAMQApACAAKgAgACgASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAWgBcACIALAAgAFQAZQB4AHQAKQAsACAAMAApACAAPQAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAUwBpAGcAbgBQAG8AcwBBAHQAMQAsACAATgAoAGYAbgBGAGkAbgBkAE4AdABoAEMAaABhAHIAUABvAHMAKABcACIAKwAtAFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACwAIABUAGUAeAB0ACwAIAAtADEAKQAgAD0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYwBvAGwAbwBuADEAUABvAHMALAAgAEkARgBFAFIAUgBPAFIAKABGAEkATgBEACgAXAAiADoAXAAiACwAIABUAGUAeAB0ACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAG8AbABvAG4AMgBQAG8AcwAsACAASQBGAEUAUgBSAE8AUgAoAEYASQBOAEQAKABcACIAOgBcACIALAAgAFQAZQB4AHQALAAgAF8AYwBvAGwAbwBuADEAUABvAHMAIAArACAAMQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAaAAsACAAKABfAGwAZQBuACAAKgAgADEAMAAyADQAKQAgACsAIAAoAF8AWgBvAG4AbAB5ACAAKgAgADUAMQAyACkAIAArACAAKABfAGwAYQBzAHQAUwBpAGcAbgBQAG8AcwBBAHQAMQAgACoAIAAyADUANgApACAAKwAgACgAXwBjAG8AbABvAG4AMQBQAG8AcwAgACoAIAAxADYAKQAgACsAIABfAGMAbwBsAG8AbgAyAFAAbwBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAGgATABrAHUAcAAsACAASQBGAE4AQQAoAFgATQBBAFQAQwBIACgAXwBoAGEAcwBoACwAIABDAEgATwBPAFMARQBDAE8ATABTACgAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAMQApACwAIAAwACkALAAgADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBoAGEAcwBoAEwAawB1AHAAIAA9ACAAMAAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAZgBuACwAIABDAEgATwBPAFMARQBSAE8AVwBTACgAXwBmAG0AdABIAGEAcwBoAFQAYQBiAGwAZQAsACAAXwBoAGEAcwBoAEwAawB1AHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAdABlAG4AZABlAGQALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASQBOAEQARQBYACgAXwBkAGUAZgBuACwAIAAxACwAIAA0ACkAIAA+ACAAMAAsACAALwAvACAAWgAgAG8AbgBsAHkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFQAUgBVAEUALAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAF8AZQB4AHQAZQBuAGQAZQBkACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUARgBUACgAVABlAHgAdAAsACAAMQApACAAPQAgAFwAIgAtAFwAIgAsACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVQBOAEkAQwBPAEQARQAoAEwARQBGAFQAKABUAGUAeAB0ACwAIAAxACkAKQAgAD0AIAA4ADcAMgAyACwAIAAtADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgAsACAAXwBzAGkAZwBuACAAKgAgAFYAQQBMAFUARQAoAE0ASQBEACgAVABlAHgAdAAsACAAMgAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBtAGkAbgB1AHQAZQAsACAASQBGACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgADwAIAAyACwAIABcACIAXAAiACwAIABWAEEATABVAEUAKABNAEkARAAoAFQAZQB4AHQALAAgAEkATgBEAEUAWAAoAF8AZABlAGYAbgAsACAAMQAsACAANQApACwAIAAyACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAGMAbwBuAGQALAAgAEkARgAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA8ACAAMwAsACAAXAAiAFwAIgAsACAAVgBBAEwAVQBFACgAUgBJAEcASABUACgAVABlAHgAdAAsACAAMgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAE0AaQBuAHUAdABlAHMALAAgAEkATgBUACgAKABOACgAXwBoAG8AdQByACkAIAAqACAAMwA2ADAAMAApACAAKwAgACgATgAoAF8AbQBpAG4AdQB0AGUAKQAgACoAIAA2ADAAKQAgACsAIABOACgAXwBzAGUAYwBvAG4AZAApACkAIAAvACAANgAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAKABfAHQAegBvAE0AaQBuAHUAdABlAHMAKQApACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAVgBBAEwAVQBFAFwAIgAsACAAXwBlAHgAdABlAG4AZABlAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAVABSAFUARQAsACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsACAAXwBlAHgAdABlAG4AZABlAGQALAAgAF8AdAB6AG8ATQBpAG4AdQB0AGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBQAEEAUgBTAEUAXwBQAEEAUgBUAFMAXABuAFwAbgBTAHAAbABpAHQAcwAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AHQAZQBkACAAdABlAHgAdAAgAHYAYQBsAHUAZQAgAGkAbgB0AG8AIABpAG4AdABvACAAcgBlAHMAcABlAGMAdABpAHYAZQAgAHAAYQByAHQAcwAgAG8AZgAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABhAG4AZAAgAHQAaQBtAGUAIAB6AG8AbgBlAC4AXABuAFwAbgBDAG8AbAB1AG0AbgBzADoAXABuACAAIAAxACAAfAAgAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACAAfAAgAGIAbwBvAGwAZQBhAG4AIAB8ACAARgBsAGEAZwAgAGkAZgAgAGMAbwBtAHAAbABpAGEAbgB0ACAAdABvACAASQBTAE8AIAA4ADYAMAAxACAAcwB0AGEAbgBkAGEAcgBkAFwAbgAgACAAMgAgAHwAIABQAGEAcgB0AHMAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEIAaQB0AGYAbABhAGcAIABvAGYAIABwAGEAcgB0AHMAIAAwAC4ALgA3AFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADAAeAAwADQAIAAtACAAZABhAHQAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAwAHgAMAAyACAALQAgAHQAaQBtAGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMAB4ADAAMQAgAC0AIAB0AGkAbQBlACAAegBvAG4AZQBcAG4AIAAgADMAIAB8ACAARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAXABuACAAIAA0ACAAfAAgAFQAaQBtAGUAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAIAB8AFwAbgAgACAANQAgAHwAIABUAGkAbQBlACAAWgBvAG4AZQAgACAAIAAgAHwAIABzAHQAcgBpAG4AZwAgACAAfABcAG4AIAAgACAAIAAgACAAXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFQAZQB4AHQAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdAByAGkAbgBnACAAfAAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AHQAZQBkACAAdgBhAGwAdQBlACAAZgBvAHIAIABkAGEAdABlACwAIAB0AGkAbQBlACAAbwByACAAdABpAG0AZQAgAHoAbwBuAGUALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AUABBAFIAUwBFAF8AUABBAFIAVABTACAAPQAgAEwAQQBNAEIARABBACgAVABlAHgAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAsACAATABBAE0AQgBEAEEAKABfAGUAeABjAGUAcAB0AGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AZQB4AGMAZQBwAHQAaQBvAG4AIAAgAHwAIABzAHQAcgBpAG4AZwAgACAAfAAgAG4AdQBsAGwAIAAgAEUAbQBwAHQAeQAgAHQAZQB4AHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAE4ALwBBACAAIAAgAFUAbgBhAGIAbABlACAAdABvACAAcABhAHIAcwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AEYAQQBMAFMARQAsACAAMAAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAewBcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABcACIAXAAiAH0AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEMAbwB1AG4AdABDAGgAYQByAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBBAHIAcgBhAHkALAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABlAHgAdAAgAD0AIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIAZQBtAG8AdgBlAGQALAAgAFIARQBEAFUAQwBFACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBoAGEAcgBBAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABfAGEAYwBjACwAIABfAGMAdQByAHIALAAgAFwAIgBcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAE4AKABUAGUAeAB0ACkAIAAtACAATABFAE4AKABfAHIAZQBtAG8AdgBlAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBGAGkAbgBkAE4AdABoAEMAaABhAHIAUABvAHMALAAgAEwAQQBNAEIARABBACgAQwBoAGEAcgBzACwAIABUAGUAeAB0ACwAIABOACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBjAGgAYQByAEMAbwB1AG4AdAAsACAATABFAE4AKABDAGgAYQByAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgAsACAASQBOAFQAKABOACgATgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBjAGgAYQByAEMAbwB1AG4AdAAgAD0AIAAwACkAIAArACAAKABfAG4AIAA9ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMAaABhAHIAcwAsACAATQBJAEQAKABDAGgAYQByAHMALAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAF8AYwBoAGEAcgBDAG8AdQBuAHQAKQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAG4AZABDAG8AdQBuAHQALAAgAGYAbgBDAG8AdQBuAHQAQwBoAGEAcgBzACgAXwBjAGgAYQByAHMALAAgAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQBuAGQAQwBvAHUAbgB0ACAAPAAgAEEAQgBTACgAXwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG4AdABoACAAYwBhAG4AIABjAG8AdQBuAHQAIABmAHIAbwBtACAAZQBuAGQAIABiAGEAYwBrAHcAYQByAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbgB0AGgALAAgAEkARgAoAF8AbgAgAD4AIAAwACwAIABfAG4ALAAgAF8AZgBpAG4AZABDAG8AdQBuAHQAIAArACAAXwBuACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAHQAaABQAG8AcwAsACAAUgBFAEQAVQBDAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEUAUQBVAEUATgBDAEUAKAAxACwAIABfAG4AdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABfAGEAYwBjACwAIABfAGMAdQByAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBjAGMAIAA8ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG4AZQB4AHQAUABvAHMAQwBoAGEAcgBzACwAIABJAEYARQBSAFIATwBSACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAE4ARAAoAF8AYwBoAGEAcgBzACwAIABUAGUAeAB0ACwAIABfAGEAYwBjACAAKwAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAeAB0AFAAbwBzACwAIABNAEkATgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYASQBMAFQARQBSACgAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAsACAAXwBuAGUAeAB0AFAAbwBzAEMAaABhAHIAcwAgAD4AIAAwACwAIAAwACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBuAGUAeAB0AFAAbwBzACAAPQAgADAALAAgAC0AMQAsACAAXwBuAGUAeAB0AFAAbwBzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAF8AbgB0AGgAUABvAHMALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgADEAIAAtACAAVAAgAGYAaQByAHMAdAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEAIAA9ACAAQQB0ACAAZgBpAHIAcwB0ACAAcABvAHMAaQB0AGkAbwBuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAD0AIABBAGYAdABlAHIAIABmAGkAcgBzAHQAIABwAG8AcwBpAHQAaQBvAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAyACAALQAgAFQAWgAgAG0AYQByAGsAZQByACAAYQBmAHQAZQByACAAVAAgACAAIAAwACAAPQAgAE4AbwAgAHMAaQBnAG4AIABvAHIAIABaAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAgAD0AIABGAGkAcgBzAHQAIABwAG8AcwBpAHQAaQBvAG4AIABmAG8AbABsAG8AdwBpAG4AZwAgAFQAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyACAAPQAgAEEAZgB0AGUAcgAgAGYAaQByAHMAdAAgAHAAbwBzAGkAdABpAG8AbgAgAGYAbwBsAGwAbwB3AGkAbgBnACAAVABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgADMAIAAtACAAUABhAHIAdABzACAAYgBpAHQAIABmAGwAYQBnACAAIAAgACAAIAAgADAAeAAwADQAIAAtACAARABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAeAAwADIAIAAtACAAVABpAG0AZQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAeAAwADEAIAAtACAAVABpAG0AZQAgAFoAbwBuAGUAXABuACAAIAAgACAAIAAgACAAIABXAGkAdABoAFQAXwBMAG8AZwBpAGMALAAgAHsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALAAgADAALAAgADIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAsACAAMQAsACAAMQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACwAIAAyACwAIAAzADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIALAAgADAALAAgADYAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAsACAAMQAsACAANQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyACwAIAAyACwAIAA3AFwAbgAgACAAIAAgACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgADEAIAAtACAAVABaACAAbQBhAHIAawBlAHIAIABmAGkAcgBzAHQAIAAgACAAIAAgADAAIAA9ACAATgBvACAAcwBpAGcAbgAgAG8AcgAgAFoAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACAAPQAgAEYAaQByAHMAdAAgAHAAbwBzAGkAdABpAG8AbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAIAA9ACAAQQBmAHQAZQByACAAZgBpAHIAcwB0ACAAcABvAHMAaQB0AGkAbwBuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAMgAgAC0AIABUAFoAIABtAGEAcgBrAGUAcgAgAGkAcwAgAFoAIAAoAGIAbwBvAGwAZQBhAG4AKQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgADMAIAAtACAASABhAHMAIABDAG8AbABvAG4AIAAoAGIAbwBvAGwAZQBhAG4AKQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgADQAIAAtACAAVABpAG0AZQAgAGMAbwBuAGQAaQB0AGkAbwBuAHMAIAAoAGIAbwBvAGwAZQBhAG4AKQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgADUAIAAtACAAUABhAHIAdABzACAAYgBpAHQAIABmAGwAYQBnACAAIAAgACAAIAAgADAAeAAwADQAIAAtACAARABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAeAAwADIAIAAtACAAVABpAG0AZQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAeAAwADEAIAAtACAAVABpAG0AZQAgAFoAbwBuAGUAXABuACAAIAAgACAAIAAgACAAIABXAGkAdABoAG8AdQB0AFQAXwBMAG8AZwBpAGMALAAgAHsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALAAgADAALAAgADAALAAgADAALAAgADQAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsACAAMAAsACAAMAAsACAAMQAsACAAMgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAIAAwACwAIAAxACwAIAAwACwAIAAyADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALAAgADAALAAgADAALAAgADAALAAgADQAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAsACAAMAAsACAAMAAsACAAMQAsACAAMQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACwAIAAwACwAIAAxACwAIAAwACwAIAAxADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALAAgADEALAAgADAALAAgADAALAAgADEAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAsACAAMAAsACAAMAAsACAAMAAsACAANAA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyACwAIAAwACwAIAAwACwAIAAxACwAIAAzADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIALAAgADAALAAgADEALAAgADAALAAgADMAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAsACAAMAAsACAAMQAsACAAMQAsACAAMwA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyACwAIAAxACwAIAAwACwAIAAxACwAIAAzADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIALAAgADEALAAgADEALAAgADAALAAgADMAXABuACAAIAAgACAAIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAFcAaQB0AGgAVABfAFAAYQByAHQAcwBMAGUAbgAsACAATABBAE0AQgBEAEEAKABfAFQAcABvAHMALAAgAF8AVABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAZQBuACwAIABMAEUATgAoAFQAZQB4AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYQBmAHQAZQByAFQALAAgAFIASQBHAEgAVAAoAFQAZQB4AHQALAAgAF8AbABlAG4AIAAtACAAXwBUAHAAbwBzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFQAWgBtAGEAcgBrAGUAcgBQAG8AcwAsACAAZgBuAEYAaQBuAGQATgB0AGgAQwBoAGEAcgBQAG8AcwAoAFwAIgBaACsALQBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsACAAXwBhAGYAdABlAHIAVAAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBUAFoAbQBhAHIAawBGAGkAcgBzAHQALAAgAEkARgAoAF8AVABaAG0AYQByAGsAZQByAFAAbwBzACAAPgAgADEALAAgADIALAAgAF8AVABaAG0AYQByAGsAZQByAFAAbwBzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAcwBGAGwAYQBnACwAIABGAEkATABUAEUAUgAoAEMASABPAE8AUwBFAEMATwBMAFMAKABXAGkAdABoAFQAXwBMAG8AZwBpAGMALAAgADMAKQAsACAAKABDAEgATwBPAFMARQBDAE8ATABTACgAVwBpAHQAaABUAF8ATABvAGcAaQBjACwAIAAxACkAIAA9ACAAXwBUAGYAaQByAHMAdAApACAAKgAgACgAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAFcAaQB0AGgAVABfAEwAbwBnAGkAYwAsACAAMgApACAAPQAgAF8AVABaAG0AYQByAGsARgBpAHIAcwB0ACkALAAgACMATgAvAEEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEkAUwBOAEEAKABfAHAAYQByAHQAcwBGAGwAYQBnACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAIwBOAC8AQQAsACAAMAAsACAAMAAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUATABlAG4ALAAgAF8AVABwAG8AcwAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBMAGUAbgAsACAASQBGACgAQgBJAFQAQQBOAEQAKABfAHAAYQByAHQAcwBGAGwAYQBnACwAIAAyACkAIAA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEIASQBUAEEATgBEACgAXwBwAGEAcgB0AHMARgBsAGEAZwAsACAAMQApACAAPQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AVABaAG0AYQByAGsAZQByAFAAbwBzACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABlAG4AIAAtACAAXwBUAHAAbwBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AEwAZQBuACwAIABfAGwAZQBuACAALQAgAF8AVABwAG8AcwAgAC0AIABfAHQAaQBtAGUATABlAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAHAAYQByAHQAcwBGAGwAYQBnACwAIABfAGQAYQB0AGUATABlAG4ALAAgAF8AdABpAG0AZQBMAGUAbgAsACAAXwB0AHoATABlAG4AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABmAG4AVwBpAHQAaABvAHUAdABUAF8AUABhAHIAdABzAEwAZQBuACwAIABMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABlAG4ALAAgAEwARQBOACgAVABlAHgAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBUAFoAbQBhAHIAawBQAG8AcwAsACAAZgBuAEYAaQBuAGQATgB0AGgAQwBoAGEAcgBQAG8AcwAoAFwAIgBaACsALQBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAsACAAVABlAHgAdAAsACAALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFQAWgBtAGEAcgBrAEYAaQByAHMAdAAsACAASQBGACgAXwBUAFoAbQBhAHIAawBQAG8AcwAgAD4AIAAxACwAIAAyACwAIABfAFQAWgBtAGEAcgBrAFAAbwBzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAFQAWgBtAGEAcgBrAEkAcwBaACwAIABJAEYAKABfAFQAWgBtAGEAcgBrAFAAbwBzACAAPgAgADAALAAgAE4AKABDAE8ARABFACgATQBJAEQAKABUAGUAeAB0ACwAIABfAFQAWgBtAGEAcgBrAFAAbwBzACwAIAAxACkAKQAgAD0AIAA5ADAAKQAsACAAMAApACwAIAAvAC8AIABDAE8ARABFACgAXAAiAFoAXAAiACkAIAA9ACAAOQAwACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBIAGEAcwBDAG8AbABvAG4ALAAgAE4AKABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgA6AFwAIgAsACAAVABlAHgAdAApACwAIAAwACkAIAA+ACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAbgBCAGUAZgBvAHIAZQBUAFoALAAgAEkARgAoAF8AVABaAG0AYQByAGsARgBpAHIAcwB0ACAAPQAgADAALAAgAF8AbABlAG4ALAAgAF8AVABaAG0AYQByAGsAUABvAHMAIAAtACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlAEMAbwBuAGQAaQB0AGkAbwBuAGEAbAAsACAASQBGACgAXwBUAFoAbQBhAHIAawBGAGkAcgBzAHQAIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGUAbgBBAGYAdABlAHIAVABaACwAIABfAGwAZQBuACAALQAgAF8AVABaAG0AYQByAGsAUABvAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABfAGwAZQBuAEEAZgB0AGUAcgBUAFoAIAA9ACAAMgAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABlAG4AQQBmAHQAZQByAFQAWgAgAD0AIAA2ACwAIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABfAGwAZQBuAEIAZQBmAG8AcgBlAFQAWgAgAD0AIAAyACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQBhAHQAYwBoACwAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABDAEgATwBPAFMARQBDAE8ATABTACgAVwBpAHQAaABvAHUAdABUAF8ATABvAGcAaQBjACwAIAAxACkAIAA9ACAAXwBUAFoAbQBhAHIAawBGAGkAcgBzAHQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACoAIAAoAEMASABPAE8AUwBFAEMATwBMAFMAKABXAGkAdABoAG8AdQB0AFQAXwBMAG8AZwBpAGMALAAgADIAKQAgAD0AIABfAFQAWgBtAGEAcgBrAEkAcwBaACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAqACAAKABDAEgATwBPAFMARQBDAE8ATABTACgAVwBpAHQAaABvAHUAdABUAF8ATABvAGcAaQBjACwAIAAzACkAIAA9ACAAXwBIAGEAcwBDAG8AbABvAG4AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACoAIAAoAEMASABPAE8AUwBFAEMATwBMAFMAKABXAGkAdABoAG8AdQB0AFQAXwBMAG8AZwBpAGMALAAgADQAKQAgAD0AIABfAHQAaQBtAGUAQwBvAG4AZABpAHQAaQBvAG4AYQBsACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAcwBGAGwAYQBnACwAIABGAEkATABUAEUAUgAoAEMASABPAE8AUwBFAEMATwBMAFMAKABXAGkAdABoAG8AdQB0AFQAXwBMAG8AZwBpAGMALAAgADUAKQAsACAAXwBtAGEAdABjAGgALAAgACMATgAvAEEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBMAGUAbgAsACAASQBGACgAQgBJAFQAQQBOAEQAKABfAHAAYQByAHQAcwBGAGwAYQBnACwAIAA0ACkAIAA9ACAANAAsACAAXwBsAGUAbgAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlAEwAZQBuACwAIABJAEYAKABCAEkAVABBAE4ARAAoAF8AcABhAHIAdABzAEYAbABhAGcALAAgADIAKQAgAD0AIAAyACwAIABfAGwAZQBuAEIAZQBmAG8AcgBlAFQAWgAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoATABlAG4ALAAgAEkARgAoAEIASQBUAEEATgBEACgAXwBwAGEAcgB0AHMARgBsAGEAZwAsACAAMQApACAAPQAgADEALAAgAF8AbABlAG4AIAAtACAAXwBUAFoAbQBhAHIAawBQAG8AcwAgACsAIAAxACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AcABhAHIAdABzAEYAbABhAGcALAAgAF8AZABhAHQAZQBMAGUAbgAsACAAXwB0AGkAbQBlAEwAZQBuACwAIABfAHQAegBMAGUAbgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFQAZQB4AHQAIAA9ACAAXAAiAFwAIgAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgAVgBBAEwASQBEAEEAVABFAF8AQwBIAEEAUgBBAEMAVABFAFIAUwAoAFQAZQB4AHQALAAgADAAKQApACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIATgAvAEEAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBUAHAAbwBzACwAIABJAEYARQBSAFIATwBSACgARgBJAE4ARAAoAFwAIgBUAFwAIgAsACAAVABlAHgAdAApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AVABwAG8AcwAgAD0AIABMAEUATgAoAFQAZQB4AHQAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBUACwAIABJAEYAKABfAFQAcABvAHMAIAA+ACAAMQAsACAAMgAsACAAXwBUAHAAbwBzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAcwBMAGUAbgAsACAASQBGACgAXwBoAGEAcwBUACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAG4AVwBpAHQAaABUAF8AUABhAHIAdABzAEwAZQBuACgAXwBUAHAAbwBzACwAIABfAGgAYQBzAFQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBuAFcAaQB0AGgAbwB1AHQAVABfAFAAYQByAHQAcwBMAGUAbgAoACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABhAHIAdABzAEYAbABhAGcALAAgAEkATgBEAEUAWAAoAF8AcABhAHIAdABzAEwAZQBuACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABJAFMATgBBACgAXwBwAGEAcgB0AHMARgBsAGEAZwApACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIATgAvAEEAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAG8AQwBvAG0AcABsAGkAYQBuAHQALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAGEAcgB0AHMARgBsAGEAZwAgAD0AIAAxACwAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAcwBGAGwAYQBnACAAPQAgADUALAAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABhAHIAdABzAEYAbABhAGcAIAA9ACAANAAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgACgAXwBoAGEAcwBUACAAPgAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAUABhAHIAdAAsACAASQBGACgAQgBJAFQAQQBOAEQAKABfAHAAYQByAHQAcwBGAGwAYQBnACwAIAA0ACkAIAA9ACAANAAsACAATABFAEYAVAAoAFQAZQB4AHQALAAgAEkATgBEAEUAWAAoAF8AcABhAHIAdABzAEwAZQBuACwAIAAxACwAIAAyACkAKQAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBQAGEAcgB0ACwAIABJAEYAKABCAEkAVABBAE4ARAAoAF8AcABhAHIAdABzAEYAbABhAGcALAAgADIAKQAgAD0AIAAyACwAIABcACIAVABcACIAIAAmACAATQBJAEQAKABUAGUAeAB0ACwAIABfAFQAcABvAHMAIAArACAAMQAsACAASQBOAEQARQBYACgAXwBwAGEAcgB0AHMATABlAG4ALAAgADEALAAgADMAKQApACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AHoAUABhAHIAdAAsACAASQBGACgAQgBJAFQAQQBOAEQAKABfAHAAYQByAHQAcwBGAGwAYQBnACwAIAAxACkAIAA9ACAAMQAsACAAUgBJAEcASABUACgAVABlAHgAdAAsACAASQBOAEQARQBYACgAXwBwAGEAcgB0AHMATABlAG4ALAAgADEALAAgADQAKQApACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAGkAcwBvAEMAbwBtAHAAbABpAGEAbgB0ACwAIABfAHAAYQByAHQAcwBGAGwAYQBnACwAIABfAGQAYQB0AGUAUABhAHIAdAAsACAAXwB0AGkAbQBlAFAAYQByAHQALAAgAF8AdAB6AFAAYQByAHQAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFAAQQBSAFMARQBfAEkAUwBPADgANgAwADEAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAdABoAGUAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlACAAYwBvAG0AcABsAGkAYwBhAHQAaQBvAG4AcwAgAG8AZgAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPADgANgAwADEAIABmAG8AcgBtAGEAdAAuAFwAbgBcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAgACAAIAB8ACAAYgBvAG8AbABlAGEAbgAgAHwAIABGAGwAYQBnACAAaQBmACAAYwBvAG0AcABsAGkAYQBuAHQAIAB0AG8AIABJAFMATwAgADgANgAwADEAIABzAHQAYQBuAGQAYQByAGQAXABuACAAIAAyACAAfAAgAFAAYQByAHQAcwAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEIAaQB0AGYAbABhAGcAIABvAGYAIABwAGEAcgB0AHMAIAAwAC4ALgA3AFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAwAHgAMAA0ACAALQAgAGQAYQB0AGUAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADAAeAAwADIAIAAtACAAdABpAG0AZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMAB4ADAAMQAgAC0AIAB0AGkAbQBlACAAegBvAG4AZQBcAG4AIAAgADMAIAB8ACAAUAByAGUAYwBpAHMAaQBvAG4AIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAgAC0AIAB5AGUAYQByAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAyACAALQAgAG0AbwBuAHQAaAAvAHcAZQBlAGsAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADMAIAAtACAAZABhAHkAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADQAIAAtACAAaABvAHUAcgBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAANQAgAC0AIABtAGkAbgB1AHQAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAANgAgAC0AIABpAG4AdABlAGcAZQByACAAcwBlAGMAbwBuAGQAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADcAIAAtACAAcwBlAGMAbwBuAGQAIAAwAC4AMABcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAOAAgAC0AIABzAGUAYwBvAG4AZAAgADAALgAwADAAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADkAIAAtACAAcwBlAGMAbwBuAGQAIAAwAC4AMAAwADAAXABuACAAIAA0ACAAfAAgAEYAbwByAG0AYQB0ACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADAAIAAtACAAbQBpAHgAZQBkAFwAbgAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAxACAALQAgAGIAYQBzAGkAYwBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABlAHgAdABlAG4AZABlAGQAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADMAIAAtACAAYwBvAG4AcwBpAHMAdABlAG4AdAAgAHcAaQB0AGgAIABiAGEAcwBpAGMAIABvAHIAIABlAHgAdABlAG4AZABlAGQAXABuACAAIAA1ACAAfAAgAEQAYQB0AGUAIABUAHkAcABlACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADAAIAAtACAAbgBvACAAZABhAHQAZQAgAHAAcgBlAHMAZQBuAHQAXABuACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgADEAIAAtACAAYwBhAGwAZQBuAGQAYQByACAAZABhAHQAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMgAgAC0AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4AIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAMwAgAC0AIAB3AGUAZQBrACAAZABhAHQAZQBcAG4AIAAgADYAIAB8ACAAWQBlAGEAcgAgAEMARQAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgAgACAANwAgAHwAIABNAG8AbgB0AGgAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAxAC4ALgAxADIAXABuACAAIAAgACAAfAAgAFcAZQBlAGsAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgADEALgAuADUAMwBcAG4AIAAgADgAIAB8ACAARABhAHkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4AMwAxAFwAbgAgACAAIAAgAHwAIABPAHIAZABpAG4AYQBsACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAxAC4ALgAzADYANgBcAG4AIAAgACAAIAB8ACAARABhAHkAIABvAGYAIABXAGUAZQBrACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMQAuAC4ANwAgAC0APgAgAE0AbwBuAC4ALgBTAHUAbgBcAG4AIAAgADkAIAB8ACAASABvAHUAcgAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMAAuAC4AMgA0AFwAbgAgADEAMAAgAHwAIABNAGkAbgB1AHQAZQAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwAC4ALgA1ADkAXABuACAAMQAxACAAfAAgAFMAZQBjAG8AbgBkACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgADAALgAuADUAOQAuADkAOQA5AFwAbgAgADEAMgAgAHwAIABNAGkAbgB1AHQAZQBzACAATwBmAGYAcwBlAHQAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAtADkAMAAwAC4ALgArADkAMAAwAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVABlAHgAdAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAB8ACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzADoAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAfAAgACsAWQBZAFkAWQBZAC0ATQBNAC0ARABEAFQAaABoADoAbQBtADoAcwBzAC4AcwBzAHMAKwBoAGgAOgBtAG0AOgBzAHMALAAgAFkAWQBZAFkALQBNAE0ALQBEAEQAVABoAGgAOgBtAG0ALQBoAGgALAAgAFkAWQBZAFkALQBXAHcAdwAtAEQAVABoAGgAOgBtAG0AWgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AUABBAFIAUwBFAF8ASQBTAE8AOAA2ADAAMQAgAD0AIABMAEEATQBCAEQAQQAoAFQAZQB4AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACwAIABMAEEATQBCAEQAQQAoAF8AZQB4AGMAZQBwAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAIABuAHUAbABsACAAIABFAG0AcAB0AHkAIAB0AGUAeAB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAE4ALwBBACAAIAAgAFUAbgBhAGIAbABlACAAdABvACAAcABhAHIAcwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGUAeABjAGUAcAB0AGkAbwBuACAAPQAgAFwAIgBOAC8AQQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AEYAQQBMAFMARQAsACAAMAAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgB9AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAG4AUABhAHIAdABzAEYAbABhAGcALAAgAEwAQQBNAEIARABBACgAXwBwAEQAYQB0AGUALAAgAF8AcABUAGkAbQBlACwAIABfAHAAVABaACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFAAYQByAHQALAAgAE4AKABJAE4ARABFAFgAKABfAHAARABhAHQAZQAsACAAMQAsACAAMQApACkAIAAqACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBQAGEAcgB0ACwAIABOACgASQBOAEQARQBYACgAXwBwAFQAaQBtAGUALAAgADEALAAgADEAKQApACAAKgAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBQAGEAcgB0ACwAIABOACgASQBOAEQARQBYACgAXwBwAFQAWgAsACAAMQAsACAAMQApACkAIAAqACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBQAGEAcgB0ACAAKwAgAF8AdABpAG0AZQBQAGEAcgB0ACAAKwAgAF8AdAB6AFAAYQByAHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGYAbgBJAFMATwBWAGEAbAB1AGUAQwBvAG0AcABsAGkAYQBuAGMAZQAsACAATABBAE0AQgBEAEEAKABfAHAARABhAHQAZQAsACAAXwBwAFQAaQBtAGUALAAgAF8AcABUAFoALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUASQBTAE8AQwBvAG0AcABsAGkAYQBuAHQALAAgAEkARgAoAEkATgBEAEUAWAAoAF8AcABEAGEAdABlACwAIAAxACwAIAAxACkAIAA9ACAAXAAiAFwAIgAsACAAVABSAFUARQAsACAASQBOAEQARQBYACgAXwBwAEQAYQB0AGUALAAgADEALAAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AGkAbQBlAEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACwAIABJAEYAKABJAE4ARABFAFgAKABfAHAAVABpAG0AZQAsACAAMQAsACAAMQApACAAPQAgAFwAIgBcACIALAAgAFQAUgBVAEUALAAgAEkATgBEAEUAWAAoAF8AcABUAGkAbQBlACwAIAAxACwAIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AEkAUwBPAEMAbwBtAHAAbABpAGEAbgB0ACwAIABJAEYAKABJAE4ARABFAFgAKABfAHAAVABaACwAIAAxACwAIAAxACkAIAA9ACAAXAAiAFwAIgAsACAAVABSAFUARQAsACAASQBOAEQARQBYACgAXwBwAFQAWgAsACAAMQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AZABhAHQAZQBJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAgACoAIABfAHQAaQBtAGUASQBTAE8AQwBvAG0AcABsAGkAYQBuAHQAIAAqACAAXwB0AHoASQBTAE8AQwBvAG0AcABsAGkAYQBuAHQAKQAgADwAPgAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEkAUwBPAEYAbwByAG0AYQB0AEMAbwBtAHAAbABpAGEAbgBjAGUALAAgAEwAQQBNAEIARABBACgAXwBwAEQAYQB0AGUALAAgAF8AcABUAGkAbQBlACwAIABfAHAAVABaACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBsAHUAbQBuAHMAIABPAHUAdAA6ACAASQBTAE8AQwBvAG0AcABsAGkAYQBuAHQALAAgAFIAZQBzAG8AbAB2AGUAZABGAG8AcgBtAGEAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUARgBtAHQALAAgAE4AKABJAE4ARABFAFgAKABfAHAARABhAHQAZQAsACAAMQAsACAAMwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUARgBtAHQALAAgAE4AKABJAE4ARABFAFgAKABfAHAAVABpAG0AZQAsACAAMQAsACAAMwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAegBvAEYAbQB0ACwAIABOACgASQBOAEQARQBYACgAXwBwAFQAWgAsACAAMQAsACAAMwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHIAZQBzAG8AbAB2AGUARgBtAHQALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AZABhAHQAZQBGAG0AdAAgAD0AIAAzACkAIAAqACAAKABfAHQAaQBtAGUARgBtAHQAIAA9ACAAMAApACAAKgAgACgAXwB0AHoAbwBGAG0AdAAgAD0AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG8AbgBsAHkAIABkAGEAdABlACAAcAByAG8AdgBpAGQAZQBkACwAIABjAG8AbgBzAGkAcwB0AGUAbgB0ACAAdwBpAHQAaAAgAGIAYQBzAGkAYwAgAG8AcgAgAGUAeAB0AGUAbgBkAGUAZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AZABhAHQAZQBGAG0AdAAgAD0AIAAwACkAIAAqACAAKABfAHQAaQBtAGUARgBtAHQAIAA9ACAAMwApACAAKgAgACgAXwB0AHoAbwBGAG0AdAAgAD0AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG8AbgBsAHkAIAB0AGkAbQBlACAAcAByAG8AdgBpAGQAZQBkACwAIABjAG8AbgBzAGkAcwB0AGUAbgB0ACAAdwBpAHQAaAAgAGIAYQBzAGkAYwAgAG8AcgAgAGUAeAB0AGUAbgBkAGUAZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAF8AZABhAHQAZQBGAG0AdAAgAD0AIAAwACkAIAAqACAAKABfAHQAaQBtAGUARgBtAHQAIAA9ACAAMAApACAAKgAgACgAXwB0AHoAbwBGAG0AdAAgAD0AIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAG8AbgBsAHkAIAB0AGkAbQBlACAAegBvAG4AZQAgAHAAcgBvAHYAaQBkAGUAZAAsACAAYwBvAG4AcwBpAHMAdABlAG4AdAAgAHcAaQB0AGgAIABiAGEAcwBpAGMAIABvAHIAIABlAHgAdABlAG4AZABlAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAGQAYQB0AGUARgBtAHQAIAA8AD4AIAAyACkAIAAqACAAKABfAHQAaQBtAGUARgBtAHQAIAA8AD4AIAAyACkAIAAqACAAKABfAHQAegBvAEYAbQB0ACAAPAA+ACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABhAGwAbAAgAGIAYQBzAGkAYwAgAGYAbwByAG0AYQB0ACAAdwBoAGUAcgBlACAAcAByAGUAcwBlAG4AdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBkAGEAdABlAEYAbQB0ACAAPAA+ACAAMQApACAAKgAgACgAXwB0AGkAbQBlAEYAbQB0ACAAPAA+ACAAMQApACAAKgAgACgAXwB0AHoAbwBGAG0AdAAgADwAPgAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAYQBsAGwAIABlAHgAdABlAG4AZABlAGQAIABmAG8AcgBtAGEAdAAgAHcAaABlAHIAZQAgAHAAcgBlAHMAZQBuAHQAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABtAGkAeABlAGQAIABmAG8AcgBtAGEAdABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATgAoAF8AcgBlAHMAbwBsAHYAZQBGAG0AdAAgADwAPgAgADAAKQAsACAAXwByAGUAcwBvAGwAdgBlAEYAbQB0ACkAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABmAG4ASQBTAE8AUAByAGUAYwBpAHMAaQBvAG4AQwBvAG0AcABsAGkAYQBuAGMAZQAsACAATABBAE0AQgBEAEEAKABfAHAARABhAHQAZQAsACAAXwBwAFQAaQBtAGUALAAgAF8AcABUAFoALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAGwAdQBtAG4AcwAgAE8AdQB0ADoAIABJAFMATwBDAG8AbQBwAGwAaQBhAG4AdAAsACAAUAByAGUAYwBpAHMAaQBvAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFAAcgBlAGMALAAgAE4AKABJAE4ARABFAFgAKABfAHAARABhAHQAZQAsACAAMQAsACAAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHQAaQBtAGUAUAByAGUAYwAsACAATgAoAEkATgBEAEUAWAAoAF8AcABUAGkAbQBlACwAIAAxACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AFAAcgBlAGMALAAgAE4AKABJAE4ARABFAFgAKABfAHAAVABaACwAIAAxACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAUAByAGUAYwAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AdABpAG0AZQBQAHIAZQBjACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAHQAegBQAHIAZQBjACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgARgBBAEwAUwBFACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAVABSAFUARQAsACAAXwB0AHoAUAByAGUAYwAgACsAIAAzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAVABSAFUARQAsACAAXwB0AGkAbQBlAFAAcgBlAGMAIAArACAAMwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAUAByAGUAYwAgADwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAKABfAHQAaQBtAGUAUAByAGUAYwAgAD0AIAAwACkALAAgAF8AZABhAHQAZQBQAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAC8ALwAgAF8AZABhAHQAZQBQAHIAZQBjACAAPQAgADMAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABUAFIAVQBFACwAIABfAHQAaQBtAGUAUAByAGUAYwAgACsAIAAzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAVABlAHgAdAAgAD0AIABcACIAXAAiACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAYQByAHQAcwAsACAAUABBAFIAUwBFAF8AUABBAFIAVABTACgAVABlAHgAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgAoAEkATgBEAEUAWAAoAF8AcABhAHIAdABzACwAIAAxACwAIAAyACkAKQAgAD0AIAAwACwAIABmAG4ARQB4AGMAZQBwAHQAaQBvAG4AKABcACIATgAvAEEAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAG8AUABhAHIAdABzAEMAbwBtAHAAbABpAGEAbgBjAGUALAAgAE4AKABJAE4ARABFAFgAKABfAHAAYQByAHQAcwAsACAAMQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAEQAYQB0AGUALAAgAFAAQQBSAFMARQBfAEQAQQBUAEUAKABJAE4ARABFAFgAKABfAHAAYQByAHQAcwAsACAAMQAsACAAMwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAFQAaQBtAGUALAAgAFAAQQBSAFMARQBfAFQASQBNAEUAKABJAE4ARABFAFgAKABfAHAAYQByAHQAcwAsACAAMQAsACAANAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAFQAWgAsACAAUABBAFIAUwBFAF8AVABJAE0ARQBfAFoATwBOAEUAKABJAE4ARABFAFgAKABfAHAAYQByAHQAcwAsACAAMQAsACAANQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBWAGEAbAB1AGUAQwBvAG0AcABsAGkAYQBuAGMAZQAsACAAZgBuAEkAUwBPAFYAYQBsAHUAZQBDAG8AbQBwAGwAaQBhAG4AYwBlACgAXwBwAEQAYQB0AGUALAAgAF8AcABUAGkAbQBlACwAIABfAHAAVABaACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBpAHMAbwBGAG8AcgBtAGEAdABDAG8AbQBwAGwAaQBhAG4AYwBlACwAIABmAG4ASQBTAE8ARgBvAHIAbQBhAHQAQwBvAG0AcABsAGkAYQBuAGMAZQAoAF8AcABEAGEAdABlACwAIABfAHAAVABpAG0AZQAsACAAXwBwAFQAWgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAG8AUAByAGUAYwBpAHMAaQBvAG4AQwBvAG0AcABsAGkAYQBuAGMAZQAsACAAZgBuAEkAUwBPAFAAcgBlAGMAaQBzAGkAbwBuAEMAbwBtAHAAbABpAGEAbgBjAGUAKABfAHAARABhAHQAZQAsACAAXwBwAFQAaQBtAGUALAAgAF8AcABUAFoAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AdQB0AEkAUwBPAGMAbwBtAHAAbABpAGEAbgBjAGUALAAgACgAXwBpAHMAbwBWAGEAbAB1AGUAQwBvAG0AcABsAGkAYQBuAGMAZQAgACoAIABfAGkAcwBvAFAAYQByAHQAcwBDAG8AbQBwAGwAaQBhAG4AYwBlACAAKgAgAEkATgBEAEUAWAAoAF8AaQBzAG8ARgBvAHIAbQBhAHQAQwBvAG0AcABsAGkAYQBuAGMAZQAsACAAMQAsACAAMQApACAAKgAgAEkATgBEAEUAWAAoAF8AaQBzAG8AUAByAGUAYwBpAHMAaQBvAG4AQwBvAG0AcABsAGkAYQBuAGMAZQAsACAAMQAsACAAMQApACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbwB1AHQARABhAHQAZQBUAHkAcABlACwAIABOACgASQBOAEQARQBYACgAXwBwAEQAYQB0AGUALAAgADEALAAgADQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbwB1AHQARABhAHQAZQAsACAARABSAE8AUAAoAF8AcABEAGEAdABlACwAIAAsACAANAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbwB1AHQAVABpAG0AZQAsACAARABSAE8AUAAoAF8AcABUAGkAbQBlACwAIAAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbwB1AHQAVABaACwAIABEAFIATwBQACgAXwBwAFQAWgAsACAALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG8AdQB0AFAAYQByAHQAcwBGAGwAYQBnACwAIABmAG4AUABhAHIAdABzAEYAbABhAGcAKABfAHAARABhAHQAZQAsACAAXwBwAFQAaQBtAGUALAAgAF8AcABUAFoAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAF8AbwB1AHQASQBTAE8AYwBvAG0AcABsAGkAYQBuAGMAZQAsACAAXwBvAHUAdABQAGEAcgB0AHMARgBsAGEAZwAsACAASQBOAEQARQBYACgAXwBpAHMAbwBQAHIAZQBjAGkAcwBpAG8AbgBDAG8AbQBwAGwAaQBhAG4AYwBlACwAIAAxACwAIAAyACkALAAgAEkATgBEAEUAWAAoAF8AaQBzAG8ARgBvAHIAbQBhAHQAQwBvAG0AcABsAGkAYQBuAGMAZQAsACAAMQAsACAAMgApACwAIABfAG8AdQB0AEQAYQB0AGUAVAB5AHAAZQAsACAAXwBvAHUAdABEAGEAdABlACwAIABfAG8AdQB0AFQAaQBtAGUALAAgAF8AbwB1AHQAVABaACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBGAE8AUgBNAEEAVABfAEQAQQBUAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAGQAYQB0AGUAIABhAHMAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuAFwAbgBFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgAgACsAWQBZAFkAWQBZAC0ATQBNAC0ARABEACwAIABZAFkAWQBZAC0ATQBNAC0ARABEACwAIABZAFkAWQBZAC0ATQBNACwAIAArAFkAWQBZAFkATQBNACwAIABZAFkAWQBZAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAYQBuACAAaQBuAHYAYQBsAGkAZAAgAGQAYQB0AGUAIABvAHIAIABhAG0AYgBpAGcAdQBvAHUAcwAgAGIAYQBzAGkAYwAgAGYAbwByAG0AYQB0AC4AIABlAGcAIAAyADAAMgAzADAANQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAFkAZQBhAHIAQwBFACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAFkAZQBhAHIAIABpAG4AIABDAG8AbQBtAG8AbgAgAEUAcgBhACAALQA5ADkAOQA5ADkALgAuACsAOQA5ADkAOQA5AFwAbgBbAE0AbwBuAHQAaABdACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB0AGgAZQAgAHkAZQBhAHIAXABuAFsARABhAHkAXQAgACAAIAAgAHwAIABpAG4AdABlAGcAZQByACAAfAAgAEQAYQB5ACAAbwBmACAAdABoAGUAIABtAG8AbgB0AGgAXABuAFsAQgBhAHMAaQBjAF0AIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFIAZQB0AHUAcgBuACAAaQBuACAAYgBhAHMAaQBjACAAZgBvAHIAbQBhAHQAIABlAGcAIABZAFkAWQBZAE0ATQBEAEQAXABuAFsAUwBpAGcAbgBlAGQAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAEEAbAB3AGEAeQBzACAAcwBpAGcAbgAgAHkAZQBhAHIAIAB2AGEAbAB1AGUAIABlAGcAIAArAFkAWQBZAFkALQBNAE0ALQBEAEQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEYATwBSAE0AQQBUAF8ARABBAFQARQAgAD0AIABMAEEATQBCAEQAQQAoAFkAZQBhAHIAQwBFACwAIABbAE0AbwBuAHQAaABdACwAIABbAEQAYQB5AF0ALAAgAFsAQgBhAHMAaQBjAF0ALAAgAFsAUwBpAGcAbgBlAGQAXQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACkAIAAqACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAG8AbgB0AGgAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAE0AbwBuAHQAaAAsACAARABhAHkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsACAATgAoAEIAYQBzAGkAYwApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgBlAGQAWQBlAGEAcgAsACAATgAoAFMAaQBnAG4AZQBkACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQApACkAIAAqACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQBGAG0AdAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABBAEIAUwAoAF8AeQApACAAPgA9ACAAMQAwADAAMAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAKwAwADAAMAAwADAAOwBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAgACYAIABcACIAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgBlAGQAWQBlAGEAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiACsAMAAwADAAMAA7AFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACAAJgAgAFwAIgAwADAAMAAwADsAKwAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgAwADAAMAAwADsAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkAIAAmACAAXAAiADAAMAAwADAAOwAwADAAMAAwAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAWQBlAGEAcgAsACAAVABFAFgAVAAoAF8AeQAsACAAXwB5AEYAbQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABNAG8AbgB0AGgAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAE0AbwBuAHQAaAAsACAAVABFAFgAVAAoAEkATgBUACgATQBvAG4AdABoACkALAAgAFwAIgAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsACAAXwBzAFkAZQBhAHIAIAAmACAAXwBzAE0AbwBuAHQAaAAsACAAXwBzAFkAZQBhAHIAIAAmACAAXAAiAC0AXAAiACAAJgAgAF8AcwBNAG8AbgB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBEAGEAeQAsACAAVABFAFgAVAAoAEkATgBUACgARABhAHkAKQAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACAAJgAgAF8AcwBNAG8AbgB0AGgAIAAmACAAXwBzAEQAYQB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAWQBlAGEAcgAgACYAIABcACIALQBcACIAIAAmACAAXwBzAE0AbwBuAHQAaAAgACYAIABcACIALQBcACIAIAAmACAAXwBzAEQAYQB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8AVABJAE0ARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAdABpAG0AZQAgAGEAcwAgAHQAZQB4AHQAIABpAG4AIAB0AGgAZQAgAEkAUwBPACAAOAA2ADAAMQAgAGYAbwByAG0AYQB0AC4AXABuAEUAeABhAG0AcABsAGUAIABmAG8AcgBtAGEAdABzACAAKABuAG8AdAAgAGUAeABoAGEAdQBzAHQAaQB2AGUAKQA6ACAAVABoAGgAOgBtAG0AOgBzAHMALgBzAHMAcwAsACAAVABoAGgAOgBtAG0AOgBzAHMALAAgAFQAaABoADoAbQBtACwAIABUAGgAaABtAG0AcwBzACwAIABUAGgAaABcAG4AIwBWAEEATABVAEUAIQAgAGkAZgAgAGEAbgAgAGkAbgB2AGEAbABpAGQAIAB0AGkAbQBlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ASABvAHUAcgAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMAAuAC4AMgA0AFwAbgBNAGkAbgB1AHQAZQAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIAAwAC4ALgA1ADkAXABuAFMAZQBjAG8AbgBkACAAIAAgACAAIAAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgADAALgAuADUAOQAuADkAOQA5AFwAbgBbAEIAYQBzAGkAYwBdACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABSAGUAdAB1AHIAbgAgAGkAbgAgAGIAYQBzAGkAYwAgAGYAbwByAG0AYQB0AFwAbgBbAFAAcgBlAGMAaQBzAGkAbwBuAF0AIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABTAGUAbABlAGMAdAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAbABlAHYAZQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMAAgAC0AIABhAHUAdABvAG0AYQB0AGkAYwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADEAIAAtACAAaABvAHUAcgBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMgAgAC0AIABtAGkAbgB1AHQAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABpAG4AdABlAGcAZQByACAAcwBlAGMAbwBuAGQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADQAIAAtACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHMAZQBjAG8AbgBkAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEYATwBSAE0AQQBUAF8AVABJAE0ARQAgAD0AIABMAEEATQBCAEQAQQAoAEgAbwB1AHIALAAgAE0AaQBuAHUAdABlACwAIABTAGUAYwBvAG4AZAAsACAAWwBCAGEAcwBpAGMAXQAsACAAWwBQAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAEgAbwB1AHIAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATQBpAG4AdQB0AGUAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAUwBlAGMAbwBuAGQAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBUAEkATQBFACgASABvAHUAcgAsACAATQBpAG4AdQB0AGUALAAgAFMAZQBjAG8AbgBkACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAE4AKABCAGEAcwBpAGMAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMALAAgAFIATwBVAE4ARABEAE8AVwBOACgATgAoAFMAZQBjAG8AbgBkACkALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbQAsACAASQBOAFQAKABOACgATQBpAG4AdQB0AGUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoACwAIABJAE4AVAAoAE4AKABIAG8AdQByACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAE0AQQBYACgASQBOAFQAKABOACgAUAByAGUAYwBpAHMAaQBvAG4AKQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABJAFMATgBVAE0AQgBFAFIAKABTAGUAYwBvAG4AZAApACwAIABJAEYAKABfAHMAIAA9ACAASQBOAFQAKABfAHMAKQAsACAAMwAsACAANAApACwAIABJAFMATgBVAE0AQgBFAFIAKABNAGkAbgB1AHQAZQApACwAIAAyACwAIABUAFIAVQBFACwAIAAxACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHUAcwBlAFAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVABcACIAIAAmACAAVABFAFgAVAAoAF8AaAAsACAAXAAiADAAMABcACIAKQAgACYAIABUAEUAWABUACgAXwBtACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBtACwAIABcACIAMAAwAFwAIgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB1AHMAZQBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAXAAiACAAJgAgAFQARQBYAFQAKABfAGgALAAgAFwAIgAwADAAXAAiACkAIAAmACAAVABFAFgAVAAoAF8AbQAsACAAXAAiADAAMABcACIAKQAgACYAIABUAEUAWABUACgAXwBzACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBtACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBzACwAIABcACIAMAAwAFwAIgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AXwB1AHMAZQBQAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAA0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFQARQBYAFQAKABfAG0ALAAgAFwAIgAwADAAXAAiACkAIAAmACAAVABFAFgAVAAoAF8AcwAsACAAXAAiADAAMAAuADAAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAFwAIgAgACYAIABUAEUAWABUACgAXwBoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBtACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAXwBzACwAIABcACIAMAAwAC4AMAAwADAAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEYATwBSAE0AQQBUAF8AVABJAE0ARQBfAFoATwBOAEUAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAYQAgAHQAaQBtAGUAIAB6AG8AbgBlACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgBcAG4ARQB4AGEAbQBwAGwAZQAgAGYAbwByAG0AYQB0AHMAIAAoAG4AbwB0ACAAZQB4AGgAYQB1AHMAdABpAHYAZQApADoAIAArAGgAaAA6AG0AbQA6AHMAcwAsACAALQBoAGgAOgBtAG0ALAAgACsAaABoACwAIABaAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAYQBuACAAaQBuAHYAYQBsAGkAZAAgAHQAaQBtAGUAIAB6AG8AbgBlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABmAHIAbwBtACAAVQBUAEMAIABpAG4AIABtAGkAbgB1AHQAZQBzACAALQA5ADAAMAAuAC4AKwA5ADAAMABcAG4AWwBCAGEAcwBpAGMAXQAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFIAZQB0AHUAcgBuACAAaQBuACAAYgBhAHMAaQBjACAAZgBvAHIAbQBhAHQAXABuAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABTAGUAbABlAGMAdAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAbABlAHYAZQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAAYQB1AHQAbwBtAGEAdABpAGMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMQAgAC0AIABoAG8AdQByAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMgAgAC0AIABtAGkAbgB1AHQAZQBzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADMAIAAtACAAcwBlAGMAbwBuAGQAcwBcAG4AWwBOAG8AWgB1AGwAdQBdACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFUAcwBlACAAKwAwADAAOgAwADAAIABpAG4AcwB0AGUAYQBkACAAbwBmACAAWgAgAGYAbwByACAAVQBUAEMAIAB0AGkAbQBlACAAegBvAG4AZQAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBGAE8AUgBNAEEAVABfAFQASQBNAEUAXwBaAE8ATgBFACAAPQAgAEwAQQBNAEIARABBACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAsACAAWwBCAGEAcwBpAGMAXQAsACAAWwBQAHIAZQBjAGkAcwBpAG8AbgBdACwAIABbAE4AbwBaAHUAbAB1AF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAIABOACgAQgBhAHMAaQBjACkAIAA8AD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAE0AQQBYACgASQBOAFQAKABOACgAUAByAGUAYwBpAHMAaQBvAG4AKQApACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBuAGUAYQByAFoAZQByAG8ALAAgAFIATwBVAE4ARABEAE8AVwBOACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwAgACoAIAA2ADAALAAgADAAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgATgAoAE4AbwBaAHUAbAB1ACkAIAA9ACAAMAApACAAKgAgAF8AbgBlAGEAcgBaAGUAcgBvACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAXwBaAE8ATgBFACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAUwBlAGMAcwAsACAAUgBPAFUATgBEAEQATwBXAE4AKABNAE8ARAAoAE8AZgBmAHMAZQB0AE0AaQBuAHUAdABlAHMALAAgADEAKQAgACoAIAA2ADAALAAgADAAKQAgAD4AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBGAG0AdAAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABhAHMAUwBlAGMAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAFwAIgBoAGgAbQBtAHMAcwBcACIALAAgAFwAIgBoAGgAOgBtAG0AOgBzAHMAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AYgBhAHMAaQBjAEYAbwByAG0AYQB0ACwAIABcACIAaABoAG0AbQBcACIALAAgAFwAIgBoAGgAOgBtAG0AXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBoAGgAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAFwAIgBoAGgAbQBtAFwAIgAsACAAXAAiAGgAaAA6AG0AbQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAAMwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAFwAIgBoAGgAbQBtAHMAcwBcACIALAAgAFwAIgBoAGgAOgBtAG0AOgBzAHMAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuACwAIABJAEYAKABTAEkARwBOACgATwBmAGYAcwBlAHQATQBpAG4AdQB0AGUAcwApACAAPAAgADAALAAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkALAAgAFwAIgArAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0ACwAIABBAEIAUwAoAE8AZgBmAHMAZQB0AE0AaQBuAHUAdABlAHMAKQAgAC8AIAAxADQANAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBpAGcAbgAgACYAIABUAEUAWABUACgAXwB0AGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQALAAgAF8AcwBGAG0AdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBGAE8AUgBNAEEAVABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFAFwAbgBcAG4AUgBlAHQAdQByAG4AcwAgAGEAbgAgAG8AcgBkAGkAbgBhAGwAIABkAGEAdABlACAAYQBzACAAdABlAHgAdAAgAGkAbgAgAHQAaABlACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQALgBcAG4ARQB4AGEAbQBwAGwAZQAgAGYAbwByAG0AYQB0AHMAIAAoAG4AbwB0ACAAZQB4AGgAYQB1AHMAdABpAHYAZQApADoAIABZAFkAWQBZAC0ARABEAEQALAAgAFkAWQBZAFkARABEAEQAXABuACMAVgBBAEwAVQBFACEAIABpAGYAIABhAG4AIABpAG4AdgBhAGwAaQBkACAAbwByAGQAaQBuAGEAbAAgAGQAYQB0AGUAXABuAFwAbgBQAGEAcgBhAG0AZQB0AGUAcgBzAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBZAGUAYQByAEMARQAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4ATwByAGQAaQBuAGEAbAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAATwByAGQAaQBuAGEAbAAgAGQAYQB5ACAAbwBmACAAeQBlAGEAcgBcAG4AWwBCAGEAcwBpAGMAXQAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAUgBlAHQAdQByAG4AIABpAG4AIABiAGEAcwBpAGMAIABmAG8AcgBtAGEAdAAgAGUAZwAgAFkAWQBZAFkARABEAEQAXABuAFsAUwBpAGcAbgBlAGQAXQAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAEEAbAB3AGEAeQBzACAAcwBpAGcAbgAgAHkAZQBhAHIAIAB2AGEAbAB1AGUAIABlAGcAIAArAFkAWQBZAFkALQBNAE0ALQBEAEQAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAqAC8AXABuAEYATwBSAE0AQQBUAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABZAGUAYQByAEMARQAsACAATwByAGQAaQBuAGEAbAAsACAAWwBCAGEAcwBpAGMAXQAsACAAWwBTAGkAZwBuAGUAZABdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFkAZQBhAHIAQwBFACkAKQAgACoAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAE8AcgBkAGkAbgBhAGwAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMAXwBWAEEATABJAEQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABPAHIAZABpAG4AYQBsACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAE4AKABCAGEAcwBpAGMAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AZQBkAFkARQBhAHIALAAgAE4AKABTAGkAZwBuAGUAZAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAKABBAEIAUwAoAF8AeQApACAAPgA9ACAAMQAwADAAMAAwACkAIAAqACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgACMAVgBBAEwAVQBFACEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AEYAbQB0ACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEEAQgBTACgAXwB5ACkAIAA+AD0AIAAxADAAMAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArADAAMAAwADAAMAA7AFwAIgAgACYAIABVAE4ASQBDAEgAQQBSACgAOAA3ADIAMgApACAAJgAgAFwAIgAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuAGUAZABZAGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAKwAwADAAMAAwADsAXAAiACAAJgAgAFUATgBJAEMASABBAFIAKAA4ADcAMgAyACkAIAAmACAAXAAiADAAMAAwADAAOwArADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiADAAMAAwADAAOwBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAgACYAIABcACIAMAAwADAAMAA7ADAAMAAwADAAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACwAIABUAEUAWABUACgAXwB5ACwAIABfAHkARgBtAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMATwByAGQAaQBuAGEAbAAsACAAVABFAFgAVAAoAEkATgBUACgATwByAGQAaQBuAGEAbAApACwAIABcACIAMAAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAF8AcwBZAGUAYQByACAAJgAgAF8AcwBPAHIAZABpAG4AYQBsACwAIABfAHMAWQBlAGEAcgAgACYAIABcACIALQBcACIAIAAmACAAXwBzAE8AcgBkAGkAbgBhAGwAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARgBPAFIATQBBAFQAXwBXAEUARQBLAF8ARABBAFQARQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABhACAAdwBlAGUAawAgAGQAYQB0AGUAIABhAHMAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuAFwAbgBFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgAgAFkAWQBZAFkALQBXAHcAdwAtAEQALAAgAFkAWQBZAFkALQBXAHcAdwAsACAAWQBZAFkAWQBXAHcAdwBEACwAIABZAFkAWQBZAFcAdwB3AFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAYQBuACAAaQBuAHYAYQBsAGkAZAAgAHcAZQBlAGsAIABkAGEAdABlAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AWQBlAGEAcgBDAEUAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABZAGUAYQByACAAaQBuACAAQwBvAG0AbQBvAG4AIABFAHIAYQAgAC0AOQA5ADkAOQA5AC4ALgArADkAOQA5ADkAOQBcAG4AVwBlAGUAawAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABJAFMATwAgAGQAZQBmAGkAbgBlAGQAIAB3AGUAZQBrACAAbgB1AG0AYgBlAHIAIABvAGYAIAB0AGgAZQAgAHkAZQBhAHIAXABuAEQAYQB5AE8AZgBXAGUAZQBrACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAARABhAHkAIABvAGYAIAB0AGgAZQAgAHcAZQBlAGsAIAB3AGgAZQByAGUAIAAxAC4ALgA3ACAALQA+ACAATQBvAG4ALgAuAFMAdQBuACAAXABuAFsAQgBhAHMAaQBjAF0AIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAUgBlAHQAdQByAG4AIABpAG4AIABiAGEAcwBpAGMAIABmAG8AcgBtAGEAdAAgAGUAZwAgAFkAWQBZAFkAVwB3AHcARABcAG4AWwBTAGkAZwBuAGUAZABdACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABBAGwAdwBhAHkAcwAgAHMAaQBnAG4AIAB5AGUAYQByACAAdgBhAGwAdQBlACAAZQBnACAAKwBZAFkAWQBZAC0AVwB3AHcALQBEAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBGAE8AUgBNAEEAVABfAFcARQBFAEsAXwBEAEEAVABFACAAPQAgAEwAQQBNAEIARABBACgAWQBlAGEAcgBDAEUALAAgAFcAZQBlAGsALAAgAEQAYQB5AE8AZgBXAGUAZQBrACwAIABbAEIAYQBzAGkAYwBdACwAIABbAFMAaQBnAG4AZQBkAF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAWQBlAGEAcgBDAEUAKQApACAAKgAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgAVwBlAGUAawApACkAIAAqACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAeQBPAGYAVwBlAGUAawApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAEkAUwBfAFYAQQBMAEkARABfAFcARQBFAEsAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAFcAZQBlAGsALAAgAEQAYQB5AE8AZgBXAGUAZQBrACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAjAFYAQQBMAFUARQAhACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALAAgAE4AKABCAGEAcwBpAGMAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAaQBnAG4AZQBkAFkAZQBhAHIALAAgAE4AKABTAGkAZwBuAGUAZAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AeQAsACAASQBOAFQAKABZAGUAYQByAEMARQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AEYAbQB0ACwAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQQBCAFMAKABfAHkAKQAgAD4APQAgADEAMAAwADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAKwAwADAAMAAwADAAOwBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAgACYAIABcACIAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGkAZwBuAGUAZABZAGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgArADAAMAAwADAAOwBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAgACYAIABcACIAMAAwADAAMAA7ACsAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiADAAMAAwADAAOwBcACIAIAAmACAAVQBOAEkAQwBIAEEAUgAoADgANwAyADIAKQAgACYAIABcACIAMAAwADAAMAA7ADAAMAAwADAAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAWQBlAGEAcgAsACAAVABFAFgAVAAoAF8AeQAsACAAXwB5AEYAbQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVwBlAGUAawAsACAAVABFAFgAVAAoAEkATgBUACgAVwBlAGUAawApACwAIABcACIAVwAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgASQBTAE4AVQBNAEIARQBSACgARABhAHkATwBmAFcAZQBlAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABfAGIAYQBzAGkAYwBGAG8AcgBtAGEAdAAsACAAXwBzAFkAZQBhAHIAIAAmACAAXwBzAFcAZQBlAGsALAAgAF8AcwBZAGUAYQByACAAJgAgAFwAIgAtAFwAIgAgACYAIABfAHMAVwBlAGUAawApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBiAGEAcwBpAGMARgBvAHIAbQBhAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAFkAZQBhAHIAIAAmACAAXwBzAFcAZQBlAGsAIAAmACAASQBOAFQAKABEAGEAeQBPAGYAVwBlAGUAawApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBZAGUAYQByACAAJgAgAFwAIgAtAFwAIgAgACYAIABfAHMAVwBlAGUAawAgACYAIABcACIALQBcACIAIAAmACAASQBOAFQAKABEAGEAeQBPAGYAVwBlAGUAawApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgBGAE8AUgBNAEEAVABfAEkAUwBPADgANgAwADEAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAZABhAHQAZQAgAGEAbgBkACAAdABpAG0AZQAgAGMAbwBtAHAAbABpAGMAYQB0AGkAbwBuAHMAIABhAHMAIAB0AGUAeAB0ACAAaQBuACAAdABoAGUAIABJAFMATwAgADgANgAwADEAIABmAG8AcgBtAGEAdAAuAFwAbgBFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgAgAFkAWQBZAFkALQBNAE0ALQBEAEQAVABoAGgAOgBtAG0AOgBzAHMALgBzAHMAcwArAGgAaAA6AG0AbQA6AHMAcwAsACAAWQBZAFkAWQAtAFcAdwB3AC0ARABUAGgAaAA6AG0AbQBaACwAIABUAGgAaABtAG0AcwBzAFwAbgAjAFYAQQBMAFUARQAhACAAaQBmACAAYQBuACAAaQBuAHYAYQBsAGkAZAAgAGQAYQB0AGUALAAgAHQAaQBtAGUAIABvAHIAIAB0AGkAbQBlACAAegBvAG4AZQBcAG4AXABuAFAAYQByAGEAbQBlAHQAZQByAHMAXABuAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEQAYQB0AGUAVAB5AHAAZQAgACAAIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABEAGEAdABlACAAdAB5AHAAZQAgAHIAZQBwAHIAZQBzAGUAbgB0AGUAZAAgAGkAbgAgAEQAYQB0AGUAQQByAGcAMQAgAGEAbgBkACAARABhAHQAZQBBAHIAZwAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADAAIAAtACAAbgBvACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAxACAALQAgAGMAYQBsAGUAbgBkAGEAcgAgAGQAYQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMgAgAC0AIABvAHIAZABpAG4AYQBsACAAZABhAHQAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAzACAALQAgAHcAZQBlAGsAIABkAGEAdABlAFwAbgBZAGUAYQByAEMARQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAWQBlAGEAcgAgAGkAbgAgAEMAbwBtAG0AbwBuACAARQByAGEAIAAtADkAOQA5ADkAOQAuAC4AKwA5ADkAOQA5ADkAXABuAFsARABhAHQAZQBBAHIAZwAxAF0AIAAgACAAIAAgACAAIAB8ACAAaQBuAHQAZQBnAGUAcgAgAHwAIABNAG8AbgB0AGgAIABvAGYAIAB5AGUAYQByACAAdwBoAGUAbgAgAEQAYQB0AGUAVAB5AHAAZQAgAD0AIAAxACAAIAAgACAAIAAgACAAIAAgADEALgAuADEAMgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAFcAZQBlAGsAIABvAGYAIAB5AGUAYQByACAAdwBoAGUAbgAgAEQAYQB0AGUAVAB5AHAAZQAgAD0AIAAzACAAIAAgACAAIAAgACAAIAAgACAAMQAuAC4ANQAzAFwAbgBbAEQAYQB0AGUAQQByAGcAMgBdACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAARABhAHkAIABvAGYAIABtAG8AbgB0AGgAIAB3AGgAZQBuACAARABhAHQAZQBUAHkAcABlACAAPQAgADEAIAAgACAAIAAgACAAIAAgACAAIAAxAC4ALgAzADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIABPAHIAZABpAG4AYQBsACAAZABhAHkAIABvAGYAIAB5AGUAYQByACAAdwBoAGUAbgAgAEQAYQB0AGUAVAB5AHAAZQAgAD0AIAAyACAAIAAgADEALgAuADMANgA2AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAARABhAHkAIABvAGYAIAB3AGUAZQBrACAAdwBoAGUAbgAgAEQAYQB0AGUAVAB5AHAAZQAgAD0AIAAzACAAIAAgACAAIAAgACAAIAAgACAAIAAxAC4ALgA3AFwAbgBbAEgAbwB1AHIAXQAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMAAuAC4AMgA0AFwAbgBbAE0AaQBuAHUAdABlAF0AIAAgACAAIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAMAAuAC4ANQA5AFwAbgBbAFMAZQBjAG8AbgBkAF0AIAAgACAAIAAgACAAIAAgACAAfAAgAGQAZQBjAGkAbQBhAGwAIAB8ACAAMAAuAC4ANQA5AC4AOQA5ADkAXABuAFsAVABpAG0AZQBaAG8AbgBlAE8AZgBmAHMAZQB0AF0AIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIABUAGkAbQBlACAAegBvAG4AZQAgAG8AZgBmAHMAZQB0ACAAaQBuACAAbQBpAG4AdQB0AGUAcwAgAGYAcgBvAG0AIABVAFQAQwAgAC0AOQAwADAALgAuACsAOQAwADAAXABuAFsAQgBhAHMAaQBjAF0AIAAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABSAGUAdAB1AHIAbgAgAGkAbgAgAGIAYQBzAGkAYwAgAGYAbwByAG0AYQB0ACAAZQBnACAAWQBZAFkAWQBNAE0ARABEAFQAMQAwADQANQArADAAOQAzADAAXABuAFsAUwBpAGcAbgBlAGQAXQAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABBAGwAdwBhAHkAcwAgAHMAaQBnAG4AIAB5AGUAYQByACAAdgBhAGwAdQBlACAAZQBnACAAKwBZAFkAWQBZAC0ATQBNAC0ARABEAFwAbgBbAFAAcgBlAGMAaQBzAGkAbwBuAF0AIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAUwBlAGwAZQBjAHQAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGwAZQB2AGUAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAEEAdQB0AG8AbQBhAHQAaQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADEAIAAtACAAWQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAE0AbwBuAHQAaAAvAFcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABEAGEAeQAvAE8AcgBkAGkAbgBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANAAgAC0AIABIAG8AdQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAATQBpAG4AdQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANgAgAC0AIABTAGUAYwBvAG4AZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA3ACAALQAgAEYAcgBhAGMAdABpAG8AbgBhAGwAXABuAFsATgBvAFQAaQBtAGUAWgBvAG4AZQBdACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABEAHIAbwBwACAAdABpAG0AZQAgAHoAbwBuAGUAIABmAHIAbwBtACAAbwB1AHQAcAB1AHQALgBcAG4AWwBOAG8AWgB1AGwAdQBdACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFUAcwBlACAAKwAwADAAOgAwADAAIABpAG4AcwB0AGUAYQBkACAAbwBmACAAWgAgAGYAbwByACAAVQBUAEMAIAB0AGkAbQBlACAAegBvAG4AZQAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBGAE8AUgBNAEEAVABfAEkAUwBPADgANgAwADEAIAA9ACAATABBAE0AQgBEAEEAKABcAG4AIAAgACAAIABEAGEAdABlAFQAeQBwAGUALABcAG4AIAAgACAAIABbAFkAZQBhAHIAQwBFAF0ALABcAG4AIAAgACAAIABbAEQAYQB0AGUAQQByAGcAMQBdACwAXABuACAAIAAgACAAWwBEAGEAdABlAEEAcgBnADIAXQAsAFwAbgAgACAAIAAgAFsASABvAHUAcgBdACwAXABuACAAIAAgACAAWwBNAGkAbgB1AHQAZQBdACwAXABuACAAIAAgACAAWwBTAGUAYwBvAG4AZABdACwAXABuACAAIAAgACAAWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAsAFwAbgAgACAAIAAgAFsAQgBhAHMAaQBjAF0ALABcAG4AIAAgACAAIABbAFMAaQBnAG4AZQBkAF0ALABcAG4AIAAgACAAIABbAFAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABbAE4AbwBUAGkAbQBlAFoAbwBuAGUAXQAsAFwAbgAgACAAIAAgAFsATgBvAFoAdQBsAHUAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAsACAATABFAFQAKABfAGQAdAAsACAATQBBAFgAKABJAE4AVAAoAE4AKABEAGEAdABlAFQAeQBwAGUAKQApACwAIAAwACkALAAgAEkARgAoAF8AZAB0ACAAPgAgADMALAAgADAALAAgAF8AZAB0ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBEAGEAdABlACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABJAFMATgBVAE0AQgBFAFIAKABZAGUAYQByAEMARQApACAAKwAgAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB0AGUAQQByAGcAMQApACAAKwAgAEkAUwBOAFUATQBCAEUAUgAoAEQAYQB0AGUAQQByAGcAMgApACkAIAA8AD4AIAAwAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBUAGkAbQBlACwAIAAoAEkAUwBOAFUATQBCAEUAUgAoAEgAbwB1AHIAKQAgACsAIABJAFMATgBVAE0AQgBFAFIAKABNAGkAbgB1AHQAZQApACAAKwAgAEkAUwBOAFUATQBCAEUAUgAoAFMAZQBjAG8AbgBkACkAKQAgADwAPgAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAF8AaABhAHMAVABpAG0AZQBaAG8AbgBlACwAIABJAFMATgBVAE0AQgBFAFIAKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXwBzAGgAbwB3AFQAaQBtAGUAWgBvAG4AZQAsACAATgAoAE4AbwBUAGkAbQBlAFoAbwBuAGUAKQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIABfAGkAcwBFAG0AcAB0AHkALAAgAF8AaABhAHMARABhAHQAZQAgACsAIABfAGgAYQBzAFQAaQBtAGUAIAArACAAKABfAGgAYQBzAFQAaQBtAGUAWgBvAG4AZQAgACoAIABfAHMAaABvAHcAVABpAG0AZQBaAG8AbgBlACkAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaQBzAEUAbQBwAHQAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBoAGEAcwBEAGEAdABlACAAKgAgAF8AaABhAHMAVABpAG0AZQBaAG8AbgBlACAAKgAgAF8AcwBoAG8AdwBUAGkAbQBlAFoAbwBuAGUAKQAgACoAIABOAE8AVAAoAF8AaABhAHMAVABpAG0AZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIwBWAEEATABVAEUAIQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACwAIABNAEEAWAAoAEkATgBUACgATgAoAFAAcgBlAGMAaQBzAGkAbwBuACkAKQAsACAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMARABhAHQAZQAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAwACkAIAArACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPgA9ACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAEQAYQB0AGUAQQByAGcAMQAsACAARABhAHQAZQBBAHIAZwAyACwAIABCAGEAcwBpAGMALAAgAFMAaQBnAG4AZQBkACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAEQAQQBUAEUAKABZAGUAYQByAEMARQAsACAAXAAiAFwAIgAsACAAXAAiAFwAIgAsACAAQgBhAHMAaQBjACwAIABTAGkAZwBuAGUAZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAEQAYQB0AGUAQQByAGcAMQAsACAAXAAiAFwAIgAsACAAQgBhAHMAaQBjACwAIABTAGkAZwBuAGUAZAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHQAZQBUAHkAcABlACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADAAKQAgACsAIAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+AD0AIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAEQAYQB0AGUAQQByAGcAMgAsACAAQgBhAHMAaQBjACwAIABTAGkAZwBuAGUAZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBPAFIARABJAE4AQQBMAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABcACIAXAAiACwAIABCAGEAcwBpAGMALAAgAFMAaQBnAG4AZQBkACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlAFQAeQBwAGUAIAA9ACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAwACkAIAArACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPgA9ACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBXAEUARQBLAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABEAGEAdABlAEEAcgBnADEALAAgAEQAYQB0AGUAQQByAGcAMgAsACAAQgBhAHMAaQBjACwAIABTAGkAZwBuAGUAZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBPAFIATQBBAFQAXwBXAEUARQBLAF8ARABBAFQARQAoAFkAZQBhAHIAQwBFACwAIABcACIAXAAiACwAIABcACIAXAAiACwAIABCAGEAcwBpAGMALAAgAFMAaQBnAG4AZQBkACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAFcARQBFAEsAXwBEAEEAVABFACgAWQBlAGEAcgBDAEUALAAgAEQAYQB0AGUAQQByAGcAMQAsACAAXAAiAFwAIgAsACAAQgBhAHMAaQBjACwAIABTAGkAZwBuAGUAZAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAC8ALwBfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHMAVABpAG0AZQAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD0AIAAwACkAIAArACAAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPgA9ACAANAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8AVABJAE0ARQAoAEgAbwB1AHIALAAgAE0AaQBuAHUAdABlACwAIABTAGUAYwBvAG4AZAAsACAAQgBhAHMAaQBjACwAIABNAEEAWAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAAtACAAMwAsACAAMAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBUAFoATwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADAAKQAgACsAIAAoAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA+AD0AIAA0ACkAKQAgACoAIABfAGgAYQBzAFQAaQBtAGUAWgBvAG4AZQAgACoAIABfAHMAaABvAHcAVABpAG0AZQBaAG8AbgBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBUAFoAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAcgBlAGMAaQBzAGkAbwBuACAAPQAgADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcAByAGUAYwBpAHMAaQBvAG4AIAA9ACAANQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBwAHIAZQBjAGkAcwBpAG8AbgAgAD4APQAgADYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYATwBSAE0AQQBUAF8AVABJAE0ARQBfAFoATwBOAEUAKABUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQALAAgAEIAYQBzAGkAYwAsACAAMAAsACAATgBvAFoAdQBsAHUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAEQAYQB0AGUAIAAmACAAXwBzAFQAaQBtAGUAIAAmACAAXwBzAFQAWgBPAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEMATwBOAFYARQBSAFQAXwBUAE8AXwBEAEEAVABFAFwAbgBcAG4AQwBvAG4AdgBlAHIAdABzACAAdABlAHgAdAAgAGkAbgAgAEkAUwBPACAAZgBvAHIAbQBhAHQAIAB0AG8AIABhAG4AIABFAHgAYwBlAGwAIABkAGEAdABlAC4AIABcAG4AQwBvAGwAdQBtAG4AcwA6AFwAbgAgACAAMQAgAHwAIABFAHgAYwBlAGwAIABEAGEAdABlACAAIAAgACAAIAB8ACAAZABhAHQAZQAgACAAIAAgAHwAIAAxADkAMAAwAC0AMAAxAC0AMAAxAFQAMAAwADoAMAAwAC4ALgA5ADkAOQA5AC0AMQAyAC0AMwAxAFQAMgA0ADoAMAAwAFwAbgAgACAAMgAgAHwAIABNAGkAbgB1AHQAZQBzACAAbwBmAGYAcwBlAHQAIAB8ACAAZABlAGMAaQBtAGEAbAAgAHwAIAAtADkAMAAwAC4ALgArADkAMAAwAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AVABlAHgAdAAgACAAIAAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAB8ACAASQBTAE8AIAA4ADYAMAAxACAAZgBvAHIAbQBhAHQAdABlAGQAIABkAGEAdABlACAAYQBuAGQAIAB0AGkAbQBlAC4AXABuAFsAUwB0AHIAaQBjAHQAXQAgACAAfAAgAHMAdwBpAHQAYwBoACAAfAAgAEUAbgBmAG8AcgBjAGUAIABzAHQAcgBpAGMAdAAgAEkAUwBPACAAOAA2ADAAMQAgAHAAYQByAHMAaQBuAGcAIAByAHUAbABlAHMALgBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtACoALwBcAG4AQwBPAE4AVgBFAFIAVABfAFQATwBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABUAGUAeAB0ACwAIABbAFMAdAByAGkAYwB0AF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACwAIABMAEEATQBCAEQAQQAoAF8AZQB4AGMAZQBwAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgACAAIAB8ACAAcwB0AHIAaQBuAGcAIAAgAHwAIABuAHUAbABsACAAIABFAG0AcAB0AHkAIAB0AGUAeAB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAE4ALwBBACAAIAAgAFUAbgBhAGIAbABlACAAdABvACAAcABhAHIAcwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgAE4AVQBNACAAIAAgAE8AdQB0ACAAbwBmACAARQB4AGUAbAAgAGQAYQB0AGUAIAByAGEAbgBnAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIATgAvAEEAXAAiACwAIAB7ACMATgAvAEEALAAgACMATgAvAEEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQB4AGMAZQBwAHQAaQBvAG4AIAA9ACAAXAAiAE4AVQBNAFwAIgAsACAAewAjAE4AVQBNACEALAAgACMATgBVAE0AIQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAALwAvACAAXwBlAHgAYwBlAHAAdABpAG8AbgAgAD0AIABcACIAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHsAXAAiAFwAIgAsACAAXAAiAFwAIgB9AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABUAGUAeAB0ACAAPQAgAFwAIgBcACIALAAgAGYAbgBFAHgAYwBlAHAAdABpAG8AbgAoAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwB0AHIAaQBjAHQALAAgAE4AKABTAHQAcgBpAGMAdAApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZQBsAGUAbQBlAG4AdABzACwAIABQAEEAUgBTAEUAXwBJAFMATwA4ADYAMAAxACgAVABlAHgAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXwBzAHQAcgBpAGMAdAAgACoAIAAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACAALAAgADEAKQAgAD0AIABGAEEATABTAEUAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4ALwBBAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAEQAYQB0AGUALAAgAEIASQBUAEEATgBEACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADIAKQAsACAANAApACAAPQAgADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABOACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADYAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAF8AaABhAHMARABhAHQAZQAgACoAIAAoACgAXwB5AGUAYQByACAAPAAgADEAOQAwADAAKQAgACsAIAAoAF8AeQBlAGEAcgAgAD4AIAA5ADkAOQA5ACkAKQAsACAAZgBuAEUAeABjAGUAcAB0AGkAbwBuACgAXAAiAE4AVQBNAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAsACAASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGEAdABlACwAIABJAEYAKABfAGgAYQBzAEQAYQB0AGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGAFMAKABfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAxACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEQAQQBUAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAANwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA4ACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMARABhAHQAZQAsACAARgBSAE8ATQBfAE8AUgBEAEkATgBBAEwAXwBEAEEAVABFACgAXwB5AGUAYQByACwAIABOACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADgAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARABBAFQARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AYwBEAGEAdABlACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAGMARABhAHQAZQAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwBjAEQAYQB0AGUALAAgADEALAAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB0AGUAVAB5AHAAZQAgAD0AIAAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGMARABhAHQAZQAsACAARgBSAE8ATQBfAFcARQBFAEsAXwBEAEEAVABFACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAA3ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AKABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAAOAApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARABBAFQARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAF8AYwBEAGEAdABlACwAIAAxACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABfAGMARABhAHQAZQAsACAAMQAsACAAMgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXwBjAEQAYQB0AGUALAAgADEALAAgADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAFQAaQBtAGUALAAgAEIASQBUAEEATgBEACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADIAKQAsACAAMgApACAAPQAgADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdABpAG0AZQAsACAASQBGACgAXwBoAGEAcwBUAGkAbQBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQASQBNAEUAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgASQBOAEQARQBYACgAXwBlAGwAZQBtAGUAbgB0AHMALAAgADEALAAgADkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAAxADAAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAAxADEAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZAB0ACwAIABfAGQAYQB0AGUAIAArACAAXwB0AGkAbQBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAYQBzAFQAWgAsACAAKABCAEkAVABBAE4ARAAoAEkATgBEAEUAWAAoAF8AZQBsAGUAbQBlAG4AdABzACwAIAAxACwAIAAyACkALAAgADEAKQAgAD0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AdAB6AG8ALAAgAEkARgAoAF8AaABhAHMAVABaACwAIABJAE4ARABFAFgAKABfAGUAbABlAG0AZQBuAHQAcwAsACAAMQAsACAAMQAyACkALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABfAGQAdAAsACAAXwB0AHoAbwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuAEMATwBOAFYARQBSAFQAXwBGAFIATwBNAF8ARABBAFQARQBcAG4AXABuAEMAbwBuAHYAZQByAHQAcwAgAGEAbgAgAEUAeABjAGUAbAAgAGQAYQB0AGUAIAB0AG8AIABJAFMATwAgAGYAbwByAG0AYQB0AHQAZQBkACAAdABlAHgAdAAuAFwAbgBFAHgAYQBtAHAAbABlACAAZgBvAHIAbQBhAHQAcwAgACgAbgBvAHQAIABlAHgAaABhAHUAcwB0AGkAdgBlACkAOgAgAFkAWQBZAFkALQBNAE0ALQBEAEQAVABoAGgAOgBtAG0AOgBzAHMALgBzAHMAcwArAGgAaAA6AG0AbQA6AHMAcwAsACAAWQBZAFkAWQAtAFcAdwB3AC0ARABUAGgAaAA6AG0AbQBaACwAIABUAGgAaABtAG0AcwBzAFwAbgBcAG4AUABhAHIAYQBtAGUAdABlAHIAcwBcAG4ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4ARABhAHQAZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIABkAGEAdABlACAAIAAgACAAfAAgAEEAbgAgAEUAeABjAGUAbAAgAGQAYQB0AGUAIABhAG4AZAAvAG8AcgAgAHQAaQBtAGUALgBcAG4AWwBUAGkAbQBlAFoAbwBuAGUATwBmAGYAcwBlAHQAXQAgAHwAIABkAGUAYwBpAG0AYQBsACAAfAAgAFQAaQBtAGUAIAB6AG8AbgBlACAAbwBmAGYAcwBlAHQAIABpAG4AIABtAGkAbgB1AHQAZQBzACAAZgByAG8AbQAgAFUAVABDACAALQA5ADAAMAAuAC4AKwA5ADAAMAAgAFwAbgBbAEIAYQBzAGkAYwBdACAAIAAgACAAIAAgACAAIAAgACAAfAAgAHMAdwBpAHQAYwBoACAAIAB8ACAAUgBlAHQAdQByAG4AIABpAG4AIABiAGEAcwBpAGMAIABmAG8AcgBtAGEAdAAgAGUAZwAgAFkAWQBZAFkATQBNAEQARABUAGgAaABtAG0AKwBoAGgAXABuAFsAUwBpAGcAbgBlAGQAXQAgACAAIAAgACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABBAGwAdwBhAHkAcwAgAHMAaQBnAG4AIAB5AGUAYQByACAAdgBhAGwAdQBlACAAZQBnACAAKwBZAFkAWQBZAC0ATQBNAC0ARABEAFwAbgBbAFAAcgBlAGMAaQBzAGkAbwBuAF0AIAAgACAAIAAgACAAfAAgAGkAbgB0AGUAZwBlAHIAIAB8ACAAUwBlAGwAZQBjAHQAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGwAZQB2AGUAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAwACAALQAgAEEAdQB0AG8AbQBhAHQAaQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADEAIAAtACAAWQBlAGEAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAyACAALQAgAE0AbwBuAHQAaAAvAFcAZQBlAGsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAMwAgAC0AIABEAGEAeQAvAE8AcgBkAGkAbgBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANAAgAC0AIABIAG8AdQByAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgADUAIAAtACAATQBpAG4AdQB0AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB8ACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAANgAgAC0AIABTAGUAYwBvAG4AZABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHwAIAAgACAAIAAgACAAIAAgACAAfAAgACAAIAA3ACAALQAgAEYAcgBhAGMAdABpAG8AbgBhAGwAXABuAFsATgBvAFQAaQBtAGUAWgBvAG4AZQBdACAAIAAgACAAIAB8ACAAcwB3AGkAdABjAGgAIAAgAHwAIABEAHIAbwBwACAAdABpAG0AZQAgAHoAbwBuAGUAIABmAHIAbwBtACAAbwB1AHQAcAB1AHQALgBcAG4AWwBOAG8AWgB1AGwAdQBdACAAIAAgACAAIAAgACAAIAAgAHwAIABzAHcAaQB0AGMAaAAgACAAfAAgAFUAcwBlACAAKwAwADAAOgAwADAAIABpAG4AcwB0AGUAYQBkACAAbwBmACAAWgAgAGYAbwByACAAVQBUAEMAIAB0AGkAbQBlACAAegBvAG4AZQAuAFwAbgAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AKgAvAFwAbgBDAE8ATgBWAEUAUgBUAF8ARgBSAE8ATQBfAEQAQQBUAEUAIAA9ACAATABBAE0AQgBEAEEAKABEAGEAdABlACwAIABbAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdABdACwAIABbAEIAYQBzAGkAYwBdACwAIABbAFMAaQBnAG4AZQBkAF0ALAAgAFsAUAByAGUAYwBpAHMAaQBvAG4AXQAsACAAWwBOAG8AVABpAG0AZQBaAG8AbgBlAF0ALAAgAFsATgBvAFoAdQBsAHUAXQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAATgBPAFQAKABJAFMATgBVAE0AQgBFAFIAKABEAGEAdABlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBoAGEAcwBEAGEAdABlACwAIABJAE4AVAAoAE4AKABEAGEAdABlACkAIAA8AD4AIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB5AGUAYQByACwAIABJAEYAKABfAGgAYQBzAEQAYQB0AGUALAAgAFkARQBBAFIAKABEAGEAdABlACkALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsACAASQBGACgAXwBoAGEAcwBEAGEAdABlACwAIABNAE8ATgBUAEgAKABEAGEAdABlACkALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAYQB5ACwAIABJAEYAKABfAGgAYQBzAEQAYQB0AGUALAAgAEQAQQBZACgARABhAHQAZQApACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AFMAZQBjADEALAAgAFIATwBVAE4ARAAoACgARABhAHQAZQAgAC0AIABJAE4AVAAoAE4AKABEAGEAdABlACkAKQApACAAKgAgADgANgA0ADAAMAAsACAAMwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AaABvAHUAcgAsACAASQBOAFQAKABfAHQAUwBlAGMAMQAgAC8AIAAzADYAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwB0AFMAZQBjADIALAAgAF8AdABTAGUAYwAxACAALQAgACgAXwBoAG8AdQByACAAKgAgADMANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AaQBuAHUAdABlACwAIABJAE4AVAAoAF8AdABTAGUAYwAyACAALwAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcwBlAGMAbwBuAGQALAAgAF8AdABTAGUAYwAyACAALQAgACgAXwBtAGkAbgB1AHQAZQAgACoAIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAE8AUgBNAEEAVABfAEkAUwBPADgANgAwADEAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOACgAXwBoAGEAcwBEAGEAdABlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHkAZQBhAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AbwBuAHQAaAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGgAbwB1AHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAG0AaQBuAHUAdABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAaQBtAGUAWgBvAG4AZQBPAGYAZgBzAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIAYQBzAGkAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAaQBnAG4AZQBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUAByAGUAYwBpAHMAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAG8AVABpAG0AZQBaAG8AbgBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBvAFoAdQBsAHUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIASQBTAE8AXwA4ADYAMAAxAC4ASQBTAF8AVgBBAEwASQBEAF8AWQBFAEEAUgAiACwAIgBJAFMATwBfADgANgAwADEALgBJAFMAXwBMAEUAQQBQAF8AWQBFAEEAUgAiACwAIgBJAFMATwBfADgANgAwADEALgBJAFMAXwBWAEEATABJAEQAXwBEAEEAVABFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEkAUwBfAFYAQQBMAEkARABfAFQASQBNAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ASQBTAF8AVgBBAEwASQBEAF8AVABJAE0ARQBfAFoATwBOAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ASQBTAF8AVgBBAEwASQBEAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ASQBTAF8AVgBBAEwASQBEAF8AVwBFAEUASwBfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AWQBFAEEAUgBfAEQAQQBZAF8AQwBPAFUATgBUACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFkARQBBAFIAXwBXAEUARQBLAF8AQwBPAFUATgBUACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEQAQQBZAF8ATwBSAEQASQBOAEEATAAiACwAIgBJAFMATwBfADgANgAwADEALgBGAFIATwBNAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARABBAFkAXwBPAEYAXwBXAEUARQBLACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEQAQQBZAF8ATwBGAF8AVwBFAEUASwBfAEYAUgBPAE0AXwBPAFIARABJAE4AQQBMACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFcARQBFAEsAXwBOAFUATQBCAEUAUgAiACwAIgBJAFMATwBfADgANgAwADEALgBXAEUARQBLAF8ATgBVAE0AQgBFAFIAXwBGAFIATwBNAF8ATwBSAEQASQBOAEEATAAiACwAIgBJAFMATwBfADgANgAwADEALgBUAE8AXwBXAEUARQBLAF8ARABBAFQARQAiACwAIgBJAFMATwBfADgANgAwADEALgBGAFIATwBNAF8AVwBFAEUASwBfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AVgBBAEwASQBEAEEAVABFAF8AQwBIAEEAUgBBAEMAVABFAFIAUwAiACwAIgBJAFMATwBfADgANgAwADEALgBQAEEAUgBTAEUAXwBEAEEAVABFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFAAQQBSAFMARQBfAFQASQBNAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AUABBAFIAUwBFAF8AVABJAE0ARQBfAFoATwBOAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AUABBAFIAUwBFAF8AUABBAFIAVABTACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAFAAQQBSAFMARQBfAEkAUwBPADgANgAwADEAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARgBPAFIATQBBAFQAXwBEAEEAVABFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEYATwBSAE0AQQBUAF8AVABJAE0ARQAiACwAIgBJAFMATwBfADgANgAwADEALgBGAE8AUgBNAEEAVABfAFQASQBNAEUAXwBaAE8ATgBFACIALAAiAEkAUwBPAF8AOAA2ADAAMQAuAEYATwBSAE0AQQBUAF8ATwBSAEQASQBOAEEATABfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4ARgBPAFIATQBBAFQAXwBXAEUARQBLAF8ARABBAFQARQAiACwAIgBJAFMATwBfADgANgAwADEALgBGAE8AUgBNAEEAVABfAEkAUwBPADgANgAwADEAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AQwBPAE4AVgBFAFIAVABfAFQATwBfAEQAQQBUAEUAIgAsACIASQBTAE8AXwA4ADYAMAAxAC4AQwBPAE4AVgBFAFIAVABfAEYAUgBPAE0AXwBEAEEAVABFACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIARABNAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
